--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4058" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4077" uniqueCount="567">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2250,6 +2250,10 @@
   </si>
   <si>
     <t>卖充值卡收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购动车票找零转存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2453,25 +2457,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2483,110 +2478,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <border>
         <left style="thin">
@@ -2657,36 +2562,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
       </font>
     </dxf>
@@ -2753,6 +2628,36 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -2764,13 +2669,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41597.607999652777" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1476">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41599.366765046296" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1485">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="消费记录明细"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-11-20T00:00:00" count="316">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-11-23T00:00:00" count="319">
         <d v="2011-09-09T00:00:00"/>
         <d v="2011-09-30T00:00:00"/>
         <d v="2011-11-28T00:00:00"/>
@@ -3082,6 +2987,9 @@
         <d v="2013-11-15T00:00:00"/>
         <d v="2013-11-18T00:00:00"/>
         <d v="2013-11-19T00:00:00"/>
+        <d v="2013-11-20T00:00:00"/>
+        <d v="2013-11-21T00:00:00"/>
+        <d v="2013-11-22T00:00:00"/>
         <m/>
         <d v="2011-01-12T00:00:00" u="1"/>
         <d v="2013-05-14T00:00:00" u="1"/>
@@ -3139,7 +3047,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1476">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1485">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -11992,6 +11900,60 @@
   </r>
   <r>
     <x v="311"/>
+    <x v="13"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="312"/>
+    <x v="20"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="312"/>
+    <x v="12"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="312"/>
+    <x v="19"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="312"/>
+    <x v="15"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="312"/>
+    <x v="8"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="312"/>
+    <x v="17"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="312"/>
+    <x v="10"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="313"/>
+    <x v="8"/>
+    <n v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="314"/>
     <x v="24"/>
     <m/>
     <x v="2"/>
@@ -12001,15 +11963,15 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:U412" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:U415" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="317">
-        <item m="1" x="312"/>
+      <items count="320">
         <item m="1" x="315"/>
+        <item m="1" x="318"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="314"/>
+        <item m="1" x="317"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -12209,7 +12171,7 @@
         <item x="198"/>
         <item x="199"/>
         <item x="200"/>
-        <item m="1" x="313"/>
+        <item m="1" x="316"/>
         <item x="201"/>
         <item x="202"/>
         <item x="203"/>
@@ -12321,6 +12283,9 @@
         <item x="309"/>
         <item x="310"/>
         <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12369,7 +12334,7 @@
     <field x="3"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="410">
+  <rowItems count="413">
     <i>
       <x/>
     </i>
@@ -13237,6 +13202,12 @@
     <i r="1">
       <x v="314"/>
     </i>
+    <i r="1">
+      <x v="315"/>
+    </i>
+    <i r="1">
+      <x v="316"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -13597,6 +13568,9 @@
     <i r="1">
       <x v="314"/>
     </i>
+    <i r="1">
+      <x v="317"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -13670,20 +13644,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="30">
+    <format dxfId="15">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="14">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -13822,20 +13796,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="26">
+    <format dxfId="11">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="10">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14135,11 +14109,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1476"/>
+  <dimension ref="A1:V1485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1458" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1480" sqref="F1480"/>
+      <pane ySplit="1" topLeftCell="A1467" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1488" sqref="E1488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14284,7 +14258,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -14304,7 +14278,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -14322,7 +14296,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -14340,7 +14314,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -14358,7 +14332,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -14376,7 +14350,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -14394,7 +14368,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -15204,7 +15178,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="23" t="s">
         <v>65</v>
       </c>
     </row>
@@ -15224,7 +15198,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="28"/>
+      <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -15242,7 +15216,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="28"/>
+      <c r="F61" s="24"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -16060,7 +16034,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="29"/>
+      <c r="F109" s="26"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -16078,7 +16052,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="30"/>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -16096,7 +16070,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="31"/>
+      <c r="F111" s="28"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -16233,7 +16207,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -16253,7 +16227,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="31"/>
+      <c r="F120" s="28"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -17150,7 +17124,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="29" t="s">
+      <c r="F172" s="26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -17170,7 +17144,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="30"/>
+      <c r="F173" s="27"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -17188,7 +17162,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="30"/>
+      <c r="F174" s="27"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -17206,7 +17180,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="31"/>
+      <c r="F175" s="28"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -19224,7 +19198,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="22" t="s">
+      <c r="F288" s="29" t="s">
         <v>202</v>
       </c>
     </row>
@@ -19244,7 +19218,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="26"/>
+      <c r="F289" s="31"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -19262,7 +19236,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="23"/>
+      <c r="F290" s="30"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -19280,7 +19254,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="22" t="s">
+      <c r="F291" s="29" t="s">
         <v>212</v>
       </c>
     </row>
@@ -19300,7 +19274,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="26"/>
+      <c r="F292" s="31"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -19318,7 +19292,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="26"/>
+      <c r="F293" s="31"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -19336,7 +19310,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="23"/>
+      <c r="F294" s="30"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -19354,7 +19328,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="22" t="s">
+      <c r="F295" s="29" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19374,7 +19348,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="23"/>
+      <c r="F296" s="30"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -19392,7 +19366,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="24" t="s">
+      <c r="F297" s="23" t="s">
         <v>207</v>
       </c>
     </row>
@@ -20269,7 +20243,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="22" t="s">
+      <c r="F342" s="29" t="s">
         <v>284</v>
       </c>
     </row>
@@ -20289,7 +20263,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="23"/>
+      <c r="F343" s="30"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -37917,7 +37891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1473" spans="1:4">
+    <row r="1473" spans="1:5">
       <c r="A1473" s="4">
         <v>41597</v>
       </c>
@@ -37928,7 +37902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1474" spans="1:4">
+    <row r="1474" spans="1:5">
       <c r="A1474" s="4">
         <v>41597</v>
       </c>
@@ -37939,7 +37913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1475" spans="1:4">
+    <row r="1475" spans="1:5">
       <c r="A1475" s="4">
         <v>41597</v>
       </c>
@@ -37950,7 +37924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1476" spans="1:4">
+    <row r="1476" spans="1:5">
       <c r="A1476" s="4">
         <v>41597</v>
       </c>
@@ -37964,32 +37938,137 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1477" spans="1:5">
+      <c r="A1477" s="4">
+        <v>41598</v>
+      </c>
+      <c r="B1477" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1477" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:5">
+      <c r="A1478" s="4">
+        <v>41599</v>
+      </c>
+      <c r="B1478" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1478" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:5">
+      <c r="A1479" s="4">
+        <v>41599</v>
+      </c>
+      <c r="B1479" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1479" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:5">
+      <c r="A1480" s="4">
+        <v>41599</v>
+      </c>
+      <c r="B1480" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1480" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:5">
+      <c r="A1481" s="4">
+        <v>41599</v>
+      </c>
+      <c r="B1481" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1481" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:5">
+      <c r="A1482" s="4">
+        <v>41599</v>
+      </c>
+      <c r="B1482" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1482" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:5">
+      <c r="A1483" s="4">
+        <v>41599</v>
+      </c>
+      <c r="B1483" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1483" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:5">
+      <c r="A1484" s="4">
+        <v>41599</v>
+      </c>
+      <c r="B1484" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1484" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:5">
+      <c r="A1485" s="4">
+        <v>41600</v>
+      </c>
+      <c r="B1485" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1485" s="1">
+        <v>7</v>
+      </c>
+      <c r="D1485" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1485" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F342:F343"/>
+    <mergeCell ref="F295:F296"/>
+    <mergeCell ref="F297:F298"/>
+    <mergeCell ref="F291:F294"/>
+    <mergeCell ref="F288:F290"/>
     <mergeCell ref="F6:F12"/>
     <mergeCell ref="F59:F62"/>
     <mergeCell ref="F109:F111"/>
     <mergeCell ref="F119:F120"/>
     <mergeCell ref="F172:F175"/>
-    <mergeCell ref="F342:F343"/>
-    <mergeCell ref="F295:F296"/>
-    <mergeCell ref="F297:F298"/>
-    <mergeCell ref="F291:F294"/>
-    <mergeCell ref="F288:F290"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1048576">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38008,7 +38087,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V412"/>
+  <dimension ref="A1:V415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
@@ -48006,87 +48085,41 @@
       <c r="U291" s="7"/>
     </row>
     <row r="292" spans="1:21">
-      <c r="A292" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B292" s="7">
-        <v>643.5</v>
-      </c>
-      <c r="C292" s="7">
-        <v>87</v>
-      </c>
-      <c r="D292" s="7">
-        <v>300</v>
-      </c>
-      <c r="E292" s="7">
-        <v>56</v>
-      </c>
-      <c r="F292" s="7">
-        <v>200</v>
-      </c>
-      <c r="G292" s="7">
-        <v>2023</v>
-      </c>
-      <c r="H292" s="7">
-        <v>555</v>
-      </c>
-      <c r="I292" s="7">
-        <v>2502.5</v>
-      </c>
-      <c r="J292" s="7">
-        <v>2982.4</v>
-      </c>
-      <c r="K292" s="7">
-        <v>230</v>
-      </c>
-      <c r="L292" s="7">
-        <v>1200</v>
-      </c>
-      <c r="M292" s="7">
-        <v>220</v>
-      </c>
-      <c r="N292" s="7">
-        <v>1220</v>
-      </c>
-      <c r="O292" s="7">
-        <v>1579</v>
-      </c>
-      <c r="P292" s="7">
-        <v>793</v>
-      </c>
-      <c r="Q292" s="7">
-        <v>1000</v>
-      </c>
-      <c r="R292" s="7">
-        <v>950</v>
-      </c>
-      <c r="S292" s="7">
-        <v>100</v>
-      </c>
-      <c r="T292" s="7">
-        <v>250</v>
-      </c>
-      <c r="U292" s="7">
-        <v>16891.400000000001</v>
-      </c>
+      <c r="A292" s="12">
+        <v>41598</v>
+      </c>
+      <c r="B292" s="7"/>
+      <c r="C292" s="7"/>
+      <c r="D292" s="7"/>
+      <c r="E292" s="7"/>
+      <c r="F292" s="7"/>
+      <c r="G292" s="7"/>
+      <c r="H292" s="7"/>
+      <c r="I292" s="7"/>
+      <c r="J292" s="7"/>
+      <c r="K292" s="7"/>
+      <c r="L292" s="7"/>
+      <c r="M292" s="7"/>
+      <c r="N292" s="7"/>
+      <c r="O292" s="7"/>
+      <c r="P292" s="7"/>
+      <c r="Q292" s="7"/>
+      <c r="R292" s="7"/>
+      <c r="S292" s="7"/>
+      <c r="T292" s="7"/>
+      <c r="U292" s="7"/>
     </row>
     <row r="293" spans="1:21">
       <c r="A293" s="12">
-        <v>40875</v>
+        <v>41599</v>
       </c>
       <c r="B293" s="7"/>
-      <c r="C293" s="7">
-        <v>63</v>
-      </c>
+      <c r="C293" s="7"/>
       <c r="D293" s="7"/>
-      <c r="E293" s="7">
-        <v>56</v>
-      </c>
+      <c r="E293" s="7"/>
       <c r="F293" s="7"/>
       <c r="G293" s="7"/>
-      <c r="H293" s="7">
-        <v>0</v>
-      </c>
+      <c r="H293" s="7"/>
       <c r="I293" s="7"/>
       <c r="J293" s="7"/>
       <c r="K293" s="7"/>
@@ -48099,52 +48132,90 @@
       <c r="R293" s="7"/>
       <c r="S293" s="7"/>
       <c r="T293" s="7"/>
-      <c r="U293" s="7">
-        <v>119</v>
-      </c>
+      <c r="U293" s="7"/>
     </row>
     <row r="294" spans="1:21">
-      <c r="A294" s="12">
-        <v>40879</v>
+      <c r="A294" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B294" s="7">
-        <v>7</v>
-      </c>
-      <c r="C294" s="7"/>
-      <c r="D294" s="7"/>
-      <c r="E294" s="7"/>
-      <c r="F294" s="7"/>
-      <c r="G294" s="7"/>
-      <c r="H294" s="7"/>
-      <c r="I294" s="7"/>
-      <c r="J294" s="7"/>
-      <c r="K294" s="7"/>
-      <c r="L294" s="7"/>
-      <c r="M294" s="7"/>
-      <c r="N294" s="7"/>
-      <c r="O294" s="7"/>
-      <c r="P294" s="7"/>
-      <c r="Q294" s="7"/>
-      <c r="R294" s="7"/>
-      <c r="S294" s="7"/>
-      <c r="T294" s="7"/>
+        <v>650.5</v>
+      </c>
+      <c r="C294" s="7">
+        <v>87</v>
+      </c>
+      <c r="D294" s="7">
+        <v>300</v>
+      </c>
+      <c r="E294" s="7">
+        <v>56</v>
+      </c>
+      <c r="F294" s="7">
+        <v>200</v>
+      </c>
+      <c r="G294" s="7">
+        <v>2023</v>
+      </c>
+      <c r="H294" s="7">
+        <v>555</v>
+      </c>
+      <c r="I294" s="7">
+        <v>2502.5</v>
+      </c>
+      <c r="J294" s="7">
+        <v>2982.4</v>
+      </c>
+      <c r="K294" s="7">
+        <v>230</v>
+      </c>
+      <c r="L294" s="7">
+        <v>1200</v>
+      </c>
+      <c r="M294" s="7">
+        <v>220</v>
+      </c>
+      <c r="N294" s="7">
+        <v>1220</v>
+      </c>
+      <c r="O294" s="7">
+        <v>1579</v>
+      </c>
+      <c r="P294" s="7">
+        <v>793</v>
+      </c>
+      <c r="Q294" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R294" s="7">
+        <v>950</v>
+      </c>
+      <c r="S294" s="7">
+        <v>100</v>
+      </c>
+      <c r="T294" s="7">
+        <v>250</v>
+      </c>
       <c r="U294" s="7">
-        <v>7</v>
+        <v>16898.400000000001</v>
       </c>
     </row>
     <row r="295" spans="1:21">
       <c r="A295" s="12">
-        <v>40883</v>
+        <v>40875</v>
       </c>
       <c r="B295" s="7"/>
-      <c r="C295" s="7"/>
+      <c r="C295" s="7">
+        <v>63</v>
+      </c>
       <c r="D295" s="7"/>
-      <c r="E295" s="7"/>
+      <c r="E295" s="7">
+        <v>56</v>
+      </c>
       <c r="F295" s="7"/>
-      <c r="G295" s="7">
-        <v>50</v>
-      </c>
-      <c r="H295" s="7"/>
+      <c r="G295" s="7"/>
+      <c r="H295" s="7">
+        <v>0</v>
+      </c>
       <c r="I295" s="7"/>
       <c r="J295" s="7"/>
       <c r="K295" s="7"/>
@@ -48158,23 +48229,23 @@
       <c r="S295" s="7"/>
       <c r="T295" s="7"/>
       <c r="U295" s="7">
-        <v>50</v>
+        <v>119</v>
       </c>
     </row>
     <row r="296" spans="1:21">
       <c r="A296" s="12">
-        <v>40891</v>
-      </c>
-      <c r="B296" s="7"/>
+        <v>40879</v>
+      </c>
+      <c r="B296" s="7">
+        <v>7</v>
+      </c>
       <c r="C296" s="7"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
       <c r="F296" s="7"/>
       <c r="G296" s="7"/>
       <c r="H296" s="7"/>
-      <c r="I296" s="7">
-        <v>65</v>
-      </c>
+      <c r="I296" s="7"/>
       <c r="J296" s="7"/>
       <c r="K296" s="7"/>
       <c r="L296" s="7"/>
@@ -48187,12 +48258,12 @@
       <c r="S296" s="7"/>
       <c r="T296" s="7"/>
       <c r="U296" s="7">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297" spans="1:21">
       <c r="A297" s="12">
-        <v>40892</v>
+        <v>40883</v>
       </c>
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
@@ -48200,12 +48271,10 @@
       <c r="E297" s="7"/>
       <c r="F297" s="7"/>
       <c r="G297" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H297" s="7"/>
-      <c r="I297" s="7">
-        <v>68</v>
-      </c>
+      <c r="I297" s="7"/>
       <c r="J297" s="7"/>
       <c r="K297" s="7"/>
       <c r="L297" s="7"/>
@@ -48218,12 +48287,12 @@
       <c r="S297" s="7"/>
       <c r="T297" s="7"/>
       <c r="U297" s="7">
-        <v>168</v>
+        <v>50</v>
       </c>
     </row>
     <row r="298" spans="1:21">
       <c r="A298" s="12">
-        <v>40913</v>
+        <v>40891</v>
       </c>
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
@@ -48233,7 +48302,7 @@
       <c r="G298" s="7"/>
       <c r="H298" s="7"/>
       <c r="I298" s="7">
-        <v>679.5</v>
+        <v>65</v>
       </c>
       <c r="J298" s="7"/>
       <c r="K298" s="7"/>
@@ -48247,12 +48316,12 @@
       <c r="S298" s="7"/>
       <c r="T298" s="7"/>
       <c r="U298" s="7">
-        <v>679.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="299" spans="1:21">
       <c r="A299" s="12">
-        <v>40917</v>
+        <v>40892</v>
       </c>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
@@ -48263,7 +48332,9 @@
         <v>100</v>
       </c>
       <c r="H299" s="7"/>
-      <c r="I299" s="7"/>
+      <c r="I299" s="7">
+        <v>68</v>
+      </c>
       <c r="J299" s="7"/>
       <c r="K299" s="7"/>
       <c r="L299" s="7"/>
@@ -48276,12 +48347,12 @@
       <c r="S299" s="7"/>
       <c r="T299" s="7"/>
       <c r="U299" s="7">
-        <v>100</v>
+        <v>168</v>
       </c>
     </row>
     <row r="300" spans="1:21">
       <c r="A300" s="12">
-        <v>40919</v>
+        <v>40913</v>
       </c>
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
@@ -48290,10 +48361,10 @@
       <c r="F300" s="7"/>
       <c r="G300" s="7"/>
       <c r="H300" s="7"/>
-      <c r="I300" s="7"/>
-      <c r="J300" s="7">
-        <v>15</v>
-      </c>
+      <c r="I300" s="7">
+        <v>679.5</v>
+      </c>
+      <c r="J300" s="7"/>
       <c r="K300" s="7"/>
       <c r="L300" s="7"/>
       <c r="M300" s="7"/>
@@ -48305,23 +48376,21 @@
       <c r="S300" s="7"/>
       <c r="T300" s="7"/>
       <c r="U300" s="7">
-        <v>15</v>
+        <v>679.5</v>
       </c>
     </row>
     <row r="301" spans="1:21">
       <c r="A301" s="12">
-        <v>40921</v>
+        <v>40917</v>
       </c>
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
-      <c r="D301" s="7">
+      <c r="D301" s="7"/>
+      <c r="E301" s="7"/>
+      <c r="F301" s="7"/>
+      <c r="G301" s="7">
         <v>100</v>
       </c>
-      <c r="E301" s="7"/>
-      <c r="F301" s="7">
-        <v>100</v>
-      </c>
-      <c r="G301" s="7"/>
       <c r="H301" s="7"/>
       <c r="I301" s="7"/>
       <c r="J301" s="7"/>
@@ -48336,12 +48405,12 @@
       <c r="S301" s="7"/>
       <c r="T301" s="7"/>
       <c r="U301" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="302" spans="1:21">
       <c r="A302" s="12">
-        <v>40925</v>
+        <v>40919</v>
       </c>
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
@@ -48352,7 +48421,7 @@
       <c r="H302" s="7"/>
       <c r="I302" s="7"/>
       <c r="J302" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K302" s="7"/>
       <c r="L302" s="7"/>
@@ -48365,24 +48434,26 @@
       <c r="S302" s="7"/>
       <c r="T302" s="7"/>
       <c r="U302" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="303" spans="1:21">
       <c r="A303" s="12">
-        <v>40926</v>
+        <v>40921</v>
       </c>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
-      <c r="D303" s="7"/>
+      <c r="D303" s="7">
+        <v>100</v>
+      </c>
       <c r="E303" s="7"/>
-      <c r="F303" s="7"/>
+      <c r="F303" s="7">
+        <v>100</v>
+      </c>
       <c r="G303" s="7"/>
       <c r="H303" s="7"/>
       <c r="I303" s="7"/>
-      <c r="J303" s="7">
-        <v>28</v>
-      </c>
+      <c r="J303" s="7"/>
       <c r="K303" s="7"/>
       <c r="L303" s="7"/>
       <c r="M303" s="7"/>
@@ -48394,12 +48465,12 @@
       <c r="S303" s="7"/>
       <c r="T303" s="7"/>
       <c r="U303" s="7">
-        <v>28</v>
+        <v>200</v>
       </c>
     </row>
     <row r="304" spans="1:21">
       <c r="A304" s="12">
-        <v>40940</v>
+        <v>40925</v>
       </c>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -48409,10 +48480,10 @@
       <c r="G304" s="7"/>
       <c r="H304" s="7"/>
       <c r="I304" s="7"/>
-      <c r="J304" s="7"/>
-      <c r="K304" s="7">
-        <v>100</v>
-      </c>
+      <c r="J304" s="7">
+        <v>14</v>
+      </c>
+      <c r="K304" s="7"/>
       <c r="L304" s="7"/>
       <c r="M304" s="7"/>
       <c r="N304" s="7"/>
@@ -48423,12 +48494,12 @@
       <c r="S304" s="7"/>
       <c r="T304" s="7"/>
       <c r="U304" s="7">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305" spans="1:21">
       <c r="A305" s="12">
-        <v>40942</v>
+        <v>40926</v>
       </c>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
@@ -48438,10 +48509,10 @@
       <c r="G305" s="7"/>
       <c r="H305" s="7"/>
       <c r="I305" s="7"/>
-      <c r="J305" s="7"/>
-      <c r="K305" s="7">
-        <v>100</v>
-      </c>
+      <c r="J305" s="7">
+        <v>28</v>
+      </c>
+      <c r="K305" s="7"/>
       <c r="L305" s="7"/>
       <c r="M305" s="7"/>
       <c r="N305" s="7"/>
@@ -48452,12 +48523,12 @@
       <c r="S305" s="7"/>
       <c r="T305" s="7"/>
       <c r="U305" s="7">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="306" spans="1:21">
       <c r="A306" s="12">
-        <v>40947</v>
+        <v>40940</v>
       </c>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -48467,10 +48538,10 @@
       <c r="G306" s="7"/>
       <c r="H306" s="7"/>
       <c r="I306" s="7"/>
-      <c r="J306" s="7">
+      <c r="J306" s="7"/>
+      <c r="K306" s="7">
         <v>100</v>
       </c>
-      <c r="K306" s="7"/>
       <c r="L306" s="7"/>
       <c r="M306" s="7"/>
       <c r="N306" s="7"/>
@@ -48486,7 +48557,7 @@
     </row>
     <row r="307" spans="1:21">
       <c r="A307" s="12">
-        <v>40954</v>
+        <v>40942</v>
       </c>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
@@ -48494,12 +48565,12 @@
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
       <c r="G307" s="7"/>
-      <c r="H307" s="7">
-        <v>100</v>
-      </c>
+      <c r="H307" s="7"/>
       <c r="I307" s="7"/>
       <c r="J307" s="7"/>
-      <c r="K307" s="7"/>
+      <c r="K307" s="7">
+        <v>100</v>
+      </c>
       <c r="L307" s="7"/>
       <c r="M307" s="7"/>
       <c r="N307" s="7"/>
@@ -48515,7 +48586,7 @@
     </row>
     <row r="308" spans="1:21">
       <c r="A308" s="12">
-        <v>40973</v>
+        <v>40947</v>
       </c>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -48525,15 +48596,13 @@
       <c r="G308" s="7"/>
       <c r="H308" s="7"/>
       <c r="I308" s="7"/>
-      <c r="J308" s="7"/>
-      <c r="K308" s="7">
-        <v>30</v>
-      </c>
+      <c r="J308" s="7">
+        <v>100</v>
+      </c>
+      <c r="K308" s="7"/>
       <c r="L308" s="7"/>
       <c r="M308" s="7"/>
-      <c r="N308" s="7">
-        <v>100</v>
-      </c>
+      <c r="N308" s="7"/>
       <c r="O308" s="7"/>
       <c r="P308" s="7"/>
       <c r="Q308" s="7"/>
@@ -48541,12 +48610,12 @@
       <c r="S308" s="7"/>
       <c r="T308" s="7"/>
       <c r="U308" s="7">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="309" spans="1:21">
       <c r="A309" s="12">
-        <v>40974</v>
+        <v>40954</v>
       </c>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -48575,7 +48644,7 @@
     </row>
     <row r="310" spans="1:21">
       <c r="A310" s="12">
-        <v>40981</v>
+        <v>40973</v>
       </c>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -48583,17 +48652,17 @@
       <c r="E310" s="7"/>
       <c r="F310" s="7"/>
       <c r="G310" s="7"/>
-      <c r="H310" s="7">
-        <v>100</v>
-      </c>
-      <c r="I310" s="7">
-        <v>300</v>
-      </c>
+      <c r="H310" s="7"/>
+      <c r="I310" s="7"/>
       <c r="J310" s="7"/>
-      <c r="K310" s="7"/>
+      <c r="K310" s="7">
+        <v>30</v>
+      </c>
       <c r="L310" s="7"/>
       <c r="M310" s="7"/>
-      <c r="N310" s="7"/>
+      <c r="N310" s="7">
+        <v>100</v>
+      </c>
       <c r="O310" s="7"/>
       <c r="P310" s="7"/>
       <c r="Q310" s="7"/>
@@ -48601,12 +48670,12 @@
       <c r="S310" s="7"/>
       <c r="T310" s="7"/>
       <c r="U310" s="7">
-        <v>400</v>
+        <v>130</v>
       </c>
     </row>
     <row r="311" spans="1:21">
       <c r="A311" s="12">
-        <v>41032</v>
+        <v>40974</v>
       </c>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -48614,16 +48683,14 @@
       <c r="E311" s="7"/>
       <c r="F311" s="7"/>
       <c r="G311" s="7"/>
-      <c r="H311" s="7"/>
+      <c r="H311" s="7">
+        <v>100</v>
+      </c>
       <c r="I311" s="7"/>
       <c r="J311" s="7"/>
       <c r="K311" s="7"/>
-      <c r="L311" s="7">
-        <v>100</v>
-      </c>
-      <c r="M311" s="7">
-        <v>100</v>
-      </c>
+      <c r="L311" s="7"/>
+      <c r="M311" s="7"/>
       <c r="N311" s="7"/>
       <c r="O311" s="7"/>
       <c r="P311" s="7"/>
@@ -48632,12 +48699,12 @@
       <c r="S311" s="7"/>
       <c r="T311" s="7"/>
       <c r="U311" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="312" spans="1:21">
       <c r="A312" s="12">
-        <v>41037</v>
+        <v>40981</v>
       </c>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -48645,15 +48712,17 @@
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
       <c r="G312" s="7"/>
-      <c r="H312" s="7"/>
-      <c r="I312" s="7"/>
+      <c r="H312" s="7">
+        <v>100</v>
+      </c>
+      <c r="I312" s="7">
+        <v>300</v>
+      </c>
       <c r="J312" s="7"/>
       <c r="K312" s="7"/>
       <c r="L312" s="7"/>
       <c r="M312" s="7"/>
-      <c r="N312" s="7">
-        <v>100</v>
-      </c>
+      <c r="N312" s="7"/>
       <c r="O312" s="7"/>
       <c r="P312" s="7"/>
       <c r="Q312" s="7"/>
@@ -48661,12 +48730,12 @@
       <c r="S312" s="7"/>
       <c r="T312" s="7"/>
       <c r="U312" s="7">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="313" spans="1:21">
       <c r="A313" s="12">
-        <v>41039</v>
+        <v>41032</v>
       </c>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -48678,24 +48747,26 @@
       <c r="I313" s="7"/>
       <c r="J313" s="7"/>
       <c r="K313" s="7"/>
-      <c r="L313" s="7"/>
-      <c r="M313" s="7"/>
+      <c r="L313" s="7">
+        <v>100</v>
+      </c>
+      <c r="M313" s="7">
+        <v>100</v>
+      </c>
       <c r="N313" s="7"/>
-      <c r="O313" s="7">
-        <v>35</v>
-      </c>
+      <c r="O313" s="7"/>
       <c r="P313" s="7"/>
       <c r="Q313" s="7"/>
       <c r="R313" s="7"/>
       <c r="S313" s="7"/>
       <c r="T313" s="7"/>
       <c r="U313" s="7">
-        <v>35</v>
+        <v>200</v>
       </c>
     </row>
     <row r="314" spans="1:21">
       <c r="A314" s="12">
-        <v>41044</v>
+        <v>41037</v>
       </c>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -48709,31 +48780,29 @@
       <c r="K314" s="7"/>
       <c r="L314" s="7"/>
       <c r="M314" s="7"/>
-      <c r="N314" s="7"/>
-      <c r="O314" s="7">
-        <v>20</v>
-      </c>
+      <c r="N314" s="7">
+        <v>100</v>
+      </c>
+      <c r="O314" s="7"/>
       <c r="P314" s="7"/>
       <c r="Q314" s="7"/>
       <c r="R314" s="7"/>
       <c r="S314" s="7"/>
       <c r="T314" s="7"/>
       <c r="U314" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="315" spans="1:21">
       <c r="A315" s="12">
-        <v>41050</v>
+        <v>41039</v>
       </c>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
       <c r="D315" s="7"/>
       <c r="E315" s="7"/>
       <c r="F315" s="7"/>
-      <c r="G315" s="7">
-        <v>89</v>
-      </c>
+      <c r="G315" s="7"/>
       <c r="H315" s="7"/>
       <c r="I315" s="7"/>
       <c r="J315" s="7"/>
@@ -48741,19 +48810,21 @@
       <c r="L315" s="7"/>
       <c r="M315" s="7"/>
       <c r="N315" s="7"/>
-      <c r="O315" s="7"/>
+      <c r="O315" s="7">
+        <v>35</v>
+      </c>
       <c r="P315" s="7"/>
       <c r="Q315" s="7"/>
       <c r="R315" s="7"/>
       <c r="S315" s="7"/>
       <c r="T315" s="7"/>
       <c r="U315" s="7">
-        <v>89</v>
+        <v>35</v>
       </c>
     </row>
     <row r="316" spans="1:21">
       <c r="A316" s="12">
-        <v>41057</v>
+        <v>41044</v>
       </c>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -48763,38 +48834,38 @@
       <c r="G316" s="7"/>
       <c r="H316" s="7"/>
       <c r="I316" s="7"/>
-      <c r="J316" s="7">
-        <v>300</v>
-      </c>
+      <c r="J316" s="7"/>
       <c r="K316" s="7"/>
       <c r="L316" s="7"/>
       <c r="M316" s="7"/>
       <c r="N316" s="7"/>
-      <c r="O316" s="7"/>
+      <c r="O316" s="7">
+        <v>20</v>
+      </c>
       <c r="P316" s="7"/>
       <c r="Q316" s="7"/>
       <c r="R316" s="7"/>
       <c r="S316" s="7"/>
       <c r="T316" s="7"/>
       <c r="U316" s="7">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="317" spans="1:21">
       <c r="A317" s="12">
-        <v>41060</v>
+        <v>41050</v>
       </c>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
       <c r="D317" s="7"/>
       <c r="E317" s="7"/>
       <c r="F317" s="7"/>
-      <c r="G317" s="7"/>
+      <c r="G317" s="7">
+        <v>89</v>
+      </c>
       <c r="H317" s="7"/>
       <c r="I317" s="7"/>
-      <c r="J317" s="7">
-        <v>10.1</v>
-      </c>
+      <c r="J317" s="7"/>
       <c r="K317" s="7"/>
       <c r="L317" s="7"/>
       <c r="M317" s="7"/>
@@ -48806,24 +48877,24 @@
       <c r="S317" s="7"/>
       <c r="T317" s="7"/>
       <c r="U317" s="7">
-        <v>10.1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="318" spans="1:21">
       <c r="A318" s="12">
-        <v>41066</v>
+        <v>41057</v>
       </c>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
       <c r="D318" s="7"/>
       <c r="E318" s="7"/>
       <c r="F318" s="7"/>
-      <c r="G318" s="7">
-        <v>300</v>
-      </c>
+      <c r="G318" s="7"/>
       <c r="H318" s="7"/>
       <c r="I318" s="7"/>
-      <c r="J318" s="7"/>
+      <c r="J318" s="7">
+        <v>300</v>
+      </c>
       <c r="K318" s="7"/>
       <c r="L318" s="7"/>
       <c r="M318" s="7"/>
@@ -48840,7 +48911,7 @@
     </row>
     <row r="319" spans="1:21">
       <c r="A319" s="12">
-        <v>41070</v>
+        <v>41060</v>
       </c>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -48851,7 +48922,7 @@
       <c r="H319" s="7"/>
       <c r="I319" s="7"/>
       <c r="J319" s="7">
-        <v>130</v>
+        <v>10.1</v>
       </c>
       <c r="K319" s="7"/>
       <c r="L319" s="7"/>
@@ -48864,24 +48935,24 @@
       <c r="S319" s="7"/>
       <c r="T319" s="7"/>
       <c r="U319" s="7">
-        <v>130</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="320" spans="1:21">
       <c r="A320" s="12">
-        <v>41071</v>
+        <v>41066</v>
       </c>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
       <c r="D320" s="7"/>
       <c r="E320" s="7"/>
       <c r="F320" s="7"/>
-      <c r="G320" s="7"/>
+      <c r="G320" s="7">
+        <v>300</v>
+      </c>
       <c r="H320" s="7"/>
       <c r="I320" s="7"/>
-      <c r="J320" s="7">
-        <v>81.400000000000006</v>
-      </c>
+      <c r="J320" s="7"/>
       <c r="K320" s="7"/>
       <c r="L320" s="7"/>
       <c r="M320" s="7"/>
@@ -48893,12 +48964,12 @@
       <c r="S320" s="7"/>
       <c r="T320" s="7"/>
       <c r="U320" s="7">
-        <v>81.400000000000006</v>
+        <v>300</v>
       </c>
     </row>
     <row r="321" spans="1:21">
       <c r="A321" s="12">
-        <v>41072</v>
+        <v>41070</v>
       </c>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -48909,7 +48980,7 @@
       <c r="H321" s="7"/>
       <c r="I321" s="7"/>
       <c r="J321" s="7">
-        <v>77.599999999999994</v>
+        <v>130</v>
       </c>
       <c r="K321" s="7"/>
       <c r="L321" s="7"/>
@@ -48922,25 +48993,23 @@
       <c r="S321" s="7"/>
       <c r="T321" s="7"/>
       <c r="U321" s="7">
-        <v>77.599999999999994</v>
+        <v>130</v>
       </c>
     </row>
     <row r="322" spans="1:21">
       <c r="A322" s="12">
-        <v>41078</v>
+        <v>41071</v>
       </c>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
       <c r="D322" s="7"/>
       <c r="E322" s="7"/>
       <c r="F322" s="7"/>
-      <c r="G322" s="7">
-        <v>47</v>
-      </c>
+      <c r="G322" s="7"/>
       <c r="H322" s="7"/>
       <c r="I322" s="7"/>
       <c r="J322" s="7">
-        <v>50</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="K322" s="7"/>
       <c r="L322" s="7"/>
@@ -48953,12 +49022,12 @@
       <c r="S322" s="7"/>
       <c r="T322" s="7"/>
       <c r="U322" s="7">
-        <v>97</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="323" spans="1:21">
       <c r="A323" s="12">
-        <v>41082</v>
+        <v>41072</v>
       </c>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -48969,7 +49038,7 @@
       <c r="H323" s="7"/>
       <c r="I323" s="7"/>
       <c r="J323" s="7">
-        <v>98</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="K323" s="7"/>
       <c r="L323" s="7"/>
@@ -48982,23 +49051,25 @@
       <c r="S323" s="7"/>
       <c r="T323" s="7"/>
       <c r="U323" s="7">
-        <v>98</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="324" spans="1:21">
       <c r="A324" s="12">
-        <v>41083</v>
+        <v>41078</v>
       </c>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
-      <c r="G324" s="7"/>
+      <c r="G324" s="7">
+        <v>47</v>
+      </c>
       <c r="H324" s="7"/>
       <c r="I324" s="7"/>
       <c r="J324" s="7">
-        <v>39.9</v>
+        <v>50</v>
       </c>
       <c r="K324" s="7"/>
       <c r="L324" s="7"/>
@@ -49011,24 +49082,24 @@
       <c r="S324" s="7"/>
       <c r="T324" s="7"/>
       <c r="U324" s="7">
-        <v>39.9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="325" spans="1:21">
       <c r="A325" s="12">
-        <v>41085</v>
+        <v>41082</v>
       </c>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
       <c r="D325" s="7"/>
       <c r="E325" s="7"/>
       <c r="F325" s="7"/>
-      <c r="G325" s="7">
-        <v>300</v>
-      </c>
+      <c r="G325" s="7"/>
       <c r="H325" s="7"/>
       <c r="I325" s="7"/>
-      <c r="J325" s="7"/>
+      <c r="J325" s="7">
+        <v>98</v>
+      </c>
       <c r="K325" s="7"/>
       <c r="L325" s="7"/>
       <c r="M325" s="7"/>
@@ -49040,12 +49111,12 @@
       <c r="S325" s="7"/>
       <c r="T325" s="7"/>
       <c r="U325" s="7">
-        <v>300</v>
+        <v>98</v>
       </c>
     </row>
     <row r="326" spans="1:21">
       <c r="A326" s="12">
-        <v>41088</v>
+        <v>41083</v>
       </c>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -49056,7 +49127,7 @@
       <c r="H326" s="7"/>
       <c r="I326" s="7"/>
       <c r="J326" s="7">
-        <v>20</v>
+        <v>39.9</v>
       </c>
       <c r="K326" s="7"/>
       <c r="L326" s="7"/>
@@ -49069,19 +49140,21 @@
       <c r="S326" s="7"/>
       <c r="T326" s="7"/>
       <c r="U326" s="7">
-        <v>20</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="327" spans="1:21">
       <c r="A327" s="12">
-        <v>41092</v>
+        <v>41085</v>
       </c>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
       <c r="D327" s="7"/>
       <c r="E327" s="7"/>
       <c r="F327" s="7"/>
-      <c r="G327" s="7"/>
+      <c r="G327" s="7">
+        <v>300</v>
+      </c>
       <c r="H327" s="7"/>
       <c r="I327" s="7"/>
       <c r="J327" s="7"/>
@@ -49090,20 +49163,18 @@
       <c r="M327" s="7"/>
       <c r="N327" s="7"/>
       <c r="O327" s="7"/>
-      <c r="P327" s="7">
-        <v>93</v>
-      </c>
+      <c r="P327" s="7"/>
       <c r="Q327" s="7"/>
       <c r="R327" s="7"/>
       <c r="S327" s="7"/>
       <c r="T327" s="7"/>
       <c r="U327" s="7">
-        <v>93</v>
+        <v>300</v>
       </c>
     </row>
     <row r="328" spans="1:21">
       <c r="A328" s="12">
-        <v>41093</v>
+        <v>41088</v>
       </c>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -49114,7 +49185,7 @@
       <c r="H328" s="7"/>
       <c r="I328" s="7"/>
       <c r="J328" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K328" s="7"/>
       <c r="L328" s="7"/>
@@ -49127,43 +49198,41 @@
       <c r="S328" s="7"/>
       <c r="T328" s="7"/>
       <c r="U328" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="329" spans="1:21">
       <c r="A329" s="12">
-        <v>41095</v>
+        <v>41092</v>
       </c>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
-      <c r="G329" s="7">
-        <v>70</v>
-      </c>
+      <c r="G329" s="7"/>
       <c r="H329" s="7"/>
       <c r="I329" s="7"/>
-      <c r="J329" s="7">
-        <v>98</v>
-      </c>
+      <c r="J329" s="7"/>
       <c r="K329" s="7"/>
       <c r="L329" s="7"/>
       <c r="M329" s="7"/>
       <c r="N329" s="7"/>
       <c r="O329" s="7"/>
-      <c r="P329" s="7"/>
+      <c r="P329" s="7">
+        <v>93</v>
+      </c>
       <c r="Q329" s="7"/>
       <c r="R329" s="7"/>
       <c r="S329" s="7"/>
       <c r="T329" s="7"/>
       <c r="U329" s="7">
-        <v>168</v>
+        <v>93</v>
       </c>
     </row>
     <row r="330" spans="1:21">
       <c r="A330" s="12">
-        <v>41100</v>
+        <v>41093</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -49172,10 +49241,10 @@
       <c r="F330" s="7"/>
       <c r="G330" s="7"/>
       <c r="H330" s="7"/>
-      <c r="I330" s="7">
-        <v>16</v>
-      </c>
-      <c r="J330" s="7"/>
+      <c r="I330" s="7"/>
+      <c r="J330" s="7">
+        <v>100</v>
+      </c>
       <c r="K330" s="7"/>
       <c r="L330" s="7"/>
       <c r="M330" s="7"/>
@@ -49187,24 +49256,26 @@
       <c r="S330" s="7"/>
       <c r="T330" s="7"/>
       <c r="U330" s="7">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="331" spans="1:21">
       <c r="A331" s="12">
-        <v>41108</v>
+        <v>41095</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
-      <c r="G331" s="7"/>
+      <c r="G331" s="7">
+        <v>70</v>
+      </c>
       <c r="H331" s="7"/>
-      <c r="I331" s="7">
-        <v>63</v>
-      </c>
-      <c r="J331" s="7"/>
+      <c r="I331" s="7"/>
+      <c r="J331" s="7">
+        <v>98</v>
+      </c>
       <c r="K331" s="7"/>
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
@@ -49216,12 +49287,12 @@
       <c r="S331" s="7"/>
       <c r="T331" s="7"/>
       <c r="U331" s="7">
-        <v>63</v>
+        <v>168</v>
       </c>
     </row>
     <row r="332" spans="1:21">
       <c r="A332" s="12">
-        <v>41110</v>
+        <v>41100</v>
       </c>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -49231,7 +49302,7 @@
       <c r="G332" s="7"/>
       <c r="H332" s="7"/>
       <c r="I332" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J332" s="7"/>
       <c r="K332" s="7"/>
@@ -49245,12 +49316,12 @@
       <c r="S332" s="7"/>
       <c r="T332" s="7"/>
       <c r="U332" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="333" spans="1:21">
       <c r="A333" s="12">
-        <v>41116</v>
+        <v>41108</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -49260,7 +49331,7 @@
       <c r="G333" s="7"/>
       <c r="H333" s="7"/>
       <c r="I333" s="7">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="J333" s="7"/>
       <c r="K333" s="7"/>
@@ -49274,12 +49345,12 @@
       <c r="S333" s="7"/>
       <c r="T333" s="7"/>
       <c r="U333" s="7">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="334" spans="1:21">
       <c r="A334" s="12">
-        <v>41136</v>
+        <v>41110</v>
       </c>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -49287,11 +49358,9 @@
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
       <c r="G334" s="7"/>
-      <c r="H334" s="7">
-        <v>55</v>
-      </c>
+      <c r="H334" s="7"/>
       <c r="I334" s="7">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="J334" s="7"/>
       <c r="K334" s="7"/>
@@ -49305,23 +49374,23 @@
       <c r="S334" s="7"/>
       <c r="T334" s="7"/>
       <c r="U334" s="7">
-        <v>94</v>
+        <v>15</v>
       </c>
     </row>
     <row r="335" spans="1:21">
       <c r="A335" s="12">
-        <v>41138</v>
+        <v>41116</v>
       </c>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
       <c r="D335" s="7"/>
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
-      <c r="G335" s="7">
-        <v>100.4</v>
-      </c>
+      <c r="G335" s="7"/>
       <c r="H335" s="7"/>
-      <c r="I335" s="7"/>
+      <c r="I335" s="7">
+        <v>83</v>
+      </c>
       <c r="J335" s="7"/>
       <c r="K335" s="7"/>
       <c r="L335" s="7"/>
@@ -49334,12 +49403,12 @@
       <c r="S335" s="7"/>
       <c r="T335" s="7"/>
       <c r="U335" s="7">
-        <v>100.4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="336" spans="1:21">
       <c r="A336" s="12">
-        <v>41151</v>
+        <v>41136</v>
       </c>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -49347,11 +49416,13 @@
       <c r="E336" s="7"/>
       <c r="F336" s="7"/>
       <c r="G336" s="7"/>
-      <c r="H336" s="7"/>
-      <c r="I336" s="7"/>
-      <c r="J336" s="7">
-        <v>100</v>
-      </c>
+      <c r="H336" s="7">
+        <v>55</v>
+      </c>
+      <c r="I336" s="7">
+        <v>39</v>
+      </c>
+      <c r="J336" s="7"/>
       <c r="K336" s="7"/>
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
@@ -49363,23 +49434,23 @@
       <c r="S336" s="7"/>
       <c r="T336" s="7"/>
       <c r="U336" s="7">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="337" spans="1:21">
       <c r="A337" s="12">
-        <v>41156</v>
+        <v>41138</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
-      <c r="G337" s="7"/>
+      <c r="G337" s="7">
+        <v>100.4</v>
+      </c>
       <c r="H337" s="7"/>
-      <c r="I337" s="7">
-        <v>15</v>
-      </c>
+      <c r="I337" s="7"/>
       <c r="J337" s="7"/>
       <c r="K337" s="7"/>
       <c r="L337" s="7"/>
@@ -49392,12 +49463,12 @@
       <c r="S337" s="7"/>
       <c r="T337" s="7"/>
       <c r="U337" s="7">
-        <v>15</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="338" spans="1:21">
       <c r="A338" s="12">
-        <v>41161</v>
+        <v>41151</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -49406,10 +49477,10 @@
       <c r="F338" s="7"/>
       <c r="G338" s="7"/>
       <c r="H338" s="7"/>
-      <c r="I338" s="7">
-        <v>76</v>
-      </c>
-      <c r="J338" s="7"/>
+      <c r="I338" s="7"/>
+      <c r="J338" s="7">
+        <v>100</v>
+      </c>
       <c r="K338" s="7"/>
       <c r="L338" s="7"/>
       <c r="M338" s="7"/>
@@ -49421,12 +49492,12 @@
       <c r="S338" s="7"/>
       <c r="T338" s="7"/>
       <c r="U338" s="7">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="339" spans="1:21">
       <c r="A339" s="12">
-        <v>41162</v>
+        <v>41156</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -49435,29 +49506,27 @@
       <c r="F339" s="7"/>
       <c r="G339" s="7"/>
       <c r="H339" s="7"/>
-      <c r="I339" s="7"/>
-      <c r="J339" s="7">
-        <v>100</v>
-      </c>
+      <c r="I339" s="7">
+        <v>15</v>
+      </c>
+      <c r="J339" s="7"/>
       <c r="K339" s="7"/>
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
       <c r="N339" s="7"/>
-      <c r="O339" s="7">
-        <v>48</v>
-      </c>
+      <c r="O339" s="7"/>
       <c r="P339" s="7"/>
       <c r="Q339" s="7"/>
       <c r="R339" s="7"/>
       <c r="S339" s="7"/>
       <c r="T339" s="7"/>
       <c r="U339" s="7">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="340" spans="1:21">
       <c r="A340" s="12">
-        <v>41166</v>
+        <v>41161</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -49466,27 +49535,27 @@
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
       <c r="H340" s="7"/>
-      <c r="I340" s="7"/>
+      <c r="I340" s="7">
+        <v>76</v>
+      </c>
       <c r="J340" s="7"/>
       <c r="K340" s="7"/>
       <c r="L340" s="7"/>
       <c r="M340" s="7"/>
       <c r="N340" s="7"/>
-      <c r="O340" s="7">
-        <v>100</v>
-      </c>
+      <c r="O340" s="7"/>
       <c r="P340" s="7"/>
       <c r="Q340" s="7"/>
       <c r="R340" s="7"/>
       <c r="S340" s="7"/>
       <c r="T340" s="7"/>
       <c r="U340" s="7">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="341" spans="1:21">
       <c r="A341" s="12">
-        <v>41171</v>
+        <v>41162</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -49496,13 +49565,15 @@
       <c r="G341" s="7"/>
       <c r="H341" s="7"/>
       <c r="I341" s="7"/>
-      <c r="J341" s="7"/>
+      <c r="J341" s="7">
+        <v>100</v>
+      </c>
       <c r="K341" s="7"/>
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
       <c r="N341" s="7"/>
       <c r="O341" s="7">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="P341" s="7"/>
       <c r="Q341" s="7"/>
@@ -49510,20 +49581,18 @@
       <c r="S341" s="7"/>
       <c r="T341" s="7"/>
       <c r="U341" s="7">
-        <v>10</v>
+        <v>148</v>
       </c>
     </row>
     <row r="342" spans="1:21">
       <c r="A342" s="12">
-        <v>41175</v>
+        <v>41166</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
-      <c r="F342" s="7">
-        <v>100</v>
-      </c>
+      <c r="F342" s="7"/>
       <c r="G342" s="7"/>
       <c r="H342" s="7"/>
       <c r="I342" s="7"/>
@@ -49532,7 +49601,9 @@
       <c r="L342" s="7"/>
       <c r="M342" s="7"/>
       <c r="N342" s="7"/>
-      <c r="O342" s="7"/>
+      <c r="O342" s="7">
+        <v>100</v>
+      </c>
       <c r="P342" s="7"/>
       <c r="Q342" s="7"/>
       <c r="R342" s="7"/>
@@ -49544,29 +49615,23 @@
     </row>
     <row r="343" spans="1:21">
       <c r="A343" s="12">
-        <v>41197</v>
-      </c>
-      <c r="B343" s="7">
-        <v>10</v>
-      </c>
+        <v>41171</v>
+      </c>
+      <c r="B343" s="7"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
-      <c r="G343" s="7">
-        <v>10</v>
-      </c>
+      <c r="G343" s="7"/>
       <c r="H343" s="7"/>
       <c r="I343" s="7"/>
-      <c r="J343" s="7">
-        <v>10</v>
-      </c>
+      <c r="J343" s="7"/>
       <c r="K343" s="7"/>
       <c r="L343" s="7"/>
       <c r="M343" s="7"/>
       <c r="N343" s="7"/>
       <c r="O343" s="7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="P343" s="7"/>
       <c r="Q343" s="7"/>
@@ -49574,18 +49639,20 @@
       <c r="S343" s="7"/>
       <c r="T343" s="7"/>
       <c r="U343" s="7">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344" spans="1:21">
       <c r="A344" s="12">
-        <v>41198</v>
+        <v>41175</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
-      <c r="F344" s="7"/>
+      <c r="F344" s="7">
+        <v>100</v>
+      </c>
       <c r="G344" s="7"/>
       <c r="H344" s="7"/>
       <c r="I344" s="7"/>
@@ -49594,43 +49661,41 @@
       <c r="L344" s="7"/>
       <c r="M344" s="7"/>
       <c r="N344" s="7"/>
-      <c r="O344" s="7">
-        <v>40</v>
-      </c>
+      <c r="O344" s="7"/>
       <c r="P344" s="7"/>
       <c r="Q344" s="7"/>
       <c r="R344" s="7"/>
       <c r="S344" s="7"/>
       <c r="T344" s="7"/>
       <c r="U344" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="345" spans="1:21">
       <c r="A345" s="12">
-        <v>41205</v>
-      </c>
-      <c r="B345" s="7"/>
+        <v>41197</v>
+      </c>
+      <c r="B345" s="7">
+        <v>10</v>
+      </c>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
       <c r="F345" s="7"/>
-      <c r="G345" s="7"/>
+      <c r="G345" s="7">
+        <v>10</v>
+      </c>
       <c r="H345" s="7"/>
       <c r="I345" s="7"/>
       <c r="J345" s="7">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="K345" s="7"/>
-      <c r="L345" s="7">
-        <v>100</v>
-      </c>
+      <c r="L345" s="7"/>
       <c r="M345" s="7"/>
-      <c r="N345" s="7">
-        <v>100</v>
-      </c>
+      <c r="N345" s="7"/>
       <c r="O345" s="7">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P345" s="7"/>
       <c r="Q345" s="7"/>
@@ -49638,12 +49703,12 @@
       <c r="S345" s="7"/>
       <c r="T345" s="7"/>
       <c r="U345" s="7">
-        <v>432</v>
+        <v>90</v>
       </c>
     </row>
     <row r="346" spans="1:21">
       <c r="A346" s="12">
-        <v>41214</v>
+        <v>41198</v>
       </c>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -49653,26 +49718,26 @@
       <c r="G346" s="7"/>
       <c r="H346" s="7"/>
       <c r="I346" s="7"/>
-      <c r="J346" s="7">
-        <v>2</v>
-      </c>
+      <c r="J346" s="7"/>
       <c r="K346" s="7"/>
       <c r="L346" s="7"/>
       <c r="M346" s="7"/>
       <c r="N346" s="7"/>
-      <c r="O346" s="7"/>
+      <c r="O346" s="7">
+        <v>40</v>
+      </c>
       <c r="P346" s="7"/>
       <c r="Q346" s="7"/>
       <c r="R346" s="7"/>
       <c r="S346" s="7"/>
       <c r="T346" s="7"/>
       <c r="U346" s="7">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="347" spans="1:21">
       <c r="A347" s="12">
-        <v>41215</v>
+        <v>41205</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -49683,25 +49748,31 @@
       <c r="H347" s="7"/>
       <c r="I347" s="7"/>
       <c r="J347" s="7">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="K347" s="7"/>
-      <c r="L347" s="7"/>
+      <c r="L347" s="7">
+        <v>100</v>
+      </c>
       <c r="M347" s="7"/>
-      <c r="N347" s="7"/>
-      <c r="O347" s="7"/>
+      <c r="N347" s="7">
+        <v>100</v>
+      </c>
+      <c r="O347" s="7">
+        <v>70</v>
+      </c>
       <c r="P347" s="7"/>
       <c r="Q347" s="7"/>
       <c r="R347" s="7"/>
       <c r="S347" s="7"/>
       <c r="T347" s="7"/>
       <c r="U347" s="7">
-        <v>4</v>
+        <v>432</v>
       </c>
     </row>
     <row r="348" spans="1:21">
       <c r="A348" s="12">
-        <v>41237</v>
+        <v>41214</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -49712,12 +49783,10 @@
       <c r="H348" s="7"/>
       <c r="I348" s="7"/>
       <c r="J348" s="7">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="K348" s="7"/>
-      <c r="L348" s="7">
-        <v>100</v>
-      </c>
+      <c r="L348" s="7"/>
       <c r="M348" s="7"/>
       <c r="N348" s="7"/>
       <c r="O348" s="7"/>
@@ -49727,25 +49796,23 @@
       <c r="S348" s="7"/>
       <c r="T348" s="7"/>
       <c r="U348" s="7">
-        <v>200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:21">
       <c r="A349" s="12">
-        <v>41242</v>
+        <v>41215</v>
       </c>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
-      <c r="G349" s="7">
-        <v>100</v>
-      </c>
+      <c r="G349" s="7"/>
       <c r="H349" s="7"/>
       <c r="I349" s="7"/>
       <c r="J349" s="7">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="K349" s="7"/>
       <c r="L349" s="7"/>
@@ -49758,12 +49825,12 @@
       <c r="S349" s="7"/>
       <c r="T349" s="7"/>
       <c r="U349" s="7">
-        <v>181</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:21">
       <c r="A350" s="12">
-        <v>41253</v>
+        <v>41237</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -49774,10 +49841,12 @@
       <c r="H350" s="7"/>
       <c r="I350" s="7"/>
       <c r="J350" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K350" s="7"/>
-      <c r="L350" s="7"/>
+      <c r="L350" s="7">
+        <v>100</v>
+      </c>
       <c r="M350" s="7"/>
       <c r="N350" s="7"/>
       <c r="O350" s="7"/>
@@ -49787,24 +49856,26 @@
       <c r="S350" s="7"/>
       <c r="T350" s="7"/>
       <c r="U350" s="7">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="351" spans="1:21">
       <c r="A351" s="12">
-        <v>41268</v>
+        <v>41242</v>
       </c>
       <c r="B351" s="7"/>
-      <c r="C351" s="7">
-        <v>24</v>
-      </c>
+      <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
       <c r="F351" s="7"/>
-      <c r="G351" s="7"/>
+      <c r="G351" s="7">
+        <v>100</v>
+      </c>
       <c r="H351" s="7"/>
       <c r="I351" s="7"/>
-      <c r="J351" s="7"/>
+      <c r="J351" s="7">
+        <v>81</v>
+      </c>
       <c r="K351" s="7"/>
       <c r="L351" s="7"/>
       <c r="M351" s="7"/>
@@ -49816,24 +49887,24 @@
       <c r="S351" s="7"/>
       <c r="T351" s="7"/>
       <c r="U351" s="7">
-        <v>24</v>
+        <v>181</v>
       </c>
     </row>
     <row r="352" spans="1:21">
       <c r="A352" s="12">
-        <v>41281</v>
+        <v>41253</v>
       </c>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
-      <c r="G352" s="7">
-        <v>200</v>
-      </c>
+      <c r="G352" s="7"/>
       <c r="H352" s="7"/>
       <c r="I352" s="7"/>
-      <c r="J352" s="7"/>
+      <c r="J352" s="7">
+        <v>10</v>
+      </c>
       <c r="K352" s="7"/>
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
@@ -49845,26 +49916,24 @@
       <c r="S352" s="7"/>
       <c r="T352" s="7"/>
       <c r="U352" s="7">
-        <v>200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="353" spans="1:21">
       <c r="A353" s="12">
-        <v>41310</v>
+        <v>41268</v>
       </c>
       <c r="B353" s="7"/>
-      <c r="C353" s="7"/>
+      <c r="C353" s="7">
+        <v>24</v>
+      </c>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
       <c r="F353" s="7"/>
       <c r="G353" s="7"/>
       <c r="H353" s="7"/>
-      <c r="I353" s="7">
-        <v>22</v>
-      </c>
-      <c r="J353" s="7">
-        <v>31.9</v>
-      </c>
+      <c r="I353" s="7"/>
+      <c r="J353" s="7"/>
       <c r="K353" s="7"/>
       <c r="L353" s="7"/>
       <c r="M353" s="7"/>
@@ -49876,12 +49945,12 @@
       <c r="S353" s="7"/>
       <c r="T353" s="7"/>
       <c r="U353" s="7">
-        <v>53.9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="354" spans="1:21">
       <c r="A354" s="12">
-        <v>41323</v>
+        <v>41281</v>
       </c>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -49889,7 +49958,7 @@
       <c r="E354" s="7"/>
       <c r="F354" s="7"/>
       <c r="G354" s="7">
-        <v>119.6</v>
+        <v>200</v>
       </c>
       <c r="H354" s="7"/>
       <c r="I354" s="7"/>
@@ -49905,24 +49974,26 @@
       <c r="S354" s="7"/>
       <c r="T354" s="7"/>
       <c r="U354" s="7">
-        <v>119.6</v>
+        <v>200</v>
       </c>
     </row>
     <row r="355" spans="1:21">
       <c r="A355" s="12">
-        <v>41331</v>
+        <v>41310</v>
       </c>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
       <c r="F355" s="7"/>
-      <c r="G355" s="7">
-        <v>100</v>
-      </c>
+      <c r="G355" s="7"/>
       <c r="H355" s="7"/>
-      <c r="I355" s="7"/>
-      <c r="J355" s="7"/>
+      <c r="I355" s="7">
+        <v>22</v>
+      </c>
+      <c r="J355" s="7">
+        <v>31.9</v>
+      </c>
       <c r="K355" s="7"/>
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
@@ -49934,24 +50005,24 @@
       <c r="S355" s="7"/>
       <c r="T355" s="7"/>
       <c r="U355" s="7">
-        <v>100</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="356" spans="1:21">
       <c r="A356" s="12">
-        <v>41361</v>
+        <v>41323</v>
       </c>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
       <c r="F356" s="7"/>
-      <c r="G356" s="7"/>
+      <c r="G356" s="7">
+        <v>119.6</v>
+      </c>
       <c r="H356" s="7"/>
       <c r="I356" s="7"/>
-      <c r="J356" s="7">
-        <v>40</v>
-      </c>
+      <c r="J356" s="7"/>
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
@@ -49963,23 +50034,23 @@
       <c r="S356" s="7"/>
       <c r="T356" s="7"/>
       <c r="U356" s="7">
-        <v>40</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="357" spans="1:21">
       <c r="A357" s="12">
-        <v>41373</v>
+        <v>41331</v>
       </c>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
       <c r="F357" s="7"/>
-      <c r="G357" s="7"/>
+      <c r="G357" s="7">
+        <v>100</v>
+      </c>
       <c r="H357" s="7"/>
-      <c r="I357" s="7">
-        <v>91</v>
-      </c>
+      <c r="I357" s="7"/>
       <c r="J357" s="7"/>
       <c r="K357" s="7"/>
       <c r="L357" s="7"/>
@@ -49992,12 +50063,12 @@
       <c r="S357" s="7"/>
       <c r="T357" s="7"/>
       <c r="U357" s="7">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="358" spans="1:21">
       <c r="A358" s="12">
-        <v>41374</v>
+        <v>41361</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -50007,59 +50078,55 @@
       <c r="G358" s="7"/>
       <c r="H358" s="7"/>
       <c r="I358" s="7"/>
-      <c r="J358" s="7"/>
+      <c r="J358" s="7">
+        <v>40</v>
+      </c>
       <c r="K358" s="7"/>
       <c r="L358" s="7"/>
       <c r="M358" s="7"/>
       <c r="N358" s="7"/>
-      <c r="O358" s="7">
-        <v>75</v>
-      </c>
+      <c r="O358" s="7"/>
       <c r="P358" s="7"/>
       <c r="Q358" s="7"/>
       <c r="R358" s="7"/>
       <c r="S358" s="7"/>
       <c r="T358" s="7"/>
       <c r="U358" s="7">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="359" spans="1:21">
       <c r="A359" s="12">
-        <v>41376</v>
+        <v>41373</v>
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
       <c r="F359" s="7"/>
-      <c r="G359" s="7">
-        <v>97</v>
-      </c>
+      <c r="G359" s="7"/>
       <c r="H359" s="7"/>
-      <c r="I359" s="7"/>
+      <c r="I359" s="7">
+        <v>91</v>
+      </c>
       <c r="J359" s="7"/>
       <c r="K359" s="7"/>
       <c r="L359" s="7"/>
       <c r="M359" s="7"/>
       <c r="N359" s="7"/>
       <c r="O359" s="7"/>
-      <c r="P359" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q359" s="7">
-        <v>100</v>
-      </c>
+      <c r="P359" s="7"/>
+      <c r="Q359" s="7"/>
       <c r="R359" s="7"/>
       <c r="S359" s="7"/>
       <c r="T359" s="7"/>
       <c r="U359" s="7">
-        <v>247</v>
+        <v>91</v>
       </c>
     </row>
     <row r="360" spans="1:21">
       <c r="A360" s="12">
-        <v>41382</v>
+        <v>41374</v>
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -50073,29 +50140,31 @@
       <c r="K360" s="7"/>
       <c r="L360" s="7"/>
       <c r="M360" s="7"/>
-      <c r="N360" s="7">
-        <v>100</v>
-      </c>
-      <c r="O360" s="7"/>
+      <c r="N360" s="7"/>
+      <c r="O360" s="7">
+        <v>75</v>
+      </c>
       <c r="P360" s="7"/>
       <c r="Q360" s="7"/>
       <c r="R360" s="7"/>
       <c r="S360" s="7"/>
       <c r="T360" s="7"/>
       <c r="U360" s="7">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="361" spans="1:21">
       <c r="A361" s="12">
-        <v>41383</v>
+        <v>41376</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
       <c r="F361" s="7"/>
-      <c r="G361" s="7"/>
+      <c r="G361" s="7">
+        <v>97</v>
+      </c>
       <c r="H361" s="7"/>
       <c r="I361" s="7"/>
       <c r="J361" s="7"/>
@@ -50105,19 +50174,21 @@
       <c r="N361" s="7"/>
       <c r="O361" s="7"/>
       <c r="P361" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q361" s="7">
         <v>100</v>
       </c>
-      <c r="Q361" s="7"/>
       <c r="R361" s="7"/>
       <c r="S361" s="7"/>
       <c r="T361" s="7"/>
       <c r="U361" s="7">
-        <v>100</v>
+        <v>247</v>
       </c>
     </row>
     <row r="362" spans="1:21">
       <c r="A362" s="12">
-        <v>41386</v>
+        <v>41382</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -50131,22 +50202,22 @@
       <c r="K362" s="7"/>
       <c r="L362" s="7"/>
       <c r="M362" s="7"/>
-      <c r="N362" s="7"/>
-      <c r="O362" s="7">
-        <v>40</v>
-      </c>
+      <c r="N362" s="7">
+        <v>100</v>
+      </c>
+      <c r="O362" s="7"/>
       <c r="P362" s="7"/>
       <c r="Q362" s="7"/>
       <c r="R362" s="7"/>
       <c r="S362" s="7"/>
       <c r="T362" s="7"/>
       <c r="U362" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="363" spans="1:21">
       <c r="A363" s="12">
-        <v>41387</v>
+        <v>41383</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -50161,41 +50232,37 @@
       <c r="L363" s="7"/>
       <c r="M363" s="7"/>
       <c r="N363" s="7"/>
-      <c r="O363" s="7">
-        <v>30</v>
-      </c>
-      <c r="P363" s="7"/>
+      <c r="O363" s="7"/>
+      <c r="P363" s="7">
+        <v>100</v>
+      </c>
       <c r="Q363" s="7"/>
       <c r="R363" s="7"/>
       <c r="S363" s="7"/>
       <c r="T363" s="7"/>
       <c r="U363" s="7">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="364" spans="1:21">
       <c r="A364" s="12">
-        <v>41388</v>
+        <v>41386</v>
       </c>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
-      <c r="G364" s="7">
-        <v>20</v>
-      </c>
+      <c r="G364" s="7"/>
       <c r="H364" s="7"/>
       <c r="I364" s="7"/>
       <c r="J364" s="7"/>
       <c r="K364" s="7"/>
       <c r="L364" s="7"/>
       <c r="M364" s="7"/>
-      <c r="N364" s="7">
+      <c r="N364" s="7"/>
+      <c r="O364" s="7">
         <v>40</v>
-      </c>
-      <c r="O364" s="7">
-        <v>11</v>
       </c>
       <c r="P364" s="7"/>
       <c r="Q364" s="7"/>
@@ -50203,12 +50270,12 @@
       <c r="S364" s="7"/>
       <c r="T364" s="7"/>
       <c r="U364" s="7">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="365" spans="1:21">
       <c r="A365" s="12">
-        <v>41390</v>
+        <v>41387</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
@@ -50217,60 +50284,60 @@
       <c r="F365" s="7"/>
       <c r="G365" s="7"/>
       <c r="H365" s="7"/>
-      <c r="I365" s="7">
-        <v>120</v>
-      </c>
+      <c r="I365" s="7"/>
       <c r="J365" s="7"/>
       <c r="K365" s="7"/>
       <c r="L365" s="7"/>
       <c r="M365" s="7"/>
       <c r="N365" s="7"/>
-      <c r="O365" s="7"/>
+      <c r="O365" s="7">
+        <v>30</v>
+      </c>
       <c r="P365" s="7"/>
       <c r="Q365" s="7"/>
       <c r="R365" s="7"/>
       <c r="S365" s="7"/>
       <c r="T365" s="7"/>
       <c r="U365" s="7">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="366" spans="1:21">
       <c r="A366" s="12">
-        <v>41397</v>
+        <v>41388</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
       <c r="F366" s="7"/>
-      <c r="G366" s="7"/>
-      <c r="H366" s="7">
-        <v>50</v>
-      </c>
+      <c r="G366" s="7">
+        <v>20</v>
+      </c>
+      <c r="H366" s="7"/>
       <c r="I366" s="7"/>
       <c r="J366" s="7"/>
       <c r="K366" s="7"/>
       <c r="L366" s="7"/>
       <c r="M366" s="7"/>
-      <c r="N366" s="7"/>
+      <c r="N366" s="7">
+        <v>40</v>
+      </c>
       <c r="O366" s="7">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="P366" s="7"/>
       <c r="Q366" s="7"/>
       <c r="R366" s="7"/>
-      <c r="S366" s="7">
-        <v>100</v>
-      </c>
+      <c r="S366" s="7"/>
       <c r="T366" s="7"/>
       <c r="U366" s="7">
-        <v>250</v>
+        <v>71</v>
       </c>
     </row>
     <row r="367" spans="1:21">
       <c r="A367" s="12">
-        <v>41401</v>
+        <v>41390</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -50279,7 +50346,9 @@
       <c r="F367" s="7"/>
       <c r="G367" s="7"/>
       <c r="H367" s="7"/>
-      <c r="I367" s="7"/>
+      <c r="I367" s="7">
+        <v>120</v>
+      </c>
       <c r="J367" s="7"/>
       <c r="K367" s="7"/>
       <c r="L367" s="7"/>
@@ -50287,19 +50356,17 @@
       <c r="N367" s="7"/>
       <c r="O367" s="7"/>
       <c r="P367" s="7"/>
-      <c r="Q367" s="7">
-        <v>100</v>
-      </c>
+      <c r="Q367" s="7"/>
       <c r="R367" s="7"/>
       <c r="S367" s="7"/>
       <c r="T367" s="7"/>
       <c r="U367" s="7">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="368" spans="1:21">
       <c r="A368" s="12">
-        <v>41402</v>
+        <v>41397</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -50307,30 +50374,32 @@
       <c r="E368" s="7"/>
       <c r="F368" s="7"/>
       <c r="G368" s="7"/>
-      <c r="H368" s="7"/>
+      <c r="H368" s="7">
+        <v>50</v>
+      </c>
       <c r="I368" s="7"/>
       <c r="J368" s="7"/>
       <c r="K368" s="7"/>
-      <c r="L368" s="7">
-        <v>100</v>
-      </c>
+      <c r="L368" s="7"/>
       <c r="M368" s="7"/>
       <c r="N368" s="7"/>
-      <c r="O368" s="7"/>
-      <c r="P368" s="7">
-        <v>50</v>
-      </c>
+      <c r="O368" s="7">
+        <v>100</v>
+      </c>
+      <c r="P368" s="7"/>
       <c r="Q368" s="7"/>
       <c r="R368" s="7"/>
-      <c r="S368" s="7"/>
+      <c r="S368" s="7">
+        <v>100</v>
+      </c>
       <c r="T368" s="7"/>
       <c r="U368" s="7">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="369" spans="1:21">
       <c r="A369" s="12">
-        <v>41403</v>
+        <v>41401</v>
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -50338,65 +50407,59 @@
       <c r="E369" s="7"/>
       <c r="F369" s="7"/>
       <c r="G369" s="7"/>
-      <c r="H369" s="7">
-        <v>100</v>
-      </c>
+      <c r="H369" s="7"/>
       <c r="I369" s="7"/>
       <c r="J369" s="7"/>
       <c r="K369" s="7"/>
       <c r="L369" s="7"/>
-      <c r="M369" s="7">
-        <v>100</v>
-      </c>
+      <c r="M369" s="7"/>
       <c r="N369" s="7"/>
       <c r="O369" s="7"/>
       <c r="P369" s="7"/>
-      <c r="Q369" s="7"/>
+      <c r="Q369" s="7">
+        <v>100</v>
+      </c>
       <c r="R369" s="7"/>
       <c r="S369" s="7"/>
-      <c r="T369" s="7">
-        <v>50</v>
-      </c>
+      <c r="T369" s="7"/>
       <c r="U369" s="7">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="370" spans="1:21">
       <c r="A370" s="12">
-        <v>41407</v>
+        <v>41402</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
       <c r="F370" s="7"/>
-      <c r="G370" s="7">
-        <v>100</v>
-      </c>
+      <c r="G370" s="7"/>
       <c r="H370" s="7"/>
       <c r="I370" s="7"/>
-      <c r="J370" s="7">
+      <c r="J370" s="7"/>
+      <c r="K370" s="7"/>
+      <c r="L370" s="7">
         <v>100</v>
       </c>
-      <c r="K370" s="7"/>
-      <c r="L370" s="7"/>
       <c r="M370" s="7"/>
       <c r="N370" s="7"/>
-      <c r="O370" s="7">
-        <v>100</v>
-      </c>
-      <c r="P370" s="7"/>
+      <c r="O370" s="7"/>
+      <c r="P370" s="7">
+        <v>50</v>
+      </c>
       <c r="Q370" s="7"/>
       <c r="R370" s="7"/>
       <c r="S370" s="7"/>
       <c r="T370" s="7"/>
       <c r="U370" s="7">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="371" spans="1:21">
       <c r="A371" s="12">
-        <v>41410</v>
+        <v>41403</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -50404,59 +50467,65 @@
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
       <c r="G371" s="7"/>
-      <c r="H371" s="7"/>
-      <c r="I371" s="7">
-        <v>200</v>
-      </c>
+      <c r="H371" s="7">
+        <v>100</v>
+      </c>
+      <c r="I371" s="7"/>
       <c r="J371" s="7"/>
       <c r="K371" s="7"/>
       <c r="L371" s="7"/>
-      <c r="M371" s="7"/>
+      <c r="M371" s="7">
+        <v>100</v>
+      </c>
       <c r="N371" s="7"/>
       <c r="O371" s="7"/>
       <c r="P371" s="7"/>
       <c r="Q371" s="7"/>
       <c r="R371" s="7"/>
       <c r="S371" s="7"/>
-      <c r="T371" s="7"/>
+      <c r="T371" s="7">
+        <v>50</v>
+      </c>
       <c r="U371" s="7">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="372" spans="1:21">
       <c r="A372" s="12">
-        <v>41411</v>
+        <v>41407</v>
       </c>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
-      <c r="G372" s="7"/>
+      <c r="G372" s="7">
+        <v>100</v>
+      </c>
       <c r="H372" s="7"/>
       <c r="I372" s="7"/>
-      <c r="J372" s="7"/>
+      <c r="J372" s="7">
+        <v>100</v>
+      </c>
       <c r="K372" s="7"/>
       <c r="L372" s="7"/>
       <c r="M372" s="7"/>
-      <c r="N372" s="7">
-        <v>300</v>
-      </c>
-      <c r="O372" s="7"/>
-      <c r="P372" s="7">
+      <c r="N372" s="7"/>
+      <c r="O372" s="7">
         <v>100</v>
       </c>
+      <c r="P372" s="7"/>
       <c r="Q372" s="7"/>
       <c r="R372" s="7"/>
       <c r="S372" s="7"/>
       <c r="T372" s="7"/>
       <c r="U372" s="7">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="373" spans="1:21">
       <c r="A373" s="12">
-        <v>41414</v>
+        <v>41410</v>
       </c>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
@@ -50465,10 +50534,10 @@
       <c r="F373" s="7"/>
       <c r="G373" s="7"/>
       <c r="H373" s="7"/>
-      <c r="I373" s="7"/>
-      <c r="J373" s="7">
-        <v>100</v>
-      </c>
+      <c r="I373" s="7">
+        <v>200</v>
+      </c>
+      <c r="J373" s="7"/>
       <c r="K373" s="7"/>
       <c r="L373" s="7"/>
       <c r="M373" s="7"/>
@@ -50480,12 +50549,12 @@
       <c r="S373" s="7"/>
       <c r="T373" s="7"/>
       <c r="U373" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="374" spans="1:21">
       <c r="A374" s="12">
-        <v>41416</v>
+        <v>41411</v>
       </c>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -50499,22 +50568,24 @@
       <c r="K374" s="7"/>
       <c r="L374" s="7"/>
       <c r="M374" s="7"/>
-      <c r="N374" s="7"/>
-      <c r="O374" s="7">
-        <v>200</v>
-      </c>
-      <c r="P374" s="7"/>
+      <c r="N374" s="7">
+        <v>300</v>
+      </c>
+      <c r="O374" s="7"/>
+      <c r="P374" s="7">
+        <v>100</v>
+      </c>
       <c r="Q374" s="7"/>
       <c r="R374" s="7"/>
       <c r="S374" s="7"/>
       <c r="T374" s="7"/>
       <c r="U374" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="375" spans="1:21">
       <c r="A375" s="12">
-        <v>41424</v>
+        <v>41414</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -50523,10 +50594,10 @@
       <c r="F375" s="7"/>
       <c r="G375" s="7"/>
       <c r="H375" s="7"/>
-      <c r="I375" s="7">
+      <c r="I375" s="7"/>
+      <c r="J375" s="7">
         <v>100</v>
       </c>
-      <c r="J375" s="7"/>
       <c r="K375" s="7"/>
       <c r="L375" s="7"/>
       <c r="M375" s="7"/>
@@ -50543,7 +50614,7 @@
     </row>
     <row r="376" spans="1:21">
       <c r="A376" s="12">
-        <v>41429</v>
+        <v>41416</v>
       </c>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -50558,32 +50629,32 @@
       <c r="L376" s="7"/>
       <c r="M376" s="7"/>
       <c r="N376" s="7"/>
-      <c r="O376" s="7"/>
-      <c r="P376" s="7">
-        <v>100</v>
-      </c>
+      <c r="O376" s="7">
+        <v>200</v>
+      </c>
+      <c r="P376" s="7"/>
       <c r="Q376" s="7"/>
       <c r="R376" s="7"/>
       <c r="S376" s="7"/>
       <c r="T376" s="7"/>
       <c r="U376" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="377" spans="1:21">
       <c r="A377" s="12">
-        <v>41430</v>
+        <v>41424</v>
       </c>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
-      <c r="D377" s="7">
-        <v>100</v>
-      </c>
+      <c r="D377" s="7"/>
       <c r="E377" s="7"/>
       <c r="F377" s="7"/>
       <c r="G377" s="7"/>
       <c r="H377" s="7"/>
-      <c r="I377" s="7"/>
+      <c r="I377" s="7">
+        <v>100</v>
+      </c>
       <c r="J377" s="7"/>
       <c r="K377" s="7"/>
       <c r="L377" s="7"/>
@@ -50601,7 +50672,7 @@
     </row>
     <row r="378" spans="1:21">
       <c r="A378" s="12">
-        <v>41431</v>
+        <v>41429</v>
       </c>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -50611,37 +50682,35 @@
       <c r="G378" s="7"/>
       <c r="H378" s="7"/>
       <c r="I378" s="7"/>
-      <c r="J378" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="J378" s="7"/>
       <c r="K378" s="7"/>
       <c r="L378" s="7"/>
       <c r="M378" s="7"/>
       <c r="N378" s="7"/>
       <c r="O378" s="7"/>
-      <c r="P378" s="7"/>
+      <c r="P378" s="7">
+        <v>100</v>
+      </c>
       <c r="Q378" s="7"/>
-      <c r="R378" s="7">
-        <v>200</v>
-      </c>
+      <c r="R378" s="7"/>
       <c r="S378" s="7"/>
       <c r="T378" s="7"/>
       <c r="U378" s="7">
-        <v>280.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="379" spans="1:21">
       <c r="A379" s="12">
-        <v>41438</v>
+        <v>41430</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
-      <c r="D379" s="7"/>
+      <c r="D379" s="7">
+        <v>100</v>
+      </c>
       <c r="E379" s="7"/>
       <c r="F379" s="7"/>
-      <c r="G379" s="7">
-        <v>20</v>
-      </c>
+      <c r="G379" s="7"/>
       <c r="H379" s="7"/>
       <c r="I379" s="7"/>
       <c r="J379" s="7"/>
@@ -50656,12 +50725,12 @@
       <c r="S379" s="7"/>
       <c r="T379" s="7"/>
       <c r="U379" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="380" spans="1:21">
       <c r="A380" s="12">
-        <v>41439</v>
+        <v>41431</v>
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -50671,7 +50740,9 @@
       <c r="G380" s="7"/>
       <c r="H380" s="7"/>
       <c r="I380" s="7"/>
-      <c r="J380" s="7"/>
+      <c r="J380" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K380" s="7"/>
       <c r="L380" s="7"/>
       <c r="M380" s="7"/>
@@ -50679,27 +50750,27 @@
       <c r="O380" s="7"/>
       <c r="P380" s="7"/>
       <c r="Q380" s="7"/>
-      <c r="R380" s="7"/>
+      <c r="R380" s="7">
+        <v>200</v>
+      </c>
       <c r="S380" s="7"/>
-      <c r="T380" s="7">
-        <v>100</v>
-      </c>
+      <c r="T380" s="7"/>
       <c r="U380" s="7">
-        <v>100</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="381" spans="1:21">
       <c r="A381" s="12">
-        <v>41443</v>
+        <v>41438</v>
       </c>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
-      <c r="D381" s="7">
-        <v>100</v>
-      </c>
+      <c r="D381" s="7"/>
       <c r="E381" s="7"/>
       <c r="F381" s="7"/>
-      <c r="G381" s="7"/>
+      <c r="G381" s="7">
+        <v>20</v>
+      </c>
       <c r="H381" s="7"/>
       <c r="I381" s="7"/>
       <c r="J381" s="7"/>
@@ -50714,12 +50785,12 @@
       <c r="S381" s="7"/>
       <c r="T381" s="7"/>
       <c r="U381" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="382" spans="1:21">
       <c r="A382" s="12">
-        <v>41444</v>
+        <v>41439</v>
       </c>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -50733,26 +50804,28 @@
       <c r="K382" s="7"/>
       <c r="L382" s="7"/>
       <c r="M382" s="7"/>
-      <c r="N382" s="7">
-        <v>200</v>
-      </c>
+      <c r="N382" s="7"/>
       <c r="O382" s="7"/>
       <c r="P382" s="7"/>
       <c r="Q382" s="7"/>
       <c r="R382" s="7"/>
       <c r="S382" s="7"/>
-      <c r="T382" s="7"/>
+      <c r="T382" s="7">
+        <v>100</v>
+      </c>
       <c r="U382" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="383" spans="1:21">
       <c r="A383" s="12">
-        <v>41450</v>
+        <v>41443</v>
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
-      <c r="D383" s="7"/>
+      <c r="D383" s="7">
+        <v>100</v>
+      </c>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
       <c r="G383" s="7"/>
@@ -50763,23 +50836,19 @@
       <c r="L383" s="7"/>
       <c r="M383" s="7"/>
       <c r="N383" s="7"/>
-      <c r="O383" s="7">
-        <v>140</v>
-      </c>
-      <c r="P383" s="7">
-        <v>100</v>
-      </c>
+      <c r="O383" s="7"/>
+      <c r="P383" s="7"/>
       <c r="Q383" s="7"/>
       <c r="R383" s="7"/>
       <c r="S383" s="7"/>
       <c r="T383" s="7"/>
       <c r="U383" s="7">
-        <v>240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="384" spans="1:21">
       <c r="A384" s="12">
-        <v>41451</v>
+        <v>41444</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -50789,30 +50858,26 @@
       <c r="G384" s="7"/>
       <c r="H384" s="7"/>
       <c r="I384" s="7"/>
-      <c r="J384" s="7">
-        <v>100</v>
-      </c>
+      <c r="J384" s="7"/>
       <c r="K384" s="7"/>
-      <c r="L384" s="7">
-        <v>100</v>
-      </c>
+      <c r="L384" s="7"/>
       <c r="M384" s="7"/>
-      <c r="N384" s="7"/>
-      <c r="O384" s="7">
+      <c r="N384" s="7">
         <v>200</v>
       </c>
+      <c r="O384" s="7"/>
       <c r="P384" s="7"/>
       <c r="Q384" s="7"/>
       <c r="R384" s="7"/>
       <c r="S384" s="7"/>
       <c r="T384" s="7"/>
       <c r="U384" s="7">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="385" spans="1:21">
       <c r="A385" s="12">
-        <v>41453</v>
+        <v>41450</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -50821,27 +50886,29 @@
       <c r="F385" s="7"/>
       <c r="G385" s="7"/>
       <c r="H385" s="7"/>
-      <c r="I385" s="7">
-        <v>200</v>
-      </c>
+      <c r="I385" s="7"/>
       <c r="J385" s="7"/>
       <c r="K385" s="7"/>
       <c r="L385" s="7"/>
       <c r="M385" s="7"/>
       <c r="N385" s="7"/>
-      <c r="O385" s="7"/>
-      <c r="P385" s="7"/>
+      <c r="O385" s="7">
+        <v>140</v>
+      </c>
+      <c r="P385" s="7">
+        <v>100</v>
+      </c>
       <c r="Q385" s="7"/>
       <c r="R385" s="7"/>
       <c r="S385" s="7"/>
       <c r="T385" s="7"/>
       <c r="U385" s="7">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="386" spans="1:21">
       <c r="A386" s="12">
-        <v>41463</v>
+        <v>41451</v>
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -50851,26 +50918,30 @@
       <c r="G386" s="7"/>
       <c r="H386" s="7"/>
       <c r="I386" s="7"/>
-      <c r="J386" s="7"/>
+      <c r="J386" s="7">
+        <v>100</v>
+      </c>
       <c r="K386" s="7"/>
-      <c r="L386" s="7"/>
-      <c r="M386" s="7">
-        <v>20</v>
-      </c>
+      <c r="L386" s="7">
+        <v>100</v>
+      </c>
+      <c r="M386" s="7"/>
       <c r="N386" s="7"/>
-      <c r="O386" s="7"/>
+      <c r="O386" s="7">
+        <v>200</v>
+      </c>
       <c r="P386" s="7"/>
       <c r="Q386" s="7"/>
       <c r="R386" s="7"/>
       <c r="S386" s="7"/>
       <c r="T386" s="7"/>
       <c r="U386" s="7">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="387" spans="1:21">
       <c r="A387" s="12">
-        <v>41464</v>
+        <v>41453</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -50879,7 +50950,9 @@
       <c r="F387" s="7"/>
       <c r="G387" s="7"/>
       <c r="H387" s="7"/>
-      <c r="I387" s="7"/>
+      <c r="I387" s="7">
+        <v>200</v>
+      </c>
       <c r="J387" s="7"/>
       <c r="K387" s="7"/>
       <c r="L387" s="7"/>
@@ -50887,23 +50960,19 @@
       <c r="N387" s="7"/>
       <c r="O387" s="7"/>
       <c r="P387" s="7"/>
-      <c r="Q387" s="7">
-        <v>100</v>
-      </c>
+      <c r="Q387" s="7"/>
       <c r="R387" s="7"/>
       <c r="S387" s="7"/>
       <c r="T387" s="7"/>
       <c r="U387" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="388" spans="1:21">
       <c r="A388" s="12">
-        <v>41465</v>
-      </c>
-      <c r="B388" s="7">
-        <v>50</v>
-      </c>
+        <v>41463</v>
+      </c>
+      <c r="B388" s="7"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -50914,7 +50983,9 @@
       <c r="J388" s="7"/>
       <c r="K388" s="7"/>
       <c r="L388" s="7"/>
-      <c r="M388" s="7"/>
+      <c r="M388" s="7">
+        <v>20</v>
+      </c>
       <c r="N388" s="7"/>
       <c r="O388" s="7"/>
       <c r="P388" s="7"/>
@@ -50923,12 +50994,12 @@
       <c r="S388" s="7"/>
       <c r="T388" s="7"/>
       <c r="U388" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="389" spans="1:21">
       <c r="A389" s="12">
-        <v>41466</v>
+        <v>41464</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -50938,16 +51009,16 @@
       <c r="G389" s="7"/>
       <c r="H389" s="7"/>
       <c r="I389" s="7"/>
-      <c r="J389" s="7">
-        <v>100</v>
-      </c>
+      <c r="J389" s="7"/>
       <c r="K389" s="7"/>
       <c r="L389" s="7"/>
       <c r="M389" s="7"/>
       <c r="N389" s="7"/>
       <c r="O389" s="7"/>
       <c r="P389" s="7"/>
-      <c r="Q389" s="7"/>
+      <c r="Q389" s="7">
+        <v>100</v>
+      </c>
       <c r="R389" s="7"/>
       <c r="S389" s="7"/>
       <c r="T389" s="7"/>
@@ -50957,9 +51028,11 @@
     </row>
     <row r="390" spans="1:21">
       <c r="A390" s="12">
-        <v>41467</v>
-      </c>
-      <c r="B390" s="7"/>
+        <v>41465</v>
+      </c>
+      <c r="B390" s="7">
+        <v>50</v>
+      </c>
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
@@ -50977,16 +51050,14 @@
       <c r="Q390" s="7"/>
       <c r="R390" s="7"/>
       <c r="S390" s="7"/>
-      <c r="T390" s="7">
-        <v>100</v>
-      </c>
+      <c r="T390" s="7"/>
       <c r="U390" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="391" spans="1:21">
       <c r="A391" s="12">
-        <v>41472</v>
+        <v>41466</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -50996,11 +51067,11 @@
       <c r="G391" s="7"/>
       <c r="H391" s="7"/>
       <c r="I391" s="7"/>
-      <c r="J391" s="7"/>
+      <c r="J391" s="7">
+        <v>100</v>
+      </c>
       <c r="K391" s="7"/>
-      <c r="L391" s="7">
-        <v>100</v>
-      </c>
+      <c r="L391" s="7"/>
       <c r="M391" s="7"/>
       <c r="N391" s="7"/>
       <c r="O391" s="7"/>
@@ -51015,19 +51086,15 @@
     </row>
     <row r="392" spans="1:21">
       <c r="A392" s="12">
-        <v>41474</v>
-      </c>
-      <c r="B392" s="7">
-        <v>76.5</v>
-      </c>
+        <v>41467</v>
+      </c>
+      <c r="B392" s="7"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
       <c r="F392" s="7"/>
       <c r="G392" s="7"/>
-      <c r="H392" s="7">
-        <v>50</v>
-      </c>
+      <c r="H392" s="7"/>
       <c r="I392" s="7"/>
       <c r="J392" s="7"/>
       <c r="K392" s="7"/>
@@ -51036,35 +51103,33 @@
       <c r="N392" s="7"/>
       <c r="O392" s="7"/>
       <c r="P392" s="7"/>
-      <c r="Q392" s="7">
-        <v>200</v>
-      </c>
-      <c r="R392" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q392" s="7"/>
+      <c r="R392" s="7"/>
       <c r="S392" s="7"/>
-      <c r="T392" s="7"/>
+      <c r="T392" s="7">
+        <v>100</v>
+      </c>
       <c r="U392" s="7">
-        <v>526.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="393" spans="1:21">
       <c r="A393" s="12">
-        <v>41479</v>
+        <v>41472</v>
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
       <c r="F393" s="7"/>
-      <c r="G393" s="7">
-        <v>100</v>
-      </c>
+      <c r="G393" s="7"/>
       <c r="H393" s="7"/>
       <c r="I393" s="7"/>
       <c r="J393" s="7"/>
       <c r="K393" s="7"/>
-      <c r="L393" s="7"/>
+      <c r="L393" s="7">
+        <v>100</v>
+      </c>
       <c r="M393" s="7"/>
       <c r="N393" s="7"/>
       <c r="O393" s="7"/>
@@ -51079,50 +51144,56 @@
     </row>
     <row r="394" spans="1:21">
       <c r="A394" s="12">
-        <v>41480</v>
-      </c>
-      <c r="B394" s="7"/>
+        <v>41474</v>
+      </c>
+      <c r="B394" s="7">
+        <v>76.5</v>
+      </c>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
       <c r="F394" s="7"/>
       <c r="G394" s="7"/>
-      <c r="H394" s="7"/>
+      <c r="H394" s="7">
+        <v>50</v>
+      </c>
       <c r="I394" s="7"/>
       <c r="J394" s="7"/>
       <c r="K394" s="7"/>
       <c r="L394" s="7"/>
       <c r="M394" s="7"/>
-      <c r="N394" s="7">
-        <v>200</v>
-      </c>
+      <c r="N394" s="7"/>
       <c r="O394" s="7"/>
       <c r="P394" s="7"/>
-      <c r="Q394" s="7"/>
-      <c r="R394" s="7"/>
+      <c r="Q394" s="7">
+        <v>200</v>
+      </c>
+      <c r="R394" s="7">
+        <v>200</v>
+      </c>
       <c r="S394" s="7"/>
       <c r="T394" s="7"/>
       <c r="U394" s="7">
-        <v>200</v>
+        <v>526.5</v>
       </c>
     </row>
     <row r="395" spans="1:21">
       <c r="A395" s="12">
-        <v>41481</v>
+        <v>41479</v>
       </c>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
       <c r="F395" s="7"/>
-      <c r="G395" s="7"/>
+      <c r="G395" s="7">
+        <v>100</v>
+      </c>
       <c r="H395" s="7"/>
       <c r="I395" s="7"/>
       <c r="J395" s="7"/>
       <c r="K395" s="7"/>
-      <c r="L395" s="7">
-        <v>100</v>
-      </c>
+      <c r="L395" s="7"/>
       <c r="M395" s="7"/>
       <c r="N395" s="7"/>
       <c r="O395" s="7"/>
@@ -51137,7 +51208,7 @@
     </row>
     <row r="396" spans="1:21">
       <c r="A396" s="12">
-        <v>41482</v>
+        <v>41480</v>
       </c>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -51147,13 +51218,13 @@
       <c r="G396" s="7"/>
       <c r="H396" s="7"/>
       <c r="I396" s="7"/>
-      <c r="J396" s="7">
-        <v>100</v>
-      </c>
+      <c r="J396" s="7"/>
       <c r="K396" s="7"/>
       <c r="L396" s="7"/>
       <c r="M396" s="7"/>
-      <c r="N396" s="7"/>
+      <c r="N396" s="7">
+        <v>200</v>
+      </c>
       <c r="O396" s="7"/>
       <c r="P396" s="7"/>
       <c r="Q396" s="7"/>
@@ -51161,12 +51232,12 @@
       <c r="S396" s="7"/>
       <c r="T396" s="7"/>
       <c r="U396" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="397" spans="1:21">
       <c r="A397" s="12">
-        <v>41488</v>
+        <v>41481</v>
       </c>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -51179,7 +51250,7 @@
       <c r="J397" s="7"/>
       <c r="K397" s="7"/>
       <c r="L397" s="7">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M397" s="7"/>
       <c r="N397" s="7"/>
@@ -51190,16 +51261,14 @@
       <c r="S397" s="7"/>
       <c r="T397" s="7"/>
       <c r="U397" s="7">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="398" spans="1:21">
       <c r="A398" s="12">
-        <v>41495</v>
-      </c>
-      <c r="B398" s="7">
-        <v>100</v>
-      </c>
+        <v>41482</v>
+      </c>
+      <c r="B398" s="7"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -51214,21 +51283,19 @@
       <c r="L398" s="7"/>
       <c r="M398" s="7"/>
       <c r="N398" s="7"/>
-      <c r="O398" s="7">
-        <v>300</v>
-      </c>
+      <c r="O398" s="7"/>
       <c r="P398" s="7"/>
       <c r="Q398" s="7"/>
       <c r="R398" s="7"/>
       <c r="S398" s="7"/>
       <c r="T398" s="7"/>
       <c r="U398" s="7">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="399" spans="1:21">
       <c r="A399" s="12">
-        <v>41502</v>
+        <v>41488</v>
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -51237,12 +51304,12 @@
       <c r="F399" s="7"/>
       <c r="G399" s="7"/>
       <c r="H399" s="7"/>
-      <c r="I399" s="7">
-        <v>200</v>
-      </c>
+      <c r="I399" s="7"/>
       <c r="J399" s="7"/>
       <c r="K399" s="7"/>
-      <c r="L399" s="7"/>
+      <c r="L399" s="7">
+        <v>300</v>
+      </c>
       <c r="M399" s="7"/>
       <c r="N399" s="7"/>
       <c r="O399" s="7"/>
@@ -51252,14 +51319,16 @@
       <c r="S399" s="7"/>
       <c r="T399" s="7"/>
       <c r="U399" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="400" spans="1:21">
       <c r="A400" s="12">
-        <v>41514</v>
-      </c>
-      <c r="B400" s="7"/>
+        <v>41495</v>
+      </c>
+      <c r="B400" s="7">
+        <v>100</v>
+      </c>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -51274,19 +51343,21 @@
       <c r="L400" s="7"/>
       <c r="M400" s="7"/>
       <c r="N400" s="7"/>
-      <c r="O400" s="7"/>
+      <c r="O400" s="7">
+        <v>300</v>
+      </c>
       <c r="P400" s="7"/>
       <c r="Q400" s="7"/>
       <c r="R400" s="7"/>
       <c r="S400" s="7"/>
       <c r="T400" s="7"/>
       <c r="U400" s="7">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="401" spans="1:21">
       <c r="A401" s="12">
-        <v>41526</v>
+        <v>41502</v>
       </c>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
@@ -51295,7 +51366,9 @@
       <c r="F401" s="7"/>
       <c r="G401" s="7"/>
       <c r="H401" s="7"/>
-      <c r="I401" s="7"/>
+      <c r="I401" s="7">
+        <v>200</v>
+      </c>
       <c r="J401" s="7"/>
       <c r="K401" s="7"/>
       <c r="L401" s="7"/>
@@ -51303,19 +51376,17 @@
       <c r="N401" s="7"/>
       <c r="O401" s="7"/>
       <c r="P401" s="7"/>
-      <c r="Q401" s="7">
-        <v>400</v>
-      </c>
+      <c r="Q401" s="7"/>
       <c r="R401" s="7"/>
       <c r="S401" s="7"/>
       <c r="T401" s="7"/>
       <c r="U401" s="7">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="402" spans="1:21">
       <c r="A402" s="12">
-        <v>41528</v>
+        <v>41514</v>
       </c>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -51325,7 +51396,9 @@
       <c r="G402" s="7"/>
       <c r="H402" s="7"/>
       <c r="I402" s="7"/>
-      <c r="J402" s="7"/>
+      <c r="J402" s="7">
+        <v>100</v>
+      </c>
       <c r="K402" s="7"/>
       <c r="L402" s="7"/>
       <c r="M402" s="7"/>
@@ -51333,22 +51406,18 @@
       <c r="O402" s="7"/>
       <c r="P402" s="7"/>
       <c r="Q402" s="7"/>
-      <c r="R402" s="7">
-        <v>200</v>
-      </c>
+      <c r="R402" s="7"/>
       <c r="S402" s="7"/>
       <c r="T402" s="7"/>
       <c r="U402" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="403" spans="1:21">
       <c r="A403" s="12">
-        <v>41533</v>
-      </c>
-      <c r="B403" s="7">
-        <v>200</v>
-      </c>
+        <v>41526</v>
+      </c>
+      <c r="B403" s="7"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -51362,20 +51431,20 @@
       <c r="M403" s="7"/>
       <c r="N403" s="7"/>
       <c r="O403" s="7"/>
-      <c r="P403" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q403" s="7"/>
+      <c r="P403" s="7"/>
+      <c r="Q403" s="7">
+        <v>400</v>
+      </c>
       <c r="R403" s="7"/>
       <c r="S403" s="7"/>
       <c r="T403" s="7"/>
       <c r="U403" s="7">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="404" spans="1:21">
       <c r="A404" s="12">
-        <v>41537</v>
+        <v>41528</v>
       </c>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -51385,9 +51454,7 @@
       <c r="G404" s="7"/>
       <c r="H404" s="7"/>
       <c r="I404" s="7"/>
-      <c r="J404" s="7">
-        <v>77</v>
-      </c>
+      <c r="J404" s="7"/>
       <c r="K404" s="7"/>
       <c r="L404" s="7"/>
       <c r="M404" s="7"/>
@@ -51395,18 +51462,22 @@
       <c r="O404" s="7"/>
       <c r="P404" s="7"/>
       <c r="Q404" s="7"/>
-      <c r="R404" s="7"/>
+      <c r="R404" s="7">
+        <v>200</v>
+      </c>
       <c r="S404" s="7"/>
       <c r="T404" s="7"/>
       <c r="U404" s="7">
-        <v>77</v>
+        <v>200</v>
       </c>
     </row>
     <row r="405" spans="1:21">
       <c r="A405" s="12">
-        <v>41547</v>
-      </c>
-      <c r="B405" s="7"/>
+        <v>41533</v>
+      </c>
+      <c r="B405" s="7">
+        <v>200</v>
+      </c>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -51418,22 +51489,22 @@
       <c r="K405" s="7"/>
       <c r="L405" s="7"/>
       <c r="M405" s="7"/>
-      <c r="N405" s="7">
-        <v>80</v>
-      </c>
+      <c r="N405" s="7"/>
       <c r="O405" s="7"/>
-      <c r="P405" s="7"/>
+      <c r="P405" s="7">
+        <v>100</v>
+      </c>
       <c r="Q405" s="7"/>
       <c r="R405" s="7"/>
       <c r="S405" s="7"/>
       <c r="T405" s="7"/>
       <c r="U405" s="7">
-        <v>80</v>
+        <v>300</v>
       </c>
     </row>
     <row r="406" spans="1:21">
       <c r="A406" s="12">
-        <v>41559</v>
+        <v>41537</v>
       </c>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -51444,7 +51515,7 @@
       <c r="H406" s="7"/>
       <c r="I406" s="7"/>
       <c r="J406" s="7">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="K406" s="7"/>
       <c r="L406" s="7"/>
@@ -51457,12 +51528,12 @@
       <c r="S406" s="7"/>
       <c r="T406" s="7"/>
       <c r="U406" s="7">
-        <v>161</v>
+        <v>77</v>
       </c>
     </row>
     <row r="407" spans="1:21">
       <c r="A407" s="12">
-        <v>41565</v>
+        <v>41547</v>
       </c>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -51471,35 +51542,27 @@
       <c r="F407" s="7"/>
       <c r="G407" s="7"/>
       <c r="H407" s="7"/>
-      <c r="I407" s="7">
-        <v>150</v>
-      </c>
+      <c r="I407" s="7"/>
       <c r="J407" s="7"/>
       <c r="K407" s="7"/>
-      <c r="L407" s="7">
-        <v>200</v>
-      </c>
+      <c r="L407" s="7"/>
       <c r="M407" s="7"/>
-      <c r="N407" s="7"/>
+      <c r="N407" s="7">
+        <v>80</v>
+      </c>
       <c r="O407" s="7"/>
-      <c r="P407" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q407" s="7">
-        <v>100</v>
-      </c>
-      <c r="R407" s="7">
-        <v>200</v>
-      </c>
+      <c r="P407" s="7"/>
+      <c r="Q407" s="7"/>
+      <c r="R407" s="7"/>
       <c r="S407" s="7"/>
       <c r="T407" s="7"/>
       <c r="U407" s="7">
-        <v>750</v>
+        <v>80</v>
       </c>
     </row>
     <row r="408" spans="1:21">
       <c r="A408" s="12">
-        <v>41575</v>
+        <v>41559</v>
       </c>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -51510,7 +51573,7 @@
       <c r="H408" s="7"/>
       <c r="I408" s="7"/>
       <c r="J408" s="7">
-        <v>80.5</v>
+        <v>161</v>
       </c>
       <c r="K408" s="7"/>
       <c r="L408" s="7"/>
@@ -51523,12 +51586,12 @@
       <c r="S408" s="7"/>
       <c r="T408" s="7"/>
       <c r="U408" s="7">
-        <v>80.5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="409" spans="1:21">
       <c r="A409" s="12">
-        <v>41579</v>
+        <v>41565</v>
       </c>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -51537,31 +51600,37 @@
       <c r="F409" s="7"/>
       <c r="G409" s="7"/>
       <c r="H409" s="7"/>
-      <c r="I409" s="7"/>
-      <c r="J409" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="I409" s="7">
+        <v>150</v>
+      </c>
+      <c r="J409" s="7"/>
       <c r="K409" s="7"/>
-      <c r="L409" s="7"/>
+      <c r="L409" s="7">
+        <v>200</v>
+      </c>
       <c r="M409" s="7"/>
       <c r="N409" s="7"/>
       <c r="O409" s="7"/>
-      <c r="P409" s="7"/>
-      <c r="Q409" s="7"/>
-      <c r="R409" s="7"/>
+      <c r="P409" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q409" s="7">
+        <v>100</v>
+      </c>
+      <c r="R409" s="7">
+        <v>200</v>
+      </c>
       <c r="S409" s="7"/>
       <c r="T409" s="7"/>
       <c r="U409" s="7">
-        <v>80.5</v>
+        <v>750</v>
       </c>
     </row>
     <row r="410" spans="1:21">
       <c r="A410" s="12">
-        <v>41590</v>
-      </c>
-      <c r="B410" s="7">
-        <v>100</v>
-      </c>
+        <v>41575</v>
+      </c>
+      <c r="B410" s="7"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -51569,7 +51638,9 @@
       <c r="G410" s="7"/>
       <c r="H410" s="7"/>
       <c r="I410" s="7"/>
-      <c r="J410" s="7"/>
+      <c r="J410" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K410" s="7"/>
       <c r="L410" s="7"/>
       <c r="M410" s="7"/>
@@ -51577,22 +51648,18 @@
       <c r="O410" s="7"/>
       <c r="P410" s="7"/>
       <c r="Q410" s="7"/>
-      <c r="R410" s="7">
-        <v>150</v>
-      </c>
+      <c r="R410" s="7"/>
       <c r="S410" s="7"/>
       <c r="T410" s="7"/>
       <c r="U410" s="7">
-        <v>250</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="411" spans="1:21">
       <c r="A411" s="12">
-        <v>41597</v>
-      </c>
-      <c r="B411" s="7">
-        <v>100</v>
-      </c>
+        <v>41579</v>
+      </c>
+      <c r="B411" s="7"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -51600,7 +51667,9 @@
       <c r="G411" s="7"/>
       <c r="H411" s="7"/>
       <c r="I411" s="7"/>
-      <c r="J411" s="7"/>
+      <c r="J411" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K411" s="7"/>
       <c r="L411" s="7"/>
       <c r="M411" s="7"/>
@@ -51612,72 +51681,161 @@
       <c r="S411" s="7"/>
       <c r="T411" s="7"/>
       <c r="U411" s="7">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:21">
+      <c r="A412" s="12">
+        <v>41590</v>
+      </c>
+      <c r="B412" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="412" spans="1:21">
-      <c r="A412" s="6" t="s">
+      <c r="C412" s="7"/>
+      <c r="D412" s="7"/>
+      <c r="E412" s="7"/>
+      <c r="F412" s="7"/>
+      <c r="G412" s="7"/>
+      <c r="H412" s="7"/>
+      <c r="I412" s="7"/>
+      <c r="J412" s="7"/>
+      <c r="K412" s="7"/>
+      <c r="L412" s="7"/>
+      <c r="M412" s="7"/>
+      <c r="N412" s="7"/>
+      <c r="O412" s="7"/>
+      <c r="P412" s="7"/>
+      <c r="Q412" s="7"/>
+      <c r="R412" s="7">
+        <v>150</v>
+      </c>
+      <c r="S412" s="7"/>
+      <c r="T412" s="7"/>
+      <c r="U412" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="413" spans="1:21">
+      <c r="A413" s="12">
+        <v>41597</v>
+      </c>
+      <c r="B413" s="7">
+        <v>100</v>
+      </c>
+      <c r="C413" s="7"/>
+      <c r="D413" s="7"/>
+      <c r="E413" s="7"/>
+      <c r="F413" s="7"/>
+      <c r="G413" s="7"/>
+      <c r="H413" s="7"/>
+      <c r="I413" s="7"/>
+      <c r="J413" s="7"/>
+      <c r="K413" s="7"/>
+      <c r="L413" s="7"/>
+      <c r="M413" s="7"/>
+      <c r="N413" s="7"/>
+      <c r="O413" s="7"/>
+      <c r="P413" s="7"/>
+      <c r="Q413" s="7"/>
+      <c r="R413" s="7"/>
+      <c r="S413" s="7"/>
+      <c r="T413" s="7"/>
+      <c r="U413" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="414" spans="1:21">
+      <c r="A414" s="12">
+        <v>41600</v>
+      </c>
+      <c r="B414" s="7">
+        <v>7</v>
+      </c>
+      <c r="C414" s="7"/>
+      <c r="D414" s="7"/>
+      <c r="E414" s="7"/>
+      <c r="F414" s="7"/>
+      <c r="G414" s="7"/>
+      <c r="H414" s="7"/>
+      <c r="I414" s="7"/>
+      <c r="J414" s="7"/>
+      <c r="K414" s="7"/>
+      <c r="L414" s="7"/>
+      <c r="M414" s="7"/>
+      <c r="N414" s="7"/>
+      <c r="O414" s="7"/>
+      <c r="P414" s="7"/>
+      <c r="Q414" s="7"/>
+      <c r="R414" s="7"/>
+      <c r="S414" s="7"/>
+      <c r="T414" s="7"/>
+      <c r="U414" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:21">
+      <c r="A415" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B412" s="7">
-        <v>-58.5</v>
-      </c>
-      <c r="C412" s="7">
+      <c r="B415" s="7">
+        <v>-51.5</v>
+      </c>
+      <c r="C415" s="7">
         <v>56</v>
       </c>
-      <c r="D412" s="7">
+      <c r="D415" s="7">
         <v>15.899999999999977</v>
       </c>
-      <c r="E412" s="7">
+      <c r="E415" s="7">
         <v>14</v>
       </c>
-      <c r="F412" s="7">
+      <c r="F415" s="7">
         <v>11.400000000000006</v>
       </c>
-      <c r="G412" s="7">
+      <c r="G415" s="7">
         <v>-13.699999999999591</v>
       </c>
-      <c r="H412" s="7">
+      <c r="H415" s="7">
         <v>-34.099999999999909</v>
       </c>
-      <c r="I412" s="7">
+      <c r="I415" s="7">
         <v>8.9999999999995453</v>
       </c>
-      <c r="J412" s="7">
+      <c r="J415" s="7">
         <v>-34.800000000002001</v>
       </c>
-      <c r="K412" s="7">
+      <c r="K415" s="7">
         <v>9.3000000000000114</v>
       </c>
-      <c r="L412" s="7">
+      <c r="L415" s="7">
         <v>-88.899999999999409</v>
       </c>
-      <c r="M412" s="7">
+      <c r="M415" s="7">
         <v>43.400000000000006</v>
       </c>
-      <c r="N412" s="7">
+      <c r="N415" s="7">
         <v>-77.299999999999272</v>
       </c>
-      <c r="O412" s="7">
+      <c r="O415" s="7">
         <v>36.900000000001228</v>
       </c>
-      <c r="P412" s="7">
+      <c r="P415" s="7">
         <v>8.5</v>
       </c>
-      <c r="Q412" s="7">
+      <c r="Q415" s="7">
         <v>-90.599999999999682</v>
       </c>
-      <c r="R412" s="7">
+      <c r="R415" s="7">
         <v>58.700000000000273</v>
       </c>
-      <c r="S412" s="7">
+      <c r="S415" s="7">
         <v>0</v>
       </c>
-      <c r="T412" s="7">
+      <c r="T415" s="7">
         <v>82.200000000000017</v>
       </c>
-      <c r="U412" s="7">
-        <v>-52.59999999998945</v>
+      <c r="U415" s="7">
+        <v>-45.59999999998945</v>
       </c>
     </row>
   </sheetData>
@@ -51691,7 +51849,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51817,7 +51975,7 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3017.2000000000003</v>
+        <v>-3017.2</v>
       </c>
       <c r="K3" s="7">
         <v>-220.7</v>
@@ -51829,19 +51987,19 @@
         <v>-176.6</v>
       </c>
       <c r="N3" s="7">
-        <v>-1297.2999999999997</v>
+        <v>-1297.2999999999995</v>
       </c>
       <c r="O3" s="7">
         <v>-1542.0999999999988</v>
       </c>
       <c r="P3" s="7">
-        <v>-784.5</v>
+        <v>-784.49999999999989</v>
       </c>
       <c r="Q3" s="7">
         <v>-1090.5999999999997</v>
       </c>
       <c r="R3" s="7">
-        <v>-891.29999999999973</v>
+        <v>-891.29999999999961</v>
       </c>
       <c r="S3" s="7">
         <v>-167.79999999999998</v>
@@ -51855,7 +52013,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="7">
-        <v>643.5</v>
+        <v>650.5</v>
       </c>
       <c r="C4" s="7">
         <v>87</v>
@@ -51909,7 +52067,7 @@
         <v>250</v>
       </c>
       <c r="T4" s="7">
-        <v>16791.400000000001</v>
+        <v>16798.400000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -51917,7 +52075,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="8">
-        <v>-58.499999999999773</v>
+        <v>-51.499999999999773</v>
       </c>
       <c r="C5" s="8">
         <v>56</v>
@@ -51941,7 +52099,7 @@
         <v>8.9999999999995453</v>
       </c>
       <c r="J5" s="8">
-        <v>-34.800000000000182</v>
+        <v>-34.799999999999727</v>
       </c>
       <c r="K5" s="8">
         <v>9.3000000000000114</v>
@@ -51953,25 +52111,25 @@
         <v>43.400000000000006</v>
       </c>
       <c r="N5" s="8">
-        <v>-77.299999999999727</v>
+        <v>-77.2999999999995</v>
       </c>
       <c r="O5" s="8">
         <v>36.900000000001228</v>
       </c>
       <c r="P5" s="8">
-        <v>8.5</v>
+        <v>8.5000000000001137</v>
       </c>
       <c r="Q5" s="8">
         <v>-90.599999999999682</v>
       </c>
       <c r="R5" s="8">
-        <v>58.700000000000273</v>
+        <v>58.700000000000387</v>
       </c>
       <c r="S5" s="8">
         <v>82.200000000000017</v>
       </c>
       <c r="T5" s="8">
-        <v>-52.599999999998545</v>
+        <v>-45.599999999998545</v>
       </c>
     </row>
   </sheetData>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="消费记录明细" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4077" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="567">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2457,16 +2457,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2478,87 +2487,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="13">
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -11962,7 +11914,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:U415" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -13644,20 +13596,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="15">
+    <format dxfId="9">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="8">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -13671,7 +13623,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -13796,20 +13748,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="11">
+    <format dxfId="5">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="4">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14109,11 +14061,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1485"/>
+  <dimension ref="A1:V1493"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1467" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1488" sqref="E1488"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1473" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1493" sqref="B1493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14258,7 +14210,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -14278,7 +14230,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -14296,7 +14248,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -14314,7 +14266,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -14332,7 +14284,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -14350,7 +14302,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -14368,7 +14320,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -15178,7 +15130,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -15198,7 +15150,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="24"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -15216,7 +15168,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -16034,7 +15986,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="26"/>
+      <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -16052,7 +16004,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="27"/>
+      <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -16070,7 +16022,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="28"/>
+      <c r="F111" s="31"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -16207,7 +16159,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="26" t="s">
+      <c r="F119" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -16227,7 +16179,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="28"/>
+      <c r="F120" s="31"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -17124,7 +17076,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="26" t="s">
+      <c r="F172" s="29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -17144,7 +17096,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="27"/>
+      <c r="F173" s="30"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -17162,7 +17114,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="27"/>
+      <c r="F174" s="30"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -17180,7 +17132,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="28"/>
+      <c r="F175" s="31"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -19198,7 +19150,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="29" t="s">
+      <c r="F288" s="22" t="s">
         <v>202</v>
       </c>
     </row>
@@ -19218,7 +19170,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="31"/>
+      <c r="F289" s="26"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -19236,7 +19188,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="30"/>
+      <c r="F290" s="23"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -19254,7 +19206,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="29" t="s">
+      <c r="F291" s="22" t="s">
         <v>212</v>
       </c>
     </row>
@@ -19274,7 +19226,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="31"/>
+      <c r="F292" s="26"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -19292,7 +19244,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="31"/>
+      <c r="F293" s="26"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -19310,7 +19262,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="30"/>
+      <c r="F294" s="23"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -19328,7 +19280,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="29" t="s">
+      <c r="F295" s="22" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19348,7 +19300,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="30"/>
+      <c r="F296" s="23"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -19366,7 +19318,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="23" t="s">
+      <c r="F297" s="24" t="s">
         <v>207</v>
       </c>
     </row>
@@ -20243,7 +20195,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="29" t="s">
+      <c r="F342" s="22" t="s">
         <v>284</v>
       </c>
     </row>
@@ -20263,7 +20215,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="30"/>
+      <c r="F343" s="23"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -37951,7 +37903,7 @@
     </row>
     <row r="1478" spans="1:5">
       <c r="A1478" s="4">
-        <v>41599</v>
+        <v>41598</v>
       </c>
       <c r="B1478" s="1" t="s">
         <v>478</v>
@@ -37962,7 +37914,7 @@
     </row>
     <row r="1479" spans="1:5">
       <c r="A1479" s="4">
-        <v>41599</v>
+        <v>41598</v>
       </c>
       <c r="B1479" s="1" t="s">
         <v>136</v>
@@ -37973,7 +37925,7 @@
     </row>
     <row r="1480" spans="1:5">
       <c r="A1480" s="4">
-        <v>41599</v>
+        <v>41598</v>
       </c>
       <c r="B1480" s="1" t="s">
         <v>469</v>
@@ -37984,7 +37936,7 @@
     </row>
     <row r="1481" spans="1:5">
       <c r="A1481" s="4">
-        <v>41599</v>
+        <v>41598</v>
       </c>
       <c r="B1481" s="1" t="s">
         <v>137</v>
@@ -37995,7 +37947,7 @@
     </row>
     <row r="1482" spans="1:5">
       <c r="A1482" s="4">
-        <v>41599</v>
+        <v>41598</v>
       </c>
       <c r="B1482" s="1" t="s">
         <v>10</v>
@@ -38006,7 +37958,7 @@
     </row>
     <row r="1483" spans="1:5">
       <c r="A1483" s="4">
-        <v>41599</v>
+        <v>41598</v>
       </c>
       <c r="B1483" s="1" t="s">
         <v>306</v>
@@ -38017,7 +37969,7 @@
     </row>
     <row r="1484" spans="1:5">
       <c r="A1484" s="4">
-        <v>41599</v>
+        <v>41598</v>
       </c>
       <c r="B1484" s="1" t="s">
         <v>71</v>
@@ -38028,7 +37980,7 @@
     </row>
     <row r="1485" spans="1:5">
       <c r="A1485" s="4">
-        <v>41600</v>
+        <v>41599</v>
       </c>
       <c r="B1485" s="1" t="s">
         <v>10</v>
@@ -38043,32 +37995,125 @@
         <v>566</v>
       </c>
     </row>
+    <row r="1486" spans="1:5">
+      <c r="A1486" s="4">
+        <v>41599</v>
+      </c>
+      <c r="B1486" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1486" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:5">
+      <c r="A1487" s="4">
+        <v>41599</v>
+      </c>
+      <c r="B1487" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1487" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:5">
+      <c r="A1488" s="4">
+        <v>41599</v>
+      </c>
+      <c r="B1488" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1488" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:4">
+      <c r="A1489" s="4">
+        <v>41599</v>
+      </c>
+      <c r="B1489" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1489" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:4">
+      <c r="A1490" s="4">
+        <v>41599</v>
+      </c>
+      <c r="B1490" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1490" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:4">
+      <c r="A1491" s="4">
+        <v>41599</v>
+      </c>
+      <c r="B1491" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1491" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:4">
+      <c r="A1492" s="4">
+        <v>41599</v>
+      </c>
+      <c r="B1492" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1492" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:4">
+      <c r="A1493" s="4">
+        <v>41599</v>
+      </c>
+      <c r="B1493" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1493" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F172:F175"/>
     <mergeCell ref="F342:F343"/>
     <mergeCell ref="F295:F296"/>
     <mergeCell ref="F297:F298"/>
     <mergeCell ref="F291:F294"/>
     <mergeCell ref="F288:F290"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F172:F175"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C2 C4 C6:C1048576">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1486:C1493">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51848,7 +51893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4137" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4138" uniqueCount="568">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2254,6 +2254,10 @@
   </si>
   <si>
     <t>购动车票找零转存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2457,25 +2461,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2487,79 +2482,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <b/>
@@ -12099,7 +12035,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:U418" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -13791,20 +13727,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="15">
+    <format dxfId="7">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="6">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -13818,7 +13754,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -13943,20 +13879,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="11">
+    <format dxfId="3">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="2">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14260,7 +14196,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1519" sqref="E1519"/>
+      <selection pane="bottomLeft" activeCell="E1518" sqref="E1518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14405,7 +14341,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -14425,7 +14361,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -14443,7 +14379,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -14461,7 +14397,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -14479,7 +14415,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -14497,7 +14433,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -14515,7 +14451,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -15325,7 +15261,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="23" t="s">
         <v>65</v>
       </c>
     </row>
@@ -15345,7 +15281,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="28"/>
+      <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -15363,7 +15299,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="28"/>
+      <c r="F61" s="24"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -16181,7 +16117,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="29"/>
+      <c r="F109" s="26"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -16199,7 +16135,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="30"/>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -16217,7 +16153,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="31"/>
+      <c r="F111" s="28"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -16354,7 +16290,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -16374,7 +16310,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="31"/>
+      <c r="F120" s="28"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -17271,7 +17207,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="29" t="s">
+      <c r="F172" s="26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -17291,7 +17227,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="30"/>
+      <c r="F173" s="27"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -17309,7 +17245,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="30"/>
+      <c r="F174" s="27"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -17327,7 +17263,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="31"/>
+      <c r="F175" s="28"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -19345,7 +19281,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="22" t="s">
+      <c r="F288" s="29" t="s">
         <v>202</v>
       </c>
     </row>
@@ -19365,7 +19301,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="26"/>
+      <c r="F289" s="31"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -19383,7 +19319,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="23"/>
+      <c r="F290" s="30"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -19401,7 +19337,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="22" t="s">
+      <c r="F291" s="29" t="s">
         <v>212</v>
       </c>
     </row>
@@ -19421,7 +19357,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="26"/>
+      <c r="F292" s="31"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -19439,7 +19375,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="26"/>
+      <c r="F293" s="31"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -19457,7 +19393,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="23"/>
+      <c r="F294" s="30"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -19475,7 +19411,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="22" t="s">
+      <c r="F295" s="29" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19495,7 +19431,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="23"/>
+      <c r="F296" s="30"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -19513,7 +19449,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="24" t="s">
+      <c r="F297" s="23" t="s">
         <v>207</v>
       </c>
     </row>
@@ -20390,7 +20326,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="22" t="s">
+      <c r="F342" s="29" t="s">
         <v>284</v>
       </c>
     </row>
@@ -20410,7 +20346,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="23"/>
+      <c r="F343" s="30"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -38525,7 +38461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1505" spans="1:4">
+    <row r="1505" spans="1:5">
       <c r="A1505" s="4">
         <v>41600</v>
       </c>
@@ -38539,7 +38475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1506" spans="1:4">
+    <row r="1506" spans="1:5">
       <c r="A1506" s="4">
         <v>41603</v>
       </c>
@@ -38553,7 +38489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1507" spans="1:4">
+    <row r="1507" spans="1:5">
       <c r="A1507" s="4">
         <v>41603</v>
       </c>
@@ -38564,7 +38500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1508" spans="1:4">
+    <row r="1508" spans="1:5">
       <c r="A1508" s="4">
         <v>41603</v>
       </c>
@@ -38575,7 +38511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1509" spans="1:4">
+    <row r="1509" spans="1:5">
       <c r="A1509" s="4">
         <v>41603</v>
       </c>
@@ -38586,7 +38522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1510" spans="1:4">
+    <row r="1510" spans="1:5">
       <c r="A1510" s="4">
         <v>41603</v>
       </c>
@@ -38597,7 +38533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1511" spans="1:4">
+    <row r="1511" spans="1:5">
       <c r="A1511" s="4">
         <v>41603</v>
       </c>
@@ -38608,7 +38544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1512" spans="1:4">
+    <row r="1512" spans="1:5">
       <c r="A1512" s="4">
         <v>41603</v>
       </c>
@@ -38619,7 +38555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1513" spans="1:4">
+    <row r="1513" spans="1:5">
       <c r="A1513" s="4">
         <v>41603</v>
       </c>
@@ -38630,7 +38566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1514" spans="1:4">
+    <row r="1514" spans="1:5">
       <c r="A1514" s="4">
         <v>41603</v>
       </c>
@@ -38641,7 +38577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1515" spans="1:4">
+    <row r="1515" spans="1:5">
       <c r="A1515" s="4">
         <v>41603</v>
       </c>
@@ -38651,50 +38587,53 @@
       <c r="D1515" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1516" spans="1:4">
+      <c r="E1515" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:5">
       <c r="A1516" s="4"/>
     </row>
-    <row r="1517" spans="1:4">
+    <row r="1517" spans="1:5">
       <c r="A1517" s="4"/>
     </row>
-    <row r="1518" spans="1:4">
+    <row r="1518" spans="1:5">
       <c r="A1518" s="4"/>
     </row>
-    <row r="1519" spans="1:4">
+    <row r="1519" spans="1:5">
       <c r="A1519" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F342:F343"/>
+    <mergeCell ref="F295:F296"/>
+    <mergeCell ref="F297:F298"/>
+    <mergeCell ref="F291:F294"/>
+    <mergeCell ref="F288:F290"/>
     <mergeCell ref="F6:F12"/>
     <mergeCell ref="F59:F62"/>
     <mergeCell ref="F109:F111"/>
     <mergeCell ref="F119:F120"/>
     <mergeCell ref="F172:F175"/>
-    <mergeCell ref="F342:F343"/>
-    <mergeCell ref="F295:F296"/>
-    <mergeCell ref="F297:F298"/>
-    <mergeCell ref="F291:F294"/>
-    <mergeCell ref="F288:F290"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4138" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4137" uniqueCount="567">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2254,10 +2254,6 @@
   </si>
   <si>
     <t>购动车票找零转存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2461,16 +2457,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2481,15 +2486,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14195,8 +14191,8 @@
   <dimension ref="A1:V1519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1518" sqref="E1518"/>
+      <pane ySplit="1" topLeftCell="A1506" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1515" sqref="E1515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14341,7 +14337,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -14361,7 +14357,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -14379,7 +14375,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -14397,7 +14393,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -14415,7 +14411,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -14433,7 +14429,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -14451,7 +14447,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -15261,7 +15257,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -15281,7 +15277,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="24"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -15299,7 +15295,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -16117,7 +16113,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="26"/>
+      <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -16135,7 +16131,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="27"/>
+      <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -16153,7 +16149,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="28"/>
+      <c r="F111" s="31"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -16290,7 +16286,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="26" t="s">
+      <c r="F119" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -16310,7 +16306,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="28"/>
+      <c r="F120" s="31"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -17207,7 +17203,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="26" t="s">
+      <c r="F172" s="29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -17227,7 +17223,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="27"/>
+      <c r="F173" s="30"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -17245,7 +17241,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="27"/>
+      <c r="F174" s="30"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -17263,7 +17259,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="28"/>
+      <c r="F175" s="31"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -19281,7 +19277,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="29" t="s">
+      <c r="F288" s="22" t="s">
         <v>202</v>
       </c>
     </row>
@@ -19301,7 +19297,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="31"/>
+      <c r="F289" s="26"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -19319,7 +19315,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="30"/>
+      <c r="F290" s="23"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -19337,7 +19333,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="29" t="s">
+      <c r="F291" s="22" t="s">
         <v>212</v>
       </c>
     </row>
@@ -19357,7 +19353,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="31"/>
+      <c r="F292" s="26"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -19375,7 +19371,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="31"/>
+      <c r="F293" s="26"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -19393,7 +19389,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="30"/>
+      <c r="F294" s="23"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -19411,7 +19407,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="29" t="s">
+      <c r="F295" s="22" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19431,7 +19427,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="30"/>
+      <c r="F296" s="23"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -19449,7 +19445,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="23" t="s">
+      <c r="F297" s="24" t="s">
         <v>207</v>
       </c>
     </row>
@@ -20326,7 +20322,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="29" t="s">
+      <c r="F342" s="22" t="s">
         <v>284</v>
       </c>
     </row>
@@ -20346,7 +20342,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="30"/>
+      <c r="F343" s="23"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -38461,7 +38457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1505" spans="1:5">
+    <row r="1505" spans="1:4">
       <c r="A1505" s="4">
         <v>41600</v>
       </c>
@@ -38475,7 +38471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1506" spans="1:5">
+    <row r="1506" spans="1:4">
       <c r="A1506" s="4">
         <v>41603</v>
       </c>
@@ -38489,7 +38485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1507" spans="1:5">
+    <row r="1507" spans="1:4">
       <c r="A1507" s="4">
         <v>41603</v>
       </c>
@@ -38500,7 +38496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1508" spans="1:5">
+    <row r="1508" spans="1:4">
       <c r="A1508" s="4">
         <v>41603</v>
       </c>
@@ -38511,7 +38507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1509" spans="1:5">
+    <row r="1509" spans="1:4">
       <c r="A1509" s="4">
         <v>41603</v>
       </c>
@@ -38522,7 +38518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1510" spans="1:5">
+    <row r="1510" spans="1:4">
       <c r="A1510" s="4">
         <v>41603</v>
       </c>
@@ -38533,7 +38529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1511" spans="1:5">
+    <row r="1511" spans="1:4">
       <c r="A1511" s="4">
         <v>41603</v>
       </c>
@@ -38544,7 +38540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1512" spans="1:5">
+    <row r="1512" spans="1:4">
       <c r="A1512" s="4">
         <v>41603</v>
       </c>
@@ -38555,7 +38551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1513" spans="1:5">
+    <row r="1513" spans="1:4">
       <c r="A1513" s="4">
         <v>41603</v>
       </c>
@@ -38566,7 +38562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1514" spans="1:5">
+    <row r="1514" spans="1:4">
       <c r="A1514" s="4">
         <v>41603</v>
       </c>
@@ -38577,7 +38573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1515" spans="1:5">
+    <row r="1515" spans="1:4">
       <c r="A1515" s="4">
         <v>41603</v>
       </c>
@@ -38587,34 +38583,31 @@
       <c r="D1515" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1515" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="1516" spans="1:5">
+    </row>
+    <row r="1516" spans="1:4">
       <c r="A1516" s="4"/>
     </row>
-    <row r="1517" spans="1:5">
+    <row r="1517" spans="1:4">
       <c r="A1517" s="4"/>
     </row>
-    <row r="1518" spans="1:5">
+    <row r="1518" spans="1:4">
       <c r="A1518" s="4"/>
     </row>
-    <row r="1519" spans="1:5">
+    <row r="1519" spans="1:4">
       <c r="A1519" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F172:F175"/>
     <mergeCell ref="F342:F343"/>
     <mergeCell ref="F295:F296"/>
     <mergeCell ref="F297:F298"/>
     <mergeCell ref="F291:F294"/>
     <mergeCell ref="F288:F290"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F172:F175"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4137" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4151" uniqueCount="567">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2457,25 +2457,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2487,11 +2478,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2559,46 +2599,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -13723,20 +13723,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="7">
+    <format dxfId="11">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="10">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -13875,20 +13875,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="3">
+    <format dxfId="7">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="6">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14188,11 +14188,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1519"/>
+  <dimension ref="A1:V1522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1506" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1515" sqref="E1515"/>
+      <pane ySplit="1" topLeftCell="A1503" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1515" sqref="D1515:D1522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14337,7 +14337,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -14357,7 +14357,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -14375,7 +14375,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -14393,7 +14393,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -14411,7 +14411,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -14429,7 +14429,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -14447,7 +14447,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -15257,7 +15257,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="23" t="s">
         <v>65</v>
       </c>
     </row>
@@ -15277,7 +15277,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="28"/>
+      <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -15295,7 +15295,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="28"/>
+      <c r="F61" s="24"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -16113,7 +16113,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="29"/>
+      <c r="F109" s="26"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -16131,7 +16131,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="30"/>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -16149,7 +16149,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="31"/>
+      <c r="F111" s="28"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -16286,7 +16286,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -16306,7 +16306,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="31"/>
+      <c r="F120" s="28"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -17203,7 +17203,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="29" t="s">
+      <c r="F172" s="26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -17223,7 +17223,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="30"/>
+      <c r="F173" s="27"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -17241,7 +17241,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="30"/>
+      <c r="F174" s="27"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -17259,7 +17259,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="31"/>
+      <c r="F175" s="28"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -19277,7 +19277,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="22" t="s">
+      <c r="F288" s="29" t="s">
         <v>202</v>
       </c>
     </row>
@@ -19297,7 +19297,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="26"/>
+      <c r="F289" s="31"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -19315,7 +19315,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="23"/>
+      <c r="F290" s="30"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -19333,7 +19333,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="22" t="s">
+      <c r="F291" s="29" t="s">
         <v>212</v>
       </c>
     </row>
@@ -19353,7 +19353,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="26"/>
+      <c r="F292" s="31"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -19371,7 +19371,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="26"/>
+      <c r="F293" s="31"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -19389,7 +19389,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="23"/>
+      <c r="F294" s="30"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -19407,7 +19407,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="22" t="s">
+      <c r="F295" s="29" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19427,7 +19427,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="23"/>
+      <c r="F296" s="30"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -19445,7 +19445,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="24" t="s">
+      <c r="F297" s="23" t="s">
         <v>207</v>
       </c>
     </row>
@@ -20322,7 +20322,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="22" t="s">
+      <c r="F342" s="29" t="s">
         <v>284</v>
       </c>
     </row>
@@ -20342,7 +20342,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="23"/>
+      <c r="F343" s="30"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -38585,48 +38585,113 @@
       </c>
     </row>
     <row r="1516" spans="1:4">
-      <c r="A1516" s="4"/>
+      <c r="A1516" s="4">
+        <v>41604</v>
+      </c>
+      <c r="B1516" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1516" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1517" spans="1:4">
-      <c r="A1517" s="4"/>
+      <c r="A1517" s="4">
+        <v>41604</v>
+      </c>
+      <c r="B1517" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1517" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1518" spans="1:4">
-      <c r="A1518" s="4"/>
+      <c r="A1518" s="4">
+        <v>41604</v>
+      </c>
+      <c r="B1518" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1518" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1519" spans="1:4">
-      <c r="A1519" s="4"/>
+      <c r="A1519" s="4">
+        <v>41604</v>
+      </c>
+      <c r="B1519" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1519" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:4">
+      <c r="A1520" s="4">
+        <v>41604</v>
+      </c>
+      <c r="B1520" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1520" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:4">
+      <c r="A1521" s="4">
+        <v>41604</v>
+      </c>
+      <c r="B1521" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1521" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:4">
+      <c r="A1522" s="4">
+        <v>41604</v>
+      </c>
+      <c r="B1522" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1522" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F342:F343"/>
+    <mergeCell ref="F295:F296"/>
+    <mergeCell ref="F297:F298"/>
+    <mergeCell ref="F291:F294"/>
+    <mergeCell ref="F288:F290"/>
     <mergeCell ref="F6:F12"/>
     <mergeCell ref="F59:F62"/>
     <mergeCell ref="F109:F111"/>
     <mergeCell ref="F119:F120"/>
     <mergeCell ref="F172:F175"/>
-    <mergeCell ref="F342:F343"/>
-    <mergeCell ref="F295:F296"/>
-    <mergeCell ref="F297:F298"/>
-    <mergeCell ref="F291:F294"/>
-    <mergeCell ref="F288:F290"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="消费记录明细" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="10" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4151" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="567">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2457,16 +2457,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2478,59 +2487,146 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="28">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2600,6 +2696,46 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -2611,13 +2747,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41603.425662615744" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1506">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41605.567025694443" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1531">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="消费记录明细"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-11-26T00:00:00" count="320">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-11-28T00:00:00" count="322">
         <d v="2011-09-09T00:00:00"/>
         <d v="2011-09-30T00:00:00"/>
         <d v="2011-11-28T00:00:00"/>
@@ -2933,11 +3069,13 @@
         <d v="2013-11-21T00:00:00"/>
         <d v="2013-11-22T00:00:00"/>
         <d v="2013-11-25T00:00:00"/>
+        <d v="2013-11-26T00:00:00"/>
+        <d v="2013-11-27T00:00:00"/>
         <m/>
         <d v="2011-01-12T00:00:00" u="1"/>
+        <d v="2011-01-17T00:00:00" u="1"/>
+        <d v="2011-11-06T00:00:00" u="1"/>
         <d v="2013-05-14T00:00:00" u="1"/>
-        <d v="2011-11-06T00:00:00" u="1"/>
-        <d v="2011-01-17T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="消费者" numFmtId="0">
@@ -2990,7 +3128,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1506">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1531">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -12022,7 +12160,157 @@
     <x v="1"/>
   </r>
   <r>
+    <x v="314"/>
+    <x v="13"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="314"/>
+    <x v="20"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="314"/>
+    <x v="12"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="314"/>
+    <x v="19"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="314"/>
+    <x v="15"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="314"/>
+    <x v="8"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="314"/>
+    <x v="17"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="314"/>
+    <x v="10"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="314"/>
+    <x v="22"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="315"/>
+    <x v="13"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="315"/>
+    <x v="20"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="315"/>
+    <x v="12"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="315"/>
+    <x v="19"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="315"/>
+    <x v="15"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="315"/>
+    <x v="10"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="315"/>
+    <x v="22"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="316"/>
+    <x v="13"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="316"/>
+    <x v="20"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="316"/>
+    <x v="12"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="316"/>
+    <x v="19"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="316"/>
+    <x v="15"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="316"/>
+    <x v="8"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="316"/>
+    <x v="19"/>
+    <n v="200"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="317"/>
+    <x v="24"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="317"/>
+    <x v="24"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="317"/>
     <x v="24"/>
     <m/>
     <x v="2"/>
@@ -12031,16 +12319,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:U418" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:U422" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="321">
-        <item m="1" x="316"/>
+      <items count="323">
+        <item m="1" x="318"/>
         <item m="1" x="319"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="318"/>
+        <item m="1" x="320"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -12240,7 +12528,7 @@
         <item x="198"/>
         <item x="199"/>
         <item x="200"/>
-        <item m="1" x="317"/>
+        <item m="1" x="321"/>
         <item x="201"/>
         <item x="202"/>
         <item x="203"/>
@@ -12356,6 +12644,8 @@
         <item x="313"/>
         <item x="314"/>
         <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12404,7 +12694,7 @@
     <field x="3"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="416">
+  <rowItems count="420">
     <i>
       <x/>
     </i>
@@ -13281,6 +13571,15 @@
     <i r="1">
       <x v="317"/>
     </i>
+    <i r="1">
+      <x v="318"/>
+    </i>
+    <i r="1">
+      <x v="319"/>
+    </i>
+    <i r="1">
+      <x v="320"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -13650,6 +13949,9 @@
     <i r="1">
       <x v="318"/>
     </i>
+    <i r="1">
+      <x v="320"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -13723,20 +14025,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="11">
+    <format dxfId="23">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="22">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -13750,7 +14052,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -13875,20 +14177,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="7">
+    <format dxfId="19">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="18">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14188,11 +14490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1522"/>
+  <dimension ref="A1:V1531"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1503" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1515" sqref="D1515:D1522"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1512" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1528" sqref="B1528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14337,7 +14639,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -14357,7 +14659,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -14375,7 +14677,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -14393,7 +14695,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -14411,7 +14713,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -14429,7 +14731,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -14447,7 +14749,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -15257,7 +15559,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -15277,7 +15579,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="24"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -15295,7 +15597,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -16113,7 +16415,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="26"/>
+      <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -16131,7 +16433,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="27"/>
+      <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -16149,7 +16451,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="28"/>
+      <c r="F111" s="31"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -16286,7 +16588,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="26" t="s">
+      <c r="F119" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -16306,7 +16608,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="28"/>
+      <c r="F120" s="31"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -17203,7 +17505,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="26" t="s">
+      <c r="F172" s="29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -17223,7 +17525,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="27"/>
+      <c r="F173" s="30"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -17241,7 +17543,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="27"/>
+      <c r="F174" s="30"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -17259,7 +17561,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="28"/>
+      <c r="F175" s="31"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -19277,7 +19579,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="29" t="s">
+      <c r="F288" s="22" t="s">
         <v>202</v>
       </c>
     </row>
@@ -19297,7 +19599,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="31"/>
+      <c r="F289" s="26"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -19315,7 +19617,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="30"/>
+      <c r="F290" s="23"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -19333,7 +19635,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="29" t="s">
+      <c r="F291" s="22" t="s">
         <v>212</v>
       </c>
     </row>
@@ -19353,7 +19655,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="31"/>
+      <c r="F292" s="26"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -19371,7 +19673,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="31"/>
+      <c r="F293" s="26"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -19389,7 +19691,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="30"/>
+      <c r="F294" s="23"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -19407,7 +19709,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="29" t="s">
+      <c r="F295" s="22" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19427,7 +19729,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="30"/>
+      <c r="F296" s="23"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -19445,7 +19747,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="23" t="s">
+      <c r="F297" s="24" t="s">
         <v>207</v>
       </c>
     </row>
@@ -20322,7 +20624,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="29" t="s">
+      <c r="F342" s="22" t="s">
         <v>284</v>
       </c>
     </row>
@@ -20342,7 +20644,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="30"/>
+      <c r="F343" s="23"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -38661,37 +38963,123 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1523" spans="1:4">
+      <c r="A1523" s="4">
+        <v>41605</v>
+      </c>
+      <c r="B1523" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1523" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:4">
+      <c r="A1524" s="4">
+        <v>41605</v>
+      </c>
+      <c r="B1524" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1524" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:4">
+      <c r="A1525" s="4">
+        <v>41605</v>
+      </c>
+      <c r="B1525" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1525" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:4">
+      <c r="A1526" s="4">
+        <v>41605</v>
+      </c>
+      <c r="B1526" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1526" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:4">
+      <c r="A1527" s="4">
+        <v>41605</v>
+      </c>
+      <c r="B1527" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1527" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:4">
+      <c r="A1528" s="4">
+        <v>41605</v>
+      </c>
+      <c r="B1528" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1528" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:4">
+      <c r="A1529" s="4">
+        <v>41605</v>
+      </c>
+      <c r="B1529" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1529" s="1">
+        <v>200</v>
+      </c>
+      <c r="D1529" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:4">
+      <c r="A1530" s="4"/>
+    </row>
+    <row r="1531" spans="1:4">
+      <c r="A1531" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F172:F175"/>
     <mergeCell ref="F342:F343"/>
     <mergeCell ref="F295:F296"/>
     <mergeCell ref="F297:F298"/>
     <mergeCell ref="F291:F294"/>
     <mergeCell ref="F288:F290"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F172:F175"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38710,11 +39098,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V418"/>
+  <dimension ref="A1:V422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G392" sqref="G392"/>
+      <selection pane="bottomLeft" activeCell="E398" sqref="E398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -48870,87 +49258,41 @@
       </c>
     </row>
     <row r="295" spans="1:21">
-      <c r="A295" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B295" s="7">
-        <v>750.5</v>
-      </c>
-      <c r="C295" s="7">
-        <v>87</v>
-      </c>
-      <c r="D295" s="7">
-        <v>300</v>
-      </c>
-      <c r="E295" s="7">
-        <v>56</v>
-      </c>
-      <c r="F295" s="7">
-        <v>200</v>
-      </c>
-      <c r="G295" s="7">
-        <v>2023</v>
-      </c>
-      <c r="H295" s="7">
-        <v>555</v>
-      </c>
-      <c r="I295" s="7">
-        <v>2502.5</v>
-      </c>
-      <c r="J295" s="7">
-        <v>3182.4</v>
-      </c>
-      <c r="K295" s="7">
-        <v>230</v>
-      </c>
-      <c r="L295" s="7">
-        <v>1400</v>
-      </c>
-      <c r="M295" s="7">
-        <v>220</v>
-      </c>
-      <c r="N295" s="7">
-        <v>1320</v>
-      </c>
-      <c r="O295" s="7">
-        <v>1579</v>
-      </c>
-      <c r="P295" s="7">
-        <v>943</v>
-      </c>
-      <c r="Q295" s="7">
-        <v>1000</v>
-      </c>
-      <c r="R295" s="7">
-        <v>950</v>
-      </c>
-      <c r="S295" s="7">
-        <v>100</v>
-      </c>
-      <c r="T295" s="7">
-        <v>250</v>
-      </c>
-      <c r="U295" s="7">
-        <v>17648.400000000001</v>
-      </c>
+      <c r="A295" s="12">
+        <v>41603</v>
+      </c>
+      <c r="B295" s="7"/>
+      <c r="C295" s="7"/>
+      <c r="D295" s="7"/>
+      <c r="E295" s="7"/>
+      <c r="F295" s="7"/>
+      <c r="G295" s="7"/>
+      <c r="H295" s="7"/>
+      <c r="I295" s="7"/>
+      <c r="J295" s="7"/>
+      <c r="K295" s="7"/>
+      <c r="L295" s="7"/>
+      <c r="M295" s="7"/>
+      <c r="N295" s="7"/>
+      <c r="O295" s="7"/>
+      <c r="P295" s="7"/>
+      <c r="Q295" s="7"/>
+      <c r="R295" s="7"/>
+      <c r="S295" s="7"/>
+      <c r="T295" s="7"/>
+      <c r="U295" s="7"/>
     </row>
     <row r="296" spans="1:21">
       <c r="A296" s="12">
-        <v>40875</v>
+        <v>41604</v>
       </c>
       <c r="B296" s="7"/>
-      <c r="C296" s="7">
-        <v>63</v>
-      </c>
+      <c r="C296" s="7"/>
       <c r="D296" s="7"/>
-      <c r="E296" s="7">
-        <v>56</v>
-      </c>
+      <c r="E296" s="7"/>
       <c r="F296" s="7"/>
       <c r="G296" s="7"/>
-      <c r="H296" s="7">
-        <v>0</v>
-      </c>
+      <c r="H296" s="7"/>
       <c r="I296" s="7"/>
       <c r="J296" s="7"/>
       <c r="K296" s="7"/>
@@ -48963,17 +49305,13 @@
       <c r="R296" s="7"/>
       <c r="S296" s="7"/>
       <c r="T296" s="7"/>
-      <c r="U296" s="7">
-        <v>119</v>
-      </c>
+      <c r="U296" s="7"/>
     </row>
     <row r="297" spans="1:21">
       <c r="A297" s="12">
-        <v>40879</v>
-      </c>
-      <c r="B297" s="7">
-        <v>7</v>
-      </c>
+        <v>41605</v>
+      </c>
+      <c r="B297" s="7"/>
       <c r="C297" s="7"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -48992,53 +49330,91 @@
       <c r="R297" s="7"/>
       <c r="S297" s="7"/>
       <c r="T297" s="7"/>
-      <c r="U297" s="7">
-        <v>7</v>
-      </c>
+      <c r="U297" s="7"/>
     </row>
     <row r="298" spans="1:21">
-      <c r="A298" s="12">
-        <v>40883</v>
-      </c>
-      <c r="B298" s="7"/>
-      <c r="C298" s="7"/>
-      <c r="D298" s="7"/>
-      <c r="E298" s="7"/>
-      <c r="F298" s="7"/>
+      <c r="A298" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B298" s="7">
+        <v>750.5</v>
+      </c>
+      <c r="C298" s="7">
+        <v>87</v>
+      </c>
+      <c r="D298" s="7">
+        <v>300</v>
+      </c>
+      <c r="E298" s="7">
+        <v>56</v>
+      </c>
+      <c r="F298" s="7">
+        <v>200</v>
+      </c>
       <c r="G298" s="7">
-        <v>50</v>
-      </c>
-      <c r="H298" s="7"/>
-      <c r="I298" s="7"/>
-      <c r="J298" s="7"/>
-      <c r="K298" s="7"/>
-      <c r="L298" s="7"/>
-      <c r="M298" s="7"/>
-      <c r="N298" s="7"/>
-      <c r="O298" s="7"/>
-      <c r="P298" s="7"/>
-      <c r="Q298" s="7"/>
-      <c r="R298" s="7"/>
-      <c r="S298" s="7"/>
-      <c r="T298" s="7"/>
+        <v>2023</v>
+      </c>
+      <c r="H298" s="7">
+        <v>555</v>
+      </c>
+      <c r="I298" s="7">
+        <v>2502.5</v>
+      </c>
+      <c r="J298" s="7">
+        <v>3182.4</v>
+      </c>
+      <c r="K298" s="7">
+        <v>230</v>
+      </c>
+      <c r="L298" s="7">
+        <v>1400</v>
+      </c>
+      <c r="M298" s="7">
+        <v>220</v>
+      </c>
+      <c r="N298" s="7">
+        <v>1320</v>
+      </c>
+      <c r="O298" s="7">
+        <v>1579</v>
+      </c>
+      <c r="P298" s="7">
+        <v>943</v>
+      </c>
+      <c r="Q298" s="7">
+        <v>1200</v>
+      </c>
+      <c r="R298" s="7">
+        <v>950</v>
+      </c>
+      <c r="S298" s="7">
+        <v>100</v>
+      </c>
+      <c r="T298" s="7">
+        <v>250</v>
+      </c>
       <c r="U298" s="7">
-        <v>50</v>
+        <v>17848.400000000001</v>
       </c>
     </row>
     <row r="299" spans="1:21">
       <c r="A299" s="12">
-        <v>40891</v>
+        <v>40875</v>
       </c>
       <c r="B299" s="7"/>
-      <c r="C299" s="7"/>
+      <c r="C299" s="7">
+        <v>63</v>
+      </c>
       <c r="D299" s="7"/>
-      <c r="E299" s="7"/>
+      <c r="E299" s="7">
+        <v>56</v>
+      </c>
       <c r="F299" s="7"/>
       <c r="G299" s="7"/>
-      <c r="H299" s="7"/>
-      <c r="I299" s="7">
-        <v>65</v>
-      </c>
+      <c r="H299" s="7">
+        <v>0</v>
+      </c>
+      <c r="I299" s="7"/>
       <c r="J299" s="7"/>
       <c r="K299" s="7"/>
       <c r="L299" s="7"/>
@@ -49051,25 +49427,23 @@
       <c r="S299" s="7"/>
       <c r="T299" s="7"/>
       <c r="U299" s="7">
-        <v>65</v>
+        <v>119</v>
       </c>
     </row>
     <row r="300" spans="1:21">
       <c r="A300" s="12">
-        <v>40892</v>
-      </c>
-      <c r="B300" s="7"/>
+        <v>40879</v>
+      </c>
+      <c r="B300" s="7">
+        <v>7</v>
+      </c>
       <c r="C300" s="7"/>
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
       <c r="F300" s="7"/>
-      <c r="G300" s="7">
-        <v>100</v>
-      </c>
+      <c r="G300" s="7"/>
       <c r="H300" s="7"/>
-      <c r="I300" s="7">
-        <v>68</v>
-      </c>
+      <c r="I300" s="7"/>
       <c r="J300" s="7"/>
       <c r="K300" s="7"/>
       <c r="L300" s="7"/>
@@ -49082,23 +49456,23 @@
       <c r="S300" s="7"/>
       <c r="T300" s="7"/>
       <c r="U300" s="7">
-        <v>168</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301" spans="1:21">
       <c r="A301" s="12">
-        <v>40913</v>
+        <v>40883</v>
       </c>
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
       <c r="F301" s="7"/>
-      <c r="G301" s="7"/>
+      <c r="G301" s="7">
+        <v>50</v>
+      </c>
       <c r="H301" s="7"/>
-      <c r="I301" s="7">
-        <v>679.5</v>
-      </c>
+      <c r="I301" s="7"/>
       <c r="J301" s="7"/>
       <c r="K301" s="7"/>
       <c r="L301" s="7"/>
@@ -49111,23 +49485,23 @@
       <c r="S301" s="7"/>
       <c r="T301" s="7"/>
       <c r="U301" s="7">
-        <v>679.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="302" spans="1:21">
       <c r="A302" s="12">
-        <v>40917</v>
+        <v>40891</v>
       </c>
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
       <c r="F302" s="7"/>
-      <c r="G302" s="7">
-        <v>100</v>
-      </c>
+      <c r="G302" s="7"/>
       <c r="H302" s="7"/>
-      <c r="I302" s="7"/>
+      <c r="I302" s="7">
+        <v>65</v>
+      </c>
       <c r="J302" s="7"/>
       <c r="K302" s="7"/>
       <c r="L302" s="7"/>
@@ -49140,24 +49514,26 @@
       <c r="S302" s="7"/>
       <c r="T302" s="7"/>
       <c r="U302" s="7">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="303" spans="1:21">
       <c r="A303" s="12">
-        <v>40919</v>
+        <v>40892</v>
       </c>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
-      <c r="G303" s="7"/>
+      <c r="G303" s="7">
+        <v>100</v>
+      </c>
       <c r="H303" s="7"/>
-      <c r="I303" s="7"/>
-      <c r="J303" s="7">
-        <v>15</v>
-      </c>
+      <c r="I303" s="7">
+        <v>68</v>
+      </c>
+      <c r="J303" s="7"/>
       <c r="K303" s="7"/>
       <c r="L303" s="7"/>
       <c r="M303" s="7"/>
@@ -49169,25 +49545,23 @@
       <c r="S303" s="7"/>
       <c r="T303" s="7"/>
       <c r="U303" s="7">
-        <v>15</v>
+        <v>168</v>
       </c>
     </row>
     <row r="304" spans="1:21">
       <c r="A304" s="12">
-        <v>40921</v>
+        <v>40913</v>
       </c>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
-      <c r="D304" s="7">
-        <v>100</v>
-      </c>
+      <c r="D304" s="7"/>
       <c r="E304" s="7"/>
-      <c r="F304" s="7">
-        <v>100</v>
-      </c>
+      <c r="F304" s="7"/>
       <c r="G304" s="7"/>
       <c r="H304" s="7"/>
-      <c r="I304" s="7"/>
+      <c r="I304" s="7">
+        <v>679.5</v>
+      </c>
       <c r="J304" s="7"/>
       <c r="K304" s="7"/>
       <c r="L304" s="7"/>
@@ -49200,24 +49574,24 @@
       <c r="S304" s="7"/>
       <c r="T304" s="7"/>
       <c r="U304" s="7">
-        <v>200</v>
+        <v>679.5</v>
       </c>
     </row>
     <row r="305" spans="1:21">
       <c r="A305" s="12">
-        <v>40925</v>
+        <v>40917</v>
       </c>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
       <c r="F305" s="7"/>
-      <c r="G305" s="7"/>
+      <c r="G305" s="7">
+        <v>100</v>
+      </c>
       <c r="H305" s="7"/>
       <c r="I305" s="7"/>
-      <c r="J305" s="7">
-        <v>14</v>
-      </c>
+      <c r="J305" s="7"/>
       <c r="K305" s="7"/>
       <c r="L305" s="7"/>
       <c r="M305" s="7"/>
@@ -49229,12 +49603,12 @@
       <c r="S305" s="7"/>
       <c r="T305" s="7"/>
       <c r="U305" s="7">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="306" spans="1:21">
       <c r="A306" s="12">
-        <v>40926</v>
+        <v>40919</v>
       </c>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -49245,7 +49619,7 @@
       <c r="H306" s="7"/>
       <c r="I306" s="7"/>
       <c r="J306" s="7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K306" s="7"/>
       <c r="L306" s="7"/>
@@ -49258,25 +49632,27 @@
       <c r="S306" s="7"/>
       <c r="T306" s="7"/>
       <c r="U306" s="7">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="307" spans="1:21">
       <c r="A307" s="12">
-        <v>40940</v>
+        <v>40921</v>
       </c>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
-      <c r="D307" s="7"/>
+      <c r="D307" s="7">
+        <v>100</v>
+      </c>
       <c r="E307" s="7"/>
-      <c r="F307" s="7"/>
+      <c r="F307" s="7">
+        <v>100</v>
+      </c>
       <c r="G307" s="7"/>
       <c r="H307" s="7"/>
       <c r="I307" s="7"/>
       <c r="J307" s="7"/>
-      <c r="K307" s="7">
-        <v>100</v>
-      </c>
+      <c r="K307" s="7"/>
       <c r="L307" s="7"/>
       <c r="M307" s="7"/>
       <c r="N307" s="7"/>
@@ -49287,12 +49663,12 @@
       <c r="S307" s="7"/>
       <c r="T307" s="7"/>
       <c r="U307" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="308" spans="1:21">
       <c r="A308" s="12">
-        <v>40942</v>
+        <v>40925</v>
       </c>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -49302,10 +49678,10 @@
       <c r="G308" s="7"/>
       <c r="H308" s="7"/>
       <c r="I308" s="7"/>
-      <c r="J308" s="7"/>
-      <c r="K308" s="7">
-        <v>100</v>
-      </c>
+      <c r="J308" s="7">
+        <v>14</v>
+      </c>
+      <c r="K308" s="7"/>
       <c r="L308" s="7"/>
       <c r="M308" s="7"/>
       <c r="N308" s="7"/>
@@ -49316,12 +49692,12 @@
       <c r="S308" s="7"/>
       <c r="T308" s="7"/>
       <c r="U308" s="7">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:21">
       <c r="A309" s="12">
-        <v>40947</v>
+        <v>40926</v>
       </c>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -49332,7 +49708,7 @@
       <c r="H309" s="7"/>
       <c r="I309" s="7"/>
       <c r="J309" s="7">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="K309" s="7"/>
       <c r="L309" s="7"/>
@@ -49345,12 +49721,12 @@
       <c r="S309" s="7"/>
       <c r="T309" s="7"/>
       <c r="U309" s="7">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="310" spans="1:21">
       <c r="A310" s="12">
-        <v>40954</v>
+        <v>40940</v>
       </c>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -49358,12 +49734,12 @@
       <c r="E310" s="7"/>
       <c r="F310" s="7"/>
       <c r="G310" s="7"/>
-      <c r="H310" s="7">
-        <v>100</v>
-      </c>
+      <c r="H310" s="7"/>
       <c r="I310" s="7"/>
       <c r="J310" s="7"/>
-      <c r="K310" s="7"/>
+      <c r="K310" s="7">
+        <v>100</v>
+      </c>
       <c r="L310" s="7"/>
       <c r="M310" s="7"/>
       <c r="N310" s="7"/>
@@ -49379,7 +49755,7 @@
     </row>
     <row r="311" spans="1:21">
       <c r="A311" s="12">
-        <v>40973</v>
+        <v>40942</v>
       </c>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -49391,13 +49767,11 @@
       <c r="I311" s="7"/>
       <c r="J311" s="7"/>
       <c r="K311" s="7">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L311" s="7"/>
       <c r="M311" s="7"/>
-      <c r="N311" s="7">
-        <v>100</v>
-      </c>
+      <c r="N311" s="7"/>
       <c r="O311" s="7"/>
       <c r="P311" s="7"/>
       <c r="Q311" s="7"/>
@@ -49405,12 +49779,12 @@
       <c r="S311" s="7"/>
       <c r="T311" s="7"/>
       <c r="U311" s="7">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="312" spans="1:21">
       <c r="A312" s="12">
-        <v>40974</v>
+        <v>40947</v>
       </c>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -49418,11 +49792,11 @@
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
       <c r="G312" s="7"/>
-      <c r="H312" s="7">
+      <c r="H312" s="7"/>
+      <c r="I312" s="7"/>
+      <c r="J312" s="7">
         <v>100</v>
       </c>
-      <c r="I312" s="7"/>
-      <c r="J312" s="7"/>
       <c r="K312" s="7"/>
       <c r="L312" s="7"/>
       <c r="M312" s="7"/>
@@ -49439,7 +49813,7 @@
     </row>
     <row r="313" spans="1:21">
       <c r="A313" s="12">
-        <v>40981</v>
+        <v>40954</v>
       </c>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -49450,9 +49824,7 @@
       <c r="H313" s="7">
         <v>100</v>
       </c>
-      <c r="I313" s="7">
-        <v>300</v>
-      </c>
+      <c r="I313" s="7"/>
       <c r="J313" s="7"/>
       <c r="K313" s="7"/>
       <c r="L313" s="7"/>
@@ -49465,12 +49837,12 @@
       <c r="S313" s="7"/>
       <c r="T313" s="7"/>
       <c r="U313" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="314" spans="1:21">
       <c r="A314" s="12">
-        <v>41032</v>
+        <v>40973</v>
       </c>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -49481,14 +49853,14 @@
       <c r="H314" s="7"/>
       <c r="I314" s="7"/>
       <c r="J314" s="7"/>
-      <c r="K314" s="7"/>
-      <c r="L314" s="7">
+      <c r="K314" s="7">
+        <v>30</v>
+      </c>
+      <c r="L314" s="7"/>
+      <c r="M314" s="7"/>
+      <c r="N314" s="7">
         <v>100</v>
       </c>
-      <c r="M314" s="7">
-        <v>100</v>
-      </c>
-      <c r="N314" s="7"/>
       <c r="O314" s="7"/>
       <c r="P314" s="7"/>
       <c r="Q314" s="7"/>
@@ -49496,12 +49868,12 @@
       <c r="S314" s="7"/>
       <c r="T314" s="7"/>
       <c r="U314" s="7">
-        <v>200</v>
+        <v>130</v>
       </c>
     </row>
     <row r="315" spans="1:21">
       <c r="A315" s="12">
-        <v>41037</v>
+        <v>40974</v>
       </c>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -49509,15 +49881,15 @@
       <c r="E315" s="7"/>
       <c r="F315" s="7"/>
       <c r="G315" s="7"/>
-      <c r="H315" s="7"/>
+      <c r="H315" s="7">
+        <v>100</v>
+      </c>
       <c r="I315" s="7"/>
       <c r="J315" s="7"/>
       <c r="K315" s="7"/>
       <c r="L315" s="7"/>
       <c r="M315" s="7"/>
-      <c r="N315" s="7">
-        <v>100</v>
-      </c>
+      <c r="N315" s="7"/>
       <c r="O315" s="7"/>
       <c r="P315" s="7"/>
       <c r="Q315" s="7"/>
@@ -49530,7 +49902,7 @@
     </row>
     <row r="316" spans="1:21">
       <c r="A316" s="12">
-        <v>41039</v>
+        <v>40981</v>
       </c>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -49538,28 +49910,30 @@
       <c r="E316" s="7"/>
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
-      <c r="H316" s="7"/>
-      <c r="I316" s="7"/>
+      <c r="H316" s="7">
+        <v>100</v>
+      </c>
+      <c r="I316" s="7">
+        <v>300</v>
+      </c>
       <c r="J316" s="7"/>
       <c r="K316" s="7"/>
       <c r="L316" s="7"/>
       <c r="M316" s="7"/>
       <c r="N316" s="7"/>
-      <c r="O316" s="7">
-        <v>35</v>
-      </c>
+      <c r="O316" s="7"/>
       <c r="P316" s="7"/>
       <c r="Q316" s="7"/>
       <c r="R316" s="7"/>
       <c r="S316" s="7"/>
       <c r="T316" s="7"/>
       <c r="U316" s="7">
-        <v>35</v>
+        <v>400</v>
       </c>
     </row>
     <row r="317" spans="1:21">
       <c r="A317" s="12">
-        <v>41044</v>
+        <v>41032</v>
       </c>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -49571,40 +49945,42 @@
       <c r="I317" s="7"/>
       <c r="J317" s="7"/>
       <c r="K317" s="7"/>
-      <c r="L317" s="7"/>
-      <c r="M317" s="7"/>
+      <c r="L317" s="7">
+        <v>100</v>
+      </c>
+      <c r="M317" s="7">
+        <v>100</v>
+      </c>
       <c r="N317" s="7"/>
-      <c r="O317" s="7">
-        <v>20</v>
-      </c>
+      <c r="O317" s="7"/>
       <c r="P317" s="7"/>
       <c r="Q317" s="7"/>
       <c r="R317" s="7"/>
       <c r="S317" s="7"/>
       <c r="T317" s="7"/>
       <c r="U317" s="7">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="318" spans="1:21">
       <c r="A318" s="12">
-        <v>41050</v>
+        <v>41037</v>
       </c>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
       <c r="D318" s="7"/>
       <c r="E318" s="7"/>
       <c r="F318" s="7"/>
-      <c r="G318" s="7">
-        <v>89</v>
-      </c>
+      <c r="G318" s="7"/>
       <c r="H318" s="7"/>
       <c r="I318" s="7"/>
       <c r="J318" s="7"/>
       <c r="K318" s="7"/>
       <c r="L318" s="7"/>
       <c r="M318" s="7"/>
-      <c r="N318" s="7"/>
+      <c r="N318" s="7">
+        <v>100</v>
+      </c>
       <c r="O318" s="7"/>
       <c r="P318" s="7"/>
       <c r="Q318" s="7"/>
@@ -49612,12 +49988,12 @@
       <c r="S318" s="7"/>
       <c r="T318" s="7"/>
       <c r="U318" s="7">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319" spans="1:21">
       <c r="A319" s="12">
-        <v>41057</v>
+        <v>41039</v>
       </c>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -49627,26 +50003,26 @@
       <c r="G319" s="7"/>
       <c r="H319" s="7"/>
       <c r="I319" s="7"/>
-      <c r="J319" s="7">
-        <v>300</v>
-      </c>
+      <c r="J319" s="7"/>
       <c r="K319" s="7"/>
       <c r="L319" s="7"/>
       <c r="M319" s="7"/>
       <c r="N319" s="7"/>
-      <c r="O319" s="7"/>
+      <c r="O319" s="7">
+        <v>35</v>
+      </c>
       <c r="P319" s="7"/>
       <c r="Q319" s="7"/>
       <c r="R319" s="7"/>
       <c r="S319" s="7"/>
       <c r="T319" s="7"/>
       <c r="U319" s="7">
-        <v>300</v>
+        <v>35</v>
       </c>
     </row>
     <row r="320" spans="1:21">
       <c r="A320" s="12">
-        <v>41060</v>
+        <v>41044</v>
       </c>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -49656,26 +50032,26 @@
       <c r="G320" s="7"/>
       <c r="H320" s="7"/>
       <c r="I320" s="7"/>
-      <c r="J320" s="7">
-        <v>10.1</v>
-      </c>
+      <c r="J320" s="7"/>
       <c r="K320" s="7"/>
       <c r="L320" s="7"/>
       <c r="M320" s="7"/>
       <c r="N320" s="7"/>
-      <c r="O320" s="7"/>
+      <c r="O320" s="7">
+        <v>20</v>
+      </c>
       <c r="P320" s="7"/>
       <c r="Q320" s="7"/>
       <c r="R320" s="7"/>
       <c r="S320" s="7"/>
       <c r="T320" s="7"/>
       <c r="U320" s="7">
-        <v>10.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="321" spans="1:21">
       <c r="A321" s="12">
-        <v>41066</v>
+        <v>41050</v>
       </c>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -49683,7 +50059,7 @@
       <c r="E321" s="7"/>
       <c r="F321" s="7"/>
       <c r="G321" s="7">
-        <v>300</v>
+        <v>89</v>
       </c>
       <c r="H321" s="7"/>
       <c r="I321" s="7"/>
@@ -49699,12 +50075,12 @@
       <c r="S321" s="7"/>
       <c r="T321" s="7"/>
       <c r="U321" s="7">
-        <v>300</v>
+        <v>89</v>
       </c>
     </row>
     <row r="322" spans="1:21">
       <c r="A322" s="12">
-        <v>41070</v>
+        <v>41057</v>
       </c>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -49715,7 +50091,7 @@
       <c r="H322" s="7"/>
       <c r="I322" s="7"/>
       <c r="J322" s="7">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="K322" s="7"/>
       <c r="L322" s="7"/>
@@ -49728,12 +50104,12 @@
       <c r="S322" s="7"/>
       <c r="T322" s="7"/>
       <c r="U322" s="7">
-        <v>130</v>
+        <v>300</v>
       </c>
     </row>
     <row r="323" spans="1:21">
       <c r="A323" s="12">
-        <v>41071</v>
+        <v>41060</v>
       </c>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -49744,7 +50120,7 @@
       <c r="H323" s="7"/>
       <c r="I323" s="7"/>
       <c r="J323" s="7">
-        <v>81.400000000000006</v>
+        <v>10.1</v>
       </c>
       <c r="K323" s="7"/>
       <c r="L323" s="7"/>
@@ -49757,24 +50133,24 @@
       <c r="S323" s="7"/>
       <c r="T323" s="7"/>
       <c r="U323" s="7">
-        <v>81.400000000000006</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="324" spans="1:21">
       <c r="A324" s="12">
-        <v>41072</v>
+        <v>41066</v>
       </c>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
-      <c r="G324" s="7"/>
+      <c r="G324" s="7">
+        <v>300</v>
+      </c>
       <c r="H324" s="7"/>
       <c r="I324" s="7"/>
-      <c r="J324" s="7">
-        <v>77.599999999999994</v>
-      </c>
+      <c r="J324" s="7"/>
       <c r="K324" s="7"/>
       <c r="L324" s="7"/>
       <c r="M324" s="7"/>
@@ -49786,25 +50162,23 @@
       <c r="S324" s="7"/>
       <c r="T324" s="7"/>
       <c r="U324" s="7">
-        <v>77.599999999999994</v>
+        <v>300</v>
       </c>
     </row>
     <row r="325" spans="1:21">
       <c r="A325" s="12">
-        <v>41078</v>
+        <v>41070</v>
       </c>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
       <c r="D325" s="7"/>
       <c r="E325" s="7"/>
       <c r="F325" s="7"/>
-      <c r="G325" s="7">
-        <v>47</v>
-      </c>
+      <c r="G325" s="7"/>
       <c r="H325" s="7"/>
       <c r="I325" s="7"/>
       <c r="J325" s="7">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K325" s="7"/>
       <c r="L325" s="7"/>
@@ -49817,12 +50191,12 @@
       <c r="S325" s="7"/>
       <c r="T325" s="7"/>
       <c r="U325" s="7">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="326" spans="1:21">
       <c r="A326" s="12">
-        <v>41082</v>
+        <v>41071</v>
       </c>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -49833,7 +50207,7 @@
       <c r="H326" s="7"/>
       <c r="I326" s="7"/>
       <c r="J326" s="7">
-        <v>98</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="K326" s="7"/>
       <c r="L326" s="7"/>
@@ -49846,12 +50220,12 @@
       <c r="S326" s="7"/>
       <c r="T326" s="7"/>
       <c r="U326" s="7">
-        <v>98</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="327" spans="1:21">
       <c r="A327" s="12">
-        <v>41083</v>
+        <v>41072</v>
       </c>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -49862,7 +50236,7 @@
       <c r="H327" s="7"/>
       <c r="I327" s="7"/>
       <c r="J327" s="7">
-        <v>39.9</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="K327" s="7"/>
       <c r="L327" s="7"/>
@@ -49875,12 +50249,12 @@
       <c r="S327" s="7"/>
       <c r="T327" s="7"/>
       <c r="U327" s="7">
-        <v>39.9</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="328" spans="1:21">
       <c r="A328" s="12">
-        <v>41085</v>
+        <v>41078</v>
       </c>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -49888,11 +50262,13 @@
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
       <c r="G328" s="7">
-        <v>300</v>
+        <v>47</v>
       </c>
       <c r="H328" s="7"/>
       <c r="I328" s="7"/>
-      <c r="J328" s="7"/>
+      <c r="J328" s="7">
+        <v>50</v>
+      </c>
       <c r="K328" s="7"/>
       <c r="L328" s="7"/>
       <c r="M328" s="7"/>
@@ -49904,12 +50280,12 @@
       <c r="S328" s="7"/>
       <c r="T328" s="7"/>
       <c r="U328" s="7">
-        <v>300</v>
+        <v>97</v>
       </c>
     </row>
     <row r="329" spans="1:21">
       <c r="A329" s="12">
-        <v>41088</v>
+        <v>41082</v>
       </c>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -49920,7 +50296,7 @@
       <c r="H329" s="7"/>
       <c r="I329" s="7"/>
       <c r="J329" s="7">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="K329" s="7"/>
       <c r="L329" s="7"/>
@@ -49933,12 +50309,12 @@
       <c r="S329" s="7"/>
       <c r="T329" s="7"/>
       <c r="U329" s="7">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="330" spans="1:21">
       <c r="A330" s="12">
-        <v>41092</v>
+        <v>41083</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -49948,38 +50324,38 @@
       <c r="G330" s="7"/>
       <c r="H330" s="7"/>
       <c r="I330" s="7"/>
-      <c r="J330" s="7"/>
+      <c r="J330" s="7">
+        <v>39.9</v>
+      </c>
       <c r="K330" s="7"/>
       <c r="L330" s="7"/>
       <c r="M330" s="7"/>
       <c r="N330" s="7"/>
       <c r="O330" s="7"/>
-      <c r="P330" s="7">
-        <v>93</v>
-      </c>
+      <c r="P330" s="7"/>
       <c r="Q330" s="7"/>
       <c r="R330" s="7"/>
       <c r="S330" s="7"/>
       <c r="T330" s="7"/>
       <c r="U330" s="7">
-        <v>93</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="331" spans="1:21">
       <c r="A331" s="12">
-        <v>41093</v>
+        <v>41085</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
-      <c r="G331" s="7"/>
+      <c r="G331" s="7">
+        <v>300</v>
+      </c>
       <c r="H331" s="7"/>
       <c r="I331" s="7"/>
-      <c r="J331" s="7">
-        <v>100</v>
-      </c>
+      <c r="J331" s="7"/>
       <c r="K331" s="7"/>
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
@@ -49991,25 +50367,23 @@
       <c r="S331" s="7"/>
       <c r="T331" s="7"/>
       <c r="U331" s="7">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="332" spans="1:21">
       <c r="A332" s="12">
-        <v>41095</v>
+        <v>41088</v>
       </c>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
       <c r="D332" s="7"/>
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
-      <c r="G332" s="7">
-        <v>70</v>
-      </c>
+      <c r="G332" s="7"/>
       <c r="H332" s="7"/>
       <c r="I332" s="7"/>
       <c r="J332" s="7">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="K332" s="7"/>
       <c r="L332" s="7"/>
@@ -50022,12 +50396,12 @@
       <c r="S332" s="7"/>
       <c r="T332" s="7"/>
       <c r="U332" s="7">
-        <v>168</v>
+        <v>20</v>
       </c>
     </row>
     <row r="333" spans="1:21">
       <c r="A333" s="12">
-        <v>41100</v>
+        <v>41092</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -50036,27 +50410,27 @@
       <c r="F333" s="7"/>
       <c r="G333" s="7"/>
       <c r="H333" s="7"/>
-      <c r="I333" s="7">
-        <v>16</v>
-      </c>
+      <c r="I333" s="7"/>
       <c r="J333" s="7"/>
       <c r="K333" s="7"/>
       <c r="L333" s="7"/>
       <c r="M333" s="7"/>
       <c r="N333" s="7"/>
       <c r="O333" s="7"/>
-      <c r="P333" s="7"/>
+      <c r="P333" s="7">
+        <v>93</v>
+      </c>
       <c r="Q333" s="7"/>
       <c r="R333" s="7"/>
       <c r="S333" s="7"/>
       <c r="T333" s="7"/>
       <c r="U333" s="7">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="334" spans="1:21">
       <c r="A334" s="12">
-        <v>41108</v>
+        <v>41093</v>
       </c>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -50065,10 +50439,10 @@
       <c r="F334" s="7"/>
       <c r="G334" s="7"/>
       <c r="H334" s="7"/>
-      <c r="I334" s="7">
-        <v>63</v>
-      </c>
-      <c r="J334" s="7"/>
+      <c r="I334" s="7"/>
+      <c r="J334" s="7">
+        <v>100</v>
+      </c>
       <c r="K334" s="7"/>
       <c r="L334" s="7"/>
       <c r="M334" s="7"/>
@@ -50080,24 +50454,26 @@
       <c r="S334" s="7"/>
       <c r="T334" s="7"/>
       <c r="U334" s="7">
-        <v>63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="335" spans="1:21">
       <c r="A335" s="12">
-        <v>41110</v>
+        <v>41095</v>
       </c>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
       <c r="D335" s="7"/>
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
-      <c r="G335" s="7"/>
+      <c r="G335" s="7">
+        <v>70</v>
+      </c>
       <c r="H335" s="7"/>
-      <c r="I335" s="7">
-        <v>15</v>
-      </c>
-      <c r="J335" s="7"/>
+      <c r="I335" s="7"/>
+      <c r="J335" s="7">
+        <v>98</v>
+      </c>
       <c r="K335" s="7"/>
       <c r="L335" s="7"/>
       <c r="M335" s="7"/>
@@ -50109,12 +50485,12 @@
       <c r="S335" s="7"/>
       <c r="T335" s="7"/>
       <c r="U335" s="7">
-        <v>15</v>
+        <v>168</v>
       </c>
     </row>
     <row r="336" spans="1:21">
       <c r="A336" s="12">
-        <v>41116</v>
+        <v>41100</v>
       </c>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -50124,7 +50500,7 @@
       <c r="G336" s="7"/>
       <c r="H336" s="7"/>
       <c r="I336" s="7">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="J336" s="7"/>
       <c r="K336" s="7"/>
@@ -50138,12 +50514,12 @@
       <c r="S336" s="7"/>
       <c r="T336" s="7"/>
       <c r="U336" s="7">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="337" spans="1:21">
       <c r="A337" s="12">
-        <v>41136</v>
+        <v>41108</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -50151,11 +50527,9 @@
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
       <c r="G337" s="7"/>
-      <c r="H337" s="7">
-        <v>55</v>
-      </c>
+      <c r="H337" s="7"/>
       <c r="I337" s="7">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="J337" s="7"/>
       <c r="K337" s="7"/>
@@ -50169,23 +50543,23 @@
       <c r="S337" s="7"/>
       <c r="T337" s="7"/>
       <c r="U337" s="7">
-        <v>94</v>
+        <v>63</v>
       </c>
     </row>
     <row r="338" spans="1:21">
       <c r="A338" s="12">
-        <v>41138</v>
+        <v>41110</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
-      <c r="G338" s="7">
-        <v>100.4</v>
-      </c>
+      <c r="G338" s="7"/>
       <c r="H338" s="7"/>
-      <c r="I338" s="7"/>
+      <c r="I338" s="7">
+        <v>15</v>
+      </c>
       <c r="J338" s="7"/>
       <c r="K338" s="7"/>
       <c r="L338" s="7"/>
@@ -50198,12 +50572,12 @@
       <c r="S338" s="7"/>
       <c r="T338" s="7"/>
       <c r="U338" s="7">
-        <v>100.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="339" spans="1:21">
       <c r="A339" s="12">
-        <v>41151</v>
+        <v>41116</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -50212,10 +50586,10 @@
       <c r="F339" s="7"/>
       <c r="G339" s="7"/>
       <c r="H339" s="7"/>
-      <c r="I339" s="7"/>
-      <c r="J339" s="7">
-        <v>100</v>
-      </c>
+      <c r="I339" s="7">
+        <v>83</v>
+      </c>
+      <c r="J339" s="7"/>
       <c r="K339" s="7"/>
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
@@ -50227,12 +50601,12 @@
       <c r="S339" s="7"/>
       <c r="T339" s="7"/>
       <c r="U339" s="7">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="340" spans="1:21">
       <c r="A340" s="12">
-        <v>41156</v>
+        <v>41136</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -50240,9 +50614,11 @@
       <c r="E340" s="7"/>
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
-      <c r="H340" s="7"/>
+      <c r="H340" s="7">
+        <v>55</v>
+      </c>
       <c r="I340" s="7">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="J340" s="7"/>
       <c r="K340" s="7"/>
@@ -50256,23 +50632,23 @@
       <c r="S340" s="7"/>
       <c r="T340" s="7"/>
       <c r="U340" s="7">
-        <v>15</v>
+        <v>94</v>
       </c>
     </row>
     <row r="341" spans="1:21">
       <c r="A341" s="12">
-        <v>41161</v>
+        <v>41138</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
-      <c r="G341" s="7"/>
+      <c r="G341" s="7">
+        <v>100.4</v>
+      </c>
       <c r="H341" s="7"/>
-      <c r="I341" s="7">
-        <v>76</v>
-      </c>
+      <c r="I341" s="7"/>
       <c r="J341" s="7"/>
       <c r="K341" s="7"/>
       <c r="L341" s="7"/>
@@ -50285,12 +50661,12 @@
       <c r="S341" s="7"/>
       <c r="T341" s="7"/>
       <c r="U341" s="7">
-        <v>76</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="342" spans="1:21">
       <c r="A342" s="12">
-        <v>41162</v>
+        <v>41151</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -50307,21 +50683,19 @@
       <c r="L342" s="7"/>
       <c r="M342" s="7"/>
       <c r="N342" s="7"/>
-      <c r="O342" s="7">
-        <v>48</v>
-      </c>
+      <c r="O342" s="7"/>
       <c r="P342" s="7"/>
       <c r="Q342" s="7"/>
       <c r="R342" s="7"/>
       <c r="S342" s="7"/>
       <c r="T342" s="7"/>
       <c r="U342" s="7">
-        <v>148</v>
+        <v>100</v>
       </c>
     </row>
     <row r="343" spans="1:21">
       <c r="A343" s="12">
-        <v>41166</v>
+        <v>41156</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -50330,27 +50704,27 @@
       <c r="F343" s="7"/>
       <c r="G343" s="7"/>
       <c r="H343" s="7"/>
-      <c r="I343" s="7"/>
+      <c r="I343" s="7">
+        <v>15</v>
+      </c>
       <c r="J343" s="7"/>
       <c r="K343" s="7"/>
       <c r="L343" s="7"/>
       <c r="M343" s="7"/>
       <c r="N343" s="7"/>
-      <c r="O343" s="7">
-        <v>100</v>
-      </c>
+      <c r="O343" s="7"/>
       <c r="P343" s="7"/>
       <c r="Q343" s="7"/>
       <c r="R343" s="7"/>
       <c r="S343" s="7"/>
       <c r="T343" s="7"/>
       <c r="U343" s="7">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344" spans="1:21">
       <c r="A344" s="12">
-        <v>41171</v>
+        <v>41161</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -50359,78 +50733,74 @@
       <c r="F344" s="7"/>
       <c r="G344" s="7"/>
       <c r="H344" s="7"/>
-      <c r="I344" s="7"/>
+      <c r="I344" s="7">
+        <v>76</v>
+      </c>
       <c r="J344" s="7"/>
       <c r="K344" s="7"/>
       <c r="L344" s="7"/>
       <c r="M344" s="7"/>
       <c r="N344" s="7"/>
-      <c r="O344" s="7">
-        <v>10</v>
-      </c>
+      <c r="O344" s="7"/>
       <c r="P344" s="7"/>
       <c r="Q344" s="7"/>
       <c r="R344" s="7"/>
       <c r="S344" s="7"/>
       <c r="T344" s="7"/>
       <c r="U344" s="7">
-        <v>10</v>
+        <v>76</v>
       </c>
     </row>
     <row r="345" spans="1:21">
       <c r="A345" s="12">
-        <v>41175</v>
+        <v>41162</v>
       </c>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
-      <c r="F345" s="7">
-        <v>100</v>
-      </c>
+      <c r="F345" s="7"/>
       <c r="G345" s="7"/>
       <c r="H345" s="7"/>
       <c r="I345" s="7"/>
-      <c r="J345" s="7"/>
+      <c r="J345" s="7">
+        <v>100</v>
+      </c>
       <c r="K345" s="7"/>
       <c r="L345" s="7"/>
       <c r="M345" s="7"/>
       <c r="N345" s="7"/>
-      <c r="O345" s="7"/>
+      <c r="O345" s="7">
+        <v>48</v>
+      </c>
       <c r="P345" s="7"/>
       <c r="Q345" s="7"/>
       <c r="R345" s="7"/>
       <c r="S345" s="7"/>
       <c r="T345" s="7"/>
       <c r="U345" s="7">
-        <v>100</v>
+        <v>148</v>
       </c>
     </row>
     <row r="346" spans="1:21">
       <c r="A346" s="12">
-        <v>41197</v>
-      </c>
-      <c r="B346" s="7">
-        <v>10</v>
-      </c>
+        <v>41166</v>
+      </c>
+      <c r="B346" s="7"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
       <c r="F346" s="7"/>
-      <c r="G346" s="7">
-        <v>10</v>
-      </c>
+      <c r="G346" s="7"/>
       <c r="H346" s="7"/>
       <c r="I346" s="7"/>
-      <c r="J346" s="7">
-        <v>10</v>
-      </c>
+      <c r="J346" s="7"/>
       <c r="K346" s="7"/>
       <c r="L346" s="7"/>
       <c r="M346" s="7"/>
       <c r="N346" s="7"/>
       <c r="O346" s="7">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="P346" s="7"/>
       <c r="Q346" s="7"/>
@@ -50438,12 +50808,12 @@
       <c r="S346" s="7"/>
       <c r="T346" s="7"/>
       <c r="U346" s="7">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="347" spans="1:21">
       <c r="A347" s="12">
-        <v>41198</v>
+        <v>41171</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -50459,7 +50829,7 @@
       <c r="M347" s="7"/>
       <c r="N347" s="7"/>
       <c r="O347" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="P347" s="7"/>
       <c r="Q347" s="7"/>
@@ -50467,76 +50837,76 @@
       <c r="S347" s="7"/>
       <c r="T347" s="7"/>
       <c r="U347" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348" spans="1:21">
       <c r="A348" s="12">
-        <v>41205</v>
+        <v>41175</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
-      <c r="F348" s="7"/>
+      <c r="F348" s="7">
+        <v>100</v>
+      </c>
       <c r="G348" s="7"/>
       <c r="H348" s="7"/>
       <c r="I348" s="7"/>
-      <c r="J348" s="7">
-        <v>162</v>
-      </c>
+      <c r="J348" s="7"/>
       <c r="K348" s="7"/>
-      <c r="L348" s="7">
-        <v>100</v>
-      </c>
+      <c r="L348" s="7"/>
       <c r="M348" s="7"/>
-      <c r="N348" s="7">
-        <v>100</v>
-      </c>
-      <c r="O348" s="7">
-        <v>70</v>
-      </c>
+      <c r="N348" s="7"/>
+      <c r="O348" s="7"/>
       <c r="P348" s="7"/>
       <c r="Q348" s="7"/>
       <c r="R348" s="7"/>
       <c r="S348" s="7"/>
       <c r="T348" s="7"/>
       <c r="U348" s="7">
-        <v>432</v>
+        <v>100</v>
       </c>
     </row>
     <row r="349" spans="1:21">
       <c r="A349" s="12">
-        <v>41214</v>
-      </c>
-      <c r="B349" s="7"/>
+        <v>41197</v>
+      </c>
+      <c r="B349" s="7">
+        <v>10</v>
+      </c>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
-      <c r="G349" s="7"/>
+      <c r="G349" s="7">
+        <v>10</v>
+      </c>
       <c r="H349" s="7"/>
       <c r="I349" s="7"/>
       <c r="J349" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K349" s="7"/>
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
       <c r="N349" s="7"/>
-      <c r="O349" s="7"/>
+      <c r="O349" s="7">
+        <v>60</v>
+      </c>
       <c r="P349" s="7"/>
       <c r="Q349" s="7"/>
       <c r="R349" s="7"/>
       <c r="S349" s="7"/>
       <c r="T349" s="7"/>
       <c r="U349" s="7">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="350" spans="1:21">
       <c r="A350" s="12">
-        <v>41215</v>
+        <v>41198</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -50546,26 +50916,26 @@
       <c r="G350" s="7"/>
       <c r="H350" s="7"/>
       <c r="I350" s="7"/>
-      <c r="J350" s="7">
-        <v>4</v>
-      </c>
+      <c r="J350" s="7"/>
       <c r="K350" s="7"/>
       <c r="L350" s="7"/>
       <c r="M350" s="7"/>
       <c r="N350" s="7"/>
-      <c r="O350" s="7"/>
+      <c r="O350" s="7">
+        <v>40</v>
+      </c>
       <c r="P350" s="7"/>
       <c r="Q350" s="7"/>
       <c r="R350" s="7"/>
       <c r="S350" s="7"/>
       <c r="T350" s="7"/>
       <c r="U350" s="7">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="351" spans="1:21">
       <c r="A351" s="12">
-        <v>41237</v>
+        <v>41205</v>
       </c>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -50576,40 +50946,42 @@
       <c r="H351" s="7"/>
       <c r="I351" s="7"/>
       <c r="J351" s="7">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="K351" s="7"/>
       <c r="L351" s="7">
         <v>100</v>
       </c>
       <c r="M351" s="7"/>
-      <c r="N351" s="7"/>
-      <c r="O351" s="7"/>
+      <c r="N351" s="7">
+        <v>100</v>
+      </c>
+      <c r="O351" s="7">
+        <v>70</v>
+      </c>
       <c r="P351" s="7"/>
       <c r="Q351" s="7"/>
       <c r="R351" s="7"/>
       <c r="S351" s="7"/>
       <c r="T351" s="7"/>
       <c r="U351" s="7">
-        <v>200</v>
+        <v>432</v>
       </c>
     </row>
     <row r="352" spans="1:21">
       <c r="A352" s="12">
-        <v>41242</v>
+        <v>41214</v>
       </c>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
-      <c r="G352" s="7">
-        <v>100</v>
-      </c>
+      <c r="G352" s="7"/>
       <c r="H352" s="7"/>
       <c r="I352" s="7"/>
       <c r="J352" s="7">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="K352" s="7"/>
       <c r="L352" s="7"/>
@@ -50622,12 +50994,12 @@
       <c r="S352" s="7"/>
       <c r="T352" s="7"/>
       <c r="U352" s="7">
-        <v>181</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:21">
       <c r="A353" s="12">
-        <v>41253</v>
+        <v>41215</v>
       </c>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -50638,7 +51010,7 @@
       <c r="H353" s="7"/>
       <c r="I353" s="7"/>
       <c r="J353" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K353" s="7"/>
       <c r="L353" s="7"/>
@@ -50651,26 +51023,28 @@
       <c r="S353" s="7"/>
       <c r="T353" s="7"/>
       <c r="U353" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:21">
       <c r="A354" s="12">
-        <v>41268</v>
+        <v>41237</v>
       </c>
       <c r="B354" s="7"/>
-      <c r="C354" s="7">
-        <v>24</v>
-      </c>
+      <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
       <c r="F354" s="7"/>
       <c r="G354" s="7"/>
       <c r="H354" s="7"/>
       <c r="I354" s="7"/>
-      <c r="J354" s="7"/>
+      <c r="J354" s="7">
+        <v>100</v>
+      </c>
       <c r="K354" s="7"/>
-      <c r="L354" s="7"/>
+      <c r="L354" s="7">
+        <v>100</v>
+      </c>
       <c r="M354" s="7"/>
       <c r="N354" s="7"/>
       <c r="O354" s="7"/>
@@ -50680,12 +51054,12 @@
       <c r="S354" s="7"/>
       <c r="T354" s="7"/>
       <c r="U354" s="7">
-        <v>24</v>
+        <v>200</v>
       </c>
     </row>
     <row r="355" spans="1:21">
       <c r="A355" s="12">
-        <v>41281</v>
+        <v>41242</v>
       </c>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -50693,11 +51067,13 @@
       <c r="E355" s="7"/>
       <c r="F355" s="7"/>
       <c r="G355" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H355" s="7"/>
       <c r="I355" s="7"/>
-      <c r="J355" s="7"/>
+      <c r="J355" s="7">
+        <v>81</v>
+      </c>
       <c r="K355" s="7"/>
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
@@ -50709,12 +51085,12 @@
       <c r="S355" s="7"/>
       <c r="T355" s="7"/>
       <c r="U355" s="7">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="356" spans="1:21">
       <c r="A356" s="12">
-        <v>41310</v>
+        <v>41253</v>
       </c>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -50723,11 +51099,9 @@
       <c r="F356" s="7"/>
       <c r="G356" s="7"/>
       <c r="H356" s="7"/>
-      <c r="I356" s="7">
-        <v>22</v>
-      </c>
+      <c r="I356" s="7"/>
       <c r="J356" s="7">
-        <v>31.9</v>
+        <v>10</v>
       </c>
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
@@ -50740,21 +51114,21 @@
       <c r="S356" s="7"/>
       <c r="T356" s="7"/>
       <c r="U356" s="7">
-        <v>53.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357" spans="1:21">
       <c r="A357" s="12">
-        <v>41323</v>
+        <v>41268</v>
       </c>
       <c r="B357" s="7"/>
-      <c r="C357" s="7"/>
+      <c r="C357" s="7">
+        <v>24</v>
+      </c>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
       <c r="F357" s="7"/>
-      <c r="G357" s="7">
-        <v>119.6</v>
-      </c>
+      <c r="G357" s="7"/>
       <c r="H357" s="7"/>
       <c r="I357" s="7"/>
       <c r="J357" s="7"/>
@@ -50769,12 +51143,12 @@
       <c r="S357" s="7"/>
       <c r="T357" s="7"/>
       <c r="U357" s="7">
-        <v>119.6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="358" spans="1:21">
       <c r="A358" s="12">
-        <v>41331</v>
+        <v>41281</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -50782,7 +51156,7 @@
       <c r="E358" s="7"/>
       <c r="F358" s="7"/>
       <c r="G358" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H358" s="7"/>
       <c r="I358" s="7"/>
@@ -50798,12 +51172,12 @@
       <c r="S358" s="7"/>
       <c r="T358" s="7"/>
       <c r="U358" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="359" spans="1:21">
       <c r="A359" s="12">
-        <v>41361</v>
+        <v>41310</v>
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -50812,9 +51186,11 @@
       <c r="F359" s="7"/>
       <c r="G359" s="7"/>
       <c r="H359" s="7"/>
-      <c r="I359" s="7"/>
+      <c r="I359" s="7">
+        <v>22</v>
+      </c>
       <c r="J359" s="7">
-        <v>40</v>
+        <v>31.9</v>
       </c>
       <c r="K359" s="7"/>
       <c r="L359" s="7"/>
@@ -50827,23 +51203,23 @@
       <c r="S359" s="7"/>
       <c r="T359" s="7"/>
       <c r="U359" s="7">
-        <v>40</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="360" spans="1:21">
       <c r="A360" s="12">
-        <v>41373</v>
+        <v>41323</v>
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
-      <c r="G360" s="7"/>
+      <c r="G360" s="7">
+        <v>119.6</v>
+      </c>
       <c r="H360" s="7"/>
-      <c r="I360" s="7">
-        <v>91</v>
-      </c>
+      <c r="I360" s="7"/>
       <c r="J360" s="7"/>
       <c r="K360" s="7"/>
       <c r="L360" s="7"/>
@@ -50856,19 +51232,21 @@
       <c r="S360" s="7"/>
       <c r="T360" s="7"/>
       <c r="U360" s="7">
-        <v>91</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="361" spans="1:21">
       <c r="A361" s="12">
-        <v>41374</v>
+        <v>41331</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
       <c r="F361" s="7"/>
-      <c r="G361" s="7"/>
+      <c r="G361" s="7">
+        <v>100</v>
+      </c>
       <c r="H361" s="7"/>
       <c r="I361" s="7"/>
       <c r="J361" s="7"/>
@@ -50876,54 +51254,48 @@
       <c r="L361" s="7"/>
       <c r="M361" s="7"/>
       <c r="N361" s="7"/>
-      <c r="O361" s="7">
-        <v>75</v>
-      </c>
+      <c r="O361" s="7"/>
       <c r="P361" s="7"/>
       <c r="Q361" s="7"/>
       <c r="R361" s="7"/>
       <c r="S361" s="7"/>
       <c r="T361" s="7"/>
       <c r="U361" s="7">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="362" spans="1:21">
       <c r="A362" s="12">
-        <v>41376</v>
+        <v>41361</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
       <c r="F362" s="7"/>
-      <c r="G362" s="7">
-        <v>97</v>
-      </c>
+      <c r="G362" s="7"/>
       <c r="H362" s="7"/>
       <c r="I362" s="7"/>
-      <c r="J362" s="7"/>
+      <c r="J362" s="7">
+        <v>40</v>
+      </c>
       <c r="K362" s="7"/>
       <c r="L362" s="7"/>
       <c r="M362" s="7"/>
       <c r="N362" s="7"/>
       <c r="O362" s="7"/>
-      <c r="P362" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q362" s="7">
-        <v>100</v>
-      </c>
+      <c r="P362" s="7"/>
+      <c r="Q362" s="7"/>
       <c r="R362" s="7"/>
       <c r="S362" s="7"/>
       <c r="T362" s="7"/>
       <c r="U362" s="7">
-        <v>247</v>
+        <v>40</v>
       </c>
     </row>
     <row r="363" spans="1:21">
       <c r="A363" s="12">
-        <v>41382</v>
+        <v>41373</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -50932,14 +51304,14 @@
       <c r="F363" s="7"/>
       <c r="G363" s="7"/>
       <c r="H363" s="7"/>
-      <c r="I363" s="7"/>
+      <c r="I363" s="7">
+        <v>91</v>
+      </c>
       <c r="J363" s="7"/>
       <c r="K363" s="7"/>
       <c r="L363" s="7"/>
       <c r="M363" s="7"/>
-      <c r="N363" s="7">
-        <v>100</v>
-      </c>
+      <c r="N363" s="7"/>
       <c r="O363" s="7"/>
       <c r="P363" s="7"/>
       <c r="Q363" s="7"/>
@@ -50947,12 +51319,12 @@
       <c r="S363" s="7"/>
       <c r="T363" s="7"/>
       <c r="U363" s="7">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="364" spans="1:21">
       <c r="A364" s="12">
-        <v>41383</v>
+        <v>41374</v>
       </c>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -50967,28 +51339,30 @@
       <c r="L364" s="7"/>
       <c r="M364" s="7"/>
       <c r="N364" s="7"/>
-      <c r="O364" s="7"/>
-      <c r="P364" s="7">
-        <v>100</v>
-      </c>
+      <c r="O364" s="7">
+        <v>75</v>
+      </c>
+      <c r="P364" s="7"/>
       <c r="Q364" s="7"/>
       <c r="R364" s="7"/>
       <c r="S364" s="7"/>
       <c r="T364" s="7"/>
       <c r="U364" s="7">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="365" spans="1:21">
       <c r="A365" s="12">
-        <v>41386</v>
+        <v>41376</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
-      <c r="G365" s="7"/>
+      <c r="G365" s="7">
+        <v>97</v>
+      </c>
       <c r="H365" s="7"/>
       <c r="I365" s="7"/>
       <c r="J365" s="7"/>
@@ -50996,21 +51370,23 @@
       <c r="L365" s="7"/>
       <c r="M365" s="7"/>
       <c r="N365" s="7"/>
-      <c r="O365" s="7">
-        <v>40</v>
-      </c>
-      <c r="P365" s="7"/>
-      <c r="Q365" s="7"/>
+      <c r="O365" s="7"/>
+      <c r="P365" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q365" s="7">
+        <v>100</v>
+      </c>
       <c r="R365" s="7"/>
       <c r="S365" s="7"/>
       <c r="T365" s="7"/>
       <c r="U365" s="7">
-        <v>40</v>
+        <v>247</v>
       </c>
     </row>
     <row r="366" spans="1:21">
       <c r="A366" s="12">
-        <v>41387</v>
+        <v>41382</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -51024,55 +51400,51 @@
       <c r="K366" s="7"/>
       <c r="L366" s="7"/>
       <c r="M366" s="7"/>
-      <c r="N366" s="7"/>
-      <c r="O366" s="7">
-        <v>30</v>
-      </c>
+      <c r="N366" s="7">
+        <v>100</v>
+      </c>
+      <c r="O366" s="7"/>
       <c r="P366" s="7"/>
       <c r="Q366" s="7"/>
       <c r="R366" s="7"/>
       <c r="S366" s="7"/>
       <c r="T366" s="7"/>
       <c r="U366" s="7">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="367" spans="1:21">
       <c r="A367" s="12">
-        <v>41388</v>
+        <v>41383</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
-      <c r="G367" s="7">
-        <v>20</v>
-      </c>
+      <c r="G367" s="7"/>
       <c r="H367" s="7"/>
       <c r="I367" s="7"/>
       <c r="J367" s="7"/>
       <c r="K367" s="7"/>
       <c r="L367" s="7"/>
       <c r="M367" s="7"/>
-      <c r="N367" s="7">
-        <v>40</v>
-      </c>
-      <c r="O367" s="7">
-        <v>11</v>
-      </c>
-      <c r="P367" s="7"/>
+      <c r="N367" s="7"/>
+      <c r="O367" s="7"/>
+      <c r="P367" s="7">
+        <v>100</v>
+      </c>
       <c r="Q367" s="7"/>
       <c r="R367" s="7"/>
       <c r="S367" s="7"/>
       <c r="T367" s="7"/>
       <c r="U367" s="7">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="368" spans="1:21">
       <c r="A368" s="12">
-        <v>41390</v>
+        <v>41386</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -51081,27 +51453,27 @@
       <c r="F368" s="7"/>
       <c r="G368" s="7"/>
       <c r="H368" s="7"/>
-      <c r="I368" s="7">
-        <v>120</v>
-      </c>
+      <c r="I368" s="7"/>
       <c r="J368" s="7"/>
       <c r="K368" s="7"/>
       <c r="L368" s="7"/>
       <c r="M368" s="7"/>
       <c r="N368" s="7"/>
-      <c r="O368" s="7"/>
+      <c r="O368" s="7">
+        <v>40</v>
+      </c>
       <c r="P368" s="7"/>
       <c r="Q368" s="7"/>
       <c r="R368" s="7"/>
       <c r="S368" s="7"/>
       <c r="T368" s="7"/>
       <c r="U368" s="7">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="369" spans="1:21">
       <c r="A369" s="12">
-        <v>41397</v>
+        <v>41387</v>
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -51109,9 +51481,7 @@
       <c r="E369" s="7"/>
       <c r="F369" s="7"/>
       <c r="G369" s="7"/>
-      <c r="H369" s="7">
-        <v>50</v>
-      </c>
+      <c r="H369" s="7"/>
       <c r="I369" s="7"/>
       <c r="J369" s="7"/>
       <c r="K369" s="7"/>
@@ -51119,51 +51489,53 @@
       <c r="M369" s="7"/>
       <c r="N369" s="7"/>
       <c r="O369" s="7">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="P369" s="7"/>
       <c r="Q369" s="7"/>
       <c r="R369" s="7"/>
-      <c r="S369" s="7">
-        <v>100</v>
-      </c>
+      <c r="S369" s="7"/>
       <c r="T369" s="7"/>
       <c r="U369" s="7">
-        <v>250</v>
+        <v>30</v>
       </c>
     </row>
     <row r="370" spans="1:21">
       <c r="A370" s="12">
-        <v>41401</v>
+        <v>41388</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
       <c r="F370" s="7"/>
-      <c r="G370" s="7"/>
+      <c r="G370" s="7">
+        <v>20</v>
+      </c>
       <c r="H370" s="7"/>
       <c r="I370" s="7"/>
       <c r="J370" s="7"/>
       <c r="K370" s="7"/>
       <c r="L370" s="7"/>
       <c r="M370" s="7"/>
-      <c r="N370" s="7"/>
-      <c r="O370" s="7"/>
+      <c r="N370" s="7">
+        <v>40</v>
+      </c>
+      <c r="O370" s="7">
+        <v>11</v>
+      </c>
       <c r="P370" s="7"/>
-      <c r="Q370" s="7">
-        <v>100</v>
-      </c>
+      <c r="Q370" s="7"/>
       <c r="R370" s="7"/>
       <c r="S370" s="7"/>
       <c r="T370" s="7"/>
       <c r="U370" s="7">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="371" spans="1:21">
       <c r="A371" s="12">
-        <v>41402</v>
+        <v>41390</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -51172,29 +51544,27 @@
       <c r="F371" s="7"/>
       <c r="G371" s="7"/>
       <c r="H371" s="7"/>
-      <c r="I371" s="7"/>
+      <c r="I371" s="7">
+        <v>120</v>
+      </c>
       <c r="J371" s="7"/>
       <c r="K371" s="7"/>
-      <c r="L371" s="7">
-        <v>100</v>
-      </c>
+      <c r="L371" s="7"/>
       <c r="M371" s="7"/>
       <c r="N371" s="7"/>
       <c r="O371" s="7"/>
-      <c r="P371" s="7">
-        <v>50</v>
-      </c>
+      <c r="P371" s="7"/>
       <c r="Q371" s="7"/>
       <c r="R371" s="7"/>
       <c r="S371" s="7"/>
       <c r="T371" s="7"/>
       <c r="U371" s="7">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="372" spans="1:21">
       <c r="A372" s="12">
-        <v>41403</v>
+        <v>41397</v>
       </c>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
@@ -51203,64 +51573,60 @@
       <c r="F372" s="7"/>
       <c r="G372" s="7"/>
       <c r="H372" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I372" s="7"/>
       <c r="J372" s="7"/>
       <c r="K372" s="7"/>
       <c r="L372" s="7"/>
-      <c r="M372" s="7">
+      <c r="M372" s="7"/>
+      <c r="N372" s="7"/>
+      <c r="O372" s="7">
         <v>100</v>
       </c>
-      <c r="N372" s="7"/>
-      <c r="O372" s="7"/>
       <c r="P372" s="7"/>
       <c r="Q372" s="7"/>
       <c r="R372" s="7"/>
-      <c r="S372" s="7"/>
-      <c r="T372" s="7">
-        <v>50</v>
-      </c>
+      <c r="S372" s="7">
+        <v>100</v>
+      </c>
+      <c r="T372" s="7"/>
       <c r="U372" s="7">
         <v>250</v>
       </c>
     </row>
     <row r="373" spans="1:21">
       <c r="A373" s="12">
-        <v>41407</v>
+        <v>41401</v>
       </c>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
-      <c r="G373" s="7">
-        <v>100</v>
-      </c>
+      <c r="G373" s="7"/>
       <c r="H373" s="7"/>
       <c r="I373" s="7"/>
-      <c r="J373" s="7">
-        <v>100</v>
-      </c>
+      <c r="J373" s="7"/>
       <c r="K373" s="7"/>
       <c r="L373" s="7"/>
       <c r="M373" s="7"/>
       <c r="N373" s="7"/>
-      <c r="O373" s="7">
+      <c r="O373" s="7"/>
+      <c r="P373" s="7"/>
+      <c r="Q373" s="7">
         <v>100</v>
       </c>
-      <c r="P373" s="7"/>
-      <c r="Q373" s="7"/>
       <c r="R373" s="7"/>
       <c r="S373" s="7"/>
       <c r="T373" s="7"/>
       <c r="U373" s="7">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="374" spans="1:21">
       <c r="A374" s="12">
-        <v>41410</v>
+        <v>41402</v>
       </c>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -51269,27 +51635,29 @@
       <c r="F374" s="7"/>
       <c r="G374" s="7"/>
       <c r="H374" s="7"/>
-      <c r="I374" s="7">
-        <v>200</v>
-      </c>
+      <c r="I374" s="7"/>
       <c r="J374" s="7"/>
       <c r="K374" s="7"/>
-      <c r="L374" s="7"/>
+      <c r="L374" s="7">
+        <v>100</v>
+      </c>
       <c r="M374" s="7"/>
       <c r="N374" s="7"/>
       <c r="O374" s="7"/>
-      <c r="P374" s="7"/>
+      <c r="P374" s="7">
+        <v>50</v>
+      </c>
       <c r="Q374" s="7"/>
       <c r="R374" s="7"/>
       <c r="S374" s="7"/>
       <c r="T374" s="7"/>
       <c r="U374" s="7">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="375" spans="1:21">
       <c r="A375" s="12">
-        <v>41411</v>
+        <v>41403</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -51297,37 +51665,41 @@
       <c r="E375" s="7"/>
       <c r="F375" s="7"/>
       <c r="G375" s="7"/>
-      <c r="H375" s="7"/>
+      <c r="H375" s="7">
+        <v>100</v>
+      </c>
       <c r="I375" s="7"/>
       <c r="J375" s="7"/>
       <c r="K375" s="7"/>
       <c r="L375" s="7"/>
-      <c r="M375" s="7"/>
-      <c r="N375" s="7">
-        <v>300</v>
-      </c>
+      <c r="M375" s="7">
+        <v>100</v>
+      </c>
+      <c r="N375" s="7"/>
       <c r="O375" s="7"/>
-      <c r="P375" s="7">
-        <v>100</v>
-      </c>
+      <c r="P375" s="7"/>
       <c r="Q375" s="7"/>
       <c r="R375" s="7"/>
       <c r="S375" s="7"/>
-      <c r="T375" s="7"/>
+      <c r="T375" s="7">
+        <v>50</v>
+      </c>
       <c r="U375" s="7">
-        <v>400</v>
+        <v>250</v>
       </c>
     </row>
     <row r="376" spans="1:21">
       <c r="A376" s="12">
-        <v>41414</v>
+        <v>41407</v>
       </c>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
       <c r="F376" s="7"/>
-      <c r="G376" s="7"/>
+      <c r="G376" s="7">
+        <v>100</v>
+      </c>
       <c r="H376" s="7"/>
       <c r="I376" s="7"/>
       <c r="J376" s="7">
@@ -51337,19 +51709,21 @@
       <c r="L376" s="7"/>
       <c r="M376" s="7"/>
       <c r="N376" s="7"/>
-      <c r="O376" s="7"/>
+      <c r="O376" s="7">
+        <v>100</v>
+      </c>
       <c r="P376" s="7"/>
       <c r="Q376" s="7"/>
       <c r="R376" s="7"/>
       <c r="S376" s="7"/>
       <c r="T376" s="7"/>
       <c r="U376" s="7">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="377" spans="1:21">
       <c r="A377" s="12">
-        <v>41416</v>
+        <v>41410</v>
       </c>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -51358,15 +51732,15 @@
       <c r="F377" s="7"/>
       <c r="G377" s="7"/>
       <c r="H377" s="7"/>
-      <c r="I377" s="7"/>
+      <c r="I377" s="7">
+        <v>200</v>
+      </c>
       <c r="J377" s="7"/>
       <c r="K377" s="7"/>
       <c r="L377" s="7"/>
       <c r="M377" s="7"/>
       <c r="N377" s="7"/>
-      <c r="O377" s="7">
-        <v>200</v>
-      </c>
+      <c r="O377" s="7"/>
       <c r="P377" s="7"/>
       <c r="Q377" s="7"/>
       <c r="R377" s="7"/>
@@ -51378,7 +51752,7 @@
     </row>
     <row r="378" spans="1:21">
       <c r="A378" s="12">
-        <v>41424</v>
+        <v>41411</v>
       </c>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -51387,27 +51761,29 @@
       <c r="F378" s="7"/>
       <c r="G378" s="7"/>
       <c r="H378" s="7"/>
-      <c r="I378" s="7">
-        <v>100</v>
-      </c>
+      <c r="I378" s="7"/>
       <c r="J378" s="7"/>
       <c r="K378" s="7"/>
       <c r="L378" s="7"/>
       <c r="M378" s="7"/>
-      <c r="N378" s="7"/>
+      <c r="N378" s="7">
+        <v>300</v>
+      </c>
       <c r="O378" s="7"/>
-      <c r="P378" s="7"/>
+      <c r="P378" s="7">
+        <v>100</v>
+      </c>
       <c r="Q378" s="7"/>
       <c r="R378" s="7"/>
       <c r="S378" s="7"/>
       <c r="T378" s="7"/>
       <c r="U378" s="7">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="379" spans="1:21">
       <c r="A379" s="12">
-        <v>41429</v>
+        <v>41414</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -51417,15 +51793,15 @@
       <c r="G379" s="7"/>
       <c r="H379" s="7"/>
       <c r="I379" s="7"/>
-      <c r="J379" s="7"/>
+      <c r="J379" s="7">
+        <v>100</v>
+      </c>
       <c r="K379" s="7"/>
       <c r="L379" s="7"/>
       <c r="M379" s="7"/>
       <c r="N379" s="7"/>
       <c r="O379" s="7"/>
-      <c r="P379" s="7">
-        <v>100</v>
-      </c>
+      <c r="P379" s="7"/>
       <c r="Q379" s="7"/>
       <c r="R379" s="7"/>
       <c r="S379" s="7"/>
@@ -51436,13 +51812,11 @@
     </row>
     <row r="380" spans="1:21">
       <c r="A380" s="12">
-        <v>41430</v>
+        <v>41416</v>
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
-      <c r="D380" s="7">
-        <v>100</v>
-      </c>
+      <c r="D380" s="7"/>
       <c r="E380" s="7"/>
       <c r="F380" s="7"/>
       <c r="G380" s="7"/>
@@ -51453,19 +51827,21 @@
       <c r="L380" s="7"/>
       <c r="M380" s="7"/>
       <c r="N380" s="7"/>
-      <c r="O380" s="7"/>
+      <c r="O380" s="7">
+        <v>200</v>
+      </c>
       <c r="P380" s="7"/>
       <c r="Q380" s="7"/>
       <c r="R380" s="7"/>
       <c r="S380" s="7"/>
       <c r="T380" s="7"/>
       <c r="U380" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="381" spans="1:21">
       <c r="A381" s="12">
-        <v>41431</v>
+        <v>41424</v>
       </c>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -51474,10 +51850,10 @@
       <c r="F381" s="7"/>
       <c r="G381" s="7"/>
       <c r="H381" s="7"/>
-      <c r="I381" s="7"/>
-      <c r="J381" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="I381" s="7">
+        <v>100</v>
+      </c>
+      <c r="J381" s="7"/>
       <c r="K381" s="7"/>
       <c r="L381" s="7"/>
       <c r="M381" s="7"/>
@@ -51485,27 +51861,23 @@
       <c r="O381" s="7"/>
       <c r="P381" s="7"/>
       <c r="Q381" s="7"/>
-      <c r="R381" s="7">
-        <v>200</v>
-      </c>
+      <c r="R381" s="7"/>
       <c r="S381" s="7"/>
       <c r="T381" s="7"/>
       <c r="U381" s="7">
-        <v>280.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="382" spans="1:21">
       <c r="A382" s="12">
-        <v>41438</v>
+        <v>41429</v>
       </c>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
-      <c r="G382" s="7">
-        <v>20</v>
-      </c>
+      <c r="G382" s="7"/>
       <c r="H382" s="7"/>
       <c r="I382" s="7"/>
       <c r="J382" s="7"/>
@@ -51514,22 +51886,26 @@
       <c r="M382" s="7"/>
       <c r="N382" s="7"/>
       <c r="O382" s="7"/>
-      <c r="P382" s="7"/>
+      <c r="P382" s="7">
+        <v>100</v>
+      </c>
       <c r="Q382" s="7"/>
       <c r="R382" s="7"/>
       <c r="S382" s="7"/>
       <c r="T382" s="7"/>
       <c r="U382" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="383" spans="1:21">
       <c r="A383" s="12">
-        <v>41439</v>
+        <v>41430</v>
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
-      <c r="D383" s="7"/>
+      <c r="D383" s="7">
+        <v>100</v>
+      </c>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
       <c r="G383" s="7"/>
@@ -51545,28 +51921,26 @@
       <c r="Q383" s="7"/>
       <c r="R383" s="7"/>
       <c r="S383" s="7"/>
-      <c r="T383" s="7">
-        <v>100</v>
-      </c>
+      <c r="T383" s="7"/>
       <c r="U383" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="384" spans="1:21">
       <c r="A384" s="12">
-        <v>41443</v>
+        <v>41431</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
-      <c r="D384" s="7">
-        <v>100</v>
-      </c>
+      <c r="D384" s="7"/>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
       <c r="G384" s="7"/>
       <c r="H384" s="7"/>
       <c r="I384" s="7"/>
-      <c r="J384" s="7"/>
+      <c r="J384" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K384" s="7"/>
       <c r="L384" s="7"/>
       <c r="M384" s="7"/>
@@ -51574,32 +51948,34 @@
       <c r="O384" s="7"/>
       <c r="P384" s="7"/>
       <c r="Q384" s="7"/>
-      <c r="R384" s="7"/>
+      <c r="R384" s="7">
+        <v>200</v>
+      </c>
       <c r="S384" s="7"/>
       <c r="T384" s="7"/>
       <c r="U384" s="7">
-        <v>100</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="385" spans="1:21">
       <c r="A385" s="12">
-        <v>41444</v>
+        <v>41438</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
-      <c r="G385" s="7"/>
+      <c r="G385" s="7">
+        <v>20</v>
+      </c>
       <c r="H385" s="7"/>
       <c r="I385" s="7"/>
       <c r="J385" s="7"/>
       <c r="K385" s="7"/>
       <c r="L385" s="7"/>
       <c r="M385" s="7"/>
-      <c r="N385" s="7">
-        <v>200</v>
-      </c>
+      <c r="N385" s="7"/>
       <c r="O385" s="7"/>
       <c r="P385" s="7"/>
       <c r="Q385" s="7"/>
@@ -51607,12 +51983,12 @@
       <c r="S385" s="7"/>
       <c r="T385" s="7"/>
       <c r="U385" s="7">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="386" spans="1:21">
       <c r="A386" s="12">
-        <v>41450</v>
+        <v>41439</v>
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -51627,56 +52003,50 @@
       <c r="L386" s="7"/>
       <c r="M386" s="7"/>
       <c r="N386" s="7"/>
-      <c r="O386" s="7">
-        <v>140</v>
-      </c>
-      <c r="P386" s="7">
-        <v>100</v>
-      </c>
+      <c r="O386" s="7"/>
+      <c r="P386" s="7"/>
       <c r="Q386" s="7"/>
       <c r="R386" s="7"/>
       <c r="S386" s="7"/>
-      <c r="T386" s="7"/>
+      <c r="T386" s="7">
+        <v>100</v>
+      </c>
       <c r="U386" s="7">
-        <v>240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="387" spans="1:21">
       <c r="A387" s="12">
-        <v>41451</v>
+        <v>41443</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
-      <c r="D387" s="7"/>
+      <c r="D387" s="7">
+        <v>100</v>
+      </c>
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
       <c r="G387" s="7"/>
       <c r="H387" s="7"/>
       <c r="I387" s="7"/>
-      <c r="J387" s="7">
-        <v>100</v>
-      </c>
+      <c r="J387" s="7"/>
       <c r="K387" s="7"/>
-      <c r="L387" s="7">
-        <v>100</v>
-      </c>
+      <c r="L387" s="7"/>
       <c r="M387" s="7"/>
       <c r="N387" s="7"/>
-      <c r="O387" s="7">
-        <v>200</v>
-      </c>
+      <c r="O387" s="7"/>
       <c r="P387" s="7"/>
       <c r="Q387" s="7"/>
       <c r="R387" s="7"/>
       <c r="S387" s="7"/>
       <c r="T387" s="7"/>
       <c r="U387" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="388" spans="1:21">
       <c r="A388" s="12">
-        <v>41453</v>
+        <v>41444</v>
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -51685,14 +52055,14 @@
       <c r="F388" s="7"/>
       <c r="G388" s="7"/>
       <c r="H388" s="7"/>
-      <c r="I388" s="7">
-        <v>200</v>
-      </c>
+      <c r="I388" s="7"/>
       <c r="J388" s="7"/>
       <c r="K388" s="7"/>
       <c r="L388" s="7"/>
       <c r="M388" s="7"/>
-      <c r="N388" s="7"/>
+      <c r="N388" s="7">
+        <v>200</v>
+      </c>
       <c r="O388" s="7"/>
       <c r="P388" s="7"/>
       <c r="Q388" s="7"/>
@@ -51705,7 +52075,7 @@
     </row>
     <row r="389" spans="1:21">
       <c r="A389" s="12">
-        <v>41463</v>
+        <v>41450</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -51718,23 +52088,25 @@
       <c r="J389" s="7"/>
       <c r="K389" s="7"/>
       <c r="L389" s="7"/>
-      <c r="M389" s="7">
-        <v>20</v>
-      </c>
+      <c r="M389" s="7"/>
       <c r="N389" s="7"/>
-      <c r="O389" s="7"/>
-      <c r="P389" s="7"/>
+      <c r="O389" s="7">
+        <v>140</v>
+      </c>
+      <c r="P389" s="7">
+        <v>100</v>
+      </c>
       <c r="Q389" s="7"/>
       <c r="R389" s="7"/>
       <c r="S389" s="7"/>
       <c r="T389" s="7"/>
       <c r="U389" s="7">
-        <v>20</v>
+        <v>240</v>
       </c>
     </row>
     <row r="390" spans="1:21">
       <c r="A390" s="12">
-        <v>41464</v>
+        <v>41451</v>
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -51744,37 +52116,41 @@
       <c r="G390" s="7"/>
       <c r="H390" s="7"/>
       <c r="I390" s="7"/>
-      <c r="J390" s="7"/>
+      <c r="J390" s="7">
+        <v>100</v>
+      </c>
       <c r="K390" s="7"/>
-      <c r="L390" s="7"/>
+      <c r="L390" s="7">
+        <v>100</v>
+      </c>
       <c r="M390" s="7"/>
       <c r="N390" s="7"/>
-      <c r="O390" s="7"/>
+      <c r="O390" s="7">
+        <v>200</v>
+      </c>
       <c r="P390" s="7"/>
-      <c r="Q390" s="7">
-        <v>100</v>
-      </c>
+      <c r="Q390" s="7"/>
       <c r="R390" s="7"/>
       <c r="S390" s="7"/>
       <c r="T390" s="7"/>
       <c r="U390" s="7">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="391" spans="1:21">
       <c r="A391" s="12">
-        <v>41465</v>
-      </c>
-      <c r="B391" s="7">
-        <v>50</v>
-      </c>
+        <v>41453</v>
+      </c>
+      <c r="B391" s="7"/>
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
       <c r="F391" s="7"/>
       <c r="G391" s="7"/>
       <c r="H391" s="7"/>
-      <c r="I391" s="7"/>
+      <c r="I391" s="7">
+        <v>200</v>
+      </c>
       <c r="J391" s="7"/>
       <c r="K391" s="7"/>
       <c r="L391" s="7"/>
@@ -51787,12 +52163,12 @@
       <c r="S391" s="7"/>
       <c r="T391" s="7"/>
       <c r="U391" s="7">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="392" spans="1:21">
       <c r="A392" s="12">
-        <v>41466</v>
+        <v>41463</v>
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -51802,12 +52178,12 @@
       <c r="G392" s="7"/>
       <c r="H392" s="7"/>
       <c r="I392" s="7"/>
-      <c r="J392" s="7">
-        <v>100</v>
-      </c>
+      <c r="J392" s="7"/>
       <c r="K392" s="7"/>
       <c r="L392" s="7"/>
-      <c r="M392" s="7"/>
+      <c r="M392" s="7">
+        <v>20</v>
+      </c>
       <c r="N392" s="7"/>
       <c r="O392" s="7"/>
       <c r="P392" s="7"/>
@@ -51816,12 +52192,12 @@
       <c r="S392" s="7"/>
       <c r="T392" s="7"/>
       <c r="U392" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="393" spans="1:21">
       <c r="A393" s="12">
-        <v>41467</v>
+        <v>41464</v>
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -51838,21 +52214,23 @@
       <c r="N393" s="7"/>
       <c r="O393" s="7"/>
       <c r="P393" s="7"/>
-      <c r="Q393" s="7"/>
+      <c r="Q393" s="7">
+        <v>100</v>
+      </c>
       <c r="R393" s="7"/>
       <c r="S393" s="7"/>
-      <c r="T393" s="7">
-        <v>100</v>
-      </c>
+      <c r="T393" s="7"/>
       <c r="U393" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="394" spans="1:21">
       <c r="A394" s="12">
-        <v>41472</v>
-      </c>
-      <c r="B394" s="7"/>
+        <v>41465</v>
+      </c>
+      <c r="B394" s="7">
+        <v>50</v>
+      </c>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -51862,9 +52240,7 @@
       <c r="I394" s="7"/>
       <c r="J394" s="7"/>
       <c r="K394" s="7"/>
-      <c r="L394" s="7">
-        <v>100</v>
-      </c>
+      <c r="L394" s="7"/>
       <c r="M394" s="7"/>
       <c r="N394" s="7"/>
       <c r="O394" s="7"/>
@@ -51874,56 +52250,48 @@
       <c r="S394" s="7"/>
       <c r="T394" s="7"/>
       <c r="U394" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="395" spans="1:21">
       <c r="A395" s="12">
-        <v>41474</v>
-      </c>
-      <c r="B395" s="7">
-        <v>76.5</v>
-      </c>
+        <v>41466</v>
+      </c>
+      <c r="B395" s="7"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
       <c r="F395" s="7"/>
       <c r="G395" s="7"/>
-      <c r="H395" s="7">
-        <v>50</v>
-      </c>
+      <c r="H395" s="7"/>
       <c r="I395" s="7"/>
-      <c r="J395" s="7"/>
+      <c r="J395" s="7">
+        <v>100</v>
+      </c>
       <c r="K395" s="7"/>
       <c r="L395" s="7"/>
       <c r="M395" s="7"/>
       <c r="N395" s="7"/>
       <c r="O395" s="7"/>
       <c r="P395" s="7"/>
-      <c r="Q395" s="7">
-        <v>200</v>
-      </c>
-      <c r="R395" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q395" s="7"/>
+      <c r="R395" s="7"/>
       <c r="S395" s="7"/>
       <c r="T395" s="7"/>
       <c r="U395" s="7">
-        <v>526.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="396" spans="1:21">
       <c r="A396" s="12">
-        <v>41479</v>
+        <v>41467</v>
       </c>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
       <c r="F396" s="7"/>
-      <c r="G396" s="7">
-        <v>100</v>
-      </c>
+      <c r="G396" s="7"/>
       <c r="H396" s="7"/>
       <c r="I396" s="7"/>
       <c r="J396" s="7"/>
@@ -51936,14 +52304,16 @@
       <c r="Q396" s="7"/>
       <c r="R396" s="7"/>
       <c r="S396" s="7"/>
-      <c r="T396" s="7"/>
+      <c r="T396" s="7">
+        <v>100</v>
+      </c>
       <c r="U396" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="397" spans="1:21">
       <c r="A397" s="12">
-        <v>41480</v>
+        <v>41472</v>
       </c>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -51955,11 +52325,11 @@
       <c r="I397" s="7"/>
       <c r="J397" s="7"/>
       <c r="K397" s="7"/>
-      <c r="L397" s="7"/>
+      <c r="L397" s="7">
+        <v>100</v>
+      </c>
       <c r="M397" s="7"/>
-      <c r="N397" s="7">
-        <v>200</v>
-      </c>
+      <c r="N397" s="7"/>
       <c r="O397" s="7"/>
       <c r="P397" s="7"/>
       <c r="Q397" s="7"/>
@@ -51967,53 +52337,59 @@
       <c r="S397" s="7"/>
       <c r="T397" s="7"/>
       <c r="U397" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="398" spans="1:21">
       <c r="A398" s="12">
-        <v>41481</v>
-      </c>
-      <c r="B398" s="7"/>
+        <v>41474</v>
+      </c>
+      <c r="B398" s="7">
+        <v>76.5</v>
+      </c>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
       <c r="F398" s="7"/>
       <c r="G398" s="7"/>
-      <c r="H398" s="7"/>
+      <c r="H398" s="7">
+        <v>50</v>
+      </c>
       <c r="I398" s="7"/>
       <c r="J398" s="7"/>
       <c r="K398" s="7"/>
-      <c r="L398" s="7">
-        <v>100</v>
-      </c>
+      <c r="L398" s="7"/>
       <c r="M398" s="7"/>
       <c r="N398" s="7"/>
       <c r="O398" s="7"/>
       <c r="P398" s="7"/>
-      <c r="Q398" s="7"/>
-      <c r="R398" s="7"/>
+      <c r="Q398" s="7">
+        <v>200</v>
+      </c>
+      <c r="R398" s="7">
+        <v>200</v>
+      </c>
       <c r="S398" s="7"/>
       <c r="T398" s="7"/>
       <c r="U398" s="7">
-        <v>100</v>
+        <v>526.5</v>
       </c>
     </row>
     <row r="399" spans="1:21">
       <c r="A399" s="12">
-        <v>41482</v>
+        <v>41479</v>
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
       <c r="F399" s="7"/>
-      <c r="G399" s="7"/>
+      <c r="G399" s="7">
+        <v>100</v>
+      </c>
       <c r="H399" s="7"/>
       <c r="I399" s="7"/>
-      <c r="J399" s="7">
-        <v>100</v>
-      </c>
+      <c r="J399" s="7"/>
       <c r="K399" s="7"/>
       <c r="L399" s="7"/>
       <c r="M399" s="7"/>
@@ -52030,7 +52406,7 @@
     </row>
     <row r="400" spans="1:21">
       <c r="A400" s="12">
-        <v>41488</v>
+        <v>41480</v>
       </c>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
@@ -52042,11 +52418,11 @@
       <c r="I400" s="7"/>
       <c r="J400" s="7"/>
       <c r="K400" s="7"/>
-      <c r="L400" s="7">
-        <v>300</v>
-      </c>
+      <c r="L400" s="7"/>
       <c r="M400" s="7"/>
-      <c r="N400" s="7"/>
+      <c r="N400" s="7">
+        <v>200</v>
+      </c>
       <c r="O400" s="7"/>
       <c r="P400" s="7"/>
       <c r="Q400" s="7"/>
@@ -52054,16 +52430,14 @@
       <c r="S400" s="7"/>
       <c r="T400" s="7"/>
       <c r="U400" s="7">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="401" spans="1:21">
       <c r="A401" s="12">
-        <v>41495</v>
-      </c>
-      <c r="B401" s="7">
-        <v>100</v>
-      </c>
+        <v>41481</v>
+      </c>
+      <c r="B401" s="7"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -52071,28 +52445,26 @@
       <c r="G401" s="7"/>
       <c r="H401" s="7"/>
       <c r="I401" s="7"/>
-      <c r="J401" s="7">
+      <c r="J401" s="7"/>
+      <c r="K401" s="7"/>
+      <c r="L401" s="7">
         <v>100</v>
       </c>
-      <c r="K401" s="7"/>
-      <c r="L401" s="7"/>
       <c r="M401" s="7"/>
       <c r="N401" s="7"/>
-      <c r="O401" s="7">
-        <v>300</v>
-      </c>
+      <c r="O401" s="7"/>
       <c r="P401" s="7"/>
       <c r="Q401" s="7"/>
       <c r="R401" s="7"/>
       <c r="S401" s="7"/>
       <c r="T401" s="7"/>
       <c r="U401" s="7">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="402" spans="1:21">
       <c r="A402" s="12">
-        <v>41502</v>
+        <v>41482</v>
       </c>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -52101,10 +52473,10 @@
       <c r="F402" s="7"/>
       <c r="G402" s="7"/>
       <c r="H402" s="7"/>
-      <c r="I402" s="7">
-        <v>200</v>
-      </c>
-      <c r="J402" s="7"/>
+      <c r="I402" s="7"/>
+      <c r="J402" s="7">
+        <v>100</v>
+      </c>
       <c r="K402" s="7"/>
       <c r="L402" s="7"/>
       <c r="M402" s="7"/>
@@ -52116,12 +52488,12 @@
       <c r="S402" s="7"/>
       <c r="T402" s="7"/>
       <c r="U402" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="403" spans="1:21">
       <c r="A403" s="12">
-        <v>41514</v>
+        <v>41488</v>
       </c>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -52131,11 +52503,11 @@
       <c r="G403" s="7"/>
       <c r="H403" s="7"/>
       <c r="I403" s="7"/>
-      <c r="J403" s="7">
-        <v>100</v>
-      </c>
+      <c r="J403" s="7"/>
       <c r="K403" s="7"/>
-      <c r="L403" s="7"/>
+      <c r="L403" s="7">
+        <v>300</v>
+      </c>
       <c r="M403" s="7"/>
       <c r="N403" s="7"/>
       <c r="O403" s="7"/>
@@ -52145,14 +52517,16 @@
       <c r="S403" s="7"/>
       <c r="T403" s="7"/>
       <c r="U403" s="7">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="404" spans="1:21">
       <c r="A404" s="12">
-        <v>41526</v>
-      </c>
-      <c r="B404" s="7"/>
+        <v>41495</v>
+      </c>
+      <c r="B404" s="7">
+        <v>100</v>
+      </c>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -52160,26 +52534,28 @@
       <c r="G404" s="7"/>
       <c r="H404" s="7"/>
       <c r="I404" s="7"/>
-      <c r="J404" s="7"/>
+      <c r="J404" s="7">
+        <v>100</v>
+      </c>
       <c r="K404" s="7"/>
       <c r="L404" s="7"/>
       <c r="M404" s="7"/>
       <c r="N404" s="7"/>
-      <c r="O404" s="7"/>
+      <c r="O404" s="7">
+        <v>300</v>
+      </c>
       <c r="P404" s="7"/>
-      <c r="Q404" s="7">
-        <v>400</v>
-      </c>
+      <c r="Q404" s="7"/>
       <c r="R404" s="7"/>
       <c r="S404" s="7"/>
       <c r="T404" s="7"/>
       <c r="U404" s="7">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="405" spans="1:21">
       <c r="A405" s="12">
-        <v>41528</v>
+        <v>41502</v>
       </c>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -52188,7 +52564,9 @@
       <c r="F405" s="7"/>
       <c r="G405" s="7"/>
       <c r="H405" s="7"/>
-      <c r="I405" s="7"/>
+      <c r="I405" s="7">
+        <v>200</v>
+      </c>
       <c r="J405" s="7"/>
       <c r="K405" s="7"/>
       <c r="L405" s="7"/>
@@ -52197,9 +52575,7 @@
       <c r="O405" s="7"/>
       <c r="P405" s="7"/>
       <c r="Q405" s="7"/>
-      <c r="R405" s="7">
-        <v>200</v>
-      </c>
+      <c r="R405" s="7"/>
       <c r="S405" s="7"/>
       <c r="T405" s="7"/>
       <c r="U405" s="7">
@@ -52208,11 +52584,9 @@
     </row>
     <row r="406" spans="1:21">
       <c r="A406" s="12">
-        <v>41533</v>
-      </c>
-      <c r="B406" s="7">
-        <v>200</v>
-      </c>
+        <v>41514</v>
+      </c>
+      <c r="B406" s="7"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -52220,26 +52594,26 @@
       <c r="G406" s="7"/>
       <c r="H406" s="7"/>
       <c r="I406" s="7"/>
-      <c r="J406" s="7"/>
+      <c r="J406" s="7">
+        <v>100</v>
+      </c>
       <c r="K406" s="7"/>
       <c r="L406" s="7"/>
       <c r="M406" s="7"/>
       <c r="N406" s="7"/>
       <c r="O406" s="7"/>
-      <c r="P406" s="7">
-        <v>100</v>
-      </c>
+      <c r="P406" s="7"/>
       <c r="Q406" s="7"/>
       <c r="R406" s="7"/>
       <c r="S406" s="7"/>
       <c r="T406" s="7"/>
       <c r="U406" s="7">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="407" spans="1:21">
       <c r="A407" s="12">
-        <v>41537</v>
+        <v>41526</v>
       </c>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -52249,26 +52623,26 @@
       <c r="G407" s="7"/>
       <c r="H407" s="7"/>
       <c r="I407" s="7"/>
-      <c r="J407" s="7">
-        <v>77</v>
-      </c>
+      <c r="J407" s="7"/>
       <c r="K407" s="7"/>
       <c r="L407" s="7"/>
       <c r="M407" s="7"/>
       <c r="N407" s="7"/>
       <c r="O407" s="7"/>
       <c r="P407" s="7"/>
-      <c r="Q407" s="7"/>
+      <c r="Q407" s="7">
+        <v>400</v>
+      </c>
       <c r="R407" s="7"/>
       <c r="S407" s="7"/>
       <c r="T407" s="7"/>
       <c r="U407" s="7">
-        <v>77</v>
+        <v>400</v>
       </c>
     </row>
     <row r="408" spans="1:21">
       <c r="A408" s="12">
-        <v>41547</v>
+        <v>41528</v>
       </c>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -52282,24 +52656,26 @@
       <c r="K408" s="7"/>
       <c r="L408" s="7"/>
       <c r="M408" s="7"/>
-      <c r="N408" s="7">
-        <v>80</v>
-      </c>
+      <c r="N408" s="7"/>
       <c r="O408" s="7"/>
       <c r="P408" s="7"/>
       <c r="Q408" s="7"/>
-      <c r="R408" s="7"/>
+      <c r="R408" s="7">
+        <v>200</v>
+      </c>
       <c r="S408" s="7"/>
       <c r="T408" s="7"/>
       <c r="U408" s="7">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="409" spans="1:21">
       <c r="A409" s="12">
-        <v>41559</v>
-      </c>
-      <c r="B409" s="7"/>
+        <v>41533</v>
+      </c>
+      <c r="B409" s="7">
+        <v>200</v>
+      </c>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -52307,26 +52683,26 @@
       <c r="G409" s="7"/>
       <c r="H409" s="7"/>
       <c r="I409" s="7"/>
-      <c r="J409" s="7">
-        <v>161</v>
-      </c>
+      <c r="J409" s="7"/>
       <c r="K409" s="7"/>
       <c r="L409" s="7"/>
       <c r="M409" s="7"/>
       <c r="N409" s="7"/>
       <c r="O409" s="7"/>
-      <c r="P409" s="7"/>
+      <c r="P409" s="7">
+        <v>100</v>
+      </c>
       <c r="Q409" s="7"/>
       <c r="R409" s="7"/>
       <c r="S409" s="7"/>
       <c r="T409" s="7"/>
       <c r="U409" s="7">
-        <v>161</v>
+        <v>300</v>
       </c>
     </row>
     <row r="410" spans="1:21">
       <c r="A410" s="12">
-        <v>41565</v>
+        <v>41537</v>
       </c>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -52335,35 +52711,27 @@
       <c r="F410" s="7"/>
       <c r="G410" s="7"/>
       <c r="H410" s="7"/>
-      <c r="I410" s="7">
-        <v>150</v>
-      </c>
-      <c r="J410" s="7"/>
+      <c r="I410" s="7"/>
+      <c r="J410" s="7">
+        <v>77</v>
+      </c>
       <c r="K410" s="7"/>
-      <c r="L410" s="7">
-        <v>200</v>
-      </c>
+      <c r="L410" s="7"/>
       <c r="M410" s="7"/>
       <c r="N410" s="7"/>
       <c r="O410" s="7"/>
-      <c r="P410" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q410" s="7">
-        <v>100</v>
-      </c>
-      <c r="R410" s="7">
-        <v>200</v>
-      </c>
+      <c r="P410" s="7"/>
+      <c r="Q410" s="7"/>
+      <c r="R410" s="7"/>
       <c r="S410" s="7"/>
       <c r="T410" s="7"/>
       <c r="U410" s="7">
-        <v>750</v>
+        <v>77</v>
       </c>
     </row>
     <row r="411" spans="1:21">
       <c r="A411" s="12">
-        <v>41575</v>
+        <v>41547</v>
       </c>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
@@ -52373,13 +52741,13 @@
       <c r="G411" s="7"/>
       <c r="H411" s="7"/>
       <c r="I411" s="7"/>
-      <c r="J411" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="J411" s="7"/>
       <c r="K411" s="7"/>
       <c r="L411" s="7"/>
       <c r="M411" s="7"/>
-      <c r="N411" s="7"/>
+      <c r="N411" s="7">
+        <v>80</v>
+      </c>
       <c r="O411" s="7"/>
       <c r="P411" s="7"/>
       <c r="Q411" s="7"/>
@@ -52387,12 +52755,12 @@
       <c r="S411" s="7"/>
       <c r="T411" s="7"/>
       <c r="U411" s="7">
-        <v>80.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="412" spans="1:21">
       <c r="A412" s="12">
-        <v>41579</v>
+        <v>41559</v>
       </c>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -52403,7 +52771,7 @@
       <c r="H412" s="7"/>
       <c r="I412" s="7"/>
       <c r="J412" s="7">
-        <v>80.5</v>
+        <v>161</v>
       </c>
       <c r="K412" s="7"/>
       <c r="L412" s="7"/>
@@ -52416,47 +52784,51 @@
       <c r="S412" s="7"/>
       <c r="T412" s="7"/>
       <c r="U412" s="7">
-        <v>80.5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="413" spans="1:21">
       <c r="A413" s="12">
-        <v>41590</v>
-      </c>
-      <c r="B413" s="7">
-        <v>100</v>
-      </c>
+        <v>41565</v>
+      </c>
+      <c r="B413" s="7"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
       <c r="F413" s="7"/>
       <c r="G413" s="7"/>
       <c r="H413" s="7"/>
-      <c r="I413" s="7"/>
+      <c r="I413" s="7">
+        <v>150</v>
+      </c>
       <c r="J413" s="7"/>
       <c r="K413" s="7"/>
-      <c r="L413" s="7"/>
+      <c r="L413" s="7">
+        <v>200</v>
+      </c>
       <c r="M413" s="7"/>
       <c r="N413" s="7"/>
       <c r="O413" s="7"/>
-      <c r="P413" s="7"/>
-      <c r="Q413" s="7"/>
+      <c r="P413" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q413" s="7">
+        <v>100</v>
+      </c>
       <c r="R413" s="7">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="S413" s="7"/>
       <c r="T413" s="7"/>
       <c r="U413" s="7">
-        <v>250</v>
+        <v>750</v>
       </c>
     </row>
     <row r="414" spans="1:21">
       <c r="A414" s="12">
-        <v>41597</v>
-      </c>
-      <c r="B414" s="7">
-        <v>100</v>
-      </c>
+        <v>41575</v>
+      </c>
+      <c r="B414" s="7"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -52464,7 +52836,9 @@
       <c r="G414" s="7"/>
       <c r="H414" s="7"/>
       <c r="I414" s="7"/>
-      <c r="J414" s="7"/>
+      <c r="J414" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K414" s="7"/>
       <c r="L414" s="7"/>
       <c r="M414" s="7"/>
@@ -52476,16 +52850,14 @@
       <c r="S414" s="7"/>
       <c r="T414" s="7"/>
       <c r="U414" s="7">
-        <v>100</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="415" spans="1:21">
       <c r="A415" s="12">
-        <v>41599</v>
-      </c>
-      <c r="B415" s="7">
-        <v>7</v>
-      </c>
+        <v>41579</v>
+      </c>
+      <c r="B415" s="7"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -52493,7 +52865,9 @@
       <c r="G415" s="7"/>
       <c r="H415" s="7"/>
       <c r="I415" s="7"/>
-      <c r="J415" s="7"/>
+      <c r="J415" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K415" s="7"/>
       <c r="L415" s="7"/>
       <c r="M415" s="7"/>
@@ -52505,14 +52879,16 @@
       <c r="S415" s="7"/>
       <c r="T415" s="7"/>
       <c r="U415" s="7">
-        <v>7</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="416" spans="1:21">
       <c r="A416" s="12">
-        <v>41600</v>
-      </c>
-      <c r="B416" s="7"/>
+        <v>41590</v>
+      </c>
+      <c r="B416" s="7">
+        <v>100</v>
+      </c>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -52520,32 +52896,26 @@
       <c r="G416" s="7"/>
       <c r="H416" s="7"/>
       <c r="I416" s="7"/>
-      <c r="J416" s="7">
-        <v>200</v>
-      </c>
+      <c r="J416" s="7"/>
       <c r="K416" s="7"/>
-      <c r="L416" s="7">
-        <v>200</v>
-      </c>
+      <c r="L416" s="7"/>
       <c r="M416" s="7"/>
-      <c r="N416" s="7">
-        <v>100</v>
-      </c>
+      <c r="N416" s="7"/>
       <c r="O416" s="7"/>
-      <c r="P416" s="7">
+      <c r="P416" s="7"/>
+      <c r="Q416" s="7"/>
+      <c r="R416" s="7">
         <v>150</v>
       </c>
-      <c r="Q416" s="7"/>
-      <c r="R416" s="7"/>
       <c r="S416" s="7"/>
       <c r="T416" s="7"/>
       <c r="U416" s="7">
-        <v>650</v>
+        <v>250</v>
       </c>
     </row>
     <row r="417" spans="1:21">
       <c r="A417" s="12">
-        <v>41603</v>
+        <v>41597</v>
       </c>
       <c r="B417" s="7">
         <v>100</v>
@@ -52573,68 +52943,190 @@
       </c>
     </row>
     <row r="418" spans="1:21">
-      <c r="A418" s="6" t="s">
+      <c r="A418" s="12">
+        <v>41599</v>
+      </c>
+      <c r="B418" s="7">
+        <v>7</v>
+      </c>
+      <c r="C418" s="7"/>
+      <c r="D418" s="7"/>
+      <c r="E418" s="7"/>
+      <c r="F418" s="7"/>
+      <c r="G418" s="7"/>
+      <c r="H418" s="7"/>
+      <c r="I418" s="7"/>
+      <c r="J418" s="7"/>
+      <c r="K418" s="7"/>
+      <c r="L418" s="7"/>
+      <c r="M418" s="7"/>
+      <c r="N418" s="7"/>
+      <c r="O418" s="7"/>
+      <c r="P418" s="7"/>
+      <c r="Q418" s="7"/>
+      <c r="R418" s="7"/>
+      <c r="S418" s="7"/>
+      <c r="T418" s="7"/>
+      <c r="U418" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:21">
+      <c r="A419" s="12">
+        <v>41600</v>
+      </c>
+      <c r="B419" s="7"/>
+      <c r="C419" s="7"/>
+      <c r="D419" s="7"/>
+      <c r="E419" s="7"/>
+      <c r="F419" s="7"/>
+      <c r="G419" s="7"/>
+      <c r="H419" s="7"/>
+      <c r="I419" s="7"/>
+      <c r="J419" s="7">
+        <v>200</v>
+      </c>
+      <c r="K419" s="7"/>
+      <c r="L419" s="7">
+        <v>200</v>
+      </c>
+      <c r="M419" s="7"/>
+      <c r="N419" s="7">
+        <v>100</v>
+      </c>
+      <c r="O419" s="7"/>
+      <c r="P419" s="7">
+        <v>150</v>
+      </c>
+      <c r="Q419" s="7"/>
+      <c r="R419" s="7"/>
+      <c r="S419" s="7"/>
+      <c r="T419" s="7"/>
+      <c r="U419" s="7">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="420" spans="1:21">
+      <c r="A420" s="12">
+        <v>41603</v>
+      </c>
+      <c r="B420" s="7">
+        <v>100</v>
+      </c>
+      <c r="C420" s="7"/>
+      <c r="D420" s="7"/>
+      <c r="E420" s="7"/>
+      <c r="F420" s="7"/>
+      <c r="G420" s="7"/>
+      <c r="H420" s="7"/>
+      <c r="I420" s="7"/>
+      <c r="J420" s="7"/>
+      <c r="K420" s="7"/>
+      <c r="L420" s="7"/>
+      <c r="M420" s="7"/>
+      <c r="N420" s="7"/>
+      <c r="O420" s="7"/>
+      <c r="P420" s="7"/>
+      <c r="Q420" s="7"/>
+      <c r="R420" s="7"/>
+      <c r="S420" s="7"/>
+      <c r="T420" s="7"/>
+      <c r="U420" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="421" spans="1:21">
+      <c r="A421" s="12">
+        <v>41605</v>
+      </c>
+      <c r="B421" s="7"/>
+      <c r="C421" s="7"/>
+      <c r="D421" s="7"/>
+      <c r="E421" s="7"/>
+      <c r="F421" s="7"/>
+      <c r="G421" s="7"/>
+      <c r="H421" s="7"/>
+      <c r="I421" s="7"/>
+      <c r="J421" s="7"/>
+      <c r="K421" s="7"/>
+      <c r="L421" s="7"/>
+      <c r="M421" s="7"/>
+      <c r="N421" s="7"/>
+      <c r="O421" s="7"/>
+      <c r="P421" s="7"/>
+      <c r="Q421" s="7">
+        <v>200</v>
+      </c>
+      <c r="R421" s="7"/>
+      <c r="S421" s="7"/>
+      <c r="T421" s="7"/>
+      <c r="U421" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="422" spans="1:21">
+      <c r="A422" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B418" s="7">
+      <c r="B422" s="7">
         <v>-25.100000000000023</v>
       </c>
-      <c r="C418" s="7">
+      <c r="C422" s="7">
         <v>56</v>
       </c>
-      <c r="D418" s="7">
+      <c r="D422" s="7">
         <v>15.899999999999977</v>
       </c>
-      <c r="E418" s="7">
+      <c r="E422" s="7">
         <v>14</v>
       </c>
-      <c r="F418" s="7">
+      <c r="F422" s="7">
         <v>11.400000000000006</v>
       </c>
-      <c r="G418" s="7">
+      <c r="G422" s="7">
         <v>-13.699999999999591</v>
       </c>
-      <c r="H418" s="7">
+      <c r="H422" s="7">
         <v>-34.099999999999909</v>
       </c>
-      <c r="I418" s="7">
+      <c r="I422" s="7">
         <v>8.9999999999995453</v>
       </c>
-      <c r="J418" s="7">
+      <c r="J422" s="7">
         <v>104.199999999998</v>
       </c>
-      <c r="K418" s="7">
+      <c r="K422" s="7">
         <v>9.3000000000000114</v>
       </c>
-      <c r="L418" s="7">
+      <c r="L422" s="7">
         <v>37.500000000000682</v>
       </c>
-      <c r="M418" s="7">
+      <c r="M422" s="7">
         <v>43.400000000000006</v>
       </c>
-      <c r="N418" s="7">
+      <c r="N422" s="7">
         <v>-50.899999999999181</v>
       </c>
-      <c r="O418" s="7">
+      <c r="O422" s="7">
         <v>-36.699999999998681</v>
       </c>
-      <c r="P418" s="7">
+      <c r="P422" s="7">
         <v>84.899999999999977</v>
       </c>
-      <c r="Q418" s="7">
-        <v>-164.19999999999959</v>
-      </c>
-      <c r="R418" s="7">
+      <c r="Q422" s="7">
+        <v>35.800000000000409</v>
+      </c>
+      <c r="R422" s="7">
         <v>-14.89999999999975</v>
       </c>
-      <c r="S418" s="7">
+      <c r="S422" s="7">
         <v>0</v>
       </c>
-      <c r="T418" s="7">
+      <c r="T422" s="7">
         <v>82.200000000000017</v>
       </c>
-      <c r="U418" s="7">
-        <v>128.20000000000982</v>
+      <c r="U422" s="7">
+        <v>328.20000000000982</v>
       </c>
     </row>
   </sheetData>
@@ -52647,8 +53139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -52773,13 +53265,13 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3078.2000000000003</v>
+        <v>-3078.2000000000007</v>
       </c>
       <c r="K3" s="7">
         <v>-220.7</v>
       </c>
       <c r="L3" s="7">
-        <v>-1362.4999999999995</v>
+        <v>-1362.4999999999993</v>
       </c>
       <c r="M3" s="7">
         <v>-176.6</v>
@@ -52794,7 +53286,7 @@
         <v>-858.09999999999991</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1164.1999999999998</v>
+        <v>-1164.1999999999996</v>
       </c>
       <c r="R3" s="7">
         <v>-964.89999999999975</v>
@@ -52856,7 +53348,7 @@
         <v>943</v>
       </c>
       <c r="Q4" s="7">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="R4" s="7">
         <v>950</v>
@@ -52865,7 +53357,7 @@
         <v>250</v>
       </c>
       <c r="T4" s="7">
-        <v>17548.400000000001</v>
+        <v>17748.400000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -52897,13 +53389,13 @@
         <v>8.9999999999995453</v>
       </c>
       <c r="J5" s="8">
-        <v>104.19999999999982</v>
+        <v>104.19999999999936</v>
       </c>
       <c r="K5" s="8">
         <v>9.3000000000000114</v>
       </c>
       <c r="L5" s="8">
-        <v>37.500000000000455</v>
+        <v>37.500000000000682</v>
       </c>
       <c r="M5" s="8">
         <v>43.400000000000006</v>
@@ -52918,7 +53410,7 @@
         <v>84.900000000000091</v>
       </c>
       <c r="Q5" s="8">
-        <v>-164.19999999999982</v>
+        <v>35.800000000000409</v>
       </c>
       <c r="R5" s="8">
         <v>-14.89999999999975</v>
@@ -52927,7 +53419,7 @@
         <v>82.200000000000017</v>
       </c>
       <c r="T5" s="8">
-        <v>128.20000000000073</v>
+        <v>328.20000000000073</v>
       </c>
     </row>
   </sheetData>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="消费记录明细" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="567">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2457,25 +2457,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2487,79 +2478,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <border>
         <left style="thin">
@@ -2630,6 +2562,96 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
       </font>
     </dxf>
@@ -2696,46 +2718,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -2747,13 +2729,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41605.567025694443" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1531">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41607.656796064817" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1541">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="消费记录明细"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-11-28T00:00:00" count="322">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-11-30T00:00:00" count="324">
         <d v="2011-09-09T00:00:00"/>
         <d v="2011-09-30T00:00:00"/>
         <d v="2011-11-28T00:00:00"/>
@@ -3071,11 +3053,13 @@
         <d v="2013-11-25T00:00:00"/>
         <d v="2013-11-26T00:00:00"/>
         <d v="2013-11-27T00:00:00"/>
+        <d v="2013-11-28T00:00:00"/>
+        <d v="2013-11-29T00:00:00"/>
         <m/>
         <d v="2011-01-12T00:00:00" u="1"/>
+        <d v="2013-05-14T00:00:00" u="1"/>
+        <d v="2011-11-06T00:00:00" u="1"/>
         <d v="2011-01-17T00:00:00" u="1"/>
-        <d v="2011-11-06T00:00:00" u="1"/>
-        <d v="2013-05-14T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="消费者" numFmtId="0">
@@ -3128,7 +3112,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1531">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1541">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -12162,133 +12146,133 @@
   <r>
     <x v="314"/>
     <x v="13"/>
-    <m/>
+    <n v="-14"/>
     <x v="0"/>
   </r>
   <r>
     <x v="314"/>
     <x v="20"/>
-    <m/>
+    <n v="-14"/>
     <x v="0"/>
   </r>
   <r>
     <x v="314"/>
     <x v="12"/>
-    <m/>
+    <n v="-14"/>
     <x v="0"/>
   </r>
   <r>
     <x v="314"/>
     <x v="19"/>
-    <m/>
+    <n v="-14"/>
     <x v="0"/>
   </r>
   <r>
     <x v="314"/>
     <x v="15"/>
-    <m/>
+    <n v="-14"/>
     <x v="0"/>
   </r>
   <r>
     <x v="314"/>
     <x v="8"/>
-    <m/>
+    <n v="-14"/>
     <x v="0"/>
   </r>
   <r>
     <x v="314"/>
     <x v="17"/>
-    <m/>
+    <n v="-14"/>
     <x v="0"/>
   </r>
   <r>
     <x v="314"/>
     <x v="10"/>
-    <m/>
+    <n v="-14"/>
     <x v="0"/>
   </r>
   <r>
     <x v="314"/>
     <x v="22"/>
-    <m/>
+    <n v="-14"/>
     <x v="0"/>
   </r>
   <r>
     <x v="315"/>
     <x v="13"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="315"/>
     <x v="20"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="315"/>
     <x v="12"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="315"/>
     <x v="19"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="315"/>
     <x v="15"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="315"/>
     <x v="10"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="315"/>
     <x v="22"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="316"/>
     <x v="13"/>
-    <m/>
+    <n v="-16.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="316"/>
     <x v="20"/>
-    <m/>
+    <n v="-16.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="316"/>
     <x v="12"/>
-    <m/>
+    <n v="-16.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="316"/>
     <x v="19"/>
-    <m/>
+    <n v="-16.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="316"/>
     <x v="15"/>
-    <m/>
+    <n v="-16.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="316"/>
     <x v="8"/>
-    <m/>
+    <n v="-16.8"/>
     <x v="0"/>
   </r>
   <r>
@@ -12299,18 +12283,78 @@
   </r>
   <r>
     <x v="317"/>
-    <x v="24"/>
-    <m/>
-    <x v="2"/>
+    <x v="13"/>
+    <n v="-15"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="317"/>
-    <x v="24"/>
-    <m/>
-    <x v="2"/>
+    <x v="20"/>
+    <n v="-15"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="317"/>
+    <x v="12"/>
+    <n v="-15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="317"/>
+    <x v="19"/>
+    <n v="-15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="317"/>
+    <x v="15"/>
+    <n v="-15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="317"/>
+    <x v="22"/>
+    <n v="-15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="317"/>
+    <x v="8"/>
+    <n v="-15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="317"/>
+    <x v="17"/>
+    <n v="-15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="318"/>
+    <x v="3"/>
+    <n v="-19.399999999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="318"/>
+    <x v="10"/>
+    <n v="-19.399999999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="318"/>
+    <x v="20"/>
+    <n v="-19.399999999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="318"/>
+    <x v="19"/>
+    <n v="-19.399999999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="319"/>
     <x v="24"/>
     <m/>
     <x v="2"/>
@@ -12319,16 +12363,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:U422" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:U424" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="323">
-        <item m="1" x="318"/>
-        <item m="1" x="319"/>
+      <items count="325">
+        <item m="1" x="320"/>
+        <item m="1" x="323"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="320"/>
+        <item m="1" x="322"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -12646,6 +12690,8 @@
         <item x="315"/>
         <item x="316"/>
         <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12694,7 +12740,7 @@
     <field x="3"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="420">
+  <rowItems count="422">
     <i>
       <x/>
     </i>
@@ -13580,6 +13626,12 @@
     <i r="1">
       <x v="320"/>
     </i>
+    <i r="1">
+      <x v="321"/>
+    </i>
+    <i r="1">
+      <x v="322"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -14025,20 +14077,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="23">
+    <format dxfId="24">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="23">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14052,7 +14104,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -14177,20 +14229,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="19">
+    <format dxfId="20">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="19">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14490,11 +14542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1531"/>
+  <dimension ref="A1:V1541"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1512" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1528" sqref="B1528"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1524" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1537" sqref="D1537:D1541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14639,7 +14691,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -14659,7 +14711,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -14677,7 +14729,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -14695,7 +14747,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -14713,7 +14765,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -14731,7 +14783,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -14749,7 +14801,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -15559,7 +15611,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="23" t="s">
         <v>65</v>
       </c>
     </row>
@@ -15579,7 +15631,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="28"/>
+      <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -15597,7 +15649,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="28"/>
+      <c r="F61" s="24"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -16415,7 +16467,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="29"/>
+      <c r="F109" s="26"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -16433,7 +16485,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="30"/>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -16451,7 +16503,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="31"/>
+      <c r="F111" s="28"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -16588,7 +16640,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -16608,7 +16660,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="31"/>
+      <c r="F120" s="28"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -17505,7 +17557,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="29" t="s">
+      <c r="F172" s="26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -17525,7 +17577,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="30"/>
+      <c r="F173" s="27"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -17543,7 +17595,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="30"/>
+      <c r="F174" s="27"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -17561,7 +17613,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="31"/>
+      <c r="F175" s="28"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -19579,7 +19631,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="22" t="s">
+      <c r="F288" s="29" t="s">
         <v>202</v>
       </c>
     </row>
@@ -19599,7 +19651,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="26"/>
+      <c r="F289" s="31"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -19617,7 +19669,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="23"/>
+      <c r="F290" s="30"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -19635,7 +19687,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="22" t="s">
+      <c r="F291" s="29" t="s">
         <v>212</v>
       </c>
     </row>
@@ -19655,7 +19707,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="26"/>
+      <c r="F292" s="31"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -19673,7 +19725,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="26"/>
+      <c r="F293" s="31"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -19691,7 +19743,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="23"/>
+      <c r="F294" s="30"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -19709,7 +19761,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="22" t="s">
+      <c r="F295" s="29" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19729,7 +19781,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="23"/>
+      <c r="F296" s="30"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -19747,7 +19799,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="24" t="s">
+      <c r="F297" s="23" t="s">
         <v>207</v>
       </c>
     </row>
@@ -20624,7 +20676,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="22" t="s">
+      <c r="F342" s="29" t="s">
         <v>284</v>
       </c>
     </row>
@@ -20644,7 +20696,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="23"/>
+      <c r="F343" s="30"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -38794,6 +38846,9 @@
       <c r="B1507" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1507" s="1">
+        <v>-14</v>
+      </c>
       <c r="D1507" s="9" t="s">
         <v>7</v>
       </c>
@@ -38805,6 +38860,9 @@
       <c r="B1508" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1508" s="1">
+        <v>-14</v>
+      </c>
       <c r="D1508" s="9" t="s">
         <v>7</v>
       </c>
@@ -38816,6 +38874,9 @@
       <c r="B1509" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C1509" s="1">
+        <v>-14</v>
+      </c>
       <c r="D1509" s="9" t="s">
         <v>7</v>
       </c>
@@ -38827,6 +38888,9 @@
       <c r="B1510" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1510" s="1">
+        <v>-14</v>
+      </c>
       <c r="D1510" s="9" t="s">
         <v>7</v>
       </c>
@@ -38838,6 +38902,9 @@
       <c r="B1511" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1511" s="1">
+        <v>-14</v>
+      </c>
       <c r="D1511" s="9" t="s">
         <v>7</v>
       </c>
@@ -38849,6 +38916,9 @@
       <c r="B1512" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C1512" s="1">
+        <v>-14</v>
+      </c>
       <c r="D1512" s="9" t="s">
         <v>7</v>
       </c>
@@ -38860,6 +38930,9 @@
       <c r="B1513" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="C1513" s="1">
+        <v>-14</v>
+      </c>
       <c r="D1513" s="9" t="s">
         <v>7</v>
       </c>
@@ -38871,6 +38944,9 @@
       <c r="B1514" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C1514" s="1">
+        <v>-14</v>
+      </c>
       <c r="D1514" s="9" t="s">
         <v>7</v>
       </c>
@@ -38882,6 +38958,9 @@
       <c r="B1515" s="1" t="s">
         <v>480</v>
       </c>
+      <c r="C1515" s="1">
+        <v>-14</v>
+      </c>
       <c r="D1515" s="9" t="s">
         <v>7</v>
       </c>
@@ -38893,6 +38972,9 @@
       <c r="B1516" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1516" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1516" s="9" t="s">
         <v>7</v>
       </c>
@@ -38904,6 +38986,9 @@
       <c r="B1517" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1517" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1517" s="9" t="s">
         <v>7</v>
       </c>
@@ -38915,6 +39000,9 @@
       <c r="B1518" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C1518" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1518" s="9" t="s">
         <v>7</v>
       </c>
@@ -38926,6 +39014,9 @@
       <c r="B1519" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1519" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1519" s="9" t="s">
         <v>7</v>
       </c>
@@ -38937,6 +39028,9 @@
       <c r="B1520" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1520" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1520" s="9" t="s">
         <v>7</v>
       </c>
@@ -38948,6 +39042,9 @@
       <c r="B1521" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C1521" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1521" s="9" t="s">
         <v>7</v>
       </c>
@@ -38959,6 +39056,9 @@
       <c r="B1522" s="1" t="s">
         <v>480</v>
       </c>
+      <c r="C1522" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1522" s="9" t="s">
         <v>7</v>
       </c>
@@ -38970,6 +39070,9 @@
       <c r="B1523" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1523" s="1">
+        <v>-16.8</v>
+      </c>
       <c r="D1523" s="9" t="s">
         <v>7</v>
       </c>
@@ -38981,6 +39084,9 @@
       <c r="B1524" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1524" s="1">
+        <v>-16.8</v>
+      </c>
       <c r="D1524" s="9" t="s">
         <v>7</v>
       </c>
@@ -38992,6 +39098,9 @@
       <c r="B1525" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C1525" s="1">
+        <v>-16.8</v>
+      </c>
       <c r="D1525" s="9" t="s">
         <v>7</v>
       </c>
@@ -39003,6 +39112,9 @@
       <c r="B1526" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1526" s="1">
+        <v>-16.8</v>
+      </c>
       <c r="D1526" s="9" t="s">
         <v>7</v>
       </c>
@@ -39014,6 +39126,9 @@
       <c r="B1527" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1527" s="1">
+        <v>-16.8</v>
+      </c>
       <c r="D1527" s="9" t="s">
         <v>7</v>
       </c>
@@ -39025,6 +39140,9 @@
       <c r="B1528" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C1528" s="1">
+        <v>-16.8</v>
+      </c>
       <c r="D1528" s="9" t="s">
         <v>7</v>
       </c>
@@ -39044,42 +39162,204 @@
       </c>
     </row>
     <row r="1530" spans="1:4">
-      <c r="A1530" s="4"/>
+      <c r="A1530" s="4">
+        <v>41606</v>
+      </c>
+      <c r="B1530" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1530" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D1530" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1531" spans="1:4">
-      <c r="A1531" s="4"/>
+      <c r="A1531" s="4">
+        <v>41606</v>
+      </c>
+      <c r="B1531" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1531" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D1531" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:4">
+      <c r="A1532" s="4">
+        <v>41606</v>
+      </c>
+      <c r="B1532" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1532" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D1532" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:4">
+      <c r="A1533" s="4">
+        <v>41606</v>
+      </c>
+      <c r="B1533" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1533" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D1533" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:4">
+      <c r="A1534" s="4">
+        <v>41606</v>
+      </c>
+      <c r="B1534" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1534" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D1534" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:4">
+      <c r="A1535" s="4">
+        <v>41606</v>
+      </c>
+      <c r="B1535" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1535" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D1535" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:4">
+      <c r="A1536" s="4">
+        <v>41606</v>
+      </c>
+      <c r="B1536" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1536" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D1536" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:4">
+      <c r="A1537" s="4">
+        <v>41606</v>
+      </c>
+      <c r="B1537" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1537" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D1537" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:4">
+      <c r="A1538" s="4">
+        <v>41607</v>
+      </c>
+      <c r="B1538" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1538" s="1">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="D1538" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:4">
+      <c r="A1539" s="4">
+        <v>41607</v>
+      </c>
+      <c r="B1539" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1539" s="1">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="D1539" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:4">
+      <c r="A1540" s="4">
+        <v>41607</v>
+      </c>
+      <c r="B1540" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1540" s="1">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="D1540" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:4">
+      <c r="A1541" s="4">
+        <v>41607</v>
+      </c>
+      <c r="B1541" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1541" s="1">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="D1541" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F342:F343"/>
+    <mergeCell ref="F295:F296"/>
+    <mergeCell ref="F297:F298"/>
+    <mergeCell ref="F291:F294"/>
+    <mergeCell ref="F288:F290"/>
     <mergeCell ref="F6:F12"/>
     <mergeCell ref="F59:F62"/>
     <mergeCell ref="F109:F111"/>
     <mergeCell ref="F119:F120"/>
     <mergeCell ref="F172:F175"/>
-    <mergeCell ref="F342:F343"/>
-    <mergeCell ref="F295:F296"/>
-    <mergeCell ref="F297:F298"/>
-    <mergeCell ref="F291:F294"/>
-    <mergeCell ref="F288:F290"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39098,7 +39378,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V422"/>
+  <dimension ref="A1:V424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
@@ -39112,7 +39392,7 @@
     <col min="3" max="3" width="7.75" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.75" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="10" width="9.625" bestFit="1" customWidth="1"/>
@@ -39121,8 +39401,7 @@
     <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.75" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.5" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="10.75" bestFit="1" customWidth="1"/>
@@ -39226,7 +39505,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="7">
-        <v>-775.6</v>
+        <v>-821.4</v>
       </c>
       <c r="C3" s="7">
         <v>-31</v>
@@ -39238,7 +39517,7 @@
         <v>-42</v>
       </c>
       <c r="F3" s="7">
-        <v>-188.6</v>
+        <v>-208</v>
       </c>
       <c r="G3" s="7">
         <v>-2036.6999999999996</v>
@@ -39250,40 +39529,40 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3078.2000000000021</v>
+        <v>-3125.4000000000024</v>
       </c>
       <c r="K3" s="7">
         <v>-220.7</v>
       </c>
       <c r="L3" s="7">
-        <v>-1362.4999999999993</v>
+        <v>-1422.0999999999992</v>
       </c>
       <c r="M3" s="7">
         <v>-176.6</v>
       </c>
       <c r="N3" s="7">
-        <v>-1370.8999999999992</v>
+        <v>-1430.4999999999991</v>
       </c>
       <c r="O3" s="7">
-        <v>-1615.6999999999987</v>
+        <v>-1675.2999999999986</v>
       </c>
       <c r="P3" s="7">
-        <v>-858.1</v>
+        <v>-887.1</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1164.1999999999996</v>
+        <v>-1243.1999999999996</v>
       </c>
       <c r="R3" s="7">
-        <v>-964.89999999999975</v>
+        <v>-1043.8999999999996</v>
       </c>
       <c r="S3" s="7">
         <v>-100</v>
       </c>
       <c r="T3" s="7">
-        <v>-167.79999999999998</v>
+        <v>-210.6</v>
       </c>
       <c r="U3" s="7">
-        <v>-17520.19999999999</v>
+        <v>-18041.199999999986</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -49261,7 +49540,9 @@
       <c r="A295" s="12">
         <v>41603</v>
       </c>
-      <c r="B295" s="7"/>
+      <c r="B295" s="7">
+        <v>-14</v>
+      </c>
       <c r="C295" s="7"/>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
@@ -49269,18 +49550,36 @@
       <c r="G295" s="7"/>
       <c r="H295" s="7"/>
       <c r="I295" s="7"/>
-      <c r="J295" s="7"/>
+      <c r="J295" s="7">
+        <v>-14</v>
+      </c>
       <c r="K295" s="7"/>
-      <c r="L295" s="7"/>
+      <c r="L295" s="7">
+        <v>-14</v>
+      </c>
       <c r="M295" s="7"/>
-      <c r="N295" s="7"/>
-      <c r="O295" s="7"/>
-      <c r="P295" s="7"/>
-      <c r="Q295" s="7"/>
-      <c r="R295" s="7"/>
+      <c r="N295" s="7">
+        <v>-14</v>
+      </c>
+      <c r="O295" s="7">
+        <v>-14</v>
+      </c>
+      <c r="P295" s="7">
+        <v>-14</v>
+      </c>
+      <c r="Q295" s="7">
+        <v>-14</v>
+      </c>
+      <c r="R295" s="7">
+        <v>-14</v>
+      </c>
       <c r="S295" s="7"/>
-      <c r="T295" s="7"/>
-      <c r="U295" s="7"/>
+      <c r="T295" s="7">
+        <v>-14</v>
+      </c>
+      <c r="U295" s="7">
+        <v>-126</v>
+      </c>
     </row>
     <row r="296" spans="1:21">
       <c r="A296" s="12">
@@ -49294,24 +49593,42 @@
       <c r="G296" s="7"/>
       <c r="H296" s="7"/>
       <c r="I296" s="7"/>
-      <c r="J296" s="7"/>
+      <c r="J296" s="7">
+        <v>-13.8</v>
+      </c>
       <c r="K296" s="7"/>
-      <c r="L296" s="7"/>
+      <c r="L296" s="7">
+        <v>-13.8</v>
+      </c>
       <c r="M296" s="7"/>
-      <c r="N296" s="7"/>
-      <c r="O296" s="7"/>
+      <c r="N296" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="O296" s="7">
+        <v>-13.8</v>
+      </c>
       <c r="P296" s="7"/>
-      <c r="Q296" s="7"/>
-      <c r="R296" s="7"/>
+      <c r="Q296" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="R296" s="7">
+        <v>-13.8</v>
+      </c>
       <c r="S296" s="7"/>
-      <c r="T296" s="7"/>
-      <c r="U296" s="7"/>
+      <c r="T296" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="U296" s="7">
+        <v>-96.6</v>
+      </c>
     </row>
     <row r="297" spans="1:21">
       <c r="A297" s="12">
         <v>41605</v>
       </c>
-      <c r="B297" s="7"/>
+      <c r="B297" s="7">
+        <v>-16.8</v>
+      </c>
       <c r="C297" s="7"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -49321,157 +49638,189 @@
       <c r="I297" s="7"/>
       <c r="J297" s="7"/>
       <c r="K297" s="7"/>
-      <c r="L297" s="7"/>
+      <c r="L297" s="7">
+        <v>-16.8</v>
+      </c>
       <c r="M297" s="7"/>
-      <c r="N297" s="7"/>
-      <c r="O297" s="7"/>
+      <c r="N297" s="7">
+        <v>-16.8</v>
+      </c>
+      <c r="O297" s="7">
+        <v>-16.8</v>
+      </c>
       <c r="P297" s="7"/>
-      <c r="Q297" s="7"/>
-      <c r="R297" s="7"/>
+      <c r="Q297" s="7">
+        <v>-16.8</v>
+      </c>
+      <c r="R297" s="7">
+        <v>-16.8</v>
+      </c>
       <c r="S297" s="7"/>
       <c r="T297" s="7"/>
-      <c r="U297" s="7"/>
+      <c r="U297" s="7">
+        <v>-100.8</v>
+      </c>
     </row>
     <row r="298" spans="1:21">
-      <c r="A298" s="6" t="s">
-        <v>5</v>
+      <c r="A298" s="12">
+        <v>41606</v>
       </c>
       <c r="B298" s="7">
-        <v>750.5</v>
-      </c>
-      <c r="C298" s="7">
-        <v>87</v>
-      </c>
-      <c r="D298" s="7">
-        <v>300</v>
-      </c>
-      <c r="E298" s="7">
-        <v>56</v>
-      </c>
-      <c r="F298" s="7">
-        <v>200</v>
-      </c>
-      <c r="G298" s="7">
-        <v>2023</v>
-      </c>
-      <c r="H298" s="7">
-        <v>555</v>
-      </c>
-      <c r="I298" s="7">
-        <v>2502.5</v>
-      </c>
-      <c r="J298" s="7">
-        <v>3182.4</v>
-      </c>
-      <c r="K298" s="7">
-        <v>230</v>
-      </c>
+        <v>-15</v>
+      </c>
+      <c r="C298" s="7"/>
+      <c r="D298" s="7"/>
+      <c r="E298" s="7"/>
+      <c r="F298" s="7"/>
+      <c r="G298" s="7"/>
+      <c r="H298" s="7"/>
+      <c r="I298" s="7"/>
+      <c r="J298" s="7"/>
+      <c r="K298" s="7"/>
       <c r="L298" s="7">
-        <v>1400</v>
-      </c>
-      <c r="M298" s="7">
-        <v>220</v>
-      </c>
+        <v>-15</v>
+      </c>
+      <c r="M298" s="7"/>
       <c r="N298" s="7">
-        <v>1320</v>
+        <v>-15</v>
       </c>
       <c r="O298" s="7">
-        <v>1579</v>
+        <v>-15</v>
       </c>
       <c r="P298" s="7">
-        <v>943</v>
+        <v>-15</v>
       </c>
       <c r="Q298" s="7">
-        <v>1200</v>
+        <v>-15</v>
       </c>
       <c r="R298" s="7">
-        <v>950</v>
-      </c>
-      <c r="S298" s="7">
-        <v>100</v>
-      </c>
+        <v>-15</v>
+      </c>
+      <c r="S298" s="7"/>
       <c r="T298" s="7">
-        <v>250</v>
+        <v>-15</v>
       </c>
       <c r="U298" s="7">
-        <v>17848.400000000001</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="299" spans="1:21">
       <c r="A299" s="12">
-        <v>40875</v>
+        <v>41607</v>
       </c>
       <c r="B299" s="7"/>
-      <c r="C299" s="7">
-        <v>63</v>
-      </c>
+      <c r="C299" s="7"/>
       <c r="D299" s="7"/>
-      <c r="E299" s="7">
-        <v>56</v>
-      </c>
-      <c r="F299" s="7"/>
+      <c r="E299" s="7"/>
+      <c r="F299" s="7">
+        <v>-19.399999999999999</v>
+      </c>
       <c r="G299" s="7"/>
-      <c r="H299" s="7">
-        <v>0</v>
-      </c>
+      <c r="H299" s="7"/>
       <c r="I299" s="7"/>
-      <c r="J299" s="7"/>
+      <c r="J299" s="7">
+        <v>-19.399999999999999</v>
+      </c>
       <c r="K299" s="7"/>
       <c r="L299" s="7"/>
       <c r="M299" s="7"/>
       <c r="N299" s="7"/>
       <c r="O299" s="7"/>
       <c r="P299" s="7"/>
-      <c r="Q299" s="7"/>
-      <c r="R299" s="7"/>
+      <c r="Q299" s="7">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="R299" s="7">
+        <v>-19.399999999999999</v>
+      </c>
       <c r="S299" s="7"/>
       <c r="T299" s="7"/>
       <c r="U299" s="7">
-        <v>119</v>
+        <v>-77.599999999999994</v>
       </c>
     </row>
     <row r="300" spans="1:21">
-      <c r="A300" s="12">
-        <v>40879</v>
+      <c r="A300" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B300" s="7">
-        <v>7</v>
-      </c>
-      <c r="C300" s="7"/>
-      <c r="D300" s="7"/>
-      <c r="E300" s="7"/>
-      <c r="F300" s="7"/>
-      <c r="G300" s="7"/>
-      <c r="H300" s="7"/>
-      <c r="I300" s="7"/>
-      <c r="J300" s="7"/>
-      <c r="K300" s="7"/>
-      <c r="L300" s="7"/>
-      <c r="M300" s="7"/>
-      <c r="N300" s="7"/>
-      <c r="O300" s="7"/>
-      <c r="P300" s="7"/>
-      <c r="Q300" s="7"/>
-      <c r="R300" s="7"/>
-      <c r="S300" s="7"/>
-      <c r="T300" s="7"/>
+        <v>750.5</v>
+      </c>
+      <c r="C300" s="7">
+        <v>87</v>
+      </c>
+      <c r="D300" s="7">
+        <v>300</v>
+      </c>
+      <c r="E300" s="7">
+        <v>56</v>
+      </c>
+      <c r="F300" s="7">
+        <v>200</v>
+      </c>
+      <c r="G300" s="7">
+        <v>2023</v>
+      </c>
+      <c r="H300" s="7">
+        <v>555</v>
+      </c>
+      <c r="I300" s="7">
+        <v>2502.5</v>
+      </c>
+      <c r="J300" s="7">
+        <v>3182.4</v>
+      </c>
+      <c r="K300" s="7">
+        <v>230</v>
+      </c>
+      <c r="L300" s="7">
+        <v>1400</v>
+      </c>
+      <c r="M300" s="7">
+        <v>220</v>
+      </c>
+      <c r="N300" s="7">
+        <v>1320</v>
+      </c>
+      <c r="O300" s="7">
+        <v>1579</v>
+      </c>
+      <c r="P300" s="7">
+        <v>943</v>
+      </c>
+      <c r="Q300" s="7">
+        <v>1200</v>
+      </c>
+      <c r="R300" s="7">
+        <v>950</v>
+      </c>
+      <c r="S300" s="7">
+        <v>100</v>
+      </c>
+      <c r="T300" s="7">
+        <v>250</v>
+      </c>
       <c r="U300" s="7">
-        <v>7</v>
+        <v>17848.400000000001</v>
       </c>
     </row>
     <row r="301" spans="1:21">
       <c r="A301" s="12">
-        <v>40883</v>
+        <v>40875</v>
       </c>
       <c r="B301" s="7"/>
-      <c r="C301" s="7"/>
+      <c r="C301" s="7">
+        <v>63</v>
+      </c>
       <c r="D301" s="7"/>
-      <c r="E301" s="7"/>
+      <c r="E301" s="7">
+        <v>56</v>
+      </c>
       <c r="F301" s="7"/>
-      <c r="G301" s="7">
-        <v>50</v>
-      </c>
-      <c r="H301" s="7"/>
+      <c r="G301" s="7"/>
+      <c r="H301" s="7">
+        <v>0</v>
+      </c>
       <c r="I301" s="7"/>
       <c r="J301" s="7"/>
       <c r="K301" s="7"/>
@@ -49485,23 +49834,23 @@
       <c r="S301" s="7"/>
       <c r="T301" s="7"/>
       <c r="U301" s="7">
-        <v>50</v>
+        <v>119</v>
       </c>
     </row>
     <row r="302" spans="1:21">
       <c r="A302" s="12">
-        <v>40891</v>
-      </c>
-      <c r="B302" s="7"/>
+        <v>40879</v>
+      </c>
+      <c r="B302" s="7">
+        <v>7</v>
+      </c>
       <c r="C302" s="7"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
       <c r="F302" s="7"/>
       <c r="G302" s="7"/>
       <c r="H302" s="7"/>
-      <c r="I302" s="7">
-        <v>65</v>
-      </c>
+      <c r="I302" s="7"/>
       <c r="J302" s="7"/>
       <c r="K302" s="7"/>
       <c r="L302" s="7"/>
@@ -49514,12 +49863,12 @@
       <c r="S302" s="7"/>
       <c r="T302" s="7"/>
       <c r="U302" s="7">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303" spans="1:21">
       <c r="A303" s="12">
-        <v>40892</v>
+        <v>40883</v>
       </c>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -49527,12 +49876,10 @@
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
       <c r="G303" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H303" s="7"/>
-      <c r="I303" s="7">
-        <v>68</v>
-      </c>
+      <c r="I303" s="7"/>
       <c r="J303" s="7"/>
       <c r="K303" s="7"/>
       <c r="L303" s="7"/>
@@ -49545,12 +49892,12 @@
       <c r="S303" s="7"/>
       <c r="T303" s="7"/>
       <c r="U303" s="7">
-        <v>168</v>
+        <v>50</v>
       </c>
     </row>
     <row r="304" spans="1:21">
       <c r="A304" s="12">
-        <v>40913</v>
+        <v>40891</v>
       </c>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -49560,7 +49907,7 @@
       <c r="G304" s="7"/>
       <c r="H304" s="7"/>
       <c r="I304" s="7">
-        <v>679.5</v>
+        <v>65</v>
       </c>
       <c r="J304" s="7"/>
       <c r="K304" s="7"/>
@@ -49574,12 +49921,12 @@
       <c r="S304" s="7"/>
       <c r="T304" s="7"/>
       <c r="U304" s="7">
-        <v>679.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="305" spans="1:21">
       <c r="A305" s="12">
-        <v>40917</v>
+        <v>40892</v>
       </c>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
@@ -49590,7 +49937,9 @@
         <v>100</v>
       </c>
       <c r="H305" s="7"/>
-      <c r="I305" s="7"/>
+      <c r="I305" s="7">
+        <v>68</v>
+      </c>
       <c r="J305" s="7"/>
       <c r="K305" s="7"/>
       <c r="L305" s="7"/>
@@ -49603,12 +49952,12 @@
       <c r="S305" s="7"/>
       <c r="T305" s="7"/>
       <c r="U305" s="7">
-        <v>100</v>
+        <v>168</v>
       </c>
     </row>
     <row r="306" spans="1:21">
       <c r="A306" s="12">
-        <v>40919</v>
+        <v>40913</v>
       </c>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -49617,10 +49966,10 @@
       <c r="F306" s="7"/>
       <c r="G306" s="7"/>
       <c r="H306" s="7"/>
-      <c r="I306" s="7"/>
-      <c r="J306" s="7">
-        <v>15</v>
-      </c>
+      <c r="I306" s="7">
+        <v>679.5</v>
+      </c>
+      <c r="J306" s="7"/>
       <c r="K306" s="7"/>
       <c r="L306" s="7"/>
       <c r="M306" s="7"/>
@@ -49632,23 +49981,21 @@
       <c r="S306" s="7"/>
       <c r="T306" s="7"/>
       <c r="U306" s="7">
-        <v>15</v>
+        <v>679.5</v>
       </c>
     </row>
     <row r="307" spans="1:21">
       <c r="A307" s="12">
-        <v>40921</v>
+        <v>40917</v>
       </c>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
-      <c r="D307" s="7">
+      <c r="D307" s="7"/>
+      <c r="E307" s="7"/>
+      <c r="F307" s="7"/>
+      <c r="G307" s="7">
         <v>100</v>
       </c>
-      <c r="E307" s="7"/>
-      <c r="F307" s="7">
-        <v>100</v>
-      </c>
-      <c r="G307" s="7"/>
       <c r="H307" s="7"/>
       <c r="I307" s="7"/>
       <c r="J307" s="7"/>
@@ -49663,12 +50010,12 @@
       <c r="S307" s="7"/>
       <c r="T307" s="7"/>
       <c r="U307" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="308" spans="1:21">
       <c r="A308" s="12">
-        <v>40925</v>
+        <v>40919</v>
       </c>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -49679,7 +50026,7 @@
       <c r="H308" s="7"/>
       <c r="I308" s="7"/>
       <c r="J308" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K308" s="7"/>
       <c r="L308" s="7"/>
@@ -49692,24 +50039,26 @@
       <c r="S308" s="7"/>
       <c r="T308" s="7"/>
       <c r="U308" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="309" spans="1:21">
       <c r="A309" s="12">
-        <v>40926</v>
+        <v>40921</v>
       </c>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
-      <c r="D309" s="7"/>
+      <c r="D309" s="7">
+        <v>100</v>
+      </c>
       <c r="E309" s="7"/>
-      <c r="F309" s="7"/>
+      <c r="F309" s="7">
+        <v>100</v>
+      </c>
       <c r="G309" s="7"/>
       <c r="H309" s="7"/>
       <c r="I309" s="7"/>
-      <c r="J309" s="7">
-        <v>28</v>
-      </c>
+      <c r="J309" s="7"/>
       <c r="K309" s="7"/>
       <c r="L309" s="7"/>
       <c r="M309" s="7"/>
@@ -49721,12 +50070,12 @@
       <c r="S309" s="7"/>
       <c r="T309" s="7"/>
       <c r="U309" s="7">
-        <v>28</v>
+        <v>200</v>
       </c>
     </row>
     <row r="310" spans="1:21">
       <c r="A310" s="12">
-        <v>40940</v>
+        <v>40925</v>
       </c>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -49736,10 +50085,10 @@
       <c r="G310" s="7"/>
       <c r="H310" s="7"/>
       <c r="I310" s="7"/>
-      <c r="J310" s="7"/>
-      <c r="K310" s="7">
-        <v>100</v>
-      </c>
+      <c r="J310" s="7">
+        <v>14</v>
+      </c>
+      <c r="K310" s="7"/>
       <c r="L310" s="7"/>
       <c r="M310" s="7"/>
       <c r="N310" s="7"/>
@@ -49750,12 +50099,12 @@
       <c r="S310" s="7"/>
       <c r="T310" s="7"/>
       <c r="U310" s="7">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="311" spans="1:21">
       <c r="A311" s="12">
-        <v>40942</v>
+        <v>40926</v>
       </c>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -49765,10 +50114,10 @@
       <c r="G311" s="7"/>
       <c r="H311" s="7"/>
       <c r="I311" s="7"/>
-      <c r="J311" s="7"/>
-      <c r="K311" s="7">
-        <v>100</v>
-      </c>
+      <c r="J311" s="7">
+        <v>28</v>
+      </c>
+      <c r="K311" s="7"/>
       <c r="L311" s="7"/>
       <c r="M311" s="7"/>
       <c r="N311" s="7"/>
@@ -49779,12 +50128,12 @@
       <c r="S311" s="7"/>
       <c r="T311" s="7"/>
       <c r="U311" s="7">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="312" spans="1:21">
       <c r="A312" s="12">
-        <v>40947</v>
+        <v>40940</v>
       </c>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -49794,10 +50143,10 @@
       <c r="G312" s="7"/>
       <c r="H312" s="7"/>
       <c r="I312" s="7"/>
-      <c r="J312" s="7">
+      <c r="J312" s="7"/>
+      <c r="K312" s="7">
         <v>100</v>
       </c>
-      <c r="K312" s="7"/>
       <c r="L312" s="7"/>
       <c r="M312" s="7"/>
       <c r="N312" s="7"/>
@@ -49813,7 +50162,7 @@
     </row>
     <row r="313" spans="1:21">
       <c r="A313" s="12">
-        <v>40954</v>
+        <v>40942</v>
       </c>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -49821,12 +50170,12 @@
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
       <c r="G313" s="7"/>
-      <c r="H313" s="7">
-        <v>100</v>
-      </c>
+      <c r="H313" s="7"/>
       <c r="I313" s="7"/>
       <c r="J313" s="7"/>
-      <c r="K313" s="7"/>
+      <c r="K313" s="7">
+        <v>100</v>
+      </c>
       <c r="L313" s="7"/>
       <c r="M313" s="7"/>
       <c r="N313" s="7"/>
@@ -49842,7 +50191,7 @@
     </row>
     <row r="314" spans="1:21">
       <c r="A314" s="12">
-        <v>40973</v>
+        <v>40947</v>
       </c>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -49852,15 +50201,13 @@
       <c r="G314" s="7"/>
       <c r="H314" s="7"/>
       <c r="I314" s="7"/>
-      <c r="J314" s="7"/>
-      <c r="K314" s="7">
-        <v>30</v>
-      </c>
+      <c r="J314" s="7">
+        <v>100</v>
+      </c>
+      <c r="K314" s="7"/>
       <c r="L314" s="7"/>
       <c r="M314" s="7"/>
-      <c r="N314" s="7">
-        <v>100</v>
-      </c>
+      <c r="N314" s="7"/>
       <c r="O314" s="7"/>
       <c r="P314" s="7"/>
       <c r="Q314" s="7"/>
@@ -49868,12 +50215,12 @@
       <c r="S314" s="7"/>
       <c r="T314" s="7"/>
       <c r="U314" s="7">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="315" spans="1:21">
       <c r="A315" s="12">
-        <v>40974</v>
+        <v>40954</v>
       </c>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -49902,7 +50249,7 @@
     </row>
     <row r="316" spans="1:21">
       <c r="A316" s="12">
-        <v>40981</v>
+        <v>40973</v>
       </c>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -49910,17 +50257,17 @@
       <c r="E316" s="7"/>
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
-      <c r="H316" s="7">
-        <v>100</v>
-      </c>
-      <c r="I316" s="7">
-        <v>300</v>
-      </c>
+      <c r="H316" s="7"/>
+      <c r="I316" s="7"/>
       <c r="J316" s="7"/>
-      <c r="K316" s="7"/>
+      <c r="K316" s="7">
+        <v>30</v>
+      </c>
       <c r="L316" s="7"/>
       <c r="M316" s="7"/>
-      <c r="N316" s="7"/>
+      <c r="N316" s="7">
+        <v>100</v>
+      </c>
       <c r="O316" s="7"/>
       <c r="P316" s="7"/>
       <c r="Q316" s="7"/>
@@ -49928,12 +50275,12 @@
       <c r="S316" s="7"/>
       <c r="T316" s="7"/>
       <c r="U316" s="7">
-        <v>400</v>
+        <v>130</v>
       </c>
     </row>
     <row r="317" spans="1:21">
       <c r="A317" s="12">
-        <v>41032</v>
+        <v>40974</v>
       </c>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -49941,16 +50288,14 @@
       <c r="E317" s="7"/>
       <c r="F317" s="7"/>
       <c r="G317" s="7"/>
-      <c r="H317" s="7"/>
+      <c r="H317" s="7">
+        <v>100</v>
+      </c>
       <c r="I317" s="7"/>
       <c r="J317" s="7"/>
       <c r="K317" s="7"/>
-      <c r="L317" s="7">
-        <v>100</v>
-      </c>
-      <c r="M317" s="7">
-        <v>100</v>
-      </c>
+      <c r="L317" s="7"/>
+      <c r="M317" s="7"/>
       <c r="N317" s="7"/>
       <c r="O317" s="7"/>
       <c r="P317" s="7"/>
@@ -49959,12 +50304,12 @@
       <c r="S317" s="7"/>
       <c r="T317" s="7"/>
       <c r="U317" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="318" spans="1:21">
       <c r="A318" s="12">
-        <v>41037</v>
+        <v>40981</v>
       </c>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -49972,15 +50317,17 @@
       <c r="E318" s="7"/>
       <c r="F318" s="7"/>
       <c r="G318" s="7"/>
-      <c r="H318" s="7"/>
-      <c r="I318" s="7"/>
+      <c r="H318" s="7">
+        <v>100</v>
+      </c>
+      <c r="I318" s="7">
+        <v>300</v>
+      </c>
       <c r="J318" s="7"/>
       <c r="K318" s="7"/>
       <c r="L318" s="7"/>
       <c r="M318" s="7"/>
-      <c r="N318" s="7">
-        <v>100</v>
-      </c>
+      <c r="N318" s="7"/>
       <c r="O318" s="7"/>
       <c r="P318" s="7"/>
       <c r="Q318" s="7"/>
@@ -49988,12 +50335,12 @@
       <c r="S318" s="7"/>
       <c r="T318" s="7"/>
       <c r="U318" s="7">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="319" spans="1:21">
       <c r="A319" s="12">
-        <v>41039</v>
+        <v>41032</v>
       </c>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -50005,24 +50352,26 @@
       <c r="I319" s="7"/>
       <c r="J319" s="7"/>
       <c r="K319" s="7"/>
-      <c r="L319" s="7"/>
-      <c r="M319" s="7"/>
+      <c r="L319" s="7">
+        <v>100</v>
+      </c>
+      <c r="M319" s="7">
+        <v>100</v>
+      </c>
       <c r="N319" s="7"/>
-      <c r="O319" s="7">
-        <v>35</v>
-      </c>
+      <c r="O319" s="7"/>
       <c r="P319" s="7"/>
       <c r="Q319" s="7"/>
       <c r="R319" s="7"/>
       <c r="S319" s="7"/>
       <c r="T319" s="7"/>
       <c r="U319" s="7">
-        <v>35</v>
+        <v>200</v>
       </c>
     </row>
     <row r="320" spans="1:21">
       <c r="A320" s="12">
-        <v>41044</v>
+        <v>41037</v>
       </c>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -50036,31 +50385,29 @@
       <c r="K320" s="7"/>
       <c r="L320" s="7"/>
       <c r="M320" s="7"/>
-      <c r="N320" s="7"/>
-      <c r="O320" s="7">
-        <v>20</v>
-      </c>
+      <c r="N320" s="7">
+        <v>100</v>
+      </c>
+      <c r="O320" s="7"/>
       <c r="P320" s="7"/>
       <c r="Q320" s="7"/>
       <c r="R320" s="7"/>
       <c r="S320" s="7"/>
       <c r="T320" s="7"/>
       <c r="U320" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="321" spans="1:21">
       <c r="A321" s="12">
-        <v>41050</v>
+        <v>41039</v>
       </c>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
       <c r="D321" s="7"/>
       <c r="E321" s="7"/>
       <c r="F321" s="7"/>
-      <c r="G321" s="7">
-        <v>89</v>
-      </c>
+      <c r="G321" s="7"/>
       <c r="H321" s="7"/>
       <c r="I321" s="7"/>
       <c r="J321" s="7"/>
@@ -50068,19 +50415,21 @@
       <c r="L321" s="7"/>
       <c r="M321" s="7"/>
       <c r="N321" s="7"/>
-      <c r="O321" s="7"/>
+      <c r="O321" s="7">
+        <v>35</v>
+      </c>
       <c r="P321" s="7"/>
       <c r="Q321" s="7"/>
       <c r="R321" s="7"/>
       <c r="S321" s="7"/>
       <c r="T321" s="7"/>
       <c r="U321" s="7">
-        <v>89</v>
+        <v>35</v>
       </c>
     </row>
     <row r="322" spans="1:21">
       <c r="A322" s="12">
-        <v>41057</v>
+        <v>41044</v>
       </c>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -50090,38 +50439,38 @@
       <c r="G322" s="7"/>
       <c r="H322" s="7"/>
       <c r="I322" s="7"/>
-      <c r="J322" s="7">
-        <v>300</v>
-      </c>
+      <c r="J322" s="7"/>
       <c r="K322" s="7"/>
       <c r="L322" s="7"/>
       <c r="M322" s="7"/>
       <c r="N322" s="7"/>
-      <c r="O322" s="7"/>
+      <c r="O322" s="7">
+        <v>20</v>
+      </c>
       <c r="P322" s="7"/>
       <c r="Q322" s="7"/>
       <c r="R322" s="7"/>
       <c r="S322" s="7"/>
       <c r="T322" s="7"/>
       <c r="U322" s="7">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="323" spans="1:21">
       <c r="A323" s="12">
-        <v>41060</v>
+        <v>41050</v>
       </c>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
       <c r="D323" s="7"/>
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
-      <c r="G323" s="7"/>
+      <c r="G323" s="7">
+        <v>89</v>
+      </c>
       <c r="H323" s="7"/>
       <c r="I323" s="7"/>
-      <c r="J323" s="7">
-        <v>10.1</v>
-      </c>
+      <c r="J323" s="7"/>
       <c r="K323" s="7"/>
       <c r="L323" s="7"/>
       <c r="M323" s="7"/>
@@ -50133,24 +50482,24 @@
       <c r="S323" s="7"/>
       <c r="T323" s="7"/>
       <c r="U323" s="7">
-        <v>10.1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="324" spans="1:21">
       <c r="A324" s="12">
-        <v>41066</v>
+        <v>41057</v>
       </c>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
-      <c r="G324" s="7">
-        <v>300</v>
-      </c>
+      <c r="G324" s="7"/>
       <c r="H324" s="7"/>
       <c r="I324" s="7"/>
-      <c r="J324" s="7"/>
+      <c r="J324" s="7">
+        <v>300</v>
+      </c>
       <c r="K324" s="7"/>
       <c r="L324" s="7"/>
       <c r="M324" s="7"/>
@@ -50167,7 +50516,7 @@
     </row>
     <row r="325" spans="1:21">
       <c r="A325" s="12">
-        <v>41070</v>
+        <v>41060</v>
       </c>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -50178,7 +50527,7 @@
       <c r="H325" s="7"/>
       <c r="I325" s="7"/>
       <c r="J325" s="7">
-        <v>130</v>
+        <v>10.1</v>
       </c>
       <c r="K325" s="7"/>
       <c r="L325" s="7"/>
@@ -50191,24 +50540,24 @@
       <c r="S325" s="7"/>
       <c r="T325" s="7"/>
       <c r="U325" s="7">
-        <v>130</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="326" spans="1:21">
       <c r="A326" s="12">
-        <v>41071</v>
+        <v>41066</v>
       </c>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
       <c r="D326" s="7"/>
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
-      <c r="G326" s="7"/>
+      <c r="G326" s="7">
+        <v>300</v>
+      </c>
       <c r="H326" s="7"/>
       <c r="I326" s="7"/>
-      <c r="J326" s="7">
-        <v>81.400000000000006</v>
-      </c>
+      <c r="J326" s="7"/>
       <c r="K326" s="7"/>
       <c r="L326" s="7"/>
       <c r="M326" s="7"/>
@@ -50220,12 +50569,12 @@
       <c r="S326" s="7"/>
       <c r="T326" s="7"/>
       <c r="U326" s="7">
-        <v>81.400000000000006</v>
+        <v>300</v>
       </c>
     </row>
     <row r="327" spans="1:21">
       <c r="A327" s="12">
-        <v>41072</v>
+        <v>41070</v>
       </c>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -50236,7 +50585,7 @@
       <c r="H327" s="7"/>
       <c r="I327" s="7"/>
       <c r="J327" s="7">
-        <v>77.599999999999994</v>
+        <v>130</v>
       </c>
       <c r="K327" s="7"/>
       <c r="L327" s="7"/>
@@ -50249,25 +50598,23 @@
       <c r="S327" s="7"/>
       <c r="T327" s="7"/>
       <c r="U327" s="7">
-        <v>77.599999999999994</v>
+        <v>130</v>
       </c>
     </row>
     <row r="328" spans="1:21">
       <c r="A328" s="12">
-        <v>41078</v>
+        <v>41071</v>
       </c>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
       <c r="D328" s="7"/>
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
-      <c r="G328" s="7">
-        <v>47</v>
-      </c>
+      <c r="G328" s="7"/>
       <c r="H328" s="7"/>
       <c r="I328" s="7"/>
       <c r="J328" s="7">
-        <v>50</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="K328" s="7"/>
       <c r="L328" s="7"/>
@@ -50280,12 +50627,12 @@
       <c r="S328" s="7"/>
       <c r="T328" s="7"/>
       <c r="U328" s="7">
-        <v>97</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="329" spans="1:21">
       <c r="A329" s="12">
-        <v>41082</v>
+        <v>41072</v>
       </c>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -50296,7 +50643,7 @@
       <c r="H329" s="7"/>
       <c r="I329" s="7"/>
       <c r="J329" s="7">
-        <v>98</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="K329" s="7"/>
       <c r="L329" s="7"/>
@@ -50309,23 +50656,25 @@
       <c r="S329" s="7"/>
       <c r="T329" s="7"/>
       <c r="U329" s="7">
-        <v>98</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="330" spans="1:21">
       <c r="A330" s="12">
-        <v>41083</v>
+        <v>41078</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
       <c r="D330" s="7"/>
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
-      <c r="G330" s="7"/>
+      <c r="G330" s="7">
+        <v>47</v>
+      </c>
       <c r="H330" s="7"/>
       <c r="I330" s="7"/>
       <c r="J330" s="7">
-        <v>39.9</v>
+        <v>50</v>
       </c>
       <c r="K330" s="7"/>
       <c r="L330" s="7"/>
@@ -50338,24 +50687,24 @@
       <c r="S330" s="7"/>
       <c r="T330" s="7"/>
       <c r="U330" s="7">
-        <v>39.9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="331" spans="1:21">
       <c r="A331" s="12">
-        <v>41085</v>
+        <v>41082</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
-      <c r="G331" s="7">
-        <v>300</v>
-      </c>
+      <c r="G331" s="7"/>
       <c r="H331" s="7"/>
       <c r="I331" s="7"/>
-      <c r="J331" s="7"/>
+      <c r="J331" s="7">
+        <v>98</v>
+      </c>
       <c r="K331" s="7"/>
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
@@ -50367,12 +50716,12 @@
       <c r="S331" s="7"/>
       <c r="T331" s="7"/>
       <c r="U331" s="7">
-        <v>300</v>
+        <v>98</v>
       </c>
     </row>
     <row r="332" spans="1:21">
       <c r="A332" s="12">
-        <v>41088</v>
+        <v>41083</v>
       </c>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -50383,7 +50732,7 @@
       <c r="H332" s="7"/>
       <c r="I332" s="7"/>
       <c r="J332" s="7">
-        <v>20</v>
+        <v>39.9</v>
       </c>
       <c r="K332" s="7"/>
       <c r="L332" s="7"/>
@@ -50396,19 +50745,21 @@
       <c r="S332" s="7"/>
       <c r="T332" s="7"/>
       <c r="U332" s="7">
-        <v>20</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="333" spans="1:21">
       <c r="A333" s="12">
-        <v>41092</v>
+        <v>41085</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
       <c r="D333" s="7"/>
       <c r="E333" s="7"/>
       <c r="F333" s="7"/>
-      <c r="G333" s="7"/>
+      <c r="G333" s="7">
+        <v>300</v>
+      </c>
       <c r="H333" s="7"/>
       <c r="I333" s="7"/>
       <c r="J333" s="7"/>
@@ -50417,20 +50768,18 @@
       <c r="M333" s="7"/>
       <c r="N333" s="7"/>
       <c r="O333" s="7"/>
-      <c r="P333" s="7">
-        <v>93</v>
-      </c>
+      <c r="P333" s="7"/>
       <c r="Q333" s="7"/>
       <c r="R333" s="7"/>
       <c r="S333" s="7"/>
       <c r="T333" s="7"/>
       <c r="U333" s="7">
-        <v>93</v>
+        <v>300</v>
       </c>
     </row>
     <row r="334" spans="1:21">
       <c r="A334" s="12">
-        <v>41093</v>
+        <v>41088</v>
       </c>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -50441,7 +50790,7 @@
       <c r="H334" s="7"/>
       <c r="I334" s="7"/>
       <c r="J334" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K334" s="7"/>
       <c r="L334" s="7"/>
@@ -50454,43 +50803,41 @@
       <c r="S334" s="7"/>
       <c r="T334" s="7"/>
       <c r="U334" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="335" spans="1:21">
       <c r="A335" s="12">
-        <v>41095</v>
+        <v>41092</v>
       </c>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
       <c r="D335" s="7"/>
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
-      <c r="G335" s="7">
-        <v>70</v>
-      </c>
+      <c r="G335" s="7"/>
       <c r="H335" s="7"/>
       <c r="I335" s="7"/>
-      <c r="J335" s="7">
-        <v>98</v>
-      </c>
+      <c r="J335" s="7"/>
       <c r="K335" s="7"/>
       <c r="L335" s="7"/>
       <c r="M335" s="7"/>
       <c r="N335" s="7"/>
       <c r="O335" s="7"/>
-      <c r="P335" s="7"/>
+      <c r="P335" s="7">
+        <v>93</v>
+      </c>
       <c r="Q335" s="7"/>
       <c r="R335" s="7"/>
       <c r="S335" s="7"/>
       <c r="T335" s="7"/>
       <c r="U335" s="7">
-        <v>168</v>
+        <v>93</v>
       </c>
     </row>
     <row r="336" spans="1:21">
       <c r="A336" s="12">
-        <v>41100</v>
+        <v>41093</v>
       </c>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -50499,10 +50846,10 @@
       <c r="F336" s="7"/>
       <c r="G336" s="7"/>
       <c r="H336" s="7"/>
-      <c r="I336" s="7">
-        <v>16</v>
-      </c>
-      <c r="J336" s="7"/>
+      <c r="I336" s="7"/>
+      <c r="J336" s="7">
+        <v>100</v>
+      </c>
       <c r="K336" s="7"/>
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
@@ -50514,24 +50861,26 @@
       <c r="S336" s="7"/>
       <c r="T336" s="7"/>
       <c r="U336" s="7">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="337" spans="1:21">
       <c r="A337" s="12">
-        <v>41108</v>
+        <v>41095</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
-      <c r="G337" s="7"/>
+      <c r="G337" s="7">
+        <v>70</v>
+      </c>
       <c r="H337" s="7"/>
-      <c r="I337" s="7">
-        <v>63</v>
-      </c>
-      <c r="J337" s="7"/>
+      <c r="I337" s="7"/>
+      <c r="J337" s="7">
+        <v>98</v>
+      </c>
       <c r="K337" s="7"/>
       <c r="L337" s="7"/>
       <c r="M337" s="7"/>
@@ -50543,12 +50892,12 @@
       <c r="S337" s="7"/>
       <c r="T337" s="7"/>
       <c r="U337" s="7">
-        <v>63</v>
+        <v>168</v>
       </c>
     </row>
     <row r="338" spans="1:21">
       <c r="A338" s="12">
-        <v>41110</v>
+        <v>41100</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -50558,7 +50907,7 @@
       <c r="G338" s="7"/>
       <c r="H338" s="7"/>
       <c r="I338" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J338" s="7"/>
       <c r="K338" s="7"/>
@@ -50572,12 +50921,12 @@
       <c r="S338" s="7"/>
       <c r="T338" s="7"/>
       <c r="U338" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="339" spans="1:21">
       <c r="A339" s="12">
-        <v>41116</v>
+        <v>41108</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -50587,7 +50936,7 @@
       <c r="G339" s="7"/>
       <c r="H339" s="7"/>
       <c r="I339" s="7">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="J339" s="7"/>
       <c r="K339" s="7"/>
@@ -50601,12 +50950,12 @@
       <c r="S339" s="7"/>
       <c r="T339" s="7"/>
       <c r="U339" s="7">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="340" spans="1:21">
       <c r="A340" s="12">
-        <v>41136</v>
+        <v>41110</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -50614,11 +50963,9 @@
       <c r="E340" s="7"/>
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
-      <c r="H340" s="7">
-        <v>55</v>
-      </c>
+      <c r="H340" s="7"/>
       <c r="I340" s="7">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="J340" s="7"/>
       <c r="K340" s="7"/>
@@ -50632,23 +50979,23 @@
       <c r="S340" s="7"/>
       <c r="T340" s="7"/>
       <c r="U340" s="7">
-        <v>94</v>
+        <v>15</v>
       </c>
     </row>
     <row r="341" spans="1:21">
       <c r="A341" s="12">
-        <v>41138</v>
+        <v>41116</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
-      <c r="G341" s="7">
-        <v>100.4</v>
-      </c>
+      <c r="G341" s="7"/>
       <c r="H341" s="7"/>
-      <c r="I341" s="7"/>
+      <c r="I341" s="7">
+        <v>83</v>
+      </c>
       <c r="J341" s="7"/>
       <c r="K341" s="7"/>
       <c r="L341" s="7"/>
@@ -50661,12 +51008,12 @@
       <c r="S341" s="7"/>
       <c r="T341" s="7"/>
       <c r="U341" s="7">
-        <v>100.4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="342" spans="1:21">
       <c r="A342" s="12">
-        <v>41151</v>
+        <v>41136</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -50674,11 +51021,13 @@
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
       <c r="G342" s="7"/>
-      <c r="H342" s="7"/>
-      <c r="I342" s="7"/>
-      <c r="J342" s="7">
-        <v>100</v>
-      </c>
+      <c r="H342" s="7">
+        <v>55</v>
+      </c>
+      <c r="I342" s="7">
+        <v>39</v>
+      </c>
+      <c r="J342" s="7"/>
       <c r="K342" s="7"/>
       <c r="L342" s="7"/>
       <c r="M342" s="7"/>
@@ -50690,23 +51039,23 @@
       <c r="S342" s="7"/>
       <c r="T342" s="7"/>
       <c r="U342" s="7">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="343" spans="1:21">
       <c r="A343" s="12">
-        <v>41156</v>
+        <v>41138</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
-      <c r="G343" s="7"/>
+      <c r="G343" s="7">
+        <v>100.4</v>
+      </c>
       <c r="H343" s="7"/>
-      <c r="I343" s="7">
-        <v>15</v>
-      </c>
+      <c r="I343" s="7"/>
       <c r="J343" s="7"/>
       <c r="K343" s="7"/>
       <c r="L343" s="7"/>
@@ -50719,12 +51068,12 @@
       <c r="S343" s="7"/>
       <c r="T343" s="7"/>
       <c r="U343" s="7">
-        <v>15</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="344" spans="1:21">
       <c r="A344" s="12">
-        <v>41161</v>
+        <v>41151</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -50733,10 +51082,10 @@
       <c r="F344" s="7"/>
       <c r="G344" s="7"/>
       <c r="H344" s="7"/>
-      <c r="I344" s="7">
-        <v>76</v>
-      </c>
-      <c r="J344" s="7"/>
+      <c r="I344" s="7"/>
+      <c r="J344" s="7">
+        <v>100</v>
+      </c>
       <c r="K344" s="7"/>
       <c r="L344" s="7"/>
       <c r="M344" s="7"/>
@@ -50748,12 +51097,12 @@
       <c r="S344" s="7"/>
       <c r="T344" s="7"/>
       <c r="U344" s="7">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="345" spans="1:21">
       <c r="A345" s="12">
-        <v>41162</v>
+        <v>41156</v>
       </c>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -50762,29 +51111,27 @@
       <c r="F345" s="7"/>
       <c r="G345" s="7"/>
       <c r="H345" s="7"/>
-      <c r="I345" s="7"/>
-      <c r="J345" s="7">
-        <v>100</v>
-      </c>
+      <c r="I345" s="7">
+        <v>15</v>
+      </c>
+      <c r="J345" s="7"/>
       <c r="K345" s="7"/>
       <c r="L345" s="7"/>
       <c r="M345" s="7"/>
       <c r="N345" s="7"/>
-      <c r="O345" s="7">
-        <v>48</v>
-      </c>
+      <c r="O345" s="7"/>
       <c r="P345" s="7"/>
       <c r="Q345" s="7"/>
       <c r="R345" s="7"/>
       <c r="S345" s="7"/>
       <c r="T345" s="7"/>
       <c r="U345" s="7">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="346" spans="1:21">
       <c r="A346" s="12">
-        <v>41166</v>
+        <v>41161</v>
       </c>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -50793,27 +51140,27 @@
       <c r="F346" s="7"/>
       <c r="G346" s="7"/>
       <c r="H346" s="7"/>
-      <c r="I346" s="7"/>
+      <c r="I346" s="7">
+        <v>76</v>
+      </c>
       <c r="J346" s="7"/>
       <c r="K346" s="7"/>
       <c r="L346" s="7"/>
       <c r="M346" s="7"/>
       <c r="N346" s="7"/>
-      <c r="O346" s="7">
-        <v>100</v>
-      </c>
+      <c r="O346" s="7"/>
       <c r="P346" s="7"/>
       <c r="Q346" s="7"/>
       <c r="R346" s="7"/>
       <c r="S346" s="7"/>
       <c r="T346" s="7"/>
       <c r="U346" s="7">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="347" spans="1:21">
       <c r="A347" s="12">
-        <v>41171</v>
+        <v>41162</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -50823,13 +51170,15 @@
       <c r="G347" s="7"/>
       <c r="H347" s="7"/>
       <c r="I347" s="7"/>
-      <c r="J347" s="7"/>
+      <c r="J347" s="7">
+        <v>100</v>
+      </c>
       <c r="K347" s="7"/>
       <c r="L347" s="7"/>
       <c r="M347" s="7"/>
       <c r="N347" s="7"/>
       <c r="O347" s="7">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="P347" s="7"/>
       <c r="Q347" s="7"/>
@@ -50837,20 +51186,18 @@
       <c r="S347" s="7"/>
       <c r="T347" s="7"/>
       <c r="U347" s="7">
-        <v>10</v>
+        <v>148</v>
       </c>
     </row>
     <row r="348" spans="1:21">
       <c r="A348" s="12">
-        <v>41175</v>
+        <v>41166</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
-      <c r="F348" s="7">
-        <v>100</v>
-      </c>
+      <c r="F348" s="7"/>
       <c r="G348" s="7"/>
       <c r="H348" s="7"/>
       <c r="I348" s="7"/>
@@ -50859,7 +51206,9 @@
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
       <c r="N348" s="7"/>
-      <c r="O348" s="7"/>
+      <c r="O348" s="7">
+        <v>100</v>
+      </c>
       <c r="P348" s="7"/>
       <c r="Q348" s="7"/>
       <c r="R348" s="7"/>
@@ -50871,29 +51220,23 @@
     </row>
     <row r="349" spans="1:21">
       <c r="A349" s="12">
-        <v>41197</v>
-      </c>
-      <c r="B349" s="7">
-        <v>10</v>
-      </c>
+        <v>41171</v>
+      </c>
+      <c r="B349" s="7"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
-      <c r="G349" s="7">
-        <v>10</v>
-      </c>
+      <c r="G349" s="7"/>
       <c r="H349" s="7"/>
       <c r="I349" s="7"/>
-      <c r="J349" s="7">
-        <v>10</v>
-      </c>
+      <c r="J349" s="7"/>
       <c r="K349" s="7"/>
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
       <c r="N349" s="7"/>
       <c r="O349" s="7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="P349" s="7"/>
       <c r="Q349" s="7"/>
@@ -50901,18 +51244,20 @@
       <c r="S349" s="7"/>
       <c r="T349" s="7"/>
       <c r="U349" s="7">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350" spans="1:21">
       <c r="A350" s="12">
-        <v>41198</v>
+        <v>41175</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
-      <c r="F350" s="7"/>
+      <c r="F350" s="7">
+        <v>100</v>
+      </c>
       <c r="G350" s="7"/>
       <c r="H350" s="7"/>
       <c r="I350" s="7"/>
@@ -50921,43 +51266,41 @@
       <c r="L350" s="7"/>
       <c r="M350" s="7"/>
       <c r="N350" s="7"/>
-      <c r="O350" s="7">
-        <v>40</v>
-      </c>
+      <c r="O350" s="7"/>
       <c r="P350" s="7"/>
       <c r="Q350" s="7"/>
       <c r="R350" s="7"/>
       <c r="S350" s="7"/>
       <c r="T350" s="7"/>
       <c r="U350" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="351" spans="1:21">
       <c r="A351" s="12">
-        <v>41205</v>
-      </c>
-      <c r="B351" s="7"/>
+        <v>41197</v>
+      </c>
+      <c r="B351" s="7">
+        <v>10</v>
+      </c>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
       <c r="F351" s="7"/>
-      <c r="G351" s="7"/>
+      <c r="G351" s="7">
+        <v>10</v>
+      </c>
       <c r="H351" s="7"/>
       <c r="I351" s="7"/>
       <c r="J351" s="7">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="K351" s="7"/>
-      <c r="L351" s="7">
-        <v>100</v>
-      </c>
+      <c r="L351" s="7"/>
       <c r="M351" s="7"/>
-      <c r="N351" s="7">
-        <v>100</v>
-      </c>
+      <c r="N351" s="7"/>
       <c r="O351" s="7">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P351" s="7"/>
       <c r="Q351" s="7"/>
@@ -50965,12 +51308,12 @@
       <c r="S351" s="7"/>
       <c r="T351" s="7"/>
       <c r="U351" s="7">
-        <v>432</v>
+        <v>90</v>
       </c>
     </row>
     <row r="352" spans="1:21">
       <c r="A352" s="12">
-        <v>41214</v>
+        <v>41198</v>
       </c>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -50980,26 +51323,26 @@
       <c r="G352" s="7"/>
       <c r="H352" s="7"/>
       <c r="I352" s="7"/>
-      <c r="J352" s="7">
-        <v>2</v>
-      </c>
+      <c r="J352" s="7"/>
       <c r="K352" s="7"/>
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
       <c r="N352" s="7"/>
-      <c r="O352" s="7"/>
+      <c r="O352" s="7">
+        <v>40</v>
+      </c>
       <c r="P352" s="7"/>
       <c r="Q352" s="7"/>
       <c r="R352" s="7"/>
       <c r="S352" s="7"/>
       <c r="T352" s="7"/>
       <c r="U352" s="7">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="353" spans="1:21">
       <c r="A353" s="12">
-        <v>41215</v>
+        <v>41205</v>
       </c>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -51010,25 +51353,31 @@
       <c r="H353" s="7"/>
       <c r="I353" s="7"/>
       <c r="J353" s="7">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="K353" s="7"/>
-      <c r="L353" s="7"/>
+      <c r="L353" s="7">
+        <v>100</v>
+      </c>
       <c r="M353" s="7"/>
-      <c r="N353" s="7"/>
-      <c r="O353" s="7"/>
+      <c r="N353" s="7">
+        <v>100</v>
+      </c>
+      <c r="O353" s="7">
+        <v>70</v>
+      </c>
       <c r="P353" s="7"/>
       <c r="Q353" s="7"/>
       <c r="R353" s="7"/>
       <c r="S353" s="7"/>
       <c r="T353" s="7"/>
       <c r="U353" s="7">
-        <v>4</v>
+        <v>432</v>
       </c>
     </row>
     <row r="354" spans="1:21">
       <c r="A354" s="12">
-        <v>41237</v>
+        <v>41214</v>
       </c>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -51039,12 +51388,10 @@
       <c r="H354" s="7"/>
       <c r="I354" s="7"/>
       <c r="J354" s="7">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="K354" s="7"/>
-      <c r="L354" s="7">
-        <v>100</v>
-      </c>
+      <c r="L354" s="7"/>
       <c r="M354" s="7"/>
       <c r="N354" s="7"/>
       <c r="O354" s="7"/>
@@ -51054,25 +51401,23 @@
       <c r="S354" s="7"/>
       <c r="T354" s="7"/>
       <c r="U354" s="7">
-        <v>200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:21">
       <c r="A355" s="12">
-        <v>41242</v>
+        <v>41215</v>
       </c>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
       <c r="F355" s="7"/>
-      <c r="G355" s="7">
-        <v>100</v>
-      </c>
+      <c r="G355" s="7"/>
       <c r="H355" s="7"/>
       <c r="I355" s="7"/>
       <c r="J355" s="7">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="K355" s="7"/>
       <c r="L355" s="7"/>
@@ -51085,12 +51430,12 @@
       <c r="S355" s="7"/>
       <c r="T355" s="7"/>
       <c r="U355" s="7">
-        <v>181</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:21">
       <c r="A356" s="12">
-        <v>41253</v>
+        <v>41237</v>
       </c>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -51101,10 +51446,12 @@
       <c r="H356" s="7"/>
       <c r="I356" s="7"/>
       <c r="J356" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K356" s="7"/>
-      <c r="L356" s="7"/>
+      <c r="L356" s="7">
+        <v>100</v>
+      </c>
       <c r="M356" s="7"/>
       <c r="N356" s="7"/>
       <c r="O356" s="7"/>
@@ -51114,24 +51461,26 @@
       <c r="S356" s="7"/>
       <c r="T356" s="7"/>
       <c r="U356" s="7">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="357" spans="1:21">
       <c r="A357" s="12">
-        <v>41268</v>
+        <v>41242</v>
       </c>
       <c r="B357" s="7"/>
-      <c r="C357" s="7">
-        <v>24</v>
-      </c>
+      <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
       <c r="F357" s="7"/>
-      <c r="G357" s="7"/>
+      <c r="G357" s="7">
+        <v>100</v>
+      </c>
       <c r="H357" s="7"/>
       <c r="I357" s="7"/>
-      <c r="J357" s="7"/>
+      <c r="J357" s="7">
+        <v>81</v>
+      </c>
       <c r="K357" s="7"/>
       <c r="L357" s="7"/>
       <c r="M357" s="7"/>
@@ -51143,24 +51492,24 @@
       <c r="S357" s="7"/>
       <c r="T357" s="7"/>
       <c r="U357" s="7">
-        <v>24</v>
+        <v>181</v>
       </c>
     </row>
     <row r="358" spans="1:21">
       <c r="A358" s="12">
-        <v>41281</v>
+        <v>41253</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
       <c r="F358" s="7"/>
-      <c r="G358" s="7">
-        <v>200</v>
-      </c>
+      <c r="G358" s="7"/>
       <c r="H358" s="7"/>
       <c r="I358" s="7"/>
-      <c r="J358" s="7"/>
+      <c r="J358" s="7">
+        <v>10</v>
+      </c>
       <c r="K358" s="7"/>
       <c r="L358" s="7"/>
       <c r="M358" s="7"/>
@@ -51172,26 +51521,24 @@
       <c r="S358" s="7"/>
       <c r="T358" s="7"/>
       <c r="U358" s="7">
-        <v>200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359" spans="1:21">
       <c r="A359" s="12">
-        <v>41310</v>
+        <v>41268</v>
       </c>
       <c r="B359" s="7"/>
-      <c r="C359" s="7"/>
+      <c r="C359" s="7">
+        <v>24</v>
+      </c>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
       <c r="F359" s="7"/>
       <c r="G359" s="7"/>
       <c r="H359" s="7"/>
-      <c r="I359" s="7">
-        <v>22</v>
-      </c>
-      <c r="J359" s="7">
-        <v>31.9</v>
-      </c>
+      <c r="I359" s="7"/>
+      <c r="J359" s="7"/>
       <c r="K359" s="7"/>
       <c r="L359" s="7"/>
       <c r="M359" s="7"/>
@@ -51203,12 +51550,12 @@
       <c r="S359" s="7"/>
       <c r="T359" s="7"/>
       <c r="U359" s="7">
-        <v>53.9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="360" spans="1:21">
       <c r="A360" s="12">
-        <v>41323</v>
+        <v>41281</v>
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -51216,7 +51563,7 @@
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
       <c r="G360" s="7">
-        <v>119.6</v>
+        <v>200</v>
       </c>
       <c r="H360" s="7"/>
       <c r="I360" s="7"/>
@@ -51232,24 +51579,26 @@
       <c r="S360" s="7"/>
       <c r="T360" s="7"/>
       <c r="U360" s="7">
-        <v>119.6</v>
+        <v>200</v>
       </c>
     </row>
     <row r="361" spans="1:21">
       <c r="A361" s="12">
-        <v>41331</v>
+        <v>41310</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
       <c r="F361" s="7"/>
-      <c r="G361" s="7">
-        <v>100</v>
-      </c>
+      <c r="G361" s="7"/>
       <c r="H361" s="7"/>
-      <c r="I361" s="7"/>
-      <c r="J361" s="7"/>
+      <c r="I361" s="7">
+        <v>22</v>
+      </c>
+      <c r="J361" s="7">
+        <v>31.9</v>
+      </c>
       <c r="K361" s="7"/>
       <c r="L361" s="7"/>
       <c r="M361" s="7"/>
@@ -51261,24 +51610,24 @@
       <c r="S361" s="7"/>
       <c r="T361" s="7"/>
       <c r="U361" s="7">
-        <v>100</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="362" spans="1:21">
       <c r="A362" s="12">
-        <v>41361</v>
+        <v>41323</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
       <c r="F362" s="7"/>
-      <c r="G362" s="7"/>
+      <c r="G362" s="7">
+        <v>119.6</v>
+      </c>
       <c r="H362" s="7"/>
       <c r="I362" s="7"/>
-      <c r="J362" s="7">
-        <v>40</v>
-      </c>
+      <c r="J362" s="7"/>
       <c r="K362" s="7"/>
       <c r="L362" s="7"/>
       <c r="M362" s="7"/>
@@ -51290,23 +51639,23 @@
       <c r="S362" s="7"/>
       <c r="T362" s="7"/>
       <c r="U362" s="7">
-        <v>40</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="363" spans="1:21">
       <c r="A363" s="12">
-        <v>41373</v>
+        <v>41331</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
-      <c r="G363" s="7"/>
+      <c r="G363" s="7">
+        <v>100</v>
+      </c>
       <c r="H363" s="7"/>
-      <c r="I363" s="7">
-        <v>91</v>
-      </c>
+      <c r="I363" s="7"/>
       <c r="J363" s="7"/>
       <c r="K363" s="7"/>
       <c r="L363" s="7"/>
@@ -51319,12 +51668,12 @@
       <c r="S363" s="7"/>
       <c r="T363" s="7"/>
       <c r="U363" s="7">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="364" spans="1:21">
       <c r="A364" s="12">
-        <v>41374</v>
+        <v>41361</v>
       </c>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -51334,59 +51683,55 @@
       <c r="G364" s="7"/>
       <c r="H364" s="7"/>
       <c r="I364" s="7"/>
-      <c r="J364" s="7"/>
+      <c r="J364" s="7">
+        <v>40</v>
+      </c>
       <c r="K364" s="7"/>
       <c r="L364" s="7"/>
       <c r="M364" s="7"/>
       <c r="N364" s="7"/>
-      <c r="O364" s="7">
-        <v>75</v>
-      </c>
+      <c r="O364" s="7"/>
       <c r="P364" s="7"/>
       <c r="Q364" s="7"/>
       <c r="R364" s="7"/>
       <c r="S364" s="7"/>
       <c r="T364" s="7"/>
       <c r="U364" s="7">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="365" spans="1:21">
       <c r="A365" s="12">
-        <v>41376</v>
+        <v>41373</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
-      <c r="G365" s="7">
-        <v>97</v>
-      </c>
+      <c r="G365" s="7"/>
       <c r="H365" s="7"/>
-      <c r="I365" s="7"/>
+      <c r="I365" s="7">
+        <v>91</v>
+      </c>
       <c r="J365" s="7"/>
       <c r="K365" s="7"/>
       <c r="L365" s="7"/>
       <c r="M365" s="7"/>
       <c r="N365" s="7"/>
       <c r="O365" s="7"/>
-      <c r="P365" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q365" s="7">
-        <v>100</v>
-      </c>
+      <c r="P365" s="7"/>
+      <c r="Q365" s="7"/>
       <c r="R365" s="7"/>
       <c r="S365" s="7"/>
       <c r="T365" s="7"/>
       <c r="U365" s="7">
-        <v>247</v>
+        <v>91</v>
       </c>
     </row>
     <row r="366" spans="1:21">
       <c r="A366" s="12">
-        <v>41382</v>
+        <v>41374</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -51400,29 +51745,31 @@
       <c r="K366" s="7"/>
       <c r="L366" s="7"/>
       <c r="M366" s="7"/>
-      <c r="N366" s="7">
-        <v>100</v>
-      </c>
-      <c r="O366" s="7"/>
+      <c r="N366" s="7"/>
+      <c r="O366" s="7">
+        <v>75</v>
+      </c>
       <c r="P366" s="7"/>
       <c r="Q366" s="7"/>
       <c r="R366" s="7"/>
       <c r="S366" s="7"/>
       <c r="T366" s="7"/>
       <c r="U366" s="7">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="367" spans="1:21">
       <c r="A367" s="12">
-        <v>41383</v>
+        <v>41376</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
-      <c r="G367" s="7"/>
+      <c r="G367" s="7">
+        <v>97</v>
+      </c>
       <c r="H367" s="7"/>
       <c r="I367" s="7"/>
       <c r="J367" s="7"/>
@@ -51432,19 +51779,21 @@
       <c r="N367" s="7"/>
       <c r="O367" s="7"/>
       <c r="P367" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q367" s="7">
         <v>100</v>
       </c>
-      <c r="Q367" s="7"/>
       <c r="R367" s="7"/>
       <c r="S367" s="7"/>
       <c r="T367" s="7"/>
       <c r="U367" s="7">
-        <v>100</v>
+        <v>247</v>
       </c>
     </row>
     <row r="368" spans="1:21">
       <c r="A368" s="12">
-        <v>41386</v>
+        <v>41382</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -51458,22 +51807,22 @@
       <c r="K368" s="7"/>
       <c r="L368" s="7"/>
       <c r="M368" s="7"/>
-      <c r="N368" s="7"/>
-      <c r="O368" s="7">
-        <v>40</v>
-      </c>
+      <c r="N368" s="7">
+        <v>100</v>
+      </c>
+      <c r="O368" s="7"/>
       <c r="P368" s="7"/>
       <c r="Q368" s="7"/>
       <c r="R368" s="7"/>
       <c r="S368" s="7"/>
       <c r="T368" s="7"/>
       <c r="U368" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="369" spans="1:21">
       <c r="A369" s="12">
-        <v>41387</v>
+        <v>41383</v>
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -51488,41 +51837,37 @@
       <c r="L369" s="7"/>
       <c r="M369" s="7"/>
       <c r="N369" s="7"/>
-      <c r="O369" s="7">
-        <v>30</v>
-      </c>
-      <c r="P369" s="7"/>
+      <c r="O369" s="7"/>
+      <c r="P369" s="7">
+        <v>100</v>
+      </c>
       <c r="Q369" s="7"/>
       <c r="R369" s="7"/>
       <c r="S369" s="7"/>
       <c r="T369" s="7"/>
       <c r="U369" s="7">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="370" spans="1:21">
       <c r="A370" s="12">
-        <v>41388</v>
+        <v>41386</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
       <c r="F370" s="7"/>
-      <c r="G370" s="7">
-        <v>20</v>
-      </c>
+      <c r="G370" s="7"/>
       <c r="H370" s="7"/>
       <c r="I370" s="7"/>
       <c r="J370" s="7"/>
       <c r="K370" s="7"/>
       <c r="L370" s="7"/>
       <c r="M370" s="7"/>
-      <c r="N370" s="7">
+      <c r="N370" s="7"/>
+      <c r="O370" s="7">
         <v>40</v>
-      </c>
-      <c r="O370" s="7">
-        <v>11</v>
       </c>
       <c r="P370" s="7"/>
       <c r="Q370" s="7"/>
@@ -51530,12 +51875,12 @@
       <c r="S370" s="7"/>
       <c r="T370" s="7"/>
       <c r="U370" s="7">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="371" spans="1:21">
       <c r="A371" s="12">
-        <v>41390</v>
+        <v>41387</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -51544,60 +51889,60 @@
       <c r="F371" s="7"/>
       <c r="G371" s="7"/>
       <c r="H371" s="7"/>
-      <c r="I371" s="7">
-        <v>120</v>
-      </c>
+      <c r="I371" s="7"/>
       <c r="J371" s="7"/>
       <c r="K371" s="7"/>
       <c r="L371" s="7"/>
       <c r="M371" s="7"/>
       <c r="N371" s="7"/>
-      <c r="O371" s="7"/>
+      <c r="O371" s="7">
+        <v>30</v>
+      </c>
       <c r="P371" s="7"/>
       <c r="Q371" s="7"/>
       <c r="R371" s="7"/>
       <c r="S371" s="7"/>
       <c r="T371" s="7"/>
       <c r="U371" s="7">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="372" spans="1:21">
       <c r="A372" s="12">
-        <v>41397</v>
+        <v>41388</v>
       </c>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
-      <c r="G372" s="7"/>
-      <c r="H372" s="7">
-        <v>50</v>
-      </c>
+      <c r="G372" s="7">
+        <v>20</v>
+      </c>
+      <c r="H372" s="7"/>
       <c r="I372" s="7"/>
       <c r="J372" s="7"/>
       <c r="K372" s="7"/>
       <c r="L372" s="7"/>
       <c r="M372" s="7"/>
-      <c r="N372" s="7"/>
+      <c r="N372" s="7">
+        <v>40</v>
+      </c>
       <c r="O372" s="7">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="P372" s="7"/>
       <c r="Q372" s="7"/>
       <c r="R372" s="7"/>
-      <c r="S372" s="7">
-        <v>100</v>
-      </c>
+      <c r="S372" s="7"/>
       <c r="T372" s="7"/>
       <c r="U372" s="7">
-        <v>250</v>
+        <v>71</v>
       </c>
     </row>
     <row r="373" spans="1:21">
       <c r="A373" s="12">
-        <v>41401</v>
+        <v>41390</v>
       </c>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
@@ -51606,7 +51951,9 @@
       <c r="F373" s="7"/>
       <c r="G373" s="7"/>
       <c r="H373" s="7"/>
-      <c r="I373" s="7"/>
+      <c r="I373" s="7">
+        <v>120</v>
+      </c>
       <c r="J373" s="7"/>
       <c r="K373" s="7"/>
       <c r="L373" s="7"/>
@@ -51614,19 +51961,17 @@
       <c r="N373" s="7"/>
       <c r="O373" s="7"/>
       <c r="P373" s="7"/>
-      <c r="Q373" s="7">
-        <v>100</v>
-      </c>
+      <c r="Q373" s="7"/>
       <c r="R373" s="7"/>
       <c r="S373" s="7"/>
       <c r="T373" s="7"/>
       <c r="U373" s="7">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="374" spans="1:21">
       <c r="A374" s="12">
-        <v>41402</v>
+        <v>41397</v>
       </c>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -51634,30 +51979,32 @@
       <c r="E374" s="7"/>
       <c r="F374" s="7"/>
       <c r="G374" s="7"/>
-      <c r="H374" s="7"/>
+      <c r="H374" s="7">
+        <v>50</v>
+      </c>
       <c r="I374" s="7"/>
       <c r="J374" s="7"/>
       <c r="K374" s="7"/>
-      <c r="L374" s="7">
-        <v>100</v>
-      </c>
+      <c r="L374" s="7"/>
       <c r="M374" s="7"/>
       <c r="N374" s="7"/>
-      <c r="O374" s="7"/>
-      <c r="P374" s="7">
-        <v>50</v>
-      </c>
+      <c r="O374" s="7">
+        <v>100</v>
+      </c>
+      <c r="P374" s="7"/>
       <c r="Q374" s="7"/>
       <c r="R374" s="7"/>
-      <c r="S374" s="7"/>
+      <c r="S374" s="7">
+        <v>100</v>
+      </c>
       <c r="T374" s="7"/>
       <c r="U374" s="7">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="375" spans="1:21">
       <c r="A375" s="12">
-        <v>41403</v>
+        <v>41401</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -51665,65 +52012,59 @@
       <c r="E375" s="7"/>
       <c r="F375" s="7"/>
       <c r="G375" s="7"/>
-      <c r="H375" s="7">
-        <v>100</v>
-      </c>
+      <c r="H375" s="7"/>
       <c r="I375" s="7"/>
       <c r="J375" s="7"/>
       <c r="K375" s="7"/>
       <c r="L375" s="7"/>
-      <c r="M375" s="7">
-        <v>100</v>
-      </c>
+      <c r="M375" s="7"/>
       <c r="N375" s="7"/>
       <c r="O375" s="7"/>
       <c r="P375" s="7"/>
-      <c r="Q375" s="7"/>
+      <c r="Q375" s="7">
+        <v>100</v>
+      </c>
       <c r="R375" s="7"/>
       <c r="S375" s="7"/>
-      <c r="T375" s="7">
-        <v>50</v>
-      </c>
+      <c r="T375" s="7"/>
       <c r="U375" s="7">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="376" spans="1:21">
       <c r="A376" s="12">
-        <v>41407</v>
+        <v>41402</v>
       </c>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
       <c r="F376" s="7"/>
-      <c r="G376" s="7">
-        <v>100</v>
-      </c>
+      <c r="G376" s="7"/>
       <c r="H376" s="7"/>
       <c r="I376" s="7"/>
-      <c r="J376" s="7">
+      <c r="J376" s="7"/>
+      <c r="K376" s="7"/>
+      <c r="L376" s="7">
         <v>100</v>
       </c>
-      <c r="K376" s="7"/>
-      <c r="L376" s="7"/>
       <c r="M376" s="7"/>
       <c r="N376" s="7"/>
-      <c r="O376" s="7">
-        <v>100</v>
-      </c>
-      <c r="P376" s="7"/>
+      <c r="O376" s="7"/>
+      <c r="P376" s="7">
+        <v>50</v>
+      </c>
       <c r="Q376" s="7"/>
       <c r="R376" s="7"/>
       <c r="S376" s="7"/>
       <c r="T376" s="7"/>
       <c r="U376" s="7">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="377" spans="1:21">
       <c r="A377" s="12">
-        <v>41410</v>
+        <v>41403</v>
       </c>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -51731,59 +52072,65 @@
       <c r="E377" s="7"/>
       <c r="F377" s="7"/>
       <c r="G377" s="7"/>
-      <c r="H377" s="7"/>
-      <c r="I377" s="7">
-        <v>200</v>
-      </c>
+      <c r="H377" s="7">
+        <v>100</v>
+      </c>
+      <c r="I377" s="7"/>
       <c r="J377" s="7"/>
       <c r="K377" s="7"/>
       <c r="L377" s="7"/>
-      <c r="M377" s="7"/>
+      <c r="M377" s="7">
+        <v>100</v>
+      </c>
       <c r="N377" s="7"/>
       <c r="O377" s="7"/>
       <c r="P377" s="7"/>
       <c r="Q377" s="7"/>
       <c r="R377" s="7"/>
       <c r="S377" s="7"/>
-      <c r="T377" s="7"/>
+      <c r="T377" s="7">
+        <v>50</v>
+      </c>
       <c r="U377" s="7">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="378" spans="1:21">
       <c r="A378" s="12">
-        <v>41411</v>
+        <v>41407</v>
       </c>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
       <c r="F378" s="7"/>
-      <c r="G378" s="7"/>
+      <c r="G378" s="7">
+        <v>100</v>
+      </c>
       <c r="H378" s="7"/>
       <c r="I378" s="7"/>
-      <c r="J378" s="7"/>
+      <c r="J378" s="7">
+        <v>100</v>
+      </c>
       <c r="K378" s="7"/>
       <c r="L378" s="7"/>
       <c r="M378" s="7"/>
-      <c r="N378" s="7">
-        <v>300</v>
-      </c>
-      <c r="O378" s="7"/>
-      <c r="P378" s="7">
+      <c r="N378" s="7"/>
+      <c r="O378" s="7">
         <v>100</v>
       </c>
+      <c r="P378" s="7"/>
       <c r="Q378" s="7"/>
       <c r="R378" s="7"/>
       <c r="S378" s="7"/>
       <c r="T378" s="7"/>
       <c r="U378" s="7">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="379" spans="1:21">
       <c r="A379" s="12">
-        <v>41414</v>
+        <v>41410</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -51792,10 +52139,10 @@
       <c r="F379" s="7"/>
       <c r="G379" s="7"/>
       <c r="H379" s="7"/>
-      <c r="I379" s="7"/>
-      <c r="J379" s="7">
-        <v>100</v>
-      </c>
+      <c r="I379" s="7">
+        <v>200</v>
+      </c>
+      <c r="J379" s="7"/>
       <c r="K379" s="7"/>
       <c r="L379" s="7"/>
       <c r="M379" s="7"/>
@@ -51807,12 +52154,12 @@
       <c r="S379" s="7"/>
       <c r="T379" s="7"/>
       <c r="U379" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="380" spans="1:21">
       <c r="A380" s="12">
-        <v>41416</v>
+        <v>41411</v>
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -51826,22 +52173,24 @@
       <c r="K380" s="7"/>
       <c r="L380" s="7"/>
       <c r="M380" s="7"/>
-      <c r="N380" s="7"/>
-      <c r="O380" s="7">
-        <v>200</v>
-      </c>
-      <c r="P380" s="7"/>
+      <c r="N380" s="7">
+        <v>300</v>
+      </c>
+      <c r="O380" s="7"/>
+      <c r="P380" s="7">
+        <v>100</v>
+      </c>
       <c r="Q380" s="7"/>
       <c r="R380" s="7"/>
       <c r="S380" s="7"/>
       <c r="T380" s="7"/>
       <c r="U380" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="381" spans="1:21">
       <c r="A381" s="12">
-        <v>41424</v>
+        <v>41414</v>
       </c>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -51850,10 +52199,10 @@
       <c r="F381" s="7"/>
       <c r="G381" s="7"/>
       <c r="H381" s="7"/>
-      <c r="I381" s="7">
+      <c r="I381" s="7"/>
+      <c r="J381" s="7">
         <v>100</v>
       </c>
-      <c r="J381" s="7"/>
       <c r="K381" s="7"/>
       <c r="L381" s="7"/>
       <c r="M381" s="7"/>
@@ -51870,7 +52219,7 @@
     </row>
     <row r="382" spans="1:21">
       <c r="A382" s="12">
-        <v>41429</v>
+        <v>41416</v>
       </c>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -51885,32 +52234,32 @@
       <c r="L382" s="7"/>
       <c r="M382" s="7"/>
       <c r="N382" s="7"/>
-      <c r="O382" s="7"/>
-      <c r="P382" s="7">
-        <v>100</v>
-      </c>
+      <c r="O382" s="7">
+        <v>200</v>
+      </c>
+      <c r="P382" s="7"/>
       <c r="Q382" s="7"/>
       <c r="R382" s="7"/>
       <c r="S382" s="7"/>
       <c r="T382" s="7"/>
       <c r="U382" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="383" spans="1:21">
       <c r="A383" s="12">
-        <v>41430</v>
+        <v>41424</v>
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
-      <c r="D383" s="7">
-        <v>100</v>
-      </c>
+      <c r="D383" s="7"/>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
       <c r="G383" s="7"/>
       <c r="H383" s="7"/>
-      <c r="I383" s="7"/>
+      <c r="I383" s="7">
+        <v>100</v>
+      </c>
       <c r="J383" s="7"/>
       <c r="K383" s="7"/>
       <c r="L383" s="7"/>
@@ -51928,7 +52277,7 @@
     </row>
     <row r="384" spans="1:21">
       <c r="A384" s="12">
-        <v>41431</v>
+        <v>41429</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -51938,37 +52287,35 @@
       <c r="G384" s="7"/>
       <c r="H384" s="7"/>
       <c r="I384" s="7"/>
-      <c r="J384" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="J384" s="7"/>
       <c r="K384" s="7"/>
       <c r="L384" s="7"/>
       <c r="M384" s="7"/>
       <c r="N384" s="7"/>
       <c r="O384" s="7"/>
-      <c r="P384" s="7"/>
+      <c r="P384" s="7">
+        <v>100</v>
+      </c>
       <c r="Q384" s="7"/>
-      <c r="R384" s="7">
-        <v>200</v>
-      </c>
+      <c r="R384" s="7"/>
       <c r="S384" s="7"/>
       <c r="T384" s="7"/>
       <c r="U384" s="7">
-        <v>280.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="385" spans="1:21">
       <c r="A385" s="12">
-        <v>41438</v>
+        <v>41430</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
-      <c r="D385" s="7"/>
+      <c r="D385" s="7">
+        <v>100</v>
+      </c>
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
-      <c r="G385" s="7">
-        <v>20</v>
-      </c>
+      <c r="G385" s="7"/>
       <c r="H385" s="7"/>
       <c r="I385" s="7"/>
       <c r="J385" s="7"/>
@@ -51983,12 +52330,12 @@
       <c r="S385" s="7"/>
       <c r="T385" s="7"/>
       <c r="U385" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="386" spans="1:21">
       <c r="A386" s="12">
-        <v>41439</v>
+        <v>41431</v>
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -51998,7 +52345,9 @@
       <c r="G386" s="7"/>
       <c r="H386" s="7"/>
       <c r="I386" s="7"/>
-      <c r="J386" s="7"/>
+      <c r="J386" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K386" s="7"/>
       <c r="L386" s="7"/>
       <c r="M386" s="7"/>
@@ -52006,27 +52355,27 @@
       <c r="O386" s="7"/>
       <c r="P386" s="7"/>
       <c r="Q386" s="7"/>
-      <c r="R386" s="7"/>
+      <c r="R386" s="7">
+        <v>200</v>
+      </c>
       <c r="S386" s="7"/>
-      <c r="T386" s="7">
-        <v>100</v>
-      </c>
+      <c r="T386" s="7"/>
       <c r="U386" s="7">
-        <v>100</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="387" spans="1:21">
       <c r="A387" s="12">
-        <v>41443</v>
+        <v>41438</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
-      <c r="D387" s="7">
-        <v>100</v>
-      </c>
+      <c r="D387" s="7"/>
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
-      <c r="G387" s="7"/>
+      <c r="G387" s="7">
+        <v>20</v>
+      </c>
       <c r="H387" s="7"/>
       <c r="I387" s="7"/>
       <c r="J387" s="7"/>
@@ -52041,12 +52390,12 @@
       <c r="S387" s="7"/>
       <c r="T387" s="7"/>
       <c r="U387" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="388" spans="1:21">
       <c r="A388" s="12">
-        <v>41444</v>
+        <v>41439</v>
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -52060,26 +52409,28 @@
       <c r="K388" s="7"/>
       <c r="L388" s="7"/>
       <c r="M388" s="7"/>
-      <c r="N388" s="7">
-        <v>200</v>
-      </c>
+      <c r="N388" s="7"/>
       <c r="O388" s="7"/>
       <c r="P388" s="7"/>
       <c r="Q388" s="7"/>
       <c r="R388" s="7"/>
       <c r="S388" s="7"/>
-      <c r="T388" s="7"/>
+      <c r="T388" s="7">
+        <v>100</v>
+      </c>
       <c r="U388" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="389" spans="1:21">
       <c r="A389" s="12">
-        <v>41450</v>
+        <v>41443</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
-      <c r="D389" s="7"/>
+      <c r="D389" s="7">
+        <v>100</v>
+      </c>
       <c r="E389" s="7"/>
       <c r="F389" s="7"/>
       <c r="G389" s="7"/>
@@ -52090,23 +52441,19 @@
       <c r="L389" s="7"/>
       <c r="M389" s="7"/>
       <c r="N389" s="7"/>
-      <c r="O389" s="7">
-        <v>140</v>
-      </c>
-      <c r="P389" s="7">
-        <v>100</v>
-      </c>
+      <c r="O389" s="7"/>
+      <c r="P389" s="7"/>
       <c r="Q389" s="7"/>
       <c r="R389" s="7"/>
       <c r="S389" s="7"/>
       <c r="T389" s="7"/>
       <c r="U389" s="7">
-        <v>240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="390" spans="1:21">
       <c r="A390" s="12">
-        <v>41451</v>
+        <v>41444</v>
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -52116,30 +52463,26 @@
       <c r="G390" s="7"/>
       <c r="H390" s="7"/>
       <c r="I390" s="7"/>
-      <c r="J390" s="7">
-        <v>100</v>
-      </c>
+      <c r="J390" s="7"/>
       <c r="K390" s="7"/>
-      <c r="L390" s="7">
-        <v>100</v>
-      </c>
+      <c r="L390" s="7"/>
       <c r="M390" s="7"/>
-      <c r="N390" s="7"/>
-      <c r="O390" s="7">
+      <c r="N390" s="7">
         <v>200</v>
       </c>
+      <c r="O390" s="7"/>
       <c r="P390" s="7"/>
       <c r="Q390" s="7"/>
       <c r="R390" s="7"/>
       <c r="S390" s="7"/>
       <c r="T390" s="7"/>
       <c r="U390" s="7">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="391" spans="1:21">
       <c r="A391" s="12">
-        <v>41453</v>
+        <v>41450</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -52148,27 +52491,29 @@
       <c r="F391" s="7"/>
       <c r="G391" s="7"/>
       <c r="H391" s="7"/>
-      <c r="I391" s="7">
-        <v>200</v>
-      </c>
+      <c r="I391" s="7"/>
       <c r="J391" s="7"/>
       <c r="K391" s="7"/>
       <c r="L391" s="7"/>
       <c r="M391" s="7"/>
       <c r="N391" s="7"/>
-      <c r="O391" s="7"/>
-      <c r="P391" s="7"/>
+      <c r="O391" s="7">
+        <v>140</v>
+      </c>
+      <c r="P391" s="7">
+        <v>100</v>
+      </c>
       <c r="Q391" s="7"/>
       <c r="R391" s="7"/>
       <c r="S391" s="7"/>
       <c r="T391" s="7"/>
       <c r="U391" s="7">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="392" spans="1:21">
       <c r="A392" s="12">
-        <v>41463</v>
+        <v>41451</v>
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -52178,26 +52523,30 @@
       <c r="G392" s="7"/>
       <c r="H392" s="7"/>
       <c r="I392" s="7"/>
-      <c r="J392" s="7"/>
+      <c r="J392" s="7">
+        <v>100</v>
+      </c>
       <c r="K392" s="7"/>
-      <c r="L392" s="7"/>
-      <c r="M392" s="7">
-        <v>20</v>
-      </c>
+      <c r="L392" s="7">
+        <v>100</v>
+      </c>
+      <c r="M392" s="7"/>
       <c r="N392" s="7"/>
-      <c r="O392" s="7"/>
+      <c r="O392" s="7">
+        <v>200</v>
+      </c>
       <c r="P392" s="7"/>
       <c r="Q392" s="7"/>
       <c r="R392" s="7"/>
       <c r="S392" s="7"/>
       <c r="T392" s="7"/>
       <c r="U392" s="7">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="393" spans="1:21">
       <c r="A393" s="12">
-        <v>41464</v>
+        <v>41453</v>
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -52206,7 +52555,9 @@
       <c r="F393" s="7"/>
       <c r="G393" s="7"/>
       <c r="H393" s="7"/>
-      <c r="I393" s="7"/>
+      <c r="I393" s="7">
+        <v>200</v>
+      </c>
       <c r="J393" s="7"/>
       <c r="K393" s="7"/>
       <c r="L393" s="7"/>
@@ -52214,23 +52565,19 @@
       <c r="N393" s="7"/>
       <c r="O393" s="7"/>
       <c r="P393" s="7"/>
-      <c r="Q393" s="7">
-        <v>100</v>
-      </c>
+      <c r="Q393" s="7"/>
       <c r="R393" s="7"/>
       <c r="S393" s="7"/>
       <c r="T393" s="7"/>
       <c r="U393" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="394" spans="1:21">
       <c r="A394" s="12">
-        <v>41465</v>
-      </c>
-      <c r="B394" s="7">
-        <v>50</v>
-      </c>
+        <v>41463</v>
+      </c>
+      <c r="B394" s="7"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -52241,7 +52588,9 @@
       <c r="J394" s="7"/>
       <c r="K394" s="7"/>
       <c r="L394" s="7"/>
-      <c r="M394" s="7"/>
+      <c r="M394" s="7">
+        <v>20</v>
+      </c>
       <c r="N394" s="7"/>
       <c r="O394" s="7"/>
       <c r="P394" s="7"/>
@@ -52250,12 +52599,12 @@
       <c r="S394" s="7"/>
       <c r="T394" s="7"/>
       <c r="U394" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="395" spans="1:21">
       <c r="A395" s="12">
-        <v>41466</v>
+        <v>41464</v>
       </c>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -52265,16 +52614,16 @@
       <c r="G395" s="7"/>
       <c r="H395" s="7"/>
       <c r="I395" s="7"/>
-      <c r="J395" s="7">
-        <v>100</v>
-      </c>
+      <c r="J395" s="7"/>
       <c r="K395" s="7"/>
       <c r="L395" s="7"/>
       <c r="M395" s="7"/>
       <c r="N395" s="7"/>
       <c r="O395" s="7"/>
       <c r="P395" s="7"/>
-      <c r="Q395" s="7"/>
+      <c r="Q395" s="7">
+        <v>100</v>
+      </c>
       <c r="R395" s="7"/>
       <c r="S395" s="7"/>
       <c r="T395" s="7"/>
@@ -52284,9 +52633,11 @@
     </row>
     <row r="396" spans="1:21">
       <c r="A396" s="12">
-        <v>41467</v>
-      </c>
-      <c r="B396" s="7"/>
+        <v>41465</v>
+      </c>
+      <c r="B396" s="7">
+        <v>50</v>
+      </c>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -52304,16 +52655,14 @@
       <c r="Q396" s="7"/>
       <c r="R396" s="7"/>
       <c r="S396" s="7"/>
-      <c r="T396" s="7">
-        <v>100</v>
-      </c>
+      <c r="T396" s="7"/>
       <c r="U396" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="397" spans="1:21">
       <c r="A397" s="12">
-        <v>41472</v>
+        <v>41466</v>
       </c>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -52323,11 +52672,11 @@
       <c r="G397" s="7"/>
       <c r="H397" s="7"/>
       <c r="I397" s="7"/>
-      <c r="J397" s="7"/>
+      <c r="J397" s="7">
+        <v>100</v>
+      </c>
       <c r="K397" s="7"/>
-      <c r="L397" s="7">
-        <v>100</v>
-      </c>
+      <c r="L397" s="7"/>
       <c r="M397" s="7"/>
       <c r="N397" s="7"/>
       <c r="O397" s="7"/>
@@ -52342,19 +52691,15 @@
     </row>
     <row r="398" spans="1:21">
       <c r="A398" s="12">
-        <v>41474</v>
-      </c>
-      <c r="B398" s="7">
-        <v>76.5</v>
-      </c>
+        <v>41467</v>
+      </c>
+      <c r="B398" s="7"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
       <c r="F398" s="7"/>
       <c r="G398" s="7"/>
-      <c r="H398" s="7">
-        <v>50</v>
-      </c>
+      <c r="H398" s="7"/>
       <c r="I398" s="7"/>
       <c r="J398" s="7"/>
       <c r="K398" s="7"/>
@@ -52363,35 +52708,33 @@
       <c r="N398" s="7"/>
       <c r="O398" s="7"/>
       <c r="P398" s="7"/>
-      <c r="Q398" s="7">
-        <v>200</v>
-      </c>
-      <c r="R398" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q398" s="7"/>
+      <c r="R398" s="7"/>
       <c r="S398" s="7"/>
-      <c r="T398" s="7"/>
+      <c r="T398" s="7">
+        <v>100</v>
+      </c>
       <c r="U398" s="7">
-        <v>526.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="399" spans="1:21">
       <c r="A399" s="12">
-        <v>41479</v>
+        <v>41472</v>
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
       <c r="F399" s="7"/>
-      <c r="G399" s="7">
-        <v>100</v>
-      </c>
+      <c r="G399" s="7"/>
       <c r="H399" s="7"/>
       <c r="I399" s="7"/>
       <c r="J399" s="7"/>
       <c r="K399" s="7"/>
-      <c r="L399" s="7"/>
+      <c r="L399" s="7">
+        <v>100</v>
+      </c>
       <c r="M399" s="7"/>
       <c r="N399" s="7"/>
       <c r="O399" s="7"/>
@@ -52406,50 +52749,56 @@
     </row>
     <row r="400" spans="1:21">
       <c r="A400" s="12">
-        <v>41480</v>
-      </c>
-      <c r="B400" s="7"/>
+        <v>41474</v>
+      </c>
+      <c r="B400" s="7">
+        <v>76.5</v>
+      </c>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
       <c r="F400" s="7"/>
       <c r="G400" s="7"/>
-      <c r="H400" s="7"/>
+      <c r="H400" s="7">
+        <v>50</v>
+      </c>
       <c r="I400" s="7"/>
       <c r="J400" s="7"/>
       <c r="K400" s="7"/>
       <c r="L400" s="7"/>
       <c r="M400" s="7"/>
-      <c r="N400" s="7">
-        <v>200</v>
-      </c>
+      <c r="N400" s="7"/>
       <c r="O400" s="7"/>
       <c r="P400" s="7"/>
-      <c r="Q400" s="7"/>
-      <c r="R400" s="7"/>
+      <c r="Q400" s="7">
+        <v>200</v>
+      </c>
+      <c r="R400" s="7">
+        <v>200</v>
+      </c>
       <c r="S400" s="7"/>
       <c r="T400" s="7"/>
       <c r="U400" s="7">
-        <v>200</v>
+        <v>526.5</v>
       </c>
     </row>
     <row r="401" spans="1:21">
       <c r="A401" s="12">
-        <v>41481</v>
+        <v>41479</v>
       </c>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
       <c r="F401" s="7"/>
-      <c r="G401" s="7"/>
+      <c r="G401" s="7">
+        <v>100</v>
+      </c>
       <c r="H401" s="7"/>
       <c r="I401" s="7"/>
       <c r="J401" s="7"/>
       <c r="K401" s="7"/>
-      <c r="L401" s="7">
-        <v>100</v>
-      </c>
+      <c r="L401" s="7"/>
       <c r="M401" s="7"/>
       <c r="N401" s="7"/>
       <c r="O401" s="7"/>
@@ -52464,7 +52813,7 @@
     </row>
     <row r="402" spans="1:21">
       <c r="A402" s="12">
-        <v>41482</v>
+        <v>41480</v>
       </c>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -52474,13 +52823,13 @@
       <c r="G402" s="7"/>
       <c r="H402" s="7"/>
       <c r="I402" s="7"/>
-      <c r="J402" s="7">
-        <v>100</v>
-      </c>
+      <c r="J402" s="7"/>
       <c r="K402" s="7"/>
       <c r="L402" s="7"/>
       <c r="M402" s="7"/>
-      <c r="N402" s="7"/>
+      <c r="N402" s="7">
+        <v>200</v>
+      </c>
       <c r="O402" s="7"/>
       <c r="P402" s="7"/>
       <c r="Q402" s="7"/>
@@ -52488,12 +52837,12 @@
       <c r="S402" s="7"/>
       <c r="T402" s="7"/>
       <c r="U402" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="403" spans="1:21">
       <c r="A403" s="12">
-        <v>41488</v>
+        <v>41481</v>
       </c>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -52506,7 +52855,7 @@
       <c r="J403" s="7"/>
       <c r="K403" s="7"/>
       <c r="L403" s="7">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M403" s="7"/>
       <c r="N403" s="7"/>
@@ -52517,16 +52866,14 @@
       <c r="S403" s="7"/>
       <c r="T403" s="7"/>
       <c r="U403" s="7">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="404" spans="1:21">
       <c r="A404" s="12">
-        <v>41495</v>
-      </c>
-      <c r="B404" s="7">
-        <v>100</v>
-      </c>
+        <v>41482</v>
+      </c>
+      <c r="B404" s="7"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -52541,21 +52888,19 @@
       <c r="L404" s="7"/>
       <c r="M404" s="7"/>
       <c r="N404" s="7"/>
-      <c r="O404" s="7">
-        <v>300</v>
-      </c>
+      <c r="O404" s="7"/>
       <c r="P404" s="7"/>
       <c r="Q404" s="7"/>
       <c r="R404" s="7"/>
       <c r="S404" s="7"/>
       <c r="T404" s="7"/>
       <c r="U404" s="7">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="405" spans="1:21">
       <c r="A405" s="12">
-        <v>41502</v>
+        <v>41488</v>
       </c>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -52564,12 +52909,12 @@
       <c r="F405" s="7"/>
       <c r="G405" s="7"/>
       <c r="H405" s="7"/>
-      <c r="I405" s="7">
-        <v>200</v>
-      </c>
+      <c r="I405" s="7"/>
       <c r="J405" s="7"/>
       <c r="K405" s="7"/>
-      <c r="L405" s="7"/>
+      <c r="L405" s="7">
+        <v>300</v>
+      </c>
       <c r="M405" s="7"/>
       <c r="N405" s="7"/>
       <c r="O405" s="7"/>
@@ -52579,14 +52924,16 @@
       <c r="S405" s="7"/>
       <c r="T405" s="7"/>
       <c r="U405" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="406" spans="1:21">
       <c r="A406" s="12">
-        <v>41514</v>
-      </c>
-      <c r="B406" s="7"/>
+        <v>41495</v>
+      </c>
+      <c r="B406" s="7">
+        <v>100</v>
+      </c>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -52601,19 +52948,21 @@
       <c r="L406" s="7"/>
       <c r="M406" s="7"/>
       <c r="N406" s="7"/>
-      <c r="O406" s="7"/>
+      <c r="O406" s="7">
+        <v>300</v>
+      </c>
       <c r="P406" s="7"/>
       <c r="Q406" s="7"/>
       <c r="R406" s="7"/>
       <c r="S406" s="7"/>
       <c r="T406" s="7"/>
       <c r="U406" s="7">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="407" spans="1:21">
       <c r="A407" s="12">
-        <v>41526</v>
+        <v>41502</v>
       </c>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -52622,7 +52971,9 @@
       <c r="F407" s="7"/>
       <c r="G407" s="7"/>
       <c r="H407" s="7"/>
-      <c r="I407" s="7"/>
+      <c r="I407" s="7">
+        <v>200</v>
+      </c>
       <c r="J407" s="7"/>
       <c r="K407" s="7"/>
       <c r="L407" s="7"/>
@@ -52630,19 +52981,17 @@
       <c r="N407" s="7"/>
       <c r="O407" s="7"/>
       <c r="P407" s="7"/>
-      <c r="Q407" s="7">
-        <v>400</v>
-      </c>
+      <c r="Q407" s="7"/>
       <c r="R407" s="7"/>
       <c r="S407" s="7"/>
       <c r="T407" s="7"/>
       <c r="U407" s="7">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="408" spans="1:21">
       <c r="A408" s="12">
-        <v>41528</v>
+        <v>41514</v>
       </c>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -52652,7 +53001,9 @@
       <c r="G408" s="7"/>
       <c r="H408" s="7"/>
       <c r="I408" s="7"/>
-      <c r="J408" s="7"/>
+      <c r="J408" s="7">
+        <v>100</v>
+      </c>
       <c r="K408" s="7"/>
       <c r="L408" s="7"/>
       <c r="M408" s="7"/>
@@ -52660,22 +53011,18 @@
       <c r="O408" s="7"/>
       <c r="P408" s="7"/>
       <c r="Q408" s="7"/>
-      <c r="R408" s="7">
-        <v>200</v>
-      </c>
+      <c r="R408" s="7"/>
       <c r="S408" s="7"/>
       <c r="T408" s="7"/>
       <c r="U408" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="409" spans="1:21">
       <c r="A409" s="12">
-        <v>41533</v>
-      </c>
-      <c r="B409" s="7">
-        <v>200</v>
-      </c>
+        <v>41526</v>
+      </c>
+      <c r="B409" s="7"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -52689,20 +53036,20 @@
       <c r="M409" s="7"/>
       <c r="N409" s="7"/>
       <c r="O409" s="7"/>
-      <c r="P409" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q409" s="7"/>
+      <c r="P409" s="7"/>
+      <c r="Q409" s="7">
+        <v>400</v>
+      </c>
       <c r="R409" s="7"/>
       <c r="S409" s="7"/>
       <c r="T409" s="7"/>
       <c r="U409" s="7">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="410" spans="1:21">
       <c r="A410" s="12">
-        <v>41537</v>
+        <v>41528</v>
       </c>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -52712,9 +53059,7 @@
       <c r="G410" s="7"/>
       <c r="H410" s="7"/>
       <c r="I410" s="7"/>
-      <c r="J410" s="7">
-        <v>77</v>
-      </c>
+      <c r="J410" s="7"/>
       <c r="K410" s="7"/>
       <c r="L410" s="7"/>
       <c r="M410" s="7"/>
@@ -52722,18 +53067,22 @@
       <c r="O410" s="7"/>
       <c r="P410" s="7"/>
       <c r="Q410" s="7"/>
-      <c r="R410" s="7"/>
+      <c r="R410" s="7">
+        <v>200</v>
+      </c>
       <c r="S410" s="7"/>
       <c r="T410" s="7"/>
       <c r="U410" s="7">
-        <v>77</v>
+        <v>200</v>
       </c>
     </row>
     <row r="411" spans="1:21">
       <c r="A411" s="12">
-        <v>41547</v>
-      </c>
-      <c r="B411" s="7"/>
+        <v>41533</v>
+      </c>
+      <c r="B411" s="7">
+        <v>200</v>
+      </c>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -52745,22 +53094,22 @@
       <c r="K411" s="7"/>
       <c r="L411" s="7"/>
       <c r="M411" s="7"/>
-      <c r="N411" s="7">
-        <v>80</v>
-      </c>
+      <c r="N411" s="7"/>
       <c r="O411" s="7"/>
-      <c r="P411" s="7"/>
+      <c r="P411" s="7">
+        <v>100</v>
+      </c>
       <c r="Q411" s="7"/>
       <c r="R411" s="7"/>
       <c r="S411" s="7"/>
       <c r="T411" s="7"/>
       <c r="U411" s="7">
-        <v>80</v>
+        <v>300</v>
       </c>
     </row>
     <row r="412" spans="1:21">
       <c r="A412" s="12">
-        <v>41559</v>
+        <v>41537</v>
       </c>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -52771,7 +53120,7 @@
       <c r="H412" s="7"/>
       <c r="I412" s="7"/>
       <c r="J412" s="7">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="K412" s="7"/>
       <c r="L412" s="7"/>
@@ -52784,12 +53133,12 @@
       <c r="S412" s="7"/>
       <c r="T412" s="7"/>
       <c r="U412" s="7">
-        <v>161</v>
+        <v>77</v>
       </c>
     </row>
     <row r="413" spans="1:21">
       <c r="A413" s="12">
-        <v>41565</v>
+        <v>41547</v>
       </c>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -52798,35 +53147,27 @@
       <c r="F413" s="7"/>
       <c r="G413" s="7"/>
       <c r="H413" s="7"/>
-      <c r="I413" s="7">
-        <v>150</v>
-      </c>
+      <c r="I413" s="7"/>
       <c r="J413" s="7"/>
       <c r="K413" s="7"/>
-      <c r="L413" s="7">
-        <v>200</v>
-      </c>
+      <c r="L413" s="7"/>
       <c r="M413" s="7"/>
-      <c r="N413" s="7"/>
+      <c r="N413" s="7">
+        <v>80</v>
+      </c>
       <c r="O413" s="7"/>
-      <c r="P413" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q413" s="7">
-        <v>100</v>
-      </c>
-      <c r="R413" s="7">
-        <v>200</v>
-      </c>
+      <c r="P413" s="7"/>
+      <c r="Q413" s="7"/>
+      <c r="R413" s="7"/>
       <c r="S413" s="7"/>
       <c r="T413" s="7"/>
       <c r="U413" s="7">
-        <v>750</v>
+        <v>80</v>
       </c>
     </row>
     <row r="414" spans="1:21">
       <c r="A414" s="12">
-        <v>41575</v>
+        <v>41559</v>
       </c>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -52837,7 +53178,7 @@
       <c r="H414" s="7"/>
       <c r="I414" s="7"/>
       <c r="J414" s="7">
-        <v>80.5</v>
+        <v>161</v>
       </c>
       <c r="K414" s="7"/>
       <c r="L414" s="7"/>
@@ -52850,12 +53191,12 @@
       <c r="S414" s="7"/>
       <c r="T414" s="7"/>
       <c r="U414" s="7">
-        <v>80.5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="415" spans="1:21">
       <c r="A415" s="12">
-        <v>41579</v>
+        <v>41565</v>
       </c>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -52864,31 +53205,37 @@
       <c r="F415" s="7"/>
       <c r="G415" s="7"/>
       <c r="H415" s="7"/>
-      <c r="I415" s="7"/>
-      <c r="J415" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="I415" s="7">
+        <v>150</v>
+      </c>
+      <c r="J415" s="7"/>
       <c r="K415" s="7"/>
-      <c r="L415" s="7"/>
+      <c r="L415" s="7">
+        <v>200</v>
+      </c>
       <c r="M415" s="7"/>
       <c r="N415" s="7"/>
       <c r="O415" s="7"/>
-      <c r="P415" s="7"/>
-      <c r="Q415" s="7"/>
-      <c r="R415" s="7"/>
+      <c r="P415" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q415" s="7">
+        <v>100</v>
+      </c>
+      <c r="R415" s="7">
+        <v>200</v>
+      </c>
       <c r="S415" s="7"/>
       <c r="T415" s="7"/>
       <c r="U415" s="7">
-        <v>80.5</v>
+        <v>750</v>
       </c>
     </row>
     <row r="416" spans="1:21">
       <c r="A416" s="12">
-        <v>41590</v>
-      </c>
-      <c r="B416" s="7">
-        <v>100</v>
-      </c>
+        <v>41575</v>
+      </c>
+      <c r="B416" s="7"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -52896,7 +53243,9 @@
       <c r="G416" s="7"/>
       <c r="H416" s="7"/>
       <c r="I416" s="7"/>
-      <c r="J416" s="7"/>
+      <c r="J416" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K416" s="7"/>
       <c r="L416" s="7"/>
       <c r="M416" s="7"/>
@@ -52904,22 +53253,18 @@
       <c r="O416" s="7"/>
       <c r="P416" s="7"/>
       <c r="Q416" s="7"/>
-      <c r="R416" s="7">
-        <v>150</v>
-      </c>
+      <c r="R416" s="7"/>
       <c r="S416" s="7"/>
       <c r="T416" s="7"/>
       <c r="U416" s="7">
-        <v>250</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="417" spans="1:21">
       <c r="A417" s="12">
-        <v>41597</v>
-      </c>
-      <c r="B417" s="7">
-        <v>100</v>
-      </c>
+        <v>41579</v>
+      </c>
+      <c r="B417" s="7"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -52927,7 +53272,9 @@
       <c r="G417" s="7"/>
       <c r="H417" s="7"/>
       <c r="I417" s="7"/>
-      <c r="J417" s="7"/>
+      <c r="J417" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K417" s="7"/>
       <c r="L417" s="7"/>
       <c r="M417" s="7"/>
@@ -52939,15 +53286,15 @@
       <c r="S417" s="7"/>
       <c r="T417" s="7"/>
       <c r="U417" s="7">
-        <v>100</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="418" spans="1:21">
       <c r="A418" s="12">
-        <v>41599</v>
+        <v>41590</v>
       </c>
       <c r="B418" s="7">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
@@ -52964,18 +53311,22 @@
       <c r="O418" s="7"/>
       <c r="P418" s="7"/>
       <c r="Q418" s="7"/>
-      <c r="R418" s="7"/>
+      <c r="R418" s="7">
+        <v>150</v>
+      </c>
       <c r="S418" s="7"/>
       <c r="T418" s="7"/>
       <c r="U418" s="7">
-        <v>7</v>
+        <v>250</v>
       </c>
     </row>
     <row r="419" spans="1:21">
       <c r="A419" s="12">
-        <v>41600</v>
-      </c>
-      <c r="B419" s="7"/>
+        <v>41597</v>
+      </c>
+      <c r="B419" s="7">
+        <v>100</v>
+      </c>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -52983,35 +53334,27 @@
       <c r="G419" s="7"/>
       <c r="H419" s="7"/>
       <c r="I419" s="7"/>
-      <c r="J419" s="7">
-        <v>200</v>
-      </c>
+      <c r="J419" s="7"/>
       <c r="K419" s="7"/>
-      <c r="L419" s="7">
-        <v>200</v>
-      </c>
+      <c r="L419" s="7"/>
       <c r="M419" s="7"/>
-      <c r="N419" s="7">
-        <v>100</v>
-      </c>
+      <c r="N419" s="7"/>
       <c r="O419" s="7"/>
-      <c r="P419" s="7">
-        <v>150</v>
-      </c>
+      <c r="P419" s="7"/>
       <c r="Q419" s="7"/>
       <c r="R419" s="7"/>
       <c r="S419" s="7"/>
       <c r="T419" s="7"/>
       <c r="U419" s="7">
-        <v>650</v>
+        <v>100</v>
       </c>
     </row>
     <row r="420" spans="1:21">
       <c r="A420" s="12">
-        <v>41603</v>
+        <v>41599</v>
       </c>
       <c r="B420" s="7">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
@@ -53032,12 +53375,12 @@
       <c r="S420" s="7"/>
       <c r="T420" s="7"/>
       <c r="U420" s="7">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="421" spans="1:21">
       <c r="A421" s="12">
-        <v>41605</v>
+        <v>41600</v>
       </c>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -53047,86 +53390,150 @@
       <c r="G421" s="7"/>
       <c r="H421" s="7"/>
       <c r="I421" s="7"/>
-      <c r="J421" s="7"/>
+      <c r="J421" s="7">
+        <v>200</v>
+      </c>
       <c r="K421" s="7"/>
-      <c r="L421" s="7"/>
+      <c r="L421" s="7">
+        <v>200</v>
+      </c>
       <c r="M421" s="7"/>
-      <c r="N421" s="7"/>
+      <c r="N421" s="7">
+        <v>100</v>
+      </c>
       <c r="O421" s="7"/>
-      <c r="P421" s="7"/>
-      <c r="Q421" s="7">
-        <v>200</v>
-      </c>
+      <c r="P421" s="7">
+        <v>150</v>
+      </c>
+      <c r="Q421" s="7"/>
       <c r="R421" s="7"/>
       <c r="S421" s="7"/>
       <c r="T421" s="7"/>
       <c r="U421" s="7">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="422" spans="1:21">
+      <c r="A422" s="12">
+        <v>41603</v>
+      </c>
+      <c r="B422" s="7">
+        <v>100</v>
+      </c>
+      <c r="C422" s="7"/>
+      <c r="D422" s="7"/>
+      <c r="E422" s="7"/>
+      <c r="F422" s="7"/>
+      <c r="G422" s="7"/>
+      <c r="H422" s="7"/>
+      <c r="I422" s="7"/>
+      <c r="J422" s="7"/>
+      <c r="K422" s="7"/>
+      <c r="L422" s="7"/>
+      <c r="M422" s="7"/>
+      <c r="N422" s="7"/>
+      <c r="O422" s="7"/>
+      <c r="P422" s="7"/>
+      <c r="Q422" s="7"/>
+      <c r="R422" s="7"/>
+      <c r="S422" s="7"/>
+      <c r="T422" s="7"/>
+      <c r="U422" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="423" spans="1:21">
+      <c r="A423" s="12">
+        <v>41605</v>
+      </c>
+      <c r="B423" s="7"/>
+      <c r="C423" s="7"/>
+      <c r="D423" s="7"/>
+      <c r="E423" s="7"/>
+      <c r="F423" s="7"/>
+      <c r="G423" s="7"/>
+      <c r="H423" s="7"/>
+      <c r="I423" s="7"/>
+      <c r="J423" s="7"/>
+      <c r="K423" s="7"/>
+      <c r="L423" s="7"/>
+      <c r="M423" s="7"/>
+      <c r="N423" s="7"/>
+      <c r="O423" s="7"/>
+      <c r="P423" s="7"/>
+      <c r="Q423" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="422" spans="1:21">
-      <c r="A422" s="6" t="s">
+      <c r="R423" s="7"/>
+      <c r="S423" s="7"/>
+      <c r="T423" s="7"/>
+      <c r="U423" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="424" spans="1:21">
+      <c r="A424" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B422" s="7">
-        <v>-25.100000000000023</v>
-      </c>
-      <c r="C422" s="7">
+      <c r="B424" s="7">
+        <v>-70.899999999999977</v>
+      </c>
+      <c r="C424" s="7">
         <v>56</v>
       </c>
-      <c r="D422" s="7">
+      <c r="D424" s="7">
         <v>15.899999999999977</v>
       </c>
-      <c r="E422" s="7">
+      <c r="E424" s="7">
         <v>14</v>
       </c>
-      <c r="F422" s="7">
-        <v>11.400000000000006</v>
-      </c>
-      <c r="G422" s="7">
+      <c r="F424" s="7">
+        <v>-8</v>
+      </c>
+      <c r="G424" s="7">
         <v>-13.699999999999591</v>
       </c>
-      <c r="H422" s="7">
+      <c r="H424" s="7">
         <v>-34.099999999999909</v>
       </c>
-      <c r="I422" s="7">
+      <c r="I424" s="7">
         <v>8.9999999999995453</v>
       </c>
-      <c r="J422" s="7">
-        <v>104.199999999998</v>
-      </c>
-      <c r="K422" s="7">
+      <c r="J424" s="7">
+        <v>56.999999999997726</v>
+      </c>
+      <c r="K424" s="7">
         <v>9.3000000000000114</v>
       </c>
-      <c r="L422" s="7">
-        <v>37.500000000000682</v>
-      </c>
-      <c r="M422" s="7">
+      <c r="L424" s="7">
+        <v>-22.099999999999227</v>
+      </c>
+      <c r="M424" s="7">
         <v>43.400000000000006</v>
       </c>
-      <c r="N422" s="7">
-        <v>-50.899999999999181</v>
-      </c>
-      <c r="O422" s="7">
-        <v>-36.699999999998681</v>
-      </c>
-      <c r="P422" s="7">
-        <v>84.899999999999977</v>
-      </c>
-      <c r="Q422" s="7">
-        <v>35.800000000000409</v>
-      </c>
-      <c r="R422" s="7">
-        <v>-14.89999999999975</v>
-      </c>
-      <c r="S422" s="7">
+      <c r="N424" s="7">
+        <v>-110.49999999999909</v>
+      </c>
+      <c r="O424" s="7">
+        <v>-96.29999999999859</v>
+      </c>
+      <c r="P424" s="7">
+        <v>55.899999999999977</v>
+      </c>
+      <c r="Q424" s="7">
+        <v>-43.199999999999591</v>
+      </c>
+      <c r="R424" s="7">
+        <v>-93.899999999999636</v>
+      </c>
+      <c r="S424" s="7">
         <v>0</v>
       </c>
-      <c r="T422" s="7">
-        <v>82.200000000000017</v>
-      </c>
-      <c r="U422" s="7">
-        <v>328.20000000000982</v>
+      <c r="T424" s="7">
+        <v>39.400000000000006</v>
+      </c>
+      <c r="U424" s="7">
+        <v>-192.79999999998654</v>
       </c>
     </row>
   </sheetData>
@@ -53139,8 +53546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -53150,7 +53557,7 @@
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8.5" bestFit="1" customWidth="1"/>
@@ -53159,8 +53566,7 @@
     <col min="13" max="13" width="7.75" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="8.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.75" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="9.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.5" bestFit="1" customWidth="1"/>
@@ -53241,7 +53647,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="7">
-        <v>-775.5999999999998</v>
+        <v>-821.39999999999975</v>
       </c>
       <c r="C3" s="7">
         <v>-31</v>
@@ -53253,7 +53659,7 @@
         <v>-42</v>
       </c>
       <c r="F3" s="7">
-        <v>-188.6</v>
+        <v>-208</v>
       </c>
       <c r="G3" s="7">
         <v>-2036.6999999999998</v>
@@ -53265,37 +53671,37 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3078.2000000000007</v>
+        <v>-3125.4000000000005</v>
       </c>
       <c r="K3" s="7">
         <v>-220.7</v>
       </c>
       <c r="L3" s="7">
-        <v>-1362.4999999999993</v>
+        <v>-1422.0999999999992</v>
       </c>
       <c r="M3" s="7">
         <v>-176.6</v>
       </c>
       <c r="N3" s="7">
-        <v>-1370.8999999999994</v>
+        <v>-1430.4999999999991</v>
       </c>
       <c r="O3" s="7">
-        <v>-1615.6999999999985</v>
+        <v>-1675.2999999999986</v>
       </c>
       <c r="P3" s="7">
-        <v>-858.09999999999991</v>
+        <v>-887.09999999999991</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1164.1999999999996</v>
+        <v>-1243.1999999999996</v>
       </c>
       <c r="R3" s="7">
-        <v>-964.89999999999975</v>
+        <v>-1043.8999999999996</v>
       </c>
       <c r="S3" s="7">
-        <v>-167.79999999999998</v>
+        <v>-210.59999999999997</v>
       </c>
       <c r="T3" s="7">
-        <v>-17420.2</v>
+        <v>-17941.199999999997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -53365,7 +53771,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="8">
-        <v>-25.099999999999795</v>
+        <v>-70.89999999999975</v>
       </c>
       <c r="C5" s="8">
         <v>56</v>
@@ -53377,7 +53783,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="8">
-        <v>11.400000000000006</v>
+        <v>-8</v>
       </c>
       <c r="G5" s="8">
         <v>-13.699999999999818</v>
@@ -53389,37 +53795,37 @@
         <v>8.9999999999995453</v>
       </c>
       <c r="J5" s="8">
-        <v>104.19999999999936</v>
+        <v>56.999999999999545</v>
       </c>
       <c r="K5" s="8">
         <v>9.3000000000000114</v>
       </c>
       <c r="L5" s="8">
-        <v>37.500000000000682</v>
+        <v>-22.099999999999227</v>
       </c>
       <c r="M5" s="8">
         <v>43.400000000000006</v>
       </c>
       <c r="N5" s="8">
-        <v>-50.899999999999409</v>
+        <v>-110.49999999999909</v>
       </c>
       <c r="O5" s="8">
-        <v>-36.699999999998454</v>
+        <v>-96.29999999999859</v>
       </c>
       <c r="P5" s="8">
-        <v>84.900000000000091</v>
+        <v>55.900000000000091</v>
       </c>
       <c r="Q5" s="8">
-        <v>35.800000000000409</v>
+        <v>-43.199999999999591</v>
       </c>
       <c r="R5" s="8">
-        <v>-14.89999999999975</v>
+        <v>-93.899999999999636</v>
       </c>
       <c r="S5" s="8">
-        <v>82.200000000000017</v>
+        <v>39.400000000000034</v>
       </c>
       <c r="T5" s="8">
-        <v>328.20000000000073</v>
+        <v>-192.79999999999563</v>
       </c>
     </row>
   </sheetData>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4221" uniqueCount="568">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2255,6 +2255,9 @@
   <si>
     <t>购动车票找零转存</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张进</t>
   </si>
 </sst>
 </file>
@@ -2491,7 +2494,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="20">
     <dxf>
       <border>
         <left style="thin">
@@ -2562,96 +2565,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
       </font>
     </dxf>
@@ -2718,6 +2631,46 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -2729,13 +2682,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41607.656796064817" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1541">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41611.61727638889" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1550">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="消费记录明细"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-11-30T00:00:00" count="324">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-12-04T00:00:00" count="326">
         <d v="2011-09-09T00:00:00"/>
         <d v="2011-09-30T00:00:00"/>
         <d v="2011-11-28T00:00:00"/>
@@ -3055,6 +3008,8 @@
         <d v="2013-11-27T00:00:00"/>
         <d v="2013-11-28T00:00:00"/>
         <d v="2013-11-29T00:00:00"/>
+        <d v="2013-12-02T00:00:00"/>
+        <d v="2013-12-03T00:00:00"/>
         <m/>
         <d v="2011-01-12T00:00:00" u="1"/>
         <d v="2013-05-14T00:00:00" u="1"/>
@@ -3063,7 +3018,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="消费者" numFmtId="0">
-      <sharedItems containsBlank="1" count="26">
+      <sharedItems containsBlank="1" count="27">
         <s v="郑培军"/>
         <s v="叶雨珍"/>
         <s v="秦海燕"/>
@@ -3088,6 +3043,7 @@
         <s v="陈锦亮"/>
         <s v="陈华宾"/>
         <s v="汪超"/>
+        <s v="张进"/>
         <m/>
         <s v="黄上璜" u="1"/>
       </sharedItems>
@@ -3112,7 +3068,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1541">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1550">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -12355,7 +12311,61 @@
   </r>
   <r>
     <x v="319"/>
+    <x v="13"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="319"/>
+    <x v="20"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="319"/>
+    <x v="12"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="319"/>
+    <x v="19"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="319"/>
+    <x v="15"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="319"/>
+    <x v="17"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="319"/>
     <x v="24"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="319"/>
+    <x v="15"/>
+    <n v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="320"/>
+    <x v="12"/>
+    <n v="150"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <x v="25"/>
     <m/>
     <x v="2"/>
   </r>
@@ -12364,15 +12374,15 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:U424" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:U427" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="325">
-        <item m="1" x="320"/>
-        <item m="1" x="323"/>
+      <items count="327">
+        <item m="1" x="322"/>
+        <item m="1" x="325"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="322"/>
+        <item m="1" x="324"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -12572,7 +12582,7 @@
         <item x="198"/>
         <item x="199"/>
         <item x="200"/>
-        <item m="1" x="321"/>
+        <item m="1" x="323"/>
         <item x="201"/>
         <item x="202"/>
         <item x="203"/>
@@ -12692,11 +12702,13 @@
         <item x="317"/>
         <item x="318"/>
         <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="27">
+      <items count="28">
         <item x="8"/>
         <item x="4"/>
         <item x="5"/>
@@ -12704,13 +12716,13 @@
         <item x="2"/>
         <item x="3"/>
         <item h="1" x="0"/>
-        <item h="1" x="24"/>
+        <item h="1" x="25"/>
         <item x="9"/>
         <item x="6"/>
         <item x="1"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="25"/>
+        <item m="1" x="26"/>
         <item x="13"/>
         <item x="14"/>
         <item x="12"/>
@@ -12723,6 +12735,7 @@
         <item x="21"/>
         <item x="22"/>
         <item h="1" x="23"/>
+        <item h="1" x="24"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12740,7 +12753,7 @@
     <field x="3"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="422">
+  <rowItems count="425">
     <i>
       <x/>
     </i>
@@ -13632,6 +13645,9 @@
     <i r="1">
       <x v="322"/>
     </i>
+    <i r="1">
+      <x v="323"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -14004,6 +14020,12 @@
     <i r="1">
       <x v="320"/>
     </i>
+    <i r="1">
+      <x v="323"/>
+    </i>
+    <i r="1">
+      <x v="324"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -14077,20 +14099,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="24">
+    <format dxfId="15">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="14">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14109,7 +14131,7 @@
   <pivotFields count="4">
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="27">
+      <items count="28">
         <item x="8"/>
         <item x="4"/>
         <item x="5"/>
@@ -14117,13 +14139,13 @@
         <item x="2"/>
         <item x="3"/>
         <item h="1" x="0"/>
-        <item h="1" x="24"/>
+        <item h="1" x="25"/>
         <item x="9"/>
         <item x="6"/>
         <item x="1"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="25"/>
+        <item m="1" x="26"/>
         <item x="13"/>
         <item x="14"/>
         <item x="12"/>
@@ -14136,6 +14158,7 @@
         <item h="1" x="21"/>
         <item x="22"/>
         <item h="1" x="23"/>
+        <item h="1" x="24"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14229,20 +14252,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="20">
+    <format dxfId="11">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="10">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14542,11 +14565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1541"/>
+  <dimension ref="A1:V1557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1524" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1537" sqref="D1537:D1541"/>
+      <pane ySplit="1" topLeftCell="A1536" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1557" sqref="F1557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -39329,6 +39352,188 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1542" spans="1:4">
+      <c r="A1542" s="4">
+        <v>41610</v>
+      </c>
+      <c r="B1542" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1542" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:4">
+      <c r="A1543" s="4">
+        <v>41610</v>
+      </c>
+      <c r="B1543" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1543" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:4">
+      <c r="A1544" s="4">
+        <v>41610</v>
+      </c>
+      <c r="B1544" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1544" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:4">
+      <c r="A1545" s="4">
+        <v>41610</v>
+      </c>
+      <c r="B1545" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1545" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:4">
+      <c r="A1546" s="4">
+        <v>41610</v>
+      </c>
+      <c r="B1546" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1546" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:4">
+      <c r="A1547" s="4">
+        <v>41610</v>
+      </c>
+      <c r="B1547" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1547" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:4">
+      <c r="A1548" s="4">
+        <v>41610</v>
+      </c>
+      <c r="B1548" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1548" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:4">
+      <c r="A1549" s="4">
+        <v>41610</v>
+      </c>
+      <c r="B1549" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1549" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1549" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:4">
+      <c r="A1550" s="4">
+        <v>41611</v>
+      </c>
+      <c r="B1550" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1550" s="1">
+        <v>150</v>
+      </c>
+      <c r="D1550" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:4">
+      <c r="A1551" s="4">
+        <v>41611</v>
+      </c>
+      <c r="B1551" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1551" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:4">
+      <c r="A1552" s="4">
+        <v>41611</v>
+      </c>
+      <c r="B1552" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1552" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:4">
+      <c r="A1553" s="4">
+        <v>41611</v>
+      </c>
+      <c r="B1553" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1553" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:4">
+      <c r="A1554" s="4">
+        <v>41611</v>
+      </c>
+      <c r="B1554" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1554" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:4">
+      <c r="A1555" s="4">
+        <v>41611</v>
+      </c>
+      <c r="B1555" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1555" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:4">
+      <c r="A1556" s="4">
+        <v>41611</v>
+      </c>
+      <c r="B1556" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1556" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:4">
+      <c r="A1557" s="4">
+        <v>41611</v>
+      </c>
+      <c r="B1557" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1557" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="F342:F343"/>
@@ -39344,28 +39549,28 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>"艾贵才,严俊,黄剑锋,刘伟,秦海燕,欧庄显,林丹,黄鹏飞,郑培军,何秀凤,叶雨珍,林晶,黄璜,何敬法,张建军,宋报先,姚云哲,翁建明,魏小霞,吴文鍫,林峰,陈锦亮,陈华宾,汪超"</formula1>
+      <formula1>"艾贵才,严俊,黄剑锋,刘伟,秦海燕,欧庄显,林丹,黄鹏飞,郑培军,何秀凤,叶雨珍,林晶,黄璜,何敬法,张建军,宋报先,姚云哲,翁建明,魏小霞,吴文鍫,林峰,陈锦亮,陈华宾,汪超,张进"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"消费,预存"</formula1>
@@ -39378,11 +39583,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V424"/>
+  <dimension ref="A1:V427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E398" sqref="E398"/>
+      <selection pane="bottomLeft" activeCell="F398" sqref="F398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -49740,116 +49945,112 @@
       </c>
     </row>
     <row r="300" spans="1:21">
-      <c r="A300" s="6" t="s">
+      <c r="A300" s="12">
+        <v>41610</v>
+      </c>
+      <c r="B300" s="7"/>
+      <c r="C300" s="7"/>
+      <c r="D300" s="7"/>
+      <c r="E300" s="7"/>
+      <c r="F300" s="7"/>
+      <c r="G300" s="7"/>
+      <c r="H300" s="7"/>
+      <c r="I300" s="7"/>
+      <c r="J300" s="7"/>
+      <c r="K300" s="7"/>
+      <c r="L300" s="7"/>
+      <c r="M300" s="7"/>
+      <c r="N300" s="7"/>
+      <c r="O300" s="7"/>
+      <c r="P300" s="7"/>
+      <c r="Q300" s="7"/>
+      <c r="R300" s="7"/>
+      <c r="S300" s="7"/>
+      <c r="T300" s="7"/>
+      <c r="U300" s="7"/>
+    </row>
+    <row r="301" spans="1:21">
+      <c r="A301" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B300" s="7">
+      <c r="B301" s="7">
         <v>750.5</v>
       </c>
-      <c r="C300" s="7">
+      <c r="C301" s="7">
         <v>87</v>
       </c>
-      <c r="D300" s="7">
+      <c r="D301" s="7">
         <v>300</v>
       </c>
-      <c r="E300" s="7">
-        <v>56</v>
-      </c>
-      <c r="F300" s="7">
-        <v>200</v>
-      </c>
-      <c r="G300" s="7">
-        <v>2023</v>
-      </c>
-      <c r="H300" s="7">
-        <v>555</v>
-      </c>
-      <c r="I300" s="7">
-        <v>2502.5</v>
-      </c>
-      <c r="J300" s="7">
-        <v>3182.4</v>
-      </c>
-      <c r="K300" s="7">
-        <v>230</v>
-      </c>
-      <c r="L300" s="7">
-        <v>1400</v>
-      </c>
-      <c r="M300" s="7">
-        <v>220</v>
-      </c>
-      <c r="N300" s="7">
-        <v>1320</v>
-      </c>
-      <c r="O300" s="7">
-        <v>1579</v>
-      </c>
-      <c r="P300" s="7">
-        <v>943</v>
-      </c>
-      <c r="Q300" s="7">
-        <v>1200</v>
-      </c>
-      <c r="R300" s="7">
-        <v>950</v>
-      </c>
-      <c r="S300" s="7">
-        <v>100</v>
-      </c>
-      <c r="T300" s="7">
-        <v>250</v>
-      </c>
-      <c r="U300" s="7">
-        <v>17848.400000000001</v>
-      </c>
-    </row>
-    <row r="301" spans="1:21">
-      <c r="A301" s="12">
-        <v>40875</v>
-      </c>
-      <c r="B301" s="7"/>
-      <c r="C301" s="7">
-        <v>63</v>
-      </c>
-      <c r="D301" s="7"/>
       <c r="E301" s="7">
         <v>56</v>
       </c>
-      <c r="F301" s="7"/>
-      <c r="G301" s="7"/>
+      <c r="F301" s="7">
+        <v>200</v>
+      </c>
+      <c r="G301" s="7">
+        <v>2023</v>
+      </c>
       <c r="H301" s="7">
-        <v>0</v>
-      </c>
-      <c r="I301" s="7"/>
-      <c r="J301" s="7"/>
-      <c r="K301" s="7"/>
-      <c r="L301" s="7"/>
-      <c r="M301" s="7"/>
-      <c r="N301" s="7"/>
-      <c r="O301" s="7"/>
-      <c r="P301" s="7"/>
-      <c r="Q301" s="7"/>
-      <c r="R301" s="7"/>
-      <c r="S301" s="7"/>
-      <c r="T301" s="7"/>
+        <v>555</v>
+      </c>
+      <c r="I301" s="7">
+        <v>2502.5</v>
+      </c>
+      <c r="J301" s="7">
+        <v>3182.4</v>
+      </c>
+      <c r="K301" s="7">
+        <v>230</v>
+      </c>
+      <c r="L301" s="7">
+        <v>1400</v>
+      </c>
+      <c r="M301" s="7">
+        <v>220</v>
+      </c>
+      <c r="N301" s="7">
+        <v>1470</v>
+      </c>
+      <c r="O301" s="7">
+        <v>1679</v>
+      </c>
+      <c r="P301" s="7">
+        <v>943</v>
+      </c>
+      <c r="Q301" s="7">
+        <v>1200</v>
+      </c>
+      <c r="R301" s="7">
+        <v>950</v>
+      </c>
+      <c r="S301" s="7">
+        <v>100</v>
+      </c>
+      <c r="T301" s="7">
+        <v>250</v>
+      </c>
       <c r="U301" s="7">
-        <v>119</v>
+        <v>18098.400000000001</v>
       </c>
     </row>
     <row r="302" spans="1:21">
       <c r="A302" s="12">
-        <v>40879</v>
-      </c>
-      <c r="B302" s="7">
-        <v>7</v>
-      </c>
-      <c r="C302" s="7"/>
+        <v>40875</v>
+      </c>
+      <c r="B302" s="7"/>
+      <c r="C302" s="7">
+        <v>63</v>
+      </c>
       <c r="D302" s="7"/>
-      <c r="E302" s="7"/>
+      <c r="E302" s="7">
+        <v>56</v>
+      </c>
       <c r="F302" s="7"/>
       <c r="G302" s="7"/>
-      <c r="H302" s="7"/>
+      <c r="H302" s="7">
+        <v>0</v>
+      </c>
       <c r="I302" s="7"/>
       <c r="J302" s="7"/>
       <c r="K302" s="7"/>
@@ -49863,21 +50064,21 @@
       <c r="S302" s="7"/>
       <c r="T302" s="7"/>
       <c r="U302" s="7">
-        <v>7</v>
+        <v>119</v>
       </c>
     </row>
     <row r="303" spans="1:21">
       <c r="A303" s="12">
-        <v>40883</v>
-      </c>
-      <c r="B303" s="7"/>
+        <v>40879</v>
+      </c>
+      <c r="B303" s="7">
+        <v>7</v>
+      </c>
       <c r="C303" s="7"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
-      <c r="G303" s="7">
-        <v>50</v>
-      </c>
+      <c r="G303" s="7"/>
       <c r="H303" s="7"/>
       <c r="I303" s="7"/>
       <c r="J303" s="7"/>
@@ -49892,23 +50093,23 @@
       <c r="S303" s="7"/>
       <c r="T303" s="7"/>
       <c r="U303" s="7">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="304" spans="1:21">
       <c r="A304" s="12">
-        <v>40891</v>
+        <v>40883</v>
       </c>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
       <c r="F304" s="7"/>
-      <c r="G304" s="7"/>
+      <c r="G304" s="7">
+        <v>50</v>
+      </c>
       <c r="H304" s="7"/>
-      <c r="I304" s="7">
-        <v>65</v>
-      </c>
+      <c r="I304" s="7"/>
       <c r="J304" s="7"/>
       <c r="K304" s="7"/>
       <c r="L304" s="7"/>
@@ -49921,24 +50122,22 @@
       <c r="S304" s="7"/>
       <c r="T304" s="7"/>
       <c r="U304" s="7">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="305" spans="1:21">
       <c r="A305" s="12">
-        <v>40892</v>
+        <v>40891</v>
       </c>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
       <c r="F305" s="7"/>
-      <c r="G305" s="7">
-        <v>100</v>
-      </c>
+      <c r="G305" s="7"/>
       <c r="H305" s="7"/>
       <c r="I305" s="7">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J305" s="7"/>
       <c r="K305" s="7"/>
@@ -49952,22 +50151,24 @@
       <c r="S305" s="7"/>
       <c r="T305" s="7"/>
       <c r="U305" s="7">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="306" spans="1:21">
       <c r="A306" s="12">
-        <v>40913</v>
+        <v>40892</v>
       </c>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
       <c r="F306" s="7"/>
-      <c r="G306" s="7"/>
+      <c r="G306" s="7">
+        <v>100</v>
+      </c>
       <c r="H306" s="7"/>
       <c r="I306" s="7">
-        <v>679.5</v>
+        <v>68</v>
       </c>
       <c r="J306" s="7"/>
       <c r="K306" s="7"/>
@@ -49981,23 +50182,23 @@
       <c r="S306" s="7"/>
       <c r="T306" s="7"/>
       <c r="U306" s="7">
-        <v>679.5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="307" spans="1:21">
       <c r="A307" s="12">
-        <v>40917</v>
+        <v>40913</v>
       </c>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
-      <c r="G307" s="7">
-        <v>100</v>
-      </c>
+      <c r="G307" s="7"/>
       <c r="H307" s="7"/>
-      <c r="I307" s="7"/>
+      <c r="I307" s="7">
+        <v>679.5</v>
+      </c>
       <c r="J307" s="7"/>
       <c r="K307" s="7"/>
       <c r="L307" s="7"/>
@@ -50010,24 +50211,24 @@
       <c r="S307" s="7"/>
       <c r="T307" s="7"/>
       <c r="U307" s="7">
-        <v>100</v>
+        <v>679.5</v>
       </c>
     </row>
     <row r="308" spans="1:21">
       <c r="A308" s="12">
-        <v>40919</v>
+        <v>40917</v>
       </c>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
-      <c r="G308" s="7"/>
+      <c r="G308" s="7">
+        <v>100</v>
+      </c>
       <c r="H308" s="7"/>
       <c r="I308" s="7"/>
-      <c r="J308" s="7">
-        <v>15</v>
-      </c>
+      <c r="J308" s="7"/>
       <c r="K308" s="7"/>
       <c r="L308" s="7"/>
       <c r="M308" s="7"/>
@@ -50039,26 +50240,24 @@
       <c r="S308" s="7"/>
       <c r="T308" s="7"/>
       <c r="U308" s="7">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="309" spans="1:21">
       <c r="A309" s="12">
-        <v>40921</v>
+        <v>40919</v>
       </c>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
-      <c r="D309" s="7">
-        <v>100</v>
-      </c>
+      <c r="D309" s="7"/>
       <c r="E309" s="7"/>
-      <c r="F309" s="7">
-        <v>100</v>
-      </c>
+      <c r="F309" s="7"/>
       <c r="G309" s="7"/>
       <c r="H309" s="7"/>
       <c r="I309" s="7"/>
-      <c r="J309" s="7"/>
+      <c r="J309" s="7">
+        <v>15</v>
+      </c>
       <c r="K309" s="7"/>
       <c r="L309" s="7"/>
       <c r="M309" s="7"/>
@@ -50070,24 +50269,26 @@
       <c r="S309" s="7"/>
       <c r="T309" s="7"/>
       <c r="U309" s="7">
-        <v>200</v>
+        <v>15</v>
       </c>
     </row>
     <row r="310" spans="1:21">
       <c r="A310" s="12">
-        <v>40925</v>
+        <v>40921</v>
       </c>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
-      <c r="D310" s="7"/>
+      <c r="D310" s="7">
+        <v>100</v>
+      </c>
       <c r="E310" s="7"/>
-      <c r="F310" s="7"/>
+      <c r="F310" s="7">
+        <v>100</v>
+      </c>
       <c r="G310" s="7"/>
       <c r="H310" s="7"/>
       <c r="I310" s="7"/>
-      <c r="J310" s="7">
-        <v>14</v>
-      </c>
+      <c r="J310" s="7"/>
       <c r="K310" s="7"/>
       <c r="L310" s="7"/>
       <c r="M310" s="7"/>
@@ -50099,12 +50300,12 @@
       <c r="S310" s="7"/>
       <c r="T310" s="7"/>
       <c r="U310" s="7">
-        <v>14</v>
+        <v>200</v>
       </c>
     </row>
     <row r="311" spans="1:21">
       <c r="A311" s="12">
-        <v>40926</v>
+        <v>40925</v>
       </c>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -50115,7 +50316,7 @@
       <c r="H311" s="7"/>
       <c r="I311" s="7"/>
       <c r="J311" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K311" s="7"/>
       <c r="L311" s="7"/>
@@ -50128,12 +50329,12 @@
       <c r="S311" s="7"/>
       <c r="T311" s="7"/>
       <c r="U311" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="312" spans="1:21">
       <c r="A312" s="12">
-        <v>40940</v>
+        <v>40926</v>
       </c>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -50143,10 +50344,10 @@
       <c r="G312" s="7"/>
       <c r="H312" s="7"/>
       <c r="I312" s="7"/>
-      <c r="J312" s="7"/>
-      <c r="K312" s="7">
-        <v>100</v>
-      </c>
+      <c r="J312" s="7">
+        <v>28</v>
+      </c>
+      <c r="K312" s="7"/>
       <c r="L312" s="7"/>
       <c r="M312" s="7"/>
       <c r="N312" s="7"/>
@@ -50157,12 +50358,12 @@
       <c r="S312" s="7"/>
       <c r="T312" s="7"/>
       <c r="U312" s="7">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="313" spans="1:21">
       <c r="A313" s="12">
-        <v>40942</v>
+        <v>40940</v>
       </c>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -50191,7 +50392,7 @@
     </row>
     <row r="314" spans="1:21">
       <c r="A314" s="12">
-        <v>40947</v>
+        <v>40942</v>
       </c>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -50201,10 +50402,10 @@
       <c r="G314" s="7"/>
       <c r="H314" s="7"/>
       <c r="I314" s="7"/>
-      <c r="J314" s="7">
+      <c r="J314" s="7"/>
+      <c r="K314" s="7">
         <v>100</v>
       </c>
-      <c r="K314" s="7"/>
       <c r="L314" s="7"/>
       <c r="M314" s="7"/>
       <c r="N314" s="7"/>
@@ -50220,7 +50421,7 @@
     </row>
     <row r="315" spans="1:21">
       <c r="A315" s="12">
-        <v>40954</v>
+        <v>40947</v>
       </c>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -50228,11 +50429,11 @@
       <c r="E315" s="7"/>
       <c r="F315" s="7"/>
       <c r="G315" s="7"/>
-      <c r="H315" s="7">
+      <c r="H315" s="7"/>
+      <c r="I315" s="7"/>
+      <c r="J315" s="7">
         <v>100</v>
       </c>
-      <c r="I315" s="7"/>
-      <c r="J315" s="7"/>
       <c r="K315" s="7"/>
       <c r="L315" s="7"/>
       <c r="M315" s="7"/>
@@ -50249,7 +50450,7 @@
     </row>
     <row r="316" spans="1:21">
       <c r="A316" s="12">
-        <v>40973</v>
+        <v>40954</v>
       </c>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -50257,17 +50458,15 @@
       <c r="E316" s="7"/>
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
-      <c r="H316" s="7"/>
+      <c r="H316" s="7">
+        <v>100</v>
+      </c>
       <c r="I316" s="7"/>
       <c r="J316" s="7"/>
-      <c r="K316" s="7">
-        <v>30</v>
-      </c>
+      <c r="K316" s="7"/>
       <c r="L316" s="7"/>
       <c r="M316" s="7"/>
-      <c r="N316" s="7">
-        <v>100</v>
-      </c>
+      <c r="N316" s="7"/>
       <c r="O316" s="7"/>
       <c r="P316" s="7"/>
       <c r="Q316" s="7"/>
@@ -50275,12 +50474,12 @@
       <c r="S316" s="7"/>
       <c r="T316" s="7"/>
       <c r="U316" s="7">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="317" spans="1:21">
       <c r="A317" s="12">
-        <v>40974</v>
+        <v>40973</v>
       </c>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -50288,15 +50487,17 @@
       <c r="E317" s="7"/>
       <c r="F317" s="7"/>
       <c r="G317" s="7"/>
-      <c r="H317" s="7">
-        <v>100</v>
-      </c>
+      <c r="H317" s="7"/>
       <c r="I317" s="7"/>
       <c r="J317" s="7"/>
-      <c r="K317" s="7"/>
+      <c r="K317" s="7">
+        <v>30</v>
+      </c>
       <c r="L317" s="7"/>
       <c r="M317" s="7"/>
-      <c r="N317" s="7"/>
+      <c r="N317" s="7">
+        <v>100</v>
+      </c>
       <c r="O317" s="7"/>
       <c r="P317" s="7"/>
       <c r="Q317" s="7"/>
@@ -50304,12 +50505,12 @@
       <c r="S317" s="7"/>
       <c r="T317" s="7"/>
       <c r="U317" s="7">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="318" spans="1:21">
       <c r="A318" s="12">
-        <v>40981</v>
+        <v>40974</v>
       </c>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -50320,9 +50521,7 @@
       <c r="H318" s="7">
         <v>100</v>
       </c>
-      <c r="I318" s="7">
-        <v>300</v>
-      </c>
+      <c r="I318" s="7"/>
       <c r="J318" s="7"/>
       <c r="K318" s="7"/>
       <c r="L318" s="7"/>
@@ -50335,12 +50534,12 @@
       <c r="S318" s="7"/>
       <c r="T318" s="7"/>
       <c r="U318" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319" spans="1:21">
       <c r="A319" s="12">
-        <v>41032</v>
+        <v>40981</v>
       </c>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -50348,16 +50547,16 @@
       <c r="E319" s="7"/>
       <c r="F319" s="7"/>
       <c r="G319" s="7"/>
-      <c r="H319" s="7"/>
-      <c r="I319" s="7"/>
+      <c r="H319" s="7">
+        <v>100</v>
+      </c>
+      <c r="I319" s="7">
+        <v>300</v>
+      </c>
       <c r="J319" s="7"/>
       <c r="K319" s="7"/>
-      <c r="L319" s="7">
-        <v>100</v>
-      </c>
-      <c r="M319" s="7">
-        <v>100</v>
-      </c>
+      <c r="L319" s="7"/>
+      <c r="M319" s="7"/>
       <c r="N319" s="7"/>
       <c r="O319" s="7"/>
       <c r="P319" s="7"/>
@@ -50366,12 +50565,12 @@
       <c r="S319" s="7"/>
       <c r="T319" s="7"/>
       <c r="U319" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="320" spans="1:21">
       <c r="A320" s="12">
-        <v>41037</v>
+        <v>41032</v>
       </c>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -50383,11 +50582,13 @@
       <c r="I320" s="7"/>
       <c r="J320" s="7"/>
       <c r="K320" s="7"/>
-      <c r="L320" s="7"/>
-      <c r="M320" s="7"/>
-      <c r="N320" s="7">
+      <c r="L320" s="7">
         <v>100</v>
       </c>
+      <c r="M320" s="7">
+        <v>100</v>
+      </c>
+      <c r="N320" s="7"/>
       <c r="O320" s="7"/>
       <c r="P320" s="7"/>
       <c r="Q320" s="7"/>
@@ -50395,12 +50596,12 @@
       <c r="S320" s="7"/>
       <c r="T320" s="7"/>
       <c r="U320" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="321" spans="1:21">
       <c r="A321" s="12">
-        <v>41039</v>
+        <v>41037</v>
       </c>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -50414,22 +50615,22 @@
       <c r="K321" s="7"/>
       <c r="L321" s="7"/>
       <c r="M321" s="7"/>
-      <c r="N321" s="7"/>
-      <c r="O321" s="7">
-        <v>35</v>
-      </c>
+      <c r="N321" s="7">
+        <v>100</v>
+      </c>
+      <c r="O321" s="7"/>
       <c r="P321" s="7"/>
       <c r="Q321" s="7"/>
       <c r="R321" s="7"/>
       <c r="S321" s="7"/>
       <c r="T321" s="7"/>
       <c r="U321" s="7">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="322" spans="1:21">
       <c r="A322" s="12">
-        <v>41044</v>
+        <v>41039</v>
       </c>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -50445,7 +50646,7 @@
       <c r="M322" s="7"/>
       <c r="N322" s="7"/>
       <c r="O322" s="7">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="P322" s="7"/>
       <c r="Q322" s="7"/>
@@ -50453,21 +50654,19 @@
       <c r="S322" s="7"/>
       <c r="T322" s="7"/>
       <c r="U322" s="7">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="323" spans="1:21">
       <c r="A323" s="12">
-        <v>41050</v>
+        <v>41044</v>
       </c>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
       <c r="D323" s="7"/>
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
-      <c r="G323" s="7">
-        <v>89</v>
-      </c>
+      <c r="G323" s="7"/>
       <c r="H323" s="7"/>
       <c r="I323" s="7"/>
       <c r="J323" s="7"/>
@@ -50475,31 +50674,33 @@
       <c r="L323" s="7"/>
       <c r="M323" s="7"/>
       <c r="N323" s="7"/>
-      <c r="O323" s="7"/>
+      <c r="O323" s="7">
+        <v>20</v>
+      </c>
       <c r="P323" s="7"/>
       <c r="Q323" s="7"/>
       <c r="R323" s="7"/>
       <c r="S323" s="7"/>
       <c r="T323" s="7"/>
       <c r="U323" s="7">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="324" spans="1:21">
       <c r="A324" s="12">
-        <v>41057</v>
+        <v>41050</v>
       </c>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
-      <c r="G324" s="7"/>
+      <c r="G324" s="7">
+        <v>89</v>
+      </c>
       <c r="H324" s="7"/>
       <c r="I324" s="7"/>
-      <c r="J324" s="7">
-        <v>300</v>
-      </c>
+      <c r="J324" s="7"/>
       <c r="K324" s="7"/>
       <c r="L324" s="7"/>
       <c r="M324" s="7"/>
@@ -50511,12 +50712,12 @@
       <c r="S324" s="7"/>
       <c r="T324" s="7"/>
       <c r="U324" s="7">
-        <v>300</v>
+        <v>89</v>
       </c>
     </row>
     <row r="325" spans="1:21">
       <c r="A325" s="12">
-        <v>41060</v>
+        <v>41057</v>
       </c>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -50527,7 +50728,7 @@
       <c r="H325" s="7"/>
       <c r="I325" s="7"/>
       <c r="J325" s="7">
-        <v>10.1</v>
+        <v>300</v>
       </c>
       <c r="K325" s="7"/>
       <c r="L325" s="7"/>
@@ -50540,24 +50741,24 @@
       <c r="S325" s="7"/>
       <c r="T325" s="7"/>
       <c r="U325" s="7">
-        <v>10.1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="326" spans="1:21">
       <c r="A326" s="12">
-        <v>41066</v>
+        <v>41060</v>
       </c>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
       <c r="D326" s="7"/>
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
-      <c r="G326" s="7">
-        <v>300</v>
-      </c>
+      <c r="G326" s="7"/>
       <c r="H326" s="7"/>
       <c r="I326" s="7"/>
-      <c r="J326" s="7"/>
+      <c r="J326" s="7">
+        <v>10.1</v>
+      </c>
       <c r="K326" s="7"/>
       <c r="L326" s="7"/>
       <c r="M326" s="7"/>
@@ -50569,24 +50770,24 @@
       <c r="S326" s="7"/>
       <c r="T326" s="7"/>
       <c r="U326" s="7">
-        <v>300</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="327" spans="1:21">
       <c r="A327" s="12">
-        <v>41070</v>
+        <v>41066</v>
       </c>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
       <c r="D327" s="7"/>
       <c r="E327" s="7"/>
       <c r="F327" s="7"/>
-      <c r="G327" s="7"/>
+      <c r="G327" s="7">
+        <v>300</v>
+      </c>
       <c r="H327" s="7"/>
       <c r="I327" s="7"/>
-      <c r="J327" s="7">
-        <v>130</v>
-      </c>
+      <c r="J327" s="7"/>
       <c r="K327" s="7"/>
       <c r="L327" s="7"/>
       <c r="M327" s="7"/>
@@ -50598,12 +50799,12 @@
       <c r="S327" s="7"/>
       <c r="T327" s="7"/>
       <c r="U327" s="7">
-        <v>130</v>
+        <v>300</v>
       </c>
     </row>
     <row r="328" spans="1:21">
       <c r="A328" s="12">
-        <v>41071</v>
+        <v>41070</v>
       </c>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -50614,7 +50815,7 @@
       <c r="H328" s="7"/>
       <c r="I328" s="7"/>
       <c r="J328" s="7">
-        <v>81.400000000000006</v>
+        <v>130</v>
       </c>
       <c r="K328" s="7"/>
       <c r="L328" s="7"/>
@@ -50627,12 +50828,12 @@
       <c r="S328" s="7"/>
       <c r="T328" s="7"/>
       <c r="U328" s="7">
-        <v>81.400000000000006</v>
+        <v>130</v>
       </c>
     </row>
     <row r="329" spans="1:21">
       <c r="A329" s="12">
-        <v>41072</v>
+        <v>41071</v>
       </c>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -50643,7 +50844,7 @@
       <c r="H329" s="7"/>
       <c r="I329" s="7"/>
       <c r="J329" s="7">
-        <v>77.599999999999994</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="K329" s="7"/>
       <c r="L329" s="7"/>
@@ -50656,25 +50857,23 @@
       <c r="S329" s="7"/>
       <c r="T329" s="7"/>
       <c r="U329" s="7">
-        <v>77.599999999999994</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="330" spans="1:21">
       <c r="A330" s="12">
-        <v>41078</v>
+        <v>41072</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
       <c r="D330" s="7"/>
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
-      <c r="G330" s="7">
-        <v>47</v>
-      </c>
+      <c r="G330" s="7"/>
       <c r="H330" s="7"/>
       <c r="I330" s="7"/>
       <c r="J330" s="7">
-        <v>50</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="K330" s="7"/>
       <c r="L330" s="7"/>
@@ -50687,23 +50886,25 @@
       <c r="S330" s="7"/>
       <c r="T330" s="7"/>
       <c r="U330" s="7">
-        <v>97</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="331" spans="1:21">
       <c r="A331" s="12">
-        <v>41082</v>
+        <v>41078</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
-      <c r="G331" s="7"/>
+      <c r="G331" s="7">
+        <v>47</v>
+      </c>
       <c r="H331" s="7"/>
       <c r="I331" s="7"/>
       <c r="J331" s="7">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="K331" s="7"/>
       <c r="L331" s="7"/>
@@ -50716,12 +50917,12 @@
       <c r="S331" s="7"/>
       <c r="T331" s="7"/>
       <c r="U331" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="332" spans="1:21">
       <c r="A332" s="12">
-        <v>41083</v>
+        <v>41082</v>
       </c>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -50732,7 +50933,7 @@
       <c r="H332" s="7"/>
       <c r="I332" s="7"/>
       <c r="J332" s="7">
-        <v>39.9</v>
+        <v>98</v>
       </c>
       <c r="K332" s="7"/>
       <c r="L332" s="7"/>
@@ -50745,24 +50946,24 @@
       <c r="S332" s="7"/>
       <c r="T332" s="7"/>
       <c r="U332" s="7">
-        <v>39.9</v>
+        <v>98</v>
       </c>
     </row>
     <row r="333" spans="1:21">
       <c r="A333" s="12">
-        <v>41085</v>
+        <v>41083</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
       <c r="D333" s="7"/>
       <c r="E333" s="7"/>
       <c r="F333" s="7"/>
-      <c r="G333" s="7">
-        <v>300</v>
-      </c>
+      <c r="G333" s="7"/>
       <c r="H333" s="7"/>
       <c r="I333" s="7"/>
-      <c r="J333" s="7"/>
+      <c r="J333" s="7">
+        <v>39.9</v>
+      </c>
       <c r="K333" s="7"/>
       <c r="L333" s="7"/>
       <c r="M333" s="7"/>
@@ -50774,24 +50975,24 @@
       <c r="S333" s="7"/>
       <c r="T333" s="7"/>
       <c r="U333" s="7">
-        <v>300</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="334" spans="1:21">
       <c r="A334" s="12">
-        <v>41088</v>
+        <v>41085</v>
       </c>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
       <c r="D334" s="7"/>
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
-      <c r="G334" s="7"/>
+      <c r="G334" s="7">
+        <v>300</v>
+      </c>
       <c r="H334" s="7"/>
       <c r="I334" s="7"/>
-      <c r="J334" s="7">
-        <v>20</v>
-      </c>
+      <c r="J334" s="7"/>
       <c r="K334" s="7"/>
       <c r="L334" s="7"/>
       <c r="M334" s="7"/>
@@ -50803,12 +51004,12 @@
       <c r="S334" s="7"/>
       <c r="T334" s="7"/>
       <c r="U334" s="7">
-        <v>20</v>
+        <v>300</v>
       </c>
     </row>
     <row r="335" spans="1:21">
       <c r="A335" s="12">
-        <v>41092</v>
+        <v>41088</v>
       </c>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -50818,26 +51019,26 @@
       <c r="G335" s="7"/>
       <c r="H335" s="7"/>
       <c r="I335" s="7"/>
-      <c r="J335" s="7"/>
+      <c r="J335" s="7">
+        <v>20</v>
+      </c>
       <c r="K335" s="7"/>
       <c r="L335" s="7"/>
       <c r="M335" s="7"/>
       <c r="N335" s="7"/>
       <c r="O335" s="7"/>
-      <c r="P335" s="7">
-        <v>93</v>
-      </c>
+      <c r="P335" s="7"/>
       <c r="Q335" s="7"/>
       <c r="R335" s="7"/>
       <c r="S335" s="7"/>
       <c r="T335" s="7"/>
       <c r="U335" s="7">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="336" spans="1:21">
       <c r="A336" s="12">
-        <v>41093</v>
+        <v>41092</v>
       </c>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -50847,39 +51048,37 @@
       <c r="G336" s="7"/>
       <c r="H336" s="7"/>
       <c r="I336" s="7"/>
-      <c r="J336" s="7">
-        <v>100</v>
-      </c>
+      <c r="J336" s="7"/>
       <c r="K336" s="7"/>
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
       <c r="N336" s="7"/>
       <c r="O336" s="7"/>
-      <c r="P336" s="7"/>
+      <c r="P336" s="7">
+        <v>93</v>
+      </c>
       <c r="Q336" s="7"/>
       <c r="R336" s="7"/>
       <c r="S336" s="7"/>
       <c r="T336" s="7"/>
       <c r="U336" s="7">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="337" spans="1:21">
       <c r="A337" s="12">
-        <v>41095</v>
+        <v>41093</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
-      <c r="G337" s="7">
-        <v>70</v>
-      </c>
+      <c r="G337" s="7"/>
       <c r="H337" s="7"/>
       <c r="I337" s="7"/>
       <c r="J337" s="7">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K337" s="7"/>
       <c r="L337" s="7"/>
@@ -50892,24 +51091,26 @@
       <c r="S337" s="7"/>
       <c r="T337" s="7"/>
       <c r="U337" s="7">
-        <v>168</v>
+        <v>100</v>
       </c>
     </row>
     <row r="338" spans="1:21">
       <c r="A338" s="12">
-        <v>41100</v>
+        <v>41095</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
-      <c r="G338" s="7"/>
+      <c r="G338" s="7">
+        <v>70</v>
+      </c>
       <c r="H338" s="7"/>
-      <c r="I338" s="7">
-        <v>16</v>
-      </c>
-      <c r="J338" s="7"/>
+      <c r="I338" s="7"/>
+      <c r="J338" s="7">
+        <v>98</v>
+      </c>
       <c r="K338" s="7"/>
       <c r="L338" s="7"/>
       <c r="M338" s="7"/>
@@ -50921,12 +51122,12 @@
       <c r="S338" s="7"/>
       <c r="T338" s="7"/>
       <c r="U338" s="7">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="339" spans="1:21">
       <c r="A339" s="12">
-        <v>41108</v>
+        <v>41100</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -50936,7 +51137,7 @@
       <c r="G339" s="7"/>
       <c r="H339" s="7"/>
       <c r="I339" s="7">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="J339" s="7"/>
       <c r="K339" s="7"/>
@@ -50950,12 +51151,12 @@
       <c r="S339" s="7"/>
       <c r="T339" s="7"/>
       <c r="U339" s="7">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="340" spans="1:21">
       <c r="A340" s="12">
-        <v>41110</v>
+        <v>41108</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -50965,7 +51166,7 @@
       <c r="G340" s="7"/>
       <c r="H340" s="7"/>
       <c r="I340" s="7">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="J340" s="7"/>
       <c r="K340" s="7"/>
@@ -50979,12 +51180,12 @@
       <c r="S340" s="7"/>
       <c r="T340" s="7"/>
       <c r="U340" s="7">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="341" spans="1:21">
       <c r="A341" s="12">
-        <v>41116</v>
+        <v>41110</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -50994,7 +51195,7 @@
       <c r="G341" s="7"/>
       <c r="H341" s="7"/>
       <c r="I341" s="7">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="J341" s="7"/>
       <c r="K341" s="7"/>
@@ -51008,12 +51209,12 @@
       <c r="S341" s="7"/>
       <c r="T341" s="7"/>
       <c r="U341" s="7">
-        <v>83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="342" spans="1:21">
       <c r="A342" s="12">
-        <v>41136</v>
+        <v>41116</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -51021,11 +51222,9 @@
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
       <c r="G342" s="7"/>
-      <c r="H342" s="7">
-        <v>55</v>
-      </c>
+      <c r="H342" s="7"/>
       <c r="I342" s="7">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="J342" s="7"/>
       <c r="K342" s="7"/>
@@ -51039,23 +51238,25 @@
       <c r="S342" s="7"/>
       <c r="T342" s="7"/>
       <c r="U342" s="7">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="343" spans="1:21">
       <c r="A343" s="12">
-        <v>41138</v>
+        <v>41136</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
-      <c r="G343" s="7">
-        <v>100.4</v>
-      </c>
-      <c r="H343" s="7"/>
-      <c r="I343" s="7"/>
+      <c r="G343" s="7"/>
+      <c r="H343" s="7">
+        <v>55</v>
+      </c>
+      <c r="I343" s="7">
+        <v>39</v>
+      </c>
       <c r="J343" s="7"/>
       <c r="K343" s="7"/>
       <c r="L343" s="7"/>
@@ -51068,24 +51269,24 @@
       <c r="S343" s="7"/>
       <c r="T343" s="7"/>
       <c r="U343" s="7">
-        <v>100.4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="344" spans="1:21">
       <c r="A344" s="12">
-        <v>41151</v>
+        <v>41138</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
       <c r="F344" s="7"/>
-      <c r="G344" s="7"/>
+      <c r="G344" s="7">
+        <v>100.4</v>
+      </c>
       <c r="H344" s="7"/>
       <c r="I344" s="7"/>
-      <c r="J344" s="7">
-        <v>100</v>
-      </c>
+      <c r="J344" s="7"/>
       <c r="K344" s="7"/>
       <c r="L344" s="7"/>
       <c r="M344" s="7"/>
@@ -51097,12 +51298,12 @@
       <c r="S344" s="7"/>
       <c r="T344" s="7"/>
       <c r="U344" s="7">
-        <v>100</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="345" spans="1:21">
       <c r="A345" s="12">
-        <v>41156</v>
+        <v>41151</v>
       </c>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -51111,10 +51312,10 @@
       <c r="F345" s="7"/>
       <c r="G345" s="7"/>
       <c r="H345" s="7"/>
-      <c r="I345" s="7">
-        <v>15</v>
-      </c>
-      <c r="J345" s="7"/>
+      <c r="I345" s="7"/>
+      <c r="J345" s="7">
+        <v>100</v>
+      </c>
       <c r="K345" s="7"/>
       <c r="L345" s="7"/>
       <c r="M345" s="7"/>
@@ -51126,12 +51327,12 @@
       <c r="S345" s="7"/>
       <c r="T345" s="7"/>
       <c r="U345" s="7">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="346" spans="1:21">
       <c r="A346" s="12">
-        <v>41161</v>
+        <v>41156</v>
       </c>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -51141,7 +51342,7 @@
       <c r="G346" s="7"/>
       <c r="H346" s="7"/>
       <c r="I346" s="7">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="J346" s="7"/>
       <c r="K346" s="7"/>
@@ -51155,12 +51356,12 @@
       <c r="S346" s="7"/>
       <c r="T346" s="7"/>
       <c r="U346" s="7">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347" spans="1:21">
       <c r="A347" s="12">
-        <v>41162</v>
+        <v>41161</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -51169,29 +51370,27 @@
       <c r="F347" s="7"/>
       <c r="G347" s="7"/>
       <c r="H347" s="7"/>
-      <c r="I347" s="7"/>
-      <c r="J347" s="7">
-        <v>100</v>
-      </c>
+      <c r="I347" s="7">
+        <v>76</v>
+      </c>
+      <c r="J347" s="7"/>
       <c r="K347" s="7"/>
       <c r="L347" s="7"/>
       <c r="M347" s="7"/>
       <c r="N347" s="7"/>
-      <c r="O347" s="7">
-        <v>48</v>
-      </c>
+      <c r="O347" s="7"/>
       <c r="P347" s="7"/>
       <c r="Q347" s="7"/>
       <c r="R347" s="7"/>
       <c r="S347" s="7"/>
       <c r="T347" s="7"/>
       <c r="U347" s="7">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="348" spans="1:21">
       <c r="A348" s="12">
-        <v>41166</v>
+        <v>41162</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -51201,13 +51400,15 @@
       <c r="G348" s="7"/>
       <c r="H348" s="7"/>
       <c r="I348" s="7"/>
-      <c r="J348" s="7"/>
+      <c r="J348" s="7">
+        <v>100</v>
+      </c>
       <c r="K348" s="7"/>
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
       <c r="N348" s="7"/>
       <c r="O348" s="7">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="P348" s="7"/>
       <c r="Q348" s="7"/>
@@ -51215,12 +51416,12 @@
       <c r="S348" s="7"/>
       <c r="T348" s="7"/>
       <c r="U348" s="7">
-        <v>100</v>
+        <v>148</v>
       </c>
     </row>
     <row r="349" spans="1:21">
       <c r="A349" s="12">
-        <v>41171</v>
+        <v>41166</v>
       </c>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -51236,7 +51437,7 @@
       <c r="M349" s="7"/>
       <c r="N349" s="7"/>
       <c r="O349" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="P349" s="7"/>
       <c r="Q349" s="7"/>
@@ -51244,20 +51445,18 @@
       <c r="S349" s="7"/>
       <c r="T349" s="7"/>
       <c r="U349" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="350" spans="1:21">
       <c r="A350" s="12">
-        <v>41175</v>
+        <v>41171</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
-      <c r="F350" s="7">
-        <v>100</v>
-      </c>
+      <c r="F350" s="7"/>
       <c r="G350" s="7"/>
       <c r="H350" s="7"/>
       <c r="I350" s="7"/>
@@ -51266,70 +51465,72 @@
       <c r="L350" s="7"/>
       <c r="M350" s="7"/>
       <c r="N350" s="7"/>
-      <c r="O350" s="7"/>
+      <c r="O350" s="7">
+        <v>10</v>
+      </c>
       <c r="P350" s="7"/>
       <c r="Q350" s="7"/>
       <c r="R350" s="7"/>
       <c r="S350" s="7"/>
       <c r="T350" s="7"/>
       <c r="U350" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:21">
       <c r="A351" s="12">
-        <v>41197</v>
-      </c>
-      <c r="B351" s="7">
-        <v>10</v>
-      </c>
+        <v>41175</v>
+      </c>
+      <c r="B351" s="7"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
-      <c r="F351" s="7"/>
-      <c r="G351" s="7">
-        <v>10</v>
-      </c>
+      <c r="F351" s="7">
+        <v>100</v>
+      </c>
+      <c r="G351" s="7"/>
       <c r="H351" s="7"/>
       <c r="I351" s="7"/>
-      <c r="J351" s="7">
-        <v>10</v>
-      </c>
+      <c r="J351" s="7"/>
       <c r="K351" s="7"/>
       <c r="L351" s="7"/>
       <c r="M351" s="7"/>
       <c r="N351" s="7"/>
-      <c r="O351" s="7">
-        <v>60</v>
-      </c>
+      <c r="O351" s="7"/>
       <c r="P351" s="7"/>
       <c r="Q351" s="7"/>
       <c r="R351" s="7"/>
       <c r="S351" s="7"/>
       <c r="T351" s="7"/>
       <c r="U351" s="7">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="352" spans="1:21">
       <c r="A352" s="12">
-        <v>41198</v>
-      </c>
-      <c r="B352" s="7"/>
+        <v>41197</v>
+      </c>
+      <c r="B352" s="7">
+        <v>10</v>
+      </c>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
-      <c r="G352" s="7"/>
+      <c r="G352" s="7">
+        <v>10</v>
+      </c>
       <c r="H352" s="7"/>
       <c r="I352" s="7"/>
-      <c r="J352" s="7"/>
+      <c r="J352" s="7">
+        <v>10</v>
+      </c>
       <c r="K352" s="7"/>
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
       <c r="N352" s="7"/>
       <c r="O352" s="7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="P352" s="7"/>
       <c r="Q352" s="7"/>
@@ -51337,12 +51538,12 @@
       <c r="S352" s="7"/>
       <c r="T352" s="7"/>
       <c r="U352" s="7">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="353" spans="1:21">
       <c r="A353" s="12">
-        <v>41205</v>
+        <v>41198</v>
       </c>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -51352,19 +51553,13 @@
       <c r="G353" s="7"/>
       <c r="H353" s="7"/>
       <c r="I353" s="7"/>
-      <c r="J353" s="7">
-        <v>162</v>
-      </c>
+      <c r="J353" s="7"/>
       <c r="K353" s="7"/>
-      <c r="L353" s="7">
-        <v>100</v>
-      </c>
+      <c r="L353" s="7"/>
       <c r="M353" s="7"/>
-      <c r="N353" s="7">
-        <v>100</v>
-      </c>
+      <c r="N353" s="7"/>
       <c r="O353" s="7">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P353" s="7"/>
       <c r="Q353" s="7"/>
@@ -51372,12 +51567,12 @@
       <c r="S353" s="7"/>
       <c r="T353" s="7"/>
       <c r="U353" s="7">
-        <v>432</v>
+        <v>40</v>
       </c>
     </row>
     <row r="354" spans="1:21">
       <c r="A354" s="12">
-        <v>41214</v>
+        <v>41205</v>
       </c>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -51388,25 +51583,31 @@
       <c r="H354" s="7"/>
       <c r="I354" s="7"/>
       <c r="J354" s="7">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="K354" s="7"/>
-      <c r="L354" s="7"/>
+      <c r="L354" s="7">
+        <v>100</v>
+      </c>
       <c r="M354" s="7"/>
-      <c r="N354" s="7"/>
-      <c r="O354" s="7"/>
+      <c r="N354" s="7">
+        <v>100</v>
+      </c>
+      <c r="O354" s="7">
+        <v>70</v>
+      </c>
       <c r="P354" s="7"/>
       <c r="Q354" s="7"/>
       <c r="R354" s="7"/>
       <c r="S354" s="7"/>
       <c r="T354" s="7"/>
       <c r="U354" s="7">
-        <v>2</v>
+        <v>432</v>
       </c>
     </row>
     <row r="355" spans="1:21">
       <c r="A355" s="12">
-        <v>41215</v>
+        <v>41214</v>
       </c>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -51417,7 +51618,7 @@
       <c r="H355" s="7"/>
       <c r="I355" s="7"/>
       <c r="J355" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K355" s="7"/>
       <c r="L355" s="7"/>
@@ -51430,12 +51631,12 @@
       <c r="S355" s="7"/>
       <c r="T355" s="7"/>
       <c r="U355" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:21">
       <c r="A356" s="12">
-        <v>41237</v>
+        <v>41215</v>
       </c>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -51446,12 +51647,10 @@
       <c r="H356" s="7"/>
       <c r="I356" s="7"/>
       <c r="J356" s="7">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="K356" s="7"/>
-      <c r="L356" s="7">
-        <v>100</v>
-      </c>
+      <c r="L356" s="7"/>
       <c r="M356" s="7"/>
       <c r="N356" s="7"/>
       <c r="O356" s="7"/>
@@ -51461,28 +51660,28 @@
       <c r="S356" s="7"/>
       <c r="T356" s="7"/>
       <c r="U356" s="7">
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:21">
       <c r="A357" s="12">
-        <v>41242</v>
+        <v>41237</v>
       </c>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
       <c r="F357" s="7"/>
-      <c r="G357" s="7">
-        <v>100</v>
-      </c>
+      <c r="G357" s="7"/>
       <c r="H357" s="7"/>
       <c r="I357" s="7"/>
       <c r="J357" s="7">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="K357" s="7"/>
-      <c r="L357" s="7"/>
+      <c r="L357" s="7">
+        <v>100</v>
+      </c>
       <c r="M357" s="7"/>
       <c r="N357" s="7"/>
       <c r="O357" s="7"/>
@@ -51492,23 +51691,25 @@
       <c r="S357" s="7"/>
       <c r="T357" s="7"/>
       <c r="U357" s="7">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="358" spans="1:21">
       <c r="A358" s="12">
-        <v>41253</v>
+        <v>41242</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
       <c r="F358" s="7"/>
-      <c r="G358" s="7"/>
+      <c r="G358" s="7">
+        <v>100</v>
+      </c>
       <c r="H358" s="7"/>
       <c r="I358" s="7"/>
       <c r="J358" s="7">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="K358" s="7"/>
       <c r="L358" s="7"/>
@@ -51521,24 +51722,24 @@
       <c r="S358" s="7"/>
       <c r="T358" s="7"/>
       <c r="U358" s="7">
-        <v>10</v>
+        <v>181</v>
       </c>
     </row>
     <row r="359" spans="1:21">
       <c r="A359" s="12">
-        <v>41268</v>
+        <v>41253</v>
       </c>
       <c r="B359" s="7"/>
-      <c r="C359" s="7">
-        <v>24</v>
-      </c>
+      <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
       <c r="F359" s="7"/>
       <c r="G359" s="7"/>
       <c r="H359" s="7"/>
       <c r="I359" s="7"/>
-      <c r="J359" s="7"/>
+      <c r="J359" s="7">
+        <v>10</v>
+      </c>
       <c r="K359" s="7"/>
       <c r="L359" s="7"/>
       <c r="M359" s="7"/>
@@ -51550,21 +51751,21 @@
       <c r="S359" s="7"/>
       <c r="T359" s="7"/>
       <c r="U359" s="7">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="360" spans="1:21">
       <c r="A360" s="12">
-        <v>41281</v>
+        <v>41268</v>
       </c>
       <c r="B360" s="7"/>
-      <c r="C360" s="7"/>
+      <c r="C360" s="7">
+        <v>24</v>
+      </c>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
-      <c r="G360" s="7">
-        <v>200</v>
-      </c>
+      <c r="G360" s="7"/>
       <c r="H360" s="7"/>
       <c r="I360" s="7"/>
       <c r="J360" s="7"/>
@@ -51579,26 +51780,24 @@
       <c r="S360" s="7"/>
       <c r="T360" s="7"/>
       <c r="U360" s="7">
-        <v>200</v>
+        <v>24</v>
       </c>
     </row>
     <row r="361" spans="1:21">
       <c r="A361" s="12">
-        <v>41310</v>
+        <v>41281</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
       <c r="F361" s="7"/>
-      <c r="G361" s="7"/>
+      <c r="G361" s="7">
+        <v>200</v>
+      </c>
       <c r="H361" s="7"/>
-      <c r="I361" s="7">
-        <v>22</v>
-      </c>
-      <c r="J361" s="7">
-        <v>31.9</v>
-      </c>
+      <c r="I361" s="7"/>
+      <c r="J361" s="7"/>
       <c r="K361" s="7"/>
       <c r="L361" s="7"/>
       <c r="M361" s="7"/>
@@ -51610,24 +51809,26 @@
       <c r="S361" s="7"/>
       <c r="T361" s="7"/>
       <c r="U361" s="7">
-        <v>53.9</v>
+        <v>200</v>
       </c>
     </row>
     <row r="362" spans="1:21">
       <c r="A362" s="12">
-        <v>41323</v>
+        <v>41310</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
       <c r="F362" s="7"/>
-      <c r="G362" s="7">
-        <v>119.6</v>
-      </c>
+      <c r="G362" s="7"/>
       <c r="H362" s="7"/>
-      <c r="I362" s="7"/>
-      <c r="J362" s="7"/>
+      <c r="I362" s="7">
+        <v>22</v>
+      </c>
+      <c r="J362" s="7">
+        <v>31.9</v>
+      </c>
       <c r="K362" s="7"/>
       <c r="L362" s="7"/>
       <c r="M362" s="7"/>
@@ -51639,12 +51840,12 @@
       <c r="S362" s="7"/>
       <c r="T362" s="7"/>
       <c r="U362" s="7">
-        <v>119.6</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="363" spans="1:21">
       <c r="A363" s="12">
-        <v>41331</v>
+        <v>41323</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -51652,7 +51853,7 @@
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
       <c r="G363" s="7">
-        <v>100</v>
+        <v>119.6</v>
       </c>
       <c r="H363" s="7"/>
       <c r="I363" s="7"/>
@@ -51668,24 +51869,24 @@
       <c r="S363" s="7"/>
       <c r="T363" s="7"/>
       <c r="U363" s="7">
-        <v>100</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="364" spans="1:21">
       <c r="A364" s="12">
-        <v>41361</v>
+        <v>41331</v>
       </c>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
-      <c r="G364" s="7"/>
+      <c r="G364" s="7">
+        <v>100</v>
+      </c>
       <c r="H364" s="7"/>
       <c r="I364" s="7"/>
-      <c r="J364" s="7">
-        <v>40</v>
-      </c>
+      <c r="J364" s="7"/>
       <c r="K364" s="7"/>
       <c r="L364" s="7"/>
       <c r="M364" s="7"/>
@@ -51697,12 +51898,12 @@
       <c r="S364" s="7"/>
       <c r="T364" s="7"/>
       <c r="U364" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="365" spans="1:21">
       <c r="A365" s="12">
-        <v>41373</v>
+        <v>41361</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
@@ -51711,10 +51912,10 @@
       <c r="F365" s="7"/>
       <c r="G365" s="7"/>
       <c r="H365" s="7"/>
-      <c r="I365" s="7">
-        <v>91</v>
-      </c>
-      <c r="J365" s="7"/>
+      <c r="I365" s="7"/>
+      <c r="J365" s="7">
+        <v>40</v>
+      </c>
       <c r="K365" s="7"/>
       <c r="L365" s="7"/>
       <c r="M365" s="7"/>
@@ -51726,12 +51927,12 @@
       <c r="S365" s="7"/>
       <c r="T365" s="7"/>
       <c r="U365" s="7">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="366" spans="1:21">
       <c r="A366" s="12">
-        <v>41374</v>
+        <v>41373</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -51740,36 +51941,34 @@
       <c r="F366" s="7"/>
       <c r="G366" s="7"/>
       <c r="H366" s="7"/>
-      <c r="I366" s="7"/>
+      <c r="I366" s="7">
+        <v>91</v>
+      </c>
       <c r="J366" s="7"/>
       <c r="K366" s="7"/>
       <c r="L366" s="7"/>
       <c r="M366" s="7"/>
       <c r="N366" s="7"/>
-      <c r="O366" s="7">
-        <v>75</v>
-      </c>
+      <c r="O366" s="7"/>
       <c r="P366" s="7"/>
       <c r="Q366" s="7"/>
       <c r="R366" s="7"/>
       <c r="S366" s="7"/>
       <c r="T366" s="7"/>
       <c r="U366" s="7">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="367" spans="1:21">
       <c r="A367" s="12">
-        <v>41376</v>
+        <v>41374</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
-      <c r="G367" s="7">
-        <v>97</v>
-      </c>
+      <c r="G367" s="7"/>
       <c r="H367" s="7"/>
       <c r="I367" s="7"/>
       <c r="J367" s="7"/>
@@ -51777,52 +51976,54 @@
       <c r="L367" s="7"/>
       <c r="M367" s="7"/>
       <c r="N367" s="7"/>
-      <c r="O367" s="7"/>
-      <c r="P367" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q367" s="7">
-        <v>100</v>
-      </c>
+      <c r="O367" s="7">
+        <v>75</v>
+      </c>
+      <c r="P367" s="7"/>
+      <c r="Q367" s="7"/>
       <c r="R367" s="7"/>
       <c r="S367" s="7"/>
       <c r="T367" s="7"/>
       <c r="U367" s="7">
-        <v>247</v>
+        <v>75</v>
       </c>
     </row>
     <row r="368" spans="1:21">
       <c r="A368" s="12">
-        <v>41382</v>
+        <v>41376</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
       <c r="F368" s="7"/>
-      <c r="G368" s="7"/>
+      <c r="G368" s="7">
+        <v>97</v>
+      </c>
       <c r="H368" s="7"/>
       <c r="I368" s="7"/>
       <c r="J368" s="7"/>
       <c r="K368" s="7"/>
       <c r="L368" s="7"/>
       <c r="M368" s="7"/>
-      <c r="N368" s="7">
+      <c r="N368" s="7"/>
+      <c r="O368" s="7"/>
+      <c r="P368" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q368" s="7">
         <v>100</v>
       </c>
-      <c r="O368" s="7"/>
-      <c r="P368" s="7"/>
-      <c r="Q368" s="7"/>
       <c r="R368" s="7"/>
       <c r="S368" s="7"/>
       <c r="T368" s="7"/>
       <c r="U368" s="7">
-        <v>100</v>
+        <v>247</v>
       </c>
     </row>
     <row r="369" spans="1:21">
       <c r="A369" s="12">
-        <v>41383</v>
+        <v>41382</v>
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -51836,11 +52037,11 @@
       <c r="K369" s="7"/>
       <c r="L369" s="7"/>
       <c r="M369" s="7"/>
-      <c r="N369" s="7"/>
+      <c r="N369" s="7">
+        <v>100</v>
+      </c>
       <c r="O369" s="7"/>
-      <c r="P369" s="7">
-        <v>100</v>
-      </c>
+      <c r="P369" s="7"/>
       <c r="Q369" s="7"/>
       <c r="R369" s="7"/>
       <c r="S369" s="7"/>
@@ -51851,7 +52052,7 @@
     </row>
     <row r="370" spans="1:21">
       <c r="A370" s="12">
-        <v>41386</v>
+        <v>41383</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -51866,21 +52067,21 @@
       <c r="L370" s="7"/>
       <c r="M370" s="7"/>
       <c r="N370" s="7"/>
-      <c r="O370" s="7">
-        <v>40</v>
-      </c>
-      <c r="P370" s="7"/>
+      <c r="O370" s="7"/>
+      <c r="P370" s="7">
+        <v>100</v>
+      </c>
       <c r="Q370" s="7"/>
       <c r="R370" s="7"/>
       <c r="S370" s="7"/>
       <c r="T370" s="7"/>
       <c r="U370" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="371" spans="1:21">
       <c r="A371" s="12">
-        <v>41387</v>
+        <v>41386</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -51896,7 +52097,7 @@
       <c r="M371" s="7"/>
       <c r="N371" s="7"/>
       <c r="O371" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P371" s="7"/>
       <c r="Q371" s="7"/>
@@ -51904,32 +52105,28 @@
       <c r="S371" s="7"/>
       <c r="T371" s="7"/>
       <c r="U371" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="372" spans="1:21">
       <c r="A372" s="12">
-        <v>41388</v>
+        <v>41387</v>
       </c>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
-      <c r="G372" s="7">
-        <v>20</v>
-      </c>
+      <c r="G372" s="7"/>
       <c r="H372" s="7"/>
       <c r="I372" s="7"/>
       <c r="J372" s="7"/>
       <c r="K372" s="7"/>
       <c r="L372" s="7"/>
       <c r="M372" s="7"/>
-      <c r="N372" s="7">
-        <v>40</v>
-      </c>
+      <c r="N372" s="7"/>
       <c r="O372" s="7">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P372" s="7"/>
       <c r="Q372" s="7"/>
@@ -51937,41 +52134,45 @@
       <c r="S372" s="7"/>
       <c r="T372" s="7"/>
       <c r="U372" s="7">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="373" spans="1:21">
       <c r="A373" s="12">
-        <v>41390</v>
+        <v>41388</v>
       </c>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
-      <c r="G373" s="7"/>
+      <c r="G373" s="7">
+        <v>20</v>
+      </c>
       <c r="H373" s="7"/>
-      <c r="I373" s="7">
-        <v>120</v>
-      </c>
+      <c r="I373" s="7"/>
       <c r="J373" s="7"/>
       <c r="K373" s="7"/>
       <c r="L373" s="7"/>
       <c r="M373" s="7"/>
-      <c r="N373" s="7"/>
-      <c r="O373" s="7"/>
+      <c r="N373" s="7">
+        <v>40</v>
+      </c>
+      <c r="O373" s="7">
+        <v>11</v>
+      </c>
       <c r="P373" s="7"/>
       <c r="Q373" s="7"/>
       <c r="R373" s="7"/>
       <c r="S373" s="7"/>
       <c r="T373" s="7"/>
       <c r="U373" s="7">
-        <v>120</v>
+        <v>71</v>
       </c>
     </row>
     <row r="374" spans="1:21">
       <c r="A374" s="12">
-        <v>41397</v>
+        <v>41390</v>
       </c>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -51979,32 +52180,28 @@
       <c r="E374" s="7"/>
       <c r="F374" s="7"/>
       <c r="G374" s="7"/>
-      <c r="H374" s="7">
-        <v>50</v>
-      </c>
-      <c r="I374" s="7"/>
+      <c r="H374" s="7"/>
+      <c r="I374" s="7">
+        <v>120</v>
+      </c>
       <c r="J374" s="7"/>
       <c r="K374" s="7"/>
       <c r="L374" s="7"/>
       <c r="M374" s="7"/>
       <c r="N374" s="7"/>
-      <c r="O374" s="7">
-        <v>100</v>
-      </c>
+      <c r="O374" s="7"/>
       <c r="P374" s="7"/>
       <c r="Q374" s="7"/>
       <c r="R374" s="7"/>
-      <c r="S374" s="7">
-        <v>100</v>
-      </c>
+      <c r="S374" s="7"/>
       <c r="T374" s="7"/>
       <c r="U374" s="7">
-        <v>250</v>
+        <v>120</v>
       </c>
     </row>
     <row r="375" spans="1:21">
       <c r="A375" s="12">
-        <v>41401</v>
+        <v>41397</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -52012,28 +52209,32 @@
       <c r="E375" s="7"/>
       <c r="F375" s="7"/>
       <c r="G375" s="7"/>
-      <c r="H375" s="7"/>
+      <c r="H375" s="7">
+        <v>50</v>
+      </c>
       <c r="I375" s="7"/>
       <c r="J375" s="7"/>
       <c r="K375" s="7"/>
       <c r="L375" s="7"/>
       <c r="M375" s="7"/>
       <c r="N375" s="7"/>
-      <c r="O375" s="7"/>
+      <c r="O375" s="7">
+        <v>100</v>
+      </c>
       <c r="P375" s="7"/>
-      <c r="Q375" s="7">
+      <c r="Q375" s="7"/>
+      <c r="R375" s="7"/>
+      <c r="S375" s="7">
         <v>100</v>
       </c>
-      <c r="R375" s="7"/>
-      <c r="S375" s="7"/>
       <c r="T375" s="7"/>
       <c r="U375" s="7">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="376" spans="1:21">
       <c r="A376" s="12">
-        <v>41402</v>
+        <v>41401</v>
       </c>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -52045,26 +52246,24 @@
       <c r="I376" s="7"/>
       <c r="J376" s="7"/>
       <c r="K376" s="7"/>
-      <c r="L376" s="7">
-        <v>100</v>
-      </c>
+      <c r="L376" s="7"/>
       <c r="M376" s="7"/>
       <c r="N376" s="7"/>
       <c r="O376" s="7"/>
-      <c r="P376" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q376" s="7"/>
+      <c r="P376" s="7"/>
+      <c r="Q376" s="7">
+        <v>100</v>
+      </c>
       <c r="R376" s="7"/>
       <c r="S376" s="7"/>
       <c r="T376" s="7"/>
       <c r="U376" s="7">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="377" spans="1:21">
       <c r="A377" s="12">
-        <v>41403</v>
+        <v>41402</v>
       </c>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -52072,94 +52271,96 @@
       <c r="E377" s="7"/>
       <c r="F377" s="7"/>
       <c r="G377" s="7"/>
-      <c r="H377" s="7">
-        <v>100</v>
-      </c>
+      <c r="H377" s="7"/>
       <c r="I377" s="7"/>
       <c r="J377" s="7"/>
       <c r="K377" s="7"/>
-      <c r="L377" s="7"/>
-      <c r="M377" s="7">
+      <c r="L377" s="7">
         <v>100</v>
       </c>
+      <c r="M377" s="7"/>
       <c r="N377" s="7"/>
       <c r="O377" s="7"/>
-      <c r="P377" s="7"/>
+      <c r="P377" s="7">
+        <v>50</v>
+      </c>
       <c r="Q377" s="7"/>
       <c r="R377" s="7"/>
       <c r="S377" s="7"/>
-      <c r="T377" s="7">
-        <v>50</v>
-      </c>
+      <c r="T377" s="7"/>
       <c r="U377" s="7">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="378" spans="1:21">
       <c r="A378" s="12">
-        <v>41407</v>
+        <v>41403</v>
       </c>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
       <c r="F378" s="7"/>
-      <c r="G378" s="7">
+      <c r="G378" s="7"/>
+      <c r="H378" s="7">
         <v>100</v>
       </c>
-      <c r="H378" s="7"/>
       <c r="I378" s="7"/>
-      <c r="J378" s="7">
-        <v>100</v>
-      </c>
+      <c r="J378" s="7"/>
       <c r="K378" s="7"/>
       <c r="L378" s="7"/>
-      <c r="M378" s="7"/>
+      <c r="M378" s="7">
+        <v>100</v>
+      </c>
       <c r="N378" s="7"/>
-      <c r="O378" s="7">
-        <v>100</v>
-      </c>
+      <c r="O378" s="7"/>
       <c r="P378" s="7"/>
       <c r="Q378" s="7"/>
       <c r="R378" s="7"/>
       <c r="S378" s="7"/>
-      <c r="T378" s="7"/>
+      <c r="T378" s="7">
+        <v>50</v>
+      </c>
       <c r="U378" s="7">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="379" spans="1:21">
       <c r="A379" s="12">
-        <v>41410</v>
+        <v>41407</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
       <c r="F379" s="7"/>
-      <c r="G379" s="7"/>
+      <c r="G379" s="7">
+        <v>100</v>
+      </c>
       <c r="H379" s="7"/>
-      <c r="I379" s="7">
-        <v>200</v>
-      </c>
-      <c r="J379" s="7"/>
+      <c r="I379" s="7"/>
+      <c r="J379" s="7">
+        <v>100</v>
+      </c>
       <c r="K379" s="7"/>
       <c r="L379" s="7"/>
       <c r="M379" s="7"/>
       <c r="N379" s="7"/>
-      <c r="O379" s="7"/>
+      <c r="O379" s="7">
+        <v>100</v>
+      </c>
       <c r="P379" s="7"/>
       <c r="Q379" s="7"/>
       <c r="R379" s="7"/>
       <c r="S379" s="7"/>
       <c r="T379" s="7"/>
       <c r="U379" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="380" spans="1:21">
       <c r="A380" s="12">
-        <v>41411</v>
+        <v>41410</v>
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -52168,29 +52369,27 @@
       <c r="F380" s="7"/>
       <c r="G380" s="7"/>
       <c r="H380" s="7"/>
-      <c r="I380" s="7"/>
+      <c r="I380" s="7">
+        <v>200</v>
+      </c>
       <c r="J380" s="7"/>
       <c r="K380" s="7"/>
       <c r="L380" s="7"/>
       <c r="M380" s="7"/>
-      <c r="N380" s="7">
-        <v>300</v>
-      </c>
+      <c r="N380" s="7"/>
       <c r="O380" s="7"/>
-      <c r="P380" s="7">
-        <v>100</v>
-      </c>
+      <c r="P380" s="7"/>
       <c r="Q380" s="7"/>
       <c r="R380" s="7"/>
       <c r="S380" s="7"/>
       <c r="T380" s="7"/>
       <c r="U380" s="7">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="381" spans="1:21">
       <c r="A381" s="12">
-        <v>41414</v>
+        <v>41411</v>
       </c>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -52200,26 +52399,28 @@
       <c r="G381" s="7"/>
       <c r="H381" s="7"/>
       <c r="I381" s="7"/>
-      <c r="J381" s="7">
-        <v>100</v>
-      </c>
+      <c r="J381" s="7"/>
       <c r="K381" s="7"/>
       <c r="L381" s="7"/>
       <c r="M381" s="7"/>
-      <c r="N381" s="7"/>
+      <c r="N381" s="7">
+        <v>300</v>
+      </c>
       <c r="O381" s="7"/>
-      <c r="P381" s="7"/>
+      <c r="P381" s="7">
+        <v>100</v>
+      </c>
       <c r="Q381" s="7"/>
       <c r="R381" s="7"/>
       <c r="S381" s="7"/>
       <c r="T381" s="7"/>
       <c r="U381" s="7">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="382" spans="1:21">
       <c r="A382" s="12">
-        <v>41416</v>
+        <v>41414</v>
       </c>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -52229,26 +52430,26 @@
       <c r="G382" s="7"/>
       <c r="H382" s="7"/>
       <c r="I382" s="7"/>
-      <c r="J382" s="7"/>
+      <c r="J382" s="7">
+        <v>100</v>
+      </c>
       <c r="K382" s="7"/>
       <c r="L382" s="7"/>
       <c r="M382" s="7"/>
       <c r="N382" s="7"/>
-      <c r="O382" s="7">
-        <v>200</v>
-      </c>
+      <c r="O382" s="7"/>
       <c r="P382" s="7"/>
       <c r="Q382" s="7"/>
       <c r="R382" s="7"/>
       <c r="S382" s="7"/>
       <c r="T382" s="7"/>
       <c r="U382" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="383" spans="1:21">
       <c r="A383" s="12">
-        <v>41424</v>
+        <v>41416</v>
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
@@ -52257,27 +52458,27 @@
       <c r="F383" s="7"/>
       <c r="G383" s="7"/>
       <c r="H383" s="7"/>
-      <c r="I383" s="7">
-        <v>100</v>
-      </c>
+      <c r="I383" s="7"/>
       <c r="J383" s="7"/>
       <c r="K383" s="7"/>
       <c r="L383" s="7"/>
       <c r="M383" s="7"/>
       <c r="N383" s="7"/>
-      <c r="O383" s="7"/>
+      <c r="O383" s="7">
+        <v>200</v>
+      </c>
       <c r="P383" s="7"/>
       <c r="Q383" s="7"/>
       <c r="R383" s="7"/>
       <c r="S383" s="7"/>
       <c r="T383" s="7"/>
       <c r="U383" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="384" spans="1:21">
       <c r="A384" s="12">
-        <v>41429</v>
+        <v>41424</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -52286,16 +52487,16 @@
       <c r="F384" s="7"/>
       <c r="G384" s="7"/>
       <c r="H384" s="7"/>
-      <c r="I384" s="7"/>
+      <c r="I384" s="7">
+        <v>100</v>
+      </c>
       <c r="J384" s="7"/>
       <c r="K384" s="7"/>
       <c r="L384" s="7"/>
       <c r="M384" s="7"/>
       <c r="N384" s="7"/>
       <c r="O384" s="7"/>
-      <c r="P384" s="7">
-        <v>100</v>
-      </c>
+      <c r="P384" s="7"/>
       <c r="Q384" s="7"/>
       <c r="R384" s="7"/>
       <c r="S384" s="7"/>
@@ -52306,13 +52507,11 @@
     </row>
     <row r="385" spans="1:21">
       <c r="A385" s="12">
-        <v>41430</v>
+        <v>41429</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
-      <c r="D385" s="7">
-        <v>100</v>
-      </c>
+      <c r="D385" s="7"/>
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
       <c r="G385" s="7"/>
@@ -52324,7 +52523,9 @@
       <c r="M385" s="7"/>
       <c r="N385" s="7"/>
       <c r="O385" s="7"/>
-      <c r="P385" s="7"/>
+      <c r="P385" s="7">
+        <v>100</v>
+      </c>
       <c r="Q385" s="7"/>
       <c r="R385" s="7"/>
       <c r="S385" s="7"/>
@@ -52335,19 +52536,19 @@
     </row>
     <row r="386" spans="1:21">
       <c r="A386" s="12">
-        <v>41431</v>
+        <v>41430</v>
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
-      <c r="D386" s="7"/>
+      <c r="D386" s="7">
+        <v>100</v>
+      </c>
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
       <c r="G386" s="7"/>
       <c r="H386" s="7"/>
       <c r="I386" s="7"/>
-      <c r="J386" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="J386" s="7"/>
       <c r="K386" s="7"/>
       <c r="L386" s="7"/>
       <c r="M386" s="7"/>
@@ -52355,30 +52556,28 @@
       <c r="O386" s="7"/>
       <c r="P386" s="7"/>
       <c r="Q386" s="7"/>
-      <c r="R386" s="7">
-        <v>200</v>
-      </c>
+      <c r="R386" s="7"/>
       <c r="S386" s="7"/>
       <c r="T386" s="7"/>
       <c r="U386" s="7">
-        <v>280.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="387" spans="1:21">
       <c r="A387" s="12">
-        <v>41438</v>
+        <v>41431</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
-      <c r="G387" s="7">
-        <v>20</v>
-      </c>
+      <c r="G387" s="7"/>
       <c r="H387" s="7"/>
       <c r="I387" s="7"/>
-      <c r="J387" s="7"/>
+      <c r="J387" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K387" s="7"/>
       <c r="L387" s="7"/>
       <c r="M387" s="7"/>
@@ -52386,23 +52585,27 @@
       <c r="O387" s="7"/>
       <c r="P387" s="7"/>
       <c r="Q387" s="7"/>
-      <c r="R387" s="7"/>
+      <c r="R387" s="7">
+        <v>200</v>
+      </c>
       <c r="S387" s="7"/>
       <c r="T387" s="7"/>
       <c r="U387" s="7">
-        <v>20</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="388" spans="1:21">
       <c r="A388" s="12">
-        <v>41439</v>
+        <v>41438</v>
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
       <c r="F388" s="7"/>
-      <c r="G388" s="7"/>
+      <c r="G388" s="7">
+        <v>20</v>
+      </c>
       <c r="H388" s="7"/>
       <c r="I388" s="7"/>
       <c r="J388" s="7"/>
@@ -52415,22 +52618,18 @@
       <c r="Q388" s="7"/>
       <c r="R388" s="7"/>
       <c r="S388" s="7"/>
-      <c r="T388" s="7">
-        <v>100</v>
-      </c>
+      <c r="T388" s="7"/>
       <c r="U388" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="389" spans="1:21">
       <c r="A389" s="12">
-        <v>41443</v>
+        <v>41439</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
-      <c r="D389" s="7">
-        <v>100</v>
-      </c>
+      <c r="D389" s="7"/>
       <c r="E389" s="7"/>
       <c r="F389" s="7"/>
       <c r="G389" s="7"/>
@@ -52446,18 +52645,22 @@
       <c r="Q389" s="7"/>
       <c r="R389" s="7"/>
       <c r="S389" s="7"/>
-      <c r="T389" s="7"/>
+      <c r="T389" s="7">
+        <v>100</v>
+      </c>
       <c r="U389" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="390" spans="1:21">
       <c r="A390" s="12">
-        <v>41444</v>
+        <v>41443</v>
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
-      <c r="D390" s="7"/>
+      <c r="D390" s="7">
+        <v>100</v>
+      </c>
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
       <c r="G390" s="7"/>
@@ -52467,9 +52670,7 @@
       <c r="K390" s="7"/>
       <c r="L390" s="7"/>
       <c r="M390" s="7"/>
-      <c r="N390" s="7">
-        <v>200</v>
-      </c>
+      <c r="N390" s="7"/>
       <c r="O390" s="7"/>
       <c r="P390" s="7"/>
       <c r="Q390" s="7"/>
@@ -52477,12 +52678,12 @@
       <c r="S390" s="7"/>
       <c r="T390" s="7"/>
       <c r="U390" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="391" spans="1:21">
       <c r="A391" s="12">
-        <v>41450</v>
+        <v>41444</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -52496,24 +52697,22 @@
       <c r="K391" s="7"/>
       <c r="L391" s="7"/>
       <c r="M391" s="7"/>
-      <c r="N391" s="7"/>
-      <c r="O391" s="7">
-        <v>140</v>
-      </c>
-      <c r="P391" s="7">
-        <v>100</v>
-      </c>
+      <c r="N391" s="7">
+        <v>200</v>
+      </c>
+      <c r="O391" s="7"/>
+      <c r="P391" s="7"/>
       <c r="Q391" s="7"/>
       <c r="R391" s="7"/>
       <c r="S391" s="7"/>
       <c r="T391" s="7"/>
       <c r="U391" s="7">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="392" spans="1:21">
       <c r="A392" s="12">
-        <v>41451</v>
+        <v>41450</v>
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -52523,30 +52722,28 @@
       <c r="G392" s="7"/>
       <c r="H392" s="7"/>
       <c r="I392" s="7"/>
-      <c r="J392" s="7">
-        <v>100</v>
-      </c>
+      <c r="J392" s="7"/>
       <c r="K392" s="7"/>
-      <c r="L392" s="7">
-        <v>100</v>
-      </c>
+      <c r="L392" s="7"/>
       <c r="M392" s="7"/>
       <c r="N392" s="7"/>
       <c r="O392" s="7">
-        <v>200</v>
-      </c>
-      <c r="P392" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="P392" s="7">
+        <v>100</v>
+      </c>
       <c r="Q392" s="7"/>
       <c r="R392" s="7"/>
       <c r="S392" s="7"/>
       <c r="T392" s="7"/>
       <c r="U392" s="7">
-        <v>400</v>
+        <v>240</v>
       </c>
     </row>
     <row r="393" spans="1:21">
       <c r="A393" s="12">
-        <v>41453</v>
+        <v>41451</v>
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -52555,27 +52752,31 @@
       <c r="F393" s="7"/>
       <c r="G393" s="7"/>
       <c r="H393" s="7"/>
-      <c r="I393" s="7">
-        <v>200</v>
-      </c>
-      <c r="J393" s="7"/>
+      <c r="I393" s="7"/>
+      <c r="J393" s="7">
+        <v>100</v>
+      </c>
       <c r="K393" s="7"/>
-      <c r="L393" s="7"/>
+      <c r="L393" s="7">
+        <v>100</v>
+      </c>
       <c r="M393" s="7"/>
       <c r="N393" s="7"/>
-      <c r="O393" s="7"/>
+      <c r="O393" s="7">
+        <v>200</v>
+      </c>
       <c r="P393" s="7"/>
       <c r="Q393" s="7"/>
       <c r="R393" s="7"/>
       <c r="S393" s="7"/>
       <c r="T393" s="7"/>
       <c r="U393" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="394" spans="1:21">
       <c r="A394" s="12">
-        <v>41463</v>
+        <v>41453</v>
       </c>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -52584,13 +52785,13 @@
       <c r="F394" s="7"/>
       <c r="G394" s="7"/>
       <c r="H394" s="7"/>
-      <c r="I394" s="7"/>
+      <c r="I394" s="7">
+        <v>200</v>
+      </c>
       <c r="J394" s="7"/>
       <c r="K394" s="7"/>
       <c r="L394" s="7"/>
-      <c r="M394" s="7">
-        <v>20</v>
-      </c>
+      <c r="M394" s="7"/>
       <c r="N394" s="7"/>
       <c r="O394" s="7"/>
       <c r="P394" s="7"/>
@@ -52599,12 +52800,12 @@
       <c r="S394" s="7"/>
       <c r="T394" s="7"/>
       <c r="U394" s="7">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="395" spans="1:21">
       <c r="A395" s="12">
-        <v>41464</v>
+        <v>41463</v>
       </c>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -52617,27 +52818,25 @@
       <c r="J395" s="7"/>
       <c r="K395" s="7"/>
       <c r="L395" s="7"/>
-      <c r="M395" s="7"/>
+      <c r="M395" s="7">
+        <v>20</v>
+      </c>
       <c r="N395" s="7"/>
       <c r="O395" s="7"/>
       <c r="P395" s="7"/>
-      <c r="Q395" s="7">
-        <v>100</v>
-      </c>
+      <c r="Q395" s="7"/>
       <c r="R395" s="7"/>
       <c r="S395" s="7"/>
       <c r="T395" s="7"/>
       <c r="U395" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="396" spans="1:21">
       <c r="A396" s="12">
-        <v>41465</v>
-      </c>
-      <c r="B396" s="7">
-        <v>50</v>
-      </c>
+        <v>41464</v>
+      </c>
+      <c r="B396" s="7"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -52652,19 +52851,23 @@
       <c r="N396" s="7"/>
       <c r="O396" s="7"/>
       <c r="P396" s="7"/>
-      <c r="Q396" s="7"/>
+      <c r="Q396" s="7">
+        <v>100</v>
+      </c>
       <c r="R396" s="7"/>
       <c r="S396" s="7"/>
       <c r="T396" s="7"/>
       <c r="U396" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="397" spans="1:21">
       <c r="A397" s="12">
-        <v>41466</v>
-      </c>
-      <c r="B397" s="7"/>
+        <v>41465</v>
+      </c>
+      <c r="B397" s="7">
+        <v>50</v>
+      </c>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -52672,9 +52875,7 @@
       <c r="G397" s="7"/>
       <c r="H397" s="7"/>
       <c r="I397" s="7"/>
-      <c r="J397" s="7">
-        <v>100</v>
-      </c>
+      <c r="J397" s="7"/>
       <c r="K397" s="7"/>
       <c r="L397" s="7"/>
       <c r="M397" s="7"/>
@@ -52686,12 +52887,12 @@
       <c r="S397" s="7"/>
       <c r="T397" s="7"/>
       <c r="U397" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="398" spans="1:21">
       <c r="A398" s="12">
-        <v>41467</v>
+        <v>41466</v>
       </c>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -52701,7 +52902,9 @@
       <c r="G398" s="7"/>
       <c r="H398" s="7"/>
       <c r="I398" s="7"/>
-      <c r="J398" s="7"/>
+      <c r="J398" s="7">
+        <v>100</v>
+      </c>
       <c r="K398" s="7"/>
       <c r="L398" s="7"/>
       <c r="M398" s="7"/>
@@ -52711,16 +52914,14 @@
       <c r="Q398" s="7"/>
       <c r="R398" s="7"/>
       <c r="S398" s="7"/>
-      <c r="T398" s="7">
-        <v>100</v>
-      </c>
+      <c r="T398" s="7"/>
       <c r="U398" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="399" spans="1:21">
       <c r="A399" s="12">
-        <v>41472</v>
+        <v>41467</v>
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -52732,9 +52933,7 @@
       <c r="I399" s="7"/>
       <c r="J399" s="7"/>
       <c r="K399" s="7"/>
-      <c r="L399" s="7">
-        <v>100</v>
-      </c>
+      <c r="L399" s="7"/>
       <c r="M399" s="7"/>
       <c r="N399" s="7"/>
       <c r="O399" s="7"/>
@@ -52742,59 +52941,57 @@
       <c r="Q399" s="7"/>
       <c r="R399" s="7"/>
       <c r="S399" s="7"/>
-      <c r="T399" s="7"/>
+      <c r="T399" s="7">
+        <v>100</v>
+      </c>
       <c r="U399" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="400" spans="1:21">
       <c r="A400" s="12">
-        <v>41474</v>
-      </c>
-      <c r="B400" s="7">
-        <v>76.5</v>
-      </c>
+        <v>41472</v>
+      </c>
+      <c r="B400" s="7"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
       <c r="F400" s="7"/>
       <c r="G400" s="7"/>
-      <c r="H400" s="7">
-        <v>50</v>
-      </c>
+      <c r="H400" s="7"/>
       <c r="I400" s="7"/>
       <c r="J400" s="7"/>
       <c r="K400" s="7"/>
-      <c r="L400" s="7"/>
+      <c r="L400" s="7">
+        <v>100</v>
+      </c>
       <c r="M400" s="7"/>
       <c r="N400" s="7"/>
       <c r="O400" s="7"/>
       <c r="P400" s="7"/>
-      <c r="Q400" s="7">
-        <v>200</v>
-      </c>
-      <c r="R400" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q400" s="7"/>
+      <c r="R400" s="7"/>
       <c r="S400" s="7"/>
       <c r="T400" s="7"/>
       <c r="U400" s="7">
-        <v>526.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="401" spans="1:21">
       <c r="A401" s="12">
-        <v>41479</v>
-      </c>
-      <c r="B401" s="7"/>
+        <v>41474</v>
+      </c>
+      <c r="B401" s="7">
+        <v>76.5</v>
+      </c>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
       <c r="F401" s="7"/>
-      <c r="G401" s="7">
-        <v>100</v>
-      </c>
-      <c r="H401" s="7"/>
+      <c r="G401" s="7"/>
+      <c r="H401" s="7">
+        <v>50</v>
+      </c>
       <c r="I401" s="7"/>
       <c r="J401" s="7"/>
       <c r="K401" s="7"/>
@@ -52803,33 +53000,37 @@
       <c r="N401" s="7"/>
       <c r="O401" s="7"/>
       <c r="P401" s="7"/>
-      <c r="Q401" s="7"/>
-      <c r="R401" s="7"/>
+      <c r="Q401" s="7">
+        <v>200</v>
+      </c>
+      <c r="R401" s="7">
+        <v>200</v>
+      </c>
       <c r="S401" s="7"/>
       <c r="T401" s="7"/>
       <c r="U401" s="7">
-        <v>100</v>
+        <v>526.5</v>
       </c>
     </row>
     <row r="402" spans="1:21">
       <c r="A402" s="12">
-        <v>41480</v>
+        <v>41479</v>
       </c>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
       <c r="F402" s="7"/>
-      <c r="G402" s="7"/>
+      <c r="G402" s="7">
+        <v>100</v>
+      </c>
       <c r="H402" s="7"/>
       <c r="I402" s="7"/>
       <c r="J402" s="7"/>
       <c r="K402" s="7"/>
       <c r="L402" s="7"/>
       <c r="M402" s="7"/>
-      <c r="N402" s="7">
-        <v>200</v>
-      </c>
+      <c r="N402" s="7"/>
       <c r="O402" s="7"/>
       <c r="P402" s="7"/>
       <c r="Q402" s="7"/>
@@ -52837,12 +53038,12 @@
       <c r="S402" s="7"/>
       <c r="T402" s="7"/>
       <c r="U402" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="403" spans="1:21">
       <c r="A403" s="12">
-        <v>41481</v>
+        <v>41480</v>
       </c>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -52854,11 +53055,11 @@
       <c r="I403" s="7"/>
       <c r="J403" s="7"/>
       <c r="K403" s="7"/>
-      <c r="L403" s="7">
-        <v>100</v>
-      </c>
+      <c r="L403" s="7"/>
       <c r="M403" s="7"/>
-      <c r="N403" s="7"/>
+      <c r="N403" s="7">
+        <v>200</v>
+      </c>
       <c r="O403" s="7"/>
       <c r="P403" s="7"/>
       <c r="Q403" s="7"/>
@@ -52866,12 +53067,12 @@
       <c r="S403" s="7"/>
       <c r="T403" s="7"/>
       <c r="U403" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="404" spans="1:21">
       <c r="A404" s="12">
-        <v>41482</v>
+        <v>41481</v>
       </c>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -52881,11 +53082,11 @@
       <c r="G404" s="7"/>
       <c r="H404" s="7"/>
       <c r="I404" s="7"/>
-      <c r="J404" s="7">
+      <c r="J404" s="7"/>
+      <c r="K404" s="7"/>
+      <c r="L404" s="7">
         <v>100</v>
       </c>
-      <c r="K404" s="7"/>
-      <c r="L404" s="7"/>
       <c r="M404" s="7"/>
       <c r="N404" s="7"/>
       <c r="O404" s="7"/>
@@ -52900,7 +53101,7 @@
     </row>
     <row r="405" spans="1:21">
       <c r="A405" s="12">
-        <v>41488</v>
+        <v>41482</v>
       </c>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -52910,11 +53111,11 @@
       <c r="G405" s="7"/>
       <c r="H405" s="7"/>
       <c r="I405" s="7"/>
-      <c r="J405" s="7"/>
+      <c r="J405" s="7">
+        <v>100</v>
+      </c>
       <c r="K405" s="7"/>
-      <c r="L405" s="7">
-        <v>300</v>
-      </c>
+      <c r="L405" s="7"/>
       <c r="M405" s="7"/>
       <c r="N405" s="7"/>
       <c r="O405" s="7"/>
@@ -52924,16 +53125,14 @@
       <c r="S405" s="7"/>
       <c r="T405" s="7"/>
       <c r="U405" s="7">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="406" spans="1:21">
       <c r="A406" s="12">
-        <v>41495</v>
-      </c>
-      <c r="B406" s="7">
-        <v>100</v>
-      </c>
+        <v>41488</v>
+      </c>
+      <c r="B406" s="7"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -52941,57 +53140,59 @@
       <c r="G406" s="7"/>
       <c r="H406" s="7"/>
       <c r="I406" s="7"/>
-      <c r="J406" s="7">
-        <v>100</v>
-      </c>
+      <c r="J406" s="7"/>
       <c r="K406" s="7"/>
-      <c r="L406" s="7"/>
+      <c r="L406" s="7">
+        <v>300</v>
+      </c>
       <c r="M406" s="7"/>
       <c r="N406" s="7"/>
-      <c r="O406" s="7">
-        <v>300</v>
-      </c>
+      <c r="O406" s="7"/>
       <c r="P406" s="7"/>
       <c r="Q406" s="7"/>
       <c r="R406" s="7"/>
       <c r="S406" s="7"/>
       <c r="T406" s="7"/>
       <c r="U406" s="7">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="407" spans="1:21">
       <c r="A407" s="12">
-        <v>41502</v>
-      </c>
-      <c r="B407" s="7"/>
+        <v>41495</v>
+      </c>
+      <c r="B407" s="7">
+        <v>100</v>
+      </c>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
       <c r="F407" s="7"/>
       <c r="G407" s="7"/>
       <c r="H407" s="7"/>
-      <c r="I407" s="7">
-        <v>200</v>
-      </c>
-      <c r="J407" s="7"/>
+      <c r="I407" s="7"/>
+      <c r="J407" s="7">
+        <v>100</v>
+      </c>
       <c r="K407" s="7"/>
       <c r="L407" s="7"/>
       <c r="M407" s="7"/>
       <c r="N407" s="7"/>
-      <c r="O407" s="7"/>
+      <c r="O407" s="7">
+        <v>300</v>
+      </c>
       <c r="P407" s="7"/>
       <c r="Q407" s="7"/>
       <c r="R407" s="7"/>
       <c r="S407" s="7"/>
       <c r="T407" s="7"/>
       <c r="U407" s="7">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="408" spans="1:21">
       <c r="A408" s="12">
-        <v>41514</v>
+        <v>41502</v>
       </c>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -53000,10 +53201,10 @@
       <c r="F408" s="7"/>
       <c r="G408" s="7"/>
       <c r="H408" s="7"/>
-      <c r="I408" s="7"/>
-      <c r="J408" s="7">
-        <v>100</v>
-      </c>
+      <c r="I408" s="7">
+        <v>200</v>
+      </c>
+      <c r="J408" s="7"/>
       <c r="K408" s="7"/>
       <c r="L408" s="7"/>
       <c r="M408" s="7"/>
@@ -53015,12 +53216,12 @@
       <c r="S408" s="7"/>
       <c r="T408" s="7"/>
       <c r="U408" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="409" spans="1:21">
       <c r="A409" s="12">
-        <v>41526</v>
+        <v>41514</v>
       </c>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -53030,26 +53231,26 @@
       <c r="G409" s="7"/>
       <c r="H409" s="7"/>
       <c r="I409" s="7"/>
-      <c r="J409" s="7"/>
+      <c r="J409" s="7">
+        <v>100</v>
+      </c>
       <c r="K409" s="7"/>
       <c r="L409" s="7"/>
       <c r="M409" s="7"/>
       <c r="N409" s="7"/>
       <c r="O409" s="7"/>
       <c r="P409" s="7"/>
-      <c r="Q409" s="7">
-        <v>400</v>
-      </c>
+      <c r="Q409" s="7"/>
       <c r="R409" s="7"/>
       <c r="S409" s="7"/>
       <c r="T409" s="7"/>
       <c r="U409" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="410" spans="1:21">
       <c r="A410" s="12">
-        <v>41528</v>
+        <v>41526</v>
       </c>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -53066,23 +53267,21 @@
       <c r="N410" s="7"/>
       <c r="O410" s="7"/>
       <c r="P410" s="7"/>
-      <c r="Q410" s="7"/>
-      <c r="R410" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q410" s="7">
+        <v>400</v>
+      </c>
+      <c r="R410" s="7"/>
       <c r="S410" s="7"/>
       <c r="T410" s="7"/>
       <c r="U410" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="411" spans="1:21">
       <c r="A411" s="12">
-        <v>41533</v>
-      </c>
-      <c r="B411" s="7">
-        <v>200</v>
-      </c>
+        <v>41528</v>
+      </c>
+      <c r="B411" s="7"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -53096,22 +53295,24 @@
       <c r="M411" s="7"/>
       <c r="N411" s="7"/>
       <c r="O411" s="7"/>
-      <c r="P411" s="7">
-        <v>100</v>
-      </c>
+      <c r="P411" s="7"/>
       <c r="Q411" s="7"/>
-      <c r="R411" s="7"/>
+      <c r="R411" s="7">
+        <v>200</v>
+      </c>
       <c r="S411" s="7"/>
       <c r="T411" s="7"/>
       <c r="U411" s="7">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="412" spans="1:21">
       <c r="A412" s="12">
-        <v>41537</v>
-      </c>
-      <c r="B412" s="7"/>
+        <v>41533</v>
+      </c>
+      <c r="B412" s="7">
+        <v>200</v>
+      </c>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -53119,26 +53320,26 @@
       <c r="G412" s="7"/>
       <c r="H412" s="7"/>
       <c r="I412" s="7"/>
-      <c r="J412" s="7">
-        <v>77</v>
-      </c>
+      <c r="J412" s="7"/>
       <c r="K412" s="7"/>
       <c r="L412" s="7"/>
       <c r="M412" s="7"/>
       <c r="N412" s="7"/>
       <c r="O412" s="7"/>
-      <c r="P412" s="7"/>
+      <c r="P412" s="7">
+        <v>100</v>
+      </c>
       <c r="Q412" s="7"/>
       <c r="R412" s="7"/>
       <c r="S412" s="7"/>
       <c r="T412" s="7"/>
       <c r="U412" s="7">
-        <v>77</v>
+        <v>300</v>
       </c>
     </row>
     <row r="413" spans="1:21">
       <c r="A413" s="12">
-        <v>41547</v>
+        <v>41537</v>
       </c>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -53148,13 +53349,13 @@
       <c r="G413" s="7"/>
       <c r="H413" s="7"/>
       <c r="I413" s="7"/>
-      <c r="J413" s="7"/>
+      <c r="J413" s="7">
+        <v>77</v>
+      </c>
       <c r="K413" s="7"/>
       <c r="L413" s="7"/>
       <c r="M413" s="7"/>
-      <c r="N413" s="7">
-        <v>80</v>
-      </c>
+      <c r="N413" s="7"/>
       <c r="O413" s="7"/>
       <c r="P413" s="7"/>
       <c r="Q413" s="7"/>
@@ -53162,12 +53363,12 @@
       <c r="S413" s="7"/>
       <c r="T413" s="7"/>
       <c r="U413" s="7">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="414" spans="1:21">
       <c r="A414" s="12">
-        <v>41559</v>
+        <v>41547</v>
       </c>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -53177,13 +53378,13 @@
       <c r="G414" s="7"/>
       <c r="H414" s="7"/>
       <c r="I414" s="7"/>
-      <c r="J414" s="7">
-        <v>161</v>
-      </c>
+      <c r="J414" s="7"/>
       <c r="K414" s="7"/>
       <c r="L414" s="7"/>
       <c r="M414" s="7"/>
-      <c r="N414" s="7"/>
+      <c r="N414" s="7">
+        <v>80</v>
+      </c>
       <c r="O414" s="7"/>
       <c r="P414" s="7"/>
       <c r="Q414" s="7"/>
@@ -53191,12 +53392,12 @@
       <c r="S414" s="7"/>
       <c r="T414" s="7"/>
       <c r="U414" s="7">
-        <v>161</v>
+        <v>80</v>
       </c>
     </row>
     <row r="415" spans="1:21">
       <c r="A415" s="12">
-        <v>41565</v>
+        <v>41559</v>
       </c>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -53205,35 +53406,27 @@
       <c r="F415" s="7"/>
       <c r="G415" s="7"/>
       <c r="H415" s="7"/>
-      <c r="I415" s="7">
-        <v>150</v>
-      </c>
-      <c r="J415" s="7"/>
+      <c r="I415" s="7"/>
+      <c r="J415" s="7">
+        <v>161</v>
+      </c>
       <c r="K415" s="7"/>
-      <c r="L415" s="7">
-        <v>200</v>
-      </c>
+      <c r="L415" s="7"/>
       <c r="M415" s="7"/>
       <c r="N415" s="7"/>
       <c r="O415" s="7"/>
-      <c r="P415" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q415" s="7">
-        <v>100</v>
-      </c>
-      <c r="R415" s="7">
-        <v>200</v>
-      </c>
+      <c r="P415" s="7"/>
+      <c r="Q415" s="7"/>
+      <c r="R415" s="7"/>
       <c r="S415" s="7"/>
       <c r="T415" s="7"/>
       <c r="U415" s="7">
-        <v>750</v>
+        <v>161</v>
       </c>
     </row>
     <row r="416" spans="1:21">
       <c r="A416" s="12">
-        <v>41575</v>
+        <v>41565</v>
       </c>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -53242,27 +53435,35 @@
       <c r="F416" s="7"/>
       <c r="G416" s="7"/>
       <c r="H416" s="7"/>
-      <c r="I416" s="7"/>
-      <c r="J416" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="I416" s="7">
+        <v>150</v>
+      </c>
+      <c r="J416" s="7"/>
       <c r="K416" s="7"/>
-      <c r="L416" s="7"/>
+      <c r="L416" s="7">
+        <v>200</v>
+      </c>
       <c r="M416" s="7"/>
       <c r="N416" s="7"/>
       <c r="O416" s="7"/>
-      <c r="P416" s="7"/>
-      <c r="Q416" s="7"/>
-      <c r="R416" s="7"/>
+      <c r="P416" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q416" s="7">
+        <v>100</v>
+      </c>
+      <c r="R416" s="7">
+        <v>200</v>
+      </c>
       <c r="S416" s="7"/>
       <c r="T416" s="7"/>
       <c r="U416" s="7">
-        <v>80.5</v>
+        <v>750</v>
       </c>
     </row>
     <row r="417" spans="1:21">
       <c r="A417" s="12">
-        <v>41579</v>
+        <v>41575</v>
       </c>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -53291,11 +53492,9 @@
     </row>
     <row r="418" spans="1:21">
       <c r="A418" s="12">
-        <v>41590</v>
-      </c>
-      <c r="B418" s="7">
-        <v>100</v>
-      </c>
+        <v>41579</v>
+      </c>
+      <c r="B418" s="7"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -53303,7 +53502,9 @@
       <c r="G418" s="7"/>
       <c r="H418" s="7"/>
       <c r="I418" s="7"/>
-      <c r="J418" s="7"/>
+      <c r="J418" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K418" s="7"/>
       <c r="L418" s="7"/>
       <c r="M418" s="7"/>
@@ -53311,18 +53512,16 @@
       <c r="O418" s="7"/>
       <c r="P418" s="7"/>
       <c r="Q418" s="7"/>
-      <c r="R418" s="7">
-        <v>150</v>
-      </c>
+      <c r="R418" s="7"/>
       <c r="S418" s="7"/>
       <c r="T418" s="7"/>
       <c r="U418" s="7">
-        <v>250</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="419" spans="1:21">
       <c r="A419" s="12">
-        <v>41597</v>
+        <v>41590</v>
       </c>
       <c r="B419" s="7">
         <v>100</v>
@@ -53342,19 +53541,21 @@
       <c r="O419" s="7"/>
       <c r="P419" s="7"/>
       <c r="Q419" s="7"/>
-      <c r="R419" s="7"/>
+      <c r="R419" s="7">
+        <v>150</v>
+      </c>
       <c r="S419" s="7"/>
       <c r="T419" s="7"/>
       <c r="U419" s="7">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="420" spans="1:21">
       <c r="A420" s="12">
-        <v>41599</v>
+        <v>41597</v>
       </c>
       <c r="B420" s="7">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
@@ -53375,14 +53576,16 @@
       <c r="S420" s="7"/>
       <c r="T420" s="7"/>
       <c r="U420" s="7">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="421" spans="1:21">
       <c r="A421" s="12">
-        <v>41600</v>
-      </c>
-      <c r="B421" s="7"/>
+        <v>41599</v>
+      </c>
+      <c r="B421" s="7">
+        <v>7</v>
+      </c>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -53390,36 +53593,26 @@
       <c r="G421" s="7"/>
       <c r="H421" s="7"/>
       <c r="I421" s="7"/>
-      <c r="J421" s="7">
-        <v>200</v>
-      </c>
+      <c r="J421" s="7"/>
       <c r="K421" s="7"/>
-      <c r="L421" s="7">
-        <v>200</v>
-      </c>
+      <c r="L421" s="7"/>
       <c r="M421" s="7"/>
-      <c r="N421" s="7">
-        <v>100</v>
-      </c>
+      <c r="N421" s="7"/>
       <c r="O421" s="7"/>
-      <c r="P421" s="7">
-        <v>150</v>
-      </c>
+      <c r="P421" s="7"/>
       <c r="Q421" s="7"/>
       <c r="R421" s="7"/>
       <c r="S421" s="7"/>
       <c r="T421" s="7"/>
       <c r="U421" s="7">
-        <v>650</v>
+        <v>7</v>
       </c>
     </row>
     <row r="422" spans="1:21">
       <c r="A422" s="12">
-        <v>41603</v>
-      </c>
-      <c r="B422" s="7">
-        <v>100</v>
-      </c>
+        <v>41600</v>
+      </c>
+      <c r="B422" s="7"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -53427,26 +53620,36 @@
       <c r="G422" s="7"/>
       <c r="H422" s="7"/>
       <c r="I422" s="7"/>
-      <c r="J422" s="7"/>
+      <c r="J422" s="7">
+        <v>200</v>
+      </c>
       <c r="K422" s="7"/>
-      <c r="L422" s="7"/>
+      <c r="L422" s="7">
+        <v>200</v>
+      </c>
       <c r="M422" s="7"/>
-      <c r="N422" s="7"/>
+      <c r="N422" s="7">
+        <v>100</v>
+      </c>
       <c r="O422" s="7"/>
-      <c r="P422" s="7"/>
+      <c r="P422" s="7">
+        <v>150</v>
+      </c>
       <c r="Q422" s="7"/>
       <c r="R422" s="7"/>
       <c r="S422" s="7"/>
       <c r="T422" s="7"/>
       <c r="U422" s="7">
-        <v>100</v>
+        <v>650</v>
       </c>
     </row>
     <row r="423" spans="1:21">
       <c r="A423" s="12">
-        <v>41605</v>
-      </c>
-      <c r="B423" s="7"/>
+        <v>41603</v>
+      </c>
+      <c r="B423" s="7">
+        <v>100</v>
+      </c>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -53461,79 +53664,164 @@
       <c r="N423" s="7"/>
       <c r="O423" s="7"/>
       <c r="P423" s="7"/>
-      <c r="Q423" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q423" s="7"/>
       <c r="R423" s="7"/>
       <c r="S423" s="7"/>
       <c r="T423" s="7"/>
       <c r="U423" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="424" spans="1:21">
+      <c r="A424" s="12">
+        <v>41605</v>
+      </c>
+      <c r="B424" s="7"/>
+      <c r="C424" s="7"/>
+      <c r="D424" s="7"/>
+      <c r="E424" s="7"/>
+      <c r="F424" s="7"/>
+      <c r="G424" s="7"/>
+      <c r="H424" s="7"/>
+      <c r="I424" s="7"/>
+      <c r="J424" s="7"/>
+      <c r="K424" s="7"/>
+      <c r="L424" s="7"/>
+      <c r="M424" s="7"/>
+      <c r="N424" s="7"/>
+      <c r="O424" s="7"/>
+      <c r="P424" s="7"/>
+      <c r="Q424" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="424" spans="1:21">
-      <c r="A424" s="6" t="s">
+      <c r="R424" s="7"/>
+      <c r="S424" s="7"/>
+      <c r="T424" s="7"/>
+      <c r="U424" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="425" spans="1:21">
+      <c r="A425" s="12">
+        <v>41610</v>
+      </c>
+      <c r="B425" s="7"/>
+      <c r="C425" s="7"/>
+      <c r="D425" s="7"/>
+      <c r="E425" s="7"/>
+      <c r="F425" s="7"/>
+      <c r="G425" s="7"/>
+      <c r="H425" s="7"/>
+      <c r="I425" s="7"/>
+      <c r="J425" s="7"/>
+      <c r="K425" s="7"/>
+      <c r="L425" s="7"/>
+      <c r="M425" s="7"/>
+      <c r="N425" s="7"/>
+      <c r="O425" s="7">
+        <v>100</v>
+      </c>
+      <c r="P425" s="7"/>
+      <c r="Q425" s="7"/>
+      <c r="R425" s="7"/>
+      <c r="S425" s="7"/>
+      <c r="T425" s="7"/>
+      <c r="U425" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="426" spans="1:21">
+      <c r="A426" s="12">
+        <v>41611</v>
+      </c>
+      <c r="B426" s="7"/>
+      <c r="C426" s="7"/>
+      <c r="D426" s="7"/>
+      <c r="E426" s="7"/>
+      <c r="F426" s="7"/>
+      <c r="G426" s="7"/>
+      <c r="H426" s="7"/>
+      <c r="I426" s="7"/>
+      <c r="J426" s="7"/>
+      <c r="K426" s="7"/>
+      <c r="L426" s="7"/>
+      <c r="M426" s="7"/>
+      <c r="N426" s="7">
+        <v>150</v>
+      </c>
+      <c r="O426" s="7"/>
+      <c r="P426" s="7"/>
+      <c r="Q426" s="7"/>
+      <c r="R426" s="7"/>
+      <c r="S426" s="7"/>
+      <c r="T426" s="7"/>
+      <c r="U426" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="427" spans="1:21">
+      <c r="A427" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B424" s="7">
+      <c r="B427" s="7">
         <v>-70.899999999999977</v>
       </c>
-      <c r="C424" s="7">
+      <c r="C427" s="7">
         <v>56</v>
       </c>
-      <c r="D424" s="7">
+      <c r="D427" s="7">
         <v>15.899999999999977</v>
       </c>
-      <c r="E424" s="7">
+      <c r="E427" s="7">
         <v>14</v>
       </c>
-      <c r="F424" s="7">
+      <c r="F427" s="7">
         <v>-8</v>
       </c>
-      <c r="G424" s="7">
+      <c r="G427" s="7">
         <v>-13.699999999999591</v>
       </c>
-      <c r="H424" s="7">
+      <c r="H427" s="7">
         <v>-34.099999999999909</v>
       </c>
-      <c r="I424" s="7">
+      <c r="I427" s="7">
         <v>8.9999999999995453</v>
       </c>
-      <c r="J424" s="7">
+      <c r="J427" s="7">
         <v>56.999999999997726</v>
       </c>
-      <c r="K424" s="7">
+      <c r="K427" s="7">
         <v>9.3000000000000114</v>
       </c>
-      <c r="L424" s="7">
+      <c r="L427" s="7">
         <v>-22.099999999999227</v>
       </c>
-      <c r="M424" s="7">
+      <c r="M427" s="7">
         <v>43.400000000000006</v>
       </c>
-      <c r="N424" s="7">
-        <v>-110.49999999999909</v>
-      </c>
-      <c r="O424" s="7">
-        <v>-96.29999999999859</v>
-      </c>
-      <c r="P424" s="7">
+      <c r="N427" s="7">
+        <v>39.500000000000909</v>
+      </c>
+      <c r="O427" s="7">
+        <v>3.7000000000014097</v>
+      </c>
+      <c r="P427" s="7">
         <v>55.899999999999977</v>
       </c>
-      <c r="Q424" s="7">
+      <c r="Q427" s="7">
         <v>-43.199999999999591</v>
       </c>
-      <c r="R424" s="7">
+      <c r="R427" s="7">
         <v>-93.899999999999636</v>
       </c>
-      <c r="S424" s="7">
+      <c r="S427" s="7">
         <v>0</v>
       </c>
-      <c r="T424" s="7">
+      <c r="T427" s="7">
         <v>39.400000000000006</v>
       </c>
-      <c r="U424" s="7">
-        <v>-192.79999999998654</v>
+      <c r="U427" s="7">
+        <v>57.200000000013461</v>
       </c>
     </row>
   </sheetData>
@@ -53547,7 +53835,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -53671,7 +53959,7 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3125.4000000000005</v>
+        <v>-3125.400000000001</v>
       </c>
       <c r="K3" s="7">
         <v>-220.7</v>
@@ -53745,10 +54033,10 @@
         <v>220</v>
       </c>
       <c r="N4" s="7">
-        <v>1320</v>
+        <v>1470</v>
       </c>
       <c r="O4" s="7">
-        <v>1579</v>
+        <v>1679</v>
       </c>
       <c r="P4" s="7">
         <v>943</v>
@@ -53763,7 +54051,7 @@
         <v>250</v>
       </c>
       <c r="T4" s="7">
-        <v>17748.400000000001</v>
+        <v>17998.400000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -53795,7 +54083,7 @@
         <v>8.9999999999995453</v>
       </c>
       <c r="J5" s="8">
-        <v>56.999999999999545</v>
+        <v>56.999999999999091</v>
       </c>
       <c r="K5" s="8">
         <v>9.3000000000000114</v>
@@ -53807,10 +54095,10 @@
         <v>43.400000000000006</v>
       </c>
       <c r="N5" s="8">
-        <v>-110.49999999999909</v>
+        <v>39.500000000000909</v>
       </c>
       <c r="O5" s="8">
-        <v>-96.29999999999859</v>
+        <v>3.7000000000014097</v>
       </c>
       <c r="P5" s="8">
         <v>55.900000000000091</v>
@@ -53825,7 +54113,7 @@
         <v>39.400000000000034</v>
       </c>
       <c r="T5" s="8">
-        <v>-192.79999999999563</v>
+        <v>57.200000000004366</v>
       </c>
     </row>
   </sheetData>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="消费记录明细" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4221" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="568">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2460,16 +2460,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2480,15 +2489,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2682,13 +2682,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41611.61727638889" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1550">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41614.709014236112" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1584">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="消费记录明细"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-12-04T00:00:00" count="326">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-12-07T00:00:00" count="329">
         <d v="2011-09-09T00:00:00"/>
         <d v="2011-09-30T00:00:00"/>
         <d v="2011-11-28T00:00:00"/>
@@ -3010,6 +3010,9 @@
         <d v="2013-11-29T00:00:00"/>
         <d v="2013-12-02T00:00:00"/>
         <d v="2013-12-03T00:00:00"/>
+        <d v="2013-12-04T00:00:00"/>
+        <d v="2013-12-05T00:00:00"/>
+        <d v="2013-12-06T00:00:00"/>
         <m/>
         <d v="2011-01-12T00:00:00" u="1"/>
         <d v="2013-05-14T00:00:00" u="1"/>
@@ -3068,7 +3071,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1550">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1584">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -12312,43 +12315,43 @@
   <r>
     <x v="319"/>
     <x v="13"/>
-    <m/>
+    <n v="-12.6"/>
     <x v="0"/>
   </r>
   <r>
     <x v="319"/>
     <x v="20"/>
-    <m/>
+    <n v="-12.6"/>
     <x v="0"/>
   </r>
   <r>
     <x v="319"/>
     <x v="12"/>
-    <m/>
+    <n v="-12.6"/>
     <x v="0"/>
   </r>
   <r>
     <x v="319"/>
     <x v="19"/>
-    <m/>
+    <n v="-12.6"/>
     <x v="0"/>
   </r>
   <r>
     <x v="319"/>
     <x v="15"/>
-    <m/>
+    <n v="-12.6"/>
     <x v="0"/>
   </r>
   <r>
     <x v="319"/>
     <x v="17"/>
-    <m/>
+    <n v="-12.6"/>
     <x v="0"/>
   </r>
   <r>
     <x v="319"/>
     <x v="24"/>
-    <m/>
+    <n v="-12.6"/>
     <x v="0"/>
   </r>
   <r>
@@ -12364,7 +12367,211 @@
     <x v="1"/>
   </r>
   <r>
+    <x v="320"/>
+    <x v="13"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="320"/>
+    <x v="20"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="320"/>
+    <x v="12"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="320"/>
+    <x v="19"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="320"/>
+    <x v="15"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="320"/>
+    <x v="8"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="320"/>
+    <x v="24"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="321"/>
+    <x v="13"/>
+    <n v="-18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <x v="20"/>
+    <n v="-18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <x v="12"/>
+    <n v="-18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <x v="19"/>
+    <n v="-18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <x v="15"/>
+    <n v="-18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <x v="8"/>
+    <n v="-18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <x v="24"/>
+    <n v="-18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="13"/>
+    <n v="-15.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="20"/>
+    <n v="-15.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="12"/>
+    <n v="-15.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="19"/>
+    <n v="-15.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="15"/>
+    <n v="-15.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="10"/>
+    <n v="-15.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="24"/>
+    <n v="-15.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="17"/>
+    <n v="-15.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="13"/>
+    <n v="-13.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="20"/>
+    <n v="-13.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="12"/>
+    <n v="-13.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="19"/>
+    <n v="-13.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="15"/>
+    <n v="-13.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="10"/>
+    <n v="-13.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="24"/>
+    <n v="-13.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="17"/>
+    <n v="-13.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="8"/>
+    <n v="-13.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="24"/>
+    <n v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="13"/>
+    <n v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="20"/>
+    <n v="200"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="324"/>
     <x v="25"/>
     <m/>
     <x v="2"/>
@@ -12374,15 +12581,15 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:U427" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:U432" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="327">
-        <item m="1" x="322"/>
+      <items count="330">
         <item m="1" x="325"/>
+        <item m="1" x="328"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="324"/>
+        <item m="1" x="327"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -12582,7 +12789,7 @@
         <item x="198"/>
         <item x="199"/>
         <item x="200"/>
-        <item m="1" x="323"/>
+        <item m="1" x="326"/>
         <item x="201"/>
         <item x="202"/>
         <item x="203"/>
@@ -12704,6 +12911,9 @@
         <item x="319"/>
         <item x="320"/>
         <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12732,10 +12942,10 @@
         <item h="1" x="18"/>
         <item x="19"/>
         <item x="20"/>
-        <item x="21"/>
+        <item h="1" x="21"/>
         <item x="22"/>
         <item h="1" x="23"/>
-        <item h="1" x="24"/>
+        <item x="24"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12753,7 +12963,7 @@
     <field x="3"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="425">
+  <rowItems count="430">
     <i>
       <x/>
     </i>
@@ -13648,6 +13858,18 @@
     <i r="1">
       <x v="323"/>
     </i>
+    <i r="1">
+      <x v="324"/>
+    </i>
+    <i r="1">
+      <x v="325"/>
+    </i>
+    <i r="1">
+      <x v="326"/>
+    </i>
+    <i r="1">
+      <x v="327"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -14026,6 +14248,9 @@
     <i r="1">
       <x v="324"/>
     </i>
+    <i r="1">
+      <x v="327"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -14086,10 +14311,10 @@
       <x v="22"/>
     </i>
     <i>
-      <x v="23"/>
+      <x v="24"/>
     </i>
     <i>
-      <x v="24"/>
+      <x v="26"/>
     </i>
     <i t="grand">
       <x/>
@@ -14127,7 +14352,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:T5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:U5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
@@ -14158,7 +14383,7 @@
         <item h="1" x="21"/>
         <item x="22"/>
         <item h="1" x="23"/>
-        <item h="1" x="24"/>
+        <item x="24"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14189,7 +14414,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="19">
+  <colItems count="20">
     <i>
       <x/>
     </i>
@@ -14243,6 +14468,9 @@
     </i>
     <i>
       <x v="24"/>
+    </i>
+    <i>
+      <x v="26"/>
     </i>
     <i t="grand">
       <x/>
@@ -14565,11 +14793,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1557"/>
+  <dimension ref="A1:V1584"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1536" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1557" sqref="F1557"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1571" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1584" sqref="D1584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14714,7 +14942,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -14734,7 +14962,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -14752,7 +14980,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -14770,7 +14998,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -14788,7 +15016,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -14806,7 +15034,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -14824,7 +15052,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -15634,7 +15862,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -15654,7 +15882,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="24"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -15672,7 +15900,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -16490,7 +16718,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="26"/>
+      <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -16508,7 +16736,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="27"/>
+      <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -16526,7 +16754,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="28"/>
+      <c r="F111" s="31"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -16663,7 +16891,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="26" t="s">
+      <c r="F119" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -16683,7 +16911,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="28"/>
+      <c r="F120" s="31"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -17580,7 +17808,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="26" t="s">
+      <c r="F172" s="29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -17600,7 +17828,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="27"/>
+      <c r="F173" s="30"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -17618,7 +17846,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="27"/>
+      <c r="F174" s="30"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -17636,7 +17864,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="28"/>
+      <c r="F175" s="31"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -19654,7 +19882,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="29" t="s">
+      <c r="F288" s="22" t="s">
         <v>202</v>
       </c>
     </row>
@@ -19674,7 +19902,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="31"/>
+      <c r="F289" s="26"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -19692,7 +19920,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="30"/>
+      <c r="F290" s="23"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -19710,7 +19938,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="29" t="s">
+      <c r="F291" s="22" t="s">
         <v>212</v>
       </c>
     </row>
@@ -19730,7 +19958,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="31"/>
+      <c r="F292" s="26"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -19748,7 +19976,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="31"/>
+      <c r="F293" s="26"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -19766,7 +19994,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="30"/>
+      <c r="F294" s="23"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -19784,7 +20012,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="29" t="s">
+      <c r="F295" s="22" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19804,7 +20032,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="30"/>
+      <c r="F296" s="23"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -19822,7 +20050,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="23" t="s">
+      <c r="F297" s="24" t="s">
         <v>207</v>
       </c>
     </row>
@@ -20699,7 +20927,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="29" t="s">
+      <c r="F342" s="22" t="s">
         <v>284</v>
       </c>
     </row>
@@ -20719,7 +20947,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="30"/>
+      <c r="F343" s="23"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -39359,6 +39587,9 @@
       <c r="B1542" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1542" s="1">
+        <v>-12.6</v>
+      </c>
       <c r="D1542" s="9" t="s">
         <v>7</v>
       </c>
@@ -39370,6 +39601,9 @@
       <c r="B1543" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1543" s="1">
+        <v>-12.6</v>
+      </c>
       <c r="D1543" s="9" t="s">
         <v>7</v>
       </c>
@@ -39381,6 +39615,9 @@
       <c r="B1544" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C1544" s="1">
+        <v>-12.6</v>
+      </c>
       <c r="D1544" s="9" t="s">
         <v>7</v>
       </c>
@@ -39392,6 +39629,9 @@
       <c r="B1545" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1545" s="1">
+        <v>-12.6</v>
+      </c>
       <c r="D1545" s="9" t="s">
         <v>7</v>
       </c>
@@ -39403,6 +39643,9 @@
       <c r="B1546" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1546" s="1">
+        <v>-12.6</v>
+      </c>
       <c r="D1546" s="9" t="s">
         <v>7</v>
       </c>
@@ -39414,6 +39657,9 @@
       <c r="B1547" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="C1547" s="1">
+        <v>-12.6</v>
+      </c>
       <c r="D1547" s="9" t="s">
         <v>7</v>
       </c>
@@ -39425,6 +39671,9 @@
       <c r="B1548" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="C1548" s="1">
+        <v>-12.6</v>
+      </c>
       <c r="D1548" s="9" t="s">
         <v>7</v>
       </c>
@@ -39464,6 +39713,9 @@
       <c r="B1551" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1551" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1551" s="9" t="s">
         <v>7</v>
       </c>
@@ -39475,6 +39727,9 @@
       <c r="B1552" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1552" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1552" s="9" t="s">
         <v>7</v>
       </c>
@@ -39486,6 +39741,9 @@
       <c r="B1553" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C1553" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1553" s="9" t="s">
         <v>7</v>
       </c>
@@ -39497,6 +39755,9 @@
       <c r="B1554" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1554" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1554" s="9" t="s">
         <v>7</v>
       </c>
@@ -39508,6 +39769,9 @@
       <c r="B1555" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1555" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1555" s="9" t="s">
         <v>7</v>
       </c>
@@ -39519,6 +39783,9 @@
       <c r="B1556" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C1556" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1556" s="9" t="s">
         <v>7</v>
       </c>
@@ -39530,22 +39797,403 @@
       <c r="B1557" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="C1557" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1557" s="9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:4">
+      <c r="A1558" s="4">
+        <v>41612</v>
+      </c>
+      <c r="B1558" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1558" s="1">
+        <v>-18</v>
+      </c>
+      <c r="D1558" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:4">
+      <c r="A1559" s="4">
+        <v>41612</v>
+      </c>
+      <c r="B1559" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1559" s="1">
+        <v>-18</v>
+      </c>
+      <c r="D1559" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:4">
+      <c r="A1560" s="4">
+        <v>41612</v>
+      </c>
+      <c r="B1560" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1560" s="1">
+        <v>-18</v>
+      </c>
+      <c r="D1560" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:4">
+      <c r="A1561" s="4">
+        <v>41612</v>
+      </c>
+      <c r="B1561" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1561" s="1">
+        <v>-18</v>
+      </c>
+      <c r="D1561" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:4">
+      <c r="A1562" s="4">
+        <v>41612</v>
+      </c>
+      <c r="B1562" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1562" s="1">
+        <v>-18</v>
+      </c>
+      <c r="D1562" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:4">
+      <c r="A1563" s="4">
+        <v>41612</v>
+      </c>
+      <c r="B1563" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1563" s="1">
+        <v>-18</v>
+      </c>
+      <c r="D1563" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:4">
+      <c r="A1564" s="4">
+        <v>41612</v>
+      </c>
+      <c r="B1564" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1564" s="1">
+        <v>-18</v>
+      </c>
+      <c r="D1564" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:4">
+      <c r="A1565" s="4">
+        <v>41613</v>
+      </c>
+      <c r="B1565" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1565" s="1">
+        <v>-15.2</v>
+      </c>
+      <c r="D1565" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:4">
+      <c r="A1566" s="4">
+        <v>41613</v>
+      </c>
+      <c r="B1566" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1566" s="1">
+        <v>-15.2</v>
+      </c>
+      <c r="D1566" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:4">
+      <c r="A1567" s="4">
+        <v>41613</v>
+      </c>
+      <c r="B1567" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1567" s="1">
+        <v>-15.2</v>
+      </c>
+      <c r="D1567" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:4">
+      <c r="A1568" s="4">
+        <v>41613</v>
+      </c>
+      <c r="B1568" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1568" s="1">
+        <v>-15.2</v>
+      </c>
+      <c r="D1568" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:4">
+      <c r="A1569" s="4">
+        <v>41613</v>
+      </c>
+      <c r="B1569" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1569" s="1">
+        <v>-15.2</v>
+      </c>
+      <c r="D1569" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:4">
+      <c r="A1570" s="4">
+        <v>41613</v>
+      </c>
+      <c r="B1570" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1570" s="1">
+        <v>-15.2</v>
+      </c>
+      <c r="D1570" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:4">
+      <c r="A1571" s="4">
+        <v>41613</v>
+      </c>
+      <c r="B1571" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1571" s="1">
+        <v>-15.2</v>
+      </c>
+      <c r="D1571" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:4">
+      <c r="A1572" s="4">
+        <v>41613</v>
+      </c>
+      <c r="B1572" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1572" s="1">
+        <v>-15.2</v>
+      </c>
+      <c r="D1572" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:4">
+      <c r="A1573" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1573" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1573" s="1">
+        <v>-13.6</v>
+      </c>
+      <c r="D1573" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:4">
+      <c r="A1574" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1574" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1574" s="1">
+        <v>-13.6</v>
+      </c>
+      <c r="D1574" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:4">
+      <c r="A1575" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1575" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1575" s="1">
+        <v>-13.6</v>
+      </c>
+      <c r="D1575" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:4">
+      <c r="A1576" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1576" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1576" s="1">
+        <v>-13.6</v>
+      </c>
+      <c r="D1576" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:4">
+      <c r="A1577" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1577" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1577" s="1">
+        <v>-13.6</v>
+      </c>
+      <c r="D1577" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:4">
+      <c r="A1578" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1578" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1578" s="1">
+        <v>-13.6</v>
+      </c>
+      <c r="D1578" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:4">
+      <c r="A1579" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1579" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1579" s="1">
+        <v>-13.6</v>
+      </c>
+      <c r="D1579" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:4">
+      <c r="A1580" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1580" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1580" s="1">
+        <v>-13.6</v>
+      </c>
+      <c r="D1580" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:4">
+      <c r="A1581" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1581" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1581" s="1">
+        <v>-13.6</v>
+      </c>
+      <c r="D1581" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:4">
+      <c r="A1582" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1582" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1582" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1582" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:4">
+      <c r="A1583" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1583" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1583" s="1">
+        <v>50</v>
+      </c>
+      <c r="D1583" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:4">
+      <c r="A1584" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1584" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1584" s="1">
+        <v>200</v>
+      </c>
+      <c r="D1584" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F172:F175"/>
     <mergeCell ref="F342:F343"/>
     <mergeCell ref="F295:F296"/>
     <mergeCell ref="F297:F298"/>
     <mergeCell ref="F291:F294"/>
     <mergeCell ref="F288:F290"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F172:F175"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
@@ -39583,11 +40231,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V427"/>
+  <dimension ref="A1:V432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F398" sqref="F398"/>
+      <pane ySplit="3" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E419" sqref="E419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -39607,9 +40255,9 @@
     <col min="14" max="15" width="9.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -39695,10 +40343,10 @@
         <v>478</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>480</v>
+        <v>567</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>15</v>
@@ -39710,7 +40358,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="7">
-        <v>-821.4</v>
+        <v>-866.8</v>
       </c>
       <c r="C3" s="7">
         <v>-31</v>
@@ -39734,40 +40382,40 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3125.4000000000024</v>
+        <v>-3154.2000000000021</v>
       </c>
       <c r="K3" s="7">
         <v>-220.7</v>
       </c>
       <c r="L3" s="7">
-        <v>-1422.0999999999992</v>
+        <v>-1495.299999999999</v>
       </c>
       <c r="M3" s="7">
         <v>-176.6</v>
       </c>
       <c r="N3" s="7">
-        <v>-1430.4999999999991</v>
+        <v>-1503.6999999999989</v>
       </c>
       <c r="O3" s="7">
-        <v>-1675.2999999999986</v>
+        <v>-1748.4999999999984</v>
       </c>
       <c r="P3" s="7">
-        <v>-887.1</v>
+        <v>-928.50000000000011</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1243.1999999999996</v>
+        <v>-1316.3999999999994</v>
       </c>
       <c r="R3" s="7">
-        <v>-1043.8999999999996</v>
+        <v>-1117.0999999999995</v>
       </c>
       <c r="S3" s="7">
-        <v>-100</v>
+        <v>-210.6</v>
       </c>
       <c r="T3" s="7">
-        <v>-210.6</v>
+        <v>-73.199999999999989</v>
       </c>
       <c r="U3" s="7">
-        <v>-18041.199999999986</v>
+        <v>-18495.999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -45186,12 +45834,10 @@
       </c>
       <c r="Q175" s="7"/>
       <c r="R175" s="7"/>
-      <c r="S175" s="7">
-        <v>-11.2</v>
-      </c>
+      <c r="S175" s="7"/>
       <c r="T175" s="7"/>
       <c r="U175" s="7">
-        <v>-78.400000000000006</v>
+        <v>-67.2</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -45228,11 +45874,9 @@
       <c r="S176" s="7">
         <v>-12.5</v>
       </c>
-      <c r="T176" s="7">
-        <v>-12.5</v>
-      </c>
+      <c r="T176" s="7"/>
       <c r="U176" s="7">
-        <v>-87.5</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -45268,12 +45912,10 @@
         <v>-12.7</v>
       </c>
       <c r="R177" s="7"/>
-      <c r="S177" s="7">
-        <v>-76.3</v>
-      </c>
+      <c r="S177" s="7"/>
       <c r="T177" s="7"/>
       <c r="U177" s="7">
-        <v>-152.5</v>
+        <v>-76.2</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -45366,10 +46008,10 @@
       <c r="R179" s="7">
         <v>-12.5</v>
       </c>
-      <c r="S179" s="7"/>
-      <c r="T179" s="7">
+      <c r="S179" s="7">
         <v>-13.4</v>
       </c>
+      <c r="T179" s="7"/>
       <c r="U179" s="7">
         <v>-181.3</v>
       </c>
@@ -45413,10 +46055,10 @@
       <c r="R180" s="7">
         <v>-29.8</v>
       </c>
-      <c r="S180" s="7"/>
-      <c r="T180" s="7">
+      <c r="S180" s="7">
         <v>-13.2</v>
       </c>
+      <c r="T180" s="7"/>
       <c r="U180" s="7">
         <v>-208.6</v>
       </c>
@@ -45961,10 +46603,10 @@
       </c>
       <c r="Q194" s="7"/>
       <c r="R194" s="7"/>
-      <c r="S194" s="7"/>
-      <c r="T194" s="7">
+      <c r="S194" s="7">
         <v>-16.3</v>
       </c>
+      <c r="T194" s="7"/>
       <c r="U194" s="7">
         <v>-81.5</v>
       </c>
@@ -46000,10 +46642,10 @@
       </c>
       <c r="Q195" s="7"/>
       <c r="R195" s="7"/>
-      <c r="S195" s="7"/>
-      <c r="T195" s="7">
+      <c r="S195" s="7">
         <v>-15.6</v>
       </c>
+      <c r="T195" s="7"/>
       <c r="U195" s="7">
         <v>-93.6</v>
       </c>
@@ -46039,10 +46681,10 @@
       </c>
       <c r="Q196" s="7"/>
       <c r="R196" s="7"/>
-      <c r="S196" s="7"/>
-      <c r="T196" s="7">
+      <c r="S196" s="7">
         <v>-15.6</v>
       </c>
+      <c r="T196" s="7"/>
       <c r="U196" s="7">
         <v>-93.6</v>
       </c>
@@ -46080,10 +46722,10 @@
       <c r="R197" s="7">
         <v>-13.7</v>
       </c>
-      <c r="S197" s="7"/>
-      <c r="T197" s="7">
+      <c r="S197" s="7">
         <v>-13.7</v>
       </c>
+      <c r="T197" s="7"/>
       <c r="U197" s="7">
         <v>-95.9</v>
       </c>
@@ -46179,10 +46821,10 @@
       </c>
       <c r="Q200" s="7"/>
       <c r="R200" s="7"/>
-      <c r="S200" s="7"/>
-      <c r="T200" s="7">
+      <c r="S200" s="7">
         <v>-11.6</v>
       </c>
+      <c r="T200" s="7"/>
       <c r="U200" s="7">
         <v>-81.199999999999989</v>
       </c>
@@ -46224,10 +46866,10 @@
       <c r="R201" s="7">
         <v>-13.9</v>
       </c>
-      <c r="S201" s="7"/>
-      <c r="T201" s="7">
+      <c r="S201" s="7">
         <v>-13.9</v>
       </c>
+      <c r="T201" s="7"/>
       <c r="U201" s="7">
         <v>-125.10000000000002</v>
       </c>
@@ -46787,10 +47429,10 @@
       <c r="R216" s="7">
         <v>-12.6</v>
       </c>
-      <c r="S216" s="7"/>
-      <c r="T216" s="7">
+      <c r="S216" s="7">
         <v>-12.6</v>
       </c>
+      <c r="T216" s="7"/>
       <c r="U216" s="7">
         <v>-113.39999999999998</v>
       </c>
@@ -46830,10 +47472,10 @@
       <c r="R217" s="7">
         <v>-12.6</v>
       </c>
-      <c r="S217" s="7"/>
-      <c r="T217" s="7">
+      <c r="S217" s="7">
         <v>-12.6</v>
       </c>
+      <c r="T217" s="7"/>
       <c r="U217" s="7">
         <v>-100.79999999999998</v>
       </c>
@@ -49310,10 +49952,10 @@
       <c r="R283" s="7">
         <v>-16.8</v>
       </c>
-      <c r="S283" s="7"/>
-      <c r="T283" s="7">
+      <c r="S283" s="7">
         <v>-16.8</v>
       </c>
+      <c r="T283" s="7"/>
       <c r="U283" s="7">
         <v>-84</v>
       </c>
@@ -49778,10 +50420,10 @@
       <c r="R295" s="7">
         <v>-14</v>
       </c>
-      <c r="S295" s="7"/>
-      <c r="T295" s="7">
+      <c r="S295" s="7">
         <v>-14</v>
       </c>
+      <c r="T295" s="7"/>
       <c r="U295" s="7">
         <v>-126</v>
       </c>
@@ -49819,10 +50461,10 @@
       <c r="R296" s="7">
         <v>-13.8</v>
       </c>
-      <c r="S296" s="7"/>
-      <c r="T296" s="7">
+      <c r="S296" s="7">
         <v>-13.8</v>
       </c>
+      <c r="T296" s="7"/>
       <c r="U296" s="7">
         <v>-96.6</v>
       </c>
@@ -49901,10 +50543,10 @@
       <c r="R298" s="7">
         <v>-15</v>
       </c>
-      <c r="S298" s="7"/>
-      <c r="T298" s="7">
+      <c r="S298" s="7">
         <v>-15</v>
       </c>
+      <c r="T298" s="7"/>
       <c r="U298" s="7">
         <v>-120</v>
       </c>
@@ -49958,122 +50600,120 @@
       <c r="I300" s="7"/>
       <c r="J300" s="7"/>
       <c r="K300" s="7"/>
-      <c r="L300" s="7"/>
+      <c r="L300" s="7">
+        <v>-12.6</v>
+      </c>
       <c r="M300" s="7"/>
-      <c r="N300" s="7"/>
-      <c r="O300" s="7"/>
-      <c r="P300" s="7"/>
-      <c r="Q300" s="7"/>
-      <c r="R300" s="7"/>
+      <c r="N300" s="7">
+        <v>-12.6</v>
+      </c>
+      <c r="O300" s="7">
+        <v>-12.6</v>
+      </c>
+      <c r="P300" s="7">
+        <v>-12.6</v>
+      </c>
+      <c r="Q300" s="7">
+        <v>-12.6</v>
+      </c>
+      <c r="R300" s="7">
+        <v>-12.6</v>
+      </c>
       <c r="S300" s="7"/>
-      <c r="T300" s="7"/>
-      <c r="U300" s="7"/>
+      <c r="T300" s="7">
+        <v>-12.6</v>
+      </c>
+      <c r="U300" s="7">
+        <v>-88.199999999999989</v>
+      </c>
     </row>
     <row r="301" spans="1:21">
-      <c r="A301" s="6" t="s">
-        <v>5</v>
+      <c r="A301" s="12">
+        <v>41611</v>
       </c>
       <c r="B301" s="7">
-        <v>750.5</v>
-      </c>
-      <c r="C301" s="7">
-        <v>87</v>
-      </c>
-      <c r="D301" s="7">
-        <v>300</v>
-      </c>
-      <c r="E301" s="7">
-        <v>56</v>
-      </c>
-      <c r="F301" s="7">
-        <v>200</v>
-      </c>
-      <c r="G301" s="7">
-        <v>2023</v>
-      </c>
-      <c r="H301" s="7">
-        <v>555</v>
-      </c>
-      <c r="I301" s="7">
-        <v>2502.5</v>
-      </c>
-      <c r="J301" s="7">
-        <v>3182.4</v>
-      </c>
-      <c r="K301" s="7">
-        <v>230</v>
-      </c>
+        <v>-13.8</v>
+      </c>
+      <c r="C301" s="7"/>
+      <c r="D301" s="7"/>
+      <c r="E301" s="7"/>
+      <c r="F301" s="7"/>
+      <c r="G301" s="7"/>
+      <c r="H301" s="7"/>
+      <c r="I301" s="7"/>
+      <c r="J301" s="7"/>
+      <c r="K301" s="7"/>
       <c r="L301" s="7">
-        <v>1400</v>
-      </c>
-      <c r="M301" s="7">
-        <v>220</v>
-      </c>
+        <v>-13.8</v>
+      </c>
+      <c r="M301" s="7"/>
       <c r="N301" s="7">
-        <v>1470</v>
+        <v>-13.8</v>
       </c>
       <c r="O301" s="7">
-        <v>1679</v>
-      </c>
-      <c r="P301" s="7">
-        <v>943</v>
-      </c>
+        <v>-13.8</v>
+      </c>
+      <c r="P301" s="7"/>
       <c r="Q301" s="7">
-        <v>1200</v>
+        <v>-13.8</v>
       </c>
       <c r="R301" s="7">
-        <v>950</v>
-      </c>
-      <c r="S301" s="7">
-        <v>100</v>
-      </c>
+        <v>-13.8</v>
+      </c>
+      <c r="S301" s="7"/>
       <c r="T301" s="7">
-        <v>250</v>
+        <v>-13.8</v>
       </c>
       <c r="U301" s="7">
-        <v>18098.400000000001</v>
+        <v>-96.6</v>
       </c>
     </row>
     <row r="302" spans="1:21">
       <c r="A302" s="12">
-        <v>40875</v>
-      </c>
-      <c r="B302" s="7"/>
-      <c r="C302" s="7">
-        <v>63</v>
-      </c>
+        <v>41612</v>
+      </c>
+      <c r="B302" s="7">
+        <v>-18</v>
+      </c>
+      <c r="C302" s="7"/>
       <c r="D302" s="7"/>
-      <c r="E302" s="7">
-        <v>56</v>
-      </c>
+      <c r="E302" s="7"/>
       <c r="F302" s="7"/>
       <c r="G302" s="7"/>
-      <c r="H302" s="7">
-        <v>0</v>
-      </c>
+      <c r="H302" s="7"/>
       <c r="I302" s="7"/>
       <c r="J302" s="7"/>
       <c r="K302" s="7"/>
-      <c r="L302" s="7"/>
+      <c r="L302" s="7">
+        <v>-18</v>
+      </c>
       <c r="M302" s="7"/>
-      <c r="N302" s="7"/>
-      <c r="O302" s="7"/>
+      <c r="N302" s="7">
+        <v>-18</v>
+      </c>
+      <c r="O302" s="7">
+        <v>-18</v>
+      </c>
       <c r="P302" s="7"/>
-      <c r="Q302" s="7"/>
-      <c r="R302" s="7"/>
+      <c r="Q302" s="7">
+        <v>-18</v>
+      </c>
+      <c r="R302" s="7">
+        <v>-18</v>
+      </c>
       <c r="S302" s="7"/>
-      <c r="T302" s="7"/>
+      <c r="T302" s="7">
+        <v>-18</v>
+      </c>
       <c r="U302" s="7">
-        <v>119</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="303" spans="1:21">
       <c r="A303" s="12">
-        <v>40879</v>
-      </c>
-      <c r="B303" s="7">
-        <v>7</v>
-      </c>
+        <v>41613</v>
+      </c>
+      <c r="B303" s="7"/>
       <c r="C303" s="7"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
@@ -50081,95 +50721,165 @@
       <c r="G303" s="7"/>
       <c r="H303" s="7"/>
       <c r="I303" s="7"/>
-      <c r="J303" s="7"/>
+      <c r="J303" s="7">
+        <v>-15.2</v>
+      </c>
       <c r="K303" s="7"/>
-      <c r="L303" s="7"/>
+      <c r="L303" s="7">
+        <v>-15.2</v>
+      </c>
       <c r="M303" s="7"/>
-      <c r="N303" s="7"/>
-      <c r="O303" s="7"/>
-      <c r="P303" s="7"/>
-      <c r="Q303" s="7"/>
-      <c r="R303" s="7"/>
+      <c r="N303" s="7">
+        <v>-15.2</v>
+      </c>
+      <c r="O303" s="7">
+        <v>-15.2</v>
+      </c>
+      <c r="P303" s="7">
+        <v>-15.2</v>
+      </c>
+      <c r="Q303" s="7">
+        <v>-15.2</v>
+      </c>
+      <c r="R303" s="7">
+        <v>-15.2</v>
+      </c>
       <c r="S303" s="7"/>
-      <c r="T303" s="7"/>
+      <c r="T303" s="7">
+        <v>-15.2</v>
+      </c>
       <c r="U303" s="7">
-        <v>7</v>
+        <v>-121.60000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:21">
       <c r="A304" s="12">
-        <v>40883</v>
-      </c>
-      <c r="B304" s="7"/>
+        <v>41614</v>
+      </c>
+      <c r="B304" s="7">
+        <v>-13.6</v>
+      </c>
       <c r="C304" s="7"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
       <c r="F304" s="7"/>
-      <c r="G304" s="7">
-        <v>50</v>
-      </c>
+      <c r="G304" s="7"/>
       <c r="H304" s="7"/>
       <c r="I304" s="7"/>
-      <c r="J304" s="7"/>
+      <c r="J304" s="7">
+        <v>-13.6</v>
+      </c>
       <c r="K304" s="7"/>
-      <c r="L304" s="7"/>
+      <c r="L304" s="7">
+        <v>-13.6</v>
+      </c>
       <c r="M304" s="7"/>
-      <c r="N304" s="7"/>
-      <c r="O304" s="7"/>
-      <c r="P304" s="7"/>
-      <c r="Q304" s="7"/>
-      <c r="R304" s="7"/>
+      <c r="N304" s="7">
+        <v>-13.6</v>
+      </c>
+      <c r="O304" s="7">
+        <v>-13.6</v>
+      </c>
+      <c r="P304" s="7">
+        <v>-13.6</v>
+      </c>
+      <c r="Q304" s="7">
+        <v>-13.6</v>
+      </c>
+      <c r="R304" s="7">
+        <v>-13.6</v>
+      </c>
       <c r="S304" s="7"/>
-      <c r="T304" s="7"/>
+      <c r="T304" s="7">
+        <v>-13.6</v>
+      </c>
       <c r="U304" s="7">
-        <v>50</v>
+        <v>-122.39999999999998</v>
       </c>
     </row>
     <row r="305" spans="1:21">
-      <c r="A305" s="12">
-        <v>40891</v>
-      </c>
-      <c r="B305" s="7"/>
-      <c r="C305" s="7"/>
-      <c r="D305" s="7"/>
-      <c r="E305" s="7"/>
-      <c r="F305" s="7"/>
-      <c r="G305" s="7"/>
-      <c r="H305" s="7"/>
+      <c r="A305" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B305" s="7">
+        <v>750.5</v>
+      </c>
+      <c r="C305" s="7">
+        <v>87</v>
+      </c>
+      <c r="D305" s="7">
+        <v>300</v>
+      </c>
+      <c r="E305" s="7">
+        <v>56</v>
+      </c>
+      <c r="F305" s="7">
+        <v>200</v>
+      </c>
+      <c r="G305" s="7">
+        <v>2023</v>
+      </c>
+      <c r="H305" s="7">
+        <v>555</v>
+      </c>
       <c r="I305" s="7">
-        <v>65</v>
-      </c>
-      <c r="J305" s="7"/>
-      <c r="K305" s="7"/>
-      <c r="L305" s="7"/>
-      <c r="M305" s="7"/>
-      <c r="N305" s="7"/>
-      <c r="O305" s="7"/>
-      <c r="P305" s="7"/>
-      <c r="Q305" s="7"/>
-      <c r="R305" s="7"/>
-      <c r="S305" s="7"/>
-      <c r="T305" s="7"/>
+        <v>2502.5</v>
+      </c>
+      <c r="J305" s="7">
+        <v>3182.4</v>
+      </c>
+      <c r="K305" s="7">
+        <v>230</v>
+      </c>
+      <c r="L305" s="7">
+        <v>1450</v>
+      </c>
+      <c r="M305" s="7">
+        <v>220</v>
+      </c>
+      <c r="N305" s="7">
+        <v>1470</v>
+      </c>
+      <c r="O305" s="7">
+        <v>1679</v>
+      </c>
+      <c r="P305" s="7">
+        <v>943</v>
+      </c>
+      <c r="Q305" s="7">
+        <v>1200</v>
+      </c>
+      <c r="R305" s="7">
+        <v>1150</v>
+      </c>
+      <c r="S305" s="7">
+        <v>250</v>
+      </c>
+      <c r="T305" s="7">
+        <v>100</v>
+      </c>
       <c r="U305" s="7">
-        <v>65</v>
+        <v>18348.400000000001</v>
       </c>
     </row>
     <row r="306" spans="1:21">
       <c r="A306" s="12">
-        <v>40892</v>
+        <v>40875</v>
       </c>
       <c r="B306" s="7"/>
-      <c r="C306" s="7"/>
+      <c r="C306" s="7">
+        <v>63</v>
+      </c>
       <c r="D306" s="7"/>
-      <c r="E306" s="7"/>
+      <c r="E306" s="7">
+        <v>56</v>
+      </c>
       <c r="F306" s="7"/>
-      <c r="G306" s="7">
-        <v>100</v>
-      </c>
-      <c r="H306" s="7"/>
-      <c r="I306" s="7">
-        <v>68</v>
-      </c>
+      <c r="G306" s="7"/>
+      <c r="H306" s="7">
+        <v>0</v>
+      </c>
+      <c r="I306" s="7"/>
       <c r="J306" s="7"/>
       <c r="K306" s="7"/>
       <c r="L306" s="7"/>
@@ -50182,23 +50892,23 @@
       <c r="S306" s="7"/>
       <c r="T306" s="7"/>
       <c r="U306" s="7">
-        <v>168</v>
+        <v>119</v>
       </c>
     </row>
     <row r="307" spans="1:21">
       <c r="A307" s="12">
-        <v>40913</v>
-      </c>
-      <c r="B307" s="7"/>
+        <v>40879</v>
+      </c>
+      <c r="B307" s="7">
+        <v>7</v>
+      </c>
       <c r="C307" s="7"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
       <c r="G307" s="7"/>
       <c r="H307" s="7"/>
-      <c r="I307" s="7">
-        <v>679.5</v>
-      </c>
+      <c r="I307" s="7"/>
       <c r="J307" s="7"/>
       <c r="K307" s="7"/>
       <c r="L307" s="7"/>
@@ -50211,12 +50921,12 @@
       <c r="S307" s="7"/>
       <c r="T307" s="7"/>
       <c r="U307" s="7">
-        <v>679.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:21">
       <c r="A308" s="12">
-        <v>40917</v>
+        <v>40883</v>
       </c>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -50224,7 +50934,7 @@
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
       <c r="G308" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H308" s="7"/>
       <c r="I308" s="7"/>
@@ -50240,12 +50950,12 @@
       <c r="S308" s="7"/>
       <c r="T308" s="7"/>
       <c r="U308" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="309" spans="1:21">
       <c r="A309" s="12">
-        <v>40919</v>
+        <v>40891</v>
       </c>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -50254,10 +50964,10 @@
       <c r="F309" s="7"/>
       <c r="G309" s="7"/>
       <c r="H309" s="7"/>
-      <c r="I309" s="7"/>
-      <c r="J309" s="7">
-        <v>15</v>
-      </c>
+      <c r="I309" s="7">
+        <v>65</v>
+      </c>
+      <c r="J309" s="7"/>
       <c r="K309" s="7"/>
       <c r="L309" s="7"/>
       <c r="M309" s="7"/>
@@ -50269,25 +50979,25 @@
       <c r="S309" s="7"/>
       <c r="T309" s="7"/>
       <c r="U309" s="7">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="310" spans="1:21">
       <c r="A310" s="12">
-        <v>40921</v>
+        <v>40892</v>
       </c>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
-      <c r="D310" s="7">
+      <c r="D310" s="7"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="7"/>
+      <c r="G310" s="7">
         <v>100</v>
       </c>
-      <c r="E310" s="7"/>
-      <c r="F310" s="7">
-        <v>100</v>
-      </c>
-      <c r="G310" s="7"/>
       <c r="H310" s="7"/>
-      <c r="I310" s="7"/>
+      <c r="I310" s="7">
+        <v>68</v>
+      </c>
       <c r="J310" s="7"/>
       <c r="K310" s="7"/>
       <c r="L310" s="7"/>
@@ -50300,12 +51010,12 @@
       <c r="S310" s="7"/>
       <c r="T310" s="7"/>
       <c r="U310" s="7">
-        <v>200</v>
+        <v>168</v>
       </c>
     </row>
     <row r="311" spans="1:21">
       <c r="A311" s="12">
-        <v>40925</v>
+        <v>40913</v>
       </c>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -50314,10 +51024,10 @@
       <c r="F311" s="7"/>
       <c r="G311" s="7"/>
       <c r="H311" s="7"/>
-      <c r="I311" s="7"/>
-      <c r="J311" s="7">
-        <v>14</v>
-      </c>
+      <c r="I311" s="7">
+        <v>679.5</v>
+      </c>
+      <c r="J311" s="7"/>
       <c r="K311" s="7"/>
       <c r="L311" s="7"/>
       <c r="M311" s="7"/>
@@ -50329,24 +51039,24 @@
       <c r="S311" s="7"/>
       <c r="T311" s="7"/>
       <c r="U311" s="7">
-        <v>14</v>
+        <v>679.5</v>
       </c>
     </row>
     <row r="312" spans="1:21">
       <c r="A312" s="12">
-        <v>40926</v>
+        <v>40917</v>
       </c>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
-      <c r="G312" s="7"/>
+      <c r="G312" s="7">
+        <v>100</v>
+      </c>
       <c r="H312" s="7"/>
       <c r="I312" s="7"/>
-      <c r="J312" s="7">
-        <v>28</v>
-      </c>
+      <c r="J312" s="7"/>
       <c r="K312" s="7"/>
       <c r="L312" s="7"/>
       <c r="M312" s="7"/>
@@ -50358,12 +51068,12 @@
       <c r="S312" s="7"/>
       <c r="T312" s="7"/>
       <c r="U312" s="7">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="313" spans="1:21">
       <c r="A313" s="12">
-        <v>40940</v>
+        <v>40919</v>
       </c>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -50373,10 +51083,10 @@
       <c r="G313" s="7"/>
       <c r="H313" s="7"/>
       <c r="I313" s="7"/>
-      <c r="J313" s="7"/>
-      <c r="K313" s="7">
-        <v>100</v>
-      </c>
+      <c r="J313" s="7">
+        <v>15</v>
+      </c>
+      <c r="K313" s="7"/>
       <c r="L313" s="7"/>
       <c r="M313" s="7"/>
       <c r="N313" s="7"/>
@@ -50387,25 +51097,27 @@
       <c r="S313" s="7"/>
       <c r="T313" s="7"/>
       <c r="U313" s="7">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:21">
       <c r="A314" s="12">
-        <v>40942</v>
+        <v>40921</v>
       </c>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
-      <c r="D314" s="7"/>
+      <c r="D314" s="7">
+        <v>100</v>
+      </c>
       <c r="E314" s="7"/>
-      <c r="F314" s="7"/>
+      <c r="F314" s="7">
+        <v>100</v>
+      </c>
       <c r="G314" s="7"/>
       <c r="H314" s="7"/>
       <c r="I314" s="7"/>
       <c r="J314" s="7"/>
-      <c r="K314" s="7">
-        <v>100</v>
-      </c>
+      <c r="K314" s="7"/>
       <c r="L314" s="7"/>
       <c r="M314" s="7"/>
       <c r="N314" s="7"/>
@@ -50416,12 +51128,12 @@
       <c r="S314" s="7"/>
       <c r="T314" s="7"/>
       <c r="U314" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="315" spans="1:21">
       <c r="A315" s="12">
-        <v>40947</v>
+        <v>40925</v>
       </c>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -50432,7 +51144,7 @@
       <c r="H315" s="7"/>
       <c r="I315" s="7"/>
       <c r="J315" s="7">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="K315" s="7"/>
       <c r="L315" s="7"/>
@@ -50445,12 +51157,12 @@
       <c r="S315" s="7"/>
       <c r="T315" s="7"/>
       <c r="U315" s="7">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="316" spans="1:21">
       <c r="A316" s="12">
-        <v>40954</v>
+        <v>40926</v>
       </c>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -50458,11 +51170,11 @@
       <c r="E316" s="7"/>
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
-      <c r="H316" s="7">
-        <v>100</v>
-      </c>
+      <c r="H316" s="7"/>
       <c r="I316" s="7"/>
-      <c r="J316" s="7"/>
+      <c r="J316" s="7">
+        <v>28</v>
+      </c>
       <c r="K316" s="7"/>
       <c r="L316" s="7"/>
       <c r="M316" s="7"/>
@@ -50474,12 +51186,12 @@
       <c r="S316" s="7"/>
       <c r="T316" s="7"/>
       <c r="U316" s="7">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="317" spans="1:21">
       <c r="A317" s="12">
-        <v>40973</v>
+        <v>40940</v>
       </c>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -50491,13 +51203,11 @@
       <c r="I317" s="7"/>
       <c r="J317" s="7"/>
       <c r="K317" s="7">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L317" s="7"/>
       <c r="M317" s="7"/>
-      <c r="N317" s="7">
-        <v>100</v>
-      </c>
+      <c r="N317" s="7"/>
       <c r="O317" s="7"/>
       <c r="P317" s="7"/>
       <c r="Q317" s="7"/>
@@ -50505,12 +51215,12 @@
       <c r="S317" s="7"/>
       <c r="T317" s="7"/>
       <c r="U317" s="7">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="318" spans="1:21">
       <c r="A318" s="12">
-        <v>40974</v>
+        <v>40942</v>
       </c>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -50518,12 +51228,12 @@
       <c r="E318" s="7"/>
       <c r="F318" s="7"/>
       <c r="G318" s="7"/>
-      <c r="H318" s="7">
-        <v>100</v>
-      </c>
+      <c r="H318" s="7"/>
       <c r="I318" s="7"/>
       <c r="J318" s="7"/>
-      <c r="K318" s="7"/>
+      <c r="K318" s="7">
+        <v>100</v>
+      </c>
       <c r="L318" s="7"/>
       <c r="M318" s="7"/>
       <c r="N318" s="7"/>
@@ -50539,7 +51249,7 @@
     </row>
     <row r="319" spans="1:21">
       <c r="A319" s="12">
-        <v>40981</v>
+        <v>40947</v>
       </c>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -50547,13 +51257,11 @@
       <c r="E319" s="7"/>
       <c r="F319" s="7"/>
       <c r="G319" s="7"/>
-      <c r="H319" s="7">
+      <c r="H319" s="7"/>
+      <c r="I319" s="7"/>
+      <c r="J319" s="7">
         <v>100</v>
       </c>
-      <c r="I319" s="7">
-        <v>300</v>
-      </c>
-      <c r="J319" s="7"/>
       <c r="K319" s="7"/>
       <c r="L319" s="7"/>
       <c r="M319" s="7"/>
@@ -50565,12 +51273,12 @@
       <c r="S319" s="7"/>
       <c r="T319" s="7"/>
       <c r="U319" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:21">
       <c r="A320" s="12">
-        <v>41032</v>
+        <v>40954</v>
       </c>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -50578,16 +51286,14 @@
       <c r="E320" s="7"/>
       <c r="F320" s="7"/>
       <c r="G320" s="7"/>
-      <c r="H320" s="7"/>
+      <c r="H320" s="7">
+        <v>100</v>
+      </c>
       <c r="I320" s="7"/>
       <c r="J320" s="7"/>
       <c r="K320" s="7"/>
-      <c r="L320" s="7">
-        <v>100</v>
-      </c>
-      <c r="M320" s="7">
-        <v>100</v>
-      </c>
+      <c r="L320" s="7"/>
+      <c r="M320" s="7"/>
       <c r="N320" s="7"/>
       <c r="O320" s="7"/>
       <c r="P320" s="7"/>
@@ -50596,12 +51302,12 @@
       <c r="S320" s="7"/>
       <c r="T320" s="7"/>
       <c r="U320" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="321" spans="1:21">
       <c r="A321" s="12">
-        <v>41037</v>
+        <v>40973</v>
       </c>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -50612,7 +51318,9 @@
       <c r="H321" s="7"/>
       <c r="I321" s="7"/>
       <c r="J321" s="7"/>
-      <c r="K321" s="7"/>
+      <c r="K321" s="7">
+        <v>30</v>
+      </c>
       <c r="L321" s="7"/>
       <c r="M321" s="7"/>
       <c r="N321" s="7">
@@ -50625,12 +51333,12 @@
       <c r="S321" s="7"/>
       <c r="T321" s="7"/>
       <c r="U321" s="7">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="322" spans="1:21">
       <c r="A322" s="12">
-        <v>41039</v>
+        <v>40974</v>
       </c>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -50638,28 +51346,28 @@
       <c r="E322" s="7"/>
       <c r="F322" s="7"/>
       <c r="G322" s="7"/>
-      <c r="H322" s="7"/>
+      <c r="H322" s="7">
+        <v>100</v>
+      </c>
       <c r="I322" s="7"/>
       <c r="J322" s="7"/>
       <c r="K322" s="7"/>
       <c r="L322" s="7"/>
       <c r="M322" s="7"/>
       <c r="N322" s="7"/>
-      <c r="O322" s="7">
-        <v>35</v>
-      </c>
+      <c r="O322" s="7"/>
       <c r="P322" s="7"/>
       <c r="Q322" s="7"/>
       <c r="R322" s="7"/>
       <c r="S322" s="7"/>
       <c r="T322" s="7"/>
       <c r="U322" s="7">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="323" spans="1:21">
       <c r="A323" s="12">
-        <v>41044</v>
+        <v>40981</v>
       </c>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -50667,43 +51375,47 @@
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
       <c r="G323" s="7"/>
-      <c r="H323" s="7"/>
-      <c r="I323" s="7"/>
+      <c r="H323" s="7">
+        <v>100</v>
+      </c>
+      <c r="I323" s="7">
+        <v>300</v>
+      </c>
       <c r="J323" s="7"/>
       <c r="K323" s="7"/>
       <c r="L323" s="7"/>
       <c r="M323" s="7"/>
       <c r="N323" s="7"/>
-      <c r="O323" s="7">
-        <v>20</v>
-      </c>
+      <c r="O323" s="7"/>
       <c r="P323" s="7"/>
       <c r="Q323" s="7"/>
       <c r="R323" s="7"/>
       <c r="S323" s="7"/>
       <c r="T323" s="7"/>
       <c r="U323" s="7">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="324" spans="1:21">
       <c r="A324" s="12">
-        <v>41050</v>
+        <v>41032</v>
       </c>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
-      <c r="G324" s="7">
-        <v>89</v>
-      </c>
+      <c r="G324" s="7"/>
       <c r="H324" s="7"/>
       <c r="I324" s="7"/>
       <c r="J324" s="7"/>
       <c r="K324" s="7"/>
-      <c r="L324" s="7"/>
-      <c r="M324" s="7"/>
+      <c r="L324" s="7">
+        <v>100</v>
+      </c>
+      <c r="M324" s="7">
+        <v>100</v>
+      </c>
       <c r="N324" s="7"/>
       <c r="O324" s="7"/>
       <c r="P324" s="7"/>
@@ -50712,12 +51424,12 @@
       <c r="S324" s="7"/>
       <c r="T324" s="7"/>
       <c r="U324" s="7">
-        <v>89</v>
+        <v>200</v>
       </c>
     </row>
     <row r="325" spans="1:21">
       <c r="A325" s="12">
-        <v>41057</v>
+        <v>41037</v>
       </c>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -50727,13 +51439,13 @@
       <c r="G325" s="7"/>
       <c r="H325" s="7"/>
       <c r="I325" s="7"/>
-      <c r="J325" s="7">
-        <v>300</v>
-      </c>
+      <c r="J325" s="7"/>
       <c r="K325" s="7"/>
       <c r="L325" s="7"/>
       <c r="M325" s="7"/>
-      <c r="N325" s="7"/>
+      <c r="N325" s="7">
+        <v>100</v>
+      </c>
       <c r="O325" s="7"/>
       <c r="P325" s="7"/>
       <c r="Q325" s="7"/>
@@ -50741,12 +51453,12 @@
       <c r="S325" s="7"/>
       <c r="T325" s="7"/>
       <c r="U325" s="7">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="326" spans="1:21">
       <c r="A326" s="12">
-        <v>41060</v>
+        <v>41039</v>
       </c>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -50756,35 +51468,33 @@
       <c r="G326" s="7"/>
       <c r="H326" s="7"/>
       <c r="I326" s="7"/>
-      <c r="J326" s="7">
-        <v>10.1</v>
-      </c>
+      <c r="J326" s="7"/>
       <c r="K326" s="7"/>
       <c r="L326" s="7"/>
       <c r="M326" s="7"/>
       <c r="N326" s="7"/>
-      <c r="O326" s="7"/>
+      <c r="O326" s="7">
+        <v>35</v>
+      </c>
       <c r="P326" s="7"/>
       <c r="Q326" s="7"/>
       <c r="R326" s="7"/>
       <c r="S326" s="7"/>
       <c r="T326" s="7"/>
       <c r="U326" s="7">
-        <v>10.1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="327" spans="1:21">
       <c r="A327" s="12">
-        <v>41066</v>
+        <v>41044</v>
       </c>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
       <c r="D327" s="7"/>
       <c r="E327" s="7"/>
       <c r="F327" s="7"/>
-      <c r="G327" s="7">
-        <v>300</v>
-      </c>
+      <c r="G327" s="7"/>
       <c r="H327" s="7"/>
       <c r="I327" s="7"/>
       <c r="J327" s="7"/>
@@ -50792,31 +51502,33 @@
       <c r="L327" s="7"/>
       <c r="M327" s="7"/>
       <c r="N327" s="7"/>
-      <c r="O327" s="7"/>
+      <c r="O327" s="7">
+        <v>20</v>
+      </c>
       <c r="P327" s="7"/>
       <c r="Q327" s="7"/>
       <c r="R327" s="7"/>
       <c r="S327" s="7"/>
       <c r="T327" s="7"/>
       <c r="U327" s="7">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="328" spans="1:21">
       <c r="A328" s="12">
-        <v>41070</v>
+        <v>41050</v>
       </c>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
       <c r="D328" s="7"/>
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
-      <c r="G328" s="7"/>
+      <c r="G328" s="7">
+        <v>89</v>
+      </c>
       <c r="H328" s="7"/>
       <c r="I328" s="7"/>
-      <c r="J328" s="7">
-        <v>130</v>
-      </c>
+      <c r="J328" s="7"/>
       <c r="K328" s="7"/>
       <c r="L328" s="7"/>
       <c r="M328" s="7"/>
@@ -50828,12 +51540,12 @@
       <c r="S328" s="7"/>
       <c r="T328" s="7"/>
       <c r="U328" s="7">
-        <v>130</v>
+        <v>89</v>
       </c>
     </row>
     <row r="329" spans="1:21">
       <c r="A329" s="12">
-        <v>41071</v>
+        <v>41057</v>
       </c>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -50844,7 +51556,7 @@
       <c r="H329" s="7"/>
       <c r="I329" s="7"/>
       <c r="J329" s="7">
-        <v>81.400000000000006</v>
+        <v>300</v>
       </c>
       <c r="K329" s="7"/>
       <c r="L329" s="7"/>
@@ -50857,12 +51569,12 @@
       <c r="S329" s="7"/>
       <c r="T329" s="7"/>
       <c r="U329" s="7">
-        <v>81.400000000000006</v>
+        <v>300</v>
       </c>
     </row>
     <row r="330" spans="1:21">
       <c r="A330" s="12">
-        <v>41072</v>
+        <v>41060</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -50873,7 +51585,7 @@
       <c r="H330" s="7"/>
       <c r="I330" s="7"/>
       <c r="J330" s="7">
-        <v>77.599999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="K330" s="7"/>
       <c r="L330" s="7"/>
@@ -50886,12 +51598,12 @@
       <c r="S330" s="7"/>
       <c r="T330" s="7"/>
       <c r="U330" s="7">
-        <v>77.599999999999994</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="331" spans="1:21">
       <c r="A331" s="12">
-        <v>41078</v>
+        <v>41066</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -50899,13 +51611,11 @@
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
       <c r="G331" s="7">
-        <v>47</v>
+        <v>300</v>
       </c>
       <c r="H331" s="7"/>
       <c r="I331" s="7"/>
-      <c r="J331" s="7">
-        <v>50</v>
-      </c>
+      <c r="J331" s="7"/>
       <c r="K331" s="7"/>
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
@@ -50917,12 +51627,12 @@
       <c r="S331" s="7"/>
       <c r="T331" s="7"/>
       <c r="U331" s="7">
-        <v>97</v>
+        <v>300</v>
       </c>
     </row>
     <row r="332" spans="1:21">
       <c r="A332" s="12">
-        <v>41082</v>
+        <v>41070</v>
       </c>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -50933,7 +51643,7 @@
       <c r="H332" s="7"/>
       <c r="I332" s="7"/>
       <c r="J332" s="7">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="K332" s="7"/>
       <c r="L332" s="7"/>
@@ -50946,12 +51656,12 @@
       <c r="S332" s="7"/>
       <c r="T332" s="7"/>
       <c r="U332" s="7">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="333" spans="1:21">
       <c r="A333" s="12">
-        <v>41083</v>
+        <v>41071</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -50962,7 +51672,7 @@
       <c r="H333" s="7"/>
       <c r="I333" s="7"/>
       <c r="J333" s="7">
-        <v>39.9</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="K333" s="7"/>
       <c r="L333" s="7"/>
@@ -50975,24 +51685,24 @@
       <c r="S333" s="7"/>
       <c r="T333" s="7"/>
       <c r="U333" s="7">
-        <v>39.9</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="334" spans="1:21">
       <c r="A334" s="12">
-        <v>41085</v>
+        <v>41072</v>
       </c>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
       <c r="D334" s="7"/>
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
-      <c r="G334" s="7">
-        <v>300</v>
-      </c>
+      <c r="G334" s="7"/>
       <c r="H334" s="7"/>
       <c r="I334" s="7"/>
-      <c r="J334" s="7"/>
+      <c r="J334" s="7">
+        <v>77.599999999999994</v>
+      </c>
       <c r="K334" s="7"/>
       <c r="L334" s="7"/>
       <c r="M334" s="7"/>
@@ -51004,23 +51714,25 @@
       <c r="S334" s="7"/>
       <c r="T334" s="7"/>
       <c r="U334" s="7">
-        <v>300</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="335" spans="1:21">
       <c r="A335" s="12">
-        <v>41088</v>
+        <v>41078</v>
       </c>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
       <c r="D335" s="7"/>
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
-      <c r="G335" s="7"/>
+      <c r="G335" s="7">
+        <v>47</v>
+      </c>
       <c r="H335" s="7"/>
       <c r="I335" s="7"/>
       <c r="J335" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K335" s="7"/>
       <c r="L335" s="7"/>
@@ -51033,12 +51745,12 @@
       <c r="S335" s="7"/>
       <c r="T335" s="7"/>
       <c r="U335" s="7">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="336" spans="1:21">
       <c r="A336" s="12">
-        <v>41092</v>
+        <v>41082</v>
       </c>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -51048,26 +51760,26 @@
       <c r="G336" s="7"/>
       <c r="H336" s="7"/>
       <c r="I336" s="7"/>
-      <c r="J336" s="7"/>
+      <c r="J336" s="7">
+        <v>98</v>
+      </c>
       <c r="K336" s="7"/>
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
       <c r="N336" s="7"/>
       <c r="O336" s="7"/>
-      <c r="P336" s="7">
-        <v>93</v>
-      </c>
+      <c r="P336" s="7"/>
       <c r="Q336" s="7"/>
       <c r="R336" s="7"/>
       <c r="S336" s="7"/>
       <c r="T336" s="7"/>
       <c r="U336" s="7">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="337" spans="1:21">
       <c r="A337" s="12">
-        <v>41093</v>
+        <v>41083</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -51078,7 +51790,7 @@
       <c r="H337" s="7"/>
       <c r="I337" s="7"/>
       <c r="J337" s="7">
-        <v>100</v>
+        <v>39.9</v>
       </c>
       <c r="K337" s="7"/>
       <c r="L337" s="7"/>
@@ -51091,12 +51803,12 @@
       <c r="S337" s="7"/>
       <c r="T337" s="7"/>
       <c r="U337" s="7">
-        <v>100</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="338" spans="1:21">
       <c r="A338" s="12">
-        <v>41095</v>
+        <v>41085</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -51104,13 +51816,11 @@
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
       <c r="G338" s="7">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="H338" s="7"/>
       <c r="I338" s="7"/>
-      <c r="J338" s="7">
-        <v>98</v>
-      </c>
+      <c r="J338" s="7"/>
       <c r="K338" s="7"/>
       <c r="L338" s="7"/>
       <c r="M338" s="7"/>
@@ -51122,12 +51832,12 @@
       <c r="S338" s="7"/>
       <c r="T338" s="7"/>
       <c r="U338" s="7">
-        <v>168</v>
+        <v>300</v>
       </c>
     </row>
     <row r="339" spans="1:21">
       <c r="A339" s="12">
-        <v>41100</v>
+        <v>41088</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -51136,10 +51846,10 @@
       <c r="F339" s="7"/>
       <c r="G339" s="7"/>
       <c r="H339" s="7"/>
-      <c r="I339" s="7">
-        <v>16</v>
-      </c>
-      <c r="J339" s="7"/>
+      <c r="I339" s="7"/>
+      <c r="J339" s="7">
+        <v>20</v>
+      </c>
       <c r="K339" s="7"/>
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
@@ -51151,12 +51861,12 @@
       <c r="S339" s="7"/>
       <c r="T339" s="7"/>
       <c r="U339" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="340" spans="1:21">
       <c r="A340" s="12">
-        <v>41108</v>
+        <v>41092</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -51165,27 +51875,27 @@
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
       <c r="H340" s="7"/>
-      <c r="I340" s="7">
-        <v>63</v>
-      </c>
+      <c r="I340" s="7"/>
       <c r="J340" s="7"/>
       <c r="K340" s="7"/>
       <c r="L340" s="7"/>
       <c r="M340" s="7"/>
       <c r="N340" s="7"/>
       <c r="O340" s="7"/>
-      <c r="P340" s="7"/>
+      <c r="P340" s="7">
+        <v>93</v>
+      </c>
       <c r="Q340" s="7"/>
       <c r="R340" s="7"/>
       <c r="S340" s="7"/>
       <c r="T340" s="7"/>
       <c r="U340" s="7">
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="341" spans="1:21">
       <c r="A341" s="12">
-        <v>41110</v>
+        <v>41093</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -51194,10 +51904,10 @@
       <c r="F341" s="7"/>
       <c r="G341" s="7"/>
       <c r="H341" s="7"/>
-      <c r="I341" s="7">
-        <v>15</v>
-      </c>
-      <c r="J341" s="7"/>
+      <c r="I341" s="7"/>
+      <c r="J341" s="7">
+        <v>100</v>
+      </c>
       <c r="K341" s="7"/>
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
@@ -51209,24 +51919,26 @@
       <c r="S341" s="7"/>
       <c r="T341" s="7"/>
       <c r="U341" s="7">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="342" spans="1:21">
       <c r="A342" s="12">
-        <v>41116</v>
+        <v>41095</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
-      <c r="G342" s="7"/>
+      <c r="G342" s="7">
+        <v>70</v>
+      </c>
       <c r="H342" s="7"/>
-      <c r="I342" s="7">
-        <v>83</v>
-      </c>
-      <c r="J342" s="7"/>
+      <c r="I342" s="7"/>
+      <c r="J342" s="7">
+        <v>98</v>
+      </c>
       <c r="K342" s="7"/>
       <c r="L342" s="7"/>
       <c r="M342" s="7"/>
@@ -51238,12 +51950,12 @@
       <c r="S342" s="7"/>
       <c r="T342" s="7"/>
       <c r="U342" s="7">
-        <v>83</v>
+        <v>168</v>
       </c>
     </row>
     <row r="343" spans="1:21">
       <c r="A343" s="12">
-        <v>41136</v>
+        <v>41100</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -51251,11 +51963,9 @@
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
       <c r="G343" s="7"/>
-      <c r="H343" s="7">
-        <v>55</v>
-      </c>
+      <c r="H343" s="7"/>
       <c r="I343" s="7">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="J343" s="7"/>
       <c r="K343" s="7"/>
@@ -51269,23 +51979,23 @@
       <c r="S343" s="7"/>
       <c r="T343" s="7"/>
       <c r="U343" s="7">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="344" spans="1:21">
       <c r="A344" s="12">
-        <v>41138</v>
+        <v>41108</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
       <c r="F344" s="7"/>
-      <c r="G344" s="7">
-        <v>100.4</v>
-      </c>
+      <c r="G344" s="7"/>
       <c r="H344" s="7"/>
-      <c r="I344" s="7"/>
+      <c r="I344" s="7">
+        <v>63</v>
+      </c>
       <c r="J344" s="7"/>
       <c r="K344" s="7"/>
       <c r="L344" s="7"/>
@@ -51298,12 +52008,12 @@
       <c r="S344" s="7"/>
       <c r="T344" s="7"/>
       <c r="U344" s="7">
-        <v>100.4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="345" spans="1:21">
       <c r="A345" s="12">
-        <v>41151</v>
+        <v>41110</v>
       </c>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -51312,10 +52022,10 @@
       <c r="F345" s="7"/>
       <c r="G345" s="7"/>
       <c r="H345" s="7"/>
-      <c r="I345" s="7"/>
-      <c r="J345" s="7">
-        <v>100</v>
-      </c>
+      <c r="I345" s="7">
+        <v>15</v>
+      </c>
+      <c r="J345" s="7"/>
       <c r="K345" s="7"/>
       <c r="L345" s="7"/>
       <c r="M345" s="7"/>
@@ -51327,12 +52037,12 @@
       <c r="S345" s="7"/>
       <c r="T345" s="7"/>
       <c r="U345" s="7">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="346" spans="1:21">
       <c r="A346" s="12">
-        <v>41156</v>
+        <v>41116</v>
       </c>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -51342,7 +52052,7 @@
       <c r="G346" s="7"/>
       <c r="H346" s="7"/>
       <c r="I346" s="7">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="J346" s="7"/>
       <c r="K346" s="7"/>
@@ -51356,12 +52066,12 @@
       <c r="S346" s="7"/>
       <c r="T346" s="7"/>
       <c r="U346" s="7">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="347" spans="1:21">
       <c r="A347" s="12">
-        <v>41161</v>
+        <v>41136</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -51369,9 +52079,11 @@
       <c r="E347" s="7"/>
       <c r="F347" s="7"/>
       <c r="G347" s="7"/>
-      <c r="H347" s="7"/>
+      <c r="H347" s="7">
+        <v>55</v>
+      </c>
       <c r="I347" s="7">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J347" s="7"/>
       <c r="K347" s="7"/>
@@ -51385,43 +52097,41 @@
       <c r="S347" s="7"/>
       <c r="T347" s="7"/>
       <c r="U347" s="7">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="348" spans="1:21">
       <c r="A348" s="12">
-        <v>41162</v>
+        <v>41138</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
-      <c r="G348" s="7"/>
+      <c r="G348" s="7">
+        <v>100.4</v>
+      </c>
       <c r="H348" s="7"/>
       <c r="I348" s="7"/>
-      <c r="J348" s="7">
-        <v>100</v>
-      </c>
+      <c r="J348" s="7"/>
       <c r="K348" s="7"/>
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
       <c r="N348" s="7"/>
-      <c r="O348" s="7">
-        <v>48</v>
-      </c>
+      <c r="O348" s="7"/>
       <c r="P348" s="7"/>
       <c r="Q348" s="7"/>
       <c r="R348" s="7"/>
       <c r="S348" s="7"/>
       <c r="T348" s="7"/>
       <c r="U348" s="7">
-        <v>148</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="349" spans="1:21">
       <c r="A349" s="12">
-        <v>41166</v>
+        <v>41151</v>
       </c>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -51431,14 +52141,14 @@
       <c r="G349" s="7"/>
       <c r="H349" s="7"/>
       <c r="I349" s="7"/>
-      <c r="J349" s="7"/>
+      <c r="J349" s="7">
+        <v>100</v>
+      </c>
       <c r="K349" s="7"/>
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
       <c r="N349" s="7"/>
-      <c r="O349" s="7">
-        <v>100</v>
-      </c>
+      <c r="O349" s="7"/>
       <c r="P349" s="7"/>
       <c r="Q349" s="7"/>
       <c r="R349" s="7"/>
@@ -51450,7 +52160,7 @@
     </row>
     <row r="350" spans="1:21">
       <c r="A350" s="12">
-        <v>41171</v>
+        <v>41156</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -51459,38 +52169,38 @@
       <c r="F350" s="7"/>
       <c r="G350" s="7"/>
       <c r="H350" s="7"/>
-      <c r="I350" s="7"/>
+      <c r="I350" s="7">
+        <v>15</v>
+      </c>
       <c r="J350" s="7"/>
       <c r="K350" s="7"/>
       <c r="L350" s="7"/>
       <c r="M350" s="7"/>
       <c r="N350" s="7"/>
-      <c r="O350" s="7">
-        <v>10</v>
-      </c>
+      <c r="O350" s="7"/>
       <c r="P350" s="7"/>
       <c r="Q350" s="7"/>
       <c r="R350" s="7"/>
       <c r="S350" s="7"/>
       <c r="T350" s="7"/>
       <c r="U350" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="351" spans="1:21">
       <c r="A351" s="12">
-        <v>41175</v>
+        <v>41161</v>
       </c>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
-      <c r="F351" s="7">
-        <v>100</v>
-      </c>
+      <c r="F351" s="7"/>
       <c r="G351" s="7"/>
       <c r="H351" s="7"/>
-      <c r="I351" s="7"/>
+      <c r="I351" s="7">
+        <v>76</v>
+      </c>
       <c r="J351" s="7"/>
       <c r="K351" s="7"/>
       <c r="L351" s="7"/>
@@ -51503,34 +52213,30 @@
       <c r="S351" s="7"/>
       <c r="T351" s="7"/>
       <c r="U351" s="7">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="352" spans="1:21">
       <c r="A352" s="12">
-        <v>41197</v>
-      </c>
-      <c r="B352" s="7">
-        <v>10</v>
-      </c>
+        <v>41162</v>
+      </c>
+      <c r="B352" s="7"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
-      <c r="G352" s="7">
-        <v>10</v>
-      </c>
+      <c r="G352" s="7"/>
       <c r="H352" s="7"/>
       <c r="I352" s="7"/>
       <c r="J352" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K352" s="7"/>
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
       <c r="N352" s="7"/>
       <c r="O352" s="7">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P352" s="7"/>
       <c r="Q352" s="7"/>
@@ -51538,12 +52244,12 @@
       <c r="S352" s="7"/>
       <c r="T352" s="7"/>
       <c r="U352" s="7">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="353" spans="1:21">
       <c r="A353" s="12">
-        <v>41198</v>
+        <v>41166</v>
       </c>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -51559,7 +52265,7 @@
       <c r="M353" s="7"/>
       <c r="N353" s="7"/>
       <c r="O353" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="P353" s="7"/>
       <c r="Q353" s="7"/>
@@ -51567,12 +52273,12 @@
       <c r="S353" s="7"/>
       <c r="T353" s="7"/>
       <c r="U353" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="354" spans="1:21">
       <c r="A354" s="12">
-        <v>41205</v>
+        <v>41171</v>
       </c>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -51582,19 +52288,13 @@
       <c r="G354" s="7"/>
       <c r="H354" s="7"/>
       <c r="I354" s="7"/>
-      <c r="J354" s="7">
-        <v>162</v>
-      </c>
+      <c r="J354" s="7"/>
       <c r="K354" s="7"/>
-      <c r="L354" s="7">
-        <v>100</v>
-      </c>
+      <c r="L354" s="7"/>
       <c r="M354" s="7"/>
-      <c r="N354" s="7">
-        <v>100</v>
-      </c>
+      <c r="N354" s="7"/>
       <c r="O354" s="7">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="P354" s="7"/>
       <c r="Q354" s="7"/>
@@ -51602,24 +52302,24 @@
       <c r="S354" s="7"/>
       <c r="T354" s="7"/>
       <c r="U354" s="7">
-        <v>432</v>
+        <v>10</v>
       </c>
     </row>
     <row r="355" spans="1:21">
       <c r="A355" s="12">
-        <v>41214</v>
+        <v>41175</v>
       </c>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
-      <c r="F355" s="7"/>
+      <c r="F355" s="7">
+        <v>100</v>
+      </c>
       <c r="G355" s="7"/>
       <c r="H355" s="7"/>
       <c r="I355" s="7"/>
-      <c r="J355" s="7">
-        <v>2</v>
-      </c>
+      <c r="J355" s="7"/>
       <c r="K355" s="7"/>
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
@@ -51631,41 +52331,47 @@
       <c r="S355" s="7"/>
       <c r="T355" s="7"/>
       <c r="U355" s="7">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="356" spans="1:21">
       <c r="A356" s="12">
-        <v>41215</v>
-      </c>
-      <c r="B356" s="7"/>
+        <v>41197</v>
+      </c>
+      <c r="B356" s="7">
+        <v>10</v>
+      </c>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
       <c r="F356" s="7"/>
-      <c r="G356" s="7"/>
+      <c r="G356" s="7">
+        <v>10</v>
+      </c>
       <c r="H356" s="7"/>
       <c r="I356" s="7"/>
       <c r="J356" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
       <c r="N356" s="7"/>
-      <c r="O356" s="7"/>
+      <c r="O356" s="7">
+        <v>60</v>
+      </c>
       <c r="P356" s="7"/>
       <c r="Q356" s="7"/>
       <c r="R356" s="7"/>
       <c r="S356" s="7"/>
       <c r="T356" s="7"/>
       <c r="U356" s="7">
-        <v>4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="357" spans="1:21">
       <c r="A357" s="12">
-        <v>41237</v>
+        <v>41198</v>
       </c>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -51675,59 +52381,61 @@
       <c r="G357" s="7"/>
       <c r="H357" s="7"/>
       <c r="I357" s="7"/>
-      <c r="J357" s="7">
-        <v>100</v>
-      </c>
+      <c r="J357" s="7"/>
       <c r="K357" s="7"/>
-      <c r="L357" s="7">
-        <v>100</v>
-      </c>
+      <c r="L357" s="7"/>
       <c r="M357" s="7"/>
       <c r="N357" s="7"/>
-      <c r="O357" s="7"/>
+      <c r="O357" s="7">
+        <v>40</v>
+      </c>
       <c r="P357" s="7"/>
       <c r="Q357" s="7"/>
       <c r="R357" s="7"/>
       <c r="S357" s="7"/>
       <c r="T357" s="7"/>
       <c r="U357" s="7">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="358" spans="1:21">
       <c r="A358" s="12">
-        <v>41242</v>
+        <v>41205</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
       <c r="F358" s="7"/>
-      <c r="G358" s="7">
-        <v>100</v>
-      </c>
+      <c r="G358" s="7"/>
       <c r="H358" s="7"/>
       <c r="I358" s="7"/>
       <c r="J358" s="7">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="K358" s="7"/>
-      <c r="L358" s="7"/>
+      <c r="L358" s="7">
+        <v>100</v>
+      </c>
       <c r="M358" s="7"/>
-      <c r="N358" s="7"/>
-      <c r="O358" s="7"/>
+      <c r="N358" s="7">
+        <v>100</v>
+      </c>
+      <c r="O358" s="7">
+        <v>70</v>
+      </c>
       <c r="P358" s="7"/>
       <c r="Q358" s="7"/>
       <c r="R358" s="7"/>
       <c r="S358" s="7"/>
       <c r="T358" s="7"/>
       <c r="U358" s="7">
-        <v>181</v>
+        <v>432</v>
       </c>
     </row>
     <row r="359" spans="1:21">
       <c r="A359" s="12">
-        <v>41253</v>
+        <v>41214</v>
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -51738,7 +52446,7 @@
       <c r="H359" s="7"/>
       <c r="I359" s="7"/>
       <c r="J359" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K359" s="7"/>
       <c r="L359" s="7"/>
@@ -51751,24 +52459,24 @@
       <c r="S359" s="7"/>
       <c r="T359" s="7"/>
       <c r="U359" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:21">
       <c r="A360" s="12">
-        <v>41268</v>
+        <v>41215</v>
       </c>
       <c r="B360" s="7"/>
-      <c r="C360" s="7">
-        <v>24</v>
-      </c>
+      <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
       <c r="G360" s="7"/>
       <c r="H360" s="7"/>
       <c r="I360" s="7"/>
-      <c r="J360" s="7"/>
+      <c r="J360" s="7">
+        <v>4</v>
+      </c>
       <c r="K360" s="7"/>
       <c r="L360" s="7"/>
       <c r="M360" s="7"/>
@@ -51780,26 +52488,28 @@
       <c r="S360" s="7"/>
       <c r="T360" s="7"/>
       <c r="U360" s="7">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:21">
       <c r="A361" s="12">
-        <v>41281</v>
+        <v>41237</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
       <c r="F361" s="7"/>
-      <c r="G361" s="7">
-        <v>200</v>
-      </c>
+      <c r="G361" s="7"/>
       <c r="H361" s="7"/>
       <c r="I361" s="7"/>
-      <c r="J361" s="7"/>
+      <c r="J361" s="7">
+        <v>100</v>
+      </c>
       <c r="K361" s="7"/>
-      <c r="L361" s="7"/>
+      <c r="L361" s="7">
+        <v>100</v>
+      </c>
       <c r="M361" s="7"/>
       <c r="N361" s="7"/>
       <c r="O361" s="7"/>
@@ -51814,20 +52524,20 @@
     </row>
     <row r="362" spans="1:21">
       <c r="A362" s="12">
-        <v>41310</v>
+        <v>41242</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
       <c r="F362" s="7"/>
-      <c r="G362" s="7"/>
+      <c r="G362" s="7">
+        <v>100</v>
+      </c>
       <c r="H362" s="7"/>
-      <c r="I362" s="7">
-        <v>22</v>
-      </c>
+      <c r="I362" s="7"/>
       <c r="J362" s="7">
-        <v>31.9</v>
+        <v>81</v>
       </c>
       <c r="K362" s="7"/>
       <c r="L362" s="7"/>
@@ -51840,24 +52550,24 @@
       <c r="S362" s="7"/>
       <c r="T362" s="7"/>
       <c r="U362" s="7">
-        <v>53.9</v>
+        <v>181</v>
       </c>
     </row>
     <row r="363" spans="1:21">
       <c r="A363" s="12">
-        <v>41323</v>
+        <v>41253</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
-      <c r="G363" s="7">
-        <v>119.6</v>
-      </c>
+      <c r="G363" s="7"/>
       <c r="H363" s="7"/>
       <c r="I363" s="7"/>
-      <c r="J363" s="7"/>
+      <c r="J363" s="7">
+        <v>10</v>
+      </c>
       <c r="K363" s="7"/>
       <c r="L363" s="7"/>
       <c r="M363" s="7"/>
@@ -51869,21 +52579,21 @@
       <c r="S363" s="7"/>
       <c r="T363" s="7"/>
       <c r="U363" s="7">
-        <v>119.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364" spans="1:21">
       <c r="A364" s="12">
-        <v>41331</v>
+        <v>41268</v>
       </c>
       <c r="B364" s="7"/>
-      <c r="C364" s="7"/>
+      <c r="C364" s="7">
+        <v>24</v>
+      </c>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
-      <c r="G364" s="7">
-        <v>100</v>
-      </c>
+      <c r="G364" s="7"/>
       <c r="H364" s="7"/>
       <c r="I364" s="7"/>
       <c r="J364" s="7"/>
@@ -51898,24 +52608,24 @@
       <c r="S364" s="7"/>
       <c r="T364" s="7"/>
       <c r="U364" s="7">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="365" spans="1:21">
       <c r="A365" s="12">
-        <v>41361</v>
+        <v>41281</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
-      <c r="G365" s="7"/>
+      <c r="G365" s="7">
+        <v>200</v>
+      </c>
       <c r="H365" s="7"/>
       <c r="I365" s="7"/>
-      <c r="J365" s="7">
-        <v>40</v>
-      </c>
+      <c r="J365" s="7"/>
       <c r="K365" s="7"/>
       <c r="L365" s="7"/>
       <c r="M365" s="7"/>
@@ -51927,12 +52637,12 @@
       <c r="S365" s="7"/>
       <c r="T365" s="7"/>
       <c r="U365" s="7">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="366" spans="1:21">
       <c r="A366" s="12">
-        <v>41373</v>
+        <v>41310</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -51942,9 +52652,11 @@
       <c r="G366" s="7"/>
       <c r="H366" s="7"/>
       <c r="I366" s="7">
-        <v>91</v>
-      </c>
-      <c r="J366" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="J366" s="7">
+        <v>31.9</v>
+      </c>
       <c r="K366" s="7"/>
       <c r="L366" s="7"/>
       <c r="M366" s="7"/>
@@ -51956,19 +52668,21 @@
       <c r="S366" s="7"/>
       <c r="T366" s="7"/>
       <c r="U366" s="7">
-        <v>91</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="367" spans="1:21">
       <c r="A367" s="12">
-        <v>41374</v>
+        <v>41323</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
-      <c r="G367" s="7"/>
+      <c r="G367" s="7">
+        <v>119.6</v>
+      </c>
       <c r="H367" s="7"/>
       <c r="I367" s="7"/>
       <c r="J367" s="7"/>
@@ -51976,21 +52690,19 @@
       <c r="L367" s="7"/>
       <c r="M367" s="7"/>
       <c r="N367" s="7"/>
-      <c r="O367" s="7">
-        <v>75</v>
-      </c>
+      <c r="O367" s="7"/>
       <c r="P367" s="7"/>
       <c r="Q367" s="7"/>
       <c r="R367" s="7"/>
       <c r="S367" s="7"/>
       <c r="T367" s="7"/>
       <c r="U367" s="7">
-        <v>75</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="368" spans="1:21">
       <c r="A368" s="12">
-        <v>41376</v>
+        <v>41331</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -51998,7 +52710,7 @@
       <c r="E368" s="7"/>
       <c r="F368" s="7"/>
       <c r="G368" s="7">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H368" s="7"/>
       <c r="I368" s="7"/>
@@ -52008,22 +52720,18 @@
       <c r="M368" s="7"/>
       <c r="N368" s="7"/>
       <c r="O368" s="7"/>
-      <c r="P368" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q368" s="7">
-        <v>100</v>
-      </c>
+      <c r="P368" s="7"/>
+      <c r="Q368" s="7"/>
       <c r="R368" s="7"/>
       <c r="S368" s="7"/>
       <c r="T368" s="7"/>
       <c r="U368" s="7">
-        <v>247</v>
+        <v>100</v>
       </c>
     </row>
     <row r="369" spans="1:21">
       <c r="A369" s="12">
-        <v>41382</v>
+        <v>41361</v>
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -52033,13 +52741,13 @@
       <c r="G369" s="7"/>
       <c r="H369" s="7"/>
       <c r="I369" s="7"/>
-      <c r="J369" s="7"/>
+      <c r="J369" s="7">
+        <v>40</v>
+      </c>
       <c r="K369" s="7"/>
       <c r="L369" s="7"/>
       <c r="M369" s="7"/>
-      <c r="N369" s="7">
-        <v>100</v>
-      </c>
+      <c r="N369" s="7"/>
       <c r="O369" s="7"/>
       <c r="P369" s="7"/>
       <c r="Q369" s="7"/>
@@ -52047,12 +52755,12 @@
       <c r="S369" s="7"/>
       <c r="T369" s="7"/>
       <c r="U369" s="7">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="370" spans="1:21">
       <c r="A370" s="12">
-        <v>41383</v>
+        <v>41373</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -52061,27 +52769,27 @@
       <c r="F370" s="7"/>
       <c r="G370" s="7"/>
       <c r="H370" s="7"/>
-      <c r="I370" s="7"/>
+      <c r="I370" s="7">
+        <v>91</v>
+      </c>
       <c r="J370" s="7"/>
       <c r="K370" s="7"/>
       <c r="L370" s="7"/>
       <c r="M370" s="7"/>
       <c r="N370" s="7"/>
       <c r="O370" s="7"/>
-      <c r="P370" s="7">
-        <v>100</v>
-      </c>
+      <c r="P370" s="7"/>
       <c r="Q370" s="7"/>
       <c r="R370" s="7"/>
       <c r="S370" s="7"/>
       <c r="T370" s="7"/>
       <c r="U370" s="7">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="371" spans="1:21">
       <c r="A371" s="12">
-        <v>41386</v>
+        <v>41374</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -52097,7 +52805,7 @@
       <c r="M371" s="7"/>
       <c r="N371" s="7"/>
       <c r="O371" s="7">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="P371" s="7"/>
       <c r="Q371" s="7"/>
@@ -52105,19 +52813,21 @@
       <c r="S371" s="7"/>
       <c r="T371" s="7"/>
       <c r="U371" s="7">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="372" spans="1:21">
       <c r="A372" s="12">
-        <v>41387</v>
+        <v>41376</v>
       </c>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
-      <c r="G372" s="7"/>
+      <c r="G372" s="7">
+        <v>97</v>
+      </c>
       <c r="H372" s="7"/>
       <c r="I372" s="7"/>
       <c r="J372" s="7"/>
@@ -52125,30 +52835,30 @@
       <c r="L372" s="7"/>
       <c r="M372" s="7"/>
       <c r="N372" s="7"/>
-      <c r="O372" s="7">
-        <v>30</v>
-      </c>
-      <c r="P372" s="7"/>
-      <c r="Q372" s="7"/>
+      <c r="O372" s="7"/>
+      <c r="P372" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q372" s="7">
+        <v>100</v>
+      </c>
       <c r="R372" s="7"/>
       <c r="S372" s="7"/>
       <c r="T372" s="7"/>
       <c r="U372" s="7">
-        <v>30</v>
+        <v>247</v>
       </c>
     </row>
     <row r="373" spans="1:21">
       <c r="A373" s="12">
-        <v>41388</v>
+        <v>41382</v>
       </c>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
-      <c r="G373" s="7">
-        <v>20</v>
-      </c>
+      <c r="G373" s="7"/>
       <c r="H373" s="7"/>
       <c r="I373" s="7"/>
       <c r="J373" s="7"/>
@@ -52156,23 +52866,21 @@
       <c r="L373" s="7"/>
       <c r="M373" s="7"/>
       <c r="N373" s="7">
-        <v>40</v>
-      </c>
-      <c r="O373" s="7">
-        <v>11</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O373" s="7"/>
       <c r="P373" s="7"/>
       <c r="Q373" s="7"/>
       <c r="R373" s="7"/>
       <c r="S373" s="7"/>
       <c r="T373" s="7"/>
       <c r="U373" s="7">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="374" spans="1:21">
       <c r="A374" s="12">
-        <v>41390</v>
+        <v>41383</v>
       </c>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -52181,27 +52889,27 @@
       <c r="F374" s="7"/>
       <c r="G374" s="7"/>
       <c r="H374" s="7"/>
-      <c r="I374" s="7">
-        <v>120</v>
-      </c>
+      <c r="I374" s="7"/>
       <c r="J374" s="7"/>
       <c r="K374" s="7"/>
       <c r="L374" s="7"/>
       <c r="M374" s="7"/>
       <c r="N374" s="7"/>
       <c r="O374" s="7"/>
-      <c r="P374" s="7"/>
+      <c r="P374" s="7">
+        <v>100</v>
+      </c>
       <c r="Q374" s="7"/>
       <c r="R374" s="7"/>
       <c r="S374" s="7"/>
       <c r="T374" s="7"/>
       <c r="U374" s="7">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="375" spans="1:21">
       <c r="A375" s="12">
-        <v>41397</v>
+        <v>41386</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -52209,9 +52917,7 @@
       <c r="E375" s="7"/>
       <c r="F375" s="7"/>
       <c r="G375" s="7"/>
-      <c r="H375" s="7">
-        <v>50</v>
-      </c>
+      <c r="H375" s="7"/>
       <c r="I375" s="7"/>
       <c r="J375" s="7"/>
       <c r="K375" s="7"/>
@@ -52219,22 +52925,20 @@
       <c r="M375" s="7"/>
       <c r="N375" s="7"/>
       <c r="O375" s="7">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P375" s="7"/>
       <c r="Q375" s="7"/>
       <c r="R375" s="7"/>
-      <c r="S375" s="7">
-        <v>100</v>
-      </c>
+      <c r="S375" s="7"/>
       <c r="T375" s="7"/>
       <c r="U375" s="7">
-        <v>250</v>
+        <v>40</v>
       </c>
     </row>
     <row r="376" spans="1:21">
       <c r="A376" s="12">
-        <v>41401</v>
+        <v>41387</v>
       </c>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -52249,52 +52953,54 @@
       <c r="L376" s="7"/>
       <c r="M376" s="7"/>
       <c r="N376" s="7"/>
-      <c r="O376" s="7"/>
+      <c r="O376" s="7">
+        <v>30</v>
+      </c>
       <c r="P376" s="7"/>
-      <c r="Q376" s="7">
-        <v>100</v>
-      </c>
+      <c r="Q376" s="7"/>
       <c r="R376" s="7"/>
       <c r="S376" s="7"/>
       <c r="T376" s="7"/>
       <c r="U376" s="7">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="377" spans="1:21">
       <c r="A377" s="12">
-        <v>41402</v>
+        <v>41388</v>
       </c>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
       <c r="F377" s="7"/>
-      <c r="G377" s="7"/>
+      <c r="G377" s="7">
+        <v>20</v>
+      </c>
       <c r="H377" s="7"/>
       <c r="I377" s="7"/>
       <c r="J377" s="7"/>
       <c r="K377" s="7"/>
-      <c r="L377" s="7">
-        <v>100</v>
-      </c>
+      <c r="L377" s="7"/>
       <c r="M377" s="7"/>
-      <c r="N377" s="7"/>
-      <c r="O377" s="7"/>
-      <c r="P377" s="7">
-        <v>50</v>
-      </c>
+      <c r="N377" s="7">
+        <v>40</v>
+      </c>
+      <c r="O377" s="7">
+        <v>11</v>
+      </c>
+      <c r="P377" s="7"/>
       <c r="Q377" s="7"/>
       <c r="R377" s="7"/>
       <c r="S377" s="7"/>
       <c r="T377" s="7"/>
       <c r="U377" s="7">
-        <v>150</v>
+        <v>71</v>
       </c>
     </row>
     <row r="378" spans="1:21">
       <c r="A378" s="12">
-        <v>41403</v>
+        <v>41390</v>
       </c>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -52302,46 +53008,40 @@
       <c r="E378" s="7"/>
       <c r="F378" s="7"/>
       <c r="G378" s="7"/>
-      <c r="H378" s="7">
-        <v>100</v>
-      </c>
-      <c r="I378" s="7"/>
+      <c r="H378" s="7"/>
+      <c r="I378" s="7">
+        <v>120</v>
+      </c>
       <c r="J378" s="7"/>
       <c r="K378" s="7"/>
       <c r="L378" s="7"/>
-      <c r="M378" s="7">
-        <v>100</v>
-      </c>
+      <c r="M378" s="7"/>
       <c r="N378" s="7"/>
       <c r="O378" s="7"/>
       <c r="P378" s="7"/>
       <c r="Q378" s="7"/>
       <c r="R378" s="7"/>
       <c r="S378" s="7"/>
-      <c r="T378" s="7">
-        <v>50</v>
-      </c>
+      <c r="T378" s="7"/>
       <c r="U378" s="7">
-        <v>250</v>
+        <v>120</v>
       </c>
     </row>
     <row r="379" spans="1:21">
       <c r="A379" s="12">
-        <v>41407</v>
+        <v>41397</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
       <c r="F379" s="7"/>
-      <c r="G379" s="7">
-        <v>100</v>
-      </c>
-      <c r="H379" s="7"/>
+      <c r="G379" s="7"/>
+      <c r="H379" s="7">
+        <v>50</v>
+      </c>
       <c r="I379" s="7"/>
-      <c r="J379" s="7">
-        <v>100</v>
-      </c>
+      <c r="J379" s="7"/>
       <c r="K379" s="7"/>
       <c r="L379" s="7"/>
       <c r="M379" s="7"/>
@@ -52355,12 +53055,12 @@
       <c r="S379" s="7"/>
       <c r="T379" s="7"/>
       <c r="U379" s="7">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="380" spans="1:21">
       <c r="A380" s="12">
-        <v>41410</v>
+        <v>41401</v>
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -52369,9 +53069,7 @@
       <c r="F380" s="7"/>
       <c r="G380" s="7"/>
       <c r="H380" s="7"/>
-      <c r="I380" s="7">
-        <v>200</v>
-      </c>
+      <c r="I380" s="7"/>
       <c r="J380" s="7"/>
       <c r="K380" s="7"/>
       <c r="L380" s="7"/>
@@ -52379,17 +53077,19 @@
       <c r="N380" s="7"/>
       <c r="O380" s="7"/>
       <c r="P380" s="7"/>
-      <c r="Q380" s="7"/>
+      <c r="Q380" s="7">
+        <v>100</v>
+      </c>
       <c r="R380" s="7"/>
       <c r="S380" s="7"/>
       <c r="T380" s="7"/>
       <c r="U380" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="381" spans="1:21">
       <c r="A381" s="12">
-        <v>41411</v>
+        <v>41402</v>
       </c>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -52401,26 +53101,26 @@
       <c r="I381" s="7"/>
       <c r="J381" s="7"/>
       <c r="K381" s="7"/>
-      <c r="L381" s="7"/>
+      <c r="L381" s="7">
+        <v>100</v>
+      </c>
       <c r="M381" s="7"/>
-      <c r="N381" s="7">
-        <v>300</v>
-      </c>
+      <c r="N381" s="7"/>
       <c r="O381" s="7"/>
       <c r="P381" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q381" s="7"/>
       <c r="R381" s="7"/>
       <c r="S381" s="7"/>
       <c r="T381" s="7"/>
       <c r="U381" s="7">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="382" spans="1:21">
       <c r="A382" s="12">
-        <v>41414</v>
+        <v>41403</v>
       </c>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -52428,44 +53128,52 @@
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
       <c r="G382" s="7"/>
-      <c r="H382" s="7"/>
+      <c r="H382" s="7">
+        <v>100</v>
+      </c>
       <c r="I382" s="7"/>
-      <c r="J382" s="7">
-        <v>100</v>
-      </c>
+      <c r="J382" s="7"/>
       <c r="K382" s="7"/>
       <c r="L382" s="7"/>
-      <c r="M382" s="7"/>
+      <c r="M382" s="7">
+        <v>100</v>
+      </c>
       <c r="N382" s="7"/>
       <c r="O382" s="7"/>
       <c r="P382" s="7"/>
       <c r="Q382" s="7"/>
       <c r="R382" s="7"/>
-      <c r="S382" s="7"/>
+      <c r="S382" s="7">
+        <v>50</v>
+      </c>
       <c r="T382" s="7"/>
       <c r="U382" s="7">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="383" spans="1:21">
       <c r="A383" s="12">
-        <v>41416</v>
+        <v>41407</v>
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
-      <c r="G383" s="7"/>
+      <c r="G383" s="7">
+        <v>100</v>
+      </c>
       <c r="H383" s="7"/>
       <c r="I383" s="7"/>
-      <c r="J383" s="7"/>
+      <c r="J383" s="7">
+        <v>100</v>
+      </c>
       <c r="K383" s="7"/>
       <c r="L383" s="7"/>
       <c r="M383" s="7"/>
       <c r="N383" s="7"/>
       <c r="O383" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P383" s="7"/>
       <c r="Q383" s="7"/>
@@ -52473,12 +53181,12 @@
       <c r="S383" s="7"/>
       <c r="T383" s="7"/>
       <c r="U383" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="384" spans="1:21">
       <c r="A384" s="12">
-        <v>41424</v>
+        <v>41410</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -52488,7 +53196,7 @@
       <c r="G384" s="7"/>
       <c r="H384" s="7"/>
       <c r="I384" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J384" s="7"/>
       <c r="K384" s="7"/>
@@ -52502,12 +53210,12 @@
       <c r="S384" s="7"/>
       <c r="T384" s="7"/>
       <c r="U384" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="385" spans="1:21">
       <c r="A385" s="12">
-        <v>41429</v>
+        <v>41411</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -52521,7 +53229,9 @@
       <c r="K385" s="7"/>
       <c r="L385" s="7"/>
       <c r="M385" s="7"/>
-      <c r="N385" s="7"/>
+      <c r="N385" s="7">
+        <v>300</v>
+      </c>
       <c r="O385" s="7"/>
       <c r="P385" s="7">
         <v>100</v>
@@ -52531,24 +53241,24 @@
       <c r="S385" s="7"/>
       <c r="T385" s="7"/>
       <c r="U385" s="7">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="386" spans="1:21">
       <c r="A386" s="12">
-        <v>41430</v>
+        <v>41414</v>
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
-      <c r="D386" s="7">
-        <v>100</v>
-      </c>
+      <c r="D386" s="7"/>
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
       <c r="G386" s="7"/>
       <c r="H386" s="7"/>
       <c r="I386" s="7"/>
-      <c r="J386" s="7"/>
+      <c r="J386" s="7">
+        <v>100</v>
+      </c>
       <c r="K386" s="7"/>
       <c r="L386" s="7"/>
       <c r="M386" s="7"/>
@@ -52565,7 +53275,7 @@
     </row>
     <row r="387" spans="1:21">
       <c r="A387" s="12">
-        <v>41431</v>
+        <v>41416</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -52575,39 +53285,37 @@
       <c r="G387" s="7"/>
       <c r="H387" s="7"/>
       <c r="I387" s="7"/>
-      <c r="J387" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="J387" s="7"/>
       <c r="K387" s="7"/>
       <c r="L387" s="7"/>
       <c r="M387" s="7"/>
       <c r="N387" s="7"/>
-      <c r="O387" s="7"/>
+      <c r="O387" s="7">
+        <v>200</v>
+      </c>
       <c r="P387" s="7"/>
       <c r="Q387" s="7"/>
-      <c r="R387" s="7">
-        <v>200</v>
-      </c>
+      <c r="R387" s="7"/>
       <c r="S387" s="7"/>
       <c r="T387" s="7"/>
       <c r="U387" s="7">
-        <v>280.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="388" spans="1:21">
       <c r="A388" s="12">
-        <v>41438</v>
+        <v>41424</v>
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
       <c r="F388" s="7"/>
-      <c r="G388" s="7">
-        <v>20</v>
-      </c>
+      <c r="G388" s="7"/>
       <c r="H388" s="7"/>
-      <c r="I388" s="7"/>
+      <c r="I388" s="7">
+        <v>100</v>
+      </c>
       <c r="J388" s="7"/>
       <c r="K388" s="7"/>
       <c r="L388" s="7"/>
@@ -52620,12 +53328,12 @@
       <c r="S388" s="7"/>
       <c r="T388" s="7"/>
       <c r="U388" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="389" spans="1:21">
       <c r="A389" s="12">
-        <v>41439</v>
+        <v>41429</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -52641,20 +53349,20 @@
       <c r="M389" s="7"/>
       <c r="N389" s="7"/>
       <c r="O389" s="7"/>
-      <c r="P389" s="7"/>
+      <c r="P389" s="7">
+        <v>100</v>
+      </c>
       <c r="Q389" s="7"/>
       <c r="R389" s="7"/>
       <c r="S389" s="7"/>
-      <c r="T389" s="7">
-        <v>100</v>
-      </c>
+      <c r="T389" s="7"/>
       <c r="U389" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="390" spans="1:21">
       <c r="A390" s="12">
-        <v>41443</v>
+        <v>41430</v>
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -52683,7 +53391,7 @@
     </row>
     <row r="391" spans="1:21">
       <c r="A391" s="12">
-        <v>41444</v>
+        <v>41431</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -52693,33 +53401,37 @@
       <c r="G391" s="7"/>
       <c r="H391" s="7"/>
       <c r="I391" s="7"/>
-      <c r="J391" s="7"/>
+      <c r="J391" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K391" s="7"/>
       <c r="L391" s="7"/>
       <c r="M391" s="7"/>
-      <c r="N391" s="7">
-        <v>200</v>
-      </c>
+      <c r="N391" s="7"/>
       <c r="O391" s="7"/>
       <c r="P391" s="7"/>
       <c r="Q391" s="7"/>
-      <c r="R391" s="7"/>
+      <c r="R391" s="7">
+        <v>200</v>
+      </c>
       <c r="S391" s="7"/>
       <c r="T391" s="7"/>
       <c r="U391" s="7">
-        <v>200</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="392" spans="1:21">
       <c r="A392" s="12">
-        <v>41450</v>
+        <v>41438</v>
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
       <c r="F392" s="7"/>
-      <c r="G392" s="7"/>
+      <c r="G392" s="7">
+        <v>20</v>
+      </c>
       <c r="H392" s="7"/>
       <c r="I392" s="7"/>
       <c r="J392" s="7"/>
@@ -52727,23 +53439,19 @@
       <c r="L392" s="7"/>
       <c r="M392" s="7"/>
       <c r="N392" s="7"/>
-      <c r="O392" s="7">
-        <v>140</v>
-      </c>
-      <c r="P392" s="7">
-        <v>100</v>
-      </c>
+      <c r="O392" s="7"/>
+      <c r="P392" s="7"/>
       <c r="Q392" s="7"/>
       <c r="R392" s="7"/>
       <c r="S392" s="7"/>
       <c r="T392" s="7"/>
       <c r="U392" s="7">
-        <v>240</v>
+        <v>20</v>
       </c>
     </row>
     <row r="393" spans="1:21">
       <c r="A393" s="12">
-        <v>41451</v>
+        <v>41439</v>
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -52753,41 +53461,37 @@
       <c r="G393" s="7"/>
       <c r="H393" s="7"/>
       <c r="I393" s="7"/>
-      <c r="J393" s="7">
-        <v>100</v>
-      </c>
+      <c r="J393" s="7"/>
       <c r="K393" s="7"/>
-      <c r="L393" s="7">
-        <v>100</v>
-      </c>
+      <c r="L393" s="7"/>
       <c r="M393" s="7"/>
       <c r="N393" s="7"/>
-      <c r="O393" s="7">
-        <v>200</v>
-      </c>
+      <c r="O393" s="7"/>
       <c r="P393" s="7"/>
       <c r="Q393" s="7"/>
       <c r="R393" s="7"/>
-      <c r="S393" s="7"/>
+      <c r="S393" s="7">
+        <v>100</v>
+      </c>
       <c r="T393" s="7"/>
       <c r="U393" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="394" spans="1:21">
       <c r="A394" s="12">
-        <v>41453</v>
+        <v>41443</v>
       </c>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
-      <c r="D394" s="7"/>
+      <c r="D394" s="7">
+        <v>100</v>
+      </c>
       <c r="E394" s="7"/>
       <c r="F394" s="7"/>
       <c r="G394" s="7"/>
       <c r="H394" s="7"/>
-      <c r="I394" s="7">
-        <v>200</v>
-      </c>
+      <c r="I394" s="7"/>
       <c r="J394" s="7"/>
       <c r="K394" s="7"/>
       <c r="L394" s="7"/>
@@ -52800,12 +53504,12 @@
       <c r="S394" s="7"/>
       <c r="T394" s="7"/>
       <c r="U394" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="395" spans="1:21">
       <c r="A395" s="12">
-        <v>41463</v>
+        <v>41444</v>
       </c>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -52818,10 +53522,10 @@
       <c r="J395" s="7"/>
       <c r="K395" s="7"/>
       <c r="L395" s="7"/>
-      <c r="M395" s="7">
-        <v>20</v>
-      </c>
-      <c r="N395" s="7"/>
+      <c r="M395" s="7"/>
+      <c r="N395" s="7">
+        <v>200</v>
+      </c>
       <c r="O395" s="7"/>
       <c r="P395" s="7"/>
       <c r="Q395" s="7"/>
@@ -52829,12 +53533,12 @@
       <c r="S395" s="7"/>
       <c r="T395" s="7"/>
       <c r="U395" s="7">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="396" spans="1:21">
       <c r="A396" s="12">
-        <v>41464</v>
+        <v>41450</v>
       </c>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -52849,25 +53553,25 @@
       <c r="L396" s="7"/>
       <c r="M396" s="7"/>
       <c r="N396" s="7"/>
-      <c r="O396" s="7"/>
-      <c r="P396" s="7"/>
-      <c r="Q396" s="7">
+      <c r="O396" s="7">
+        <v>140</v>
+      </c>
+      <c r="P396" s="7">
         <v>100</v>
       </c>
+      <c r="Q396" s="7"/>
       <c r="R396" s="7"/>
       <c r="S396" s="7"/>
       <c r="T396" s="7"/>
       <c r="U396" s="7">
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="397" spans="1:21">
       <c r="A397" s="12">
-        <v>41465</v>
-      </c>
-      <c r="B397" s="7">
-        <v>50</v>
-      </c>
+        <v>41451</v>
+      </c>
+      <c r="B397" s="7"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -52875,24 +53579,30 @@
       <c r="G397" s="7"/>
       <c r="H397" s="7"/>
       <c r="I397" s="7"/>
-      <c r="J397" s="7"/>
+      <c r="J397" s="7">
+        <v>100</v>
+      </c>
       <c r="K397" s="7"/>
-      <c r="L397" s="7"/>
+      <c r="L397" s="7">
+        <v>100</v>
+      </c>
       <c r="M397" s="7"/>
       <c r="N397" s="7"/>
-      <c r="O397" s="7"/>
+      <c r="O397" s="7">
+        <v>200</v>
+      </c>
       <c r="P397" s="7"/>
       <c r="Q397" s="7"/>
       <c r="R397" s="7"/>
       <c r="S397" s="7"/>
       <c r="T397" s="7"/>
       <c r="U397" s="7">
-        <v>50</v>
+        <v>400</v>
       </c>
     </row>
     <row r="398" spans="1:21">
       <c r="A398" s="12">
-        <v>41466</v>
+        <v>41453</v>
       </c>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -52901,10 +53611,10 @@
       <c r="F398" s="7"/>
       <c r="G398" s="7"/>
       <c r="H398" s="7"/>
-      <c r="I398" s="7"/>
-      <c r="J398" s="7">
-        <v>100</v>
-      </c>
+      <c r="I398" s="7">
+        <v>200</v>
+      </c>
+      <c r="J398" s="7"/>
       <c r="K398" s="7"/>
       <c r="L398" s="7"/>
       <c r="M398" s="7"/>
@@ -52916,12 +53626,12 @@
       <c r="S398" s="7"/>
       <c r="T398" s="7"/>
       <c r="U398" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="399" spans="1:21">
       <c r="A399" s="12">
-        <v>41467</v>
+        <v>41463</v>
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -52934,23 +53644,23 @@
       <c r="J399" s="7"/>
       <c r="K399" s="7"/>
       <c r="L399" s="7"/>
-      <c r="M399" s="7"/>
+      <c r="M399" s="7">
+        <v>20</v>
+      </c>
       <c r="N399" s="7"/>
       <c r="O399" s="7"/>
       <c r="P399" s="7"/>
       <c r="Q399" s="7"/>
       <c r="R399" s="7"/>
       <c r="S399" s="7"/>
-      <c r="T399" s="7">
-        <v>100</v>
-      </c>
+      <c r="T399" s="7"/>
       <c r="U399" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="400" spans="1:21">
       <c r="A400" s="12">
-        <v>41472</v>
+        <v>41464</v>
       </c>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
@@ -52962,14 +53672,14 @@
       <c r="I400" s="7"/>
       <c r="J400" s="7"/>
       <c r="K400" s="7"/>
-      <c r="L400" s="7">
-        <v>100</v>
-      </c>
+      <c r="L400" s="7"/>
       <c r="M400" s="7"/>
       <c r="N400" s="7"/>
       <c r="O400" s="7"/>
       <c r="P400" s="7"/>
-      <c r="Q400" s="7"/>
+      <c r="Q400" s="7">
+        <v>100</v>
+      </c>
       <c r="R400" s="7"/>
       <c r="S400" s="7"/>
       <c r="T400" s="7"/>
@@ -52979,19 +53689,17 @@
     </row>
     <row r="401" spans="1:21">
       <c r="A401" s="12">
-        <v>41474</v>
+        <v>41465</v>
       </c>
       <c r="B401" s="7">
-        <v>76.5</v>
+        <v>50</v>
       </c>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
       <c r="F401" s="7"/>
       <c r="G401" s="7"/>
-      <c r="H401" s="7">
-        <v>50</v>
-      </c>
+      <c r="H401" s="7"/>
       <c r="I401" s="7"/>
       <c r="J401" s="7"/>
       <c r="K401" s="7"/>
@@ -53000,33 +53708,29 @@
       <c r="N401" s="7"/>
       <c r="O401" s="7"/>
       <c r="P401" s="7"/>
-      <c r="Q401" s="7">
-        <v>200</v>
-      </c>
-      <c r="R401" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q401" s="7"/>
+      <c r="R401" s="7"/>
       <c r="S401" s="7"/>
       <c r="T401" s="7"/>
       <c r="U401" s="7">
-        <v>526.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="402" spans="1:21">
       <c r="A402" s="12">
-        <v>41479</v>
+        <v>41466</v>
       </c>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
       <c r="F402" s="7"/>
-      <c r="G402" s="7">
-        <v>100</v>
-      </c>
+      <c r="G402" s="7"/>
       <c r="H402" s="7"/>
       <c r="I402" s="7"/>
-      <c r="J402" s="7"/>
+      <c r="J402" s="7">
+        <v>100</v>
+      </c>
       <c r="K402" s="7"/>
       <c r="L402" s="7"/>
       <c r="M402" s="7"/>
@@ -53043,7 +53747,7 @@
     </row>
     <row r="403" spans="1:21">
       <c r="A403" s="12">
-        <v>41480</v>
+        <v>41467</v>
       </c>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -53057,22 +53761,22 @@
       <c r="K403" s="7"/>
       <c r="L403" s="7"/>
       <c r="M403" s="7"/>
-      <c r="N403" s="7">
-        <v>200</v>
-      </c>
+      <c r="N403" s="7"/>
       <c r="O403" s="7"/>
       <c r="P403" s="7"/>
       <c r="Q403" s="7"/>
       <c r="R403" s="7"/>
-      <c r="S403" s="7"/>
+      <c r="S403" s="7">
+        <v>100</v>
+      </c>
       <c r="T403" s="7"/>
       <c r="U403" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="404" spans="1:21">
       <c r="A404" s="12">
-        <v>41481</v>
+        <v>41472</v>
       </c>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -53101,50 +53805,56 @@
     </row>
     <row r="405" spans="1:21">
       <c r="A405" s="12">
-        <v>41482</v>
-      </c>
-      <c r="B405" s="7"/>
+        <v>41474</v>
+      </c>
+      <c r="B405" s="7">
+        <v>76.5</v>
+      </c>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
       <c r="F405" s="7"/>
       <c r="G405" s="7"/>
-      <c r="H405" s="7"/>
+      <c r="H405" s="7">
+        <v>50</v>
+      </c>
       <c r="I405" s="7"/>
-      <c r="J405" s="7">
-        <v>100</v>
-      </c>
+      <c r="J405" s="7"/>
       <c r="K405" s="7"/>
       <c r="L405" s="7"/>
       <c r="M405" s="7"/>
       <c r="N405" s="7"/>
       <c r="O405" s="7"/>
       <c r="P405" s="7"/>
-      <c r="Q405" s="7"/>
-      <c r="R405" s="7"/>
+      <c r="Q405" s="7">
+        <v>200</v>
+      </c>
+      <c r="R405" s="7">
+        <v>200</v>
+      </c>
       <c r="S405" s="7"/>
       <c r="T405" s="7"/>
       <c r="U405" s="7">
-        <v>100</v>
+        <v>526.5</v>
       </c>
     </row>
     <row r="406" spans="1:21">
       <c r="A406" s="12">
-        <v>41488</v>
+        <v>41479</v>
       </c>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
       <c r="F406" s="7"/>
-      <c r="G406" s="7"/>
+      <c r="G406" s="7">
+        <v>100</v>
+      </c>
       <c r="H406" s="7"/>
       <c r="I406" s="7"/>
       <c r="J406" s="7"/>
       <c r="K406" s="7"/>
-      <c r="L406" s="7">
-        <v>300</v>
-      </c>
+      <c r="L406" s="7"/>
       <c r="M406" s="7"/>
       <c r="N406" s="7"/>
       <c r="O406" s="7"/>
@@ -53154,16 +53864,14 @@
       <c r="S406" s="7"/>
       <c r="T406" s="7"/>
       <c r="U406" s="7">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="407" spans="1:21">
       <c r="A407" s="12">
-        <v>41495</v>
-      </c>
-      <c r="B407" s="7">
-        <v>100</v>
-      </c>
+        <v>41480</v>
+      </c>
+      <c r="B407" s="7"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -53171,28 +53879,26 @@
       <c r="G407" s="7"/>
       <c r="H407" s="7"/>
       <c r="I407" s="7"/>
-      <c r="J407" s="7">
-        <v>100</v>
-      </c>
+      <c r="J407" s="7"/>
       <c r="K407" s="7"/>
       <c r="L407" s="7"/>
       <c r="M407" s="7"/>
-      <c r="N407" s="7"/>
-      <c r="O407" s="7">
-        <v>300</v>
-      </c>
+      <c r="N407" s="7">
+        <v>200</v>
+      </c>
+      <c r="O407" s="7"/>
       <c r="P407" s="7"/>
       <c r="Q407" s="7"/>
       <c r="R407" s="7"/>
       <c r="S407" s="7"/>
       <c r="T407" s="7"/>
       <c r="U407" s="7">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="408" spans="1:21">
       <c r="A408" s="12">
-        <v>41502</v>
+        <v>41481</v>
       </c>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -53201,12 +53907,12 @@
       <c r="F408" s="7"/>
       <c r="G408" s="7"/>
       <c r="H408" s="7"/>
-      <c r="I408" s="7">
-        <v>200</v>
-      </c>
+      <c r="I408" s="7"/>
       <c r="J408" s="7"/>
       <c r="K408" s="7"/>
-      <c r="L408" s="7"/>
+      <c r="L408" s="7">
+        <v>100</v>
+      </c>
       <c r="M408" s="7"/>
       <c r="N408" s="7"/>
       <c r="O408" s="7"/>
@@ -53216,12 +53922,12 @@
       <c r="S408" s="7"/>
       <c r="T408" s="7"/>
       <c r="U408" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="409" spans="1:21">
       <c r="A409" s="12">
-        <v>41514</v>
+        <v>41482</v>
       </c>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -53250,7 +53956,7 @@
     </row>
     <row r="410" spans="1:21">
       <c r="A410" s="12">
-        <v>41526</v>
+        <v>41488</v>
       </c>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -53262,26 +53968,28 @@
       <c r="I410" s="7"/>
       <c r="J410" s="7"/>
       <c r="K410" s="7"/>
-      <c r="L410" s="7"/>
+      <c r="L410" s="7">
+        <v>300</v>
+      </c>
       <c r="M410" s="7"/>
       <c r="N410" s="7"/>
       <c r="O410" s="7"/>
       <c r="P410" s="7"/>
-      <c r="Q410" s="7">
-        <v>400</v>
-      </c>
+      <c r="Q410" s="7"/>
       <c r="R410" s="7"/>
       <c r="S410" s="7"/>
       <c r="T410" s="7"/>
       <c r="U410" s="7">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="411" spans="1:21">
       <c r="A411" s="12">
-        <v>41528</v>
-      </c>
-      <c r="B411" s="7"/>
+        <v>41495</v>
+      </c>
+      <c r="B411" s="7">
+        <v>100</v>
+      </c>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -53289,57 +53997,57 @@
       <c r="G411" s="7"/>
       <c r="H411" s="7"/>
       <c r="I411" s="7"/>
-      <c r="J411" s="7"/>
+      <c r="J411" s="7">
+        <v>100</v>
+      </c>
       <c r="K411" s="7"/>
       <c r="L411" s="7"/>
       <c r="M411" s="7"/>
       <c r="N411" s="7"/>
-      <c r="O411" s="7"/>
+      <c r="O411" s="7">
+        <v>300</v>
+      </c>
       <c r="P411" s="7"/>
       <c r="Q411" s="7"/>
-      <c r="R411" s="7">
-        <v>200</v>
-      </c>
+      <c r="R411" s="7"/>
       <c r="S411" s="7"/>
       <c r="T411" s="7"/>
       <c r="U411" s="7">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="412" spans="1:21">
       <c r="A412" s="12">
-        <v>41533</v>
-      </c>
-      <c r="B412" s="7">
-        <v>200</v>
-      </c>
+        <v>41502</v>
+      </c>
+      <c r="B412" s="7"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
       <c r="F412" s="7"/>
       <c r="G412" s="7"/>
       <c r="H412" s="7"/>
-      <c r="I412" s="7"/>
+      <c r="I412" s="7">
+        <v>200</v>
+      </c>
       <c r="J412" s="7"/>
       <c r="K412" s="7"/>
       <c r="L412" s="7"/>
       <c r="M412" s="7"/>
       <c r="N412" s="7"/>
       <c r="O412" s="7"/>
-      <c r="P412" s="7">
-        <v>100</v>
-      </c>
+      <c r="P412" s="7"/>
       <c r="Q412" s="7"/>
       <c r="R412" s="7"/>
       <c r="S412" s="7"/>
       <c r="T412" s="7"/>
       <c r="U412" s="7">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="413" spans="1:21">
       <c r="A413" s="12">
-        <v>41537</v>
+        <v>41514</v>
       </c>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -53350,7 +54058,7 @@
       <c r="H413" s="7"/>
       <c r="I413" s="7"/>
       <c r="J413" s="7">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="K413" s="7"/>
       <c r="L413" s="7"/>
@@ -53363,12 +54071,12 @@
       <c r="S413" s="7"/>
       <c r="T413" s="7"/>
       <c r="U413" s="7">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="414" spans="1:21">
       <c r="A414" s="12">
-        <v>41547</v>
+        <v>41526</v>
       </c>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -53382,22 +54090,22 @@
       <c r="K414" s="7"/>
       <c r="L414" s="7"/>
       <c r="M414" s="7"/>
-      <c r="N414" s="7">
-        <v>80</v>
-      </c>
+      <c r="N414" s="7"/>
       <c r="O414" s="7"/>
       <c r="P414" s="7"/>
-      <c r="Q414" s="7"/>
+      <c r="Q414" s="7">
+        <v>400</v>
+      </c>
       <c r="R414" s="7"/>
       <c r="S414" s="7"/>
       <c r="T414" s="7"/>
       <c r="U414" s="7">
-        <v>80</v>
+        <v>400</v>
       </c>
     </row>
     <row r="415" spans="1:21">
       <c r="A415" s="12">
-        <v>41559</v>
+        <v>41528</v>
       </c>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -53407,9 +54115,7 @@
       <c r="G415" s="7"/>
       <c r="H415" s="7"/>
       <c r="I415" s="7"/>
-      <c r="J415" s="7">
-        <v>161</v>
-      </c>
+      <c r="J415" s="7"/>
       <c r="K415" s="7"/>
       <c r="L415" s="7"/>
       <c r="M415" s="7"/>
@@ -53417,53 +54123,49 @@
       <c r="O415" s="7"/>
       <c r="P415" s="7"/>
       <c r="Q415" s="7"/>
-      <c r="R415" s="7"/>
+      <c r="R415" s="7">
+        <v>200</v>
+      </c>
       <c r="S415" s="7"/>
       <c r="T415" s="7"/>
       <c r="U415" s="7">
-        <v>161</v>
+        <v>200</v>
       </c>
     </row>
     <row r="416" spans="1:21">
       <c r="A416" s="12">
-        <v>41565</v>
-      </c>
-      <c r="B416" s="7"/>
+        <v>41533</v>
+      </c>
+      <c r="B416" s="7">
+        <v>200</v>
+      </c>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
       <c r="F416" s="7"/>
       <c r="G416" s="7"/>
       <c r="H416" s="7"/>
-      <c r="I416" s="7">
-        <v>150</v>
-      </c>
+      <c r="I416" s="7"/>
       <c r="J416" s="7"/>
       <c r="K416" s="7"/>
-      <c r="L416" s="7">
-        <v>200</v>
-      </c>
+      <c r="L416" s="7"/>
       <c r="M416" s="7"/>
       <c r="N416" s="7"/>
       <c r="O416" s="7"/>
       <c r="P416" s="7">
         <v>100</v>
       </c>
-      <c r="Q416" s="7">
-        <v>100</v>
-      </c>
-      <c r="R416" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q416" s="7"/>
+      <c r="R416" s="7"/>
       <c r="S416" s="7"/>
       <c r="T416" s="7"/>
       <c r="U416" s="7">
-        <v>750</v>
+        <v>300</v>
       </c>
     </row>
     <row r="417" spans="1:21">
       <c r="A417" s="12">
-        <v>41575</v>
+        <v>41537</v>
       </c>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -53474,7 +54176,7 @@
       <c r="H417" s="7"/>
       <c r="I417" s="7"/>
       <c r="J417" s="7">
-        <v>80.5</v>
+        <v>77</v>
       </c>
       <c r="K417" s="7"/>
       <c r="L417" s="7"/>
@@ -53487,12 +54189,12 @@
       <c r="S417" s="7"/>
       <c r="T417" s="7"/>
       <c r="U417" s="7">
-        <v>80.5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="418" spans="1:21">
       <c r="A418" s="12">
-        <v>41579</v>
+        <v>41547</v>
       </c>
       <c r="B418" s="7"/>
       <c r="C418" s="7"/>
@@ -53502,13 +54204,13 @@
       <c r="G418" s="7"/>
       <c r="H418" s="7"/>
       <c r="I418" s="7"/>
-      <c r="J418" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="J418" s="7"/>
       <c r="K418" s="7"/>
       <c r="L418" s="7"/>
       <c r="M418" s="7"/>
-      <c r="N418" s="7"/>
+      <c r="N418" s="7">
+        <v>80</v>
+      </c>
       <c r="O418" s="7"/>
       <c r="P418" s="7"/>
       <c r="Q418" s="7"/>
@@ -53516,16 +54218,14 @@
       <c r="S418" s="7"/>
       <c r="T418" s="7"/>
       <c r="U418" s="7">
-        <v>80.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="419" spans="1:21">
       <c r="A419" s="12">
-        <v>41590</v>
-      </c>
-      <c r="B419" s="7">
-        <v>100</v>
-      </c>
+        <v>41559</v>
+      </c>
+      <c r="B419" s="7"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -53533,7 +54233,9 @@
       <c r="G419" s="7"/>
       <c r="H419" s="7"/>
       <c r="I419" s="7"/>
-      <c r="J419" s="7"/>
+      <c r="J419" s="7">
+        <v>161</v>
+      </c>
       <c r="K419" s="7"/>
       <c r="L419" s="7"/>
       <c r="M419" s="7"/>
@@ -53541,51 +54243,55 @@
       <c r="O419" s="7"/>
       <c r="P419" s="7"/>
       <c r="Q419" s="7"/>
-      <c r="R419" s="7">
-        <v>150</v>
-      </c>
+      <c r="R419" s="7"/>
       <c r="S419" s="7"/>
       <c r="T419" s="7"/>
       <c r="U419" s="7">
-        <v>250</v>
+        <v>161</v>
       </c>
     </row>
     <row r="420" spans="1:21">
       <c r="A420" s="12">
-        <v>41597</v>
-      </c>
-      <c r="B420" s="7">
-        <v>100</v>
-      </c>
+        <v>41565</v>
+      </c>
+      <c r="B420" s="7"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
       <c r="F420" s="7"/>
       <c r="G420" s="7"/>
       <c r="H420" s="7"/>
-      <c r="I420" s="7"/>
+      <c r="I420" s="7">
+        <v>150</v>
+      </c>
       <c r="J420" s="7"/>
       <c r="K420" s="7"/>
-      <c r="L420" s="7"/>
+      <c r="L420" s="7">
+        <v>200</v>
+      </c>
       <c r="M420" s="7"/>
       <c r="N420" s="7"/>
       <c r="O420" s="7"/>
-      <c r="P420" s="7"/>
-      <c r="Q420" s="7"/>
-      <c r="R420" s="7"/>
+      <c r="P420" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q420" s="7">
+        <v>100</v>
+      </c>
+      <c r="R420" s="7">
+        <v>200</v>
+      </c>
       <c r="S420" s="7"/>
       <c r="T420" s="7"/>
       <c r="U420" s="7">
-        <v>100</v>
+        <v>750</v>
       </c>
     </row>
     <row r="421" spans="1:21">
       <c r="A421" s="12">
-        <v>41599</v>
-      </c>
-      <c r="B421" s="7">
-        <v>7</v>
-      </c>
+        <v>41575</v>
+      </c>
+      <c r="B421" s="7"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -53593,7 +54299,9 @@
       <c r="G421" s="7"/>
       <c r="H421" s="7"/>
       <c r="I421" s="7"/>
-      <c r="J421" s="7"/>
+      <c r="J421" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K421" s="7"/>
       <c r="L421" s="7"/>
       <c r="M421" s="7"/>
@@ -53605,12 +54313,12 @@
       <c r="S421" s="7"/>
       <c r="T421" s="7"/>
       <c r="U421" s="7">
-        <v>7</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="422" spans="1:21">
       <c r="A422" s="12">
-        <v>41600</v>
+        <v>41579</v>
       </c>
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
@@ -53621,31 +54329,25 @@
       <c r="H422" s="7"/>
       <c r="I422" s="7"/>
       <c r="J422" s="7">
-        <v>200</v>
+        <v>80.5</v>
       </c>
       <c r="K422" s="7"/>
-      <c r="L422" s="7">
-        <v>200</v>
-      </c>
+      <c r="L422" s="7"/>
       <c r="M422" s="7"/>
-      <c r="N422" s="7">
-        <v>100</v>
-      </c>
+      <c r="N422" s="7"/>
       <c r="O422" s="7"/>
-      <c r="P422" s="7">
-        <v>150</v>
-      </c>
+      <c r="P422" s="7"/>
       <c r="Q422" s="7"/>
       <c r="R422" s="7"/>
       <c r="S422" s="7"/>
       <c r="T422" s="7"/>
       <c r="U422" s="7">
-        <v>650</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="423" spans="1:21">
       <c r="A423" s="12">
-        <v>41603</v>
+        <v>41590</v>
       </c>
       <c r="B423" s="7">
         <v>100</v>
@@ -53665,18 +54367,22 @@
       <c r="O423" s="7"/>
       <c r="P423" s="7"/>
       <c r="Q423" s="7"/>
-      <c r="R423" s="7"/>
+      <c r="R423" s="7">
+        <v>150</v>
+      </c>
       <c r="S423" s="7"/>
       <c r="T423" s="7"/>
       <c r="U423" s="7">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="424" spans="1:21">
       <c r="A424" s="12">
-        <v>41605</v>
-      </c>
-      <c r="B424" s="7"/>
+        <v>41597</v>
+      </c>
+      <c r="B424" s="7">
+        <v>100</v>
+      </c>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -53691,21 +54397,21 @@
       <c r="N424" s="7"/>
       <c r="O424" s="7"/>
       <c r="P424" s="7"/>
-      <c r="Q424" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q424" s="7"/>
       <c r="R424" s="7"/>
       <c r="S424" s="7"/>
       <c r="T424" s="7"/>
       <c r="U424" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="425" spans="1:21">
       <c r="A425" s="12">
-        <v>41610</v>
-      </c>
-      <c r="B425" s="7"/>
+        <v>41599</v>
+      </c>
+      <c r="B425" s="7">
+        <v>7</v>
+      </c>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -53718,21 +54424,19 @@
       <c r="L425" s="7"/>
       <c r="M425" s="7"/>
       <c r="N425" s="7"/>
-      <c r="O425" s="7">
-        <v>100</v>
-      </c>
+      <c r="O425" s="7"/>
       <c r="P425" s="7"/>
       <c r="Q425" s="7"/>
       <c r="R425" s="7"/>
       <c r="S425" s="7"/>
       <c r="T425" s="7"/>
       <c r="U425" s="7">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="426" spans="1:21">
       <c r="A426" s="12">
-        <v>41611</v>
+        <v>41600</v>
       </c>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -53742,86 +54446,241 @@
       <c r="G426" s="7"/>
       <c r="H426" s="7"/>
       <c r="I426" s="7"/>
-      <c r="J426" s="7"/>
+      <c r="J426" s="7">
+        <v>200</v>
+      </c>
       <c r="K426" s="7"/>
-      <c r="L426" s="7"/>
+      <c r="L426" s="7">
+        <v>200</v>
+      </c>
       <c r="M426" s="7"/>
       <c r="N426" s="7">
+        <v>100</v>
+      </c>
+      <c r="O426" s="7"/>
+      <c r="P426" s="7">
         <v>150</v>
       </c>
-      <c r="O426" s="7"/>
-      <c r="P426" s="7"/>
       <c r="Q426" s="7"/>
       <c r="R426" s="7"/>
       <c r="S426" s="7"/>
       <c r="T426" s="7"/>
       <c r="U426" s="7">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="427" spans="1:21">
+      <c r="A427" s="12">
+        <v>41603</v>
+      </c>
+      <c r="B427" s="7">
+        <v>100</v>
+      </c>
+      <c r="C427" s="7"/>
+      <c r="D427" s="7"/>
+      <c r="E427" s="7"/>
+      <c r="F427" s="7"/>
+      <c r="G427" s="7"/>
+      <c r="H427" s="7"/>
+      <c r="I427" s="7"/>
+      <c r="J427" s="7"/>
+      <c r="K427" s="7"/>
+      <c r="L427" s="7"/>
+      <c r="M427" s="7"/>
+      <c r="N427" s="7"/>
+      <c r="O427" s="7"/>
+      <c r="P427" s="7"/>
+      <c r="Q427" s="7"/>
+      <c r="R427" s="7"/>
+      <c r="S427" s="7"/>
+      <c r="T427" s="7"/>
+      <c r="U427" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="428" spans="1:21">
+      <c r="A428" s="12">
+        <v>41605</v>
+      </c>
+      <c r="B428" s="7"/>
+      <c r="C428" s="7"/>
+      <c r="D428" s="7"/>
+      <c r="E428" s="7"/>
+      <c r="F428" s="7"/>
+      <c r="G428" s="7"/>
+      <c r="H428" s="7"/>
+      <c r="I428" s="7"/>
+      <c r="J428" s="7"/>
+      <c r="K428" s="7"/>
+      <c r="L428" s="7"/>
+      <c r="M428" s="7"/>
+      <c r="N428" s="7"/>
+      <c r="O428" s="7"/>
+      <c r="P428" s="7"/>
+      <c r="Q428" s="7">
+        <v>200</v>
+      </c>
+      <c r="R428" s="7"/>
+      <c r="S428" s="7"/>
+      <c r="T428" s="7"/>
+      <c r="U428" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="429" spans="1:21">
+      <c r="A429" s="12">
+        <v>41610</v>
+      </c>
+      <c r="B429" s="7"/>
+      <c r="C429" s="7"/>
+      <c r="D429" s="7"/>
+      <c r="E429" s="7"/>
+      <c r="F429" s="7"/>
+      <c r="G429" s="7"/>
+      <c r="H429" s="7"/>
+      <c r="I429" s="7"/>
+      <c r="J429" s="7"/>
+      <c r="K429" s="7"/>
+      <c r="L429" s="7"/>
+      <c r="M429" s="7"/>
+      <c r="N429" s="7"/>
+      <c r="O429" s="7">
+        <v>100</v>
+      </c>
+      <c r="P429" s="7"/>
+      <c r="Q429" s="7"/>
+      <c r="R429" s="7"/>
+      <c r="S429" s="7"/>
+      <c r="T429" s="7"/>
+      <c r="U429" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="430" spans="1:21">
+      <c r="A430" s="12">
+        <v>41611</v>
+      </c>
+      <c r="B430" s="7"/>
+      <c r="C430" s="7"/>
+      <c r="D430" s="7"/>
+      <c r="E430" s="7"/>
+      <c r="F430" s="7"/>
+      <c r="G430" s="7"/>
+      <c r="H430" s="7"/>
+      <c r="I430" s="7"/>
+      <c r="J430" s="7"/>
+      <c r="K430" s="7"/>
+      <c r="L430" s="7"/>
+      <c r="M430" s="7"/>
+      <c r="N430" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="427" spans="1:21">
-      <c r="A427" s="6" t="s">
+      <c r="O430" s="7"/>
+      <c r="P430" s="7"/>
+      <c r="Q430" s="7"/>
+      <c r="R430" s="7"/>
+      <c r="S430" s="7"/>
+      <c r="T430" s="7"/>
+      <c r="U430" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="431" spans="1:21">
+      <c r="A431" s="12">
+        <v>41614</v>
+      </c>
+      <c r="B431" s="7"/>
+      <c r="C431" s="7"/>
+      <c r="D431" s="7"/>
+      <c r="E431" s="7"/>
+      <c r="F431" s="7"/>
+      <c r="G431" s="7"/>
+      <c r="H431" s="7"/>
+      <c r="I431" s="7"/>
+      <c r="J431" s="7"/>
+      <c r="K431" s="7"/>
+      <c r="L431" s="7">
+        <v>50</v>
+      </c>
+      <c r="M431" s="7"/>
+      <c r="N431" s="7"/>
+      <c r="O431" s="7"/>
+      <c r="P431" s="7"/>
+      <c r="Q431" s="7"/>
+      <c r="R431" s="7">
+        <v>200</v>
+      </c>
+      <c r="S431" s="7"/>
+      <c r="T431" s="7">
+        <v>100</v>
+      </c>
+      <c r="U431" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="432" spans="1:21">
+      <c r="A432" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B427" s="7">
-        <v>-70.899999999999977</v>
-      </c>
-      <c r="C427" s="7">
+      <c r="B432" s="7">
+        <v>-116.29999999999995</v>
+      </c>
+      <c r="C432" s="7">
         <v>56</v>
       </c>
-      <c r="D427" s="7">
+      <c r="D432" s="7">
         <v>15.899999999999977</v>
       </c>
-      <c r="E427" s="7">
+      <c r="E432" s="7">
         <v>14</v>
       </c>
-      <c r="F427" s="7">
+      <c r="F432" s="7">
         <v>-8</v>
       </c>
-      <c r="G427" s="7">
+      <c r="G432" s="7">
         <v>-13.699999999999591</v>
       </c>
-      <c r="H427" s="7">
+      <c r="H432" s="7">
         <v>-34.099999999999909</v>
       </c>
-      <c r="I427" s="7">
+      <c r="I432" s="7">
         <v>8.9999999999995453</v>
       </c>
-      <c r="J427" s="7">
-        <v>56.999999999997726</v>
-      </c>
-      <c r="K427" s="7">
+      <c r="J432" s="7">
+        <v>28.199999999997999</v>
+      </c>
+      <c r="K432" s="7">
         <v>9.3000000000000114</v>
       </c>
-      <c r="L427" s="7">
-        <v>-22.099999999999227</v>
-      </c>
-      <c r="M427" s="7">
+      <c r="L432" s="7">
+        <v>-45.299999999999045</v>
+      </c>
+      <c r="M432" s="7">
         <v>43.400000000000006</v>
       </c>
-      <c r="N427" s="7">
-        <v>39.500000000000909</v>
-      </c>
-      <c r="O427" s="7">
-        <v>3.7000000000014097</v>
-      </c>
-      <c r="P427" s="7">
-        <v>55.899999999999977</v>
-      </c>
-      <c r="Q427" s="7">
-        <v>-43.199999999999591</v>
-      </c>
-      <c r="R427" s="7">
-        <v>-93.899999999999636</v>
-      </c>
-      <c r="S427" s="7">
-        <v>0</v>
-      </c>
-      <c r="T427" s="7">
+      <c r="N432" s="7">
+        <v>-33.699999999998909</v>
+      </c>
+      <c r="O432" s="7">
+        <v>-69.499999999998408</v>
+      </c>
+      <c r="P432" s="7">
+        <v>14.499999999999886</v>
+      </c>
+      <c r="Q432" s="7">
+        <v>-116.39999999999941</v>
+      </c>
+      <c r="R432" s="7">
+        <v>32.900000000000546</v>
+      </c>
+      <c r="S432" s="7">
         <v>39.400000000000006</v>
       </c>
-      <c r="U427" s="7">
-        <v>57.200000000013461</v>
+      <c r="T432" s="7">
+        <v>26.800000000000011</v>
+      </c>
+      <c r="U432" s="7">
+        <v>-147.59999999998945</v>
       </c>
     </row>
   </sheetData>
@@ -53832,10 +54691,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -53856,11 +54715,11 @@
     <col min="16" max="16" width="7.75" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="8.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -53868,7 +54727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -53927,15 +54786,18 @@
         <v>480</v>
       </c>
       <c r="T2" t="s">
+        <v>567</v>
+      </c>
+      <c r="U2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7">
-        <v>-821.39999999999975</v>
+        <v>-866.79999999999973</v>
       </c>
       <c r="C3" s="7">
         <v>-31</v>
@@ -53959,40 +54821,43 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3125.400000000001</v>
+        <v>-3154.2000000000012</v>
       </c>
       <c r="K3" s="7">
         <v>-220.7</v>
       </c>
       <c r="L3" s="7">
-        <v>-1422.0999999999992</v>
+        <v>-1495.299999999999</v>
       </c>
       <c r="M3" s="7">
         <v>-176.6</v>
       </c>
       <c r="N3" s="7">
-        <v>-1430.4999999999991</v>
+        <v>-1503.6999999999991</v>
       </c>
       <c r="O3" s="7">
-        <v>-1675.2999999999986</v>
+        <v>-1748.4999999999986</v>
       </c>
       <c r="P3" s="7">
-        <v>-887.09999999999991</v>
+        <v>-928.5</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1243.1999999999996</v>
+        <v>-1316.3999999999996</v>
       </c>
       <c r="R3" s="7">
-        <v>-1043.8999999999996</v>
+        <v>-1117.0999999999995</v>
       </c>
       <c r="S3" s="7">
-        <v>-210.59999999999997</v>
+        <v>-210.6</v>
       </c>
       <c r="T3" s="7">
-        <v>-17941.199999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>-73.199999999999989</v>
+      </c>
+      <c r="U3" s="7">
+        <v>-18495.999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -54027,7 +54892,7 @@
         <v>230</v>
       </c>
       <c r="L4" s="7">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="M4" s="7">
         <v>220</v>
@@ -54045,21 +54910,24 @@
         <v>1200</v>
       </c>
       <c r="R4" s="7">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="S4" s="7">
         <v>250</v>
       </c>
       <c r="T4" s="7">
-        <v>17998.400000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>100</v>
+      </c>
+      <c r="U4" s="7">
+        <v>18348.400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="8">
-        <v>-70.89999999999975</v>
+        <v>-116.29999999999973</v>
       </c>
       <c r="C5" s="8">
         <v>56</v>
@@ -54083,37 +54951,40 @@
         <v>8.9999999999995453</v>
       </c>
       <c r="J5" s="8">
-        <v>56.999999999999091</v>
+        <v>28.199999999998909</v>
       </c>
       <c r="K5" s="8">
         <v>9.3000000000000114</v>
       </c>
       <c r="L5" s="8">
-        <v>-22.099999999999227</v>
+        <v>-45.299999999999045</v>
       </c>
       <c r="M5" s="8">
         <v>43.400000000000006</v>
       </c>
       <c r="N5" s="8">
-        <v>39.500000000000909</v>
+        <v>-33.699999999999136</v>
       </c>
       <c r="O5" s="8">
-        <v>3.7000000000014097</v>
+        <v>-69.499999999998636</v>
       </c>
       <c r="P5" s="8">
-        <v>55.900000000000091</v>
+        <v>14.5</v>
       </c>
       <c r="Q5" s="8">
-        <v>-43.199999999999591</v>
+        <v>-116.39999999999964</v>
       </c>
       <c r="R5" s="8">
-        <v>-93.899999999999636</v>
+        <v>32.900000000000546</v>
       </c>
       <c r="S5" s="8">
-        <v>39.400000000000034</v>
+        <v>39.400000000000006</v>
       </c>
       <c r="T5" s="8">
-        <v>57.200000000004366</v>
+        <v>26.800000000000011</v>
+      </c>
+      <c r="U5" s="8">
+        <v>-147.59999999999491</v>
       </c>
     </row>
   </sheetData>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4221" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4274" uniqueCount="568">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2460,16 +2460,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2481,20 +2490,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="37">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -2565,6 +2664,96 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
       </font>
     </dxf>
@@ -2631,46 +2820,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -2682,13 +2831,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41611.61727638889" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1550">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41614.692645949071" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1583">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="消费记录明细"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-12-04T00:00:00" count="326">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-12-07T00:00:00" count="329">
         <d v="2011-09-09T00:00:00"/>
         <d v="2011-09-30T00:00:00"/>
         <d v="2011-11-28T00:00:00"/>
@@ -3010,6 +3159,9 @@
         <d v="2013-11-29T00:00:00"/>
         <d v="2013-12-02T00:00:00"/>
         <d v="2013-12-03T00:00:00"/>
+        <d v="2013-12-04T00:00:00"/>
+        <d v="2013-12-05T00:00:00"/>
+        <d v="2013-12-06T00:00:00"/>
         <m/>
         <d v="2011-01-12T00:00:00" u="1"/>
         <d v="2013-05-14T00:00:00" u="1"/>
@@ -3068,7 +3220,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1550">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1583">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -12312,43 +12464,43 @@
   <r>
     <x v="319"/>
     <x v="13"/>
-    <m/>
+    <n v="-12.6"/>
     <x v="0"/>
   </r>
   <r>
     <x v="319"/>
     <x v="20"/>
-    <m/>
+    <n v="-12.6"/>
     <x v="0"/>
   </r>
   <r>
     <x v="319"/>
     <x v="12"/>
-    <m/>
+    <n v="-12.6"/>
     <x v="0"/>
   </r>
   <r>
     <x v="319"/>
     <x v="19"/>
-    <m/>
+    <n v="-12.6"/>
     <x v="0"/>
   </r>
   <r>
     <x v="319"/>
     <x v="15"/>
-    <m/>
+    <n v="-12.6"/>
     <x v="0"/>
   </r>
   <r>
     <x v="319"/>
     <x v="17"/>
-    <m/>
+    <n v="-12.6"/>
     <x v="0"/>
   </r>
   <r>
     <x v="319"/>
     <x v="24"/>
-    <m/>
+    <n v="-12.6"/>
     <x v="0"/>
   </r>
   <r>
@@ -12364,7 +12516,205 @@
     <x v="1"/>
   </r>
   <r>
+    <x v="320"/>
+    <x v="13"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="320"/>
+    <x v="20"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="320"/>
+    <x v="12"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="320"/>
+    <x v="19"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="320"/>
+    <x v="15"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="320"/>
+    <x v="8"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="320"/>
+    <x v="24"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="321"/>
+    <x v="13"/>
+    <n v="-18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <x v="20"/>
+    <n v="-18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <x v="12"/>
+    <n v="-18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <x v="19"/>
+    <n v="-18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <x v="15"/>
+    <n v="-18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <x v="8"/>
+    <n v="-18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <x v="24"/>
+    <n v="-18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="13"/>
+    <n v="-15.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="20"/>
+    <n v="-15.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="12"/>
+    <n v="-15.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="19"/>
+    <n v="-15.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="15"/>
+    <n v="-15.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="10"/>
+    <n v="-15.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="24"/>
+    <n v="-15.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="17"/>
+    <n v="-15.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="13"/>
+    <n v="-13.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="20"/>
+    <n v="-13.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="12"/>
+    <n v="-13.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="19"/>
+    <n v="-13.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="15"/>
+    <n v="-13.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="10"/>
+    <n v="-13.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="24"/>
+    <n v="-13.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="17"/>
+    <n v="-13.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="8"/>
+    <n v="-13.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="24"/>
+    <n v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="13"/>
+    <n v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="324"/>
     <x v="25"/>
     <m/>
     <x v="2"/>
@@ -12374,15 +12724,15 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:U427" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:U432" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="327">
-        <item m="1" x="322"/>
+      <items count="330">
         <item m="1" x="325"/>
+        <item m="1" x="328"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="324"/>
+        <item m="1" x="327"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -12582,7 +12932,7 @@
         <item x="198"/>
         <item x="199"/>
         <item x="200"/>
-        <item m="1" x="323"/>
+        <item m="1" x="326"/>
         <item x="201"/>
         <item x="202"/>
         <item x="203"/>
@@ -12704,6 +13054,9 @@
         <item x="319"/>
         <item x="320"/>
         <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12732,10 +13085,10 @@
         <item h="1" x="18"/>
         <item x="19"/>
         <item x="20"/>
-        <item x="21"/>
+        <item h="1" x="21"/>
         <item x="22"/>
         <item h="1" x="23"/>
-        <item h="1" x="24"/>
+        <item x="24"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12753,7 +13106,7 @@
     <field x="3"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="425">
+  <rowItems count="430">
     <i>
       <x/>
     </i>
@@ -13648,6 +14001,18 @@
     <i r="1">
       <x v="323"/>
     </i>
+    <i r="1">
+      <x v="324"/>
+    </i>
+    <i r="1">
+      <x v="325"/>
+    </i>
+    <i r="1">
+      <x v="326"/>
+    </i>
+    <i r="1">
+      <x v="327"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -14026,6 +14391,9 @@
     <i r="1">
       <x v="324"/>
     </i>
+    <i r="1">
+      <x v="327"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -14086,10 +14454,10 @@
       <x v="22"/>
     </i>
     <i>
-      <x v="23"/>
+      <x v="24"/>
     </i>
     <i>
-      <x v="24"/>
+      <x v="26"/>
     </i>
     <i t="grand">
       <x/>
@@ -14099,20 +14467,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="15">
+    <format dxfId="36">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="35">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14127,7 +14495,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:T5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:U5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
@@ -14158,7 +14526,7 @@
         <item h="1" x="21"/>
         <item x="22"/>
         <item h="1" x="23"/>
-        <item h="1" x="24"/>
+        <item x="24"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14189,7 +14557,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="19">
+  <colItems count="20">
     <i>
       <x/>
     </i>
@@ -14244,6 +14612,9 @@
     <i>
       <x v="24"/>
     </i>
+    <i>
+      <x v="26"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -14252,20 +14623,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="11">
+    <format dxfId="32">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="31">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14565,11 +14936,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1557"/>
+  <dimension ref="A1:V1583"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1536" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1557" sqref="F1557"/>
+      <pane ySplit="1" topLeftCell="A1556" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1575" sqref="B1575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14714,7 +15085,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -14734,7 +15105,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -14752,7 +15123,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -14770,7 +15141,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -14788,7 +15159,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -14806,7 +15177,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -14824,7 +15195,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -15634,7 +16005,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -15654,7 +16025,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="24"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -15672,7 +16043,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -16490,7 +16861,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="26"/>
+      <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -16508,7 +16879,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="27"/>
+      <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -16526,7 +16897,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="28"/>
+      <c r="F111" s="31"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -16663,7 +17034,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="26" t="s">
+      <c r="F119" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -16683,7 +17054,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="28"/>
+      <c r="F120" s="31"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -17580,7 +17951,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="26" t="s">
+      <c r="F172" s="29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -17600,7 +17971,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="27"/>
+      <c r="F173" s="30"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -17618,7 +17989,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="27"/>
+      <c r="F174" s="30"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -17636,7 +18007,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="28"/>
+      <c r="F175" s="31"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -19654,7 +20025,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="29" t="s">
+      <c r="F288" s="22" t="s">
         <v>202</v>
       </c>
     </row>
@@ -19674,7 +20045,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="31"/>
+      <c r="F289" s="26"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -19692,7 +20063,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="30"/>
+      <c r="F290" s="23"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -19710,7 +20081,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="29" t="s">
+      <c r="F291" s="22" t="s">
         <v>212</v>
       </c>
     </row>
@@ -19730,7 +20101,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="31"/>
+      <c r="F292" s="26"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -19748,7 +20119,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="31"/>
+      <c r="F293" s="26"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -19766,7 +20137,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="30"/>
+      <c r="F294" s="23"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -19784,7 +20155,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="29" t="s">
+      <c r="F295" s="22" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19804,7 +20175,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="30"/>
+      <c r="F296" s="23"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -19822,7 +20193,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="23" t="s">
+      <c r="F297" s="24" t="s">
         <v>207</v>
       </c>
     </row>
@@ -20699,7 +21070,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="29" t="s">
+      <c r="F342" s="22" t="s">
         <v>284</v>
       </c>
     </row>
@@ -20719,7 +21090,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="30"/>
+      <c r="F343" s="23"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -39359,6 +39730,9 @@
       <c r="B1542" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1542" s="1">
+        <v>-12.6</v>
+      </c>
       <c r="D1542" s="9" t="s">
         <v>7</v>
       </c>
@@ -39370,6 +39744,9 @@
       <c r="B1543" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1543" s="1">
+        <v>-12.6</v>
+      </c>
       <c r="D1543" s="9" t="s">
         <v>7</v>
       </c>
@@ -39381,6 +39758,9 @@
       <c r="B1544" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C1544" s="1">
+        <v>-12.6</v>
+      </c>
       <c r="D1544" s="9" t="s">
         <v>7</v>
       </c>
@@ -39392,6 +39772,9 @@
       <c r="B1545" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1545" s="1">
+        <v>-12.6</v>
+      </c>
       <c r="D1545" s="9" t="s">
         <v>7</v>
       </c>
@@ -39403,6 +39786,9 @@
       <c r="B1546" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1546" s="1">
+        <v>-12.6</v>
+      </c>
       <c r="D1546" s="9" t="s">
         <v>7</v>
       </c>
@@ -39414,6 +39800,9 @@
       <c r="B1547" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="C1547" s="1">
+        <v>-12.6</v>
+      </c>
       <c r="D1547" s="9" t="s">
         <v>7</v>
       </c>
@@ -39425,6 +39814,9 @@
       <c r="B1548" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="C1548" s="1">
+        <v>-12.6</v>
+      </c>
       <c r="D1548" s="9" t="s">
         <v>7</v>
       </c>
@@ -39464,6 +39856,9 @@
       <c r="B1551" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1551" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1551" s="9" t="s">
         <v>7</v>
       </c>
@@ -39475,6 +39870,9 @@
       <c r="B1552" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1552" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1552" s="9" t="s">
         <v>7</v>
       </c>
@@ -39486,6 +39884,9 @@
       <c r="B1553" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C1553" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1553" s="9" t="s">
         <v>7</v>
       </c>
@@ -39497,6 +39898,9 @@
       <c r="B1554" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1554" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1554" s="9" t="s">
         <v>7</v>
       </c>
@@ -39508,6 +39912,9 @@
       <c r="B1555" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1555" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1555" s="9" t="s">
         <v>7</v>
       </c>
@@ -39519,6 +39926,9 @@
       <c r="B1556" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C1556" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1556" s="9" t="s">
         <v>7</v>
       </c>
@@ -39530,41 +39940,408 @@
       <c r="B1557" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="C1557" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1557" s="9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:4">
+      <c r="A1558" s="4">
+        <v>41612</v>
+      </c>
+      <c r="B1558" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1558" s="1">
+        <v>-18</v>
+      </c>
+      <c r="D1558" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:4">
+      <c r="A1559" s="4">
+        <v>41612</v>
+      </c>
+      <c r="B1559" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1559" s="1">
+        <v>-18</v>
+      </c>
+      <c r="D1559" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:4">
+      <c r="A1560" s="4">
+        <v>41612</v>
+      </c>
+      <c r="B1560" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1560" s="1">
+        <v>-18</v>
+      </c>
+      <c r="D1560" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:4">
+      <c r="A1561" s="4">
+        <v>41612</v>
+      </c>
+      <c r="B1561" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1561" s="1">
+        <v>-18</v>
+      </c>
+      <c r="D1561" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:4">
+      <c r="A1562" s="4">
+        <v>41612</v>
+      </c>
+      <c r="B1562" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1562" s="1">
+        <v>-18</v>
+      </c>
+      <c r="D1562" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:4">
+      <c r="A1563" s="4">
+        <v>41612</v>
+      </c>
+      <c r="B1563" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1563" s="1">
+        <v>-18</v>
+      </c>
+      <c r="D1563" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:4">
+      <c r="A1564" s="4">
+        <v>41612</v>
+      </c>
+      <c r="B1564" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1564" s="1">
+        <v>-18</v>
+      </c>
+      <c r="D1564" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:4">
+      <c r="A1565" s="4">
+        <v>41613</v>
+      </c>
+      <c r="B1565" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1565" s="1">
+        <v>-15.2</v>
+      </c>
+      <c r="D1565" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:4">
+      <c r="A1566" s="4">
+        <v>41613</v>
+      </c>
+      <c r="B1566" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1566" s="1">
+        <v>-15.2</v>
+      </c>
+      <c r="D1566" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:4">
+      <c r="A1567" s="4">
+        <v>41613</v>
+      </c>
+      <c r="B1567" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1567" s="1">
+        <v>-15.2</v>
+      </c>
+      <c r="D1567" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:4">
+      <c r="A1568" s="4">
+        <v>41613</v>
+      </c>
+      <c r="B1568" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1568" s="1">
+        <v>-15.2</v>
+      </c>
+      <c r="D1568" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:4">
+      <c r="A1569" s="4">
+        <v>41613</v>
+      </c>
+      <c r="B1569" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1569" s="1">
+        <v>-15.2</v>
+      </c>
+      <c r="D1569" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:4">
+      <c r="A1570" s="4">
+        <v>41613</v>
+      </c>
+      <c r="B1570" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1570" s="1">
+        <v>-15.2</v>
+      </c>
+      <c r="D1570" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:4">
+      <c r="A1571" s="4">
+        <v>41613</v>
+      </c>
+      <c r="B1571" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1571" s="1">
+        <v>-15.2</v>
+      </c>
+      <c r="D1571" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:4">
+      <c r="A1572" s="4">
+        <v>41613</v>
+      </c>
+      <c r="B1572" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1572" s="1">
+        <v>-15.2</v>
+      </c>
+      <c r="D1572" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:4">
+      <c r="A1573" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1573" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1573" s="1">
+        <v>-13.6</v>
+      </c>
+      <c r="D1573" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:4">
+      <c r="A1574" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1574" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1574" s="1">
+        <v>-13.6</v>
+      </c>
+      <c r="D1574" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:4">
+      <c r="A1575" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1575" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1575" s="1">
+        <v>-13.6</v>
+      </c>
+      <c r="D1575" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:4">
+      <c r="A1576" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1576" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1576" s="1">
+        <v>-13.6</v>
+      </c>
+      <c r="D1576" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:4">
+      <c r="A1577" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1577" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1577" s="1">
+        <v>-13.6</v>
+      </c>
+      <c r="D1577" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:4">
+      <c r="A1578" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1578" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1578" s="1">
+        <v>-13.6</v>
+      </c>
+      <c r="D1578" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:4">
+      <c r="A1579" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1579" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1579" s="1">
+        <v>-13.6</v>
+      </c>
+      <c r="D1579" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:4">
+      <c r="A1580" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1580" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1580" s="1">
+        <v>-13.6</v>
+      </c>
+      <c r="D1580" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:4">
+      <c r="A1581" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1581" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1581" s="1">
+        <v>-13.6</v>
+      </c>
+      <c r="D1581" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:4">
+      <c r="A1582" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1582" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1582" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1582" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:4">
+      <c r="A1583" s="4">
+        <v>41614</v>
+      </c>
+      <c r="B1583" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1583" s="1">
+        <v>50</v>
+      </c>
+      <c r="D1583" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F172:F175"/>
     <mergeCell ref="F342:F343"/>
     <mergeCell ref="F295:F296"/>
     <mergeCell ref="F297:F298"/>
     <mergeCell ref="F291:F294"/>
     <mergeCell ref="F288:F290"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F172:F175"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39583,11 +40360,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V427"/>
+  <dimension ref="A1:V432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F398" sqref="F398"/>
+      <pane ySplit="3" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E399" sqref="E399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -39607,9 +40384,9 @@
     <col min="14" max="15" width="9.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -39695,10 +40472,10 @@
         <v>478</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>480</v>
+        <v>567</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>15</v>
@@ -39710,7 +40487,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="7">
-        <v>-821.4</v>
+        <v>-866.8</v>
       </c>
       <c r="C3" s="7">
         <v>-31</v>
@@ -39734,40 +40511,40 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3125.4000000000024</v>
+        <v>-3154.2000000000021</v>
       </c>
       <c r="K3" s="7">
         <v>-220.7</v>
       </c>
       <c r="L3" s="7">
-        <v>-1422.0999999999992</v>
+        <v>-1495.299999999999</v>
       </c>
       <c r="M3" s="7">
         <v>-176.6</v>
       </c>
       <c r="N3" s="7">
-        <v>-1430.4999999999991</v>
+        <v>-1503.6999999999989</v>
       </c>
       <c r="O3" s="7">
-        <v>-1675.2999999999986</v>
+        <v>-1748.4999999999984</v>
       </c>
       <c r="P3" s="7">
-        <v>-887.1</v>
+        <v>-928.50000000000011</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1243.1999999999996</v>
+        <v>-1316.3999999999994</v>
       </c>
       <c r="R3" s="7">
-        <v>-1043.8999999999996</v>
+        <v>-1117.0999999999995</v>
       </c>
       <c r="S3" s="7">
-        <v>-100</v>
+        <v>-210.6</v>
       </c>
       <c r="T3" s="7">
-        <v>-210.6</v>
+        <v>-73.199999999999989</v>
       </c>
       <c r="U3" s="7">
-        <v>-18041.199999999986</v>
+        <v>-18495.999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -45186,12 +45963,10 @@
       </c>
       <c r="Q175" s="7"/>
       <c r="R175" s="7"/>
-      <c r="S175" s="7">
-        <v>-11.2</v>
-      </c>
+      <c r="S175" s="7"/>
       <c r="T175" s="7"/>
       <c r="U175" s="7">
-        <v>-78.400000000000006</v>
+        <v>-67.2</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -45228,11 +46003,9 @@
       <c r="S176" s="7">
         <v>-12.5</v>
       </c>
-      <c r="T176" s="7">
-        <v>-12.5</v>
-      </c>
+      <c r="T176" s="7"/>
       <c r="U176" s="7">
-        <v>-87.5</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -45268,12 +46041,10 @@
         <v>-12.7</v>
       </c>
       <c r="R177" s="7"/>
-      <c r="S177" s="7">
-        <v>-76.3</v>
-      </c>
+      <c r="S177" s="7"/>
       <c r="T177" s="7"/>
       <c r="U177" s="7">
-        <v>-152.5</v>
+        <v>-76.2</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -45366,10 +46137,10 @@
       <c r="R179" s="7">
         <v>-12.5</v>
       </c>
-      <c r="S179" s="7"/>
-      <c r="T179" s="7">
+      <c r="S179" s="7">
         <v>-13.4</v>
       </c>
+      <c r="T179" s="7"/>
       <c r="U179" s="7">
         <v>-181.3</v>
       </c>
@@ -45413,10 +46184,10 @@
       <c r="R180" s="7">
         <v>-29.8</v>
       </c>
-      <c r="S180" s="7"/>
-      <c r="T180" s="7">
+      <c r="S180" s="7">
         <v>-13.2</v>
       </c>
+      <c r="T180" s="7"/>
       <c r="U180" s="7">
         <v>-208.6</v>
       </c>
@@ -45961,10 +46732,10 @@
       </c>
       <c r="Q194" s="7"/>
       <c r="R194" s="7"/>
-      <c r="S194" s="7"/>
-      <c r="T194" s="7">
+      <c r="S194" s="7">
         <v>-16.3</v>
       </c>
+      <c r="T194" s="7"/>
       <c r="U194" s="7">
         <v>-81.5</v>
       </c>
@@ -46000,10 +46771,10 @@
       </c>
       <c r="Q195" s="7"/>
       <c r="R195" s="7"/>
-      <c r="S195" s="7"/>
-      <c r="T195" s="7">
+      <c r="S195" s="7">
         <v>-15.6</v>
       </c>
+      <c r="T195" s="7"/>
       <c r="U195" s="7">
         <v>-93.6</v>
       </c>
@@ -46039,10 +46810,10 @@
       </c>
       <c r="Q196" s="7"/>
       <c r="R196" s="7"/>
-      <c r="S196" s="7"/>
-      <c r="T196" s="7">
+      <c r="S196" s="7">
         <v>-15.6</v>
       </c>
+      <c r="T196" s="7"/>
       <c r="U196" s="7">
         <v>-93.6</v>
       </c>
@@ -46080,10 +46851,10 @@
       <c r="R197" s="7">
         <v>-13.7</v>
       </c>
-      <c r="S197" s="7"/>
-      <c r="T197" s="7">
+      <c r="S197" s="7">
         <v>-13.7</v>
       </c>
+      <c r="T197" s="7"/>
       <c r="U197" s="7">
         <v>-95.9</v>
       </c>
@@ -46179,10 +46950,10 @@
       </c>
       <c r="Q200" s="7"/>
       <c r="R200" s="7"/>
-      <c r="S200" s="7"/>
-      <c r="T200" s="7">
+      <c r="S200" s="7">
         <v>-11.6</v>
       </c>
+      <c r="T200" s="7"/>
       <c r="U200" s="7">
         <v>-81.199999999999989</v>
       </c>
@@ -46224,10 +46995,10 @@
       <c r="R201" s="7">
         <v>-13.9</v>
       </c>
-      <c r="S201" s="7"/>
-      <c r="T201" s="7">
+      <c r="S201" s="7">
         <v>-13.9</v>
       </c>
+      <c r="T201" s="7"/>
       <c r="U201" s="7">
         <v>-125.10000000000002</v>
       </c>
@@ -46787,10 +47558,10 @@
       <c r="R216" s="7">
         <v>-12.6</v>
       </c>
-      <c r="S216" s="7"/>
-      <c r="T216" s="7">
+      <c r="S216" s="7">
         <v>-12.6</v>
       </c>
+      <c r="T216" s="7"/>
       <c r="U216" s="7">
         <v>-113.39999999999998</v>
       </c>
@@ -46830,10 +47601,10 @@
       <c r="R217" s="7">
         <v>-12.6</v>
       </c>
-      <c r="S217" s="7"/>
-      <c r="T217" s="7">
+      <c r="S217" s="7">
         <v>-12.6</v>
       </c>
+      <c r="T217" s="7"/>
       <c r="U217" s="7">
         <v>-100.79999999999998</v>
       </c>
@@ -49310,10 +50081,10 @@
       <c r="R283" s="7">
         <v>-16.8</v>
       </c>
-      <c r="S283" s="7"/>
-      <c r="T283" s="7">
+      <c r="S283" s="7">
         <v>-16.8</v>
       </c>
+      <c r="T283" s="7"/>
       <c r="U283" s="7">
         <v>-84</v>
       </c>
@@ -49778,10 +50549,10 @@
       <c r="R295" s="7">
         <v>-14</v>
       </c>
-      <c r="S295" s="7"/>
-      <c r="T295" s="7">
+      <c r="S295" s="7">
         <v>-14</v>
       </c>
+      <c r="T295" s="7"/>
       <c r="U295" s="7">
         <v>-126</v>
       </c>
@@ -49819,10 +50590,10 @@
       <c r="R296" s="7">
         <v>-13.8</v>
       </c>
-      <c r="S296" s="7"/>
-      <c r="T296" s="7">
+      <c r="S296" s="7">
         <v>-13.8</v>
       </c>
+      <c r="T296" s="7"/>
       <c r="U296" s="7">
         <v>-96.6</v>
       </c>
@@ -49901,10 +50672,10 @@
       <c r="R298" s="7">
         <v>-15</v>
       </c>
-      <c r="S298" s="7"/>
-      <c r="T298" s="7">
+      <c r="S298" s="7">
         <v>-15</v>
       </c>
+      <c r="T298" s="7"/>
       <c r="U298" s="7">
         <v>-120</v>
       </c>
@@ -49958,122 +50729,120 @@
       <c r="I300" s="7"/>
       <c r="J300" s="7"/>
       <c r="K300" s="7"/>
-      <c r="L300" s="7"/>
+      <c r="L300" s="7">
+        <v>-12.6</v>
+      </c>
       <c r="M300" s="7"/>
-      <c r="N300" s="7"/>
-      <c r="O300" s="7"/>
-      <c r="P300" s="7"/>
-      <c r="Q300" s="7"/>
-      <c r="R300" s="7"/>
+      <c r="N300" s="7">
+        <v>-12.6</v>
+      </c>
+      <c r="O300" s="7">
+        <v>-12.6</v>
+      </c>
+      <c r="P300" s="7">
+        <v>-12.6</v>
+      </c>
+      <c r="Q300" s="7">
+        <v>-12.6</v>
+      </c>
+      <c r="R300" s="7">
+        <v>-12.6</v>
+      </c>
       <c r="S300" s="7"/>
-      <c r="T300" s="7"/>
-      <c r="U300" s="7"/>
+      <c r="T300" s="7">
+        <v>-12.6</v>
+      </c>
+      <c r="U300" s="7">
+        <v>-88.199999999999989</v>
+      </c>
     </row>
     <row r="301" spans="1:21">
-      <c r="A301" s="6" t="s">
-        <v>5</v>
+      <c r="A301" s="12">
+        <v>41611</v>
       </c>
       <c r="B301" s="7">
-        <v>750.5</v>
-      </c>
-      <c r="C301" s="7">
-        <v>87</v>
-      </c>
-      <c r="D301" s="7">
-        <v>300</v>
-      </c>
-      <c r="E301" s="7">
-        <v>56</v>
-      </c>
-      <c r="F301" s="7">
-        <v>200</v>
-      </c>
-      <c r="G301" s="7">
-        <v>2023</v>
-      </c>
-      <c r="H301" s="7">
-        <v>555</v>
-      </c>
-      <c r="I301" s="7">
-        <v>2502.5</v>
-      </c>
-      <c r="J301" s="7">
-        <v>3182.4</v>
-      </c>
-      <c r="K301" s="7">
-        <v>230</v>
-      </c>
+        <v>-13.8</v>
+      </c>
+      <c r="C301" s="7"/>
+      <c r="D301" s="7"/>
+      <c r="E301" s="7"/>
+      <c r="F301" s="7"/>
+      <c r="G301" s="7"/>
+      <c r="H301" s="7"/>
+      <c r="I301" s="7"/>
+      <c r="J301" s="7"/>
+      <c r="K301" s="7"/>
       <c r="L301" s="7">
-        <v>1400</v>
-      </c>
-      <c r="M301" s="7">
-        <v>220</v>
-      </c>
+        <v>-13.8</v>
+      </c>
+      <c r="M301" s="7"/>
       <c r="N301" s="7">
-        <v>1470</v>
+        <v>-13.8</v>
       </c>
       <c r="O301" s="7">
-        <v>1679</v>
-      </c>
-      <c r="P301" s="7">
-        <v>943</v>
-      </c>
+        <v>-13.8</v>
+      </c>
+      <c r="P301" s="7"/>
       <c r="Q301" s="7">
-        <v>1200</v>
+        <v>-13.8</v>
       </c>
       <c r="R301" s="7">
-        <v>950</v>
-      </c>
-      <c r="S301" s="7">
-        <v>100</v>
-      </c>
+        <v>-13.8</v>
+      </c>
+      <c r="S301" s="7"/>
       <c r="T301" s="7">
-        <v>250</v>
+        <v>-13.8</v>
       </c>
       <c r="U301" s="7">
-        <v>18098.400000000001</v>
+        <v>-96.6</v>
       </c>
     </row>
     <row r="302" spans="1:21">
       <c r="A302" s="12">
-        <v>40875</v>
-      </c>
-      <c r="B302" s="7"/>
-      <c r="C302" s="7">
-        <v>63</v>
-      </c>
+        <v>41612</v>
+      </c>
+      <c r="B302" s="7">
+        <v>-18</v>
+      </c>
+      <c r="C302" s="7"/>
       <c r="D302" s="7"/>
-      <c r="E302" s="7">
-        <v>56</v>
-      </c>
+      <c r="E302" s="7"/>
       <c r="F302" s="7"/>
       <c r="G302" s="7"/>
-      <c r="H302" s="7">
-        <v>0</v>
-      </c>
+      <c r="H302" s="7"/>
       <c r="I302" s="7"/>
       <c r="J302" s="7"/>
       <c r="K302" s="7"/>
-      <c r="L302" s="7"/>
+      <c r="L302" s="7">
+        <v>-18</v>
+      </c>
       <c r="M302" s="7"/>
-      <c r="N302" s="7"/>
-      <c r="O302" s="7"/>
+      <c r="N302" s="7">
+        <v>-18</v>
+      </c>
+      <c r="O302" s="7">
+        <v>-18</v>
+      </c>
       <c r="P302" s="7"/>
-      <c r="Q302" s="7"/>
-      <c r="R302" s="7"/>
+      <c r="Q302" s="7">
+        <v>-18</v>
+      </c>
+      <c r="R302" s="7">
+        <v>-18</v>
+      </c>
       <c r="S302" s="7"/>
-      <c r="T302" s="7"/>
+      <c r="T302" s="7">
+        <v>-18</v>
+      </c>
       <c r="U302" s="7">
-        <v>119</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="303" spans="1:21">
       <c r="A303" s="12">
-        <v>40879</v>
-      </c>
-      <c r="B303" s="7">
-        <v>7</v>
-      </c>
+        <v>41613</v>
+      </c>
+      <c r="B303" s="7"/>
       <c r="C303" s="7"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
@@ -50081,95 +50850,165 @@
       <c r="G303" s="7"/>
       <c r="H303" s="7"/>
       <c r="I303" s="7"/>
-      <c r="J303" s="7"/>
+      <c r="J303" s="7">
+        <v>-15.2</v>
+      </c>
       <c r="K303" s="7"/>
-      <c r="L303" s="7"/>
+      <c r="L303" s="7">
+        <v>-15.2</v>
+      </c>
       <c r="M303" s="7"/>
-      <c r="N303" s="7"/>
-      <c r="O303" s="7"/>
-      <c r="P303" s="7"/>
-      <c r="Q303" s="7"/>
-      <c r="R303" s="7"/>
+      <c r="N303" s="7">
+        <v>-15.2</v>
+      </c>
+      <c r="O303" s="7">
+        <v>-15.2</v>
+      </c>
+      <c r="P303" s="7">
+        <v>-15.2</v>
+      </c>
+      <c r="Q303" s="7">
+        <v>-15.2</v>
+      </c>
+      <c r="R303" s="7">
+        <v>-15.2</v>
+      </c>
       <c r="S303" s="7"/>
-      <c r="T303" s="7"/>
+      <c r="T303" s="7">
+        <v>-15.2</v>
+      </c>
       <c r="U303" s="7">
-        <v>7</v>
+        <v>-121.60000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:21">
       <c r="A304" s="12">
-        <v>40883</v>
-      </c>
-      <c r="B304" s="7"/>
+        <v>41614</v>
+      </c>
+      <c r="B304" s="7">
+        <v>-13.6</v>
+      </c>
       <c r="C304" s="7"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
       <c r="F304" s="7"/>
-      <c r="G304" s="7">
-        <v>50</v>
-      </c>
+      <c r="G304" s="7"/>
       <c r="H304" s="7"/>
       <c r="I304" s="7"/>
-      <c r="J304" s="7"/>
+      <c r="J304" s="7">
+        <v>-13.6</v>
+      </c>
       <c r="K304" s="7"/>
-      <c r="L304" s="7"/>
+      <c r="L304" s="7">
+        <v>-13.6</v>
+      </c>
       <c r="M304" s="7"/>
-      <c r="N304" s="7"/>
-      <c r="O304" s="7"/>
-      <c r="P304" s="7"/>
-      <c r="Q304" s="7"/>
-      <c r="R304" s="7"/>
+      <c r="N304" s="7">
+        <v>-13.6</v>
+      </c>
+      <c r="O304" s="7">
+        <v>-13.6</v>
+      </c>
+      <c r="P304" s="7">
+        <v>-13.6</v>
+      </c>
+      <c r="Q304" s="7">
+        <v>-13.6</v>
+      </c>
+      <c r="R304" s="7">
+        <v>-13.6</v>
+      </c>
       <c r="S304" s="7"/>
-      <c r="T304" s="7"/>
+      <c r="T304" s="7">
+        <v>-13.6</v>
+      </c>
       <c r="U304" s="7">
-        <v>50</v>
+        <v>-122.39999999999998</v>
       </c>
     </row>
     <row r="305" spans="1:21">
-      <c r="A305" s="12">
-        <v>40891</v>
-      </c>
-      <c r="B305" s="7"/>
-      <c r="C305" s="7"/>
-      <c r="D305" s="7"/>
-      <c r="E305" s="7"/>
-      <c r="F305" s="7"/>
-      <c r="G305" s="7"/>
-      <c r="H305" s="7"/>
+      <c r="A305" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B305" s="7">
+        <v>750.5</v>
+      </c>
+      <c r="C305" s="7">
+        <v>87</v>
+      </c>
+      <c r="D305" s="7">
+        <v>300</v>
+      </c>
+      <c r="E305" s="7">
+        <v>56</v>
+      </c>
+      <c r="F305" s="7">
+        <v>200</v>
+      </c>
+      <c r="G305" s="7">
+        <v>2023</v>
+      </c>
+      <c r="H305" s="7">
+        <v>555</v>
+      </c>
       <c r="I305" s="7">
-        <v>65</v>
-      </c>
-      <c r="J305" s="7"/>
-      <c r="K305" s="7"/>
-      <c r="L305" s="7"/>
-      <c r="M305" s="7"/>
-      <c r="N305" s="7"/>
-      <c r="O305" s="7"/>
-      <c r="P305" s="7"/>
-      <c r="Q305" s="7"/>
-      <c r="R305" s="7"/>
-      <c r="S305" s="7"/>
-      <c r="T305" s="7"/>
+        <v>2502.5</v>
+      </c>
+      <c r="J305" s="7">
+        <v>3182.4</v>
+      </c>
+      <c r="K305" s="7">
+        <v>230</v>
+      </c>
+      <c r="L305" s="7">
+        <v>1450</v>
+      </c>
+      <c r="M305" s="7">
+        <v>220</v>
+      </c>
+      <c r="N305" s="7">
+        <v>1470</v>
+      </c>
+      <c r="O305" s="7">
+        <v>1679</v>
+      </c>
+      <c r="P305" s="7">
+        <v>943</v>
+      </c>
+      <c r="Q305" s="7">
+        <v>1200</v>
+      </c>
+      <c r="R305" s="7">
+        <v>950</v>
+      </c>
+      <c r="S305" s="7">
+        <v>250</v>
+      </c>
+      <c r="T305" s="7">
+        <v>100</v>
+      </c>
       <c r="U305" s="7">
-        <v>65</v>
+        <v>18148.400000000001</v>
       </c>
     </row>
     <row r="306" spans="1:21">
       <c r="A306" s="12">
-        <v>40892</v>
+        <v>40875</v>
       </c>
       <c r="B306" s="7"/>
-      <c r="C306" s="7"/>
+      <c r="C306" s="7">
+        <v>63</v>
+      </c>
       <c r="D306" s="7"/>
-      <c r="E306" s="7"/>
+      <c r="E306" s="7">
+        <v>56</v>
+      </c>
       <c r="F306" s="7"/>
-      <c r="G306" s="7">
-        <v>100</v>
-      </c>
-      <c r="H306" s="7"/>
-      <c r="I306" s="7">
-        <v>68</v>
-      </c>
+      <c r="G306" s="7"/>
+      <c r="H306" s="7">
+        <v>0</v>
+      </c>
+      <c r="I306" s="7"/>
       <c r="J306" s="7"/>
       <c r="K306" s="7"/>
       <c r="L306" s="7"/>
@@ -50182,23 +51021,23 @@
       <c r="S306" s="7"/>
       <c r="T306" s="7"/>
       <c r="U306" s="7">
-        <v>168</v>
+        <v>119</v>
       </c>
     </row>
     <row r="307" spans="1:21">
       <c r="A307" s="12">
-        <v>40913</v>
-      </c>
-      <c r="B307" s="7"/>
+        <v>40879</v>
+      </c>
+      <c r="B307" s="7">
+        <v>7</v>
+      </c>
       <c r="C307" s="7"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
       <c r="G307" s="7"/>
       <c r="H307" s="7"/>
-      <c r="I307" s="7">
-        <v>679.5</v>
-      </c>
+      <c r="I307" s="7"/>
       <c r="J307" s="7"/>
       <c r="K307" s="7"/>
       <c r="L307" s="7"/>
@@ -50211,12 +51050,12 @@
       <c r="S307" s="7"/>
       <c r="T307" s="7"/>
       <c r="U307" s="7">
-        <v>679.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:21">
       <c r="A308" s="12">
-        <v>40917</v>
+        <v>40883</v>
       </c>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -50224,7 +51063,7 @@
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
       <c r="G308" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H308" s="7"/>
       <c r="I308" s="7"/>
@@ -50240,12 +51079,12 @@
       <c r="S308" s="7"/>
       <c r="T308" s="7"/>
       <c r="U308" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="309" spans="1:21">
       <c r="A309" s="12">
-        <v>40919</v>
+        <v>40891</v>
       </c>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -50254,10 +51093,10 @@
       <c r="F309" s="7"/>
       <c r="G309" s="7"/>
       <c r="H309" s="7"/>
-      <c r="I309" s="7"/>
-      <c r="J309" s="7">
-        <v>15</v>
-      </c>
+      <c r="I309" s="7">
+        <v>65</v>
+      </c>
+      <c r="J309" s="7"/>
       <c r="K309" s="7"/>
       <c r="L309" s="7"/>
       <c r="M309" s="7"/>
@@ -50269,25 +51108,25 @@
       <c r="S309" s="7"/>
       <c r="T309" s="7"/>
       <c r="U309" s="7">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="310" spans="1:21">
       <c r="A310" s="12">
-        <v>40921</v>
+        <v>40892</v>
       </c>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
-      <c r="D310" s="7">
+      <c r="D310" s="7"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="7"/>
+      <c r="G310" s="7">
         <v>100</v>
       </c>
-      <c r="E310" s="7"/>
-      <c r="F310" s="7">
-        <v>100</v>
-      </c>
-      <c r="G310" s="7"/>
       <c r="H310" s="7"/>
-      <c r="I310" s="7"/>
+      <c r="I310" s="7">
+        <v>68</v>
+      </c>
       <c r="J310" s="7"/>
       <c r="K310" s="7"/>
       <c r="L310" s="7"/>
@@ -50300,12 +51139,12 @@
       <c r="S310" s="7"/>
       <c r="T310" s="7"/>
       <c r="U310" s="7">
-        <v>200</v>
+        <v>168</v>
       </c>
     </row>
     <row r="311" spans="1:21">
       <c r="A311" s="12">
-        <v>40925</v>
+        <v>40913</v>
       </c>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -50314,10 +51153,10 @@
       <c r="F311" s="7"/>
       <c r="G311" s="7"/>
       <c r="H311" s="7"/>
-      <c r="I311" s="7"/>
-      <c r="J311" s="7">
-        <v>14</v>
-      </c>
+      <c r="I311" s="7">
+        <v>679.5</v>
+      </c>
+      <c r="J311" s="7"/>
       <c r="K311" s="7"/>
       <c r="L311" s="7"/>
       <c r="M311" s="7"/>
@@ -50329,24 +51168,24 @@
       <c r="S311" s="7"/>
       <c r="T311" s="7"/>
       <c r="U311" s="7">
-        <v>14</v>
+        <v>679.5</v>
       </c>
     </row>
     <row r="312" spans="1:21">
       <c r="A312" s="12">
-        <v>40926</v>
+        <v>40917</v>
       </c>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
-      <c r="G312" s="7"/>
+      <c r="G312" s="7">
+        <v>100</v>
+      </c>
       <c r="H312" s="7"/>
       <c r="I312" s="7"/>
-      <c r="J312" s="7">
-        <v>28</v>
-      </c>
+      <c r="J312" s="7"/>
       <c r="K312" s="7"/>
       <c r="L312" s="7"/>
       <c r="M312" s="7"/>
@@ -50358,12 +51197,12 @@
       <c r="S312" s="7"/>
       <c r="T312" s="7"/>
       <c r="U312" s="7">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="313" spans="1:21">
       <c r="A313" s="12">
-        <v>40940</v>
+        <v>40919</v>
       </c>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -50373,10 +51212,10 @@
       <c r="G313" s="7"/>
       <c r="H313" s="7"/>
       <c r="I313" s="7"/>
-      <c r="J313" s="7"/>
-      <c r="K313" s="7">
-        <v>100</v>
-      </c>
+      <c r="J313" s="7">
+        <v>15</v>
+      </c>
+      <c r="K313" s="7"/>
       <c r="L313" s="7"/>
       <c r="M313" s="7"/>
       <c r="N313" s="7"/>
@@ -50387,25 +51226,27 @@
       <c r="S313" s="7"/>
       <c r="T313" s="7"/>
       <c r="U313" s="7">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:21">
       <c r="A314" s="12">
-        <v>40942</v>
+        <v>40921</v>
       </c>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
-      <c r="D314" s="7"/>
+      <c r="D314" s="7">
+        <v>100</v>
+      </c>
       <c r="E314" s="7"/>
-      <c r="F314" s="7"/>
+      <c r="F314" s="7">
+        <v>100</v>
+      </c>
       <c r="G314" s="7"/>
       <c r="H314" s="7"/>
       <c r="I314" s="7"/>
       <c r="J314" s="7"/>
-      <c r="K314" s="7">
-        <v>100</v>
-      </c>
+      <c r="K314" s="7"/>
       <c r="L314" s="7"/>
       <c r="M314" s="7"/>
       <c r="N314" s="7"/>
@@ -50416,12 +51257,12 @@
       <c r="S314" s="7"/>
       <c r="T314" s="7"/>
       <c r="U314" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="315" spans="1:21">
       <c r="A315" s="12">
-        <v>40947</v>
+        <v>40925</v>
       </c>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -50432,7 +51273,7 @@
       <c r="H315" s="7"/>
       <c r="I315" s="7"/>
       <c r="J315" s="7">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="K315" s="7"/>
       <c r="L315" s="7"/>
@@ -50445,12 +51286,12 @@
       <c r="S315" s="7"/>
       <c r="T315" s="7"/>
       <c r="U315" s="7">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="316" spans="1:21">
       <c r="A316" s="12">
-        <v>40954</v>
+        <v>40926</v>
       </c>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -50458,11 +51299,11 @@
       <c r="E316" s="7"/>
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
-      <c r="H316" s="7">
-        <v>100</v>
-      </c>
+      <c r="H316" s="7"/>
       <c r="I316" s="7"/>
-      <c r="J316" s="7"/>
+      <c r="J316" s="7">
+        <v>28</v>
+      </c>
       <c r="K316" s="7"/>
       <c r="L316" s="7"/>
       <c r="M316" s="7"/>
@@ -50474,12 +51315,12 @@
       <c r="S316" s="7"/>
       <c r="T316" s="7"/>
       <c r="U316" s="7">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="317" spans="1:21">
       <c r="A317" s="12">
-        <v>40973</v>
+        <v>40940</v>
       </c>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -50491,13 +51332,11 @@
       <c r="I317" s="7"/>
       <c r="J317" s="7"/>
       <c r="K317" s="7">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L317" s="7"/>
       <c r="M317" s="7"/>
-      <c r="N317" s="7">
-        <v>100</v>
-      </c>
+      <c r="N317" s="7"/>
       <c r="O317" s="7"/>
       <c r="P317" s="7"/>
       <c r="Q317" s="7"/>
@@ -50505,12 +51344,12 @@
       <c r="S317" s="7"/>
       <c r="T317" s="7"/>
       <c r="U317" s="7">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="318" spans="1:21">
       <c r="A318" s="12">
-        <v>40974</v>
+        <v>40942</v>
       </c>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -50518,12 +51357,12 @@
       <c r="E318" s="7"/>
       <c r="F318" s="7"/>
       <c r="G318" s="7"/>
-      <c r="H318" s="7">
-        <v>100</v>
-      </c>
+      <c r="H318" s="7"/>
       <c r="I318" s="7"/>
       <c r="J318" s="7"/>
-      <c r="K318" s="7"/>
+      <c r="K318" s="7">
+        <v>100</v>
+      </c>
       <c r="L318" s="7"/>
       <c r="M318" s="7"/>
       <c r="N318" s="7"/>
@@ -50539,7 +51378,7 @@
     </row>
     <row r="319" spans="1:21">
       <c r="A319" s="12">
-        <v>40981</v>
+        <v>40947</v>
       </c>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -50547,13 +51386,11 @@
       <c r="E319" s="7"/>
       <c r="F319" s="7"/>
       <c r="G319" s="7"/>
-      <c r="H319" s="7">
+      <c r="H319" s="7"/>
+      <c r="I319" s="7"/>
+      <c r="J319" s="7">
         <v>100</v>
       </c>
-      <c r="I319" s="7">
-        <v>300</v>
-      </c>
-      <c r="J319" s="7"/>
       <c r="K319" s="7"/>
       <c r="L319" s="7"/>
       <c r="M319" s="7"/>
@@ -50565,12 +51402,12 @@
       <c r="S319" s="7"/>
       <c r="T319" s="7"/>
       <c r="U319" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:21">
       <c r="A320" s="12">
-        <v>41032</v>
+        <v>40954</v>
       </c>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -50578,16 +51415,14 @@
       <c r="E320" s="7"/>
       <c r="F320" s="7"/>
       <c r="G320" s="7"/>
-      <c r="H320" s="7"/>
+      <c r="H320" s="7">
+        <v>100</v>
+      </c>
       <c r="I320" s="7"/>
       <c r="J320" s="7"/>
       <c r="K320" s="7"/>
-      <c r="L320" s="7">
-        <v>100</v>
-      </c>
-      <c r="M320" s="7">
-        <v>100</v>
-      </c>
+      <c r="L320" s="7"/>
+      <c r="M320" s="7"/>
       <c r="N320" s="7"/>
       <c r="O320" s="7"/>
       <c r="P320" s="7"/>
@@ -50596,12 +51431,12 @@
       <c r="S320" s="7"/>
       <c r="T320" s="7"/>
       <c r="U320" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="321" spans="1:21">
       <c r="A321" s="12">
-        <v>41037</v>
+        <v>40973</v>
       </c>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -50612,7 +51447,9 @@
       <c r="H321" s="7"/>
       <c r="I321" s="7"/>
       <c r="J321" s="7"/>
-      <c r="K321" s="7"/>
+      <c r="K321" s="7">
+        <v>30</v>
+      </c>
       <c r="L321" s="7"/>
       <c r="M321" s="7"/>
       <c r="N321" s="7">
@@ -50625,12 +51462,12 @@
       <c r="S321" s="7"/>
       <c r="T321" s="7"/>
       <c r="U321" s="7">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="322" spans="1:21">
       <c r="A322" s="12">
-        <v>41039</v>
+        <v>40974</v>
       </c>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -50638,28 +51475,28 @@
       <c r="E322" s="7"/>
       <c r="F322" s="7"/>
       <c r="G322" s="7"/>
-      <c r="H322" s="7"/>
+      <c r="H322" s="7">
+        <v>100</v>
+      </c>
       <c r="I322" s="7"/>
       <c r="J322" s="7"/>
       <c r="K322" s="7"/>
       <c r="L322" s="7"/>
       <c r="M322" s="7"/>
       <c r="N322" s="7"/>
-      <c r="O322" s="7">
-        <v>35</v>
-      </c>
+      <c r="O322" s="7"/>
       <c r="P322" s="7"/>
       <c r="Q322" s="7"/>
       <c r="R322" s="7"/>
       <c r="S322" s="7"/>
       <c r="T322" s="7"/>
       <c r="U322" s="7">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="323" spans="1:21">
       <c r="A323" s="12">
-        <v>41044</v>
+        <v>40981</v>
       </c>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -50667,43 +51504,47 @@
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
       <c r="G323" s="7"/>
-      <c r="H323" s="7"/>
-      <c r="I323" s="7"/>
+      <c r="H323" s="7">
+        <v>100</v>
+      </c>
+      <c r="I323" s="7">
+        <v>300</v>
+      </c>
       <c r="J323" s="7"/>
       <c r="K323" s="7"/>
       <c r="L323" s="7"/>
       <c r="M323" s="7"/>
       <c r="N323" s="7"/>
-      <c r="O323" s="7">
-        <v>20</v>
-      </c>
+      <c r="O323" s="7"/>
       <c r="P323" s="7"/>
       <c r="Q323" s="7"/>
       <c r="R323" s="7"/>
       <c r="S323" s="7"/>
       <c r="T323" s="7"/>
       <c r="U323" s="7">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="324" spans="1:21">
       <c r="A324" s="12">
-        <v>41050</v>
+        <v>41032</v>
       </c>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
-      <c r="G324" s="7">
-        <v>89</v>
-      </c>
+      <c r="G324" s="7"/>
       <c r="H324" s="7"/>
       <c r="I324" s="7"/>
       <c r="J324" s="7"/>
       <c r="K324" s="7"/>
-      <c r="L324" s="7"/>
-      <c r="M324" s="7"/>
+      <c r="L324" s="7">
+        <v>100</v>
+      </c>
+      <c r="M324" s="7">
+        <v>100</v>
+      </c>
       <c r="N324" s="7"/>
       <c r="O324" s="7"/>
       <c r="P324" s="7"/>
@@ -50712,12 +51553,12 @@
       <c r="S324" s="7"/>
       <c r="T324" s="7"/>
       <c r="U324" s="7">
-        <v>89</v>
+        <v>200</v>
       </c>
     </row>
     <row r="325" spans="1:21">
       <c r="A325" s="12">
-        <v>41057</v>
+        <v>41037</v>
       </c>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -50727,13 +51568,13 @@
       <c r="G325" s="7"/>
       <c r="H325" s="7"/>
       <c r="I325" s="7"/>
-      <c r="J325" s="7">
-        <v>300</v>
-      </c>
+      <c r="J325" s="7"/>
       <c r="K325" s="7"/>
       <c r="L325" s="7"/>
       <c r="M325" s="7"/>
-      <c r="N325" s="7"/>
+      <c r="N325" s="7">
+        <v>100</v>
+      </c>
       <c r="O325" s="7"/>
       <c r="P325" s="7"/>
       <c r="Q325" s="7"/>
@@ -50741,12 +51582,12 @@
       <c r="S325" s="7"/>
       <c r="T325" s="7"/>
       <c r="U325" s="7">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="326" spans="1:21">
       <c r="A326" s="12">
-        <v>41060</v>
+        <v>41039</v>
       </c>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -50756,35 +51597,33 @@
       <c r="G326" s="7"/>
       <c r="H326" s="7"/>
       <c r="I326" s="7"/>
-      <c r="J326" s="7">
-        <v>10.1</v>
-      </c>
+      <c r="J326" s="7"/>
       <c r="K326" s="7"/>
       <c r="L326" s="7"/>
       <c r="M326" s="7"/>
       <c r="N326" s="7"/>
-      <c r="O326" s="7"/>
+      <c r="O326" s="7">
+        <v>35</v>
+      </c>
       <c r="P326" s="7"/>
       <c r="Q326" s="7"/>
       <c r="R326" s="7"/>
       <c r="S326" s="7"/>
       <c r="T326" s="7"/>
       <c r="U326" s="7">
-        <v>10.1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="327" spans="1:21">
       <c r="A327" s="12">
-        <v>41066</v>
+        <v>41044</v>
       </c>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
       <c r="D327" s="7"/>
       <c r="E327" s="7"/>
       <c r="F327" s="7"/>
-      <c r="G327" s="7">
-        <v>300</v>
-      </c>
+      <c r="G327" s="7"/>
       <c r="H327" s="7"/>
       <c r="I327" s="7"/>
       <c r="J327" s="7"/>
@@ -50792,31 +51631,33 @@
       <c r="L327" s="7"/>
       <c r="M327" s="7"/>
       <c r="N327" s="7"/>
-      <c r="O327" s="7"/>
+      <c r="O327" s="7">
+        <v>20</v>
+      </c>
       <c r="P327" s="7"/>
       <c r="Q327" s="7"/>
       <c r="R327" s="7"/>
       <c r="S327" s="7"/>
       <c r="T327" s="7"/>
       <c r="U327" s="7">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="328" spans="1:21">
       <c r="A328" s="12">
-        <v>41070</v>
+        <v>41050</v>
       </c>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
       <c r="D328" s="7"/>
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
-      <c r="G328" s="7"/>
+      <c r="G328" s="7">
+        <v>89</v>
+      </c>
       <c r="H328" s="7"/>
       <c r="I328" s="7"/>
-      <c r="J328" s="7">
-        <v>130</v>
-      </c>
+      <c r="J328" s="7"/>
       <c r="K328" s="7"/>
       <c r="L328" s="7"/>
       <c r="M328" s="7"/>
@@ -50828,12 +51669,12 @@
       <c r="S328" s="7"/>
       <c r="T328" s="7"/>
       <c r="U328" s="7">
-        <v>130</v>
+        <v>89</v>
       </c>
     </row>
     <row r="329" spans="1:21">
       <c r="A329" s="12">
-        <v>41071</v>
+        <v>41057</v>
       </c>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -50844,7 +51685,7 @@
       <c r="H329" s="7"/>
       <c r="I329" s="7"/>
       <c r="J329" s="7">
-        <v>81.400000000000006</v>
+        <v>300</v>
       </c>
       <c r="K329" s="7"/>
       <c r="L329" s="7"/>
@@ -50857,12 +51698,12 @@
       <c r="S329" s="7"/>
       <c r="T329" s="7"/>
       <c r="U329" s="7">
-        <v>81.400000000000006</v>
+        <v>300</v>
       </c>
     </row>
     <row r="330" spans="1:21">
       <c r="A330" s="12">
-        <v>41072</v>
+        <v>41060</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -50873,7 +51714,7 @@
       <c r="H330" s="7"/>
       <c r="I330" s="7"/>
       <c r="J330" s="7">
-        <v>77.599999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="K330" s="7"/>
       <c r="L330" s="7"/>
@@ -50886,12 +51727,12 @@
       <c r="S330" s="7"/>
       <c r="T330" s="7"/>
       <c r="U330" s="7">
-        <v>77.599999999999994</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="331" spans="1:21">
       <c r="A331" s="12">
-        <v>41078</v>
+        <v>41066</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -50899,13 +51740,11 @@
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
       <c r="G331" s="7">
-        <v>47</v>
+        <v>300</v>
       </c>
       <c r="H331" s="7"/>
       <c r="I331" s="7"/>
-      <c r="J331" s="7">
-        <v>50</v>
-      </c>
+      <c r="J331" s="7"/>
       <c r="K331" s="7"/>
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
@@ -50917,12 +51756,12 @@
       <c r="S331" s="7"/>
       <c r="T331" s="7"/>
       <c r="U331" s="7">
-        <v>97</v>
+        <v>300</v>
       </c>
     </row>
     <row r="332" spans="1:21">
       <c r="A332" s="12">
-        <v>41082</v>
+        <v>41070</v>
       </c>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -50933,7 +51772,7 @@
       <c r="H332" s="7"/>
       <c r="I332" s="7"/>
       <c r="J332" s="7">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="K332" s="7"/>
       <c r="L332" s="7"/>
@@ -50946,12 +51785,12 @@
       <c r="S332" s="7"/>
       <c r="T332" s="7"/>
       <c r="U332" s="7">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="333" spans="1:21">
       <c r="A333" s="12">
-        <v>41083</v>
+        <v>41071</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -50962,7 +51801,7 @@
       <c r="H333" s="7"/>
       <c r="I333" s="7"/>
       <c r="J333" s="7">
-        <v>39.9</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="K333" s="7"/>
       <c r="L333" s="7"/>
@@ -50975,24 +51814,24 @@
       <c r="S333" s="7"/>
       <c r="T333" s="7"/>
       <c r="U333" s="7">
-        <v>39.9</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="334" spans="1:21">
       <c r="A334" s="12">
-        <v>41085</v>
+        <v>41072</v>
       </c>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
       <c r="D334" s="7"/>
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
-      <c r="G334" s="7">
-        <v>300</v>
-      </c>
+      <c r="G334" s="7"/>
       <c r="H334" s="7"/>
       <c r="I334" s="7"/>
-      <c r="J334" s="7"/>
+      <c r="J334" s="7">
+        <v>77.599999999999994</v>
+      </c>
       <c r="K334" s="7"/>
       <c r="L334" s="7"/>
       <c r="M334" s="7"/>
@@ -51004,23 +51843,25 @@
       <c r="S334" s="7"/>
       <c r="T334" s="7"/>
       <c r="U334" s="7">
-        <v>300</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="335" spans="1:21">
       <c r="A335" s="12">
-        <v>41088</v>
+        <v>41078</v>
       </c>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
       <c r="D335" s="7"/>
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
-      <c r="G335" s="7"/>
+      <c r="G335" s="7">
+        <v>47</v>
+      </c>
       <c r="H335" s="7"/>
       <c r="I335" s="7"/>
       <c r="J335" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K335" s="7"/>
       <c r="L335" s="7"/>
@@ -51033,12 +51874,12 @@
       <c r="S335" s="7"/>
       <c r="T335" s="7"/>
       <c r="U335" s="7">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="336" spans="1:21">
       <c r="A336" s="12">
-        <v>41092</v>
+        <v>41082</v>
       </c>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -51048,26 +51889,26 @@
       <c r="G336" s="7"/>
       <c r="H336" s="7"/>
       <c r="I336" s="7"/>
-      <c r="J336" s="7"/>
+      <c r="J336" s="7">
+        <v>98</v>
+      </c>
       <c r="K336" s="7"/>
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
       <c r="N336" s="7"/>
       <c r="O336" s="7"/>
-      <c r="P336" s="7">
-        <v>93</v>
-      </c>
+      <c r="P336" s="7"/>
       <c r="Q336" s="7"/>
       <c r="R336" s="7"/>
       <c r="S336" s="7"/>
       <c r="T336" s="7"/>
       <c r="U336" s="7">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="337" spans="1:21">
       <c r="A337" s="12">
-        <v>41093</v>
+        <v>41083</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -51078,7 +51919,7 @@
       <c r="H337" s="7"/>
       <c r="I337" s="7"/>
       <c r="J337" s="7">
-        <v>100</v>
+        <v>39.9</v>
       </c>
       <c r="K337" s="7"/>
       <c r="L337" s="7"/>
@@ -51091,12 +51932,12 @@
       <c r="S337" s="7"/>
       <c r="T337" s="7"/>
       <c r="U337" s="7">
-        <v>100</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="338" spans="1:21">
       <c r="A338" s="12">
-        <v>41095</v>
+        <v>41085</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -51104,13 +51945,11 @@
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
       <c r="G338" s="7">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="H338" s="7"/>
       <c r="I338" s="7"/>
-      <c r="J338" s="7">
-        <v>98</v>
-      </c>
+      <c r="J338" s="7"/>
       <c r="K338" s="7"/>
       <c r="L338" s="7"/>
       <c r="M338" s="7"/>
@@ -51122,12 +51961,12 @@
       <c r="S338" s="7"/>
       <c r="T338" s="7"/>
       <c r="U338" s="7">
-        <v>168</v>
+        <v>300</v>
       </c>
     </row>
     <row r="339" spans="1:21">
       <c r="A339" s="12">
-        <v>41100</v>
+        <v>41088</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -51136,10 +51975,10 @@
       <c r="F339" s="7"/>
       <c r="G339" s="7"/>
       <c r="H339" s="7"/>
-      <c r="I339" s="7">
-        <v>16</v>
-      </c>
-      <c r="J339" s="7"/>
+      <c r="I339" s="7"/>
+      <c r="J339" s="7">
+        <v>20</v>
+      </c>
       <c r="K339" s="7"/>
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
@@ -51151,12 +51990,12 @@
       <c r="S339" s="7"/>
       <c r="T339" s="7"/>
       <c r="U339" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="340" spans="1:21">
       <c r="A340" s="12">
-        <v>41108</v>
+        <v>41092</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -51165,27 +52004,27 @@
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
       <c r="H340" s="7"/>
-      <c r="I340" s="7">
-        <v>63</v>
-      </c>
+      <c r="I340" s="7"/>
       <c r="J340" s="7"/>
       <c r="K340" s="7"/>
       <c r="L340" s="7"/>
       <c r="M340" s="7"/>
       <c r="N340" s="7"/>
       <c r="O340" s="7"/>
-      <c r="P340" s="7"/>
+      <c r="P340" s="7">
+        <v>93</v>
+      </c>
       <c r="Q340" s="7"/>
       <c r="R340" s="7"/>
       <c r="S340" s="7"/>
       <c r="T340" s="7"/>
       <c r="U340" s="7">
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="341" spans="1:21">
       <c r="A341" s="12">
-        <v>41110</v>
+        <v>41093</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -51194,10 +52033,10 @@
       <c r="F341" s="7"/>
       <c r="G341" s="7"/>
       <c r="H341" s="7"/>
-      <c r="I341" s="7">
-        <v>15</v>
-      </c>
-      <c r="J341" s="7"/>
+      <c r="I341" s="7"/>
+      <c r="J341" s="7">
+        <v>100</v>
+      </c>
       <c r="K341" s="7"/>
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
@@ -51209,24 +52048,26 @@
       <c r="S341" s="7"/>
       <c r="T341" s="7"/>
       <c r="U341" s="7">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="342" spans="1:21">
       <c r="A342" s="12">
-        <v>41116</v>
+        <v>41095</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
-      <c r="G342" s="7"/>
+      <c r="G342" s="7">
+        <v>70</v>
+      </c>
       <c r="H342" s="7"/>
-      <c r="I342" s="7">
-        <v>83</v>
-      </c>
-      <c r="J342" s="7"/>
+      <c r="I342" s="7"/>
+      <c r="J342" s="7">
+        <v>98</v>
+      </c>
       <c r="K342" s="7"/>
       <c r="L342" s="7"/>
       <c r="M342" s="7"/>
@@ -51238,12 +52079,12 @@
       <c r="S342" s="7"/>
       <c r="T342" s="7"/>
       <c r="U342" s="7">
-        <v>83</v>
+        <v>168</v>
       </c>
     </row>
     <row r="343" spans="1:21">
       <c r="A343" s="12">
-        <v>41136</v>
+        <v>41100</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -51251,11 +52092,9 @@
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
       <c r="G343" s="7"/>
-      <c r="H343" s="7">
-        <v>55</v>
-      </c>
+      <c r="H343" s="7"/>
       <c r="I343" s="7">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="J343" s="7"/>
       <c r="K343" s="7"/>
@@ -51269,23 +52108,23 @@
       <c r="S343" s="7"/>
       <c r="T343" s="7"/>
       <c r="U343" s="7">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="344" spans="1:21">
       <c r="A344" s="12">
-        <v>41138</v>
+        <v>41108</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
       <c r="F344" s="7"/>
-      <c r="G344" s="7">
-        <v>100.4</v>
-      </c>
+      <c r="G344" s="7"/>
       <c r="H344" s="7"/>
-      <c r="I344" s="7"/>
+      <c r="I344" s="7">
+        <v>63</v>
+      </c>
       <c r="J344" s="7"/>
       <c r="K344" s="7"/>
       <c r="L344" s="7"/>
@@ -51298,12 +52137,12 @@
       <c r="S344" s="7"/>
       <c r="T344" s="7"/>
       <c r="U344" s="7">
-        <v>100.4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="345" spans="1:21">
       <c r="A345" s="12">
-        <v>41151</v>
+        <v>41110</v>
       </c>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -51312,10 +52151,10 @@
       <c r="F345" s="7"/>
       <c r="G345" s="7"/>
       <c r="H345" s="7"/>
-      <c r="I345" s="7"/>
-      <c r="J345" s="7">
-        <v>100</v>
-      </c>
+      <c r="I345" s="7">
+        <v>15</v>
+      </c>
+      <c r="J345" s="7"/>
       <c r="K345" s="7"/>
       <c r="L345" s="7"/>
       <c r="M345" s="7"/>
@@ -51327,12 +52166,12 @@
       <c r="S345" s="7"/>
       <c r="T345" s="7"/>
       <c r="U345" s="7">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="346" spans="1:21">
       <c r="A346" s="12">
-        <v>41156</v>
+        <v>41116</v>
       </c>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -51342,7 +52181,7 @@
       <c r="G346" s="7"/>
       <c r="H346" s="7"/>
       <c r="I346" s="7">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="J346" s="7"/>
       <c r="K346" s="7"/>
@@ -51356,12 +52195,12 @@
       <c r="S346" s="7"/>
       <c r="T346" s="7"/>
       <c r="U346" s="7">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="347" spans="1:21">
       <c r="A347" s="12">
-        <v>41161</v>
+        <v>41136</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -51369,9 +52208,11 @@
       <c r="E347" s="7"/>
       <c r="F347" s="7"/>
       <c r="G347" s="7"/>
-      <c r="H347" s="7"/>
+      <c r="H347" s="7">
+        <v>55</v>
+      </c>
       <c r="I347" s="7">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J347" s="7"/>
       <c r="K347" s="7"/>
@@ -51385,43 +52226,41 @@
       <c r="S347" s="7"/>
       <c r="T347" s="7"/>
       <c r="U347" s="7">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="348" spans="1:21">
       <c r="A348" s="12">
-        <v>41162</v>
+        <v>41138</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
-      <c r="G348" s="7"/>
+      <c r="G348" s="7">
+        <v>100.4</v>
+      </c>
       <c r="H348" s="7"/>
       <c r="I348" s="7"/>
-      <c r="J348" s="7">
-        <v>100</v>
-      </c>
+      <c r="J348" s="7"/>
       <c r="K348" s="7"/>
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
       <c r="N348" s="7"/>
-      <c r="O348" s="7">
-        <v>48</v>
-      </c>
+      <c r="O348" s="7"/>
       <c r="P348" s="7"/>
       <c r="Q348" s="7"/>
       <c r="R348" s="7"/>
       <c r="S348" s="7"/>
       <c r="T348" s="7"/>
       <c r="U348" s="7">
-        <v>148</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="349" spans="1:21">
       <c r="A349" s="12">
-        <v>41166</v>
+        <v>41151</v>
       </c>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -51431,14 +52270,14 @@
       <c r="G349" s="7"/>
       <c r="H349" s="7"/>
       <c r="I349" s="7"/>
-      <c r="J349" s="7"/>
+      <c r="J349" s="7">
+        <v>100</v>
+      </c>
       <c r="K349" s="7"/>
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
       <c r="N349" s="7"/>
-      <c r="O349" s="7">
-        <v>100</v>
-      </c>
+      <c r="O349" s="7"/>
       <c r="P349" s="7"/>
       <c r="Q349" s="7"/>
       <c r="R349" s="7"/>
@@ -51450,7 +52289,7 @@
     </row>
     <row r="350" spans="1:21">
       <c r="A350" s="12">
-        <v>41171</v>
+        <v>41156</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -51459,38 +52298,38 @@
       <c r="F350" s="7"/>
       <c r="G350" s="7"/>
       <c r="H350" s="7"/>
-      <c r="I350" s="7"/>
+      <c r="I350" s="7">
+        <v>15</v>
+      </c>
       <c r="J350" s="7"/>
       <c r="K350" s="7"/>
       <c r="L350" s="7"/>
       <c r="M350" s="7"/>
       <c r="N350" s="7"/>
-      <c r="O350" s="7">
-        <v>10</v>
-      </c>
+      <c r="O350" s="7"/>
       <c r="P350" s="7"/>
       <c r="Q350" s="7"/>
       <c r="R350" s="7"/>
       <c r="S350" s="7"/>
       <c r="T350" s="7"/>
       <c r="U350" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="351" spans="1:21">
       <c r="A351" s="12">
-        <v>41175</v>
+        <v>41161</v>
       </c>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
-      <c r="F351" s="7">
-        <v>100</v>
-      </c>
+      <c r="F351" s="7"/>
       <c r="G351" s="7"/>
       <c r="H351" s="7"/>
-      <c r="I351" s="7"/>
+      <c r="I351" s="7">
+        <v>76</v>
+      </c>
       <c r="J351" s="7"/>
       <c r="K351" s="7"/>
       <c r="L351" s="7"/>
@@ -51503,34 +52342,30 @@
       <c r="S351" s="7"/>
       <c r="T351" s="7"/>
       <c r="U351" s="7">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="352" spans="1:21">
       <c r="A352" s="12">
-        <v>41197</v>
-      </c>
-      <c r="B352" s="7">
-        <v>10</v>
-      </c>
+        <v>41162</v>
+      </c>
+      <c r="B352" s="7"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
-      <c r="G352" s="7">
-        <v>10</v>
-      </c>
+      <c r="G352" s="7"/>
       <c r="H352" s="7"/>
       <c r="I352" s="7"/>
       <c r="J352" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K352" s="7"/>
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
       <c r="N352" s="7"/>
       <c r="O352" s="7">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P352" s="7"/>
       <c r="Q352" s="7"/>
@@ -51538,12 +52373,12 @@
       <c r="S352" s="7"/>
       <c r="T352" s="7"/>
       <c r="U352" s="7">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="353" spans="1:21">
       <c r="A353" s="12">
-        <v>41198</v>
+        <v>41166</v>
       </c>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -51559,7 +52394,7 @@
       <c r="M353" s="7"/>
       <c r="N353" s="7"/>
       <c r="O353" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="P353" s="7"/>
       <c r="Q353" s="7"/>
@@ -51567,12 +52402,12 @@
       <c r="S353" s="7"/>
       <c r="T353" s="7"/>
       <c r="U353" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="354" spans="1:21">
       <c r="A354" s="12">
-        <v>41205</v>
+        <v>41171</v>
       </c>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -51582,19 +52417,13 @@
       <c r="G354" s="7"/>
       <c r="H354" s="7"/>
       <c r="I354" s="7"/>
-      <c r="J354" s="7">
-        <v>162</v>
-      </c>
+      <c r="J354" s="7"/>
       <c r="K354" s="7"/>
-      <c r="L354" s="7">
-        <v>100</v>
-      </c>
+      <c r="L354" s="7"/>
       <c r="M354" s="7"/>
-      <c r="N354" s="7">
-        <v>100</v>
-      </c>
+      <c r="N354" s="7"/>
       <c r="O354" s="7">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="P354" s="7"/>
       <c r="Q354" s="7"/>
@@ -51602,24 +52431,24 @@
       <c r="S354" s="7"/>
       <c r="T354" s="7"/>
       <c r="U354" s="7">
-        <v>432</v>
+        <v>10</v>
       </c>
     </row>
     <row r="355" spans="1:21">
       <c r="A355" s="12">
-        <v>41214</v>
+        <v>41175</v>
       </c>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
-      <c r="F355" s="7"/>
+      <c r="F355" s="7">
+        <v>100</v>
+      </c>
       <c r="G355" s="7"/>
       <c r="H355" s="7"/>
       <c r="I355" s="7"/>
-      <c r="J355" s="7">
-        <v>2</v>
-      </c>
+      <c r="J355" s="7"/>
       <c r="K355" s="7"/>
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
@@ -51631,41 +52460,47 @@
       <c r="S355" s="7"/>
       <c r="T355" s="7"/>
       <c r="U355" s="7">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="356" spans="1:21">
       <c r="A356" s="12">
-        <v>41215</v>
-      </c>
-      <c r="B356" s="7"/>
+        <v>41197</v>
+      </c>
+      <c r="B356" s="7">
+        <v>10</v>
+      </c>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
       <c r="F356" s="7"/>
-      <c r="G356" s="7"/>
+      <c r="G356" s="7">
+        <v>10</v>
+      </c>
       <c r="H356" s="7"/>
       <c r="I356" s="7"/>
       <c r="J356" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
       <c r="N356" s="7"/>
-      <c r="O356" s="7"/>
+      <c r="O356" s="7">
+        <v>60</v>
+      </c>
       <c r="P356" s="7"/>
       <c r="Q356" s="7"/>
       <c r="R356" s="7"/>
       <c r="S356" s="7"/>
       <c r="T356" s="7"/>
       <c r="U356" s="7">
-        <v>4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="357" spans="1:21">
       <c r="A357" s="12">
-        <v>41237</v>
+        <v>41198</v>
       </c>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -51675,59 +52510,61 @@
       <c r="G357" s="7"/>
       <c r="H357" s="7"/>
       <c r="I357" s="7"/>
-      <c r="J357" s="7">
-        <v>100</v>
-      </c>
+      <c r="J357" s="7"/>
       <c r="K357" s="7"/>
-      <c r="L357" s="7">
-        <v>100</v>
-      </c>
+      <c r="L357" s="7"/>
       <c r="M357" s="7"/>
       <c r="N357" s="7"/>
-      <c r="O357" s="7"/>
+      <c r="O357" s="7">
+        <v>40</v>
+      </c>
       <c r="P357" s="7"/>
       <c r="Q357" s="7"/>
       <c r="R357" s="7"/>
       <c r="S357" s="7"/>
       <c r="T357" s="7"/>
       <c r="U357" s="7">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="358" spans="1:21">
       <c r="A358" s="12">
-        <v>41242</v>
+        <v>41205</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
       <c r="F358" s="7"/>
-      <c r="G358" s="7">
-        <v>100</v>
-      </c>
+      <c r="G358" s="7"/>
       <c r="H358" s="7"/>
       <c r="I358" s="7"/>
       <c r="J358" s="7">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="K358" s="7"/>
-      <c r="L358" s="7"/>
+      <c r="L358" s="7">
+        <v>100</v>
+      </c>
       <c r="M358" s="7"/>
-      <c r="N358" s="7"/>
-      <c r="O358" s="7"/>
+      <c r="N358" s="7">
+        <v>100</v>
+      </c>
+      <c r="O358" s="7">
+        <v>70</v>
+      </c>
       <c r="P358" s="7"/>
       <c r="Q358" s="7"/>
       <c r="R358" s="7"/>
       <c r="S358" s="7"/>
       <c r="T358" s="7"/>
       <c r="U358" s="7">
-        <v>181</v>
+        <v>432</v>
       </c>
     </row>
     <row r="359" spans="1:21">
       <c r="A359" s="12">
-        <v>41253</v>
+        <v>41214</v>
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -51738,7 +52575,7 @@
       <c r="H359" s="7"/>
       <c r="I359" s="7"/>
       <c r="J359" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K359" s="7"/>
       <c r="L359" s="7"/>
@@ -51751,24 +52588,24 @@
       <c r="S359" s="7"/>
       <c r="T359" s="7"/>
       <c r="U359" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:21">
       <c r="A360" s="12">
-        <v>41268</v>
+        <v>41215</v>
       </c>
       <c r="B360" s="7"/>
-      <c r="C360" s="7">
-        <v>24</v>
-      </c>
+      <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
       <c r="G360" s="7"/>
       <c r="H360" s="7"/>
       <c r="I360" s="7"/>
-      <c r="J360" s="7"/>
+      <c r="J360" s="7">
+        <v>4</v>
+      </c>
       <c r="K360" s="7"/>
       <c r="L360" s="7"/>
       <c r="M360" s="7"/>
@@ -51780,26 +52617,28 @@
       <c r="S360" s="7"/>
       <c r="T360" s="7"/>
       <c r="U360" s="7">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:21">
       <c r="A361" s="12">
-        <v>41281</v>
+        <v>41237</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
       <c r="F361" s="7"/>
-      <c r="G361" s="7">
-        <v>200</v>
-      </c>
+      <c r="G361" s="7"/>
       <c r="H361" s="7"/>
       <c r="I361" s="7"/>
-      <c r="J361" s="7"/>
+      <c r="J361" s="7">
+        <v>100</v>
+      </c>
       <c r="K361" s="7"/>
-      <c r="L361" s="7"/>
+      <c r="L361" s="7">
+        <v>100</v>
+      </c>
       <c r="M361" s="7"/>
       <c r="N361" s="7"/>
       <c r="O361" s="7"/>
@@ -51814,20 +52653,20 @@
     </row>
     <row r="362" spans="1:21">
       <c r="A362" s="12">
-        <v>41310</v>
+        <v>41242</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
       <c r="F362" s="7"/>
-      <c r="G362" s="7"/>
+      <c r="G362" s="7">
+        <v>100</v>
+      </c>
       <c r="H362" s="7"/>
-      <c r="I362" s="7">
-        <v>22</v>
-      </c>
+      <c r="I362" s="7"/>
       <c r="J362" s="7">
-        <v>31.9</v>
+        <v>81</v>
       </c>
       <c r="K362" s="7"/>
       <c r="L362" s="7"/>
@@ -51840,24 +52679,24 @@
       <c r="S362" s="7"/>
       <c r="T362" s="7"/>
       <c r="U362" s="7">
-        <v>53.9</v>
+        <v>181</v>
       </c>
     </row>
     <row r="363" spans="1:21">
       <c r="A363" s="12">
-        <v>41323</v>
+        <v>41253</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
-      <c r="G363" s="7">
-        <v>119.6</v>
-      </c>
+      <c r="G363" s="7"/>
       <c r="H363" s="7"/>
       <c r="I363" s="7"/>
-      <c r="J363" s="7"/>
+      <c r="J363" s="7">
+        <v>10</v>
+      </c>
       <c r="K363" s="7"/>
       <c r="L363" s="7"/>
       <c r="M363" s="7"/>
@@ -51869,21 +52708,21 @@
       <c r="S363" s="7"/>
       <c r="T363" s="7"/>
       <c r="U363" s="7">
-        <v>119.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364" spans="1:21">
       <c r="A364" s="12">
-        <v>41331</v>
+        <v>41268</v>
       </c>
       <c r="B364" s="7"/>
-      <c r="C364" s="7"/>
+      <c r="C364" s="7">
+        <v>24</v>
+      </c>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
-      <c r="G364" s="7">
-        <v>100</v>
-      </c>
+      <c r="G364" s="7"/>
       <c r="H364" s="7"/>
       <c r="I364" s="7"/>
       <c r="J364" s="7"/>
@@ -51898,24 +52737,24 @@
       <c r="S364" s="7"/>
       <c r="T364" s="7"/>
       <c r="U364" s="7">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="365" spans="1:21">
       <c r="A365" s="12">
-        <v>41361</v>
+        <v>41281</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
-      <c r="G365" s="7"/>
+      <c r="G365" s="7">
+        <v>200</v>
+      </c>
       <c r="H365" s="7"/>
       <c r="I365" s="7"/>
-      <c r="J365" s="7">
-        <v>40</v>
-      </c>
+      <c r="J365" s="7"/>
       <c r="K365" s="7"/>
       <c r="L365" s="7"/>
       <c r="M365" s="7"/>
@@ -51927,12 +52766,12 @@
       <c r="S365" s="7"/>
       <c r="T365" s="7"/>
       <c r="U365" s="7">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="366" spans="1:21">
       <c r="A366" s="12">
-        <v>41373</v>
+        <v>41310</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -51942,9 +52781,11 @@
       <c r="G366" s="7"/>
       <c r="H366" s="7"/>
       <c r="I366" s="7">
-        <v>91</v>
-      </c>
-      <c r="J366" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="J366" s="7">
+        <v>31.9</v>
+      </c>
       <c r="K366" s="7"/>
       <c r="L366" s="7"/>
       <c r="M366" s="7"/>
@@ -51956,19 +52797,21 @@
       <c r="S366" s="7"/>
       <c r="T366" s="7"/>
       <c r="U366" s="7">
-        <v>91</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="367" spans="1:21">
       <c r="A367" s="12">
-        <v>41374</v>
+        <v>41323</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
-      <c r="G367" s="7"/>
+      <c r="G367" s="7">
+        <v>119.6</v>
+      </c>
       <c r="H367" s="7"/>
       <c r="I367" s="7"/>
       <c r="J367" s="7"/>
@@ -51976,21 +52819,19 @@
       <c r="L367" s="7"/>
       <c r="M367" s="7"/>
       <c r="N367" s="7"/>
-      <c r="O367" s="7">
-        <v>75</v>
-      </c>
+      <c r="O367" s="7"/>
       <c r="P367" s="7"/>
       <c r="Q367" s="7"/>
       <c r="R367" s="7"/>
       <c r="S367" s="7"/>
       <c r="T367" s="7"/>
       <c r="U367" s="7">
-        <v>75</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="368" spans="1:21">
       <c r="A368" s="12">
-        <v>41376</v>
+        <v>41331</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -51998,7 +52839,7 @@
       <c r="E368" s="7"/>
       <c r="F368" s="7"/>
       <c r="G368" s="7">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H368" s="7"/>
       <c r="I368" s="7"/>
@@ -52008,22 +52849,18 @@
       <c r="M368" s="7"/>
       <c r="N368" s="7"/>
       <c r="O368" s="7"/>
-      <c r="P368" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q368" s="7">
-        <v>100</v>
-      </c>
+      <c r="P368" s="7"/>
+      <c r="Q368" s="7"/>
       <c r="R368" s="7"/>
       <c r="S368" s="7"/>
       <c r="T368" s="7"/>
       <c r="U368" s="7">
-        <v>247</v>
+        <v>100</v>
       </c>
     </row>
     <row r="369" spans="1:21">
       <c r="A369" s="12">
-        <v>41382</v>
+        <v>41361</v>
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -52033,13 +52870,13 @@
       <c r="G369" s="7"/>
       <c r="H369" s="7"/>
       <c r="I369" s="7"/>
-      <c r="J369" s="7"/>
+      <c r="J369" s="7">
+        <v>40</v>
+      </c>
       <c r="K369" s="7"/>
       <c r="L369" s="7"/>
       <c r="M369" s="7"/>
-      <c r="N369" s="7">
-        <v>100</v>
-      </c>
+      <c r="N369" s="7"/>
       <c r="O369" s="7"/>
       <c r="P369" s="7"/>
       <c r="Q369" s="7"/>
@@ -52047,12 +52884,12 @@
       <c r="S369" s="7"/>
       <c r="T369" s="7"/>
       <c r="U369" s="7">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="370" spans="1:21">
       <c r="A370" s="12">
-        <v>41383</v>
+        <v>41373</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -52061,27 +52898,27 @@
       <c r="F370" s="7"/>
       <c r="G370" s="7"/>
       <c r="H370" s="7"/>
-      <c r="I370" s="7"/>
+      <c r="I370" s="7">
+        <v>91</v>
+      </c>
       <c r="J370" s="7"/>
       <c r="K370" s="7"/>
       <c r="L370" s="7"/>
       <c r="M370" s="7"/>
       <c r="N370" s="7"/>
       <c r="O370" s="7"/>
-      <c r="P370" s="7">
-        <v>100</v>
-      </c>
+      <c r="P370" s="7"/>
       <c r="Q370" s="7"/>
       <c r="R370" s="7"/>
       <c r="S370" s="7"/>
       <c r="T370" s="7"/>
       <c r="U370" s="7">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="371" spans="1:21">
       <c r="A371" s="12">
-        <v>41386</v>
+        <v>41374</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -52097,7 +52934,7 @@
       <c r="M371" s="7"/>
       <c r="N371" s="7"/>
       <c r="O371" s="7">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="P371" s="7"/>
       <c r="Q371" s="7"/>
@@ -52105,19 +52942,21 @@
       <c r="S371" s="7"/>
       <c r="T371" s="7"/>
       <c r="U371" s="7">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="372" spans="1:21">
       <c r="A372" s="12">
-        <v>41387</v>
+        <v>41376</v>
       </c>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
-      <c r="G372" s="7"/>
+      <c r="G372" s="7">
+        <v>97</v>
+      </c>
       <c r="H372" s="7"/>
       <c r="I372" s="7"/>
       <c r="J372" s="7"/>
@@ -52125,30 +52964,30 @@
       <c r="L372" s="7"/>
       <c r="M372" s="7"/>
       <c r="N372" s="7"/>
-      <c r="O372" s="7">
-        <v>30</v>
-      </c>
-      <c r="P372" s="7"/>
-      <c r="Q372" s="7"/>
+      <c r="O372" s="7"/>
+      <c r="P372" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q372" s="7">
+        <v>100</v>
+      </c>
       <c r="R372" s="7"/>
       <c r="S372" s="7"/>
       <c r="T372" s="7"/>
       <c r="U372" s="7">
-        <v>30</v>
+        <v>247</v>
       </c>
     </row>
     <row r="373" spans="1:21">
       <c r="A373" s="12">
-        <v>41388</v>
+        <v>41382</v>
       </c>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
-      <c r="G373" s="7">
-        <v>20</v>
-      </c>
+      <c r="G373" s="7"/>
       <c r="H373" s="7"/>
       <c r="I373" s="7"/>
       <c r="J373" s="7"/>
@@ -52156,23 +52995,21 @@
       <c r="L373" s="7"/>
       <c r="M373" s="7"/>
       <c r="N373" s="7">
-        <v>40</v>
-      </c>
-      <c r="O373" s="7">
-        <v>11</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O373" s="7"/>
       <c r="P373" s="7"/>
       <c r="Q373" s="7"/>
       <c r="R373" s="7"/>
       <c r="S373" s="7"/>
       <c r="T373" s="7"/>
       <c r="U373" s="7">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="374" spans="1:21">
       <c r="A374" s="12">
-        <v>41390</v>
+        <v>41383</v>
       </c>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -52181,27 +53018,27 @@
       <c r="F374" s="7"/>
       <c r="G374" s="7"/>
       <c r="H374" s="7"/>
-      <c r="I374" s="7">
-        <v>120</v>
-      </c>
+      <c r="I374" s="7"/>
       <c r="J374" s="7"/>
       <c r="K374" s="7"/>
       <c r="L374" s="7"/>
       <c r="M374" s="7"/>
       <c r="N374" s="7"/>
       <c r="O374" s="7"/>
-      <c r="P374" s="7"/>
+      <c r="P374" s="7">
+        <v>100</v>
+      </c>
       <c r="Q374" s="7"/>
       <c r="R374" s="7"/>
       <c r="S374" s="7"/>
       <c r="T374" s="7"/>
       <c r="U374" s="7">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="375" spans="1:21">
       <c r="A375" s="12">
-        <v>41397</v>
+        <v>41386</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -52209,9 +53046,7 @@
       <c r="E375" s="7"/>
       <c r="F375" s="7"/>
       <c r="G375" s="7"/>
-      <c r="H375" s="7">
-        <v>50</v>
-      </c>
+      <c r="H375" s="7"/>
       <c r="I375" s="7"/>
       <c r="J375" s="7"/>
       <c r="K375" s="7"/>
@@ -52219,22 +53054,20 @@
       <c r="M375" s="7"/>
       <c r="N375" s="7"/>
       <c r="O375" s="7">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P375" s="7"/>
       <c r="Q375" s="7"/>
       <c r="R375" s="7"/>
-      <c r="S375" s="7">
-        <v>100</v>
-      </c>
+      <c r="S375" s="7"/>
       <c r="T375" s="7"/>
       <c r="U375" s="7">
-        <v>250</v>
+        <v>40</v>
       </c>
     </row>
     <row r="376" spans="1:21">
       <c r="A376" s="12">
-        <v>41401</v>
+        <v>41387</v>
       </c>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -52249,52 +53082,54 @@
       <c r="L376" s="7"/>
       <c r="M376" s="7"/>
       <c r="N376" s="7"/>
-      <c r="O376" s="7"/>
+      <c r="O376" s="7">
+        <v>30</v>
+      </c>
       <c r="P376" s="7"/>
-      <c r="Q376" s="7">
-        <v>100</v>
-      </c>
+      <c r="Q376" s="7"/>
       <c r="R376" s="7"/>
       <c r="S376" s="7"/>
       <c r="T376" s="7"/>
       <c r="U376" s="7">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="377" spans="1:21">
       <c r="A377" s="12">
-        <v>41402</v>
+        <v>41388</v>
       </c>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
       <c r="F377" s="7"/>
-      <c r="G377" s="7"/>
+      <c r="G377" s="7">
+        <v>20</v>
+      </c>
       <c r="H377" s="7"/>
       <c r="I377" s="7"/>
       <c r="J377" s="7"/>
       <c r="K377" s="7"/>
-      <c r="L377" s="7">
-        <v>100</v>
-      </c>
+      <c r="L377" s="7"/>
       <c r="M377" s="7"/>
-      <c r="N377" s="7"/>
-      <c r="O377" s="7"/>
-      <c r="P377" s="7">
-        <v>50</v>
-      </c>
+      <c r="N377" s="7">
+        <v>40</v>
+      </c>
+      <c r="O377" s="7">
+        <v>11</v>
+      </c>
+      <c r="P377" s="7"/>
       <c r="Q377" s="7"/>
       <c r="R377" s="7"/>
       <c r="S377" s="7"/>
       <c r="T377" s="7"/>
       <c r="U377" s="7">
-        <v>150</v>
+        <v>71</v>
       </c>
     </row>
     <row r="378" spans="1:21">
       <c r="A378" s="12">
-        <v>41403</v>
+        <v>41390</v>
       </c>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -52302,46 +53137,40 @@
       <c r="E378" s="7"/>
       <c r="F378" s="7"/>
       <c r="G378" s="7"/>
-      <c r="H378" s="7">
-        <v>100</v>
-      </c>
-      <c r="I378" s="7"/>
+      <c r="H378" s="7"/>
+      <c r="I378" s="7">
+        <v>120</v>
+      </c>
       <c r="J378" s="7"/>
       <c r="K378" s="7"/>
       <c r="L378" s="7"/>
-      <c r="M378" s="7">
-        <v>100</v>
-      </c>
+      <c r="M378" s="7"/>
       <c r="N378" s="7"/>
       <c r="O378" s="7"/>
       <c r="P378" s="7"/>
       <c r="Q378" s="7"/>
       <c r="R378" s="7"/>
       <c r="S378" s="7"/>
-      <c r="T378" s="7">
-        <v>50</v>
-      </c>
+      <c r="T378" s="7"/>
       <c r="U378" s="7">
-        <v>250</v>
+        <v>120</v>
       </c>
     </row>
     <row r="379" spans="1:21">
       <c r="A379" s="12">
-        <v>41407</v>
+        <v>41397</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
       <c r="F379" s="7"/>
-      <c r="G379" s="7">
-        <v>100</v>
-      </c>
-      <c r="H379" s="7"/>
+      <c r="G379" s="7"/>
+      <c r="H379" s="7">
+        <v>50</v>
+      </c>
       <c r="I379" s="7"/>
-      <c r="J379" s="7">
-        <v>100</v>
-      </c>
+      <c r="J379" s="7"/>
       <c r="K379" s="7"/>
       <c r="L379" s="7"/>
       <c r="M379" s="7"/>
@@ -52355,12 +53184,12 @@
       <c r="S379" s="7"/>
       <c r="T379" s="7"/>
       <c r="U379" s="7">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="380" spans="1:21">
       <c r="A380" s="12">
-        <v>41410</v>
+        <v>41401</v>
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -52369,9 +53198,7 @@
       <c r="F380" s="7"/>
       <c r="G380" s="7"/>
       <c r="H380" s="7"/>
-      <c r="I380" s="7">
-        <v>200</v>
-      </c>
+      <c r="I380" s="7"/>
       <c r="J380" s="7"/>
       <c r="K380" s="7"/>
       <c r="L380" s="7"/>
@@ -52379,17 +53206,19 @@
       <c r="N380" s="7"/>
       <c r="O380" s="7"/>
       <c r="P380" s="7"/>
-      <c r="Q380" s="7"/>
+      <c r="Q380" s="7">
+        <v>100</v>
+      </c>
       <c r="R380" s="7"/>
       <c r="S380" s="7"/>
       <c r="T380" s="7"/>
       <c r="U380" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="381" spans="1:21">
       <c r="A381" s="12">
-        <v>41411</v>
+        <v>41402</v>
       </c>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -52401,26 +53230,26 @@
       <c r="I381" s="7"/>
       <c r="J381" s="7"/>
       <c r="K381" s="7"/>
-      <c r="L381" s="7"/>
+      <c r="L381" s="7">
+        <v>100</v>
+      </c>
       <c r="M381" s="7"/>
-      <c r="N381" s="7">
-        <v>300</v>
-      </c>
+      <c r="N381" s="7"/>
       <c r="O381" s="7"/>
       <c r="P381" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q381" s="7"/>
       <c r="R381" s="7"/>
       <c r="S381" s="7"/>
       <c r="T381" s="7"/>
       <c r="U381" s="7">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="382" spans="1:21">
       <c r="A382" s="12">
-        <v>41414</v>
+        <v>41403</v>
       </c>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -52428,44 +53257,52 @@
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
       <c r="G382" s="7"/>
-      <c r="H382" s="7"/>
+      <c r="H382" s="7">
+        <v>100</v>
+      </c>
       <c r="I382" s="7"/>
-      <c r="J382" s="7">
-        <v>100</v>
-      </c>
+      <c r="J382" s="7"/>
       <c r="K382" s="7"/>
       <c r="L382" s="7"/>
-      <c r="M382" s="7"/>
+      <c r="M382" s="7">
+        <v>100</v>
+      </c>
       <c r="N382" s="7"/>
       <c r="O382" s="7"/>
       <c r="P382" s="7"/>
       <c r="Q382" s="7"/>
       <c r="R382" s="7"/>
-      <c r="S382" s="7"/>
+      <c r="S382" s="7">
+        <v>50</v>
+      </c>
       <c r="T382" s="7"/>
       <c r="U382" s="7">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="383" spans="1:21">
       <c r="A383" s="12">
-        <v>41416</v>
+        <v>41407</v>
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
-      <c r="G383" s="7"/>
+      <c r="G383" s="7">
+        <v>100</v>
+      </c>
       <c r="H383" s="7"/>
       <c r="I383" s="7"/>
-      <c r="J383" s="7"/>
+      <c r="J383" s="7">
+        <v>100</v>
+      </c>
       <c r="K383" s="7"/>
       <c r="L383" s="7"/>
       <c r="M383" s="7"/>
       <c r="N383" s="7"/>
       <c r="O383" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P383" s="7"/>
       <c r="Q383" s="7"/>
@@ -52473,12 +53310,12 @@
       <c r="S383" s="7"/>
       <c r="T383" s="7"/>
       <c r="U383" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="384" spans="1:21">
       <c r="A384" s="12">
-        <v>41424</v>
+        <v>41410</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -52488,7 +53325,7 @@
       <c r="G384" s="7"/>
       <c r="H384" s="7"/>
       <c r="I384" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J384" s="7"/>
       <c r="K384" s="7"/>
@@ -52502,12 +53339,12 @@
       <c r="S384" s="7"/>
       <c r="T384" s="7"/>
       <c r="U384" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="385" spans="1:21">
       <c r="A385" s="12">
-        <v>41429</v>
+        <v>41411</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -52521,7 +53358,9 @@
       <c r="K385" s="7"/>
       <c r="L385" s="7"/>
       <c r="M385" s="7"/>
-      <c r="N385" s="7"/>
+      <c r="N385" s="7">
+        <v>300</v>
+      </c>
       <c r="O385" s="7"/>
       <c r="P385" s="7">
         <v>100</v>
@@ -52531,24 +53370,24 @@
       <c r="S385" s="7"/>
       <c r="T385" s="7"/>
       <c r="U385" s="7">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="386" spans="1:21">
       <c r="A386" s="12">
-        <v>41430</v>
+        <v>41414</v>
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
-      <c r="D386" s="7">
-        <v>100</v>
-      </c>
+      <c r="D386" s="7"/>
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
       <c r="G386" s="7"/>
       <c r="H386" s="7"/>
       <c r="I386" s="7"/>
-      <c r="J386" s="7"/>
+      <c r="J386" s="7">
+        <v>100</v>
+      </c>
       <c r="K386" s="7"/>
       <c r="L386" s="7"/>
       <c r="M386" s="7"/>
@@ -52565,7 +53404,7 @@
     </row>
     <row r="387" spans="1:21">
       <c r="A387" s="12">
-        <v>41431</v>
+        <v>41416</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -52575,39 +53414,37 @@
       <c r="G387" s="7"/>
       <c r="H387" s="7"/>
       <c r="I387" s="7"/>
-      <c r="J387" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="J387" s="7"/>
       <c r="K387" s="7"/>
       <c r="L387" s="7"/>
       <c r="M387" s="7"/>
       <c r="N387" s="7"/>
-      <c r="O387" s="7"/>
+      <c r="O387" s="7">
+        <v>200</v>
+      </c>
       <c r="P387" s="7"/>
       <c r="Q387" s="7"/>
-      <c r="R387" s="7">
-        <v>200</v>
-      </c>
+      <c r="R387" s="7"/>
       <c r="S387" s="7"/>
       <c r="T387" s="7"/>
       <c r="U387" s="7">
-        <v>280.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="388" spans="1:21">
       <c r="A388" s="12">
-        <v>41438</v>
+        <v>41424</v>
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
       <c r="F388" s="7"/>
-      <c r="G388" s="7">
-        <v>20</v>
-      </c>
+      <c r="G388" s="7"/>
       <c r="H388" s="7"/>
-      <c r="I388" s="7"/>
+      <c r="I388" s="7">
+        <v>100</v>
+      </c>
       <c r="J388" s="7"/>
       <c r="K388" s="7"/>
       <c r="L388" s="7"/>
@@ -52620,12 +53457,12 @@
       <c r="S388" s="7"/>
       <c r="T388" s="7"/>
       <c r="U388" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="389" spans="1:21">
       <c r="A389" s="12">
-        <v>41439</v>
+        <v>41429</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -52641,20 +53478,20 @@
       <c r="M389" s="7"/>
       <c r="N389" s="7"/>
       <c r="O389" s="7"/>
-      <c r="P389" s="7"/>
+      <c r="P389" s="7">
+        <v>100</v>
+      </c>
       <c r="Q389" s="7"/>
       <c r="R389" s="7"/>
       <c r="S389" s="7"/>
-      <c r="T389" s="7">
-        <v>100</v>
-      </c>
+      <c r="T389" s="7"/>
       <c r="U389" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="390" spans="1:21">
       <c r="A390" s="12">
-        <v>41443</v>
+        <v>41430</v>
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -52683,7 +53520,7 @@
     </row>
     <row r="391" spans="1:21">
       <c r="A391" s="12">
-        <v>41444</v>
+        <v>41431</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -52693,33 +53530,37 @@
       <c r="G391" s="7"/>
       <c r="H391" s="7"/>
       <c r="I391" s="7"/>
-      <c r="J391" s="7"/>
+      <c r="J391" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K391" s="7"/>
       <c r="L391" s="7"/>
       <c r="M391" s="7"/>
-      <c r="N391" s="7">
-        <v>200</v>
-      </c>
+      <c r="N391" s="7"/>
       <c r="O391" s="7"/>
       <c r="P391" s="7"/>
       <c r="Q391" s="7"/>
-      <c r="R391" s="7"/>
+      <c r="R391" s="7">
+        <v>200</v>
+      </c>
       <c r="S391" s="7"/>
       <c r="T391" s="7"/>
       <c r="U391" s="7">
-        <v>200</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="392" spans="1:21">
       <c r="A392" s="12">
-        <v>41450</v>
+        <v>41438</v>
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
       <c r="F392" s="7"/>
-      <c r="G392" s="7"/>
+      <c r="G392" s="7">
+        <v>20</v>
+      </c>
       <c r="H392" s="7"/>
       <c r="I392" s="7"/>
       <c r="J392" s="7"/>
@@ -52727,23 +53568,19 @@
       <c r="L392" s="7"/>
       <c r="M392" s="7"/>
       <c r="N392" s="7"/>
-      <c r="O392" s="7">
-        <v>140</v>
-      </c>
-      <c r="P392" s="7">
-        <v>100</v>
-      </c>
+      <c r="O392" s="7"/>
+      <c r="P392" s="7"/>
       <c r="Q392" s="7"/>
       <c r="R392" s="7"/>
       <c r="S392" s="7"/>
       <c r="T392" s="7"/>
       <c r="U392" s="7">
-        <v>240</v>
+        <v>20</v>
       </c>
     </row>
     <row r="393" spans="1:21">
       <c r="A393" s="12">
-        <v>41451</v>
+        <v>41439</v>
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -52753,41 +53590,37 @@
       <c r="G393" s="7"/>
       <c r="H393" s="7"/>
       <c r="I393" s="7"/>
-      <c r="J393" s="7">
-        <v>100</v>
-      </c>
+      <c r="J393" s="7"/>
       <c r="K393" s="7"/>
-      <c r="L393" s="7">
-        <v>100</v>
-      </c>
+      <c r="L393" s="7"/>
       <c r="M393" s="7"/>
       <c r="N393" s="7"/>
-      <c r="O393" s="7">
-        <v>200</v>
-      </c>
+      <c r="O393" s="7"/>
       <c r="P393" s="7"/>
       <c r="Q393" s="7"/>
       <c r="R393" s="7"/>
-      <c r="S393" s="7"/>
+      <c r="S393" s="7">
+        <v>100</v>
+      </c>
       <c r="T393" s="7"/>
       <c r="U393" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="394" spans="1:21">
       <c r="A394" s="12">
-        <v>41453</v>
+        <v>41443</v>
       </c>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
-      <c r="D394" s="7"/>
+      <c r="D394" s="7">
+        <v>100</v>
+      </c>
       <c r="E394" s="7"/>
       <c r="F394" s="7"/>
       <c r="G394" s="7"/>
       <c r="H394" s="7"/>
-      <c r="I394" s="7">
-        <v>200</v>
-      </c>
+      <c r="I394" s="7"/>
       <c r="J394" s="7"/>
       <c r="K394" s="7"/>
       <c r="L394" s="7"/>
@@ -52800,12 +53633,12 @@
       <c r="S394" s="7"/>
       <c r="T394" s="7"/>
       <c r="U394" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="395" spans="1:21">
       <c r="A395" s="12">
-        <v>41463</v>
+        <v>41444</v>
       </c>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -52818,10 +53651,10 @@
       <c r="J395" s="7"/>
       <c r="K395" s="7"/>
       <c r="L395" s="7"/>
-      <c r="M395" s="7">
-        <v>20</v>
-      </c>
-      <c r="N395" s="7"/>
+      <c r="M395" s="7"/>
+      <c r="N395" s="7">
+        <v>200</v>
+      </c>
       <c r="O395" s="7"/>
       <c r="P395" s="7"/>
       <c r="Q395" s="7"/>
@@ -52829,12 +53662,12 @@
       <c r="S395" s="7"/>
       <c r="T395" s="7"/>
       <c r="U395" s="7">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="396" spans="1:21">
       <c r="A396" s="12">
-        <v>41464</v>
+        <v>41450</v>
       </c>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -52849,25 +53682,25 @@
       <c r="L396" s="7"/>
       <c r="M396" s="7"/>
       <c r="N396" s="7"/>
-      <c r="O396" s="7"/>
-      <c r="P396" s="7"/>
-      <c r="Q396" s="7">
+      <c r="O396" s="7">
+        <v>140</v>
+      </c>
+      <c r="P396" s="7">
         <v>100</v>
       </c>
+      <c r="Q396" s="7"/>
       <c r="R396" s="7"/>
       <c r="S396" s="7"/>
       <c r="T396" s="7"/>
       <c r="U396" s="7">
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="397" spans="1:21">
       <c r="A397" s="12">
-        <v>41465</v>
-      </c>
-      <c r="B397" s="7">
-        <v>50</v>
-      </c>
+        <v>41451</v>
+      </c>
+      <c r="B397" s="7"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -52875,24 +53708,30 @@
       <c r="G397" s="7"/>
       <c r="H397" s="7"/>
       <c r="I397" s="7"/>
-      <c r="J397" s="7"/>
+      <c r="J397" s="7">
+        <v>100</v>
+      </c>
       <c r="K397" s="7"/>
-      <c r="L397" s="7"/>
+      <c r="L397" s="7">
+        <v>100</v>
+      </c>
       <c r="M397" s="7"/>
       <c r="N397" s="7"/>
-      <c r="O397" s="7"/>
+      <c r="O397" s="7">
+        <v>200</v>
+      </c>
       <c r="P397" s="7"/>
       <c r="Q397" s="7"/>
       <c r="R397" s="7"/>
       <c r="S397" s="7"/>
       <c r="T397" s="7"/>
       <c r="U397" s="7">
-        <v>50</v>
+        <v>400</v>
       </c>
     </row>
     <row r="398" spans="1:21">
       <c r="A398" s="12">
-        <v>41466</v>
+        <v>41453</v>
       </c>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -52901,10 +53740,10 @@
       <c r="F398" s="7"/>
       <c r="G398" s="7"/>
       <c r="H398" s="7"/>
-      <c r="I398" s="7"/>
-      <c r="J398" s="7">
-        <v>100</v>
-      </c>
+      <c r="I398" s="7">
+        <v>200</v>
+      </c>
+      <c r="J398" s="7"/>
       <c r="K398" s="7"/>
       <c r="L398" s="7"/>
       <c r="M398" s="7"/>
@@ -52916,12 +53755,12 @@
       <c r="S398" s="7"/>
       <c r="T398" s="7"/>
       <c r="U398" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="399" spans="1:21">
       <c r="A399" s="12">
-        <v>41467</v>
+        <v>41463</v>
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -52934,23 +53773,23 @@
       <c r="J399" s="7"/>
       <c r="K399" s="7"/>
       <c r="L399" s="7"/>
-      <c r="M399" s="7"/>
+      <c r="M399" s="7">
+        <v>20</v>
+      </c>
       <c r="N399" s="7"/>
       <c r="O399" s="7"/>
       <c r="P399" s="7"/>
       <c r="Q399" s="7"/>
       <c r="R399" s="7"/>
       <c r="S399" s="7"/>
-      <c r="T399" s="7">
-        <v>100</v>
-      </c>
+      <c r="T399" s="7"/>
       <c r="U399" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="400" spans="1:21">
       <c r="A400" s="12">
-        <v>41472</v>
+        <v>41464</v>
       </c>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
@@ -52962,14 +53801,14 @@
       <c r="I400" s="7"/>
       <c r="J400" s="7"/>
       <c r="K400" s="7"/>
-      <c r="L400" s="7">
-        <v>100</v>
-      </c>
+      <c r="L400" s="7"/>
       <c r="M400" s="7"/>
       <c r="N400" s="7"/>
       <c r="O400" s="7"/>
       <c r="P400" s="7"/>
-      <c r="Q400" s="7"/>
+      <c r="Q400" s="7">
+        <v>100</v>
+      </c>
       <c r="R400" s="7"/>
       <c r="S400" s="7"/>
       <c r="T400" s="7"/>
@@ -52979,19 +53818,17 @@
     </row>
     <row r="401" spans="1:21">
       <c r="A401" s="12">
-        <v>41474</v>
+        <v>41465</v>
       </c>
       <c r="B401" s="7">
-        <v>76.5</v>
+        <v>50</v>
       </c>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
       <c r="F401" s="7"/>
       <c r="G401" s="7"/>
-      <c r="H401" s="7">
-        <v>50</v>
-      </c>
+      <c r="H401" s="7"/>
       <c r="I401" s="7"/>
       <c r="J401" s="7"/>
       <c r="K401" s="7"/>
@@ -53000,33 +53837,29 @@
       <c r="N401" s="7"/>
       <c r="O401" s="7"/>
       <c r="P401" s="7"/>
-      <c r="Q401" s="7">
-        <v>200</v>
-      </c>
-      <c r="R401" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q401" s="7"/>
+      <c r="R401" s="7"/>
       <c r="S401" s="7"/>
       <c r="T401" s="7"/>
       <c r="U401" s="7">
-        <v>526.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="402" spans="1:21">
       <c r="A402" s="12">
-        <v>41479</v>
+        <v>41466</v>
       </c>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
       <c r="F402" s="7"/>
-      <c r="G402" s="7">
-        <v>100</v>
-      </c>
+      <c r="G402" s="7"/>
       <c r="H402" s="7"/>
       <c r="I402" s="7"/>
-      <c r="J402" s="7"/>
+      <c r="J402" s="7">
+        <v>100</v>
+      </c>
       <c r="K402" s="7"/>
       <c r="L402" s="7"/>
       <c r="M402" s="7"/>
@@ -53043,7 +53876,7 @@
     </row>
     <row r="403" spans="1:21">
       <c r="A403" s="12">
-        <v>41480</v>
+        <v>41467</v>
       </c>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -53057,22 +53890,22 @@
       <c r="K403" s="7"/>
       <c r="L403" s="7"/>
       <c r="M403" s="7"/>
-      <c r="N403" s="7">
-        <v>200</v>
-      </c>
+      <c r="N403" s="7"/>
       <c r="O403" s="7"/>
       <c r="P403" s="7"/>
       <c r="Q403" s="7"/>
       <c r="R403" s="7"/>
-      <c r="S403" s="7"/>
+      <c r="S403" s="7">
+        <v>100</v>
+      </c>
       <c r="T403" s="7"/>
       <c r="U403" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="404" spans="1:21">
       <c r="A404" s="12">
-        <v>41481</v>
+        <v>41472</v>
       </c>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -53101,50 +53934,56 @@
     </row>
     <row r="405" spans="1:21">
       <c r="A405" s="12">
-        <v>41482</v>
-      </c>
-      <c r="B405" s="7"/>
+        <v>41474</v>
+      </c>
+      <c r="B405" s="7">
+        <v>76.5</v>
+      </c>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
       <c r="F405" s="7"/>
       <c r="G405" s="7"/>
-      <c r="H405" s="7"/>
+      <c r="H405" s="7">
+        <v>50</v>
+      </c>
       <c r="I405" s="7"/>
-      <c r="J405" s="7">
-        <v>100</v>
-      </c>
+      <c r="J405" s="7"/>
       <c r="K405" s="7"/>
       <c r="L405" s="7"/>
       <c r="M405" s="7"/>
       <c r="N405" s="7"/>
       <c r="O405" s="7"/>
       <c r="P405" s="7"/>
-      <c r="Q405" s="7"/>
-      <c r="R405" s="7"/>
+      <c r="Q405" s="7">
+        <v>200</v>
+      </c>
+      <c r="R405" s="7">
+        <v>200</v>
+      </c>
       <c r="S405" s="7"/>
       <c r="T405" s="7"/>
       <c r="U405" s="7">
-        <v>100</v>
+        <v>526.5</v>
       </c>
     </row>
     <row r="406" spans="1:21">
       <c r="A406" s="12">
-        <v>41488</v>
+        <v>41479</v>
       </c>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
       <c r="F406" s="7"/>
-      <c r="G406" s="7"/>
+      <c r="G406" s="7">
+        <v>100</v>
+      </c>
       <c r="H406" s="7"/>
       <c r="I406" s="7"/>
       <c r="J406" s="7"/>
       <c r="K406" s="7"/>
-      <c r="L406" s="7">
-        <v>300</v>
-      </c>
+      <c r="L406" s="7"/>
       <c r="M406" s="7"/>
       <c r="N406" s="7"/>
       <c r="O406" s="7"/>
@@ -53154,16 +53993,14 @@
       <c r="S406" s="7"/>
       <c r="T406" s="7"/>
       <c r="U406" s="7">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="407" spans="1:21">
       <c r="A407" s="12">
-        <v>41495</v>
-      </c>
-      <c r="B407" s="7">
-        <v>100</v>
-      </c>
+        <v>41480</v>
+      </c>
+      <c r="B407" s="7"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -53171,28 +54008,26 @@
       <c r="G407" s="7"/>
       <c r="H407" s="7"/>
       <c r="I407" s="7"/>
-      <c r="J407" s="7">
-        <v>100</v>
-      </c>
+      <c r="J407" s="7"/>
       <c r="K407" s="7"/>
       <c r="L407" s="7"/>
       <c r="M407" s="7"/>
-      <c r="N407" s="7"/>
-      <c r="O407" s="7">
-        <v>300</v>
-      </c>
+      <c r="N407" s="7">
+        <v>200</v>
+      </c>
+      <c r="O407" s="7"/>
       <c r="P407" s="7"/>
       <c r="Q407" s="7"/>
       <c r="R407" s="7"/>
       <c r="S407" s="7"/>
       <c r="T407" s="7"/>
       <c r="U407" s="7">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="408" spans="1:21">
       <c r="A408" s="12">
-        <v>41502</v>
+        <v>41481</v>
       </c>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -53201,12 +54036,12 @@
       <c r="F408" s="7"/>
       <c r="G408" s="7"/>
       <c r="H408" s="7"/>
-      <c r="I408" s="7">
-        <v>200</v>
-      </c>
+      <c r="I408" s="7"/>
       <c r="J408" s="7"/>
       <c r="K408" s="7"/>
-      <c r="L408" s="7"/>
+      <c r="L408" s="7">
+        <v>100</v>
+      </c>
       <c r="M408" s="7"/>
       <c r="N408" s="7"/>
       <c r="O408" s="7"/>
@@ -53216,12 +54051,12 @@
       <c r="S408" s="7"/>
       <c r="T408" s="7"/>
       <c r="U408" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="409" spans="1:21">
       <c r="A409" s="12">
-        <v>41514</v>
+        <v>41482</v>
       </c>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -53250,7 +54085,7 @@
     </row>
     <row r="410" spans="1:21">
       <c r="A410" s="12">
-        <v>41526</v>
+        <v>41488</v>
       </c>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -53262,26 +54097,28 @@
       <c r="I410" s="7"/>
       <c r="J410" s="7"/>
       <c r="K410" s="7"/>
-      <c r="L410" s="7"/>
+      <c r="L410" s="7">
+        <v>300</v>
+      </c>
       <c r="M410" s="7"/>
       <c r="N410" s="7"/>
       <c r="O410" s="7"/>
       <c r="P410" s="7"/>
-      <c r="Q410" s="7">
-        <v>400</v>
-      </c>
+      <c r="Q410" s="7"/>
       <c r="R410" s="7"/>
       <c r="S410" s="7"/>
       <c r="T410" s="7"/>
       <c r="U410" s="7">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="411" spans="1:21">
       <c r="A411" s="12">
-        <v>41528</v>
-      </c>
-      <c r="B411" s="7"/>
+        <v>41495</v>
+      </c>
+      <c r="B411" s="7">
+        <v>100</v>
+      </c>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -53289,57 +54126,57 @@
       <c r="G411" s="7"/>
       <c r="H411" s="7"/>
       <c r="I411" s="7"/>
-      <c r="J411" s="7"/>
+      <c r="J411" s="7">
+        <v>100</v>
+      </c>
       <c r="K411" s="7"/>
       <c r="L411" s="7"/>
       <c r="M411" s="7"/>
       <c r="N411" s="7"/>
-      <c r="O411" s="7"/>
+      <c r="O411" s="7">
+        <v>300</v>
+      </c>
       <c r="P411" s="7"/>
       <c r="Q411" s="7"/>
-      <c r="R411" s="7">
-        <v>200</v>
-      </c>
+      <c r="R411" s="7"/>
       <c r="S411" s="7"/>
       <c r="T411" s="7"/>
       <c r="U411" s="7">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="412" spans="1:21">
       <c r="A412" s="12">
-        <v>41533</v>
-      </c>
-      <c r="B412" s="7">
-        <v>200</v>
-      </c>
+        <v>41502</v>
+      </c>
+      <c r="B412" s="7"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
       <c r="F412" s="7"/>
       <c r="G412" s="7"/>
       <c r="H412" s="7"/>
-      <c r="I412" s="7"/>
+      <c r="I412" s="7">
+        <v>200</v>
+      </c>
       <c r="J412" s="7"/>
       <c r="K412" s="7"/>
       <c r="L412" s="7"/>
       <c r="M412" s="7"/>
       <c r="N412" s="7"/>
       <c r="O412" s="7"/>
-      <c r="P412" s="7">
-        <v>100</v>
-      </c>
+      <c r="P412" s="7"/>
       <c r="Q412" s="7"/>
       <c r="R412" s="7"/>
       <c r="S412" s="7"/>
       <c r="T412" s="7"/>
       <c r="U412" s="7">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="413" spans="1:21">
       <c r="A413" s="12">
-        <v>41537</v>
+        <v>41514</v>
       </c>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -53350,7 +54187,7 @@
       <c r="H413" s="7"/>
       <c r="I413" s="7"/>
       <c r="J413" s="7">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="K413" s="7"/>
       <c r="L413" s="7"/>
@@ -53363,12 +54200,12 @@
       <c r="S413" s="7"/>
       <c r="T413" s="7"/>
       <c r="U413" s="7">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="414" spans="1:21">
       <c r="A414" s="12">
-        <v>41547</v>
+        <v>41526</v>
       </c>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -53382,22 +54219,22 @@
       <c r="K414" s="7"/>
       <c r="L414" s="7"/>
       <c r="M414" s="7"/>
-      <c r="N414" s="7">
-        <v>80</v>
-      </c>
+      <c r="N414" s="7"/>
       <c r="O414" s="7"/>
       <c r="P414" s="7"/>
-      <c r="Q414" s="7"/>
+      <c r="Q414" s="7">
+        <v>400</v>
+      </c>
       <c r="R414" s="7"/>
       <c r="S414" s="7"/>
       <c r="T414" s="7"/>
       <c r="U414" s="7">
-        <v>80</v>
+        <v>400</v>
       </c>
     </row>
     <row r="415" spans="1:21">
       <c r="A415" s="12">
-        <v>41559</v>
+        <v>41528</v>
       </c>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -53407,9 +54244,7 @@
       <c r="G415" s="7"/>
       <c r="H415" s="7"/>
       <c r="I415" s="7"/>
-      <c r="J415" s="7">
-        <v>161</v>
-      </c>
+      <c r="J415" s="7"/>
       <c r="K415" s="7"/>
       <c r="L415" s="7"/>
       <c r="M415" s="7"/>
@@ -53417,53 +54252,49 @@
       <c r="O415" s="7"/>
       <c r="P415" s="7"/>
       <c r="Q415" s="7"/>
-      <c r="R415" s="7"/>
+      <c r="R415" s="7">
+        <v>200</v>
+      </c>
       <c r="S415" s="7"/>
       <c r="T415" s="7"/>
       <c r="U415" s="7">
-        <v>161</v>
+        <v>200</v>
       </c>
     </row>
     <row r="416" spans="1:21">
       <c r="A416" s="12">
-        <v>41565</v>
-      </c>
-      <c r="B416" s="7"/>
+        <v>41533</v>
+      </c>
+      <c r="B416" s="7">
+        <v>200</v>
+      </c>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
       <c r="F416" s="7"/>
       <c r="G416" s="7"/>
       <c r="H416" s="7"/>
-      <c r="I416" s="7">
-        <v>150</v>
-      </c>
+      <c r="I416" s="7"/>
       <c r="J416" s="7"/>
       <c r="K416" s="7"/>
-      <c r="L416" s="7">
-        <v>200</v>
-      </c>
+      <c r="L416" s="7"/>
       <c r="M416" s="7"/>
       <c r="N416" s="7"/>
       <c r="O416" s="7"/>
       <c r="P416" s="7">
         <v>100</v>
       </c>
-      <c r="Q416" s="7">
-        <v>100</v>
-      </c>
-      <c r="R416" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q416" s="7"/>
+      <c r="R416" s="7"/>
       <c r="S416" s="7"/>
       <c r="T416" s="7"/>
       <c r="U416" s="7">
-        <v>750</v>
+        <v>300</v>
       </c>
     </row>
     <row r="417" spans="1:21">
       <c r="A417" s="12">
-        <v>41575</v>
+        <v>41537</v>
       </c>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -53474,7 +54305,7 @@
       <c r="H417" s="7"/>
       <c r="I417" s="7"/>
       <c r="J417" s="7">
-        <v>80.5</v>
+        <v>77</v>
       </c>
       <c r="K417" s="7"/>
       <c r="L417" s="7"/>
@@ -53487,12 +54318,12 @@
       <c r="S417" s="7"/>
       <c r="T417" s="7"/>
       <c r="U417" s="7">
-        <v>80.5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="418" spans="1:21">
       <c r="A418" s="12">
-        <v>41579</v>
+        <v>41547</v>
       </c>
       <c r="B418" s="7"/>
       <c r="C418" s="7"/>
@@ -53502,13 +54333,13 @@
       <c r="G418" s="7"/>
       <c r="H418" s="7"/>
       <c r="I418" s="7"/>
-      <c r="J418" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="J418" s="7"/>
       <c r="K418" s="7"/>
       <c r="L418" s="7"/>
       <c r="M418" s="7"/>
-      <c r="N418" s="7"/>
+      <c r="N418" s="7">
+        <v>80</v>
+      </c>
       <c r="O418" s="7"/>
       <c r="P418" s="7"/>
       <c r="Q418" s="7"/>
@@ -53516,16 +54347,14 @@
       <c r="S418" s="7"/>
       <c r="T418" s="7"/>
       <c r="U418" s="7">
-        <v>80.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="419" spans="1:21">
       <c r="A419" s="12">
-        <v>41590</v>
-      </c>
-      <c r="B419" s="7">
-        <v>100</v>
-      </c>
+        <v>41559</v>
+      </c>
+      <c r="B419" s="7"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -53533,7 +54362,9 @@
       <c r="G419" s="7"/>
       <c r="H419" s="7"/>
       <c r="I419" s="7"/>
-      <c r="J419" s="7"/>
+      <c r="J419" s="7">
+        <v>161</v>
+      </c>
       <c r="K419" s="7"/>
       <c r="L419" s="7"/>
       <c r="M419" s="7"/>
@@ -53541,51 +54372,55 @@
       <c r="O419" s="7"/>
       <c r="P419" s="7"/>
       <c r="Q419" s="7"/>
-      <c r="R419" s="7">
-        <v>150</v>
-      </c>
+      <c r="R419" s="7"/>
       <c r="S419" s="7"/>
       <c r="T419" s="7"/>
       <c r="U419" s="7">
-        <v>250</v>
+        <v>161</v>
       </c>
     </row>
     <row r="420" spans="1:21">
       <c r="A420" s="12">
-        <v>41597</v>
-      </c>
-      <c r="B420" s="7">
-        <v>100</v>
-      </c>
+        <v>41565</v>
+      </c>
+      <c r="B420" s="7"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
       <c r="F420" s="7"/>
       <c r="G420" s="7"/>
       <c r="H420" s="7"/>
-      <c r="I420" s="7"/>
+      <c r="I420" s="7">
+        <v>150</v>
+      </c>
       <c r="J420" s="7"/>
       <c r="K420" s="7"/>
-      <c r="L420" s="7"/>
+      <c r="L420" s="7">
+        <v>200</v>
+      </c>
       <c r="M420" s="7"/>
       <c r="N420" s="7"/>
       <c r="O420" s="7"/>
-      <c r="P420" s="7"/>
-      <c r="Q420" s="7"/>
-      <c r="R420" s="7"/>
+      <c r="P420" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q420" s="7">
+        <v>100</v>
+      </c>
+      <c r="R420" s="7">
+        <v>200</v>
+      </c>
       <c r="S420" s="7"/>
       <c r="T420" s="7"/>
       <c r="U420" s="7">
-        <v>100</v>
+        <v>750</v>
       </c>
     </row>
     <row r="421" spans="1:21">
       <c r="A421" s="12">
-        <v>41599</v>
-      </c>
-      <c r="B421" s="7">
-        <v>7</v>
-      </c>
+        <v>41575</v>
+      </c>
+      <c r="B421" s="7"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -53593,7 +54428,9 @@
       <c r="G421" s="7"/>
       <c r="H421" s="7"/>
       <c r="I421" s="7"/>
-      <c r="J421" s="7"/>
+      <c r="J421" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K421" s="7"/>
       <c r="L421" s="7"/>
       <c r="M421" s="7"/>
@@ -53605,12 +54442,12 @@
       <c r="S421" s="7"/>
       <c r="T421" s="7"/>
       <c r="U421" s="7">
-        <v>7</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="422" spans="1:21">
       <c r="A422" s="12">
-        <v>41600</v>
+        <v>41579</v>
       </c>
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
@@ -53621,31 +54458,25 @@
       <c r="H422" s="7"/>
       <c r="I422" s="7"/>
       <c r="J422" s="7">
-        <v>200</v>
+        <v>80.5</v>
       </c>
       <c r="K422" s="7"/>
-      <c r="L422" s="7">
-        <v>200</v>
-      </c>
+      <c r="L422" s="7"/>
       <c r="M422" s="7"/>
-      <c r="N422" s="7">
-        <v>100</v>
-      </c>
+      <c r="N422" s="7"/>
       <c r="O422" s="7"/>
-      <c r="P422" s="7">
-        <v>150</v>
-      </c>
+      <c r="P422" s="7"/>
       <c r="Q422" s="7"/>
       <c r="R422" s="7"/>
       <c r="S422" s="7"/>
       <c r="T422" s="7"/>
       <c r="U422" s="7">
-        <v>650</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="423" spans="1:21">
       <c r="A423" s="12">
-        <v>41603</v>
+        <v>41590</v>
       </c>
       <c r="B423" s="7">
         <v>100</v>
@@ -53665,18 +54496,22 @@
       <c r="O423" s="7"/>
       <c r="P423" s="7"/>
       <c r="Q423" s="7"/>
-      <c r="R423" s="7"/>
+      <c r="R423" s="7">
+        <v>150</v>
+      </c>
       <c r="S423" s="7"/>
       <c r="T423" s="7"/>
       <c r="U423" s="7">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="424" spans="1:21">
       <c r="A424" s="12">
-        <v>41605</v>
-      </c>
-      <c r="B424" s="7"/>
+        <v>41597</v>
+      </c>
+      <c r="B424" s="7">
+        <v>100</v>
+      </c>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -53691,21 +54526,21 @@
       <c r="N424" s="7"/>
       <c r="O424" s="7"/>
       <c r="P424" s="7"/>
-      <c r="Q424" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q424" s="7"/>
       <c r="R424" s="7"/>
       <c r="S424" s="7"/>
       <c r="T424" s="7"/>
       <c r="U424" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="425" spans="1:21">
       <c r="A425" s="12">
-        <v>41610</v>
-      </c>
-      <c r="B425" s="7"/>
+        <v>41599</v>
+      </c>
+      <c r="B425" s="7">
+        <v>7</v>
+      </c>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -53718,21 +54553,19 @@
       <c r="L425" s="7"/>
       <c r="M425" s="7"/>
       <c r="N425" s="7"/>
-      <c r="O425" s="7">
-        <v>100</v>
-      </c>
+      <c r="O425" s="7"/>
       <c r="P425" s="7"/>
       <c r="Q425" s="7"/>
       <c r="R425" s="7"/>
       <c r="S425" s="7"/>
       <c r="T425" s="7"/>
       <c r="U425" s="7">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="426" spans="1:21">
       <c r="A426" s="12">
-        <v>41611</v>
+        <v>41600</v>
       </c>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -53742,86 +54575,239 @@
       <c r="G426" s="7"/>
       <c r="H426" s="7"/>
       <c r="I426" s="7"/>
-      <c r="J426" s="7"/>
+      <c r="J426" s="7">
+        <v>200</v>
+      </c>
       <c r="K426" s="7"/>
-      <c r="L426" s="7"/>
+      <c r="L426" s="7">
+        <v>200</v>
+      </c>
       <c r="M426" s="7"/>
       <c r="N426" s="7">
+        <v>100</v>
+      </c>
+      <c r="O426" s="7"/>
+      <c r="P426" s="7">
         <v>150</v>
       </c>
-      <c r="O426" s="7"/>
-      <c r="P426" s="7"/>
       <c r="Q426" s="7"/>
       <c r="R426" s="7"/>
       <c r="S426" s="7"/>
       <c r="T426" s="7"/>
       <c r="U426" s="7">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="427" spans="1:21">
+      <c r="A427" s="12">
+        <v>41603</v>
+      </c>
+      <c r="B427" s="7">
+        <v>100</v>
+      </c>
+      <c r="C427" s="7"/>
+      <c r="D427" s="7"/>
+      <c r="E427" s="7"/>
+      <c r="F427" s="7"/>
+      <c r="G427" s="7"/>
+      <c r="H427" s="7"/>
+      <c r="I427" s="7"/>
+      <c r="J427" s="7"/>
+      <c r="K427" s="7"/>
+      <c r="L427" s="7"/>
+      <c r="M427" s="7"/>
+      <c r="N427" s="7"/>
+      <c r="O427" s="7"/>
+      <c r="P427" s="7"/>
+      <c r="Q427" s="7"/>
+      <c r="R427" s="7"/>
+      <c r="S427" s="7"/>
+      <c r="T427" s="7"/>
+      <c r="U427" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="428" spans="1:21">
+      <c r="A428" s="12">
+        <v>41605</v>
+      </c>
+      <c r="B428" s="7"/>
+      <c r="C428" s="7"/>
+      <c r="D428" s="7"/>
+      <c r="E428" s="7"/>
+      <c r="F428" s="7"/>
+      <c r="G428" s="7"/>
+      <c r="H428" s="7"/>
+      <c r="I428" s="7"/>
+      <c r="J428" s="7"/>
+      <c r="K428" s="7"/>
+      <c r="L428" s="7"/>
+      <c r="M428" s="7"/>
+      <c r="N428" s="7"/>
+      <c r="O428" s="7"/>
+      <c r="P428" s="7"/>
+      <c r="Q428" s="7">
+        <v>200</v>
+      </c>
+      <c r="R428" s="7"/>
+      <c r="S428" s="7"/>
+      <c r="T428" s="7"/>
+      <c r="U428" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="429" spans="1:21">
+      <c r="A429" s="12">
+        <v>41610</v>
+      </c>
+      <c r="B429" s="7"/>
+      <c r="C429" s="7"/>
+      <c r="D429" s="7"/>
+      <c r="E429" s="7"/>
+      <c r="F429" s="7"/>
+      <c r="G429" s="7"/>
+      <c r="H429" s="7"/>
+      <c r="I429" s="7"/>
+      <c r="J429" s="7"/>
+      <c r="K429" s="7"/>
+      <c r="L429" s="7"/>
+      <c r="M429" s="7"/>
+      <c r="N429" s="7"/>
+      <c r="O429" s="7">
+        <v>100</v>
+      </c>
+      <c r="P429" s="7"/>
+      <c r="Q429" s="7"/>
+      <c r="R429" s="7"/>
+      <c r="S429" s="7"/>
+      <c r="T429" s="7"/>
+      <c r="U429" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="430" spans="1:21">
+      <c r="A430" s="12">
+        <v>41611</v>
+      </c>
+      <c r="B430" s="7"/>
+      <c r="C430" s="7"/>
+      <c r="D430" s="7"/>
+      <c r="E430" s="7"/>
+      <c r="F430" s="7"/>
+      <c r="G430" s="7"/>
+      <c r="H430" s="7"/>
+      <c r="I430" s="7"/>
+      <c r="J430" s="7"/>
+      <c r="K430" s="7"/>
+      <c r="L430" s="7"/>
+      <c r="M430" s="7"/>
+      <c r="N430" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="427" spans="1:21">
-      <c r="A427" s="6" t="s">
+      <c r="O430" s="7"/>
+      <c r="P430" s="7"/>
+      <c r="Q430" s="7"/>
+      <c r="R430" s="7"/>
+      <c r="S430" s="7"/>
+      <c r="T430" s="7"/>
+      <c r="U430" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="431" spans="1:21">
+      <c r="A431" s="12">
+        <v>41614</v>
+      </c>
+      <c r="B431" s="7"/>
+      <c r="C431" s="7"/>
+      <c r="D431" s="7"/>
+      <c r="E431" s="7"/>
+      <c r="F431" s="7"/>
+      <c r="G431" s="7"/>
+      <c r="H431" s="7"/>
+      <c r="I431" s="7"/>
+      <c r="J431" s="7"/>
+      <c r="K431" s="7"/>
+      <c r="L431" s="7">
+        <v>50</v>
+      </c>
+      <c r="M431" s="7"/>
+      <c r="N431" s="7"/>
+      <c r="O431" s="7"/>
+      <c r="P431" s="7"/>
+      <c r="Q431" s="7"/>
+      <c r="R431" s="7"/>
+      <c r="S431" s="7"/>
+      <c r="T431" s="7">
+        <v>100</v>
+      </c>
+      <c r="U431" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="432" spans="1:21">
+      <c r="A432" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B427" s="7">
-        <v>-70.899999999999977</v>
-      </c>
-      <c r="C427" s="7">
+      <c r="B432" s="7">
+        <v>-116.29999999999995</v>
+      </c>
+      <c r="C432" s="7">
         <v>56</v>
       </c>
-      <c r="D427" s="7">
+      <c r="D432" s="7">
         <v>15.899999999999977</v>
       </c>
-      <c r="E427" s="7">
+      <c r="E432" s="7">
         <v>14</v>
       </c>
-      <c r="F427" s="7">
+      <c r="F432" s="7">
         <v>-8</v>
       </c>
-      <c r="G427" s="7">
+      <c r="G432" s="7">
         <v>-13.699999999999591</v>
       </c>
-      <c r="H427" s="7">
+      <c r="H432" s="7">
         <v>-34.099999999999909</v>
       </c>
-      <c r="I427" s="7">
+      <c r="I432" s="7">
         <v>8.9999999999995453</v>
       </c>
-      <c r="J427" s="7">
-        <v>56.999999999997726</v>
-      </c>
-      <c r="K427" s="7">
+      <c r="J432" s="7">
+        <v>28.199999999997999</v>
+      </c>
+      <c r="K432" s="7">
         <v>9.3000000000000114</v>
       </c>
-      <c r="L427" s="7">
-        <v>-22.099999999999227</v>
-      </c>
-      <c r="M427" s="7">
+      <c r="L432" s="7">
+        <v>-45.299999999999045</v>
+      </c>
+      <c r="M432" s="7">
         <v>43.400000000000006</v>
       </c>
-      <c r="N427" s="7">
-        <v>39.500000000000909</v>
-      </c>
-      <c r="O427" s="7">
-        <v>3.7000000000014097</v>
-      </c>
-      <c r="P427" s="7">
-        <v>55.899999999999977</v>
-      </c>
-      <c r="Q427" s="7">
-        <v>-43.199999999999591</v>
-      </c>
-      <c r="R427" s="7">
-        <v>-93.899999999999636</v>
-      </c>
-      <c r="S427" s="7">
-        <v>0</v>
-      </c>
-      <c r="T427" s="7">
+      <c r="N432" s="7">
+        <v>-33.699999999998909</v>
+      </c>
+      <c r="O432" s="7">
+        <v>-69.499999999998408</v>
+      </c>
+      <c r="P432" s="7">
+        <v>14.499999999999886</v>
+      </c>
+      <c r="Q432" s="7">
+        <v>-116.39999999999941</v>
+      </c>
+      <c r="R432" s="7">
+        <v>-167.09999999999945</v>
+      </c>
+      <c r="S432" s="7">
         <v>39.400000000000006</v>
       </c>
-      <c r="U427" s="7">
-        <v>57.200000000013461</v>
+      <c r="T432" s="7">
+        <v>26.800000000000011</v>
+      </c>
+      <c r="U432" s="7">
+        <v>-347.59999999998945</v>
       </c>
     </row>
   </sheetData>
@@ -53832,10 +54818,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -53856,11 +54842,11 @@
     <col min="16" max="16" width="7.75" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="8.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -53868,7 +54854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -53927,15 +54913,18 @@
         <v>480</v>
       </c>
       <c r="T2" t="s">
+        <v>567</v>
+      </c>
+      <c r="U2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7">
-        <v>-821.39999999999975</v>
+        <v>-866.79999999999973</v>
       </c>
       <c r="C3" s="7">
         <v>-31</v>
@@ -53959,40 +54948,43 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3125.400000000001</v>
+        <v>-3154.2000000000012</v>
       </c>
       <c r="K3" s="7">
         <v>-220.7</v>
       </c>
       <c r="L3" s="7">
-        <v>-1422.0999999999992</v>
+        <v>-1495.299999999999</v>
       </c>
       <c r="M3" s="7">
         <v>-176.6</v>
       </c>
       <c r="N3" s="7">
-        <v>-1430.4999999999991</v>
+        <v>-1503.6999999999991</v>
       </c>
       <c r="O3" s="7">
-        <v>-1675.2999999999986</v>
+        <v>-1748.4999999999986</v>
       </c>
       <c r="P3" s="7">
-        <v>-887.09999999999991</v>
+        <v>-928.5</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1243.1999999999996</v>
+        <v>-1316.3999999999996</v>
       </c>
       <c r="R3" s="7">
-        <v>-1043.8999999999996</v>
+        <v>-1117.0999999999995</v>
       </c>
       <c r="S3" s="7">
-        <v>-210.59999999999997</v>
+        <v>-210.6</v>
       </c>
       <c r="T3" s="7">
-        <v>-17941.199999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>-73.199999999999989</v>
+      </c>
+      <c r="U3" s="7">
+        <v>-18495.999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -54027,7 +55019,7 @@
         <v>230</v>
       </c>
       <c r="L4" s="7">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="M4" s="7">
         <v>220</v>
@@ -54051,15 +55043,18 @@
         <v>250</v>
       </c>
       <c r="T4" s="7">
-        <v>17998.400000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>100</v>
+      </c>
+      <c r="U4" s="7">
+        <v>18148.400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="8">
-        <v>-70.89999999999975</v>
+        <v>-116.29999999999973</v>
       </c>
       <c r="C5" s="8">
         <v>56</v>
@@ -54083,37 +55078,40 @@
         <v>8.9999999999995453</v>
       </c>
       <c r="J5" s="8">
-        <v>56.999999999999091</v>
+        <v>28.199999999998909</v>
       </c>
       <c r="K5" s="8">
         <v>9.3000000000000114</v>
       </c>
       <c r="L5" s="8">
-        <v>-22.099999999999227</v>
+        <v>-45.299999999999045</v>
       </c>
       <c r="M5" s="8">
         <v>43.400000000000006</v>
       </c>
       <c r="N5" s="8">
-        <v>39.500000000000909</v>
+        <v>-33.699999999999136</v>
       </c>
       <c r="O5" s="8">
-        <v>3.7000000000014097</v>
+        <v>-69.499999999998636</v>
       </c>
       <c r="P5" s="8">
-        <v>55.900000000000091</v>
+        <v>14.5</v>
       </c>
       <c r="Q5" s="8">
-        <v>-43.199999999999591</v>
+        <v>-116.39999999999964</v>
       </c>
       <c r="R5" s="8">
-        <v>-93.899999999999636</v>
+        <v>-167.09999999999945</v>
       </c>
       <c r="S5" s="8">
-        <v>39.400000000000034</v>
+        <v>39.400000000000006</v>
       </c>
       <c r="T5" s="8">
-        <v>57.200000000004366</v>
+        <v>26.800000000000011</v>
+      </c>
+      <c r="U5" s="8">
+        <v>-347.59999999999491</v>
       </c>
     </row>
   </sheetData>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="消费记录明细" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4327" uniqueCount="569">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2258,6 +2258,10 @@
   </si>
   <si>
     <t>张进</t>
+  </si>
+  <si>
+    <t>烤鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2494,75 +2498,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <b/>
@@ -2682,13 +2618,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41614.709014236112" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1584">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41618.390295717596" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1601">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="消费记录明细"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-12-07T00:00:00" count="329">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-12-11T00:00:00" count="331">
         <d v="2011-09-09T00:00:00"/>
         <d v="2011-09-30T00:00:00"/>
         <d v="2011-11-28T00:00:00"/>
@@ -3013,6 +2949,8 @@
         <d v="2013-12-04T00:00:00"/>
         <d v="2013-12-05T00:00:00"/>
         <d v="2013-12-06T00:00:00"/>
+        <d v="2013-12-09T00:00:00"/>
+        <d v="2013-12-10T00:00:00"/>
         <m/>
         <d v="2011-01-12T00:00:00" u="1"/>
         <d v="2013-05-14T00:00:00" u="1"/>
@@ -3071,7 +3009,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1584">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1601">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -12572,6 +12510,108 @@
   </r>
   <r>
     <x v="324"/>
+    <x v="13"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="324"/>
+    <x v="20"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="324"/>
+    <x v="12"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="324"/>
+    <x v="19"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="324"/>
+    <x v="15"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="324"/>
+    <x v="10"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="324"/>
+    <x v="24"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="324"/>
+    <x v="8"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="325"/>
+    <x v="25"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="325"/>
+    <x v="25"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="325"/>
+    <x v="25"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="325"/>
+    <x v="25"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="325"/>
+    <x v="25"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="325"/>
+    <x v="25"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="325"/>
+    <x v="25"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="325"/>
+    <x v="25"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="325"/>
+    <x v="25"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="326"/>
     <x v="25"/>
     <m/>
     <x v="2"/>
@@ -12580,16 +12620,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:U432" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:U433" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="330">
-        <item m="1" x="325"/>
-        <item m="1" x="328"/>
+      <items count="332">
+        <item m="1" x="327"/>
+        <item m="1" x="330"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="327"/>
+        <item m="1" x="329"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -12789,7 +12829,7 @@
         <item x="198"/>
         <item x="199"/>
         <item x="200"/>
-        <item m="1" x="326"/>
+        <item m="1" x="328"/>
         <item x="201"/>
         <item x="202"/>
         <item x="203"/>
@@ -12914,6 +12954,8 @@
         <item x="322"/>
         <item x="323"/>
         <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12963,7 +13005,7 @@
     <field x="3"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="430">
+  <rowItems count="431">
     <i>
       <x/>
     </i>
@@ -13870,6 +13912,9 @@
     <i r="1">
       <x v="327"/>
     </i>
+    <i r="1">
+      <x v="328"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -14324,20 +14369,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="15">
+    <format dxfId="7">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="6">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14351,7 +14396,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:U5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -14480,20 +14525,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="11">
+    <format dxfId="3">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="2">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14793,11 +14838,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1584"/>
+  <dimension ref="A1:V1609"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1571" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1584" sqref="D1584"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1589" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1606" sqref="B1606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -40182,6 +40227,284 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1585" spans="1:6">
+      <c r="A1585" s="4">
+        <v>41617</v>
+      </c>
+      <c r="B1585" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1585" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1585" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:6">
+      <c r="A1586" s="4">
+        <v>41617</v>
+      </c>
+      <c r="B1586" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1586" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:6">
+      <c r="A1587" s="4">
+        <v>41617</v>
+      </c>
+      <c r="B1587" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1587" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:6">
+      <c r="A1588" s="4">
+        <v>41617</v>
+      </c>
+      <c r="B1588" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1588" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:6">
+      <c r="A1589" s="4">
+        <v>41617</v>
+      </c>
+      <c r="B1589" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1589" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:6">
+      <c r="A1590" s="4">
+        <v>41617</v>
+      </c>
+      <c r="B1590" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1590" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:6">
+      <c r="A1591" s="4">
+        <v>41617</v>
+      </c>
+      <c r="B1591" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1591" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:6">
+      <c r="A1592" s="4">
+        <v>41617</v>
+      </c>
+      <c r="B1592" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1592" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:6">
+      <c r="A1593" s="4">
+        <v>41618</v>
+      </c>
+      <c r="B1593" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1593" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:6">
+      <c r="A1594" s="4">
+        <v>41618</v>
+      </c>
+      <c r="B1594" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1594" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:6">
+      <c r="A1595" s="4">
+        <v>41618</v>
+      </c>
+      <c r="B1595" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1595" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:6">
+      <c r="A1596" s="4">
+        <v>41618</v>
+      </c>
+      <c r="B1596" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1596" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:6">
+      <c r="A1597" s="4">
+        <v>41618</v>
+      </c>
+      <c r="B1597" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1597" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:6">
+      <c r="A1598" s="4">
+        <v>41618</v>
+      </c>
+      <c r="B1598" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1598" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:6">
+      <c r="A1599" s="4">
+        <v>41618</v>
+      </c>
+      <c r="B1599" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1599" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:6">
+      <c r="A1600" s="4">
+        <v>41618</v>
+      </c>
+      <c r="B1600" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1600" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:4">
+      <c r="A1601" s="4">
+        <v>41620</v>
+      </c>
+      <c r="B1601" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1601" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:4">
+      <c r="A1602" s="4">
+        <v>41620</v>
+      </c>
+      <c r="B1602" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1602" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:4">
+      <c r="A1603" s="4">
+        <v>41620</v>
+      </c>
+      <c r="B1603" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1603" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:4">
+      <c r="A1604" s="4">
+        <v>41620</v>
+      </c>
+      <c r="B1604" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1604" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:4">
+      <c r="A1605" s="4">
+        <v>41620</v>
+      </c>
+      <c r="B1605" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1605" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:4">
+      <c r="A1606" s="4">
+        <v>41620</v>
+      </c>
+      <c r="B1606" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1606" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:4">
+      <c r="A1607" s="4">
+        <v>41620</v>
+      </c>
+      <c r="B1607" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1607" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:4">
+      <c r="A1608" s="4">
+        <v>41620</v>
+      </c>
+      <c r="B1608" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1608" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:4">
+      <c r="A1609" s="4">
+        <v>41620</v>
+      </c>
+      <c r="B1609" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1609" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="F6:F12"/>
@@ -40197,22 +40520,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40231,11 +40554,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V432"/>
+  <dimension ref="A1:V433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E419" sqref="E419"/>
+      <pane ySplit="3" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F422" sqref="F422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -50798,116 +51121,112 @@
       </c>
     </row>
     <row r="305" spans="1:21">
-      <c r="A305" s="6" t="s">
+      <c r="A305" s="12">
+        <v>41617</v>
+      </c>
+      <c r="B305" s="7"/>
+      <c r="C305" s="7"/>
+      <c r="D305" s="7"/>
+      <c r="E305" s="7"/>
+      <c r="F305" s="7"/>
+      <c r="G305" s="7"/>
+      <c r="H305" s="7"/>
+      <c r="I305" s="7"/>
+      <c r="J305" s="7"/>
+      <c r="K305" s="7"/>
+      <c r="L305" s="7"/>
+      <c r="M305" s="7"/>
+      <c r="N305" s="7"/>
+      <c r="O305" s="7"/>
+      <c r="P305" s="7"/>
+      <c r="Q305" s="7"/>
+      <c r="R305" s="7"/>
+      <c r="S305" s="7"/>
+      <c r="T305" s="7"/>
+      <c r="U305" s="7"/>
+    </row>
+    <row r="306" spans="1:21">
+      <c r="A306" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B305" s="7">
+      <c r="B306" s="7">
         <v>750.5</v>
       </c>
-      <c r="C305" s="7">
+      <c r="C306" s="7">
         <v>87</v>
       </c>
-      <c r="D305" s="7">
+      <c r="D306" s="7">
         <v>300</v>
       </c>
-      <c r="E305" s="7">
-        <v>56</v>
-      </c>
-      <c r="F305" s="7">
-        <v>200</v>
-      </c>
-      <c r="G305" s="7">
-        <v>2023</v>
-      </c>
-      <c r="H305" s="7">
-        <v>555</v>
-      </c>
-      <c r="I305" s="7">
-        <v>2502.5</v>
-      </c>
-      <c r="J305" s="7">
-        <v>3182.4</v>
-      </c>
-      <c r="K305" s="7">
-        <v>230</v>
-      </c>
-      <c r="L305" s="7">
-        <v>1450</v>
-      </c>
-      <c r="M305" s="7">
-        <v>220</v>
-      </c>
-      <c r="N305" s="7">
-        <v>1470</v>
-      </c>
-      <c r="O305" s="7">
-        <v>1679</v>
-      </c>
-      <c r="P305" s="7">
-        <v>943</v>
-      </c>
-      <c r="Q305" s="7">
-        <v>1200</v>
-      </c>
-      <c r="R305" s="7">
-        <v>1150</v>
-      </c>
-      <c r="S305" s="7">
-        <v>250</v>
-      </c>
-      <c r="T305" s="7">
-        <v>100</v>
-      </c>
-      <c r="U305" s="7">
-        <v>18348.400000000001</v>
-      </c>
-    </row>
-    <row r="306" spans="1:21">
-      <c r="A306" s="12">
-        <v>40875</v>
-      </c>
-      <c r="B306" s="7"/>
-      <c r="C306" s="7">
-        <v>63</v>
-      </c>
-      <c r="D306" s="7"/>
       <c r="E306" s="7">
         <v>56</v>
       </c>
-      <c r="F306" s="7"/>
-      <c r="G306" s="7"/>
+      <c r="F306" s="7">
+        <v>200</v>
+      </c>
+      <c r="G306" s="7">
+        <v>2023</v>
+      </c>
       <c r="H306" s="7">
-        <v>0</v>
-      </c>
-      <c r="I306" s="7"/>
-      <c r="J306" s="7"/>
-      <c r="K306" s="7"/>
-      <c r="L306" s="7"/>
-      <c r="M306" s="7"/>
-      <c r="N306" s="7"/>
-      <c r="O306" s="7"/>
-      <c r="P306" s="7"/>
-      <c r="Q306" s="7"/>
-      <c r="R306" s="7"/>
-      <c r="S306" s="7"/>
-      <c r="T306" s="7"/>
+        <v>555</v>
+      </c>
+      <c r="I306" s="7">
+        <v>2502.5</v>
+      </c>
+      <c r="J306" s="7">
+        <v>3182.4</v>
+      </c>
+      <c r="K306" s="7">
+        <v>230</v>
+      </c>
+      <c r="L306" s="7">
+        <v>1450</v>
+      </c>
+      <c r="M306" s="7">
+        <v>220</v>
+      </c>
+      <c r="N306" s="7">
+        <v>1470</v>
+      </c>
+      <c r="O306" s="7">
+        <v>1679</v>
+      </c>
+      <c r="P306" s="7">
+        <v>943</v>
+      </c>
+      <c r="Q306" s="7">
+        <v>1200</v>
+      </c>
+      <c r="R306" s="7">
+        <v>1150</v>
+      </c>
+      <c r="S306" s="7">
+        <v>250</v>
+      </c>
+      <c r="T306" s="7">
+        <v>100</v>
+      </c>
       <c r="U306" s="7">
-        <v>119</v>
+        <v>18348.400000000001</v>
       </c>
     </row>
     <row r="307" spans="1:21">
       <c r="A307" s="12">
-        <v>40879</v>
-      </c>
-      <c r="B307" s="7">
-        <v>7</v>
-      </c>
-      <c r="C307" s="7"/>
+        <v>40875</v>
+      </c>
+      <c r="B307" s="7"/>
+      <c r="C307" s="7">
+        <v>63</v>
+      </c>
       <c r="D307" s="7"/>
-      <c r="E307" s="7"/>
+      <c r="E307" s="7">
+        <v>56</v>
+      </c>
       <c r="F307" s="7"/>
       <c r="G307" s="7"/>
-      <c r="H307" s="7"/>
+      <c r="H307" s="7">
+        <v>0</v>
+      </c>
       <c r="I307" s="7"/>
       <c r="J307" s="7"/>
       <c r="K307" s="7"/>
@@ -50921,21 +51240,21 @@
       <c r="S307" s="7"/>
       <c r="T307" s="7"/>
       <c r="U307" s="7">
-        <v>7</v>
+        <v>119</v>
       </c>
     </row>
     <row r="308" spans="1:21">
       <c r="A308" s="12">
-        <v>40883</v>
-      </c>
-      <c r="B308" s="7"/>
+        <v>40879</v>
+      </c>
+      <c r="B308" s="7">
+        <v>7</v>
+      </c>
       <c r="C308" s="7"/>
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
-      <c r="G308" s="7">
-        <v>50</v>
-      </c>
+      <c r="G308" s="7"/>
       <c r="H308" s="7"/>
       <c r="I308" s="7"/>
       <c r="J308" s="7"/>
@@ -50950,23 +51269,23 @@
       <c r="S308" s="7"/>
       <c r="T308" s="7"/>
       <c r="U308" s="7">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:21">
       <c r="A309" s="12">
-        <v>40891</v>
+        <v>40883</v>
       </c>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
       <c r="F309" s="7"/>
-      <c r="G309" s="7"/>
+      <c r="G309" s="7">
+        <v>50</v>
+      </c>
       <c r="H309" s="7"/>
-      <c r="I309" s="7">
-        <v>65</v>
-      </c>
+      <c r="I309" s="7"/>
       <c r="J309" s="7"/>
       <c r="K309" s="7"/>
       <c r="L309" s="7"/>
@@ -50979,24 +51298,22 @@
       <c r="S309" s="7"/>
       <c r="T309" s="7"/>
       <c r="U309" s="7">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="310" spans="1:21">
       <c r="A310" s="12">
-        <v>40892</v>
+        <v>40891</v>
       </c>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
       <c r="F310" s="7"/>
-      <c r="G310" s="7">
-        <v>100</v>
-      </c>
+      <c r="G310" s="7"/>
       <c r="H310" s="7"/>
       <c r="I310" s="7">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J310" s="7"/>
       <c r="K310" s="7"/>
@@ -51010,22 +51327,24 @@
       <c r="S310" s="7"/>
       <c r="T310" s="7"/>
       <c r="U310" s="7">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="311" spans="1:21">
       <c r="A311" s="12">
-        <v>40913</v>
+        <v>40892</v>
       </c>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
       <c r="F311" s="7"/>
-      <c r="G311" s="7"/>
+      <c r="G311" s="7">
+        <v>100</v>
+      </c>
       <c r="H311" s="7"/>
       <c r="I311" s="7">
-        <v>679.5</v>
+        <v>68</v>
       </c>
       <c r="J311" s="7"/>
       <c r="K311" s="7"/>
@@ -51039,23 +51358,23 @@
       <c r="S311" s="7"/>
       <c r="T311" s="7"/>
       <c r="U311" s="7">
-        <v>679.5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="312" spans="1:21">
       <c r="A312" s="12">
-        <v>40917</v>
+        <v>40913</v>
       </c>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
-      <c r="G312" s="7">
-        <v>100</v>
-      </c>
+      <c r="G312" s="7"/>
       <c r="H312" s="7"/>
-      <c r="I312" s="7"/>
+      <c r="I312" s="7">
+        <v>679.5</v>
+      </c>
       <c r="J312" s="7"/>
       <c r="K312" s="7"/>
       <c r="L312" s="7"/>
@@ -51068,24 +51387,24 @@
       <c r="S312" s="7"/>
       <c r="T312" s="7"/>
       <c r="U312" s="7">
-        <v>100</v>
+        <v>679.5</v>
       </c>
     </row>
     <row r="313" spans="1:21">
       <c r="A313" s="12">
-        <v>40919</v>
+        <v>40917</v>
       </c>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
-      <c r="G313" s="7"/>
+      <c r="G313" s="7">
+        <v>100</v>
+      </c>
       <c r="H313" s="7"/>
       <c r="I313" s="7"/>
-      <c r="J313" s="7">
-        <v>15</v>
-      </c>
+      <c r="J313" s="7"/>
       <c r="K313" s="7"/>
       <c r="L313" s="7"/>
       <c r="M313" s="7"/>
@@ -51097,26 +51416,24 @@
       <c r="S313" s="7"/>
       <c r="T313" s="7"/>
       <c r="U313" s="7">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="314" spans="1:21">
       <c r="A314" s="12">
-        <v>40921</v>
+        <v>40919</v>
       </c>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
-      <c r="D314" s="7">
-        <v>100</v>
-      </c>
+      <c r="D314" s="7"/>
       <c r="E314" s="7"/>
-      <c r="F314" s="7">
-        <v>100</v>
-      </c>
+      <c r="F314" s="7"/>
       <c r="G314" s="7"/>
       <c r="H314" s="7"/>
       <c r="I314" s="7"/>
-      <c r="J314" s="7"/>
+      <c r="J314" s="7">
+        <v>15</v>
+      </c>
       <c r="K314" s="7"/>
       <c r="L314" s="7"/>
       <c r="M314" s="7"/>
@@ -51128,24 +51445,26 @@
       <c r="S314" s="7"/>
       <c r="T314" s="7"/>
       <c r="U314" s="7">
-        <v>200</v>
+        <v>15</v>
       </c>
     </row>
     <row r="315" spans="1:21">
       <c r="A315" s="12">
-        <v>40925</v>
+        <v>40921</v>
       </c>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
-      <c r="D315" s="7"/>
+      <c r="D315" s="7">
+        <v>100</v>
+      </c>
       <c r="E315" s="7"/>
-      <c r="F315" s="7"/>
+      <c r="F315" s="7">
+        <v>100</v>
+      </c>
       <c r="G315" s="7"/>
       <c r="H315" s="7"/>
       <c r="I315" s="7"/>
-      <c r="J315" s="7">
-        <v>14</v>
-      </c>
+      <c r="J315" s="7"/>
       <c r="K315" s="7"/>
       <c r="L315" s="7"/>
       <c r="M315" s="7"/>
@@ -51157,12 +51476,12 @@
       <c r="S315" s="7"/>
       <c r="T315" s="7"/>
       <c r="U315" s="7">
-        <v>14</v>
+        <v>200</v>
       </c>
     </row>
     <row r="316" spans="1:21">
       <c r="A316" s="12">
-        <v>40926</v>
+        <v>40925</v>
       </c>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -51173,7 +51492,7 @@
       <c r="H316" s="7"/>
       <c r="I316" s="7"/>
       <c r="J316" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K316" s="7"/>
       <c r="L316" s="7"/>
@@ -51186,12 +51505,12 @@
       <c r="S316" s="7"/>
       <c r="T316" s="7"/>
       <c r="U316" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="317" spans="1:21">
       <c r="A317" s="12">
-        <v>40940</v>
+        <v>40926</v>
       </c>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -51201,10 +51520,10 @@
       <c r="G317" s="7"/>
       <c r="H317" s="7"/>
       <c r="I317" s="7"/>
-      <c r="J317" s="7"/>
-      <c r="K317" s="7">
-        <v>100</v>
-      </c>
+      <c r="J317" s="7">
+        <v>28</v>
+      </c>
+      <c r="K317" s="7"/>
       <c r="L317" s="7"/>
       <c r="M317" s="7"/>
       <c r="N317" s="7"/>
@@ -51215,12 +51534,12 @@
       <c r="S317" s="7"/>
       <c r="T317" s="7"/>
       <c r="U317" s="7">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="318" spans="1:21">
       <c r="A318" s="12">
-        <v>40942</v>
+        <v>40940</v>
       </c>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -51249,7 +51568,7 @@
     </row>
     <row r="319" spans="1:21">
       <c r="A319" s="12">
-        <v>40947</v>
+        <v>40942</v>
       </c>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -51259,10 +51578,10 @@
       <c r="G319" s="7"/>
       <c r="H319" s="7"/>
       <c r="I319" s="7"/>
-      <c r="J319" s="7">
+      <c r="J319" s="7"/>
+      <c r="K319" s="7">
         <v>100</v>
       </c>
-      <c r="K319" s="7"/>
       <c r="L319" s="7"/>
       <c r="M319" s="7"/>
       <c r="N319" s="7"/>
@@ -51278,7 +51597,7 @@
     </row>
     <row r="320" spans="1:21">
       <c r="A320" s="12">
-        <v>40954</v>
+        <v>40947</v>
       </c>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -51286,11 +51605,11 @@
       <c r="E320" s="7"/>
       <c r="F320" s="7"/>
       <c r="G320" s="7"/>
-      <c r="H320" s="7">
+      <c r="H320" s="7"/>
+      <c r="I320" s="7"/>
+      <c r="J320" s="7">
         <v>100</v>
       </c>
-      <c r="I320" s="7"/>
-      <c r="J320" s="7"/>
       <c r="K320" s="7"/>
       <c r="L320" s="7"/>
       <c r="M320" s="7"/>
@@ -51307,7 +51626,7 @@
     </row>
     <row r="321" spans="1:21">
       <c r="A321" s="12">
-        <v>40973</v>
+        <v>40954</v>
       </c>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -51315,17 +51634,15 @@
       <c r="E321" s="7"/>
       <c r="F321" s="7"/>
       <c r="G321" s="7"/>
-      <c r="H321" s="7"/>
+      <c r="H321" s="7">
+        <v>100</v>
+      </c>
       <c r="I321" s="7"/>
       <c r="J321" s="7"/>
-      <c r="K321" s="7">
-        <v>30</v>
-      </c>
+      <c r="K321" s="7"/>
       <c r="L321" s="7"/>
       <c r="M321" s="7"/>
-      <c r="N321" s="7">
-        <v>100</v>
-      </c>
+      <c r="N321" s="7"/>
       <c r="O321" s="7"/>
       <c r="P321" s="7"/>
       <c r="Q321" s="7"/>
@@ -51333,12 +51650,12 @@
       <c r="S321" s="7"/>
       <c r="T321" s="7"/>
       <c r="U321" s="7">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="322" spans="1:21">
       <c r="A322" s="12">
-        <v>40974</v>
+        <v>40973</v>
       </c>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -51346,15 +51663,17 @@
       <c r="E322" s="7"/>
       <c r="F322" s="7"/>
       <c r="G322" s="7"/>
-      <c r="H322" s="7">
-        <v>100</v>
-      </c>
+      <c r="H322" s="7"/>
       <c r="I322" s="7"/>
       <c r="J322" s="7"/>
-      <c r="K322" s="7"/>
+      <c r="K322" s="7">
+        <v>30</v>
+      </c>
       <c r="L322" s="7"/>
       <c r="M322" s="7"/>
-      <c r="N322" s="7"/>
+      <c r="N322" s="7">
+        <v>100</v>
+      </c>
       <c r="O322" s="7"/>
       <c r="P322" s="7"/>
       <c r="Q322" s="7"/>
@@ -51362,12 +51681,12 @@
       <c r="S322" s="7"/>
       <c r="T322" s="7"/>
       <c r="U322" s="7">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="323" spans="1:21">
       <c r="A323" s="12">
-        <v>40981</v>
+        <v>40974</v>
       </c>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -51378,9 +51697,7 @@
       <c r="H323" s="7">
         <v>100</v>
       </c>
-      <c r="I323" s="7">
-        <v>300</v>
-      </c>
+      <c r="I323" s="7"/>
       <c r="J323" s="7"/>
       <c r="K323" s="7"/>
       <c r="L323" s="7"/>
@@ -51393,12 +51710,12 @@
       <c r="S323" s="7"/>
       <c r="T323" s="7"/>
       <c r="U323" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="324" spans="1:21">
       <c r="A324" s="12">
-        <v>41032</v>
+        <v>40981</v>
       </c>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
@@ -51406,16 +51723,16 @@
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
       <c r="G324" s="7"/>
-      <c r="H324" s="7"/>
-      <c r="I324" s="7"/>
+      <c r="H324" s="7">
+        <v>100</v>
+      </c>
+      <c r="I324" s="7">
+        <v>300</v>
+      </c>
       <c r="J324" s="7"/>
       <c r="K324" s="7"/>
-      <c r="L324" s="7">
-        <v>100</v>
-      </c>
-      <c r="M324" s="7">
-        <v>100</v>
-      </c>
+      <c r="L324" s="7"/>
+      <c r="M324" s="7"/>
       <c r="N324" s="7"/>
       <c r="O324" s="7"/>
       <c r="P324" s="7"/>
@@ -51424,12 +51741,12 @@
       <c r="S324" s="7"/>
       <c r="T324" s="7"/>
       <c r="U324" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="325" spans="1:21">
       <c r="A325" s="12">
-        <v>41037</v>
+        <v>41032</v>
       </c>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -51441,11 +51758,13 @@
       <c r="I325" s="7"/>
       <c r="J325" s="7"/>
       <c r="K325" s="7"/>
-      <c r="L325" s="7"/>
-      <c r="M325" s="7"/>
-      <c r="N325" s="7">
+      <c r="L325" s="7">
         <v>100</v>
       </c>
+      <c r="M325" s="7">
+        <v>100</v>
+      </c>
+      <c r="N325" s="7"/>
       <c r="O325" s="7"/>
       <c r="P325" s="7"/>
       <c r="Q325" s="7"/>
@@ -51453,12 +51772,12 @@
       <c r="S325" s="7"/>
       <c r="T325" s="7"/>
       <c r="U325" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="326" spans="1:21">
       <c r="A326" s="12">
-        <v>41039</v>
+        <v>41037</v>
       </c>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -51472,22 +51791,22 @@
       <c r="K326" s="7"/>
       <c r="L326" s="7"/>
       <c r="M326" s="7"/>
-      <c r="N326" s="7"/>
-      <c r="O326" s="7">
-        <v>35</v>
-      </c>
+      <c r="N326" s="7">
+        <v>100</v>
+      </c>
+      <c r="O326" s="7"/>
       <c r="P326" s="7"/>
       <c r="Q326" s="7"/>
       <c r="R326" s="7"/>
       <c r="S326" s="7"/>
       <c r="T326" s="7"/>
       <c r="U326" s="7">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="327" spans="1:21">
       <c r="A327" s="12">
-        <v>41044</v>
+        <v>41039</v>
       </c>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -51503,7 +51822,7 @@
       <c r="M327" s="7"/>
       <c r="N327" s="7"/>
       <c r="O327" s="7">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="P327" s="7"/>
       <c r="Q327" s="7"/>
@@ -51511,21 +51830,19 @@
       <c r="S327" s="7"/>
       <c r="T327" s="7"/>
       <c r="U327" s="7">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="328" spans="1:21">
       <c r="A328" s="12">
-        <v>41050</v>
+        <v>41044</v>
       </c>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
       <c r="D328" s="7"/>
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
-      <c r="G328" s="7">
-        <v>89</v>
-      </c>
+      <c r="G328" s="7"/>
       <c r="H328" s="7"/>
       <c r="I328" s="7"/>
       <c r="J328" s="7"/>
@@ -51533,31 +51850,33 @@
       <c r="L328" s="7"/>
       <c r="M328" s="7"/>
       <c r="N328" s="7"/>
-      <c r="O328" s="7"/>
+      <c r="O328" s="7">
+        <v>20</v>
+      </c>
       <c r="P328" s="7"/>
       <c r="Q328" s="7"/>
       <c r="R328" s="7"/>
       <c r="S328" s="7"/>
       <c r="T328" s="7"/>
       <c r="U328" s="7">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="329" spans="1:21">
       <c r="A329" s="12">
-        <v>41057</v>
+        <v>41050</v>
       </c>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
-      <c r="G329" s="7"/>
+      <c r="G329" s="7">
+        <v>89</v>
+      </c>
       <c r="H329" s="7"/>
       <c r="I329" s="7"/>
-      <c r="J329" s="7">
-        <v>300</v>
-      </c>
+      <c r="J329" s="7"/>
       <c r="K329" s="7"/>
       <c r="L329" s="7"/>
       <c r="M329" s="7"/>
@@ -51569,12 +51888,12 @@
       <c r="S329" s="7"/>
       <c r="T329" s="7"/>
       <c r="U329" s="7">
-        <v>300</v>
+        <v>89</v>
       </c>
     </row>
     <row r="330" spans="1:21">
       <c r="A330" s="12">
-        <v>41060</v>
+        <v>41057</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -51585,7 +51904,7 @@
       <c r="H330" s="7"/>
       <c r="I330" s="7"/>
       <c r="J330" s="7">
-        <v>10.1</v>
+        <v>300</v>
       </c>
       <c r="K330" s="7"/>
       <c r="L330" s="7"/>
@@ -51598,24 +51917,24 @@
       <c r="S330" s="7"/>
       <c r="T330" s="7"/>
       <c r="U330" s="7">
-        <v>10.1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="331" spans="1:21">
       <c r="A331" s="12">
-        <v>41066</v>
+        <v>41060</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
-      <c r="G331" s="7">
-        <v>300</v>
-      </c>
+      <c r="G331" s="7"/>
       <c r="H331" s="7"/>
       <c r="I331" s="7"/>
-      <c r="J331" s="7"/>
+      <c r="J331" s="7">
+        <v>10.1</v>
+      </c>
       <c r="K331" s="7"/>
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
@@ -51627,24 +51946,24 @@
       <c r="S331" s="7"/>
       <c r="T331" s="7"/>
       <c r="U331" s="7">
-        <v>300</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="332" spans="1:21">
       <c r="A332" s="12">
-        <v>41070</v>
+        <v>41066</v>
       </c>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
       <c r="D332" s="7"/>
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
-      <c r="G332" s="7"/>
+      <c r="G332" s="7">
+        <v>300</v>
+      </c>
       <c r="H332" s="7"/>
       <c r="I332" s="7"/>
-      <c r="J332" s="7">
-        <v>130</v>
-      </c>
+      <c r="J332" s="7"/>
       <c r="K332" s="7"/>
       <c r="L332" s="7"/>
       <c r="M332" s="7"/>
@@ -51656,12 +51975,12 @@
       <c r="S332" s="7"/>
       <c r="T332" s="7"/>
       <c r="U332" s="7">
-        <v>130</v>
+        <v>300</v>
       </c>
     </row>
     <row r="333" spans="1:21">
       <c r="A333" s="12">
-        <v>41071</v>
+        <v>41070</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -51672,7 +51991,7 @@
       <c r="H333" s="7"/>
       <c r="I333" s="7"/>
       <c r="J333" s="7">
-        <v>81.400000000000006</v>
+        <v>130</v>
       </c>
       <c r="K333" s="7"/>
       <c r="L333" s="7"/>
@@ -51685,12 +52004,12 @@
       <c r="S333" s="7"/>
       <c r="T333" s="7"/>
       <c r="U333" s="7">
-        <v>81.400000000000006</v>
+        <v>130</v>
       </c>
     </row>
     <row r="334" spans="1:21">
       <c r="A334" s="12">
-        <v>41072</v>
+        <v>41071</v>
       </c>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -51701,7 +52020,7 @@
       <c r="H334" s="7"/>
       <c r="I334" s="7"/>
       <c r="J334" s="7">
-        <v>77.599999999999994</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="K334" s="7"/>
       <c r="L334" s="7"/>
@@ -51714,25 +52033,23 @@
       <c r="S334" s="7"/>
       <c r="T334" s="7"/>
       <c r="U334" s="7">
-        <v>77.599999999999994</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="335" spans="1:21">
       <c r="A335" s="12">
-        <v>41078</v>
+        <v>41072</v>
       </c>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
       <c r="D335" s="7"/>
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
-      <c r="G335" s="7">
-        <v>47</v>
-      </c>
+      <c r="G335" s="7"/>
       <c r="H335" s="7"/>
       <c r="I335" s="7"/>
       <c r="J335" s="7">
-        <v>50</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="K335" s="7"/>
       <c r="L335" s="7"/>
@@ -51745,23 +52062,25 @@
       <c r="S335" s="7"/>
       <c r="T335" s="7"/>
       <c r="U335" s="7">
-        <v>97</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="336" spans="1:21">
       <c r="A336" s="12">
-        <v>41082</v>
+        <v>41078</v>
       </c>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
       <c r="D336" s="7"/>
       <c r="E336" s="7"/>
       <c r="F336" s="7"/>
-      <c r="G336" s="7"/>
+      <c r="G336" s="7">
+        <v>47</v>
+      </c>
       <c r="H336" s="7"/>
       <c r="I336" s="7"/>
       <c r="J336" s="7">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="K336" s="7"/>
       <c r="L336" s="7"/>
@@ -51774,12 +52093,12 @@
       <c r="S336" s="7"/>
       <c r="T336" s="7"/>
       <c r="U336" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="337" spans="1:21">
       <c r="A337" s="12">
-        <v>41083</v>
+        <v>41082</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -51790,7 +52109,7 @@
       <c r="H337" s="7"/>
       <c r="I337" s="7"/>
       <c r="J337" s="7">
-        <v>39.9</v>
+        <v>98</v>
       </c>
       <c r="K337" s="7"/>
       <c r="L337" s="7"/>
@@ -51803,24 +52122,24 @@
       <c r="S337" s="7"/>
       <c r="T337" s="7"/>
       <c r="U337" s="7">
-        <v>39.9</v>
+        <v>98</v>
       </c>
     </row>
     <row r="338" spans="1:21">
       <c r="A338" s="12">
-        <v>41085</v>
+        <v>41083</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
-      <c r="G338" s="7">
-        <v>300</v>
-      </c>
+      <c r="G338" s="7"/>
       <c r="H338" s="7"/>
       <c r="I338" s="7"/>
-      <c r="J338" s="7"/>
+      <c r="J338" s="7">
+        <v>39.9</v>
+      </c>
       <c r="K338" s="7"/>
       <c r="L338" s="7"/>
       <c r="M338" s="7"/>
@@ -51832,24 +52151,24 @@
       <c r="S338" s="7"/>
       <c r="T338" s="7"/>
       <c r="U338" s="7">
-        <v>300</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="339" spans="1:21">
       <c r="A339" s="12">
-        <v>41088</v>
+        <v>41085</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
-      <c r="G339" s="7"/>
+      <c r="G339" s="7">
+        <v>300</v>
+      </c>
       <c r="H339" s="7"/>
       <c r="I339" s="7"/>
-      <c r="J339" s="7">
-        <v>20</v>
-      </c>
+      <c r="J339" s="7"/>
       <c r="K339" s="7"/>
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
@@ -51861,12 +52180,12 @@
       <c r="S339" s="7"/>
       <c r="T339" s="7"/>
       <c r="U339" s="7">
-        <v>20</v>
+        <v>300</v>
       </c>
     </row>
     <row r="340" spans="1:21">
       <c r="A340" s="12">
-        <v>41092</v>
+        <v>41088</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -51876,26 +52195,26 @@
       <c r="G340" s="7"/>
       <c r="H340" s="7"/>
       <c r="I340" s="7"/>
-      <c r="J340" s="7"/>
+      <c r="J340" s="7">
+        <v>20</v>
+      </c>
       <c r="K340" s="7"/>
       <c r="L340" s="7"/>
       <c r="M340" s="7"/>
       <c r="N340" s="7"/>
       <c r="O340" s="7"/>
-      <c r="P340" s="7">
-        <v>93</v>
-      </c>
+      <c r="P340" s="7"/>
       <c r="Q340" s="7"/>
       <c r="R340" s="7"/>
       <c r="S340" s="7"/>
       <c r="T340" s="7"/>
       <c r="U340" s="7">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="341" spans="1:21">
       <c r="A341" s="12">
-        <v>41093</v>
+        <v>41092</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -51905,39 +52224,37 @@
       <c r="G341" s="7"/>
       <c r="H341" s="7"/>
       <c r="I341" s="7"/>
-      <c r="J341" s="7">
-        <v>100</v>
-      </c>
+      <c r="J341" s="7"/>
       <c r="K341" s="7"/>
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
       <c r="N341" s="7"/>
       <c r="O341" s="7"/>
-      <c r="P341" s="7"/>
+      <c r="P341" s="7">
+        <v>93</v>
+      </c>
       <c r="Q341" s="7"/>
       <c r="R341" s="7"/>
       <c r="S341" s="7"/>
       <c r="T341" s="7"/>
       <c r="U341" s="7">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="342" spans="1:21">
       <c r="A342" s="12">
-        <v>41095</v>
+        <v>41093</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
-      <c r="G342" s="7">
-        <v>70</v>
-      </c>
+      <c r="G342" s="7"/>
       <c r="H342" s="7"/>
       <c r="I342" s="7"/>
       <c r="J342" s="7">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K342" s="7"/>
       <c r="L342" s="7"/>
@@ -51950,24 +52267,26 @@
       <c r="S342" s="7"/>
       <c r="T342" s="7"/>
       <c r="U342" s="7">
-        <v>168</v>
+        <v>100</v>
       </c>
     </row>
     <row r="343" spans="1:21">
       <c r="A343" s="12">
-        <v>41100</v>
+        <v>41095</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
-      <c r="G343" s="7"/>
+      <c r="G343" s="7">
+        <v>70</v>
+      </c>
       <c r="H343" s="7"/>
-      <c r="I343" s="7">
-        <v>16</v>
-      </c>
-      <c r="J343" s="7"/>
+      <c r="I343" s="7"/>
+      <c r="J343" s="7">
+        <v>98</v>
+      </c>
       <c r="K343" s="7"/>
       <c r="L343" s="7"/>
       <c r="M343" s="7"/>
@@ -51979,12 +52298,12 @@
       <c r="S343" s="7"/>
       <c r="T343" s="7"/>
       <c r="U343" s="7">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="344" spans="1:21">
       <c r="A344" s="12">
-        <v>41108</v>
+        <v>41100</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -51994,7 +52313,7 @@
       <c r="G344" s="7"/>
       <c r="H344" s="7"/>
       <c r="I344" s="7">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="J344" s="7"/>
       <c r="K344" s="7"/>
@@ -52008,12 +52327,12 @@
       <c r="S344" s="7"/>
       <c r="T344" s="7"/>
       <c r="U344" s="7">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="345" spans="1:21">
       <c r="A345" s="12">
-        <v>41110</v>
+        <v>41108</v>
       </c>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -52023,7 +52342,7 @@
       <c r="G345" s="7"/>
       <c r="H345" s="7"/>
       <c r="I345" s="7">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="J345" s="7"/>
       <c r="K345" s="7"/>
@@ -52037,12 +52356,12 @@
       <c r="S345" s="7"/>
       <c r="T345" s="7"/>
       <c r="U345" s="7">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="346" spans="1:21">
       <c r="A346" s="12">
-        <v>41116</v>
+        <v>41110</v>
       </c>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -52052,7 +52371,7 @@
       <c r="G346" s="7"/>
       <c r="H346" s="7"/>
       <c r="I346" s="7">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="J346" s="7"/>
       <c r="K346" s="7"/>
@@ -52066,12 +52385,12 @@
       <c r="S346" s="7"/>
       <c r="T346" s="7"/>
       <c r="U346" s="7">
-        <v>83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347" spans="1:21">
       <c r="A347" s="12">
-        <v>41136</v>
+        <v>41116</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -52079,11 +52398,9 @@
       <c r="E347" s="7"/>
       <c r="F347" s="7"/>
       <c r="G347" s="7"/>
-      <c r="H347" s="7">
-        <v>55</v>
-      </c>
+      <c r="H347" s="7"/>
       <c r="I347" s="7">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="J347" s="7"/>
       <c r="K347" s="7"/>
@@ -52097,23 +52414,25 @@
       <c r="S347" s="7"/>
       <c r="T347" s="7"/>
       <c r="U347" s="7">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="348" spans="1:21">
       <c r="A348" s="12">
-        <v>41138</v>
+        <v>41136</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
-      <c r="G348" s="7">
-        <v>100.4</v>
-      </c>
-      <c r="H348" s="7"/>
-      <c r="I348" s="7"/>
+      <c r="G348" s="7"/>
+      <c r="H348" s="7">
+        <v>55</v>
+      </c>
+      <c r="I348" s="7">
+        <v>39</v>
+      </c>
       <c r="J348" s="7"/>
       <c r="K348" s="7"/>
       <c r="L348" s="7"/>
@@ -52126,24 +52445,24 @@
       <c r="S348" s="7"/>
       <c r="T348" s="7"/>
       <c r="U348" s="7">
-        <v>100.4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="349" spans="1:21">
       <c r="A349" s="12">
-        <v>41151</v>
+        <v>41138</v>
       </c>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
-      <c r="G349" s="7"/>
+      <c r="G349" s="7">
+        <v>100.4</v>
+      </c>
       <c r="H349" s="7"/>
       <c r="I349" s="7"/>
-      <c r="J349" s="7">
-        <v>100</v>
-      </c>
+      <c r="J349" s="7"/>
       <c r="K349" s="7"/>
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
@@ -52155,12 +52474,12 @@
       <c r="S349" s="7"/>
       <c r="T349" s="7"/>
       <c r="U349" s="7">
-        <v>100</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="350" spans="1:21">
       <c r="A350" s="12">
-        <v>41156</v>
+        <v>41151</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -52169,10 +52488,10 @@
       <c r="F350" s="7"/>
       <c r="G350" s="7"/>
       <c r="H350" s="7"/>
-      <c r="I350" s="7">
-        <v>15</v>
-      </c>
-      <c r="J350" s="7"/>
+      <c r="I350" s="7"/>
+      <c r="J350" s="7">
+        <v>100</v>
+      </c>
       <c r="K350" s="7"/>
       <c r="L350" s="7"/>
       <c r="M350" s="7"/>
@@ -52184,12 +52503,12 @@
       <c r="S350" s="7"/>
       <c r="T350" s="7"/>
       <c r="U350" s="7">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="351" spans="1:21">
       <c r="A351" s="12">
-        <v>41161</v>
+        <v>41156</v>
       </c>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -52199,7 +52518,7 @@
       <c r="G351" s="7"/>
       <c r="H351" s="7"/>
       <c r="I351" s="7">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="J351" s="7"/>
       <c r="K351" s="7"/>
@@ -52213,12 +52532,12 @@
       <c r="S351" s="7"/>
       <c r="T351" s="7"/>
       <c r="U351" s="7">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="352" spans="1:21">
       <c r="A352" s="12">
-        <v>41162</v>
+        <v>41161</v>
       </c>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -52227,29 +52546,27 @@
       <c r="F352" s="7"/>
       <c r="G352" s="7"/>
       <c r="H352" s="7"/>
-      <c r="I352" s="7"/>
-      <c r="J352" s="7">
-        <v>100</v>
-      </c>
+      <c r="I352" s="7">
+        <v>76</v>
+      </c>
+      <c r="J352" s="7"/>
       <c r="K352" s="7"/>
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
       <c r="N352" s="7"/>
-      <c r="O352" s="7">
-        <v>48</v>
-      </c>
+      <c r="O352" s="7"/>
       <c r="P352" s="7"/>
       <c r="Q352" s="7"/>
       <c r="R352" s="7"/>
       <c r="S352" s="7"/>
       <c r="T352" s="7"/>
       <c r="U352" s="7">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="353" spans="1:21">
       <c r="A353" s="12">
-        <v>41166</v>
+        <v>41162</v>
       </c>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -52259,13 +52576,15 @@
       <c r="G353" s="7"/>
       <c r="H353" s="7"/>
       <c r="I353" s="7"/>
-      <c r="J353" s="7"/>
+      <c r="J353" s="7">
+        <v>100</v>
+      </c>
       <c r="K353" s="7"/>
       <c r="L353" s="7"/>
       <c r="M353" s="7"/>
       <c r="N353" s="7"/>
       <c r="O353" s="7">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="P353" s="7"/>
       <c r="Q353" s="7"/>
@@ -52273,12 +52592,12 @@
       <c r="S353" s="7"/>
       <c r="T353" s="7"/>
       <c r="U353" s="7">
-        <v>100</v>
+        <v>148</v>
       </c>
     </row>
     <row r="354" spans="1:21">
       <c r="A354" s="12">
-        <v>41171</v>
+        <v>41166</v>
       </c>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -52294,7 +52613,7 @@
       <c r="M354" s="7"/>
       <c r="N354" s="7"/>
       <c r="O354" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="P354" s="7"/>
       <c r="Q354" s="7"/>
@@ -52302,20 +52621,18 @@
       <c r="S354" s="7"/>
       <c r="T354" s="7"/>
       <c r="U354" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="355" spans="1:21">
       <c r="A355" s="12">
-        <v>41175</v>
+        <v>41171</v>
       </c>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
-      <c r="F355" s="7">
-        <v>100</v>
-      </c>
+      <c r="F355" s="7"/>
       <c r="G355" s="7"/>
       <c r="H355" s="7"/>
       <c r="I355" s="7"/>
@@ -52324,70 +52641,72 @@
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
       <c r="N355" s="7"/>
-      <c r="O355" s="7"/>
+      <c r="O355" s="7">
+        <v>10</v>
+      </c>
       <c r="P355" s="7"/>
       <c r="Q355" s="7"/>
       <c r="R355" s="7"/>
       <c r="S355" s="7"/>
       <c r="T355" s="7"/>
       <c r="U355" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="356" spans="1:21">
       <c r="A356" s="12">
-        <v>41197</v>
-      </c>
-      <c r="B356" s="7">
-        <v>10</v>
-      </c>
+        <v>41175</v>
+      </c>
+      <c r="B356" s="7"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
-      <c r="F356" s="7"/>
-      <c r="G356" s="7">
-        <v>10</v>
-      </c>
+      <c r="F356" s="7">
+        <v>100</v>
+      </c>
+      <c r="G356" s="7"/>
       <c r="H356" s="7"/>
       <c r="I356" s="7"/>
-      <c r="J356" s="7">
-        <v>10</v>
-      </c>
+      <c r="J356" s="7"/>
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
       <c r="N356" s="7"/>
-      <c r="O356" s="7">
-        <v>60</v>
-      </c>
+      <c r="O356" s="7"/>
       <c r="P356" s="7"/>
       <c r="Q356" s="7"/>
       <c r="R356" s="7"/>
       <c r="S356" s="7"/>
       <c r="T356" s="7"/>
       <c r="U356" s="7">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="357" spans="1:21">
       <c r="A357" s="12">
-        <v>41198</v>
-      </c>
-      <c r="B357" s="7"/>
+        <v>41197</v>
+      </c>
+      <c r="B357" s="7">
+        <v>10</v>
+      </c>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
       <c r="F357" s="7"/>
-      <c r="G357" s="7"/>
+      <c r="G357" s="7">
+        <v>10</v>
+      </c>
       <c r="H357" s="7"/>
       <c r="I357" s="7"/>
-      <c r="J357" s="7"/>
+      <c r="J357" s="7">
+        <v>10</v>
+      </c>
       <c r="K357" s="7"/>
       <c r="L357" s="7"/>
       <c r="M357" s="7"/>
       <c r="N357" s="7"/>
       <c r="O357" s="7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="P357" s="7"/>
       <c r="Q357" s="7"/>
@@ -52395,12 +52714,12 @@
       <c r="S357" s="7"/>
       <c r="T357" s="7"/>
       <c r="U357" s="7">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="358" spans="1:21">
       <c r="A358" s="12">
-        <v>41205</v>
+        <v>41198</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -52410,19 +52729,13 @@
       <c r="G358" s="7"/>
       <c r="H358" s="7"/>
       <c r="I358" s="7"/>
-      <c r="J358" s="7">
-        <v>162</v>
-      </c>
+      <c r="J358" s="7"/>
       <c r="K358" s="7"/>
-      <c r="L358" s="7">
-        <v>100</v>
-      </c>
+      <c r="L358" s="7"/>
       <c r="M358" s="7"/>
-      <c r="N358" s="7">
-        <v>100</v>
-      </c>
+      <c r="N358" s="7"/>
       <c r="O358" s="7">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P358" s="7"/>
       <c r="Q358" s="7"/>
@@ -52430,12 +52743,12 @@
       <c r="S358" s="7"/>
       <c r="T358" s="7"/>
       <c r="U358" s="7">
-        <v>432</v>
+        <v>40</v>
       </c>
     </row>
     <row r="359" spans="1:21">
       <c r="A359" s="12">
-        <v>41214</v>
+        <v>41205</v>
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -52446,25 +52759,31 @@
       <c r="H359" s="7"/>
       <c r="I359" s="7"/>
       <c r="J359" s="7">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="K359" s="7"/>
-      <c r="L359" s="7"/>
+      <c r="L359" s="7">
+        <v>100</v>
+      </c>
       <c r="M359" s="7"/>
-      <c r="N359" s="7"/>
-      <c r="O359" s="7"/>
+      <c r="N359" s="7">
+        <v>100</v>
+      </c>
+      <c r="O359" s="7">
+        <v>70</v>
+      </c>
       <c r="P359" s="7"/>
       <c r="Q359" s="7"/>
       <c r="R359" s="7"/>
       <c r="S359" s="7"/>
       <c r="T359" s="7"/>
       <c r="U359" s="7">
-        <v>2</v>
+        <v>432</v>
       </c>
     </row>
     <row r="360" spans="1:21">
       <c r="A360" s="12">
-        <v>41215</v>
+        <v>41214</v>
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -52475,7 +52794,7 @@
       <c r="H360" s="7"/>
       <c r="I360" s="7"/>
       <c r="J360" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K360" s="7"/>
       <c r="L360" s="7"/>
@@ -52488,12 +52807,12 @@
       <c r="S360" s="7"/>
       <c r="T360" s="7"/>
       <c r="U360" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:21">
       <c r="A361" s="12">
-        <v>41237</v>
+        <v>41215</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
@@ -52504,12 +52823,10 @@
       <c r="H361" s="7"/>
       <c r="I361" s="7"/>
       <c r="J361" s="7">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="K361" s="7"/>
-      <c r="L361" s="7">
-        <v>100</v>
-      </c>
+      <c r="L361" s="7"/>
       <c r="M361" s="7"/>
       <c r="N361" s="7"/>
       <c r="O361" s="7"/>
@@ -52519,28 +52836,28 @@
       <c r="S361" s="7"/>
       <c r="T361" s="7"/>
       <c r="U361" s="7">
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:21">
       <c r="A362" s="12">
-        <v>41242</v>
+        <v>41237</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
       <c r="F362" s="7"/>
-      <c r="G362" s="7">
-        <v>100</v>
-      </c>
+      <c r="G362" s="7"/>
       <c r="H362" s="7"/>
       <c r="I362" s="7"/>
       <c r="J362" s="7">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="K362" s="7"/>
-      <c r="L362" s="7"/>
+      <c r="L362" s="7">
+        <v>100</v>
+      </c>
       <c r="M362" s="7"/>
       <c r="N362" s="7"/>
       <c r="O362" s="7"/>
@@ -52550,23 +52867,25 @@
       <c r="S362" s="7"/>
       <c r="T362" s="7"/>
       <c r="U362" s="7">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="363" spans="1:21">
       <c r="A363" s="12">
-        <v>41253</v>
+        <v>41242</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
-      <c r="G363" s="7"/>
+      <c r="G363" s="7">
+        <v>100</v>
+      </c>
       <c r="H363" s="7"/>
       <c r="I363" s="7"/>
       <c r="J363" s="7">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="K363" s="7"/>
       <c r="L363" s="7"/>
@@ -52579,24 +52898,24 @@
       <c r="S363" s="7"/>
       <c r="T363" s="7"/>
       <c r="U363" s="7">
-        <v>10</v>
+        <v>181</v>
       </c>
     </row>
     <row r="364" spans="1:21">
       <c r="A364" s="12">
-        <v>41268</v>
+        <v>41253</v>
       </c>
       <c r="B364" s="7"/>
-      <c r="C364" s="7">
-        <v>24</v>
-      </c>
+      <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
       <c r="G364" s="7"/>
       <c r="H364" s="7"/>
       <c r="I364" s="7"/>
-      <c r="J364" s="7"/>
+      <c r="J364" s="7">
+        <v>10</v>
+      </c>
       <c r="K364" s="7"/>
       <c r="L364" s="7"/>
       <c r="M364" s="7"/>
@@ -52608,21 +52927,21 @@
       <c r="S364" s="7"/>
       <c r="T364" s="7"/>
       <c r="U364" s="7">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="365" spans="1:21">
       <c r="A365" s="12">
-        <v>41281</v>
+        <v>41268</v>
       </c>
       <c r="B365" s="7"/>
-      <c r="C365" s="7"/>
+      <c r="C365" s="7">
+        <v>24</v>
+      </c>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
-      <c r="G365" s="7">
-        <v>200</v>
-      </c>
+      <c r="G365" s="7"/>
       <c r="H365" s="7"/>
       <c r="I365" s="7"/>
       <c r="J365" s="7"/>
@@ -52637,26 +52956,24 @@
       <c r="S365" s="7"/>
       <c r="T365" s="7"/>
       <c r="U365" s="7">
-        <v>200</v>
+        <v>24</v>
       </c>
     </row>
     <row r="366" spans="1:21">
       <c r="A366" s="12">
-        <v>41310</v>
+        <v>41281</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
       <c r="F366" s="7"/>
-      <c r="G366" s="7"/>
+      <c r="G366" s="7">
+        <v>200</v>
+      </c>
       <c r="H366" s="7"/>
-      <c r="I366" s="7">
-        <v>22</v>
-      </c>
-      <c r="J366" s="7">
-        <v>31.9</v>
-      </c>
+      <c r="I366" s="7"/>
+      <c r="J366" s="7"/>
       <c r="K366" s="7"/>
       <c r="L366" s="7"/>
       <c r="M366" s="7"/>
@@ -52668,24 +52985,26 @@
       <c r="S366" s="7"/>
       <c r="T366" s="7"/>
       <c r="U366" s="7">
-        <v>53.9</v>
+        <v>200</v>
       </c>
     </row>
     <row r="367" spans="1:21">
       <c r="A367" s="12">
-        <v>41323</v>
+        <v>41310</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
-      <c r="G367" s="7">
-        <v>119.6</v>
-      </c>
+      <c r="G367" s="7"/>
       <c r="H367" s="7"/>
-      <c r="I367" s="7"/>
-      <c r="J367" s="7"/>
+      <c r="I367" s="7">
+        <v>22</v>
+      </c>
+      <c r="J367" s="7">
+        <v>31.9</v>
+      </c>
       <c r="K367" s="7"/>
       <c r="L367" s="7"/>
       <c r="M367" s="7"/>
@@ -52697,12 +53016,12 @@
       <c r="S367" s="7"/>
       <c r="T367" s="7"/>
       <c r="U367" s="7">
-        <v>119.6</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="368" spans="1:21">
       <c r="A368" s="12">
-        <v>41331</v>
+        <v>41323</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -52710,7 +53029,7 @@
       <c r="E368" s="7"/>
       <c r="F368" s="7"/>
       <c r="G368" s="7">
-        <v>100</v>
+        <v>119.6</v>
       </c>
       <c r="H368" s="7"/>
       <c r="I368" s="7"/>
@@ -52726,24 +53045,24 @@
       <c r="S368" s="7"/>
       <c r="T368" s="7"/>
       <c r="U368" s="7">
-        <v>100</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="369" spans="1:21">
       <c r="A369" s="12">
-        <v>41361</v>
+        <v>41331</v>
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
       <c r="F369" s="7"/>
-      <c r="G369" s="7"/>
+      <c r="G369" s="7">
+        <v>100</v>
+      </c>
       <c r="H369" s="7"/>
       <c r="I369" s="7"/>
-      <c r="J369" s="7">
-        <v>40</v>
-      </c>
+      <c r="J369" s="7"/>
       <c r="K369" s="7"/>
       <c r="L369" s="7"/>
       <c r="M369" s="7"/>
@@ -52755,12 +53074,12 @@
       <c r="S369" s="7"/>
       <c r="T369" s="7"/>
       <c r="U369" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="370" spans="1:21">
       <c r="A370" s="12">
-        <v>41373</v>
+        <v>41361</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -52769,10 +53088,10 @@
       <c r="F370" s="7"/>
       <c r="G370" s="7"/>
       <c r="H370" s="7"/>
-      <c r="I370" s="7">
-        <v>91</v>
-      </c>
-      <c r="J370" s="7"/>
+      <c r="I370" s="7"/>
+      <c r="J370" s="7">
+        <v>40</v>
+      </c>
       <c r="K370" s="7"/>
       <c r="L370" s="7"/>
       <c r="M370" s="7"/>
@@ -52784,12 +53103,12 @@
       <c r="S370" s="7"/>
       <c r="T370" s="7"/>
       <c r="U370" s="7">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="371" spans="1:21">
       <c r="A371" s="12">
-        <v>41374</v>
+        <v>41373</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -52798,36 +53117,34 @@
       <c r="F371" s="7"/>
       <c r="G371" s="7"/>
       <c r="H371" s="7"/>
-      <c r="I371" s="7"/>
+      <c r="I371" s="7">
+        <v>91</v>
+      </c>
       <c r="J371" s="7"/>
       <c r="K371" s="7"/>
       <c r="L371" s="7"/>
       <c r="M371" s="7"/>
       <c r="N371" s="7"/>
-      <c r="O371" s="7">
-        <v>75</v>
-      </c>
+      <c r="O371" s="7"/>
       <c r="P371" s="7"/>
       <c r="Q371" s="7"/>
       <c r="R371" s="7"/>
       <c r="S371" s="7"/>
       <c r="T371" s="7"/>
       <c r="U371" s="7">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="372" spans="1:21">
       <c r="A372" s="12">
-        <v>41376</v>
+        <v>41374</v>
       </c>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
-      <c r="G372" s="7">
-        <v>97</v>
-      </c>
+      <c r="G372" s="7"/>
       <c r="H372" s="7"/>
       <c r="I372" s="7"/>
       <c r="J372" s="7"/>
@@ -52835,52 +53152,54 @@
       <c r="L372" s="7"/>
       <c r="M372" s="7"/>
       <c r="N372" s="7"/>
-      <c r="O372" s="7"/>
-      <c r="P372" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q372" s="7">
-        <v>100</v>
-      </c>
+      <c r="O372" s="7">
+        <v>75</v>
+      </c>
+      <c r="P372" s="7"/>
+      <c r="Q372" s="7"/>
       <c r="R372" s="7"/>
       <c r="S372" s="7"/>
       <c r="T372" s="7"/>
       <c r="U372" s="7">
-        <v>247</v>
+        <v>75</v>
       </c>
     </row>
     <row r="373" spans="1:21">
       <c r="A373" s="12">
-        <v>41382</v>
+        <v>41376</v>
       </c>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
-      <c r="G373" s="7"/>
+      <c r="G373" s="7">
+        <v>97</v>
+      </c>
       <c r="H373" s="7"/>
       <c r="I373" s="7"/>
       <c r="J373" s="7"/>
       <c r="K373" s="7"/>
       <c r="L373" s="7"/>
       <c r="M373" s="7"/>
-      <c r="N373" s="7">
+      <c r="N373" s="7"/>
+      <c r="O373" s="7"/>
+      <c r="P373" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q373" s="7">
         <v>100</v>
       </c>
-      <c r="O373" s="7"/>
-      <c r="P373" s="7"/>
-      <c r="Q373" s="7"/>
       <c r="R373" s="7"/>
       <c r="S373" s="7"/>
       <c r="T373" s="7"/>
       <c r="U373" s="7">
-        <v>100</v>
+        <v>247</v>
       </c>
     </row>
     <row r="374" spans="1:21">
       <c r="A374" s="12">
-        <v>41383</v>
+        <v>41382</v>
       </c>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -52894,11 +53213,11 @@
       <c r="K374" s="7"/>
       <c r="L374" s="7"/>
       <c r="M374" s="7"/>
-      <c r="N374" s="7"/>
+      <c r="N374" s="7">
+        <v>100</v>
+      </c>
       <c r="O374" s="7"/>
-      <c r="P374" s="7">
-        <v>100</v>
-      </c>
+      <c r="P374" s="7"/>
       <c r="Q374" s="7"/>
       <c r="R374" s="7"/>
       <c r="S374" s="7"/>
@@ -52909,7 +53228,7 @@
     </row>
     <row r="375" spans="1:21">
       <c r="A375" s="12">
-        <v>41386</v>
+        <v>41383</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -52924,21 +53243,21 @@
       <c r="L375" s="7"/>
       <c r="M375" s="7"/>
       <c r="N375" s="7"/>
-      <c r="O375" s="7">
-        <v>40</v>
-      </c>
-      <c r="P375" s="7"/>
+      <c r="O375" s="7"/>
+      <c r="P375" s="7">
+        <v>100</v>
+      </c>
       <c r="Q375" s="7"/>
       <c r="R375" s="7"/>
       <c r="S375" s="7"/>
       <c r="T375" s="7"/>
       <c r="U375" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="376" spans="1:21">
       <c r="A376" s="12">
-        <v>41387</v>
+        <v>41386</v>
       </c>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -52954,7 +53273,7 @@
       <c r="M376" s="7"/>
       <c r="N376" s="7"/>
       <c r="O376" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P376" s="7"/>
       <c r="Q376" s="7"/>
@@ -52962,32 +53281,28 @@
       <c r="S376" s="7"/>
       <c r="T376" s="7"/>
       <c r="U376" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="377" spans="1:21">
       <c r="A377" s="12">
-        <v>41388</v>
+        <v>41387</v>
       </c>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
       <c r="F377" s="7"/>
-      <c r="G377" s="7">
-        <v>20</v>
-      </c>
+      <c r="G377" s="7"/>
       <c r="H377" s="7"/>
       <c r="I377" s="7"/>
       <c r="J377" s="7"/>
       <c r="K377" s="7"/>
       <c r="L377" s="7"/>
       <c r="M377" s="7"/>
-      <c r="N377" s="7">
-        <v>40</v>
-      </c>
+      <c r="N377" s="7"/>
       <c r="O377" s="7">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P377" s="7"/>
       <c r="Q377" s="7"/>
@@ -52995,41 +53310,45 @@
       <c r="S377" s="7"/>
       <c r="T377" s="7"/>
       <c r="U377" s="7">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="378" spans="1:21">
       <c r="A378" s="12">
-        <v>41390</v>
+        <v>41388</v>
       </c>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
       <c r="F378" s="7"/>
-      <c r="G378" s="7"/>
+      <c r="G378" s="7">
+        <v>20</v>
+      </c>
       <c r="H378" s="7"/>
-      <c r="I378" s="7">
-        <v>120</v>
-      </c>
+      <c r="I378" s="7"/>
       <c r="J378" s="7"/>
       <c r="K378" s="7"/>
       <c r="L378" s="7"/>
       <c r="M378" s="7"/>
-      <c r="N378" s="7"/>
-      <c r="O378" s="7"/>
+      <c r="N378" s="7">
+        <v>40</v>
+      </c>
+      <c r="O378" s="7">
+        <v>11</v>
+      </c>
       <c r="P378" s="7"/>
       <c r="Q378" s="7"/>
       <c r="R378" s="7"/>
       <c r="S378" s="7"/>
       <c r="T378" s="7"/>
       <c r="U378" s="7">
-        <v>120</v>
+        <v>71</v>
       </c>
     </row>
     <row r="379" spans="1:21">
       <c r="A379" s="12">
-        <v>41397</v>
+        <v>41390</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -53037,30 +53356,28 @@
       <c r="E379" s="7"/>
       <c r="F379" s="7"/>
       <c r="G379" s="7"/>
-      <c r="H379" s="7">
-        <v>50</v>
-      </c>
-      <c r="I379" s="7"/>
+      <c r="H379" s="7"/>
+      <c r="I379" s="7">
+        <v>120</v>
+      </c>
       <c r="J379" s="7"/>
       <c r="K379" s="7"/>
       <c r="L379" s="7"/>
       <c r="M379" s="7"/>
       <c r="N379" s="7"/>
-      <c r="O379" s="7">
-        <v>100</v>
-      </c>
+      <c r="O379" s="7"/>
       <c r="P379" s="7"/>
       <c r="Q379" s="7"/>
       <c r="R379" s="7"/>
       <c r="S379" s="7"/>
       <c r="T379" s="7"/>
       <c r="U379" s="7">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="380" spans="1:21">
       <c r="A380" s="12">
-        <v>41401</v>
+        <v>41397</v>
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -53068,28 +53385,30 @@
       <c r="E380" s="7"/>
       <c r="F380" s="7"/>
       <c r="G380" s="7"/>
-      <c r="H380" s="7"/>
+      <c r="H380" s="7">
+        <v>50</v>
+      </c>
       <c r="I380" s="7"/>
       <c r="J380" s="7"/>
       <c r="K380" s="7"/>
       <c r="L380" s="7"/>
       <c r="M380" s="7"/>
       <c r="N380" s="7"/>
-      <c r="O380" s="7"/>
+      <c r="O380" s="7">
+        <v>100</v>
+      </c>
       <c r="P380" s="7"/>
-      <c r="Q380" s="7">
-        <v>100</v>
-      </c>
+      <c r="Q380" s="7"/>
       <c r="R380" s="7"/>
       <c r="S380" s="7"/>
       <c r="T380" s="7"/>
       <c r="U380" s="7">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="381" spans="1:21">
       <c r="A381" s="12">
-        <v>41402</v>
+        <v>41401</v>
       </c>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -53101,26 +53420,24 @@
       <c r="I381" s="7"/>
       <c r="J381" s="7"/>
       <c r="K381" s="7"/>
-      <c r="L381" s="7">
-        <v>100</v>
-      </c>
+      <c r="L381" s="7"/>
       <c r="M381" s="7"/>
       <c r="N381" s="7"/>
       <c r="O381" s="7"/>
-      <c r="P381" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q381" s="7"/>
+      <c r="P381" s="7"/>
+      <c r="Q381" s="7">
+        <v>100</v>
+      </c>
       <c r="R381" s="7"/>
       <c r="S381" s="7"/>
       <c r="T381" s="7"/>
       <c r="U381" s="7">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="382" spans="1:21">
       <c r="A382" s="12">
-        <v>41403</v>
+        <v>41402</v>
       </c>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -53128,94 +53445,96 @@
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
       <c r="G382" s="7"/>
-      <c r="H382" s="7">
-        <v>100</v>
-      </c>
+      <c r="H382" s="7"/>
       <c r="I382" s="7"/>
       <c r="J382" s="7"/>
       <c r="K382" s="7"/>
-      <c r="L382" s="7"/>
-      <c r="M382" s="7">
+      <c r="L382" s="7">
         <v>100</v>
       </c>
+      <c r="M382" s="7"/>
       <c r="N382" s="7"/>
       <c r="O382" s="7"/>
-      <c r="P382" s="7"/>
+      <c r="P382" s="7">
+        <v>50</v>
+      </c>
       <c r="Q382" s="7"/>
       <c r="R382" s="7"/>
-      <c r="S382" s="7">
-        <v>50</v>
-      </c>
+      <c r="S382" s="7"/>
       <c r="T382" s="7"/>
       <c r="U382" s="7">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="383" spans="1:21">
       <c r="A383" s="12">
-        <v>41407</v>
+        <v>41403</v>
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
-      <c r="G383" s="7">
+      <c r="G383" s="7"/>
+      <c r="H383" s="7">
         <v>100</v>
       </c>
-      <c r="H383" s="7"/>
       <c r="I383" s="7"/>
-      <c r="J383" s="7">
-        <v>100</v>
-      </c>
+      <c r="J383" s="7"/>
       <c r="K383" s="7"/>
       <c r="L383" s="7"/>
-      <c r="M383" s="7"/>
+      <c r="M383" s="7">
+        <v>100</v>
+      </c>
       <c r="N383" s="7"/>
-      <c r="O383" s="7">
-        <v>100</v>
-      </c>
+      <c r="O383" s="7"/>
       <c r="P383" s="7"/>
       <c r="Q383" s="7"/>
       <c r="R383" s="7"/>
-      <c r="S383" s="7"/>
+      <c r="S383" s="7">
+        <v>50</v>
+      </c>
       <c r="T383" s="7"/>
       <c r="U383" s="7">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="384" spans="1:21">
       <c r="A384" s="12">
-        <v>41410</v>
+        <v>41407</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
-      <c r="G384" s="7"/>
+      <c r="G384" s="7">
+        <v>100</v>
+      </c>
       <c r="H384" s="7"/>
-      <c r="I384" s="7">
-        <v>200</v>
-      </c>
-      <c r="J384" s="7"/>
+      <c r="I384" s="7"/>
+      <c r="J384" s="7">
+        <v>100</v>
+      </c>
       <c r="K384" s="7"/>
       <c r="L384" s="7"/>
       <c r="M384" s="7"/>
       <c r="N384" s="7"/>
-      <c r="O384" s="7"/>
+      <c r="O384" s="7">
+        <v>100</v>
+      </c>
       <c r="P384" s="7"/>
       <c r="Q384" s="7"/>
       <c r="R384" s="7"/>
       <c r="S384" s="7"/>
       <c r="T384" s="7"/>
       <c r="U384" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="385" spans="1:21">
       <c r="A385" s="12">
-        <v>41411</v>
+        <v>41410</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -53224,29 +53543,27 @@
       <c r="F385" s="7"/>
       <c r="G385" s="7"/>
       <c r="H385" s="7"/>
-      <c r="I385" s="7"/>
+      <c r="I385" s="7">
+        <v>200</v>
+      </c>
       <c r="J385" s="7"/>
       <c r="K385" s="7"/>
       <c r="L385" s="7"/>
       <c r="M385" s="7"/>
-      <c r="N385" s="7">
-        <v>300</v>
-      </c>
+      <c r="N385" s="7"/>
       <c r="O385" s="7"/>
-      <c r="P385" s="7">
-        <v>100</v>
-      </c>
+      <c r="P385" s="7"/>
       <c r="Q385" s="7"/>
       <c r="R385" s="7"/>
       <c r="S385" s="7"/>
       <c r="T385" s="7"/>
       <c r="U385" s="7">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="386" spans="1:21">
       <c r="A386" s="12">
-        <v>41414</v>
+        <v>41411</v>
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -53256,26 +53573,28 @@
       <c r="G386" s="7"/>
       <c r="H386" s="7"/>
       <c r="I386" s="7"/>
-      <c r="J386" s="7">
-        <v>100</v>
-      </c>
+      <c r="J386" s="7"/>
       <c r="K386" s="7"/>
       <c r="L386" s="7"/>
       <c r="M386" s="7"/>
-      <c r="N386" s="7"/>
+      <c r="N386" s="7">
+        <v>300</v>
+      </c>
       <c r="O386" s="7"/>
-      <c r="P386" s="7"/>
+      <c r="P386" s="7">
+        <v>100</v>
+      </c>
       <c r="Q386" s="7"/>
       <c r="R386" s="7"/>
       <c r="S386" s="7"/>
       <c r="T386" s="7"/>
       <c r="U386" s="7">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="387" spans="1:21">
       <c r="A387" s="12">
-        <v>41416</v>
+        <v>41414</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -53285,26 +53604,26 @@
       <c r="G387" s="7"/>
       <c r="H387" s="7"/>
       <c r="I387" s="7"/>
-      <c r="J387" s="7"/>
+      <c r="J387" s="7">
+        <v>100</v>
+      </c>
       <c r="K387" s="7"/>
       <c r="L387" s="7"/>
       <c r="M387" s="7"/>
       <c r="N387" s="7"/>
-      <c r="O387" s="7">
-        <v>200</v>
-      </c>
+      <c r="O387" s="7"/>
       <c r="P387" s="7"/>
       <c r="Q387" s="7"/>
       <c r="R387" s="7"/>
       <c r="S387" s="7"/>
       <c r="T387" s="7"/>
       <c r="U387" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="388" spans="1:21">
       <c r="A388" s="12">
-        <v>41424</v>
+        <v>41416</v>
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -53313,27 +53632,27 @@
       <c r="F388" s="7"/>
       <c r="G388" s="7"/>
       <c r="H388" s="7"/>
-      <c r="I388" s="7">
-        <v>100</v>
-      </c>
+      <c r="I388" s="7"/>
       <c r="J388" s="7"/>
       <c r="K388" s="7"/>
       <c r="L388" s="7"/>
       <c r="M388" s="7"/>
       <c r="N388" s="7"/>
-      <c r="O388" s="7"/>
+      <c r="O388" s="7">
+        <v>200</v>
+      </c>
       <c r="P388" s="7"/>
       <c r="Q388" s="7"/>
       <c r="R388" s="7"/>
       <c r="S388" s="7"/>
       <c r="T388" s="7"/>
       <c r="U388" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="389" spans="1:21">
       <c r="A389" s="12">
-        <v>41429</v>
+        <v>41424</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -53342,16 +53661,16 @@
       <c r="F389" s="7"/>
       <c r="G389" s="7"/>
       <c r="H389" s="7"/>
-      <c r="I389" s="7"/>
+      <c r="I389" s="7">
+        <v>100</v>
+      </c>
       <c r="J389" s="7"/>
       <c r="K389" s="7"/>
       <c r="L389" s="7"/>
       <c r="M389" s="7"/>
       <c r="N389" s="7"/>
       <c r="O389" s="7"/>
-      <c r="P389" s="7">
-        <v>100</v>
-      </c>
+      <c r="P389" s="7"/>
       <c r="Q389" s="7"/>
       <c r="R389" s="7"/>
       <c r="S389" s="7"/>
@@ -53362,13 +53681,11 @@
     </row>
     <row r="390" spans="1:21">
       <c r="A390" s="12">
-        <v>41430</v>
+        <v>41429</v>
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
-      <c r="D390" s="7">
-        <v>100</v>
-      </c>
+      <c r="D390" s="7"/>
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
       <c r="G390" s="7"/>
@@ -53380,7 +53697,9 @@
       <c r="M390" s="7"/>
       <c r="N390" s="7"/>
       <c r="O390" s="7"/>
-      <c r="P390" s="7"/>
+      <c r="P390" s="7">
+        <v>100</v>
+      </c>
       <c r="Q390" s="7"/>
       <c r="R390" s="7"/>
       <c r="S390" s="7"/>
@@ -53391,19 +53710,19 @@
     </row>
     <row r="391" spans="1:21">
       <c r="A391" s="12">
-        <v>41431</v>
+        <v>41430</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
-      <c r="D391" s="7"/>
+      <c r="D391" s="7">
+        <v>100</v>
+      </c>
       <c r="E391" s="7"/>
       <c r="F391" s="7"/>
       <c r="G391" s="7"/>
       <c r="H391" s="7"/>
       <c r="I391" s="7"/>
-      <c r="J391" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="J391" s="7"/>
       <c r="K391" s="7"/>
       <c r="L391" s="7"/>
       <c r="M391" s="7"/>
@@ -53411,30 +53730,28 @@
       <c r="O391" s="7"/>
       <c r="P391" s="7"/>
       <c r="Q391" s="7"/>
-      <c r="R391" s="7">
-        <v>200</v>
-      </c>
+      <c r="R391" s="7"/>
       <c r="S391" s="7"/>
       <c r="T391" s="7"/>
       <c r="U391" s="7">
-        <v>280.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="392" spans="1:21">
       <c r="A392" s="12">
-        <v>41438</v>
+        <v>41431</v>
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
       <c r="F392" s="7"/>
-      <c r="G392" s="7">
-        <v>20</v>
-      </c>
+      <c r="G392" s="7"/>
       <c r="H392" s="7"/>
       <c r="I392" s="7"/>
-      <c r="J392" s="7"/>
+      <c r="J392" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K392" s="7"/>
       <c r="L392" s="7"/>
       <c r="M392" s="7"/>
@@ -53442,23 +53759,27 @@
       <c r="O392" s="7"/>
       <c r="P392" s="7"/>
       <c r="Q392" s="7"/>
-      <c r="R392" s="7"/>
+      <c r="R392" s="7">
+        <v>200</v>
+      </c>
       <c r="S392" s="7"/>
       <c r="T392" s="7"/>
       <c r="U392" s="7">
-        <v>20</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="393" spans="1:21">
       <c r="A393" s="12">
-        <v>41439</v>
+        <v>41438</v>
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
       <c r="F393" s="7"/>
-      <c r="G393" s="7"/>
+      <c r="G393" s="7">
+        <v>20</v>
+      </c>
       <c r="H393" s="7"/>
       <c r="I393" s="7"/>
       <c r="J393" s="7"/>
@@ -53470,23 +53791,19 @@
       <c r="P393" s="7"/>
       <c r="Q393" s="7"/>
       <c r="R393" s="7"/>
-      <c r="S393" s="7">
-        <v>100</v>
-      </c>
+      <c r="S393" s="7"/>
       <c r="T393" s="7"/>
       <c r="U393" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="394" spans="1:21">
       <c r="A394" s="12">
-        <v>41443</v>
+        <v>41439</v>
       </c>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
-      <c r="D394" s="7">
-        <v>100</v>
-      </c>
+      <c r="D394" s="7"/>
       <c r="E394" s="7"/>
       <c r="F394" s="7"/>
       <c r="G394" s="7"/>
@@ -53501,7 +53818,9 @@
       <c r="P394" s="7"/>
       <c r="Q394" s="7"/>
       <c r="R394" s="7"/>
-      <c r="S394" s="7"/>
+      <c r="S394" s="7">
+        <v>100</v>
+      </c>
       <c r="T394" s="7"/>
       <c r="U394" s="7">
         <v>100</v>
@@ -53509,11 +53828,13 @@
     </row>
     <row r="395" spans="1:21">
       <c r="A395" s="12">
-        <v>41444</v>
+        <v>41443</v>
       </c>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
-      <c r="D395" s="7"/>
+      <c r="D395" s="7">
+        <v>100</v>
+      </c>
       <c r="E395" s="7"/>
       <c r="F395" s="7"/>
       <c r="G395" s="7"/>
@@ -53523,9 +53844,7 @@
       <c r="K395" s="7"/>
       <c r="L395" s="7"/>
       <c r="M395" s="7"/>
-      <c r="N395" s="7">
-        <v>200</v>
-      </c>
+      <c r="N395" s="7"/>
       <c r="O395" s="7"/>
       <c r="P395" s="7"/>
       <c r="Q395" s="7"/>
@@ -53533,12 +53852,12 @@
       <c r="S395" s="7"/>
       <c r="T395" s="7"/>
       <c r="U395" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="396" spans="1:21">
       <c r="A396" s="12">
-        <v>41450</v>
+        <v>41444</v>
       </c>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -53552,24 +53871,22 @@
       <c r="K396" s="7"/>
       <c r="L396" s="7"/>
       <c r="M396" s="7"/>
-      <c r="N396" s="7"/>
-      <c r="O396" s="7">
-        <v>140</v>
-      </c>
-      <c r="P396" s="7">
-        <v>100</v>
-      </c>
+      <c r="N396" s="7">
+        <v>200</v>
+      </c>
+      <c r="O396" s="7"/>
+      <c r="P396" s="7"/>
       <c r="Q396" s="7"/>
       <c r="R396" s="7"/>
       <c r="S396" s="7"/>
       <c r="T396" s="7"/>
       <c r="U396" s="7">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="397" spans="1:21">
       <c r="A397" s="12">
-        <v>41451</v>
+        <v>41450</v>
       </c>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -53579,30 +53896,28 @@
       <c r="G397" s="7"/>
       <c r="H397" s="7"/>
       <c r="I397" s="7"/>
-      <c r="J397" s="7">
-        <v>100</v>
-      </c>
+      <c r="J397" s="7"/>
       <c r="K397" s="7"/>
-      <c r="L397" s="7">
-        <v>100</v>
-      </c>
+      <c r="L397" s="7"/>
       <c r="M397" s="7"/>
       <c r="N397" s="7"/>
       <c r="O397" s="7">
-        <v>200</v>
-      </c>
-      <c r="P397" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="P397" s="7">
+        <v>100</v>
+      </c>
       <c r="Q397" s="7"/>
       <c r="R397" s="7"/>
       <c r="S397" s="7"/>
       <c r="T397" s="7"/>
       <c r="U397" s="7">
-        <v>400</v>
+        <v>240</v>
       </c>
     </row>
     <row r="398" spans="1:21">
       <c r="A398" s="12">
-        <v>41453</v>
+        <v>41451</v>
       </c>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -53611,27 +53926,31 @@
       <c r="F398" s="7"/>
       <c r="G398" s="7"/>
       <c r="H398" s="7"/>
-      <c r="I398" s="7">
-        <v>200</v>
-      </c>
-      <c r="J398" s="7"/>
+      <c r="I398" s="7"/>
+      <c r="J398" s="7">
+        <v>100</v>
+      </c>
       <c r="K398" s="7"/>
-      <c r="L398" s="7"/>
+      <c r="L398" s="7">
+        <v>100</v>
+      </c>
       <c r="M398" s="7"/>
       <c r="N398" s="7"/>
-      <c r="O398" s="7"/>
+      <c r="O398" s="7">
+        <v>200</v>
+      </c>
       <c r="P398" s="7"/>
       <c r="Q398" s="7"/>
       <c r="R398" s="7"/>
       <c r="S398" s="7"/>
       <c r="T398" s="7"/>
       <c r="U398" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="399" spans="1:21">
       <c r="A399" s="12">
-        <v>41463</v>
+        <v>41453</v>
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -53640,13 +53959,13 @@
       <c r="F399" s="7"/>
       <c r="G399" s="7"/>
       <c r="H399" s="7"/>
-      <c r="I399" s="7"/>
+      <c r="I399" s="7">
+        <v>200</v>
+      </c>
       <c r="J399" s="7"/>
       <c r="K399" s="7"/>
       <c r="L399" s="7"/>
-      <c r="M399" s="7">
-        <v>20</v>
-      </c>
+      <c r="M399" s="7"/>
       <c r="N399" s="7"/>
       <c r="O399" s="7"/>
       <c r="P399" s="7"/>
@@ -53655,12 +53974,12 @@
       <c r="S399" s="7"/>
       <c r="T399" s="7"/>
       <c r="U399" s="7">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="400" spans="1:21">
       <c r="A400" s="12">
-        <v>41464</v>
+        <v>41463</v>
       </c>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
@@ -53673,27 +53992,25 @@
       <c r="J400" s="7"/>
       <c r="K400" s="7"/>
       <c r="L400" s="7"/>
-      <c r="M400" s="7"/>
+      <c r="M400" s="7">
+        <v>20</v>
+      </c>
       <c r="N400" s="7"/>
       <c r="O400" s="7"/>
       <c r="P400" s="7"/>
-      <c r="Q400" s="7">
-        <v>100</v>
-      </c>
+      <c r="Q400" s="7"/>
       <c r="R400" s="7"/>
       <c r="S400" s="7"/>
       <c r="T400" s="7"/>
       <c r="U400" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="401" spans="1:21">
       <c r="A401" s="12">
-        <v>41465</v>
-      </c>
-      <c r="B401" s="7">
-        <v>50</v>
-      </c>
+        <v>41464</v>
+      </c>
+      <c r="B401" s="7"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -53708,19 +54025,23 @@
       <c r="N401" s="7"/>
       <c r="O401" s="7"/>
       <c r="P401" s="7"/>
-      <c r="Q401" s="7"/>
+      <c r="Q401" s="7">
+        <v>100</v>
+      </c>
       <c r="R401" s="7"/>
       <c r="S401" s="7"/>
       <c r="T401" s="7"/>
       <c r="U401" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="402" spans="1:21">
       <c r="A402" s="12">
-        <v>41466</v>
-      </c>
-      <c r="B402" s="7"/>
+        <v>41465</v>
+      </c>
+      <c r="B402" s="7">
+        <v>50</v>
+      </c>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -53728,9 +54049,7 @@
       <c r="G402" s="7"/>
       <c r="H402" s="7"/>
       <c r="I402" s="7"/>
-      <c r="J402" s="7">
-        <v>100</v>
-      </c>
+      <c r="J402" s="7"/>
       <c r="K402" s="7"/>
       <c r="L402" s="7"/>
       <c r="M402" s="7"/>
@@ -53742,12 +54061,12 @@
       <c r="S402" s="7"/>
       <c r="T402" s="7"/>
       <c r="U402" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="403" spans="1:21">
       <c r="A403" s="12">
-        <v>41467</v>
+        <v>41466</v>
       </c>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -53757,7 +54076,9 @@
       <c r="G403" s="7"/>
       <c r="H403" s="7"/>
       <c r="I403" s="7"/>
-      <c r="J403" s="7"/>
+      <c r="J403" s="7">
+        <v>100</v>
+      </c>
       <c r="K403" s="7"/>
       <c r="L403" s="7"/>
       <c r="M403" s="7"/>
@@ -53766,9 +54087,7 @@
       <c r="P403" s="7"/>
       <c r="Q403" s="7"/>
       <c r="R403" s="7"/>
-      <c r="S403" s="7">
-        <v>100</v>
-      </c>
+      <c r="S403" s="7"/>
       <c r="T403" s="7"/>
       <c r="U403" s="7">
         <v>100</v>
@@ -53776,7 +54095,7 @@
     </row>
     <row r="404" spans="1:21">
       <c r="A404" s="12">
-        <v>41472</v>
+        <v>41467</v>
       </c>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -53788,16 +54107,16 @@
       <c r="I404" s="7"/>
       <c r="J404" s="7"/>
       <c r="K404" s="7"/>
-      <c r="L404" s="7">
-        <v>100</v>
-      </c>
+      <c r="L404" s="7"/>
       <c r="M404" s="7"/>
       <c r="N404" s="7"/>
       <c r="O404" s="7"/>
       <c r="P404" s="7"/>
       <c r="Q404" s="7"/>
       <c r="R404" s="7"/>
-      <c r="S404" s="7"/>
+      <c r="S404" s="7">
+        <v>100</v>
+      </c>
       <c r="T404" s="7"/>
       <c r="U404" s="7">
         <v>100</v>
@@ -53805,52 +54124,48 @@
     </row>
     <row r="405" spans="1:21">
       <c r="A405" s="12">
-        <v>41474</v>
-      </c>
-      <c r="B405" s="7">
-        <v>76.5</v>
-      </c>
+        <v>41472</v>
+      </c>
+      <c r="B405" s="7"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
       <c r="F405" s="7"/>
       <c r="G405" s="7"/>
-      <c r="H405" s="7">
-        <v>50</v>
-      </c>
+      <c r="H405" s="7"/>
       <c r="I405" s="7"/>
       <c r="J405" s="7"/>
       <c r="K405" s="7"/>
-      <c r="L405" s="7"/>
+      <c r="L405" s="7">
+        <v>100</v>
+      </c>
       <c r="M405" s="7"/>
       <c r="N405" s="7"/>
       <c r="O405" s="7"/>
       <c r="P405" s="7"/>
-      <c r="Q405" s="7">
-        <v>200</v>
-      </c>
-      <c r="R405" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q405" s="7"/>
+      <c r="R405" s="7"/>
       <c r="S405" s="7"/>
       <c r="T405" s="7"/>
       <c r="U405" s="7">
-        <v>526.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="406" spans="1:21">
       <c r="A406" s="12">
-        <v>41479</v>
-      </c>
-      <c r="B406" s="7"/>
+        <v>41474</v>
+      </c>
+      <c r="B406" s="7">
+        <v>76.5</v>
+      </c>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
       <c r="F406" s="7"/>
-      <c r="G406" s="7">
-        <v>100</v>
-      </c>
-      <c r="H406" s="7"/>
+      <c r="G406" s="7"/>
+      <c r="H406" s="7">
+        <v>50</v>
+      </c>
       <c r="I406" s="7"/>
       <c r="J406" s="7"/>
       <c r="K406" s="7"/>
@@ -53859,33 +54174,37 @@
       <c r="N406" s="7"/>
       <c r="O406" s="7"/>
       <c r="P406" s="7"/>
-      <c r="Q406" s="7"/>
-      <c r="R406" s="7"/>
+      <c r="Q406" s="7">
+        <v>200</v>
+      </c>
+      <c r="R406" s="7">
+        <v>200</v>
+      </c>
       <c r="S406" s="7"/>
       <c r="T406" s="7"/>
       <c r="U406" s="7">
-        <v>100</v>
+        <v>526.5</v>
       </c>
     </row>
     <row r="407" spans="1:21">
       <c r="A407" s="12">
-        <v>41480</v>
+        <v>41479</v>
       </c>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
       <c r="F407" s="7"/>
-      <c r="G407" s="7"/>
+      <c r="G407" s="7">
+        <v>100</v>
+      </c>
       <c r="H407" s="7"/>
       <c r="I407" s="7"/>
       <c r="J407" s="7"/>
       <c r="K407" s="7"/>
       <c r="L407" s="7"/>
       <c r="M407" s="7"/>
-      <c r="N407" s="7">
-        <v>200</v>
-      </c>
+      <c r="N407" s="7"/>
       <c r="O407" s="7"/>
       <c r="P407" s="7"/>
       <c r="Q407" s="7"/>
@@ -53893,12 +54212,12 @@
       <c r="S407" s="7"/>
       <c r="T407" s="7"/>
       <c r="U407" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="408" spans="1:21">
       <c r="A408" s="12">
-        <v>41481</v>
+        <v>41480</v>
       </c>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -53910,11 +54229,11 @@
       <c r="I408" s="7"/>
       <c r="J408" s="7"/>
       <c r="K408" s="7"/>
-      <c r="L408" s="7">
-        <v>100</v>
-      </c>
+      <c r="L408" s="7"/>
       <c r="M408" s="7"/>
-      <c r="N408" s="7"/>
+      <c r="N408" s="7">
+        <v>200</v>
+      </c>
       <c r="O408" s="7"/>
       <c r="P408" s="7"/>
       <c r="Q408" s="7"/>
@@ -53922,12 +54241,12 @@
       <c r="S408" s="7"/>
       <c r="T408" s="7"/>
       <c r="U408" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="409" spans="1:21">
       <c r="A409" s="12">
-        <v>41482</v>
+        <v>41481</v>
       </c>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -53937,11 +54256,11 @@
       <c r="G409" s="7"/>
       <c r="H409" s="7"/>
       <c r="I409" s="7"/>
-      <c r="J409" s="7">
+      <c r="J409" s="7"/>
+      <c r="K409" s="7"/>
+      <c r="L409" s="7">
         <v>100</v>
       </c>
-      <c r="K409" s="7"/>
-      <c r="L409" s="7"/>
       <c r="M409" s="7"/>
       <c r="N409" s="7"/>
       <c r="O409" s="7"/>
@@ -53956,7 +54275,7 @@
     </row>
     <row r="410" spans="1:21">
       <c r="A410" s="12">
-        <v>41488</v>
+        <v>41482</v>
       </c>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -53966,11 +54285,11 @@
       <c r="G410" s="7"/>
       <c r="H410" s="7"/>
       <c r="I410" s="7"/>
-      <c r="J410" s="7"/>
+      <c r="J410" s="7">
+        <v>100</v>
+      </c>
       <c r="K410" s="7"/>
-      <c r="L410" s="7">
-        <v>300</v>
-      </c>
+      <c r="L410" s="7"/>
       <c r="M410" s="7"/>
       <c r="N410" s="7"/>
       <c r="O410" s="7"/>
@@ -53980,16 +54299,14 @@
       <c r="S410" s="7"/>
       <c r="T410" s="7"/>
       <c r="U410" s="7">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="411" spans="1:21">
       <c r="A411" s="12">
-        <v>41495</v>
-      </c>
-      <c r="B411" s="7">
-        <v>100</v>
-      </c>
+        <v>41488</v>
+      </c>
+      <c r="B411" s="7"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -53997,57 +54314,59 @@
       <c r="G411" s="7"/>
       <c r="H411" s="7"/>
       <c r="I411" s="7"/>
-      <c r="J411" s="7">
-        <v>100</v>
-      </c>
+      <c r="J411" s="7"/>
       <c r="K411" s="7"/>
-      <c r="L411" s="7"/>
+      <c r="L411" s="7">
+        <v>300</v>
+      </c>
       <c r="M411" s="7"/>
       <c r="N411" s="7"/>
-      <c r="O411" s="7">
-        <v>300</v>
-      </c>
+      <c r="O411" s="7"/>
       <c r="P411" s="7"/>
       <c r="Q411" s="7"/>
       <c r="R411" s="7"/>
       <c r="S411" s="7"/>
       <c r="T411" s="7"/>
       <c r="U411" s="7">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="412" spans="1:21">
       <c r="A412" s="12">
-        <v>41502</v>
-      </c>
-      <c r="B412" s="7"/>
+        <v>41495</v>
+      </c>
+      <c r="B412" s="7">
+        <v>100</v>
+      </c>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
       <c r="F412" s="7"/>
       <c r="G412" s="7"/>
       <c r="H412" s="7"/>
-      <c r="I412" s="7">
-        <v>200</v>
-      </c>
-      <c r="J412" s="7"/>
+      <c r="I412" s="7"/>
+      <c r="J412" s="7">
+        <v>100</v>
+      </c>
       <c r="K412" s="7"/>
       <c r="L412" s="7"/>
       <c r="M412" s="7"/>
       <c r="N412" s="7"/>
-      <c r="O412" s="7"/>
+      <c r="O412" s="7">
+        <v>300</v>
+      </c>
       <c r="P412" s="7"/>
       <c r="Q412" s="7"/>
       <c r="R412" s="7"/>
       <c r="S412" s="7"/>
       <c r="T412" s="7"/>
       <c r="U412" s="7">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="413" spans="1:21">
       <c r="A413" s="12">
-        <v>41514</v>
+        <v>41502</v>
       </c>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -54056,10 +54375,10 @@
       <c r="F413" s="7"/>
       <c r="G413" s="7"/>
       <c r="H413" s="7"/>
-      <c r="I413" s="7"/>
-      <c r="J413" s="7">
-        <v>100</v>
-      </c>
+      <c r="I413" s="7">
+        <v>200</v>
+      </c>
+      <c r="J413" s="7"/>
       <c r="K413" s="7"/>
       <c r="L413" s="7"/>
       <c r="M413" s="7"/>
@@ -54071,12 +54390,12 @@
       <c r="S413" s="7"/>
       <c r="T413" s="7"/>
       <c r="U413" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="414" spans="1:21">
       <c r="A414" s="12">
-        <v>41526</v>
+        <v>41514</v>
       </c>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -54086,26 +54405,26 @@
       <c r="G414" s="7"/>
       <c r="H414" s="7"/>
       <c r="I414" s="7"/>
-      <c r="J414" s="7"/>
+      <c r="J414" s="7">
+        <v>100</v>
+      </c>
       <c r="K414" s="7"/>
       <c r="L414" s="7"/>
       <c r="M414" s="7"/>
       <c r="N414" s="7"/>
       <c r="O414" s="7"/>
       <c r="P414" s="7"/>
-      <c r="Q414" s="7">
-        <v>400</v>
-      </c>
+      <c r="Q414" s="7"/>
       <c r="R414" s="7"/>
       <c r="S414" s="7"/>
       <c r="T414" s="7"/>
       <c r="U414" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="415" spans="1:21">
       <c r="A415" s="12">
-        <v>41528</v>
+        <v>41526</v>
       </c>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -54122,23 +54441,21 @@
       <c r="N415" s="7"/>
       <c r="O415" s="7"/>
       <c r="P415" s="7"/>
-      <c r="Q415" s="7"/>
-      <c r="R415" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q415" s="7">
+        <v>400</v>
+      </c>
+      <c r="R415" s="7"/>
       <c r="S415" s="7"/>
       <c r="T415" s="7"/>
       <c r="U415" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="416" spans="1:21">
       <c r="A416" s="12">
-        <v>41533</v>
-      </c>
-      <c r="B416" s="7">
-        <v>200</v>
-      </c>
+        <v>41528</v>
+      </c>
+      <c r="B416" s="7"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -54152,22 +54469,24 @@
       <c r="M416" s="7"/>
       <c r="N416" s="7"/>
       <c r="O416" s="7"/>
-      <c r="P416" s="7">
-        <v>100</v>
-      </c>
+      <c r="P416" s="7"/>
       <c r="Q416" s="7"/>
-      <c r="R416" s="7"/>
+      <c r="R416" s="7">
+        <v>200</v>
+      </c>
       <c r="S416" s="7"/>
       <c r="T416" s="7"/>
       <c r="U416" s="7">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="417" spans="1:21">
       <c r="A417" s="12">
-        <v>41537</v>
-      </c>
-      <c r="B417" s="7"/>
+        <v>41533</v>
+      </c>
+      <c r="B417" s="7">
+        <v>200</v>
+      </c>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -54175,26 +54494,26 @@
       <c r="G417" s="7"/>
       <c r="H417" s="7"/>
       <c r="I417" s="7"/>
-      <c r="J417" s="7">
-        <v>77</v>
-      </c>
+      <c r="J417" s="7"/>
       <c r="K417" s="7"/>
       <c r="L417" s="7"/>
       <c r="M417" s="7"/>
       <c r="N417" s="7"/>
       <c r="O417" s="7"/>
-      <c r="P417" s="7"/>
+      <c r="P417" s="7">
+        <v>100</v>
+      </c>
       <c r="Q417" s="7"/>
       <c r="R417" s="7"/>
       <c r="S417" s="7"/>
       <c r="T417" s="7"/>
       <c r="U417" s="7">
-        <v>77</v>
+        <v>300</v>
       </c>
     </row>
     <row r="418" spans="1:21">
       <c r="A418" s="12">
-        <v>41547</v>
+        <v>41537</v>
       </c>
       <c r="B418" s="7"/>
       <c r="C418" s="7"/>
@@ -54204,13 +54523,13 @@
       <c r="G418" s="7"/>
       <c r="H418" s="7"/>
       <c r="I418" s="7"/>
-      <c r="J418" s="7"/>
+      <c r="J418" s="7">
+        <v>77</v>
+      </c>
       <c r="K418" s="7"/>
       <c r="L418" s="7"/>
       <c r="M418" s="7"/>
-      <c r="N418" s="7">
-        <v>80</v>
-      </c>
+      <c r="N418" s="7"/>
       <c r="O418" s="7"/>
       <c r="P418" s="7"/>
       <c r="Q418" s="7"/>
@@ -54218,12 +54537,12 @@
       <c r="S418" s="7"/>
       <c r="T418" s="7"/>
       <c r="U418" s="7">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="419" spans="1:21">
       <c r="A419" s="12">
-        <v>41559</v>
+        <v>41547</v>
       </c>
       <c r="B419" s="7"/>
       <c r="C419" s="7"/>
@@ -54233,13 +54552,13 @@
       <c r="G419" s="7"/>
       <c r="H419" s="7"/>
       <c r="I419" s="7"/>
-      <c r="J419" s="7">
-        <v>161</v>
-      </c>
+      <c r="J419" s="7"/>
       <c r="K419" s="7"/>
       <c r="L419" s="7"/>
       <c r="M419" s="7"/>
-      <c r="N419" s="7"/>
+      <c r="N419" s="7">
+        <v>80</v>
+      </c>
       <c r="O419" s="7"/>
       <c r="P419" s="7"/>
       <c r="Q419" s="7"/>
@@ -54247,12 +54566,12 @@
       <c r="S419" s="7"/>
       <c r="T419" s="7"/>
       <c r="U419" s="7">
-        <v>161</v>
+        <v>80</v>
       </c>
     </row>
     <row r="420" spans="1:21">
       <c r="A420" s="12">
-        <v>41565</v>
+        <v>41559</v>
       </c>
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
@@ -54261,35 +54580,27 @@
       <c r="F420" s="7"/>
       <c r="G420" s="7"/>
       <c r="H420" s="7"/>
-      <c r="I420" s="7">
-        <v>150</v>
-      </c>
-      <c r="J420" s="7"/>
+      <c r="I420" s="7"/>
+      <c r="J420" s="7">
+        <v>161</v>
+      </c>
       <c r="K420" s="7"/>
-      <c r="L420" s="7">
-        <v>200</v>
-      </c>
+      <c r="L420" s="7"/>
       <c r="M420" s="7"/>
       <c r="N420" s="7"/>
       <c r="O420" s="7"/>
-      <c r="P420" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q420" s="7">
-        <v>100</v>
-      </c>
-      <c r="R420" s="7">
-        <v>200</v>
-      </c>
+      <c r="P420" s="7"/>
+      <c r="Q420" s="7"/>
+      <c r="R420" s="7"/>
       <c r="S420" s="7"/>
       <c r="T420" s="7"/>
       <c r="U420" s="7">
-        <v>750</v>
+        <v>161</v>
       </c>
     </row>
     <row r="421" spans="1:21">
       <c r="A421" s="12">
-        <v>41575</v>
+        <v>41565</v>
       </c>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -54298,27 +54609,35 @@
       <c r="F421" s="7"/>
       <c r="G421" s="7"/>
       <c r="H421" s="7"/>
-      <c r="I421" s="7"/>
-      <c r="J421" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="I421" s="7">
+        <v>150</v>
+      </c>
+      <c r="J421" s="7"/>
       <c r="K421" s="7"/>
-      <c r="L421" s="7"/>
+      <c r="L421" s="7">
+        <v>200</v>
+      </c>
       <c r="M421" s="7"/>
       <c r="N421" s="7"/>
       <c r="O421" s="7"/>
-      <c r="P421" s="7"/>
-      <c r="Q421" s="7"/>
-      <c r="R421" s="7"/>
+      <c r="P421" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q421" s="7">
+        <v>100</v>
+      </c>
+      <c r="R421" s="7">
+        <v>200</v>
+      </c>
       <c r="S421" s="7"/>
       <c r="T421" s="7"/>
       <c r="U421" s="7">
-        <v>80.5</v>
+        <v>750</v>
       </c>
     </row>
     <row r="422" spans="1:21">
       <c r="A422" s="12">
-        <v>41579</v>
+        <v>41575</v>
       </c>
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
@@ -54347,11 +54666,9 @@
     </row>
     <row r="423" spans="1:21">
       <c r="A423" s="12">
-        <v>41590</v>
-      </c>
-      <c r="B423" s="7">
-        <v>100</v>
-      </c>
+        <v>41579</v>
+      </c>
+      <c r="B423" s="7"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -54359,7 +54676,9 @@
       <c r="G423" s="7"/>
       <c r="H423" s="7"/>
       <c r="I423" s="7"/>
-      <c r="J423" s="7"/>
+      <c r="J423" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K423" s="7"/>
       <c r="L423" s="7"/>
       <c r="M423" s="7"/>
@@ -54367,18 +54686,16 @@
       <c r="O423" s="7"/>
       <c r="P423" s="7"/>
       <c r="Q423" s="7"/>
-      <c r="R423" s="7">
-        <v>150</v>
-      </c>
+      <c r="R423" s="7"/>
       <c r="S423" s="7"/>
       <c r="T423" s="7"/>
       <c r="U423" s="7">
-        <v>250</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="424" spans="1:21">
       <c r="A424" s="12">
-        <v>41597</v>
+        <v>41590</v>
       </c>
       <c r="B424" s="7">
         <v>100</v>
@@ -54398,19 +54715,21 @@
       <c r="O424" s="7"/>
       <c r="P424" s="7"/>
       <c r="Q424" s="7"/>
-      <c r="R424" s="7"/>
+      <c r="R424" s="7">
+        <v>150</v>
+      </c>
       <c r="S424" s="7"/>
       <c r="T424" s="7"/>
       <c r="U424" s="7">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="425" spans="1:21">
       <c r="A425" s="12">
-        <v>41599</v>
+        <v>41597</v>
       </c>
       <c r="B425" s="7">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
@@ -54431,14 +54750,16 @@
       <c r="S425" s="7"/>
       <c r="T425" s="7"/>
       <c r="U425" s="7">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="426" spans="1:21">
       <c r="A426" s="12">
-        <v>41600</v>
-      </c>
-      <c r="B426" s="7"/>
+        <v>41599</v>
+      </c>
+      <c r="B426" s="7">
+        <v>7</v>
+      </c>
       <c r="C426" s="7"/>
       <c r="D426" s="7"/>
       <c r="E426" s="7"/>
@@ -54446,36 +54767,26 @@
       <c r="G426" s="7"/>
       <c r="H426" s="7"/>
       <c r="I426" s="7"/>
-      <c r="J426" s="7">
-        <v>200</v>
-      </c>
+      <c r="J426" s="7"/>
       <c r="K426" s="7"/>
-      <c r="L426" s="7">
-        <v>200</v>
-      </c>
+      <c r="L426" s="7"/>
       <c r="M426" s="7"/>
-      <c r="N426" s="7">
-        <v>100</v>
-      </c>
+      <c r="N426" s="7"/>
       <c r="O426" s="7"/>
-      <c r="P426" s="7">
-        <v>150</v>
-      </c>
+      <c r="P426" s="7"/>
       <c r="Q426" s="7"/>
       <c r="R426" s="7"/>
       <c r="S426" s="7"/>
       <c r="T426" s="7"/>
       <c r="U426" s="7">
-        <v>650</v>
+        <v>7</v>
       </c>
     </row>
     <row r="427" spans="1:21">
       <c r="A427" s="12">
-        <v>41603</v>
-      </c>
-      <c r="B427" s="7">
-        <v>100</v>
-      </c>
+        <v>41600</v>
+      </c>
+      <c r="B427" s="7"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -54483,26 +54794,36 @@
       <c r="G427" s="7"/>
       <c r="H427" s="7"/>
       <c r="I427" s="7"/>
-      <c r="J427" s="7"/>
+      <c r="J427" s="7">
+        <v>200</v>
+      </c>
       <c r="K427" s="7"/>
-      <c r="L427" s="7"/>
+      <c r="L427" s="7">
+        <v>200</v>
+      </c>
       <c r="M427" s="7"/>
-      <c r="N427" s="7"/>
+      <c r="N427" s="7">
+        <v>100</v>
+      </c>
       <c r="O427" s="7"/>
-      <c r="P427" s="7"/>
+      <c r="P427" s="7">
+        <v>150</v>
+      </c>
       <c r="Q427" s="7"/>
       <c r="R427" s="7"/>
       <c r="S427" s="7"/>
       <c r="T427" s="7"/>
       <c r="U427" s="7">
-        <v>100</v>
+        <v>650</v>
       </c>
     </row>
     <row r="428" spans="1:21">
       <c r="A428" s="12">
-        <v>41605</v>
-      </c>
-      <c r="B428" s="7"/>
+        <v>41603</v>
+      </c>
+      <c r="B428" s="7">
+        <v>100</v>
+      </c>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -54517,19 +54838,17 @@
       <c r="N428" s="7"/>
       <c r="O428" s="7"/>
       <c r="P428" s="7"/>
-      <c r="Q428" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q428" s="7"/>
       <c r="R428" s="7"/>
       <c r="S428" s="7"/>
       <c r="T428" s="7"/>
       <c r="U428" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="429" spans="1:21">
       <c r="A429" s="12">
-        <v>41610</v>
+        <v>41605</v>
       </c>
       <c r="B429" s="7"/>
       <c r="C429" s="7"/>
@@ -54544,21 +54863,21 @@
       <c r="L429" s="7"/>
       <c r="M429" s="7"/>
       <c r="N429" s="7"/>
-      <c r="O429" s="7">
-        <v>100</v>
-      </c>
+      <c r="O429" s="7"/>
       <c r="P429" s="7"/>
-      <c r="Q429" s="7"/>
+      <c r="Q429" s="7">
+        <v>200</v>
+      </c>
       <c r="R429" s="7"/>
       <c r="S429" s="7"/>
       <c r="T429" s="7"/>
       <c r="U429" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="430" spans="1:21">
       <c r="A430" s="12">
-        <v>41611</v>
+        <v>41610</v>
       </c>
       <c r="B430" s="7"/>
       <c r="C430" s="7"/>
@@ -54572,22 +54891,22 @@
       <c r="K430" s="7"/>
       <c r="L430" s="7"/>
       <c r="M430" s="7"/>
-      <c r="N430" s="7">
-        <v>150</v>
-      </c>
-      <c r="O430" s="7"/>
+      <c r="N430" s="7"/>
+      <c r="O430" s="7">
+        <v>100</v>
+      </c>
       <c r="P430" s="7"/>
       <c r="Q430" s="7"/>
       <c r="R430" s="7"/>
       <c r="S430" s="7"/>
       <c r="T430" s="7"/>
       <c r="U430" s="7">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="431" spans="1:21">
       <c r="A431" s="12">
-        <v>41614</v>
+        <v>41611</v>
       </c>
       <c r="B431" s="7"/>
       <c r="C431" s="7"/>
@@ -54599,87 +54918,116 @@
       <c r="I431" s="7"/>
       <c r="J431" s="7"/>
       <c r="K431" s="7"/>
-      <c r="L431" s="7">
-        <v>50</v>
-      </c>
+      <c r="L431" s="7"/>
       <c r="M431" s="7"/>
-      <c r="N431" s="7"/>
+      <c r="N431" s="7">
+        <v>150</v>
+      </c>
       <c r="O431" s="7"/>
       <c r="P431" s="7"/>
       <c r="Q431" s="7"/>
-      <c r="R431" s="7">
+      <c r="R431" s="7"/>
+      <c r="S431" s="7"/>
+      <c r="T431" s="7"/>
+      <c r="U431" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="432" spans="1:21">
+      <c r="A432" s="12">
+        <v>41614</v>
+      </c>
+      <c r="B432" s="7"/>
+      <c r="C432" s="7"/>
+      <c r="D432" s="7"/>
+      <c r="E432" s="7"/>
+      <c r="F432" s="7"/>
+      <c r="G432" s="7"/>
+      <c r="H432" s="7"/>
+      <c r="I432" s="7"/>
+      <c r="J432" s="7"/>
+      <c r="K432" s="7"/>
+      <c r="L432" s="7">
+        <v>50</v>
+      </c>
+      <c r="M432" s="7"/>
+      <c r="N432" s="7"/>
+      <c r="O432" s="7"/>
+      <c r="P432" s="7"/>
+      <c r="Q432" s="7"/>
+      <c r="R432" s="7">
         <v>200</v>
       </c>
-      <c r="S431" s="7"/>
-      <c r="T431" s="7">
+      <c r="S432" s="7"/>
+      <c r="T432" s="7">
         <v>100</v>
       </c>
-      <c r="U431" s="7">
+      <c r="U432" s="7">
         <v>350</v>
       </c>
     </row>
-    <row r="432" spans="1:21">
-      <c r="A432" s="6" t="s">
+    <row r="433" spans="1:21">
+      <c r="A433" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B432" s="7">
+      <c r="B433" s="7">
         <v>-116.29999999999995</v>
       </c>
-      <c r="C432" s="7">
+      <c r="C433" s="7">
         <v>56</v>
       </c>
-      <c r="D432" s="7">
+      <c r="D433" s="7">
         <v>15.899999999999977</v>
       </c>
-      <c r="E432" s="7">
+      <c r="E433" s="7">
         <v>14</v>
       </c>
-      <c r="F432" s="7">
+      <c r="F433" s="7">
         <v>-8</v>
       </c>
-      <c r="G432" s="7">
+      <c r="G433" s="7">
         <v>-13.699999999999591</v>
       </c>
-      <c r="H432" s="7">
+      <c r="H433" s="7">
         <v>-34.099999999999909</v>
       </c>
-      <c r="I432" s="7">
+      <c r="I433" s="7">
         <v>8.9999999999995453</v>
       </c>
-      <c r="J432" s="7">
+      <c r="J433" s="7">
         <v>28.199999999997999</v>
       </c>
-      <c r="K432" s="7">
+      <c r="K433" s="7">
         <v>9.3000000000000114</v>
       </c>
-      <c r="L432" s="7">
+      <c r="L433" s="7">
         <v>-45.299999999999045</v>
       </c>
-      <c r="M432" s="7">
+      <c r="M433" s="7">
         <v>43.400000000000006</v>
       </c>
-      <c r="N432" s="7">
+      <c r="N433" s="7">
         <v>-33.699999999998909</v>
       </c>
-      <c r="O432" s="7">
+      <c r="O433" s="7">
         <v>-69.499999999998408</v>
       </c>
-      <c r="P432" s="7">
+      <c r="P433" s="7">
         <v>14.499999999999886</v>
       </c>
-      <c r="Q432" s="7">
+      <c r="Q433" s="7">
         <v>-116.39999999999941</v>
       </c>
-      <c r="R432" s="7">
+      <c r="R433" s="7">
         <v>32.900000000000546</v>
       </c>
-      <c r="S432" s="7">
+      <c r="S433" s="7">
         <v>39.400000000000006</v>
       </c>
-      <c r="T432" s="7">
+      <c r="T433" s="7">
         <v>26.800000000000011</v>
       </c>
-      <c r="U432" s="7">
+      <c r="U433" s="7">
         <v>-147.59999999998945</v>
       </c>
     </row>
@@ -54693,7 +55041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -54821,13 +55169,13 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3154.2000000000012</v>
+        <v>-3154.2000000000016</v>
       </c>
       <c r="K3" s="7">
         <v>-220.7</v>
       </c>
       <c r="L3" s="7">
-        <v>-1495.299999999999</v>
+        <v>-1495.2999999999993</v>
       </c>
       <c r="M3" s="7">
         <v>-176.6</v>
@@ -54842,7 +55190,7 @@
         <v>-928.5</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1316.3999999999996</v>
+        <v>-1316.3999999999994</v>
       </c>
       <c r="R3" s="7">
         <v>-1117.0999999999995</v>
@@ -54951,13 +55299,13 @@
         <v>8.9999999999995453</v>
       </c>
       <c r="J5" s="8">
-        <v>28.199999999998909</v>
+        <v>28.199999999998454</v>
       </c>
       <c r="K5" s="8">
         <v>9.3000000000000114</v>
       </c>
       <c r="L5" s="8">
-        <v>-45.299999999999045</v>
+        <v>-45.299999999999272</v>
       </c>
       <c r="M5" s="8">
         <v>43.400000000000006</v>
@@ -54972,7 +55320,7 @@
         <v>14.5</v>
       </c>
       <c r="Q5" s="8">
-        <v>-116.39999999999964</v>
+        <v>-116.39999999999941</v>
       </c>
       <c r="R5" s="8">
         <v>32.900000000000546</v>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4327" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4345" uniqueCount="569">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2464,25 +2464,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2493,6 +2484,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14838,11 +14838,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1609"/>
+  <dimension ref="A1:V1619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1589" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1606" sqref="B1606"/>
+      <pane ySplit="1" topLeftCell="A1598" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1609" sqref="D1609:D1618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14987,7 +14987,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -15007,7 +15007,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -15025,7 +15025,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -15043,7 +15043,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -15061,7 +15061,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -15079,7 +15079,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -15097,7 +15097,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -15907,7 +15907,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="23" t="s">
         <v>65</v>
       </c>
     </row>
@@ -15927,7 +15927,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="28"/>
+      <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -15945,7 +15945,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="28"/>
+      <c r="F61" s="24"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -16763,7 +16763,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="29"/>
+      <c r="F109" s="26"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -16781,7 +16781,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="30"/>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -16799,7 +16799,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="31"/>
+      <c r="F111" s="28"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -16936,7 +16936,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -16956,7 +16956,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="31"/>
+      <c r="F120" s="28"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -17853,7 +17853,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="29" t="s">
+      <c r="F172" s="26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -17873,7 +17873,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="30"/>
+      <c r="F173" s="27"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -17891,7 +17891,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="30"/>
+      <c r="F174" s="27"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -17909,7 +17909,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="31"/>
+      <c r="F175" s="28"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -19927,7 +19927,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="22" t="s">
+      <c r="F288" s="29" t="s">
         <v>202</v>
       </c>
     </row>
@@ -19947,7 +19947,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="26"/>
+      <c r="F289" s="31"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -19965,7 +19965,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="23"/>
+      <c r="F290" s="30"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -19983,7 +19983,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="22" t="s">
+      <c r="F291" s="29" t="s">
         <v>212</v>
       </c>
     </row>
@@ -20003,7 +20003,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="26"/>
+      <c r="F292" s="31"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -20021,7 +20021,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="26"/>
+      <c r="F293" s="31"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -20039,7 +20039,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="23"/>
+      <c r="F294" s="30"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -20057,7 +20057,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="22" t="s">
+      <c r="F295" s="29" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20077,7 +20077,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="23"/>
+      <c r="F296" s="30"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -20095,7 +20095,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="24" t="s">
+      <c r="F297" s="23" t="s">
         <v>207</v>
       </c>
     </row>
@@ -20972,7 +20972,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="22" t="s">
+      <c r="F342" s="29" t="s">
         <v>284</v>
       </c>
     </row>
@@ -20992,7 +20992,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="23"/>
+      <c r="F343" s="30"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -40505,18 +40505,120 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1610" spans="1:4">
+      <c r="A1610" s="4">
+        <v>41621</v>
+      </c>
+      <c r="B1610" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1610" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:4">
+      <c r="A1611" s="4">
+        <v>41621</v>
+      </c>
+      <c r="B1611" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1611" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:4">
+      <c r="A1612" s="4">
+        <v>41621</v>
+      </c>
+      <c r="B1612" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1612" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:4">
+      <c r="A1613" s="4">
+        <v>41621</v>
+      </c>
+      <c r="B1613" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1613" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:4">
+      <c r="A1614" s="4">
+        <v>41621</v>
+      </c>
+      <c r="B1614" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1614" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:4">
+      <c r="A1615" s="4">
+        <v>41621</v>
+      </c>
+      <c r="B1615" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1615" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:4">
+      <c r="A1616" s="4">
+        <v>41621</v>
+      </c>
+      <c r="B1616" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1616" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:4">
+      <c r="A1617" s="4">
+        <v>41621</v>
+      </c>
+      <c r="B1617" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1617" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:4">
+      <c r="A1618" s="4">
+        <v>41621</v>
+      </c>
+      <c r="B1618" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1618" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:4">
+      <c r="A1619" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F342:F343"/>
+    <mergeCell ref="F295:F296"/>
+    <mergeCell ref="F297:F298"/>
+    <mergeCell ref="F291:F294"/>
+    <mergeCell ref="F288:F290"/>
     <mergeCell ref="F6:F12"/>
     <mergeCell ref="F59:F62"/>
     <mergeCell ref="F109:F111"/>
     <mergeCell ref="F119:F120"/>
     <mergeCell ref="F172:F175"/>
-    <mergeCell ref="F342:F343"/>
-    <mergeCell ref="F295:F296"/>
-    <mergeCell ref="F297:F298"/>
-    <mergeCell ref="F291:F294"/>
-    <mergeCell ref="F288:F290"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="消费记录明细" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4363" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4367" uniqueCount="569">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2464,16 +2464,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2485,20 +2494,129 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="25">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2618,7 +2736,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41622.567710995369" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1628">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41622.61090266204" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1630">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="消费记录明细"/>
   </cacheSource>
@@ -2956,9 +3074,9 @@
         <d v="2013-12-14T00:00:00"/>
         <m/>
         <d v="2011-01-12T00:00:00" u="1"/>
+        <d v="2013-05-14T00:00:00" u="1"/>
+        <d v="2011-11-06T00:00:00" u="1"/>
         <d v="2011-01-17T00:00:00" u="1"/>
-        <d v="2011-11-06T00:00:00" u="1"/>
-        <d v="2013-05-14T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="消费者" numFmtId="0">
@@ -3012,7 +3130,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1628">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1630">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -12514,259 +12632,259 @@
   <r>
     <x v="324"/>
     <x v="13"/>
-    <m/>
+    <n v="-15.1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="324"/>
     <x v="20"/>
-    <m/>
+    <n v="-15.1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="324"/>
     <x v="12"/>
-    <m/>
+    <n v="-15.1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="324"/>
     <x v="19"/>
-    <m/>
+    <n v="-15.1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="324"/>
     <x v="15"/>
-    <m/>
+    <n v="-15.1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="324"/>
     <x v="10"/>
-    <m/>
+    <n v="-15.1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="324"/>
     <x v="24"/>
-    <m/>
+    <n v="-15.1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="324"/>
     <x v="8"/>
-    <m/>
+    <n v="-15.1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="325"/>
     <x v="13"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="325"/>
     <x v="20"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="325"/>
     <x v="12"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="325"/>
     <x v="17"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="325"/>
     <x v="15"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="325"/>
     <x v="10"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="325"/>
     <x v="24"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="325"/>
     <x v="8"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="326"/>
     <x v="13"/>
-    <m/>
+    <n v="-13.4"/>
     <x v="0"/>
   </r>
   <r>
     <x v="326"/>
     <x v="20"/>
-    <m/>
+    <n v="-13.4"/>
     <x v="0"/>
   </r>
   <r>
     <x v="326"/>
     <x v="12"/>
-    <m/>
+    <n v="-13.4"/>
     <x v="0"/>
   </r>
   <r>
     <x v="326"/>
     <x v="17"/>
-    <m/>
+    <n v="-13.4"/>
     <x v="0"/>
   </r>
   <r>
     <x v="326"/>
     <x v="15"/>
-    <m/>
+    <n v="-13.4"/>
     <x v="0"/>
   </r>
   <r>
     <x v="326"/>
     <x v="10"/>
-    <m/>
+    <n v="-13.4"/>
     <x v="0"/>
   </r>
   <r>
     <x v="326"/>
     <x v="24"/>
-    <m/>
+    <n v="-13.4"/>
     <x v="0"/>
   </r>
   <r>
     <x v="326"/>
     <x v="8"/>
-    <m/>
+    <n v="-13.4"/>
     <x v="0"/>
   </r>
   <r>
     <x v="326"/>
     <x v="19"/>
-    <m/>
+    <n v="-13.4"/>
     <x v="0"/>
   </r>
   <r>
     <x v="327"/>
     <x v="13"/>
-    <m/>
+    <n v="-12"/>
     <x v="0"/>
   </r>
   <r>
     <x v="327"/>
     <x v="20"/>
-    <m/>
+    <n v="-12"/>
     <x v="0"/>
   </r>
   <r>
     <x v="327"/>
     <x v="12"/>
-    <m/>
+    <n v="-12"/>
     <x v="0"/>
   </r>
   <r>
     <x v="327"/>
     <x v="17"/>
-    <m/>
+    <n v="-12"/>
     <x v="0"/>
   </r>
   <r>
     <x v="327"/>
     <x v="15"/>
-    <m/>
+    <n v="-12"/>
     <x v="0"/>
   </r>
   <r>
     <x v="327"/>
     <x v="10"/>
-    <m/>
+    <n v="-12"/>
     <x v="0"/>
   </r>
   <r>
     <x v="327"/>
     <x v="24"/>
-    <m/>
+    <n v="-12"/>
     <x v="0"/>
   </r>
   <r>
     <x v="327"/>
     <x v="22"/>
-    <m/>
+    <n v="-12"/>
     <x v="0"/>
   </r>
   <r>
     <x v="327"/>
     <x v="19"/>
-    <m/>
+    <n v="-12"/>
     <x v="0"/>
   </r>
   <r>
     <x v="328"/>
     <x v="13"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="328"/>
     <x v="20"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="328"/>
     <x v="12"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="328"/>
     <x v="17"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="328"/>
     <x v="15"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="328"/>
     <x v="10"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="328"/>
     <x v="24"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="328"/>
     <x v="22"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="328"/>
     <x v="19"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
@@ -12776,6 +12894,18 @@
     <x v="1"/>
   </r>
   <r>
+    <x v="328"/>
+    <x v="20"/>
+    <n v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="328"/>
+    <x v="17"/>
+    <n v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="329"/>
     <x v="25"/>
     <m/>
@@ -12785,13 +12915,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T436" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="335">
         <item m="1" x="330"/>
-        <item m="1" x="331"/>
+        <item m="1" x="333"/>
         <item x="0"/>
         <item x="1"/>
         <item m="1" x="332"/>
@@ -12994,7 +13124,7 @@
         <item x="198"/>
         <item x="199"/>
         <item x="200"/>
-        <item m="1" x="333"/>
+        <item m="1" x="331"/>
         <item x="201"/>
         <item x="202"/>
         <item x="203"/>
@@ -14543,20 +14673,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="7">
+    <format dxfId="20">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="19">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14570,7 +14700,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -14696,20 +14826,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="3">
+    <format dxfId="16">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="15">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15009,11 +15139,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1628"/>
+  <dimension ref="A1:V1630"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1604" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1628" sqref="D1628"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1610" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1619" sqref="C1619:C1627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15158,7 +15288,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -15178,7 +15308,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -15196,7 +15326,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -15214,7 +15344,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -15232,7 +15362,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -15250,7 +15380,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -15268,7 +15398,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -16078,7 +16208,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -16098,7 +16228,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="24"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -16116,7 +16246,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -16934,7 +17064,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="26"/>
+      <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -16952,7 +17082,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="27"/>
+      <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -16970,7 +17100,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="28"/>
+      <c r="F111" s="31"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -17107,7 +17237,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="26" t="s">
+      <c r="F119" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -17127,7 +17257,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="28"/>
+      <c r="F120" s="31"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -18024,7 +18154,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="26" t="s">
+      <c r="F172" s="29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18044,7 +18174,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="27"/>
+      <c r="F173" s="30"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -18062,7 +18192,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="27"/>
+      <c r="F174" s="30"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -18080,7 +18210,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="28"/>
+      <c r="F175" s="31"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -20098,7 +20228,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="29" t="s">
+      <c r="F288" s="22" t="s">
         <v>202</v>
       </c>
     </row>
@@ -20118,7 +20248,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="31"/>
+      <c r="F289" s="26"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -20136,7 +20266,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="30"/>
+      <c r="F290" s="23"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -20154,7 +20284,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="29" t="s">
+      <c r="F291" s="22" t="s">
         <v>212</v>
       </c>
     </row>
@@ -20174,7 +20304,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="31"/>
+      <c r="F292" s="26"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -20192,7 +20322,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="31"/>
+      <c r="F293" s="26"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -20210,7 +20340,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="30"/>
+      <c r="F294" s="23"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -20228,7 +20358,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="29" t="s">
+      <c r="F295" s="22" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20248,7 +20378,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="30"/>
+      <c r="F296" s="23"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -20266,7 +20396,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="23" t="s">
+      <c r="F297" s="24" t="s">
         <v>207</v>
       </c>
     </row>
@@ -21143,7 +21273,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="29" t="s">
+      <c r="F342" s="22" t="s">
         <v>284</v>
       </c>
     </row>
@@ -21163,7 +21293,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="30"/>
+      <c r="F343" s="23"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -40405,6 +40535,9 @@
       <c r="B1585" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1585" s="1">
+        <v>-15.1</v>
+      </c>
       <c r="D1585" s="9" t="s">
         <v>7</v>
       </c>
@@ -40419,6 +40552,9 @@
       <c r="B1586" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1586" s="1">
+        <v>-15.1</v>
+      </c>
       <c r="D1586" s="9" t="s">
         <v>7</v>
       </c>
@@ -40430,6 +40566,9 @@
       <c r="B1587" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C1587" s="1">
+        <v>-15.1</v>
+      </c>
       <c r="D1587" s="9" t="s">
         <v>7</v>
       </c>
@@ -40441,6 +40580,9 @@
       <c r="B1588" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1588" s="1">
+        <v>-15.1</v>
+      </c>
       <c r="D1588" s="9" t="s">
         <v>7</v>
       </c>
@@ -40452,6 +40594,9 @@
       <c r="B1589" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1589" s="1">
+        <v>-15.1</v>
+      </c>
       <c r="D1589" s="9" t="s">
         <v>7</v>
       </c>
@@ -40463,6 +40608,9 @@
       <c r="B1590" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C1590" s="1">
+        <v>-15.1</v>
+      </c>
       <c r="D1590" s="9" t="s">
         <v>7</v>
       </c>
@@ -40474,6 +40622,9 @@
       <c r="B1591" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="C1591" s="1">
+        <v>-15.1</v>
+      </c>
       <c r="D1591" s="9" t="s">
         <v>7</v>
       </c>
@@ -40485,6 +40636,9 @@
       <c r="B1592" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C1592" s="1">
+        <v>-15.1</v>
+      </c>
       <c r="D1592" s="9" t="s">
         <v>7</v>
       </c>
@@ -40496,6 +40650,9 @@
       <c r="B1593" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1593" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1593" s="9" t="s">
         <v>7</v>
       </c>
@@ -40507,6 +40664,9 @@
       <c r="B1594" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1594" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1594" s="9" t="s">
         <v>7</v>
       </c>
@@ -40518,6 +40678,9 @@
       <c r="B1595" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C1595" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1595" s="9" t="s">
         <v>7</v>
       </c>
@@ -40529,6 +40692,9 @@
       <c r="B1596" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="C1596" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1596" s="9" t="s">
         <v>7</v>
       </c>
@@ -40540,6 +40706,9 @@
       <c r="B1597" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1597" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1597" s="9" t="s">
         <v>7</v>
       </c>
@@ -40551,6 +40720,9 @@
       <c r="B1598" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C1598" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1598" s="9" t="s">
         <v>7</v>
       </c>
@@ -40562,6 +40734,9 @@
       <c r="B1599" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="C1599" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1599" s="9" t="s">
         <v>7</v>
       </c>
@@ -40573,6 +40748,9 @@
       <c r="B1600" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C1600" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1600" s="9" t="s">
         <v>7</v>
       </c>
@@ -40584,6 +40762,9 @@
       <c r="B1601" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1601" s="1">
+        <v>-13.4</v>
+      </c>
       <c r="D1601" s="9" t="s">
         <v>7</v>
       </c>
@@ -40595,6 +40776,9 @@
       <c r="B1602" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1602" s="1">
+        <v>-13.4</v>
+      </c>
       <c r="D1602" s="9" t="s">
         <v>7</v>
       </c>
@@ -40606,6 +40790,9 @@
       <c r="B1603" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C1603" s="1">
+        <v>-13.4</v>
+      </c>
       <c r="D1603" s="9" t="s">
         <v>7</v>
       </c>
@@ -40617,6 +40804,9 @@
       <c r="B1604" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="C1604" s="1">
+        <v>-13.4</v>
+      </c>
       <c r="D1604" s="9" t="s">
         <v>7</v>
       </c>
@@ -40628,6 +40818,9 @@
       <c r="B1605" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1605" s="1">
+        <v>-13.4</v>
+      </c>
       <c r="D1605" s="9" t="s">
         <v>7</v>
       </c>
@@ -40639,6 +40832,9 @@
       <c r="B1606" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C1606" s="1">
+        <v>-13.4</v>
+      </c>
       <c r="D1606" s="9" t="s">
         <v>7</v>
       </c>
@@ -40650,6 +40846,9 @@
       <c r="B1607" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="C1607" s="1">
+        <v>-13.4</v>
+      </c>
       <c r="D1607" s="9" t="s">
         <v>7</v>
       </c>
@@ -40661,6 +40860,9 @@
       <c r="B1608" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C1608" s="1">
+        <v>-13.4</v>
+      </c>
       <c r="D1608" s="9" t="s">
         <v>7</v>
       </c>
@@ -40672,6 +40874,9 @@
       <c r="B1609" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1609" s="1">
+        <v>-13.4</v>
+      </c>
       <c r="D1609" s="9" t="s">
         <v>7</v>
       </c>
@@ -40683,6 +40888,9 @@
       <c r="B1610" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1610" s="1">
+        <v>-12</v>
+      </c>
       <c r="D1610" s="9" t="s">
         <v>7</v>
       </c>
@@ -40694,6 +40902,9 @@
       <c r="B1611" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1611" s="1">
+        <v>-12</v>
+      </c>
       <c r="D1611" s="9" t="s">
         <v>7</v>
       </c>
@@ -40705,6 +40916,9 @@
       <c r="B1612" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C1612" s="1">
+        <v>-12</v>
+      </c>
       <c r="D1612" s="9" t="s">
         <v>7</v>
       </c>
@@ -40716,6 +40930,9 @@
       <c r="B1613" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="C1613" s="1">
+        <v>-12</v>
+      </c>
       <c r="D1613" s="9" t="s">
         <v>7</v>
       </c>
@@ -40727,6 +40944,9 @@
       <c r="B1614" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1614" s="1">
+        <v>-12</v>
+      </c>
       <c r="D1614" s="9" t="s">
         <v>7</v>
       </c>
@@ -40738,6 +40958,9 @@
       <c r="B1615" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C1615" s="1">
+        <v>-12</v>
+      </c>
       <c r="D1615" s="9" t="s">
         <v>7</v>
       </c>
@@ -40749,6 +40972,9 @@
       <c r="B1616" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="C1616" s="1">
+        <v>-12</v>
+      </c>
       <c r="D1616" s="9" t="s">
         <v>7</v>
       </c>
@@ -40760,6 +40986,9 @@
       <c r="B1617" s="1" t="s">
         <v>480</v>
       </c>
+      <c r="C1617" s="1">
+        <v>-12</v>
+      </c>
       <c r="D1617" s="9" t="s">
         <v>7</v>
       </c>
@@ -40771,6 +41000,9 @@
       <c r="B1618" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1618" s="1">
+        <v>-12</v>
+      </c>
       <c r="D1618" s="9" t="s">
         <v>7</v>
       </c>
@@ -40782,6 +41014,9 @@
       <c r="B1619" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1619" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1619" s="9" t="s">
         <v>7</v>
       </c>
@@ -40793,6 +41028,9 @@
       <c r="B1620" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1620" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1620" s="9" t="s">
         <v>7</v>
       </c>
@@ -40804,6 +41042,9 @@
       <c r="B1621" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C1621" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1621" s="9" t="s">
         <v>7</v>
       </c>
@@ -40815,6 +41056,9 @@
       <c r="B1622" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="C1622" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1622" s="9" t="s">
         <v>7</v>
       </c>
@@ -40826,6 +41070,9 @@
       <c r="B1623" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1623" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1623" s="9" t="s">
         <v>7</v>
       </c>
@@ -40837,6 +41084,9 @@
       <c r="B1624" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C1624" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1624" s="9" t="s">
         <v>7</v>
       </c>
@@ -40848,6 +41098,9 @@
       <c r="B1625" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="C1625" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1625" s="9" t="s">
         <v>7</v>
       </c>
@@ -40859,6 +41112,9 @@
       <c r="B1626" s="1" t="s">
         <v>480</v>
       </c>
+      <c r="C1626" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1626" s="9" t="s">
         <v>7</v>
       </c>
@@ -40870,6 +41126,9 @@
       <c r="B1627" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1627" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1627" s="9" t="s">
         <v>7</v>
       </c>
@@ -40888,37 +41147,65 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1629" spans="1:4">
+      <c r="A1629" s="4">
+        <v>41622</v>
+      </c>
+      <c r="B1629" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1629" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1629" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:4">
+      <c r="A1630" s="4">
+        <v>41622</v>
+      </c>
+      <c r="B1630" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1630" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1630" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F172:F175"/>
     <mergeCell ref="F342:F343"/>
     <mergeCell ref="F295:F296"/>
     <mergeCell ref="F297:F298"/>
     <mergeCell ref="F291:F294"/>
     <mergeCell ref="F288:F290"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F172:F175"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40961,7 +41248,7 @@
     <col min="15" max="15" width="8.5" customWidth="1"/>
     <col min="16" max="17" width="9.625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5" customWidth="1"/>
-    <col min="19" max="19" width="7.375" customWidth="1"/>
+    <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.75" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -41061,7 +41348,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="7">
-        <v>-866.8</v>
+        <v>-909.09999999999991</v>
       </c>
       <c r="C3" s="7">
         <v>-31</v>
@@ -41085,37 +41372,37 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3154.2000000000021</v>
+        <v>-3222.3000000000025</v>
       </c>
       <c r="K3" s="7">
-        <v>-1495.299999999999</v>
+        <v>-1563.399999999999</v>
       </c>
       <c r="L3" s="7">
         <v>-176.6</v>
       </c>
       <c r="M3" s="7">
-        <v>-1503.6999999999989</v>
+        <v>-1571.7999999999988</v>
       </c>
       <c r="N3" s="7">
-        <v>-1748.4999999999984</v>
+        <v>-1816.5999999999983</v>
       </c>
       <c r="O3" s="7">
-        <v>-928.50000000000011</v>
+        <v>-981.5</v>
       </c>
       <c r="P3" s="7">
-        <v>-1316.3999999999994</v>
+        <v>-1370.6999999999994</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1117.0999999999995</v>
+        <v>-1185.1999999999994</v>
       </c>
       <c r="R3" s="7">
-        <v>-210.6</v>
+        <v>-236.4</v>
       </c>
       <c r="S3" s="7">
-        <v>-73.199999999999989</v>
+        <v>-141.29999999999998</v>
       </c>
       <c r="T3" s="7">
-        <v>-18275.299999999988</v>
+        <v>-18859.299999999988</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -51176,7 +51463,9 @@
       <c r="A305" s="12">
         <v>41617</v>
       </c>
-      <c r="B305" s="7"/>
+      <c r="B305" s="7">
+        <v>-15.1</v>
+      </c>
       <c r="C305" s="7"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -51184,23 +51473,41 @@
       <c r="G305" s="7"/>
       <c r="H305" s="7"/>
       <c r="I305" s="7"/>
-      <c r="J305" s="7"/>
-      <c r="K305" s="7"/>
+      <c r="J305" s="7">
+        <v>-15.1</v>
+      </c>
+      <c r="K305" s="7">
+        <v>-15.1</v>
+      </c>
       <c r="L305" s="7"/>
-      <c r="M305" s="7"/>
-      <c r="N305" s="7"/>
+      <c r="M305" s="7">
+        <v>-15.1</v>
+      </c>
+      <c r="N305" s="7">
+        <v>-15.1</v>
+      </c>
       <c r="O305" s="7"/>
-      <c r="P305" s="7"/>
-      <c r="Q305" s="7"/>
+      <c r="P305" s="7">
+        <v>-15.1</v>
+      </c>
+      <c r="Q305" s="7">
+        <v>-15.1</v>
+      </c>
       <c r="R305" s="7"/>
-      <c r="S305" s="7"/>
-      <c r="T305" s="7"/>
+      <c r="S305" s="7">
+        <v>-15.1</v>
+      </c>
+      <c r="T305" s="7">
+        <v>-120.79999999999998</v>
+      </c>
     </row>
     <row r="306" spans="1:20">
       <c r="A306" s="12">
         <v>41618</v>
       </c>
-      <c r="B306" s="7"/>
+      <c r="B306" s="7">
+        <v>-13.8</v>
+      </c>
       <c r="C306" s="7"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
@@ -51208,23 +51515,41 @@
       <c r="G306" s="7"/>
       <c r="H306" s="7"/>
       <c r="I306" s="7"/>
-      <c r="J306" s="7"/>
-      <c r="K306" s="7"/>
+      <c r="J306" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="K306" s="7">
+        <v>-13.8</v>
+      </c>
       <c r="L306" s="7"/>
-      <c r="M306" s="7"/>
-      <c r="N306" s="7"/>
-      <c r="O306" s="7"/>
+      <c r="M306" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="N306" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="O306" s="7">
+        <v>-13.8</v>
+      </c>
       <c r="P306" s="7"/>
-      <c r="Q306" s="7"/>
+      <c r="Q306" s="7">
+        <v>-13.8</v>
+      </c>
       <c r="R306" s="7"/>
-      <c r="S306" s="7"/>
-      <c r="T306" s="7"/>
+      <c r="S306" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="T306" s="7">
+        <v>-110.39999999999999</v>
+      </c>
     </row>
     <row r="307" spans="1:20">
       <c r="A307" s="12">
         <v>41620</v>
       </c>
-      <c r="B307" s="7"/>
+      <c r="B307" s="7">
+        <v>-13.4</v>
+      </c>
       <c r="C307" s="7"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
@@ -51232,17 +51557,35 @@
       <c r="G307" s="7"/>
       <c r="H307" s="7"/>
       <c r="I307" s="7"/>
-      <c r="J307" s="7"/>
-      <c r="K307" s="7"/>
+      <c r="J307" s="7">
+        <v>-13.4</v>
+      </c>
+      <c r="K307" s="7">
+        <v>-13.4</v>
+      </c>
       <c r="L307" s="7"/>
-      <c r="M307" s="7"/>
-      <c r="N307" s="7"/>
-      <c r="O307" s="7"/>
-      <c r="P307" s="7"/>
-      <c r="Q307" s="7"/>
+      <c r="M307" s="7">
+        <v>-13.4</v>
+      </c>
+      <c r="N307" s="7">
+        <v>-13.4</v>
+      </c>
+      <c r="O307" s="7">
+        <v>-13.4</v>
+      </c>
+      <c r="P307" s="7">
+        <v>-13.4</v>
+      </c>
+      <c r="Q307" s="7">
+        <v>-13.4</v>
+      </c>
       <c r="R307" s="7"/>
-      <c r="S307" s="7"/>
-      <c r="T307" s="7"/>
+      <c r="S307" s="7">
+        <v>-13.4</v>
+      </c>
+      <c r="T307" s="7">
+        <v>-120.60000000000002</v>
+      </c>
     </row>
     <row r="308" spans="1:20">
       <c r="A308" s="12">
@@ -51256,17 +51599,37 @@
       <c r="G308" s="7"/>
       <c r="H308" s="7"/>
       <c r="I308" s="7"/>
-      <c r="J308" s="7"/>
-      <c r="K308" s="7"/>
+      <c r="J308" s="7">
+        <v>-12</v>
+      </c>
+      <c r="K308" s="7">
+        <v>-12</v>
+      </c>
       <c r="L308" s="7"/>
-      <c r="M308" s="7"/>
-      <c r="N308" s="7"/>
-      <c r="O308" s="7"/>
-      <c r="P308" s="7"/>
-      <c r="Q308" s="7"/>
-      <c r="R308" s="7"/>
-      <c r="S308" s="7"/>
-      <c r="T308" s="7"/>
+      <c r="M308" s="7">
+        <v>-12</v>
+      </c>
+      <c r="N308" s="7">
+        <v>-12</v>
+      </c>
+      <c r="O308" s="7">
+        <v>-12</v>
+      </c>
+      <c r="P308" s="7">
+        <v>-12</v>
+      </c>
+      <c r="Q308" s="7">
+        <v>-12</v>
+      </c>
+      <c r="R308" s="7">
+        <v>-12</v>
+      </c>
+      <c r="S308" s="7">
+        <v>-12</v>
+      </c>
+      <c r="T308" s="7">
+        <v>-108</v>
+      </c>
     </row>
     <row r="309" spans="1:20">
       <c r="A309" s="12">
@@ -51280,17 +51643,37 @@
       <c r="G309" s="7"/>
       <c r="H309" s="7"/>
       <c r="I309" s="7"/>
-      <c r="J309" s="7"/>
-      <c r="K309" s="7"/>
+      <c r="J309" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="K309" s="7">
+        <v>-13.8</v>
+      </c>
       <c r="L309" s="7"/>
-      <c r="M309" s="7"/>
-      <c r="N309" s="7"/>
-      <c r="O309" s="7"/>
-      <c r="P309" s="7"/>
-      <c r="Q309" s="7"/>
-      <c r="R309" s="7"/>
-      <c r="S309" s="7"/>
-      <c r="T309" s="7"/>
+      <c r="M309" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="N309" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="O309" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="P309" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="Q309" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="R309" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="S309" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="T309" s="7">
+        <v>-124.19999999999999</v>
+      </c>
     </row>
     <row r="310" spans="1:20">
       <c r="A310" s="6" t="s">
@@ -51336,13 +51719,13 @@
         <v>1679</v>
       </c>
       <c r="O310" s="7">
-        <v>943</v>
+        <v>1043</v>
       </c>
       <c r="P310" s="7">
         <v>1500</v>
       </c>
       <c r="Q310" s="7">
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="R310" s="7">
         <v>250</v>
@@ -51351,7 +51734,7 @@
         <v>100</v>
       </c>
       <c r="T310" s="7">
-        <v>18418.400000000001</v>
+        <v>18618.400000000001</v>
       </c>
     </row>
     <row r="311" spans="1:20">
@@ -54943,15 +55326,19 @@
       <c r="L435" s="7"/>
       <c r="M435" s="7"/>
       <c r="N435" s="7"/>
-      <c r="O435" s="7"/>
+      <c r="O435" s="7">
+        <v>100</v>
+      </c>
       <c r="P435" s="7">
         <v>300</v>
       </c>
-      <c r="Q435" s="7"/>
+      <c r="Q435" s="7">
+        <v>100</v>
+      </c>
       <c r="R435" s="7"/>
       <c r="S435" s="7"/>
       <c r="T435" s="7">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="436" spans="1:20">
@@ -54959,7 +55346,7 @@
         <v>15</v>
       </c>
       <c r="B436" s="7">
-        <v>-116.29999999999995</v>
+        <v>-158.59999999999991</v>
       </c>
       <c r="C436" s="7">
         <v>56</v>
@@ -54983,37 +55370,37 @@
         <v>8.9999999999995453</v>
       </c>
       <c r="J436" s="7">
-        <v>28.199999999997999</v>
+        <v>-39.900000000002365</v>
       </c>
       <c r="K436" s="7">
-        <v>-45.299999999999045</v>
+        <v>-113.39999999999895</v>
       </c>
       <c r="L436" s="7">
         <v>43.400000000000006</v>
       </c>
       <c r="M436" s="7">
-        <v>-33.699999999998909</v>
+        <v>-101.79999999999882</v>
       </c>
       <c r="N436" s="7">
-        <v>-69.499999999998408</v>
+        <v>-137.59999999999832</v>
       </c>
       <c r="O436" s="7">
-        <v>14.499999999999886</v>
+        <v>61.5</v>
       </c>
       <c r="P436" s="7">
-        <v>183.60000000000059</v>
+        <v>129.30000000000064</v>
       </c>
       <c r="Q436" s="7">
-        <v>32.900000000000546</v>
+        <v>64.800000000000637</v>
       </c>
       <c r="R436" s="7">
-        <v>39.400000000000006</v>
+        <v>13.599999999999994</v>
       </c>
       <c r="S436" s="7">
-        <v>26.800000000000011</v>
+        <v>-41.299999999999983</v>
       </c>
       <c r="T436" s="7">
-        <v>143.10000000001128</v>
+        <v>-240.89999999998872</v>
       </c>
     </row>
   </sheetData>
@@ -55026,8 +55413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -55046,7 +55433,7 @@
     <col min="15" max="15" width="7.75" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="8.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -55126,7 +55513,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="7">
-        <v>-866.79999999999984</v>
+        <v>-909.09999999999968</v>
       </c>
       <c r="C3" s="7">
         <v>-31</v>
@@ -55150,37 +55537,37 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3154.2000000000021</v>
+        <v>-3222.3000000000015</v>
       </c>
       <c r="K3" s="7">
-        <v>-1495.2999999999993</v>
+        <v>-1563.3999999999992</v>
       </c>
       <c r="L3" s="7">
         <v>-176.6</v>
       </c>
       <c r="M3" s="7">
-        <v>-1503.6999999999991</v>
+        <v>-1571.799999999999</v>
       </c>
       <c r="N3" s="7">
-        <v>-1748.4999999999984</v>
+        <v>-1816.5999999999983</v>
       </c>
       <c r="O3" s="7">
-        <v>-928.5</v>
+        <v>-981.5</v>
       </c>
       <c r="P3" s="7">
-        <v>-1316.3999999999994</v>
+        <v>-1370.6999999999996</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1117.0999999999995</v>
+        <v>-1185.1999999999994</v>
       </c>
       <c r="R3" s="7">
-        <v>-210.6</v>
+        <v>-236.39999999999998</v>
       </c>
       <c r="S3" s="7">
-        <v>-73.199999999999989</v>
+        <v>-141.29999999999998</v>
       </c>
       <c r="T3" s="7">
-        <v>-18275.299999999996</v>
+        <v>-18859.3</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -55227,13 +55614,13 @@
         <v>1679</v>
       </c>
       <c r="O4" s="7">
-        <v>943</v>
+        <v>1043</v>
       </c>
       <c r="P4" s="7">
         <v>1500</v>
       </c>
       <c r="Q4" s="7">
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="R4" s="7">
         <v>250</v>
@@ -55242,7 +55629,7 @@
         <v>100</v>
       </c>
       <c r="T4" s="7">
-        <v>18418.400000000001</v>
+        <v>18618.400000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -55250,7 +55637,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="8">
-        <v>-116.29999999999984</v>
+        <v>-158.59999999999968</v>
       </c>
       <c r="C5" s="8">
         <v>56</v>
@@ -55274,37 +55661,37 @@
         <v>8.9999999999995453</v>
       </c>
       <c r="J5" s="8">
-        <v>28.199999999997999</v>
+        <v>-39.900000000001455</v>
       </c>
       <c r="K5" s="8">
-        <v>-45.299999999999272</v>
+        <v>-113.39999999999918</v>
       </c>
       <c r="L5" s="8">
         <v>43.400000000000006</v>
       </c>
       <c r="M5" s="8">
-        <v>-33.699999999999136</v>
+        <v>-101.79999999999905</v>
       </c>
       <c r="N5" s="8">
-        <v>-69.499999999998408</v>
+        <v>-137.59999999999832</v>
       </c>
       <c r="O5" s="8">
-        <v>14.5</v>
+        <v>61.5</v>
       </c>
       <c r="P5" s="8">
-        <v>183.60000000000059</v>
+        <v>129.30000000000041</v>
       </c>
       <c r="Q5" s="8">
-        <v>32.900000000000546</v>
+        <v>64.800000000000637</v>
       </c>
       <c r="R5" s="8">
-        <v>39.400000000000006</v>
+        <v>13.600000000000023</v>
       </c>
       <c r="S5" s="8">
-        <v>26.800000000000011</v>
+        <v>-41.299999999999983</v>
       </c>
       <c r="T5" s="8">
-        <v>143.10000000000582</v>
+        <v>-240.89999999999782</v>
       </c>
     </row>
   </sheetData>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="20" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4367" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4373" uniqueCount="569">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2464,25 +2464,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2494,11 +2485,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="44">
     <dxf>
       <border>
         <left style="thin">
@@ -2568,54 +2568,208 @@
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2736,7 +2890,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41622.61090266204" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1630">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41622.614351736112" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1633">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="消费记录明细"/>
   </cacheSource>
@@ -3074,9 +3228,9 @@
         <d v="2013-12-14T00:00:00"/>
         <m/>
         <d v="2011-01-12T00:00:00" u="1"/>
+        <d v="2011-01-17T00:00:00" u="1"/>
+        <d v="2011-11-06T00:00:00" u="1"/>
         <d v="2013-05-14T00:00:00" u="1"/>
-        <d v="2011-11-06T00:00:00" u="1"/>
-        <d v="2011-01-17T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="消费者" numFmtId="0">
@@ -3130,7 +3284,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1630">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1633">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -12906,6 +13060,24 @@
     <x v="1"/>
   </r>
   <r>
+    <x v="328"/>
+    <x v="13"/>
+    <n v="200"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="328"/>
+    <x v="24"/>
+    <n v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="328"/>
+    <x v="12"/>
+    <n v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="329"/>
     <x v="25"/>
     <m/>
@@ -12915,13 +13087,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T436" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="335">
         <item m="1" x="330"/>
-        <item m="1" x="333"/>
+        <item m="1" x="331"/>
         <item x="0"/>
         <item x="1"/>
         <item m="1" x="332"/>
@@ -13124,7 +13296,7 @@
         <item x="198"/>
         <item x="199"/>
         <item x="200"/>
-        <item m="1" x="331"/>
+        <item m="1" x="333"/>
         <item x="201"/>
         <item x="202"/>
         <item x="203"/>
@@ -14673,20 +14845,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="20">
+    <format dxfId="39">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="38">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14700,7 +14872,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -14826,20 +14998,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="16">
+    <format dxfId="35">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="34">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15139,11 +15311,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1630"/>
+  <dimension ref="A1:V1633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1610" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1619" sqref="C1619:C1627"/>
+      <selection pane="bottomLeft" activeCell="E1634" sqref="E1634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15288,7 +15460,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -15308,7 +15480,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -15326,7 +15498,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -15344,7 +15516,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -15362,7 +15534,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -15380,7 +15552,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -15398,7 +15570,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -16208,7 +16380,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="23" t="s">
         <v>65</v>
       </c>
     </row>
@@ -16228,7 +16400,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="28"/>
+      <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -16246,7 +16418,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="28"/>
+      <c r="F61" s="24"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -17064,7 +17236,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="29"/>
+      <c r="F109" s="26"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -17082,7 +17254,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="30"/>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -17100,7 +17272,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="31"/>
+      <c r="F111" s="28"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -17237,7 +17409,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -17257,7 +17429,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="31"/>
+      <c r="F120" s="28"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -18154,7 +18326,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="29" t="s">
+      <c r="F172" s="26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18174,7 +18346,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="30"/>
+      <c r="F173" s="27"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -18192,7 +18364,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="30"/>
+      <c r="F174" s="27"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -18210,7 +18382,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="31"/>
+      <c r="F175" s="28"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -20228,7 +20400,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="22" t="s">
+      <c r="F288" s="29" t="s">
         <v>202</v>
       </c>
     </row>
@@ -20248,7 +20420,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="26"/>
+      <c r="F289" s="31"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -20266,7 +20438,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="23"/>
+      <c r="F290" s="30"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -20284,7 +20456,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="22" t="s">
+      <c r="F291" s="29" t="s">
         <v>212</v>
       </c>
     </row>
@@ -20304,7 +20476,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="26"/>
+      <c r="F292" s="31"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -20322,7 +20494,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="26"/>
+      <c r="F293" s="31"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -20340,7 +20512,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="23"/>
+      <c r="F294" s="30"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -20358,7 +20530,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="22" t="s">
+      <c r="F295" s="29" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20378,7 +20550,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="23"/>
+      <c r="F296" s="30"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -20396,7 +20568,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="24" t="s">
+      <c r="F297" s="23" t="s">
         <v>207</v>
       </c>
     </row>
@@ -21273,7 +21445,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="22" t="s">
+      <c r="F342" s="29" t="s">
         <v>284</v>
       </c>
     </row>
@@ -21293,7 +21465,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="23"/>
+      <c r="F343" s="30"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -41175,37 +41347,79 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1631" spans="1:4">
+      <c r="A1631" s="4">
+        <v>41622</v>
+      </c>
+      <c r="B1631" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1631" s="1">
+        <v>200</v>
+      </c>
+      <c r="D1631" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:4">
+      <c r="A1632" s="4">
+        <v>41622</v>
+      </c>
+      <c r="B1632" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1632" s="1">
+        <v>50</v>
+      </c>
+      <c r="D1632" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:4">
+      <c r="A1633" s="4">
+        <v>41622</v>
+      </c>
+      <c r="B1633" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1633" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1633" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F342:F343"/>
+    <mergeCell ref="F295:F296"/>
+    <mergeCell ref="F297:F298"/>
+    <mergeCell ref="F291:F294"/>
+    <mergeCell ref="F288:F290"/>
     <mergeCell ref="F6:F12"/>
     <mergeCell ref="F59:F62"/>
     <mergeCell ref="F109:F111"/>
     <mergeCell ref="F119:F120"/>
     <mergeCell ref="F172:F175"/>
-    <mergeCell ref="F342:F343"/>
-    <mergeCell ref="F295:F296"/>
-    <mergeCell ref="F297:F298"/>
-    <mergeCell ref="F291:F294"/>
-    <mergeCell ref="F288:F290"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41228,7 +41442,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F422" sqref="F422"/>
+      <selection pane="bottomLeft" activeCell="H424" sqref="H424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51707,13 +51921,13 @@
         <v>3182.4</v>
       </c>
       <c r="K310" s="7">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="L310" s="7">
         <v>220</v>
       </c>
       <c r="M310" s="7">
-        <v>1470</v>
+        <v>1570</v>
       </c>
       <c r="N310" s="7">
         <v>1679</v>
@@ -51731,10 +51945,10 @@
         <v>250</v>
       </c>
       <c r="S310" s="7">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="T310" s="7">
-        <v>18618.400000000001</v>
+        <v>18968.400000000001</v>
       </c>
     </row>
     <row r="311" spans="1:20">
@@ -55322,9 +55536,13 @@
       <c r="H435" s="7"/>
       <c r="I435" s="7"/>
       <c r="J435" s="7"/>
-      <c r="K435" s="7"/>
+      <c r="K435" s="7">
+        <v>200</v>
+      </c>
       <c r="L435" s="7"/>
-      <c r="M435" s="7"/>
+      <c r="M435" s="7">
+        <v>100</v>
+      </c>
       <c r="N435" s="7"/>
       <c r="O435" s="7">
         <v>100</v>
@@ -55336,9 +55554,11 @@
         <v>100</v>
       </c>
       <c r="R435" s="7"/>
-      <c r="S435" s="7"/>
+      <c r="S435" s="7">
+        <v>50</v>
+      </c>
       <c r="T435" s="7">
-        <v>500</v>
+        <v>850</v>
       </c>
     </row>
     <row r="436" spans="1:20">
@@ -55373,13 +55593,13 @@
         <v>-39.900000000002365</v>
       </c>
       <c r="K436" s="7">
-        <v>-113.39999999999895</v>
+        <v>86.600000000001046</v>
       </c>
       <c r="L436" s="7">
         <v>43.400000000000006</v>
       </c>
       <c r="M436" s="7">
-        <v>-101.79999999999882</v>
+        <v>-1.7999999999988177</v>
       </c>
       <c r="N436" s="7">
         <v>-137.59999999999832</v>
@@ -55397,10 +55617,10 @@
         <v>13.599999999999994</v>
       </c>
       <c r="S436" s="7">
-        <v>-41.299999999999983</v>
+        <v>8.7000000000000171</v>
       </c>
       <c r="T436" s="7">
-        <v>-240.89999999998872</v>
+        <v>109.10000000001128</v>
       </c>
     </row>
   </sheetData>
@@ -55414,7 +55634,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -55558,7 +55778,7 @@
         <v>-1370.6999999999996</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1185.1999999999994</v>
+        <v>-1185.1999999999996</v>
       </c>
       <c r="R3" s="7">
         <v>-236.39999999999998</v>
@@ -55602,13 +55822,13 @@
         <v>3182.4</v>
       </c>
       <c r="K4" s="7">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="L4" s="7">
         <v>220</v>
       </c>
       <c r="M4" s="7">
-        <v>1470</v>
+        <v>1570</v>
       </c>
       <c r="N4" s="7">
         <v>1679</v>
@@ -55626,10 +55846,10 @@
         <v>250</v>
       </c>
       <c r="S4" s="7">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="T4" s="7">
-        <v>18618.400000000001</v>
+        <v>18968.400000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -55664,13 +55884,13 @@
         <v>-39.900000000001455</v>
       </c>
       <c r="K5" s="8">
-        <v>-113.39999999999918</v>
+        <v>86.600000000000819</v>
       </c>
       <c r="L5" s="8">
         <v>43.400000000000006</v>
       </c>
       <c r="M5" s="8">
-        <v>-101.79999999999905</v>
+        <v>-1.799999999999045</v>
       </c>
       <c r="N5" s="8">
         <v>-137.59999999999832</v>
@@ -55682,16 +55902,16 @@
         <v>129.30000000000041</v>
       </c>
       <c r="Q5" s="8">
-        <v>64.800000000000637</v>
+        <v>64.800000000000409</v>
       </c>
       <c r="R5" s="8">
         <v>13.600000000000023</v>
       </c>
       <c r="S5" s="8">
-        <v>-41.299999999999983</v>
+        <v>8.7000000000000171</v>
       </c>
       <c r="T5" s="8">
-        <v>-240.89999999999782</v>
+        <v>109.10000000000218</v>
       </c>
     </row>
   </sheetData>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4373" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4377" uniqueCount="569">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2464,16 +2464,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2485,224 +2494,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <border>
         <left style="thin">
@@ -2890,7 +2686,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41622.614351736112" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1633">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41622.619622685183" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1635">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="消费记录明细"/>
   </cacheSource>
@@ -3228,9 +3024,9 @@
         <d v="2013-12-14T00:00:00"/>
         <m/>
         <d v="2011-01-12T00:00:00" u="1"/>
+        <d v="2013-05-14T00:00:00" u="1"/>
+        <d v="2011-11-06T00:00:00" u="1"/>
         <d v="2011-01-17T00:00:00" u="1"/>
-        <d v="2011-11-06T00:00:00" u="1"/>
-        <d v="2013-05-14T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="消费者" numFmtId="0">
@@ -3284,7 +3080,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1633">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1635">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -13078,6 +12874,18 @@
     <x v="1"/>
   </r>
   <r>
+    <x v="328"/>
+    <x v="10"/>
+    <n v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="328"/>
+    <x v="15"/>
+    <n v="200"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="329"/>
     <x v="25"/>
     <m/>
@@ -13087,13 +12895,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T436" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="335">
         <item m="1" x="330"/>
-        <item m="1" x="331"/>
+        <item m="1" x="333"/>
         <item x="0"/>
         <item x="1"/>
         <item m="1" x="332"/>
@@ -13296,7 +13104,7 @@
         <item x="198"/>
         <item x="199"/>
         <item x="200"/>
-        <item m="1" x="333"/>
+        <item m="1" x="331"/>
         <item x="201"/>
         <item x="202"/>
         <item x="203"/>
@@ -14845,20 +14653,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="39">
+    <format dxfId="15">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="14">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14872,7 +14680,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -14998,20 +14806,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="35">
+    <format dxfId="11">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="10">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15311,11 +15119,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1633"/>
+  <dimension ref="A1:V1635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1610" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1634" sqref="E1634"/>
+      <pane ySplit="1" topLeftCell="A1622" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1635" sqref="D1635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15460,7 +15268,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -15480,7 +15288,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -15498,7 +15306,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -15516,7 +15324,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -15534,7 +15342,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -15552,7 +15360,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -15570,7 +15378,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -16380,7 +16188,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -16400,7 +16208,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="24"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -16418,7 +16226,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -17236,7 +17044,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="26"/>
+      <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -17254,7 +17062,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="27"/>
+      <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -17272,7 +17080,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="28"/>
+      <c r="F111" s="31"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -17409,7 +17217,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="26" t="s">
+      <c r="F119" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -17429,7 +17237,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="28"/>
+      <c r="F120" s="31"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -18326,7 +18134,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="26" t="s">
+      <c r="F172" s="29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18346,7 +18154,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="27"/>
+      <c r="F173" s="30"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -18364,7 +18172,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="27"/>
+      <c r="F174" s="30"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -18382,7 +18190,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="28"/>
+      <c r="F175" s="31"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -20400,7 +20208,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="29" t="s">
+      <c r="F288" s="22" t="s">
         <v>202</v>
       </c>
     </row>
@@ -20420,7 +20228,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="31"/>
+      <c r="F289" s="26"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -20438,7 +20246,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="30"/>
+      <c r="F290" s="23"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -20456,7 +20264,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="29" t="s">
+      <c r="F291" s="22" t="s">
         <v>212</v>
       </c>
     </row>
@@ -20476,7 +20284,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="31"/>
+      <c r="F292" s="26"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -20494,7 +20302,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="31"/>
+      <c r="F293" s="26"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -20512,7 +20320,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="30"/>
+      <c r="F294" s="23"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -20530,7 +20338,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="29" t="s">
+      <c r="F295" s="22" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20550,7 +20358,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="30"/>
+      <c r="F296" s="23"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -20568,7 +20376,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="23" t="s">
+      <c r="F297" s="24" t="s">
         <v>207</v>
       </c>
     </row>
@@ -21445,7 +21253,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="29" t="s">
+      <c r="F342" s="22" t="s">
         <v>284</v>
       </c>
     </row>
@@ -21465,7 +21273,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="30"/>
+      <c r="F343" s="23"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -41389,37 +41197,65 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1634" spans="1:4">
+      <c r="A1634" s="4">
+        <v>41622</v>
+      </c>
+      <c r="B1634" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1634" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1634" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:4">
+      <c r="A1635" s="4">
+        <v>41622</v>
+      </c>
+      <c r="B1635" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1635" s="1">
+        <v>200</v>
+      </c>
+      <c r="D1635" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F172:F175"/>
     <mergeCell ref="F342:F343"/>
     <mergeCell ref="F295:F296"/>
     <mergeCell ref="F297:F298"/>
     <mergeCell ref="F291:F294"/>
     <mergeCell ref="F288:F290"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F172:F175"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41442,7 +41278,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H424" sqref="H424"/>
+      <selection pane="bottomLeft" activeCell="G425" sqref="G425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51918,7 +51754,7 @@
         <v>2502.5</v>
       </c>
       <c r="J310" s="7">
-        <v>3182.4</v>
+        <v>3282.4</v>
       </c>
       <c r="K310" s="7">
         <v>1650</v>
@@ -51930,7 +51766,7 @@
         <v>1570</v>
       </c>
       <c r="N310" s="7">
-        <v>1679</v>
+        <v>1879</v>
       </c>
       <c r="O310" s="7">
         <v>1043</v>
@@ -51948,7 +51784,7 @@
         <v>150</v>
       </c>
       <c r="T310" s="7">
-        <v>18968.400000000001</v>
+        <v>19268.400000000001</v>
       </c>
     </row>
     <row r="311" spans="1:20">
@@ -55535,7 +55371,9 @@
       <c r="G435" s="7"/>
       <c r="H435" s="7"/>
       <c r="I435" s="7"/>
-      <c r="J435" s="7"/>
+      <c r="J435" s="7">
+        <v>100</v>
+      </c>
       <c r="K435" s="7">
         <v>200</v>
       </c>
@@ -55543,7 +55381,9 @@
       <c r="M435" s="7">
         <v>100</v>
       </c>
-      <c r="N435" s="7"/>
+      <c r="N435" s="7">
+        <v>200</v>
+      </c>
       <c r="O435" s="7">
         <v>100</v>
       </c>
@@ -55558,7 +55398,7 @@
         <v>50</v>
       </c>
       <c r="T435" s="7">
-        <v>850</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="436" spans="1:20">
@@ -55590,7 +55430,7 @@
         <v>8.9999999999995453</v>
       </c>
       <c r="J436" s="7">
-        <v>-39.900000000002365</v>
+        <v>60.099999999997635</v>
       </c>
       <c r="K436" s="7">
         <v>86.600000000001046</v>
@@ -55602,7 +55442,7 @@
         <v>-1.7999999999988177</v>
       </c>
       <c r="N436" s="7">
-        <v>-137.59999999999832</v>
+        <v>62.400000000001683</v>
       </c>
       <c r="O436" s="7">
         <v>61.5</v>
@@ -55620,7 +55460,7 @@
         <v>8.7000000000000171</v>
       </c>
       <c r="T436" s="7">
-        <v>109.10000000001128</v>
+        <v>409.10000000001128</v>
       </c>
     </row>
   </sheetData>
@@ -55775,7 +55615,7 @@
         <v>-981.5</v>
       </c>
       <c r="P3" s="7">
-        <v>-1370.6999999999996</v>
+        <v>-1370.6999999999994</v>
       </c>
       <c r="Q3" s="7">
         <v>-1185.1999999999996</v>
@@ -55819,7 +55659,7 @@
         <v>2502.5</v>
       </c>
       <c r="J4" s="7">
-        <v>3182.4</v>
+        <v>3282.4</v>
       </c>
       <c r="K4" s="7">
         <v>1650</v>
@@ -55831,7 +55671,7 @@
         <v>1570</v>
       </c>
       <c r="N4" s="7">
-        <v>1679</v>
+        <v>1879</v>
       </c>
       <c r="O4" s="7">
         <v>1043</v>
@@ -55849,7 +55689,7 @@
         <v>150</v>
       </c>
       <c r="T4" s="7">
-        <v>18968.400000000001</v>
+        <v>19268.400000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -55881,7 +55721,7 @@
         <v>8.9999999999995453</v>
       </c>
       <c r="J5" s="8">
-        <v>-39.900000000001455</v>
+        <v>60.099999999998545</v>
       </c>
       <c r="K5" s="8">
         <v>86.600000000000819</v>
@@ -55893,13 +55733,13 @@
         <v>-1.799999999999045</v>
       </c>
       <c r="N5" s="8">
-        <v>-137.59999999999832</v>
+        <v>62.400000000001683</v>
       </c>
       <c r="O5" s="8">
         <v>61.5</v>
       </c>
       <c r="P5" s="8">
-        <v>129.30000000000041</v>
+        <v>129.30000000000064</v>
       </c>
       <c r="Q5" s="8">
         <v>64.800000000000409</v>
@@ -55911,7 +55751,7 @@
         <v>8.7000000000000171</v>
       </c>
       <c r="T5" s="8">
-        <v>109.10000000000218</v>
+        <v>409.10000000000218</v>
       </c>
     </row>
   </sheetData>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="消费记录明细" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4377" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="569">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2464,25 +2464,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2494,79 +2485,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <b/>
@@ -12895,7 +12827,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T436" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -14653,20 +14585,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="15">
+    <format dxfId="7">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="6">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14680,7 +14612,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -14806,20 +14738,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="11">
+    <format dxfId="3">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="2">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15119,11 +15051,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1635"/>
+  <dimension ref="A1:V1645"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1622" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1635" sqref="D1635"/>
+      <selection pane="bottomLeft" activeCell="F1644" sqref="F1644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15268,7 +15200,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -15288,7 +15220,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -15306,7 +15238,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -15324,7 +15256,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -15342,7 +15274,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -15360,7 +15292,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -15378,7 +15310,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -16188,7 +16120,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="23" t="s">
         <v>65</v>
       </c>
     </row>
@@ -16208,7 +16140,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="28"/>
+      <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -16226,7 +16158,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="28"/>
+      <c r="F61" s="24"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -17044,7 +16976,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="29"/>
+      <c r="F109" s="26"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -17062,7 +16994,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="30"/>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -17080,7 +17012,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="31"/>
+      <c r="F111" s="28"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -17217,7 +17149,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -17237,7 +17169,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="31"/>
+      <c r="F120" s="28"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -18134,7 +18066,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="29" t="s">
+      <c r="F172" s="26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18154,7 +18086,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="30"/>
+      <c r="F173" s="27"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -18172,7 +18104,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="30"/>
+      <c r="F174" s="27"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -18190,7 +18122,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="31"/>
+      <c r="F175" s="28"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -20208,7 +20140,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="22" t="s">
+      <c r="F288" s="29" t="s">
         <v>202</v>
       </c>
     </row>
@@ -20228,7 +20160,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="26"/>
+      <c r="F289" s="31"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -20246,7 +20178,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="23"/>
+      <c r="F290" s="30"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -20264,7 +20196,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="22" t="s">
+      <c r="F291" s="29" t="s">
         <v>212</v>
       </c>
     </row>
@@ -20284,7 +20216,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="26"/>
+      <c r="F292" s="31"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -20302,7 +20234,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="26"/>
+      <c r="F293" s="31"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -20320,7 +20252,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="23"/>
+      <c r="F294" s="30"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -20338,7 +20270,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="22" t="s">
+      <c r="F295" s="29" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20358,7 +20290,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="23"/>
+      <c r="F296" s="30"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -20376,7 +20308,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="24" t="s">
+      <c r="F297" s="23" t="s">
         <v>207</v>
       </c>
     </row>
@@ -21253,7 +21185,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="22" t="s">
+      <c r="F342" s="29" t="s">
         <v>284</v>
       </c>
     </row>
@@ -21273,7 +21205,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="23"/>
+      <c r="F343" s="30"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -41225,37 +41157,131 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1636" spans="1:4">
+      <c r="A1636" s="4">
+        <v>41624</v>
+      </c>
+      <c r="B1636" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1636" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:4">
+      <c r="A1637" s="4">
+        <v>41624</v>
+      </c>
+      <c r="B1637" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1637" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:4">
+      <c r="A1638" s="4">
+        <v>41624</v>
+      </c>
+      <c r="B1638" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1638" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:4">
+      <c r="A1639" s="4">
+        <v>41624</v>
+      </c>
+      <c r="B1639" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1639" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:4">
+      <c r="A1640" s="4">
+        <v>41624</v>
+      </c>
+      <c r="B1640" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1640" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:4">
+      <c r="A1641" s="4">
+        <v>41624</v>
+      </c>
+      <c r="B1641" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1641" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:4">
+      <c r="A1642" s="4">
+        <v>41624</v>
+      </c>
+      <c r="B1642" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1642" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:4">
+      <c r="A1643" s="4">
+        <v>41624</v>
+      </c>
+      <c r="B1643" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1643" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:4">
+      <c r="A1644" s="4"/>
+    </row>
+    <row r="1645" spans="1:4">
+      <c r="A1645" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F342:F343"/>
+    <mergeCell ref="F295:F296"/>
+    <mergeCell ref="F297:F298"/>
+    <mergeCell ref="F291:F294"/>
+    <mergeCell ref="F288:F290"/>
     <mergeCell ref="F6:F12"/>
     <mergeCell ref="F59:F62"/>
     <mergeCell ref="F109:F111"/>
     <mergeCell ref="F119:F120"/>
     <mergeCell ref="F172:F175"/>
-    <mergeCell ref="F342:F343"/>
-    <mergeCell ref="F295:F296"/>
-    <mergeCell ref="F297:F298"/>
-    <mergeCell ref="F291:F294"/>
-    <mergeCell ref="F288:F290"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55473,7 +55499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="569">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2464,16 +2464,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2485,20 +2494,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2566,46 +2606,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -14585,20 +14585,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="7">
+    <format dxfId="11">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="10">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14738,20 +14738,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="3">
+    <format dxfId="7">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="6">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15051,11 +15051,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1645"/>
+  <dimension ref="A1:V1652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1622" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1644" sqref="F1644"/>
+      <pane ySplit="1" topLeftCell="A1631" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1644" sqref="B1644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15200,7 +15200,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -15220,7 +15220,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -15238,7 +15238,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -15256,7 +15256,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -15274,7 +15274,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -15292,7 +15292,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -15310,7 +15310,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -16120,7 +16120,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -16140,7 +16140,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="24"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -16158,7 +16158,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -16976,7 +16976,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="26"/>
+      <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -16994,7 +16994,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="27"/>
+      <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -17012,7 +17012,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="28"/>
+      <c r="F111" s="31"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -17149,7 +17149,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="26" t="s">
+      <c r="F119" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -17169,7 +17169,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="28"/>
+      <c r="F120" s="31"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -18066,7 +18066,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="26" t="s">
+      <c r="F172" s="29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18086,7 +18086,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="27"/>
+      <c r="F173" s="30"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -18104,7 +18104,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="27"/>
+      <c r="F174" s="30"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -18122,7 +18122,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="28"/>
+      <c r="F175" s="31"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -20140,7 +20140,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="29" t="s">
+      <c r="F288" s="22" t="s">
         <v>202</v>
       </c>
     </row>
@@ -20160,7 +20160,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="31"/>
+      <c r="F289" s="26"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -20178,7 +20178,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="30"/>
+      <c r="F290" s="23"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -20196,7 +20196,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="29" t="s">
+      <c r="F291" s="22" t="s">
         <v>212</v>
       </c>
     </row>
@@ -20216,7 +20216,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="31"/>
+      <c r="F292" s="26"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -20234,7 +20234,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="31"/>
+      <c r="F293" s="26"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -20252,7 +20252,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="30"/>
+      <c r="F294" s="23"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -20270,7 +20270,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="29" t="s">
+      <c r="F295" s="22" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20290,7 +20290,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="30"/>
+      <c r="F296" s="23"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -20308,7 +20308,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="23" t="s">
+      <c r="F297" s="24" t="s">
         <v>207</v>
       </c>
     </row>
@@ -21185,7 +21185,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="29" t="s">
+      <c r="F342" s="22" t="s">
         <v>284</v>
       </c>
     </row>
@@ -21205,7 +21205,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="30"/>
+      <c r="F343" s="23"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -41246,42 +41246,119 @@
       </c>
     </row>
     <row r="1644" spans="1:4">
-      <c r="A1644" s="4"/>
+      <c r="A1644" s="4">
+        <v>41625</v>
+      </c>
+      <c r="B1644" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1644" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1645" spans="1:4">
-      <c r="A1645" s="4"/>
+      <c r="A1645" s="4">
+        <v>41625</v>
+      </c>
+      <c r="B1645" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1645" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:4">
+      <c r="A1646" s="4">
+        <v>41625</v>
+      </c>
+      <c r="B1646" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1646" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:4">
+      <c r="A1647" s="4">
+        <v>41625</v>
+      </c>
+      <c r="B1647" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1647" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:4">
+      <c r="A1648" s="4">
+        <v>41625</v>
+      </c>
+      <c r="B1648" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1648" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:4">
+      <c r="A1649" s="4">
+        <v>41625</v>
+      </c>
+      <c r="B1649" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1649" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:4">
+      <c r="A1650" s="4">
+        <v>41625</v>
+      </c>
+      <c r="B1650" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1650" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:4">
+      <c r="A1651" s="4"/>
+    </row>
+    <row r="1652" spans="1:4">
+      <c r="A1652" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F172:F175"/>
     <mergeCell ref="F342:F343"/>
     <mergeCell ref="F295:F296"/>
     <mergeCell ref="F297:F298"/>
     <mergeCell ref="F291:F294"/>
     <mergeCell ref="F288:F290"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F172:F175"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4437" uniqueCount="569">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2464,25 +2464,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2493,6 +2484,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15051,11 +15051,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1652"/>
+  <dimension ref="A1:V1667"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1631" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1644" sqref="B1644"/>
+      <pane ySplit="1" topLeftCell="A1643" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1665" sqref="B1665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15200,7 +15200,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -15220,7 +15220,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -15238,7 +15238,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -15256,7 +15256,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -15274,7 +15274,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -15292,7 +15292,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -15310,7 +15310,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -16120,7 +16120,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="23" t="s">
         <v>65</v>
       </c>
     </row>
@@ -16140,7 +16140,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="28"/>
+      <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -16158,7 +16158,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="28"/>
+      <c r="F61" s="24"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -16976,7 +16976,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="29"/>
+      <c r="F109" s="26"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -16994,7 +16994,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="30"/>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -17012,7 +17012,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="31"/>
+      <c r="F111" s="28"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -17149,7 +17149,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -17169,7 +17169,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="31"/>
+      <c r="F120" s="28"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -18066,7 +18066,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="29" t="s">
+      <c r="F172" s="26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18086,7 +18086,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="30"/>
+      <c r="F173" s="27"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -18104,7 +18104,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="30"/>
+      <c r="F174" s="27"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -18122,7 +18122,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="31"/>
+      <c r="F175" s="28"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -20140,7 +20140,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="22" t="s">
+      <c r="F288" s="29" t="s">
         <v>202</v>
       </c>
     </row>
@@ -20160,7 +20160,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="26"/>
+      <c r="F289" s="31"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -20178,7 +20178,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="23"/>
+      <c r="F290" s="30"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -20196,7 +20196,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="22" t="s">
+      <c r="F291" s="29" t="s">
         <v>212</v>
       </c>
     </row>
@@ -20216,7 +20216,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="26"/>
+      <c r="F292" s="31"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -20234,7 +20234,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="26"/>
+      <c r="F293" s="31"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -20252,7 +20252,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="23"/>
+      <c r="F294" s="30"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -20270,7 +20270,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="22" t="s">
+      <c r="F295" s="29" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20290,7 +20290,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="23"/>
+      <c r="F296" s="30"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -20308,7 +20308,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="24" t="s">
+      <c r="F297" s="23" t="s">
         <v>207</v>
       </c>
     </row>
@@ -21185,7 +21185,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="22" t="s">
+      <c r="F342" s="29" t="s">
         <v>284</v>
       </c>
     </row>
@@ -21205,7 +21205,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="23"/>
+      <c r="F343" s="30"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -41294,7 +41294,7 @@
         <v>41625</v>
       </c>
       <c r="B1648" s="1" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="D1648" s="9" t="s">
         <v>7</v>
@@ -41305,7 +41305,7 @@
         <v>41625</v>
       </c>
       <c r="B1649" s="1" t="s">
-        <v>137</v>
+        <v>469</v>
       </c>
       <c r="D1649" s="9" t="s">
         <v>7</v>
@@ -41313,33 +41313,198 @@
     </row>
     <row r="1650" spans="1:4">
       <c r="A1650" s="4">
-        <v>41625</v>
+        <v>41626</v>
       </c>
       <c r="B1650" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1650" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:4">
+      <c r="A1651" s="4">
+        <v>41626</v>
+      </c>
+      <c r="B1651" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1651" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:4">
+      <c r="A1652" s="4">
+        <v>41626</v>
+      </c>
+      <c r="B1652" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1652" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:4">
+      <c r="A1653" s="4">
+        <v>41626</v>
+      </c>
+      <c r="B1653" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1653" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:4">
+      <c r="A1654" s="4">
+        <v>41626</v>
+      </c>
+      <c r="B1654" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1654" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:4">
+      <c r="A1655" s="4">
+        <v>41626</v>
+      </c>
+      <c r="B1655" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1655" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:4">
+      <c r="A1656" s="4">
+        <v>41626</v>
+      </c>
+      <c r="B1656" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D1650" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1651" spans="1:4">
-      <c r="A1651" s="4"/>
-    </row>
-    <row r="1652" spans="1:4">
-      <c r="A1652" s="4"/>
+      <c r="D1656" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:4">
+      <c r="A1657" s="4">
+        <v>41626</v>
+      </c>
+      <c r="B1657" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1657" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:4">
+      <c r="A1658" s="4">
+        <v>41627</v>
+      </c>
+      <c r="B1658" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1658" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:4">
+      <c r="A1659" s="4">
+        <v>41627</v>
+      </c>
+      <c r="B1659" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1659" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:4">
+      <c r="A1660" s="4">
+        <v>41627</v>
+      </c>
+      <c r="B1660" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1660" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:4">
+      <c r="A1661" s="4">
+        <v>41627</v>
+      </c>
+      <c r="B1661" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1661" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:4">
+      <c r="A1662" s="4">
+        <v>41627</v>
+      </c>
+      <c r="B1662" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1662" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:4">
+      <c r="A1663" s="4">
+        <v>41627</v>
+      </c>
+      <c r="B1663" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1663" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:4">
+      <c r="A1664" s="4">
+        <v>41627</v>
+      </c>
+      <c r="B1664" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1664" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:4">
+      <c r="A1665" s="4">
+        <v>41627</v>
+      </c>
+      <c r="B1665" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1665" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:4">
+      <c r="A1666" s="4"/>
+    </row>
+    <row r="1667" spans="1:4">
+      <c r="A1667" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F342:F343"/>
+    <mergeCell ref="F295:F296"/>
+    <mergeCell ref="F297:F298"/>
+    <mergeCell ref="F291:F294"/>
+    <mergeCell ref="F288:F290"/>
     <mergeCell ref="F6:F12"/>
     <mergeCell ref="F59:F62"/>
     <mergeCell ref="F109:F111"/>
     <mergeCell ref="F119:F120"/>
     <mergeCell ref="F172:F175"/>
-    <mergeCell ref="F342:F343"/>
-    <mergeCell ref="F295:F296"/>
-    <mergeCell ref="F297:F298"/>
-    <mergeCell ref="F291:F294"/>
-    <mergeCell ref="F288:F290"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4437" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4453" uniqueCount="569">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2464,16 +2464,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2485,59 +2494,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="20">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2607,6 +2635,46 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -2618,13 +2686,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41622.619622685183" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1635">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41628.51278946759" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1673">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="消费记录明细"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-12-15T00:00:00" count="334">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-12-21T00:00:00" count="339">
         <d v="2011-09-09T00:00:00"/>
         <d v="2011-09-30T00:00:00"/>
         <d v="2011-11-28T00:00:00"/>
@@ -2954,6 +3022,11 @@
         <d v="2013-12-12T00:00:00"/>
         <d v="2013-12-13T00:00:00"/>
         <d v="2013-12-14T00:00:00"/>
+        <d v="2013-12-16T00:00:00"/>
+        <d v="2013-12-17T00:00:00"/>
+        <d v="2013-12-18T00:00:00"/>
+        <d v="2013-12-19T00:00:00"/>
+        <d v="2013-12-20T00:00:00"/>
         <m/>
         <d v="2011-01-12T00:00:00" u="1"/>
         <d v="2013-05-14T00:00:00" u="1"/>
@@ -3012,7 +3085,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1635">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1673">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -12819,6 +12892,234 @@
   </r>
   <r>
     <x v="329"/>
+    <x v="20"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="329"/>
+    <x v="17"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="329"/>
+    <x v="13"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="329"/>
+    <x v="24"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="329"/>
+    <x v="6"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="329"/>
+    <x v="10"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="329"/>
+    <x v="15"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="329"/>
+    <x v="19"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="330"/>
+    <x v="20"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="330"/>
+    <x v="17"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="330"/>
+    <x v="13"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="330"/>
+    <x v="24"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="330"/>
+    <x v="15"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="330"/>
+    <x v="19"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="331"/>
+    <x v="20"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="331"/>
+    <x v="17"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="331"/>
+    <x v="13"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="331"/>
+    <x v="24"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="331"/>
+    <x v="12"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="331"/>
+    <x v="15"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="331"/>
+    <x v="19"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="331"/>
+    <x v="10"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="332"/>
+    <x v="20"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="332"/>
+    <x v="17"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="332"/>
+    <x v="13"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="332"/>
+    <x v="24"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="332"/>
+    <x v="6"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="332"/>
+    <x v="15"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="332"/>
+    <x v="19"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="332"/>
+    <x v="10"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="333"/>
+    <x v="20"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="333"/>
+    <x v="17"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="333"/>
+    <x v="13"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="333"/>
+    <x v="24"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="333"/>
+    <x v="22"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="333"/>
+    <x v="15"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="333"/>
+    <x v="19"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="333"/>
+    <x v="10"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="334"/>
     <x v="25"/>
     <m/>
     <x v="2"/>
@@ -12827,16 +13128,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:T436" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:T441" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="335">
-        <item m="1" x="330"/>
-        <item m="1" x="333"/>
+      <items count="340">
+        <item m="1" x="335"/>
+        <item m="1" x="338"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="332"/>
+        <item m="1" x="337"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -13036,7 +13337,7 @@
         <item x="198"/>
         <item x="199"/>
         <item x="200"/>
-        <item m="1" x="331"/>
+        <item m="1" x="336"/>
         <item x="201"/>
         <item x="202"/>
         <item x="203"/>
@@ -13166,6 +13467,11 @@
         <item x="327"/>
         <item x="328"/>
         <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13215,7 +13521,7 @@
     <field x="3"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="434">
+  <rowItems count="439">
     <i>
       <x/>
     </i>
@@ -14137,6 +14443,21 @@
     <i r="1">
       <x v="332"/>
     </i>
+    <i r="1">
+      <x v="333"/>
+    </i>
+    <i r="1">
+      <x v="334"/>
+    </i>
+    <i r="1">
+      <x v="335"/>
+    </i>
+    <i r="1">
+      <x v="336"/>
+    </i>
+    <i r="1">
+      <x v="337"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -14585,20 +14906,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="11">
+    <format dxfId="15">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="14">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14612,7 +14933,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -14738,20 +15059,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="7">
+    <format dxfId="11">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="10">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15051,11 +15372,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1667"/>
+  <dimension ref="A1:V1673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1643" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1665" sqref="B1665"/>
+      <pane ySplit="1" topLeftCell="A1658" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1666" sqref="A1666:A1673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15200,7 +15521,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -15220,7 +15541,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -15238,7 +15559,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -15256,7 +15577,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -15274,7 +15595,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -15292,7 +15613,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -15310,7 +15631,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -16120,7 +16441,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -16140,7 +16461,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="24"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -16158,7 +16479,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -16976,7 +17297,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="26"/>
+      <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -16994,7 +17315,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="27"/>
+      <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -17012,7 +17333,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="28"/>
+      <c r="F111" s="31"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -17149,7 +17470,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="26" t="s">
+      <c r="F119" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -17169,7 +17490,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="28"/>
+      <c r="F120" s="31"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -18066,7 +18387,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="26" t="s">
+      <c r="F172" s="29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18086,7 +18407,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="27"/>
+      <c r="F173" s="30"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -18104,7 +18425,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="27"/>
+      <c r="F174" s="30"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -18122,7 +18443,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="28"/>
+      <c r="F175" s="31"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -20140,7 +20461,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="29" t="s">
+      <c r="F288" s="22" t="s">
         <v>202</v>
       </c>
     </row>
@@ -20160,7 +20481,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="31"/>
+      <c r="F289" s="26"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -20178,7 +20499,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="30"/>
+      <c r="F290" s="23"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -20196,7 +20517,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="29" t="s">
+      <c r="F291" s="22" t="s">
         <v>212</v>
       </c>
     </row>
@@ -20216,7 +20537,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="31"/>
+      <c r="F292" s="26"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -20234,7 +20555,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="31"/>
+      <c r="F293" s="26"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -20252,7 +20573,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="30"/>
+      <c r="F294" s="23"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -20270,7 +20591,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="29" t="s">
+      <c r="F295" s="22" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20290,7 +20611,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="30"/>
+      <c r="F296" s="23"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -20308,7 +20629,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="23" t="s">
+      <c r="F297" s="24" t="s">
         <v>207</v>
       </c>
     </row>
@@ -21185,7 +21506,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="29" t="s">
+      <c r="F342" s="22" t="s">
         <v>284</v>
       </c>
     </row>
@@ -21205,7 +21526,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="30"/>
+      <c r="F343" s="23"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -41488,42 +41809,124 @@
       </c>
     </row>
     <row r="1666" spans="1:4">
-      <c r="A1666" s="4"/>
+      <c r="A1666" s="4">
+        <v>41628</v>
+      </c>
+      <c r="B1666" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1666" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1667" spans="1:4">
-      <c r="A1667" s="4"/>
+      <c r="A1667" s="4">
+        <v>41628</v>
+      </c>
+      <c r="B1667" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1667" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:4">
+      <c r="A1668" s="4">
+        <v>41628</v>
+      </c>
+      <c r="B1668" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1668" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:4">
+      <c r="A1669" s="4">
+        <v>41628</v>
+      </c>
+      <c r="B1669" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1669" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:4">
+      <c r="A1670" s="4">
+        <v>41628</v>
+      </c>
+      <c r="B1670" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1670" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:4">
+      <c r="A1671" s="4">
+        <v>41628</v>
+      </c>
+      <c r="B1671" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1671" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:4">
+      <c r="A1672" s="4">
+        <v>41628</v>
+      </c>
+      <c r="B1672" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1672" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:4">
+      <c r="A1673" s="4">
+        <v>41628</v>
+      </c>
+      <c r="B1673" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1673" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F172:F175"/>
     <mergeCell ref="F342:F343"/>
     <mergeCell ref="F295:F296"/>
     <mergeCell ref="F297:F298"/>
     <mergeCell ref="F291:F294"/>
     <mergeCell ref="F288:F290"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F172:F175"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41542,7 +41945,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V436"/>
+  <dimension ref="A1:V441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
@@ -51994,84 +52397,40 @@
       </c>
     </row>
     <row r="310" spans="1:20">
-      <c r="A310" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B310" s="7">
-        <v>750.5</v>
-      </c>
-      <c r="C310" s="7">
-        <v>87</v>
-      </c>
-      <c r="D310" s="7">
-        <v>300</v>
-      </c>
-      <c r="E310" s="7">
-        <v>56</v>
-      </c>
-      <c r="F310" s="7">
-        <v>200</v>
-      </c>
-      <c r="G310" s="7">
-        <v>2023</v>
-      </c>
-      <c r="H310" s="7">
-        <v>555</v>
-      </c>
-      <c r="I310" s="7">
-        <v>2502.5</v>
-      </c>
-      <c r="J310" s="7">
-        <v>3282.4</v>
-      </c>
-      <c r="K310" s="7">
-        <v>1650</v>
-      </c>
-      <c r="L310" s="7">
-        <v>220</v>
-      </c>
-      <c r="M310" s="7">
-        <v>1570</v>
-      </c>
-      <c r="N310" s="7">
-        <v>1879</v>
-      </c>
-      <c r="O310" s="7">
-        <v>1043</v>
-      </c>
-      <c r="P310" s="7">
-        <v>1500</v>
-      </c>
-      <c r="Q310" s="7">
-        <v>1250</v>
-      </c>
-      <c r="R310" s="7">
-        <v>250</v>
-      </c>
-      <c r="S310" s="7">
-        <v>150</v>
-      </c>
-      <c r="T310" s="7">
-        <v>19268.400000000001</v>
-      </c>
+      <c r="A310" s="12">
+        <v>41624</v>
+      </c>
+      <c r="B310" s="7"/>
+      <c r="C310" s="7"/>
+      <c r="D310" s="7"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="7"/>
+      <c r="G310" s="7"/>
+      <c r="H310" s="7"/>
+      <c r="I310" s="7"/>
+      <c r="J310" s="7"/>
+      <c r="K310" s="7"/>
+      <c r="L310" s="7"/>
+      <c r="M310" s="7"/>
+      <c r="N310" s="7"/>
+      <c r="O310" s="7"/>
+      <c r="P310" s="7"/>
+      <c r="Q310" s="7"/>
+      <c r="R310" s="7"/>
+      <c r="S310" s="7"/>
+      <c r="T310" s="7"/>
     </row>
     <row r="311" spans="1:20">
       <c r="A311" s="12">
-        <v>40875</v>
+        <v>41625</v>
       </c>
       <c r="B311" s="7"/>
-      <c r="C311" s="7">
-        <v>63</v>
-      </c>
+      <c r="C311" s="7"/>
       <c r="D311" s="7"/>
-      <c r="E311" s="7">
-        <v>56</v>
-      </c>
+      <c r="E311" s="7"/>
       <c r="F311" s="7"/>
       <c r="G311" s="7"/>
-      <c r="H311" s="7">
-        <v>0</v>
-      </c>
+      <c r="H311" s="7"/>
       <c r="I311" s="7"/>
       <c r="J311" s="7"/>
       <c r="K311" s="7"/>
@@ -52083,17 +52442,13 @@
       <c r="Q311" s="7"/>
       <c r="R311" s="7"/>
       <c r="S311" s="7"/>
-      <c r="T311" s="7">
-        <v>119</v>
-      </c>
+      <c r="T311" s="7"/>
     </row>
     <row r="312" spans="1:20">
       <c r="A312" s="12">
-        <v>40879</v>
-      </c>
-      <c r="B312" s="7">
-        <v>7</v>
-      </c>
+        <v>41626</v>
+      </c>
+      <c r="B312" s="7"/>
       <c r="C312" s="7"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
@@ -52111,22 +52466,18 @@
       <c r="Q312" s="7"/>
       <c r="R312" s="7"/>
       <c r="S312" s="7"/>
-      <c r="T312" s="7">
-        <v>7</v>
-      </c>
+      <c r="T312" s="7"/>
     </row>
     <row r="313" spans="1:20">
       <c r="A313" s="12">
-        <v>40883</v>
+        <v>41627</v>
       </c>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
-      <c r="G313" s="7">
-        <v>50</v>
-      </c>
+      <c r="G313" s="7"/>
       <c r="H313" s="7"/>
       <c r="I313" s="7"/>
       <c r="J313" s="7"/>
@@ -52139,13 +52490,11 @@
       <c r="Q313" s="7"/>
       <c r="R313" s="7"/>
       <c r="S313" s="7"/>
-      <c r="T313" s="7">
-        <v>50</v>
-      </c>
+      <c r="T313" s="7"/>
     </row>
     <row r="314" spans="1:20">
       <c r="A314" s="12">
-        <v>40891</v>
+        <v>41628</v>
       </c>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -52154,9 +52503,7 @@
       <c r="F314" s="7"/>
       <c r="G314" s="7"/>
       <c r="H314" s="7"/>
-      <c r="I314" s="7">
-        <v>65</v>
-      </c>
+      <c r="I314" s="7"/>
       <c r="J314" s="7"/>
       <c r="K314" s="7"/>
       <c r="L314" s="7"/>
@@ -52167,54 +52514,88 @@
       <c r="Q314" s="7"/>
       <c r="R314" s="7"/>
       <c r="S314" s="7"/>
-      <c r="T314" s="7">
-        <v>65</v>
-      </c>
+      <c r="T314" s="7"/>
     </row>
     <row r="315" spans="1:20">
-      <c r="A315" s="12">
-        <v>40892</v>
-      </c>
-      <c r="B315" s="7"/>
-      <c r="C315" s="7"/>
-      <c r="D315" s="7"/>
-      <c r="E315" s="7"/>
-      <c r="F315" s="7"/>
+      <c r="A315" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B315" s="7">
+        <v>750.5</v>
+      </c>
+      <c r="C315" s="7">
+        <v>87</v>
+      </c>
+      <c r="D315" s="7">
+        <v>300</v>
+      </c>
+      <c r="E315" s="7">
+        <v>56</v>
+      </c>
+      <c r="F315" s="7">
+        <v>200</v>
+      </c>
       <c r="G315" s="7">
-        <v>100</v>
-      </c>
-      <c r="H315" s="7"/>
+        <v>2023</v>
+      </c>
+      <c r="H315" s="7">
+        <v>555</v>
+      </c>
       <c r="I315" s="7">
-        <v>68</v>
-      </c>
-      <c r="J315" s="7"/>
-      <c r="K315" s="7"/>
-      <c r="L315" s="7"/>
-      <c r="M315" s="7"/>
-      <c r="N315" s="7"/>
-      <c r="O315" s="7"/>
-      <c r="P315" s="7"/>
-      <c r="Q315" s="7"/>
-      <c r="R315" s="7"/>
-      <c r="S315" s="7"/>
+        <v>2502.5</v>
+      </c>
+      <c r="J315" s="7">
+        <v>3282.4</v>
+      </c>
+      <c r="K315" s="7">
+        <v>1650</v>
+      </c>
+      <c r="L315" s="7">
+        <v>220</v>
+      </c>
+      <c r="M315" s="7">
+        <v>1570</v>
+      </c>
+      <c r="N315" s="7">
+        <v>1879</v>
+      </c>
+      <c r="O315" s="7">
+        <v>1043</v>
+      </c>
+      <c r="P315" s="7">
+        <v>1500</v>
+      </c>
+      <c r="Q315" s="7">
+        <v>1250</v>
+      </c>
+      <c r="R315" s="7">
+        <v>250</v>
+      </c>
+      <c r="S315" s="7">
+        <v>150</v>
+      </c>
       <c r="T315" s="7">
-        <v>168</v>
+        <v>19268.400000000001</v>
       </c>
     </row>
     <row r="316" spans="1:20">
       <c r="A316" s="12">
-        <v>40913</v>
+        <v>40875</v>
       </c>
       <c r="B316" s="7"/>
-      <c r="C316" s="7"/>
+      <c r="C316" s="7">
+        <v>63</v>
+      </c>
       <c r="D316" s="7"/>
-      <c r="E316" s="7"/>
+      <c r="E316" s="7">
+        <v>56</v>
+      </c>
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
-      <c r="H316" s="7"/>
-      <c r="I316" s="7">
-        <v>679.5</v>
-      </c>
+      <c r="H316" s="7">
+        <v>0</v>
+      </c>
+      <c r="I316" s="7"/>
       <c r="J316" s="7"/>
       <c r="K316" s="7"/>
       <c r="L316" s="7"/>
@@ -52226,21 +52607,21 @@
       <c r="R316" s="7"/>
       <c r="S316" s="7"/>
       <c r="T316" s="7">
-        <v>679.5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="317" spans="1:20">
       <c r="A317" s="12">
-        <v>40917</v>
-      </c>
-      <c r="B317" s="7"/>
+        <v>40879</v>
+      </c>
+      <c r="B317" s="7">
+        <v>7</v>
+      </c>
       <c r="C317" s="7"/>
       <c r="D317" s="7"/>
       <c r="E317" s="7"/>
       <c r="F317" s="7"/>
-      <c r="G317" s="7">
-        <v>100</v>
-      </c>
+      <c r="G317" s="7"/>
       <c r="H317" s="7"/>
       <c r="I317" s="7"/>
       <c r="J317" s="7"/>
@@ -52254,24 +52635,24 @@
       <c r="R317" s="7"/>
       <c r="S317" s="7"/>
       <c r="T317" s="7">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318" spans="1:20">
       <c r="A318" s="12">
-        <v>40919</v>
+        <v>40883</v>
       </c>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
       <c r="D318" s="7"/>
       <c r="E318" s="7"/>
       <c r="F318" s="7"/>
-      <c r="G318" s="7"/>
+      <c r="G318" s="7">
+        <v>50</v>
+      </c>
       <c r="H318" s="7"/>
       <c r="I318" s="7"/>
-      <c r="J318" s="7">
-        <v>15</v>
-      </c>
+      <c r="J318" s="7"/>
       <c r="K318" s="7"/>
       <c r="L318" s="7"/>
       <c r="M318" s="7"/>
@@ -52282,25 +52663,23 @@
       <c r="R318" s="7"/>
       <c r="S318" s="7"/>
       <c r="T318" s="7">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="319" spans="1:20">
       <c r="A319" s="12">
-        <v>40921</v>
+        <v>40891</v>
       </c>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
-      <c r="D319" s="7">
-        <v>100</v>
-      </c>
+      <c r="D319" s="7"/>
       <c r="E319" s="7"/>
-      <c r="F319" s="7">
-        <v>100</v>
-      </c>
+      <c r="F319" s="7"/>
       <c r="G319" s="7"/>
       <c r="H319" s="7"/>
-      <c r="I319" s="7"/>
+      <c r="I319" s="7">
+        <v>65</v>
+      </c>
       <c r="J319" s="7"/>
       <c r="K319" s="7"/>
       <c r="L319" s="7"/>
@@ -52312,24 +52691,26 @@
       <c r="R319" s="7"/>
       <c r="S319" s="7"/>
       <c r="T319" s="7">
-        <v>200</v>
+        <v>65</v>
       </c>
     </row>
     <row r="320" spans="1:20">
       <c r="A320" s="12">
-        <v>40925</v>
+        <v>40892</v>
       </c>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
       <c r="D320" s="7"/>
       <c r="E320" s="7"/>
       <c r="F320" s="7"/>
-      <c r="G320" s="7"/>
+      <c r="G320" s="7">
+        <v>100</v>
+      </c>
       <c r="H320" s="7"/>
-      <c r="I320" s="7"/>
-      <c r="J320" s="7">
-        <v>14</v>
-      </c>
+      <c r="I320" s="7">
+        <v>68</v>
+      </c>
+      <c r="J320" s="7"/>
       <c r="K320" s="7"/>
       <c r="L320" s="7"/>
       <c r="M320" s="7"/>
@@ -52340,12 +52721,12 @@
       <c r="R320" s="7"/>
       <c r="S320" s="7"/>
       <c r="T320" s="7">
-        <v>14</v>
+        <v>168</v>
       </c>
     </row>
     <row r="321" spans="1:20">
       <c r="A321" s="12">
-        <v>40926</v>
+        <v>40913</v>
       </c>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -52354,10 +52735,10 @@
       <c r="F321" s="7"/>
       <c r="G321" s="7"/>
       <c r="H321" s="7"/>
-      <c r="I321" s="7"/>
-      <c r="J321" s="7">
-        <v>28</v>
-      </c>
+      <c r="I321" s="7">
+        <v>679.5</v>
+      </c>
+      <c r="J321" s="7"/>
       <c r="K321" s="7"/>
       <c r="L321" s="7"/>
       <c r="M321" s="7"/>
@@ -52368,24 +52749,24 @@
       <c r="R321" s="7"/>
       <c r="S321" s="7"/>
       <c r="T321" s="7">
-        <v>28</v>
+        <v>679.5</v>
       </c>
     </row>
     <row r="322" spans="1:20">
       <c r="A322" s="12">
-        <v>40947</v>
+        <v>40917</v>
       </c>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
       <c r="D322" s="7"/>
       <c r="E322" s="7"/>
       <c r="F322" s="7"/>
-      <c r="G322" s="7"/>
+      <c r="G322" s="7">
+        <v>100</v>
+      </c>
       <c r="H322" s="7"/>
       <c r="I322" s="7"/>
-      <c r="J322" s="7">
-        <v>100</v>
-      </c>
+      <c r="J322" s="7"/>
       <c r="K322" s="7"/>
       <c r="L322" s="7"/>
       <c r="M322" s="7"/>
@@ -52401,7 +52782,7 @@
     </row>
     <row r="323" spans="1:20">
       <c r="A323" s="12">
-        <v>40954</v>
+        <v>40919</v>
       </c>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -52409,11 +52790,11 @@
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
       <c r="G323" s="7"/>
-      <c r="H323" s="7">
-        <v>100</v>
-      </c>
+      <c r="H323" s="7"/>
       <c r="I323" s="7"/>
-      <c r="J323" s="7"/>
+      <c r="J323" s="7">
+        <v>15</v>
+      </c>
       <c r="K323" s="7"/>
       <c r="L323" s="7"/>
       <c r="M323" s="7"/>
@@ -52424,27 +52805,29 @@
       <c r="R323" s="7"/>
       <c r="S323" s="7"/>
       <c r="T323" s="7">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324" spans="1:20">
       <c r="A324" s="12">
-        <v>40973</v>
+        <v>40921</v>
       </c>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
-      <c r="D324" s="7"/>
+      <c r="D324" s="7">
+        <v>100</v>
+      </c>
       <c r="E324" s="7"/>
-      <c r="F324" s="7"/>
+      <c r="F324" s="7">
+        <v>100</v>
+      </c>
       <c r="G324" s="7"/>
       <c r="H324" s="7"/>
       <c r="I324" s="7"/>
       <c r="J324" s="7"/>
       <c r="K324" s="7"/>
       <c r="L324" s="7"/>
-      <c r="M324" s="7">
-        <v>100</v>
-      </c>
+      <c r="M324" s="7"/>
       <c r="N324" s="7"/>
       <c r="O324" s="7"/>
       <c r="P324" s="7"/>
@@ -52452,12 +52835,12 @@
       <c r="R324" s="7"/>
       <c r="S324" s="7"/>
       <c r="T324" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="325" spans="1:20">
       <c r="A325" s="12">
-        <v>40974</v>
+        <v>40925</v>
       </c>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -52465,11 +52848,11 @@
       <c r="E325" s="7"/>
       <c r="F325" s="7"/>
       <c r="G325" s="7"/>
-      <c r="H325" s="7">
-        <v>100</v>
-      </c>
+      <c r="H325" s="7"/>
       <c r="I325" s="7"/>
-      <c r="J325" s="7"/>
+      <c r="J325" s="7">
+        <v>14</v>
+      </c>
       <c r="K325" s="7"/>
       <c r="L325" s="7"/>
       <c r="M325" s="7"/>
@@ -52480,12 +52863,12 @@
       <c r="R325" s="7"/>
       <c r="S325" s="7"/>
       <c r="T325" s="7">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="326" spans="1:20">
       <c r="A326" s="12">
-        <v>40981</v>
+        <v>40926</v>
       </c>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -52493,13 +52876,11 @@
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
       <c r="G326" s="7"/>
-      <c r="H326" s="7">
-        <v>100</v>
-      </c>
-      <c r="I326" s="7">
-        <v>300</v>
-      </c>
-      <c r="J326" s="7"/>
+      <c r="H326" s="7"/>
+      <c r="I326" s="7"/>
+      <c r="J326" s="7">
+        <v>28</v>
+      </c>
       <c r="K326" s="7"/>
       <c r="L326" s="7"/>
       <c r="M326" s="7"/>
@@ -52510,12 +52891,12 @@
       <c r="R326" s="7"/>
       <c r="S326" s="7"/>
       <c r="T326" s="7">
-        <v>400</v>
+        <v>28</v>
       </c>
     </row>
     <row r="327" spans="1:20">
       <c r="A327" s="12">
-        <v>41032</v>
+        <v>40947</v>
       </c>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -52525,13 +52906,11 @@
       <c r="G327" s="7"/>
       <c r="H327" s="7"/>
       <c r="I327" s="7"/>
-      <c r="J327" s="7"/>
-      <c r="K327" s="7">
+      <c r="J327" s="7">
         <v>100</v>
       </c>
-      <c r="L327" s="7">
-        <v>100</v>
-      </c>
+      <c r="K327" s="7"/>
+      <c r="L327" s="7"/>
       <c r="M327" s="7"/>
       <c r="N327" s="7"/>
       <c r="O327" s="7"/>
@@ -52540,12 +52919,12 @@
       <c r="R327" s="7"/>
       <c r="S327" s="7"/>
       <c r="T327" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="328" spans="1:20">
       <c r="A328" s="12">
-        <v>41037</v>
+        <v>40954</v>
       </c>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -52553,14 +52932,14 @@
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
       <c r="G328" s="7"/>
-      <c r="H328" s="7"/>
+      <c r="H328" s="7">
+        <v>100</v>
+      </c>
       <c r="I328" s="7"/>
       <c r="J328" s="7"/>
       <c r="K328" s="7"/>
       <c r="L328" s="7"/>
-      <c r="M328" s="7">
-        <v>100</v>
-      </c>
+      <c r="M328" s="7"/>
       <c r="N328" s="7"/>
       <c r="O328" s="7"/>
       <c r="P328" s="7"/>
@@ -52573,7 +52952,7 @@
     </row>
     <row r="329" spans="1:20">
       <c r="A329" s="12">
-        <v>41039</v>
+        <v>40973</v>
       </c>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -52586,22 +52965,22 @@
       <c r="J329" s="7"/>
       <c r="K329" s="7"/>
       <c r="L329" s="7"/>
-      <c r="M329" s="7"/>
-      <c r="N329" s="7">
-        <v>35</v>
-      </c>
+      <c r="M329" s="7">
+        <v>100</v>
+      </c>
+      <c r="N329" s="7"/>
       <c r="O329" s="7"/>
       <c r="P329" s="7"/>
       <c r="Q329" s="7"/>
       <c r="R329" s="7"/>
       <c r="S329" s="7"/>
       <c r="T329" s="7">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="330" spans="1:20">
       <c r="A330" s="12">
-        <v>41044</v>
+        <v>40974</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -52609,38 +52988,40 @@
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
       <c r="G330" s="7"/>
-      <c r="H330" s="7"/>
+      <c r="H330" s="7">
+        <v>100</v>
+      </c>
       <c r="I330" s="7"/>
       <c r="J330" s="7"/>
       <c r="K330" s="7"/>
       <c r="L330" s="7"/>
       <c r="M330" s="7"/>
-      <c r="N330" s="7">
-        <v>20</v>
-      </c>
+      <c r="N330" s="7"/>
       <c r="O330" s="7"/>
       <c r="P330" s="7"/>
       <c r="Q330" s="7"/>
       <c r="R330" s="7"/>
       <c r="S330" s="7"/>
       <c r="T330" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="331" spans="1:20">
       <c r="A331" s="12">
-        <v>41050</v>
+        <v>40981</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
-      <c r="G331" s="7">
-        <v>89</v>
-      </c>
-      <c r="H331" s="7"/>
-      <c r="I331" s="7"/>
+      <c r="G331" s="7"/>
+      <c r="H331" s="7">
+        <v>100</v>
+      </c>
+      <c r="I331" s="7">
+        <v>300</v>
+      </c>
       <c r="J331" s="7"/>
       <c r="K331" s="7"/>
       <c r="L331" s="7"/>
@@ -52652,12 +53033,12 @@
       <c r="R331" s="7"/>
       <c r="S331" s="7"/>
       <c r="T331" s="7">
-        <v>89</v>
+        <v>400</v>
       </c>
     </row>
     <row r="332" spans="1:20">
       <c r="A332" s="12">
-        <v>41057</v>
+        <v>41032</v>
       </c>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -52667,11 +53048,13 @@
       <c r="G332" s="7"/>
       <c r="H332" s="7"/>
       <c r="I332" s="7"/>
-      <c r="J332" s="7">
-        <v>300</v>
-      </c>
-      <c r="K332" s="7"/>
-      <c r="L332" s="7"/>
+      <c r="J332" s="7"/>
+      <c r="K332" s="7">
+        <v>100</v>
+      </c>
+      <c r="L332" s="7">
+        <v>100</v>
+      </c>
       <c r="M332" s="7"/>
       <c r="N332" s="7"/>
       <c r="O332" s="7"/>
@@ -52680,12 +53063,12 @@
       <c r="R332" s="7"/>
       <c r="S332" s="7"/>
       <c r="T332" s="7">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="333" spans="1:20">
       <c r="A333" s="12">
-        <v>41060</v>
+        <v>41037</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -52695,12 +53078,12 @@
       <c r="G333" s="7"/>
       <c r="H333" s="7"/>
       <c r="I333" s="7"/>
-      <c r="J333" s="7">
-        <v>10.1</v>
-      </c>
+      <c r="J333" s="7"/>
       <c r="K333" s="7"/>
       <c r="L333" s="7"/>
-      <c r="M333" s="7"/>
+      <c r="M333" s="7">
+        <v>100</v>
+      </c>
       <c r="N333" s="7"/>
       <c r="O333" s="7"/>
       <c r="P333" s="7"/>
@@ -52708,40 +53091,40 @@
       <c r="R333" s="7"/>
       <c r="S333" s="7"/>
       <c r="T333" s="7">
-        <v>10.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="334" spans="1:20">
       <c r="A334" s="12">
-        <v>41066</v>
+        <v>41039</v>
       </c>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
       <c r="D334" s="7"/>
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
-      <c r="G334" s="7">
-        <v>300</v>
-      </c>
+      <c r="G334" s="7"/>
       <c r="H334" s="7"/>
       <c r="I334" s="7"/>
       <c r="J334" s="7"/>
       <c r="K334" s="7"/>
       <c r="L334" s="7"/>
       <c r="M334" s="7"/>
-      <c r="N334" s="7"/>
+      <c r="N334" s="7">
+        <v>35</v>
+      </c>
       <c r="O334" s="7"/>
       <c r="P334" s="7"/>
       <c r="Q334" s="7"/>
       <c r="R334" s="7"/>
       <c r="S334" s="7"/>
       <c r="T334" s="7">
-        <v>300</v>
+        <v>35</v>
       </c>
     </row>
     <row r="335" spans="1:20">
       <c r="A335" s="12">
-        <v>41070</v>
+        <v>41044</v>
       </c>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -52751,37 +53134,37 @@
       <c r="G335" s="7"/>
       <c r="H335" s="7"/>
       <c r="I335" s="7"/>
-      <c r="J335" s="7">
-        <v>130</v>
-      </c>
+      <c r="J335" s="7"/>
       <c r="K335" s="7"/>
       <c r="L335" s="7"/>
       <c r="M335" s="7"/>
-      <c r="N335" s="7"/>
+      <c r="N335" s="7">
+        <v>20</v>
+      </c>
       <c r="O335" s="7"/>
       <c r="P335" s="7"/>
       <c r="Q335" s="7"/>
       <c r="R335" s="7"/>
       <c r="S335" s="7"/>
       <c r="T335" s="7">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="336" spans="1:20">
       <c r="A336" s="12">
-        <v>41071</v>
+        <v>41050</v>
       </c>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
       <c r="D336" s="7"/>
       <c r="E336" s="7"/>
       <c r="F336" s="7"/>
-      <c r="G336" s="7"/>
+      <c r="G336" s="7">
+        <v>89</v>
+      </c>
       <c r="H336" s="7"/>
       <c r="I336" s="7"/>
-      <c r="J336" s="7">
-        <v>81.400000000000006</v>
-      </c>
+      <c r="J336" s="7"/>
       <c r="K336" s="7"/>
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
@@ -52792,12 +53175,12 @@
       <c r="R336" s="7"/>
       <c r="S336" s="7"/>
       <c r="T336" s="7">
-        <v>81.400000000000006</v>
+        <v>89</v>
       </c>
     </row>
     <row r="337" spans="1:20">
       <c r="A337" s="12">
-        <v>41072</v>
+        <v>41057</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -52808,7 +53191,7 @@
       <c r="H337" s="7"/>
       <c r="I337" s="7"/>
       <c r="J337" s="7">
-        <v>77.599999999999994</v>
+        <v>300</v>
       </c>
       <c r="K337" s="7"/>
       <c r="L337" s="7"/>
@@ -52820,25 +53203,23 @@
       <c r="R337" s="7"/>
       <c r="S337" s="7"/>
       <c r="T337" s="7">
-        <v>77.599999999999994</v>
+        <v>300</v>
       </c>
     </row>
     <row r="338" spans="1:20">
       <c r="A338" s="12">
-        <v>41078</v>
+        <v>41060</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
-      <c r="G338" s="7">
-        <v>47</v>
-      </c>
+      <c r="G338" s="7"/>
       <c r="H338" s="7"/>
       <c r="I338" s="7"/>
       <c r="J338" s="7">
-        <v>50</v>
+        <v>10.1</v>
       </c>
       <c r="K338" s="7"/>
       <c r="L338" s="7"/>
@@ -52850,24 +53231,24 @@
       <c r="R338" s="7"/>
       <c r="S338" s="7"/>
       <c r="T338" s="7">
-        <v>97</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="339" spans="1:20">
       <c r="A339" s="12">
-        <v>41082</v>
+        <v>41066</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
-      <c r="G339" s="7"/>
+      <c r="G339" s="7">
+        <v>300</v>
+      </c>
       <c r="H339" s="7"/>
       <c r="I339" s="7"/>
-      <c r="J339" s="7">
-        <v>98</v>
-      </c>
+      <c r="J339" s="7"/>
       <c r="K339" s="7"/>
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
@@ -52878,12 +53259,12 @@
       <c r="R339" s="7"/>
       <c r="S339" s="7"/>
       <c r="T339" s="7">
-        <v>98</v>
+        <v>300</v>
       </c>
     </row>
     <row r="340" spans="1:20">
       <c r="A340" s="12">
-        <v>41083</v>
+        <v>41070</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -52894,7 +53275,7 @@
       <c r="H340" s="7"/>
       <c r="I340" s="7"/>
       <c r="J340" s="7">
-        <v>39.9</v>
+        <v>130</v>
       </c>
       <c r="K340" s="7"/>
       <c r="L340" s="7"/>
@@ -52906,24 +53287,24 @@
       <c r="R340" s="7"/>
       <c r="S340" s="7"/>
       <c r="T340" s="7">
-        <v>39.9</v>
+        <v>130</v>
       </c>
     </row>
     <row r="341" spans="1:20">
       <c r="A341" s="12">
-        <v>41085</v>
+        <v>41071</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
-      <c r="G341" s="7">
-        <v>300</v>
-      </c>
+      <c r="G341" s="7"/>
       <c r="H341" s="7"/>
       <c r="I341" s="7"/>
-      <c r="J341" s="7"/>
+      <c r="J341" s="7">
+        <v>81.400000000000006</v>
+      </c>
       <c r="K341" s="7"/>
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
@@ -52934,12 +53315,12 @@
       <c r="R341" s="7"/>
       <c r="S341" s="7"/>
       <c r="T341" s="7">
-        <v>300</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="342" spans="1:20">
       <c r="A342" s="12">
-        <v>41088</v>
+        <v>41072</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -52950,7 +53331,7 @@
       <c r="H342" s="7"/>
       <c r="I342" s="7"/>
       <c r="J342" s="7">
-        <v>20</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="K342" s="7"/>
       <c r="L342" s="7"/>
@@ -52962,40 +53343,42 @@
       <c r="R342" s="7"/>
       <c r="S342" s="7"/>
       <c r="T342" s="7">
-        <v>20</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="343" spans="1:20">
       <c r="A343" s="12">
-        <v>41092</v>
+        <v>41078</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
-      <c r="G343" s="7"/>
+      <c r="G343" s="7">
+        <v>47</v>
+      </c>
       <c r="H343" s="7"/>
       <c r="I343" s="7"/>
-      <c r="J343" s="7"/>
+      <c r="J343" s="7">
+        <v>50</v>
+      </c>
       <c r="K343" s="7"/>
       <c r="L343" s="7"/>
       <c r="M343" s="7"/>
       <c r="N343" s="7"/>
-      <c r="O343" s="7">
-        <v>93</v>
-      </c>
+      <c r="O343" s="7"/>
       <c r="P343" s="7"/>
       <c r="Q343" s="7"/>
       <c r="R343" s="7"/>
       <c r="S343" s="7"/>
       <c r="T343" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="344" spans="1:20">
       <c r="A344" s="12">
-        <v>41093</v>
+        <v>41082</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -53006,7 +53389,7 @@
       <c r="H344" s="7"/>
       <c r="I344" s="7"/>
       <c r="J344" s="7">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K344" s="7"/>
       <c r="L344" s="7"/>
@@ -53018,25 +53401,23 @@
       <c r="R344" s="7"/>
       <c r="S344" s="7"/>
       <c r="T344" s="7">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="345" spans="1:20">
       <c r="A345" s="12">
-        <v>41095</v>
+        <v>41083</v>
       </c>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
       <c r="F345" s="7"/>
-      <c r="G345" s="7">
-        <v>70</v>
-      </c>
+      <c r="G345" s="7"/>
       <c r="H345" s="7"/>
       <c r="I345" s="7"/>
       <c r="J345" s="7">
-        <v>98</v>
+        <v>39.9</v>
       </c>
       <c r="K345" s="7"/>
       <c r="L345" s="7"/>
@@ -53048,23 +53429,23 @@
       <c r="R345" s="7"/>
       <c r="S345" s="7"/>
       <c r="T345" s="7">
-        <v>168</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="346" spans="1:20">
       <c r="A346" s="12">
-        <v>41100</v>
+        <v>41085</v>
       </c>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
       <c r="F346" s="7"/>
-      <c r="G346" s="7"/>
+      <c r="G346" s="7">
+        <v>300</v>
+      </c>
       <c r="H346" s="7"/>
-      <c r="I346" s="7">
-        <v>16</v>
-      </c>
+      <c r="I346" s="7"/>
       <c r="J346" s="7"/>
       <c r="K346" s="7"/>
       <c r="L346" s="7"/>
@@ -53076,12 +53457,12 @@
       <c r="R346" s="7"/>
       <c r="S346" s="7"/>
       <c r="T346" s="7">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="347" spans="1:20">
       <c r="A347" s="12">
-        <v>41108</v>
+        <v>41088</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -53090,10 +53471,10 @@
       <c r="F347" s="7"/>
       <c r="G347" s="7"/>
       <c r="H347" s="7"/>
-      <c r="I347" s="7">
-        <v>63</v>
-      </c>
-      <c r="J347" s="7"/>
+      <c r="I347" s="7"/>
+      <c r="J347" s="7">
+        <v>20</v>
+      </c>
       <c r="K347" s="7"/>
       <c r="L347" s="7"/>
       <c r="M347" s="7"/>
@@ -53104,12 +53485,12 @@
       <c r="R347" s="7"/>
       <c r="S347" s="7"/>
       <c r="T347" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="348" spans="1:20">
       <c r="A348" s="12">
-        <v>41110</v>
+        <v>41092</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -53118,26 +53499,26 @@
       <c r="F348" s="7"/>
       <c r="G348" s="7"/>
       <c r="H348" s="7"/>
-      <c r="I348" s="7">
-        <v>15</v>
-      </c>
+      <c r="I348" s="7"/>
       <c r="J348" s="7"/>
       <c r="K348" s="7"/>
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
       <c r="N348" s="7"/>
-      <c r="O348" s="7"/>
+      <c r="O348" s="7">
+        <v>93</v>
+      </c>
       <c r="P348" s="7"/>
       <c r="Q348" s="7"/>
       <c r="R348" s="7"/>
       <c r="S348" s="7"/>
       <c r="T348" s="7">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="349" spans="1:20">
       <c r="A349" s="12">
-        <v>41116</v>
+        <v>41093</v>
       </c>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -53146,10 +53527,10 @@
       <c r="F349" s="7"/>
       <c r="G349" s="7"/>
       <c r="H349" s="7"/>
-      <c r="I349" s="7">
-        <v>83</v>
-      </c>
-      <c r="J349" s="7"/>
+      <c r="I349" s="7"/>
+      <c r="J349" s="7">
+        <v>100</v>
+      </c>
       <c r="K349" s="7"/>
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
@@ -53160,26 +53541,26 @@
       <c r="R349" s="7"/>
       <c r="S349" s="7"/>
       <c r="T349" s="7">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="350" spans="1:20">
       <c r="A350" s="12">
-        <v>41136</v>
+        <v>41095</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
       <c r="F350" s="7"/>
-      <c r="G350" s="7"/>
-      <c r="H350" s="7">
-        <v>55</v>
-      </c>
-      <c r="I350" s="7">
-        <v>39</v>
-      </c>
-      <c r="J350" s="7"/>
+      <c r="G350" s="7">
+        <v>70</v>
+      </c>
+      <c r="H350" s="7"/>
+      <c r="I350" s="7"/>
+      <c r="J350" s="7">
+        <v>98</v>
+      </c>
       <c r="K350" s="7"/>
       <c r="L350" s="7"/>
       <c r="M350" s="7"/>
@@ -53190,23 +53571,23 @@
       <c r="R350" s="7"/>
       <c r="S350" s="7"/>
       <c r="T350" s="7">
-        <v>94</v>
+        <v>168</v>
       </c>
     </row>
     <row r="351" spans="1:20">
       <c r="A351" s="12">
-        <v>41138</v>
+        <v>41100</v>
       </c>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
       <c r="F351" s="7"/>
-      <c r="G351" s="7">
-        <v>100.4</v>
-      </c>
+      <c r="G351" s="7"/>
       <c r="H351" s="7"/>
-      <c r="I351" s="7"/>
+      <c r="I351" s="7">
+        <v>16</v>
+      </c>
       <c r="J351" s="7"/>
       <c r="K351" s="7"/>
       <c r="L351" s="7"/>
@@ -53218,12 +53599,12 @@
       <c r="R351" s="7"/>
       <c r="S351" s="7"/>
       <c r="T351" s="7">
-        <v>100.4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="352" spans="1:20">
       <c r="A352" s="12">
-        <v>41151</v>
+        <v>41108</v>
       </c>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -53232,10 +53613,10 @@
       <c r="F352" s="7"/>
       <c r="G352" s="7"/>
       <c r="H352" s="7"/>
-      <c r="I352" s="7"/>
-      <c r="J352" s="7">
-        <v>100</v>
-      </c>
+      <c r="I352" s="7">
+        <v>63</v>
+      </c>
+      <c r="J352" s="7"/>
       <c r="K352" s="7"/>
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
@@ -53246,12 +53627,12 @@
       <c r="R352" s="7"/>
       <c r="S352" s="7"/>
       <c r="T352" s="7">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="353" spans="1:20">
       <c r="A353" s="12">
-        <v>41156</v>
+        <v>41110</v>
       </c>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -53279,7 +53660,7 @@
     </row>
     <row r="354" spans="1:20">
       <c r="A354" s="12">
-        <v>41161</v>
+        <v>41116</v>
       </c>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -53289,7 +53670,7 @@
       <c r="G354" s="7"/>
       <c r="H354" s="7"/>
       <c r="I354" s="7">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J354" s="7"/>
       <c r="K354" s="7"/>
@@ -53302,12 +53683,12 @@
       <c r="R354" s="7"/>
       <c r="S354" s="7"/>
       <c r="T354" s="7">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="355" spans="1:20">
       <c r="A355" s="12">
-        <v>41162</v>
+        <v>41136</v>
       </c>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -53315,57 +53696,57 @@
       <c r="E355" s="7"/>
       <c r="F355" s="7"/>
       <c r="G355" s="7"/>
-      <c r="H355" s="7"/>
-      <c r="I355" s="7"/>
-      <c r="J355" s="7">
-        <v>100</v>
-      </c>
+      <c r="H355" s="7">
+        <v>55</v>
+      </c>
+      <c r="I355" s="7">
+        <v>39</v>
+      </c>
+      <c r="J355" s="7"/>
       <c r="K355" s="7"/>
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
-      <c r="N355" s="7">
-        <v>48</v>
-      </c>
+      <c r="N355" s="7"/>
       <c r="O355" s="7"/>
       <c r="P355" s="7"/>
       <c r="Q355" s="7"/>
       <c r="R355" s="7"/>
       <c r="S355" s="7"/>
       <c r="T355" s="7">
-        <v>148</v>
+        <v>94</v>
       </c>
     </row>
     <row r="356" spans="1:20">
       <c r="A356" s="12">
-        <v>41166</v>
+        <v>41138</v>
       </c>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
       <c r="F356" s="7"/>
-      <c r="G356" s="7"/>
+      <c r="G356" s="7">
+        <v>100.4</v>
+      </c>
       <c r="H356" s="7"/>
       <c r="I356" s="7"/>
       <c r="J356" s="7"/>
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
-      <c r="N356" s="7">
-        <v>100</v>
-      </c>
+      <c r="N356" s="7"/>
       <c r="O356" s="7"/>
       <c r="P356" s="7"/>
       <c r="Q356" s="7"/>
       <c r="R356" s="7"/>
       <c r="S356" s="7"/>
       <c r="T356" s="7">
-        <v>100</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="357" spans="1:20">
       <c r="A357" s="12">
-        <v>41171</v>
+        <v>41151</v>
       </c>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -53375,36 +53756,36 @@
       <c r="G357" s="7"/>
       <c r="H357" s="7"/>
       <c r="I357" s="7"/>
-      <c r="J357" s="7"/>
+      <c r="J357" s="7">
+        <v>100</v>
+      </c>
       <c r="K357" s="7"/>
       <c r="L357" s="7"/>
       <c r="M357" s="7"/>
-      <c r="N357" s="7">
-        <v>10</v>
-      </c>
+      <c r="N357" s="7"/>
       <c r="O357" s="7"/>
       <c r="P357" s="7"/>
       <c r="Q357" s="7"/>
       <c r="R357" s="7"/>
       <c r="S357" s="7"/>
       <c r="T357" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="358" spans="1:20">
       <c r="A358" s="12">
-        <v>41175</v>
+        <v>41156</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
-      <c r="F358" s="7">
-        <v>100</v>
-      </c>
+      <c r="F358" s="7"/>
       <c r="G358" s="7"/>
       <c r="H358" s="7"/>
-      <c r="I358" s="7"/>
+      <c r="I358" s="7">
+        <v>15</v>
+      </c>
       <c r="J358" s="7"/>
       <c r="K358" s="7"/>
       <c r="L358" s="7"/>
@@ -53416,46 +53797,40 @@
       <c r="R358" s="7"/>
       <c r="S358" s="7"/>
       <c r="T358" s="7">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="359" spans="1:20">
       <c r="A359" s="12">
-        <v>41197</v>
-      </c>
-      <c r="B359" s="7">
-        <v>10</v>
-      </c>
+        <v>41161</v>
+      </c>
+      <c r="B359" s="7"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
       <c r="F359" s="7"/>
-      <c r="G359" s="7">
-        <v>10</v>
-      </c>
+      <c r="G359" s="7"/>
       <c r="H359" s="7"/>
-      <c r="I359" s="7"/>
-      <c r="J359" s="7">
-        <v>10</v>
-      </c>
+      <c r="I359" s="7">
+        <v>76</v>
+      </c>
+      <c r="J359" s="7"/>
       <c r="K359" s="7"/>
       <c r="L359" s="7"/>
       <c r="M359" s="7"/>
-      <c r="N359" s="7">
-        <v>60</v>
-      </c>
+      <c r="N359" s="7"/>
       <c r="O359" s="7"/>
       <c r="P359" s="7"/>
       <c r="Q359" s="7"/>
       <c r="R359" s="7"/>
       <c r="S359" s="7"/>
       <c r="T359" s="7">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="360" spans="1:20">
       <c r="A360" s="12">
-        <v>41198</v>
+        <v>41162</v>
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -53465,12 +53840,14 @@
       <c r="G360" s="7"/>
       <c r="H360" s="7"/>
       <c r="I360" s="7"/>
-      <c r="J360" s="7"/>
+      <c r="J360" s="7">
+        <v>100</v>
+      </c>
       <c r="K360" s="7"/>
       <c r="L360" s="7"/>
       <c r="M360" s="7"/>
       <c r="N360" s="7">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O360" s="7"/>
       <c r="P360" s="7"/>
@@ -53478,12 +53855,12 @@
       <c r="R360" s="7"/>
       <c r="S360" s="7"/>
       <c r="T360" s="7">
-        <v>40</v>
+        <v>148</v>
       </c>
     </row>
     <row r="361" spans="1:20">
       <c r="A361" s="12">
-        <v>41205</v>
+        <v>41166</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
@@ -53493,18 +53870,12 @@
       <c r="G361" s="7"/>
       <c r="H361" s="7"/>
       <c r="I361" s="7"/>
-      <c r="J361" s="7">
-        <v>162</v>
-      </c>
-      <c r="K361" s="7">
+      <c r="J361" s="7"/>
+      <c r="K361" s="7"/>
+      <c r="L361" s="7"/>
+      <c r="M361" s="7"/>
+      <c r="N361" s="7">
         <v>100</v>
-      </c>
-      <c r="L361" s="7"/>
-      <c r="M361" s="7">
-        <v>100</v>
-      </c>
-      <c r="N361" s="7">
-        <v>70</v>
       </c>
       <c r="O361" s="7"/>
       <c r="P361" s="7"/>
@@ -53512,12 +53883,12 @@
       <c r="R361" s="7"/>
       <c r="S361" s="7"/>
       <c r="T361" s="7">
-        <v>432</v>
+        <v>100</v>
       </c>
     </row>
     <row r="362" spans="1:20">
       <c r="A362" s="12">
-        <v>41214</v>
+        <v>41171</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -53527,37 +53898,37 @@
       <c r="G362" s="7"/>
       <c r="H362" s="7"/>
       <c r="I362" s="7"/>
-      <c r="J362" s="7">
-        <v>2</v>
-      </c>
+      <c r="J362" s="7"/>
       <c r="K362" s="7"/>
       <c r="L362" s="7"/>
       <c r="M362" s="7"/>
-      <c r="N362" s="7"/>
+      <c r="N362" s="7">
+        <v>10</v>
+      </c>
       <c r="O362" s="7"/>
       <c r="P362" s="7"/>
       <c r="Q362" s="7"/>
       <c r="R362" s="7"/>
       <c r="S362" s="7"/>
       <c r="T362" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363" spans="1:20">
       <c r="A363" s="12">
-        <v>41215</v>
+        <v>41175</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
-      <c r="F363" s="7"/>
+      <c r="F363" s="7">
+        <v>100</v>
+      </c>
       <c r="G363" s="7"/>
       <c r="H363" s="7"/>
       <c r="I363" s="7"/>
-      <c r="J363" s="7">
-        <v>4</v>
-      </c>
+      <c r="J363" s="7"/>
       <c r="K363" s="7"/>
       <c r="L363" s="7"/>
       <c r="M363" s="7"/>
@@ -53568,72 +53939,74 @@
       <c r="R363" s="7"/>
       <c r="S363" s="7"/>
       <c r="T363" s="7">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="364" spans="1:20">
       <c r="A364" s="12">
-        <v>41237</v>
-      </c>
-      <c r="B364" s="7"/>
+        <v>41197</v>
+      </c>
+      <c r="B364" s="7">
+        <v>10</v>
+      </c>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
-      <c r="G364" s="7"/>
+      <c r="G364" s="7">
+        <v>10</v>
+      </c>
       <c r="H364" s="7"/>
       <c r="I364" s="7"/>
       <c r="J364" s="7">
-        <v>100</v>
-      </c>
-      <c r="K364" s="7">
-        <v>100</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K364" s="7"/>
       <c r="L364" s="7"/>
       <c r="M364" s="7"/>
-      <c r="N364" s="7"/>
+      <c r="N364" s="7">
+        <v>60</v>
+      </c>
       <c r="O364" s="7"/>
       <c r="P364" s="7"/>
       <c r="Q364" s="7"/>
       <c r="R364" s="7"/>
       <c r="S364" s="7"/>
       <c r="T364" s="7">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="365" spans="1:20">
       <c r="A365" s="12">
-        <v>41242</v>
+        <v>41198</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
-      <c r="G365" s="7">
-        <v>100</v>
-      </c>
+      <c r="G365" s="7"/>
       <c r="H365" s="7"/>
       <c r="I365" s="7"/>
-      <c r="J365" s="7">
-        <v>81</v>
-      </c>
+      <c r="J365" s="7"/>
       <c r="K365" s="7"/>
       <c r="L365" s="7"/>
       <c r="M365" s="7"/>
-      <c r="N365" s="7"/>
+      <c r="N365" s="7">
+        <v>40</v>
+      </c>
       <c r="O365" s="7"/>
       <c r="P365" s="7"/>
       <c r="Q365" s="7"/>
       <c r="R365" s="7"/>
       <c r="S365" s="7"/>
       <c r="T365" s="7">
-        <v>181</v>
+        <v>40</v>
       </c>
     </row>
     <row r="366" spans="1:20">
       <c r="A366" s="12">
-        <v>41253</v>
+        <v>41205</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -53644,36 +54017,42 @@
       <c r="H366" s="7"/>
       <c r="I366" s="7"/>
       <c r="J366" s="7">
-        <v>10</v>
-      </c>
-      <c r="K366" s="7"/>
+        <v>162</v>
+      </c>
+      <c r="K366" s="7">
+        <v>100</v>
+      </c>
       <c r="L366" s="7"/>
-      <c r="M366" s="7"/>
-      <c r="N366" s="7"/>
+      <c r="M366" s="7">
+        <v>100</v>
+      </c>
+      <c r="N366" s="7">
+        <v>70</v>
+      </c>
       <c r="O366" s="7"/>
       <c r="P366" s="7"/>
       <c r="Q366" s="7"/>
       <c r="R366" s="7"/>
       <c r="S366" s="7"/>
       <c r="T366" s="7">
-        <v>10</v>
+        <v>432</v>
       </c>
     </row>
     <row r="367" spans="1:20">
       <c r="A367" s="12">
-        <v>41268</v>
+        <v>41214</v>
       </c>
       <c r="B367" s="7"/>
-      <c r="C367" s="7">
-        <v>24</v>
-      </c>
+      <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
       <c r="G367" s="7"/>
       <c r="H367" s="7"/>
       <c r="I367" s="7"/>
-      <c r="J367" s="7"/>
+      <c r="J367" s="7">
+        <v>2</v>
+      </c>
       <c r="K367" s="7"/>
       <c r="L367" s="7"/>
       <c r="M367" s="7"/>
@@ -53684,24 +54063,24 @@
       <c r="R367" s="7"/>
       <c r="S367" s="7"/>
       <c r="T367" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:20">
       <c r="A368" s="12">
-        <v>41281</v>
+        <v>41215</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
       <c r="F368" s="7"/>
-      <c r="G368" s="7">
-        <v>200</v>
-      </c>
+      <c r="G368" s="7"/>
       <c r="H368" s="7"/>
       <c r="I368" s="7"/>
-      <c r="J368" s="7"/>
+      <c r="J368" s="7">
+        <v>4</v>
+      </c>
       <c r="K368" s="7"/>
       <c r="L368" s="7"/>
       <c r="M368" s="7"/>
@@ -53712,12 +54091,12 @@
       <c r="R368" s="7"/>
       <c r="S368" s="7"/>
       <c r="T368" s="7">
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:20">
       <c r="A369" s="12">
-        <v>41310</v>
+        <v>41237</v>
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -53726,13 +54105,13 @@
       <c r="F369" s="7"/>
       <c r="G369" s="7"/>
       <c r="H369" s="7"/>
-      <c r="I369" s="7">
-        <v>22</v>
-      </c>
+      <c r="I369" s="7"/>
       <c r="J369" s="7">
-        <v>31.9</v>
-      </c>
-      <c r="K369" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="K369" s="7">
+        <v>100</v>
+      </c>
       <c r="L369" s="7"/>
       <c r="M369" s="7"/>
       <c r="N369" s="7"/>
@@ -53742,12 +54121,12 @@
       <c r="R369" s="7"/>
       <c r="S369" s="7"/>
       <c r="T369" s="7">
-        <v>53.9</v>
+        <v>200</v>
       </c>
     </row>
     <row r="370" spans="1:20">
       <c r="A370" s="12">
-        <v>41323</v>
+        <v>41242</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -53755,11 +54134,13 @@
       <c r="E370" s="7"/>
       <c r="F370" s="7"/>
       <c r="G370" s="7">
-        <v>119.6</v>
+        <v>100</v>
       </c>
       <c r="H370" s="7"/>
       <c r="I370" s="7"/>
-      <c r="J370" s="7"/>
+      <c r="J370" s="7">
+        <v>81</v>
+      </c>
       <c r="K370" s="7"/>
       <c r="L370" s="7"/>
       <c r="M370" s="7"/>
@@ -53770,24 +54151,24 @@
       <c r="R370" s="7"/>
       <c r="S370" s="7"/>
       <c r="T370" s="7">
-        <v>119.6</v>
+        <v>181</v>
       </c>
     </row>
     <row r="371" spans="1:20">
       <c r="A371" s="12">
-        <v>41331</v>
+        <v>41253</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
-      <c r="G371" s="7">
-        <v>100</v>
-      </c>
+      <c r="G371" s="7"/>
       <c r="H371" s="7"/>
       <c r="I371" s="7"/>
-      <c r="J371" s="7"/>
+      <c r="J371" s="7">
+        <v>10</v>
+      </c>
       <c r="K371" s="7"/>
       <c r="L371" s="7"/>
       <c r="M371" s="7"/>
@@ -53798,24 +54179,24 @@
       <c r="R371" s="7"/>
       <c r="S371" s="7"/>
       <c r="T371" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="372" spans="1:20">
       <c r="A372" s="12">
-        <v>41361</v>
+        <v>41268</v>
       </c>
       <c r="B372" s="7"/>
-      <c r="C372" s="7"/>
+      <c r="C372" s="7">
+        <v>24</v>
+      </c>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
       <c r="G372" s="7"/>
       <c r="H372" s="7"/>
       <c r="I372" s="7"/>
-      <c r="J372" s="7">
-        <v>40</v>
-      </c>
+      <c r="J372" s="7"/>
       <c r="K372" s="7"/>
       <c r="L372" s="7"/>
       <c r="M372" s="7"/>
@@ -53826,23 +54207,23 @@
       <c r="R372" s="7"/>
       <c r="S372" s="7"/>
       <c r="T372" s="7">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="373" spans="1:20">
       <c r="A373" s="12">
-        <v>41373</v>
+        <v>41281</v>
       </c>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
-      <c r="G373" s="7"/>
+      <c r="G373" s="7">
+        <v>200</v>
+      </c>
       <c r="H373" s="7"/>
-      <c r="I373" s="7">
-        <v>91</v>
-      </c>
+      <c r="I373" s="7"/>
       <c r="J373" s="7"/>
       <c r="K373" s="7"/>
       <c r="L373" s="7"/>
@@ -53854,12 +54235,12 @@
       <c r="R373" s="7"/>
       <c r="S373" s="7"/>
       <c r="T373" s="7">
-        <v>91</v>
+        <v>200</v>
       </c>
     </row>
     <row r="374" spans="1:20">
       <c r="A374" s="12">
-        <v>41374</v>
+        <v>41310</v>
       </c>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -53868,26 +54249,28 @@
       <c r="F374" s="7"/>
       <c r="G374" s="7"/>
       <c r="H374" s="7"/>
-      <c r="I374" s="7"/>
-      <c r="J374" s="7"/>
+      <c r="I374" s="7">
+        <v>22</v>
+      </c>
+      <c r="J374" s="7">
+        <v>31.9</v>
+      </c>
       <c r="K374" s="7"/>
       <c r="L374" s="7"/>
       <c r="M374" s="7"/>
-      <c r="N374" s="7">
-        <v>75</v>
-      </c>
+      <c r="N374" s="7"/>
       <c r="O374" s="7"/>
       <c r="P374" s="7"/>
       <c r="Q374" s="7"/>
       <c r="R374" s="7"/>
       <c r="S374" s="7"/>
       <c r="T374" s="7">
-        <v>75</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="375" spans="1:20">
       <c r="A375" s="12">
-        <v>41376</v>
+        <v>41323</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -53895,7 +54278,7 @@
       <c r="E375" s="7"/>
       <c r="F375" s="7"/>
       <c r="G375" s="7">
-        <v>97</v>
+        <v>119.6</v>
       </c>
       <c r="H375" s="7"/>
       <c r="I375" s="7"/>
@@ -53904,37 +54287,33 @@
       <c r="L375" s="7"/>
       <c r="M375" s="7"/>
       <c r="N375" s="7"/>
-      <c r="O375" s="7">
-        <v>50</v>
-      </c>
-      <c r="P375" s="7">
-        <v>100</v>
-      </c>
+      <c r="O375" s="7"/>
+      <c r="P375" s="7"/>
       <c r="Q375" s="7"/>
       <c r="R375" s="7"/>
       <c r="S375" s="7"/>
       <c r="T375" s="7">
-        <v>247</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="376" spans="1:20">
       <c r="A376" s="12">
-        <v>41382</v>
+        <v>41331</v>
       </c>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
       <c r="F376" s="7"/>
-      <c r="G376" s="7"/>
+      <c r="G376" s="7">
+        <v>100</v>
+      </c>
       <c r="H376" s="7"/>
       <c r="I376" s="7"/>
       <c r="J376" s="7"/>
       <c r="K376" s="7"/>
       <c r="L376" s="7"/>
-      <c r="M376" s="7">
-        <v>100</v>
-      </c>
+      <c r="M376" s="7"/>
       <c r="N376" s="7"/>
       <c r="O376" s="7"/>
       <c r="P376" s="7"/>
@@ -53947,7 +54326,7 @@
     </row>
     <row r="377" spans="1:20">
       <c r="A377" s="12">
-        <v>41383</v>
+        <v>41361</v>
       </c>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -53957,25 +54336,25 @@
       <c r="G377" s="7"/>
       <c r="H377" s="7"/>
       <c r="I377" s="7"/>
-      <c r="J377" s="7"/>
+      <c r="J377" s="7">
+        <v>40</v>
+      </c>
       <c r="K377" s="7"/>
       <c r="L377" s="7"/>
       <c r="M377" s="7"/>
       <c r="N377" s="7"/>
-      <c r="O377" s="7">
-        <v>100</v>
-      </c>
+      <c r="O377" s="7"/>
       <c r="P377" s="7"/>
       <c r="Q377" s="7"/>
       <c r="R377" s="7"/>
       <c r="S377" s="7"/>
       <c r="T377" s="7">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="378" spans="1:20">
       <c r="A378" s="12">
-        <v>41386</v>
+        <v>41373</v>
       </c>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -53984,26 +54363,26 @@
       <c r="F378" s="7"/>
       <c r="G378" s="7"/>
       <c r="H378" s="7"/>
-      <c r="I378" s="7"/>
+      <c r="I378" s="7">
+        <v>91</v>
+      </c>
       <c r="J378" s="7"/>
       <c r="K378" s="7"/>
       <c r="L378" s="7"/>
       <c r="M378" s="7"/>
-      <c r="N378" s="7">
-        <v>40</v>
-      </c>
+      <c r="N378" s="7"/>
       <c r="O378" s="7"/>
       <c r="P378" s="7"/>
       <c r="Q378" s="7"/>
       <c r="R378" s="7"/>
       <c r="S378" s="7"/>
       <c r="T378" s="7">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="379" spans="1:20">
       <c r="A379" s="12">
-        <v>41387</v>
+        <v>41374</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -54018,7 +54397,7 @@
       <c r="L379" s="7"/>
       <c r="M379" s="7"/>
       <c r="N379" s="7">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="O379" s="7"/>
       <c r="P379" s="7"/>
@@ -54026,12 +54405,12 @@
       <c r="R379" s="7"/>
       <c r="S379" s="7"/>
       <c r="T379" s="7">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="380" spans="1:20">
       <c r="A380" s="12">
-        <v>41388</v>
+        <v>41376</v>
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -54039,31 +54418,31 @@
       <c r="E380" s="7"/>
       <c r="F380" s="7"/>
       <c r="G380" s="7">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="H380" s="7"/>
       <c r="I380" s="7"/>
       <c r="J380" s="7"/>
       <c r="K380" s="7"/>
       <c r="L380" s="7"/>
-      <c r="M380" s="7">
-        <v>40</v>
-      </c>
-      <c r="N380" s="7">
-        <v>11</v>
-      </c>
-      <c r="O380" s="7"/>
-      <c r="P380" s="7"/>
+      <c r="M380" s="7"/>
+      <c r="N380" s="7"/>
+      <c r="O380" s="7">
+        <v>50</v>
+      </c>
+      <c r="P380" s="7">
+        <v>100</v>
+      </c>
       <c r="Q380" s="7"/>
       <c r="R380" s="7"/>
       <c r="S380" s="7"/>
       <c r="T380" s="7">
-        <v>71</v>
+        <v>247</v>
       </c>
     </row>
     <row r="381" spans="1:20">
       <c r="A381" s="12">
-        <v>41390</v>
+        <v>41382</v>
       </c>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -54072,13 +54451,13 @@
       <c r="F381" s="7"/>
       <c r="G381" s="7"/>
       <c r="H381" s="7"/>
-      <c r="I381" s="7">
-        <v>120</v>
-      </c>
+      <c r="I381" s="7"/>
       <c r="J381" s="7"/>
       <c r="K381" s="7"/>
       <c r="L381" s="7"/>
-      <c r="M381" s="7"/>
+      <c r="M381" s="7">
+        <v>100</v>
+      </c>
       <c r="N381" s="7"/>
       <c r="O381" s="7"/>
       <c r="P381" s="7"/>
@@ -54086,12 +54465,12 @@
       <c r="R381" s="7"/>
       <c r="S381" s="7"/>
       <c r="T381" s="7">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="382" spans="1:20">
       <c r="A382" s="12">
-        <v>41397</v>
+        <v>41383</v>
       </c>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -54099,29 +54478,27 @@
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
       <c r="G382" s="7"/>
-      <c r="H382" s="7">
-        <v>50</v>
-      </c>
+      <c r="H382" s="7"/>
       <c r="I382" s="7"/>
       <c r="J382" s="7"/>
       <c r="K382" s="7"/>
       <c r="L382" s="7"/>
       <c r="M382" s="7"/>
-      <c r="N382" s="7">
+      <c r="N382" s="7"/>
+      <c r="O382" s="7">
         <v>100</v>
       </c>
-      <c r="O382" s="7"/>
       <c r="P382" s="7"/>
       <c r="Q382" s="7"/>
       <c r="R382" s="7"/>
       <c r="S382" s="7"/>
       <c r="T382" s="7">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="383" spans="1:20">
       <c r="A383" s="12">
-        <v>41401</v>
+        <v>41386</v>
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
@@ -54135,21 +54512,21 @@
       <c r="K383" s="7"/>
       <c r="L383" s="7"/>
       <c r="M383" s="7"/>
-      <c r="N383" s="7"/>
+      <c r="N383" s="7">
+        <v>40</v>
+      </c>
       <c r="O383" s="7"/>
-      <c r="P383" s="7">
-        <v>100</v>
-      </c>
+      <c r="P383" s="7"/>
       <c r="Q383" s="7"/>
       <c r="R383" s="7"/>
       <c r="S383" s="7"/>
       <c r="T383" s="7">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="384" spans="1:20">
       <c r="A384" s="12">
-        <v>41402</v>
+        <v>41387</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -54160,90 +54537,84 @@
       <c r="H384" s="7"/>
       <c r="I384" s="7"/>
       <c r="J384" s="7"/>
-      <c r="K384" s="7">
-        <v>100</v>
-      </c>
+      <c r="K384" s="7"/>
       <c r="L384" s="7"/>
       <c r="M384" s="7"/>
-      <c r="N384" s="7"/>
-      <c r="O384" s="7">
-        <v>50</v>
-      </c>
+      <c r="N384" s="7">
+        <v>30</v>
+      </c>
+      <c r="O384" s="7"/>
       <c r="P384" s="7"/>
       <c r="Q384" s="7"/>
       <c r="R384" s="7"/>
       <c r="S384" s="7"/>
       <c r="T384" s="7">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="385" spans="1:20">
       <c r="A385" s="12">
-        <v>41403</v>
+        <v>41388</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
-      <c r="G385" s="7"/>
-      <c r="H385" s="7">
-        <v>100</v>
-      </c>
+      <c r="G385" s="7">
+        <v>20</v>
+      </c>
+      <c r="H385" s="7"/>
       <c r="I385" s="7"/>
       <c r="J385" s="7"/>
       <c r="K385" s="7"/>
-      <c r="L385" s="7">
-        <v>100</v>
-      </c>
-      <c r="M385" s="7"/>
-      <c r="N385" s="7"/>
+      <c r="L385" s="7"/>
+      <c r="M385" s="7">
+        <v>40</v>
+      </c>
+      <c r="N385" s="7">
+        <v>11</v>
+      </c>
       <c r="O385" s="7"/>
       <c r="P385" s="7"/>
       <c r="Q385" s="7"/>
-      <c r="R385" s="7">
-        <v>50</v>
-      </c>
+      <c r="R385" s="7"/>
       <c r="S385" s="7"/>
       <c r="T385" s="7">
-        <v>250</v>
+        <v>71</v>
       </c>
     </row>
     <row r="386" spans="1:20">
       <c r="A386" s="12">
-        <v>41407</v>
+        <v>41390</v>
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
-      <c r="G386" s="7">
-        <v>100</v>
-      </c>
+      <c r="G386" s="7"/>
       <c r="H386" s="7"/>
-      <c r="I386" s="7"/>
-      <c r="J386" s="7">
-        <v>100</v>
-      </c>
+      <c r="I386" s="7">
+        <v>120</v>
+      </c>
+      <c r="J386" s="7"/>
       <c r="K386" s="7"/>
       <c r="L386" s="7"/>
       <c r="M386" s="7"/>
-      <c r="N386" s="7">
-        <v>100</v>
-      </c>
+      <c r="N386" s="7"/>
       <c r="O386" s="7"/>
       <c r="P386" s="7"/>
       <c r="Q386" s="7"/>
       <c r="R386" s="7"/>
       <c r="S386" s="7"/>
       <c r="T386" s="7">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="387" spans="1:20">
       <c r="A387" s="12">
-        <v>41410</v>
+        <v>41397</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -54251,27 +54622,29 @@
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
       <c r="G387" s="7"/>
-      <c r="H387" s="7"/>
-      <c r="I387" s="7">
-        <v>200</v>
-      </c>
+      <c r="H387" s="7">
+        <v>50</v>
+      </c>
+      <c r="I387" s="7"/>
       <c r="J387" s="7"/>
       <c r="K387" s="7"/>
       <c r="L387" s="7"/>
       <c r="M387" s="7"/>
-      <c r="N387" s="7"/>
+      <c r="N387" s="7">
+        <v>100</v>
+      </c>
       <c r="O387" s="7"/>
       <c r="P387" s="7"/>
       <c r="Q387" s="7"/>
       <c r="R387" s="7"/>
       <c r="S387" s="7"/>
       <c r="T387" s="7">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="388" spans="1:20">
       <c r="A388" s="12">
-        <v>41411</v>
+        <v>41401</v>
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -54284,24 +54657,22 @@
       <c r="J388" s="7"/>
       <c r="K388" s="7"/>
       <c r="L388" s="7"/>
-      <c r="M388" s="7">
-        <v>300</v>
-      </c>
+      <c r="M388" s="7"/>
       <c r="N388" s="7"/>
-      <c r="O388" s="7">
+      <c r="O388" s="7"/>
+      <c r="P388" s="7">
         <v>100</v>
       </c>
-      <c r="P388" s="7"/>
       <c r="Q388" s="7"/>
       <c r="R388" s="7"/>
       <c r="S388" s="7"/>
       <c r="T388" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="389" spans="1:20">
       <c r="A389" s="12">
-        <v>41414</v>
+        <v>41402</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -54311,25 +54682,27 @@
       <c r="G389" s="7"/>
       <c r="H389" s="7"/>
       <c r="I389" s="7"/>
-      <c r="J389" s="7">
+      <c r="J389" s="7"/>
+      <c r="K389" s="7">
         <v>100</v>
       </c>
-      <c r="K389" s="7"/>
       <c r="L389" s="7"/>
       <c r="M389" s="7"/>
       <c r="N389" s="7"/>
-      <c r="O389" s="7"/>
+      <c r="O389" s="7">
+        <v>50</v>
+      </c>
       <c r="P389" s="7"/>
       <c r="Q389" s="7"/>
       <c r="R389" s="7"/>
       <c r="S389" s="7"/>
       <c r="T389" s="7">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="390" spans="1:20">
       <c r="A390" s="12">
-        <v>41416</v>
+        <v>41403</v>
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -54337,55 +54710,63 @@
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
       <c r="G390" s="7"/>
-      <c r="H390" s="7"/>
+      <c r="H390" s="7">
+        <v>100</v>
+      </c>
       <c r="I390" s="7"/>
       <c r="J390" s="7"/>
       <c r="K390" s="7"/>
-      <c r="L390" s="7"/>
+      <c r="L390" s="7">
+        <v>100</v>
+      </c>
       <c r="M390" s="7"/>
-      <c r="N390" s="7">
-        <v>200</v>
-      </c>
+      <c r="N390" s="7"/>
       <c r="O390" s="7"/>
       <c r="P390" s="7"/>
       <c r="Q390" s="7"/>
-      <c r="R390" s="7"/>
+      <c r="R390" s="7">
+        <v>50</v>
+      </c>
       <c r="S390" s="7"/>
       <c r="T390" s="7">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="391" spans="1:20">
       <c r="A391" s="12">
-        <v>41424</v>
+        <v>41407</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
       <c r="F391" s="7"/>
-      <c r="G391" s="7"/>
+      <c r="G391" s="7">
+        <v>100</v>
+      </c>
       <c r="H391" s="7"/>
-      <c r="I391" s="7">
+      <c r="I391" s="7"/>
+      <c r="J391" s="7">
         <v>100</v>
       </c>
-      <c r="J391" s="7"/>
       <c r="K391" s="7"/>
       <c r="L391" s="7"/>
       <c r="M391" s="7"/>
-      <c r="N391" s="7"/>
+      <c r="N391" s="7">
+        <v>100</v>
+      </c>
       <c r="O391" s="7"/>
       <c r="P391" s="7"/>
       <c r="Q391" s="7"/>
       <c r="R391" s="7"/>
       <c r="S391" s="7"/>
       <c r="T391" s="7">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="392" spans="1:20">
       <c r="A392" s="12">
-        <v>41429</v>
+        <v>41410</v>
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -54394,32 +54775,30 @@
       <c r="F392" s="7"/>
       <c r="G392" s="7"/>
       <c r="H392" s="7"/>
-      <c r="I392" s="7"/>
+      <c r="I392" s="7">
+        <v>200</v>
+      </c>
       <c r="J392" s="7"/>
       <c r="K392" s="7"/>
       <c r="L392" s="7"/>
       <c r="M392" s="7"/>
       <c r="N392" s="7"/>
-      <c r="O392" s="7">
-        <v>100</v>
-      </c>
+      <c r="O392" s="7"/>
       <c r="P392" s="7"/>
       <c r="Q392" s="7"/>
       <c r="R392" s="7"/>
       <c r="S392" s="7"/>
       <c r="T392" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="393" spans="1:20">
       <c r="A393" s="12">
-        <v>41430</v>
+        <v>41411</v>
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
-      <c r="D393" s="7">
-        <v>100</v>
-      </c>
+      <c r="D393" s="7"/>
       <c r="E393" s="7"/>
       <c r="F393" s="7"/>
       <c r="G393" s="7"/>
@@ -54428,20 +54807,24 @@
       <c r="J393" s="7"/>
       <c r="K393" s="7"/>
       <c r="L393" s="7"/>
-      <c r="M393" s="7"/>
+      <c r="M393" s="7">
+        <v>300</v>
+      </c>
       <c r="N393" s="7"/>
-      <c r="O393" s="7"/>
+      <c r="O393" s="7">
+        <v>100</v>
+      </c>
       <c r="P393" s="7"/>
       <c r="Q393" s="7"/>
       <c r="R393" s="7"/>
       <c r="S393" s="7"/>
       <c r="T393" s="7">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="394" spans="1:20">
       <c r="A394" s="12">
-        <v>41431</v>
+        <v>41414</v>
       </c>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -54452,7 +54835,7 @@
       <c r="H394" s="7"/>
       <c r="I394" s="7"/>
       <c r="J394" s="7">
-        <v>80.5</v>
+        <v>100</v>
       </c>
       <c r="K394" s="7"/>
       <c r="L394" s="7"/>
@@ -54460,46 +54843,44 @@
       <c r="N394" s="7"/>
       <c r="O394" s="7"/>
       <c r="P394" s="7"/>
-      <c r="Q394" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q394" s="7"/>
       <c r="R394" s="7"/>
       <c r="S394" s="7"/>
       <c r="T394" s="7">
-        <v>280.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="395" spans="1:20">
       <c r="A395" s="12">
-        <v>41438</v>
+        <v>41416</v>
       </c>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
       <c r="F395" s="7"/>
-      <c r="G395" s="7">
-        <v>20</v>
-      </c>
+      <c r="G395" s="7"/>
       <c r="H395" s="7"/>
       <c r="I395" s="7"/>
       <c r="J395" s="7"/>
       <c r="K395" s="7"/>
       <c r="L395" s="7"/>
       <c r="M395" s="7"/>
-      <c r="N395" s="7"/>
+      <c r="N395" s="7">
+        <v>200</v>
+      </c>
       <c r="O395" s="7"/>
       <c r="P395" s="7"/>
       <c r="Q395" s="7"/>
       <c r="R395" s="7"/>
       <c r="S395" s="7"/>
       <c r="T395" s="7">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="396" spans="1:20">
       <c r="A396" s="12">
-        <v>41439</v>
+        <v>41424</v>
       </c>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -54508,7 +54889,9 @@
       <c r="F396" s="7"/>
       <c r="G396" s="7"/>
       <c r="H396" s="7"/>
-      <c r="I396" s="7"/>
+      <c r="I396" s="7">
+        <v>100</v>
+      </c>
       <c r="J396" s="7"/>
       <c r="K396" s="7"/>
       <c r="L396" s="7"/>
@@ -54517,9 +54900,7 @@
       <c r="O396" s="7"/>
       <c r="P396" s="7"/>
       <c r="Q396" s="7"/>
-      <c r="R396" s="7">
-        <v>100</v>
-      </c>
+      <c r="R396" s="7"/>
       <c r="S396" s="7"/>
       <c r="T396" s="7">
         <v>100</v>
@@ -54527,13 +54908,11 @@
     </row>
     <row r="397" spans="1:20">
       <c r="A397" s="12">
-        <v>41443</v>
+        <v>41429</v>
       </c>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
-      <c r="D397" s="7">
-        <v>100</v>
-      </c>
+      <c r="D397" s="7"/>
       <c r="E397" s="7"/>
       <c r="F397" s="7"/>
       <c r="G397" s="7"/>
@@ -54544,7 +54923,9 @@
       <c r="L397" s="7"/>
       <c r="M397" s="7"/>
       <c r="N397" s="7"/>
-      <c r="O397" s="7"/>
+      <c r="O397" s="7">
+        <v>100</v>
+      </c>
       <c r="P397" s="7"/>
       <c r="Q397" s="7"/>
       <c r="R397" s="7"/>
@@ -54555,11 +54936,13 @@
     </row>
     <row r="398" spans="1:20">
       <c r="A398" s="12">
-        <v>41444</v>
+        <v>41430</v>
       </c>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
-      <c r="D398" s="7"/>
+      <c r="D398" s="7">
+        <v>100</v>
+      </c>
       <c r="E398" s="7"/>
       <c r="F398" s="7"/>
       <c r="G398" s="7"/>
@@ -54568,9 +54951,7 @@
       <c r="J398" s="7"/>
       <c r="K398" s="7"/>
       <c r="L398" s="7"/>
-      <c r="M398" s="7">
-        <v>200</v>
-      </c>
+      <c r="M398" s="7"/>
       <c r="N398" s="7"/>
       <c r="O398" s="7"/>
       <c r="P398" s="7"/>
@@ -54578,12 +54959,12 @@
       <c r="R398" s="7"/>
       <c r="S398" s="7"/>
       <c r="T398" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="399" spans="1:20">
       <c r="A399" s="12">
-        <v>41450</v>
+        <v>41431</v>
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -54593,59 +54974,55 @@
       <c r="G399" s="7"/>
       <c r="H399" s="7"/>
       <c r="I399" s="7"/>
-      <c r="J399" s="7"/>
+      <c r="J399" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K399" s="7"/>
       <c r="L399" s="7"/>
       <c r="M399" s="7"/>
-      <c r="N399" s="7">
-        <v>140</v>
-      </c>
-      <c r="O399" s="7">
-        <v>100</v>
-      </c>
+      <c r="N399" s="7"/>
+      <c r="O399" s="7"/>
       <c r="P399" s="7"/>
-      <c r="Q399" s="7"/>
+      <c r="Q399" s="7">
+        <v>200</v>
+      </c>
       <c r="R399" s="7"/>
       <c r="S399" s="7"/>
       <c r="T399" s="7">
-        <v>240</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="400" spans="1:20">
       <c r="A400" s="12">
-        <v>41451</v>
+        <v>41438</v>
       </c>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
       <c r="F400" s="7"/>
-      <c r="G400" s="7"/>
+      <c r="G400" s="7">
+        <v>20</v>
+      </c>
       <c r="H400" s="7"/>
       <c r="I400" s="7"/>
-      <c r="J400" s="7">
-        <v>100</v>
-      </c>
-      <c r="K400" s="7">
-        <v>100</v>
-      </c>
+      <c r="J400" s="7"/>
+      <c r="K400" s="7"/>
       <c r="L400" s="7"/>
       <c r="M400" s="7"/>
-      <c r="N400" s="7">
-        <v>200</v>
-      </c>
+      <c r="N400" s="7"/>
       <c r="O400" s="7"/>
       <c r="P400" s="7"/>
       <c r="Q400" s="7"/>
       <c r="R400" s="7"/>
       <c r="S400" s="7"/>
       <c r="T400" s="7">
-        <v>400</v>
+        <v>20</v>
       </c>
     </row>
     <row r="401" spans="1:20">
       <c r="A401" s="12">
-        <v>41453</v>
+        <v>41439</v>
       </c>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
@@ -54654,9 +55031,7 @@
       <c r="F401" s="7"/>
       <c r="G401" s="7"/>
       <c r="H401" s="7"/>
-      <c r="I401" s="7">
-        <v>200</v>
-      </c>
+      <c r="I401" s="7"/>
       <c r="J401" s="7"/>
       <c r="K401" s="7"/>
       <c r="L401" s="7"/>
@@ -54665,19 +55040,23 @@
       <c r="O401" s="7"/>
       <c r="P401" s="7"/>
       <c r="Q401" s="7"/>
-      <c r="R401" s="7"/>
+      <c r="R401" s="7">
+        <v>100</v>
+      </c>
       <c r="S401" s="7"/>
       <c r="T401" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="402" spans="1:20">
       <c r="A402" s="12">
-        <v>41463</v>
+        <v>41443</v>
       </c>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
-      <c r="D402" s="7"/>
+      <c r="D402" s="7">
+        <v>100</v>
+      </c>
       <c r="E402" s="7"/>
       <c r="F402" s="7"/>
       <c r="G402" s="7"/>
@@ -54685,9 +55064,7 @@
       <c r="I402" s="7"/>
       <c r="J402" s="7"/>
       <c r="K402" s="7"/>
-      <c r="L402" s="7">
-        <v>20</v>
-      </c>
+      <c r="L402" s="7"/>
       <c r="M402" s="7"/>
       <c r="N402" s="7"/>
       <c r="O402" s="7"/>
@@ -54696,12 +55073,12 @@
       <c r="R402" s="7"/>
       <c r="S402" s="7"/>
       <c r="T402" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="403" spans="1:20">
       <c r="A403" s="12">
-        <v>41464</v>
+        <v>41444</v>
       </c>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -54714,26 +55091,24 @@
       <c r="J403" s="7"/>
       <c r="K403" s="7"/>
       <c r="L403" s="7"/>
-      <c r="M403" s="7"/>
+      <c r="M403" s="7">
+        <v>200</v>
+      </c>
       <c r="N403" s="7"/>
       <c r="O403" s="7"/>
-      <c r="P403" s="7">
-        <v>100</v>
-      </c>
+      <c r="P403" s="7"/>
       <c r="Q403" s="7"/>
       <c r="R403" s="7"/>
       <c r="S403" s="7"/>
       <c r="T403" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="404" spans="1:20">
       <c r="A404" s="12">
-        <v>41465</v>
-      </c>
-      <c r="B404" s="7">
-        <v>50</v>
-      </c>
+        <v>41450</v>
+      </c>
+      <c r="B404" s="7"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -54745,19 +55120,23 @@
       <c r="K404" s="7"/>
       <c r="L404" s="7"/>
       <c r="M404" s="7"/>
-      <c r="N404" s="7"/>
-      <c r="O404" s="7"/>
+      <c r="N404" s="7">
+        <v>140</v>
+      </c>
+      <c r="O404" s="7">
+        <v>100</v>
+      </c>
       <c r="P404" s="7"/>
       <c r="Q404" s="7"/>
       <c r="R404" s="7"/>
       <c r="S404" s="7"/>
       <c r="T404" s="7">
-        <v>50</v>
+        <v>240</v>
       </c>
     </row>
     <row r="405" spans="1:20">
       <c r="A405" s="12">
-        <v>41466</v>
+        <v>41451</v>
       </c>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -54770,22 +55149,26 @@
       <c r="J405" s="7">
         <v>100</v>
       </c>
-      <c r="K405" s="7"/>
+      <c r="K405" s="7">
+        <v>100</v>
+      </c>
       <c r="L405" s="7"/>
       <c r="M405" s="7"/>
-      <c r="N405" s="7"/>
+      <c r="N405" s="7">
+        <v>200</v>
+      </c>
       <c r="O405" s="7"/>
       <c r="P405" s="7"/>
       <c r="Q405" s="7"/>
       <c r="R405" s="7"/>
       <c r="S405" s="7"/>
       <c r="T405" s="7">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="406" spans="1:20">
       <c r="A406" s="12">
-        <v>41467</v>
+        <v>41453</v>
       </c>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -54794,7 +55177,9 @@
       <c r="F406" s="7"/>
       <c r="G406" s="7"/>
       <c r="H406" s="7"/>
-      <c r="I406" s="7"/>
+      <c r="I406" s="7">
+        <v>200</v>
+      </c>
       <c r="J406" s="7"/>
       <c r="K406" s="7"/>
       <c r="L406" s="7"/>
@@ -54803,17 +55188,15 @@
       <c r="O406" s="7"/>
       <c r="P406" s="7"/>
       <c r="Q406" s="7"/>
-      <c r="R406" s="7">
-        <v>100</v>
-      </c>
+      <c r="R406" s="7"/>
       <c r="S406" s="7"/>
       <c r="T406" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="407" spans="1:20">
       <c r="A407" s="12">
-        <v>41472</v>
+        <v>41463</v>
       </c>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -54824,10 +55207,10 @@
       <c r="H407" s="7"/>
       <c r="I407" s="7"/>
       <c r="J407" s="7"/>
-      <c r="K407" s="7">
-        <v>100</v>
-      </c>
-      <c r="L407" s="7"/>
+      <c r="K407" s="7"/>
+      <c r="L407" s="7">
+        <v>20</v>
+      </c>
       <c r="M407" s="7"/>
       <c r="N407" s="7"/>
       <c r="O407" s="7"/>
@@ -54836,24 +55219,20 @@
       <c r="R407" s="7"/>
       <c r="S407" s="7"/>
       <c r="T407" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="408" spans="1:20">
       <c r="A408" s="12">
-        <v>41474</v>
-      </c>
-      <c r="B408" s="7">
-        <v>76.5</v>
-      </c>
+        <v>41464</v>
+      </c>
+      <c r="B408" s="7"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
       <c r="F408" s="7"/>
       <c r="G408" s="7"/>
-      <c r="H408" s="7">
-        <v>50</v>
-      </c>
+      <c r="H408" s="7"/>
       <c r="I408" s="7"/>
       <c r="J408" s="7"/>
       <c r="K408" s="7"/>
@@ -54862,29 +55241,27 @@
       <c r="N408" s="7"/>
       <c r="O408" s="7"/>
       <c r="P408" s="7">
-        <v>200</v>
-      </c>
-      <c r="Q408" s="7">
-        <v>200</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="Q408" s="7"/>
       <c r="R408" s="7"/>
       <c r="S408" s="7"/>
       <c r="T408" s="7">
-        <v>526.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="409" spans="1:20">
       <c r="A409" s="12">
-        <v>41479</v>
-      </c>
-      <c r="B409" s="7"/>
+        <v>41465</v>
+      </c>
+      <c r="B409" s="7">
+        <v>50</v>
+      </c>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
       <c r="F409" s="7"/>
-      <c r="G409" s="7">
-        <v>100</v>
-      </c>
+      <c r="G409" s="7"/>
       <c r="H409" s="7"/>
       <c r="I409" s="7"/>
       <c r="J409" s="7"/>
@@ -54898,12 +55275,12 @@
       <c r="R409" s="7"/>
       <c r="S409" s="7"/>
       <c r="T409" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="410" spans="1:20">
       <c r="A410" s="12">
-        <v>41480</v>
+        <v>41466</v>
       </c>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -54913,12 +55290,12 @@
       <c r="G410" s="7"/>
       <c r="H410" s="7"/>
       <c r="I410" s="7"/>
-      <c r="J410" s="7"/>
+      <c r="J410" s="7">
+        <v>100</v>
+      </c>
       <c r="K410" s="7"/>
       <c r="L410" s="7"/>
-      <c r="M410" s="7">
-        <v>200</v>
-      </c>
+      <c r="M410" s="7"/>
       <c r="N410" s="7"/>
       <c r="O410" s="7"/>
       <c r="P410" s="7"/>
@@ -54926,12 +55303,12 @@
       <c r="R410" s="7"/>
       <c r="S410" s="7"/>
       <c r="T410" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="411" spans="1:20">
       <c r="A411" s="12">
-        <v>41481</v>
+        <v>41467</v>
       </c>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
@@ -54942,16 +55319,16 @@
       <c r="H411" s="7"/>
       <c r="I411" s="7"/>
       <c r="J411" s="7"/>
-      <c r="K411" s="7">
-        <v>100</v>
-      </c>
+      <c r="K411" s="7"/>
       <c r="L411" s="7"/>
       <c r="M411" s="7"/>
       <c r="N411" s="7"/>
       <c r="O411" s="7"/>
       <c r="P411" s="7"/>
       <c r="Q411" s="7"/>
-      <c r="R411" s="7"/>
+      <c r="R411" s="7">
+        <v>100</v>
+      </c>
       <c r="S411" s="7"/>
       <c r="T411" s="7">
         <v>100</v>
@@ -54959,7 +55336,7 @@
     </row>
     <row r="412" spans="1:20">
       <c r="A412" s="12">
-        <v>41482</v>
+        <v>41472</v>
       </c>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -54969,10 +55346,10 @@
       <c r="G412" s="7"/>
       <c r="H412" s="7"/>
       <c r="I412" s="7"/>
-      <c r="J412" s="7">
+      <c r="J412" s="7"/>
+      <c r="K412" s="7">
         <v>100</v>
       </c>
-      <c r="K412" s="7"/>
       <c r="L412" s="7"/>
       <c r="M412" s="7"/>
       <c r="N412" s="7"/>
@@ -54987,67 +55364,69 @@
     </row>
     <row r="413" spans="1:20">
       <c r="A413" s="12">
-        <v>41488</v>
-      </c>
-      <c r="B413" s="7"/>
+        <v>41474</v>
+      </c>
+      <c r="B413" s="7">
+        <v>76.5</v>
+      </c>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
       <c r="F413" s="7"/>
       <c r="G413" s="7"/>
-      <c r="H413" s="7"/>
+      <c r="H413" s="7">
+        <v>50</v>
+      </c>
       <c r="I413" s="7"/>
       <c r="J413" s="7"/>
-      <c r="K413" s="7">
-        <v>300</v>
-      </c>
+      <c r="K413" s="7"/>
       <c r="L413" s="7"/>
       <c r="M413" s="7"/>
       <c r="N413" s="7"/>
       <c r="O413" s="7"/>
-      <c r="P413" s="7"/>
-      <c r="Q413" s="7"/>
+      <c r="P413" s="7">
+        <v>200</v>
+      </c>
+      <c r="Q413" s="7">
+        <v>200</v>
+      </c>
       <c r="R413" s="7"/>
       <c r="S413" s="7"/>
       <c r="T413" s="7">
-        <v>300</v>
+        <v>526.5</v>
       </c>
     </row>
     <row r="414" spans="1:20">
       <c r="A414" s="12">
-        <v>41495</v>
-      </c>
-      <c r="B414" s="7">
-        <v>100</v>
-      </c>
+        <v>41479</v>
+      </c>
+      <c r="B414" s="7"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
       <c r="F414" s="7"/>
-      <c r="G414" s="7"/>
+      <c r="G414" s="7">
+        <v>100</v>
+      </c>
       <c r="H414" s="7"/>
       <c r="I414" s="7"/>
-      <c r="J414" s="7">
-        <v>100</v>
-      </c>
+      <c r="J414" s="7"/>
       <c r="K414" s="7"/>
       <c r="L414" s="7"/>
       <c r="M414" s="7"/>
-      <c r="N414" s="7">
-        <v>300</v>
-      </c>
+      <c r="N414" s="7"/>
       <c r="O414" s="7"/>
       <c r="P414" s="7"/>
       <c r="Q414" s="7"/>
       <c r="R414" s="7"/>
       <c r="S414" s="7"/>
       <c r="T414" s="7">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="415" spans="1:20">
       <c r="A415" s="12">
-        <v>41502</v>
+        <v>41480</v>
       </c>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -55056,13 +55435,13 @@
       <c r="F415" s="7"/>
       <c r="G415" s="7"/>
       <c r="H415" s="7"/>
-      <c r="I415" s="7">
-        <v>200</v>
-      </c>
+      <c r="I415" s="7"/>
       <c r="J415" s="7"/>
       <c r="K415" s="7"/>
       <c r="L415" s="7"/>
-      <c r="M415" s="7"/>
+      <c r="M415" s="7">
+        <v>200</v>
+      </c>
       <c r="N415" s="7"/>
       <c r="O415" s="7"/>
       <c r="P415" s="7"/>
@@ -55075,7 +55454,7 @@
     </row>
     <row r="416" spans="1:20">
       <c r="A416" s="12">
-        <v>41514</v>
+        <v>41481</v>
       </c>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -55085,10 +55464,10 @@
       <c r="G416" s="7"/>
       <c r="H416" s="7"/>
       <c r="I416" s="7"/>
-      <c r="J416" s="7">
+      <c r="J416" s="7"/>
+      <c r="K416" s="7">
         <v>100</v>
       </c>
-      <c r="K416" s="7"/>
       <c r="L416" s="7"/>
       <c r="M416" s="7"/>
       <c r="N416" s="7"/>
@@ -55103,7 +55482,7 @@
     </row>
     <row r="417" spans="1:20">
       <c r="A417" s="12">
-        <v>41526</v>
+        <v>41482</v>
       </c>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -55113,25 +55492,25 @@
       <c r="G417" s="7"/>
       <c r="H417" s="7"/>
       <c r="I417" s="7"/>
-      <c r="J417" s="7"/>
+      <c r="J417" s="7">
+        <v>100</v>
+      </c>
       <c r="K417" s="7"/>
       <c r="L417" s="7"/>
       <c r="M417" s="7"/>
       <c r="N417" s="7"/>
       <c r="O417" s="7"/>
-      <c r="P417" s="7">
-        <v>400</v>
-      </c>
+      <c r="P417" s="7"/>
       <c r="Q417" s="7"/>
       <c r="R417" s="7"/>
       <c r="S417" s="7"/>
       <c r="T417" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="418" spans="1:20">
       <c r="A418" s="12">
-        <v>41528</v>
+        <v>41488</v>
       </c>
       <c r="B418" s="7"/>
       <c r="C418" s="7"/>
@@ -55142,27 +55521,27 @@
       <c r="H418" s="7"/>
       <c r="I418" s="7"/>
       <c r="J418" s="7"/>
-      <c r="K418" s="7"/>
+      <c r="K418" s="7">
+        <v>300</v>
+      </c>
       <c r="L418" s="7"/>
       <c r="M418" s="7"/>
       <c r="N418" s="7"/>
       <c r="O418" s="7"/>
       <c r="P418" s="7"/>
-      <c r="Q418" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q418" s="7"/>
       <c r="R418" s="7"/>
       <c r="S418" s="7"/>
       <c r="T418" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="419" spans="1:20">
       <c r="A419" s="12">
-        <v>41533</v>
+        <v>41495</v>
       </c>
       <c r="B419" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
@@ -55171,25 +55550,27 @@
       <c r="G419" s="7"/>
       <c r="H419" s="7"/>
       <c r="I419" s="7"/>
-      <c r="J419" s="7"/>
+      <c r="J419" s="7">
+        <v>100</v>
+      </c>
       <c r="K419" s="7"/>
       <c r="L419" s="7"/>
       <c r="M419" s="7"/>
-      <c r="N419" s="7"/>
-      <c r="O419" s="7">
-        <v>100</v>
-      </c>
+      <c r="N419" s="7">
+        <v>300</v>
+      </c>
+      <c r="O419" s="7"/>
       <c r="P419" s="7"/>
       <c r="Q419" s="7"/>
       <c r="R419" s="7"/>
       <c r="S419" s="7"/>
       <c r="T419" s="7">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="420" spans="1:20">
       <c r="A420" s="12">
-        <v>41537</v>
+        <v>41502</v>
       </c>
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
@@ -55198,10 +55579,10 @@
       <c r="F420" s="7"/>
       <c r="G420" s="7"/>
       <c r="H420" s="7"/>
-      <c r="I420" s="7"/>
-      <c r="J420" s="7">
-        <v>77</v>
-      </c>
+      <c r="I420" s="7">
+        <v>200</v>
+      </c>
+      <c r="J420" s="7"/>
       <c r="K420" s="7"/>
       <c r="L420" s="7"/>
       <c r="M420" s="7"/>
@@ -55212,12 +55593,12 @@
       <c r="R420" s="7"/>
       <c r="S420" s="7"/>
       <c r="T420" s="7">
-        <v>77</v>
+        <v>200</v>
       </c>
     </row>
     <row r="421" spans="1:20">
       <c r="A421" s="12">
-        <v>41547</v>
+        <v>41514</v>
       </c>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -55227,12 +55608,12 @@
       <c r="G421" s="7"/>
       <c r="H421" s="7"/>
       <c r="I421" s="7"/>
-      <c r="J421" s="7"/>
+      <c r="J421" s="7">
+        <v>100</v>
+      </c>
       <c r="K421" s="7"/>
       <c r="L421" s="7"/>
-      <c r="M421" s="7">
-        <v>80</v>
-      </c>
+      <c r="M421" s="7"/>
       <c r="N421" s="7"/>
       <c r="O421" s="7"/>
       <c r="P421" s="7"/>
@@ -55240,12 +55621,12 @@
       <c r="R421" s="7"/>
       <c r="S421" s="7"/>
       <c r="T421" s="7">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="422" spans="1:20">
       <c r="A422" s="12">
-        <v>41559</v>
+        <v>41526</v>
       </c>
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
@@ -55255,25 +55636,25 @@
       <c r="G422" s="7"/>
       <c r="H422" s="7"/>
       <c r="I422" s="7"/>
-      <c r="J422" s="7">
-        <v>161</v>
-      </c>
+      <c r="J422" s="7"/>
       <c r="K422" s="7"/>
       <c r="L422" s="7"/>
       <c r="M422" s="7"/>
       <c r="N422" s="7"/>
       <c r="O422" s="7"/>
-      <c r="P422" s="7"/>
+      <c r="P422" s="7">
+        <v>400</v>
+      </c>
       <c r="Q422" s="7"/>
       <c r="R422" s="7"/>
       <c r="S422" s="7"/>
       <c r="T422" s="7">
-        <v>161</v>
+        <v>400</v>
       </c>
     </row>
     <row r="423" spans="1:20">
       <c r="A423" s="12">
-        <v>41565</v>
+        <v>41528</v>
       </c>
       <c r="B423" s="7"/>
       <c r="C423" s="7"/>
@@ -55282,36 +55663,30 @@
       <c r="F423" s="7"/>
       <c r="G423" s="7"/>
       <c r="H423" s="7"/>
-      <c r="I423" s="7">
-        <v>150</v>
-      </c>
+      <c r="I423" s="7"/>
       <c r="J423" s="7"/>
-      <c r="K423" s="7">
-        <v>200</v>
-      </c>
+      <c r="K423" s="7"/>
       <c r="L423" s="7"/>
       <c r="M423" s="7"/>
       <c r="N423" s="7"/>
-      <c r="O423" s="7">
-        <v>100</v>
-      </c>
-      <c r="P423" s="7">
-        <v>100</v>
-      </c>
+      <c r="O423" s="7"/>
+      <c r="P423" s="7"/>
       <c r="Q423" s="7">
         <v>200</v>
       </c>
       <c r="R423" s="7"/>
       <c r="S423" s="7"/>
       <c r="T423" s="7">
-        <v>750</v>
+        <v>200</v>
       </c>
     </row>
     <row r="424" spans="1:20">
       <c r="A424" s="12">
-        <v>41575</v>
-      </c>
-      <c r="B424" s="7"/>
+        <v>41533</v>
+      </c>
+      <c r="B424" s="7">
+        <v>200</v>
+      </c>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -55319,25 +55694,25 @@
       <c r="G424" s="7"/>
       <c r="H424" s="7"/>
       <c r="I424" s="7"/>
-      <c r="J424" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="J424" s="7"/>
       <c r="K424" s="7"/>
       <c r="L424" s="7"/>
       <c r="M424" s="7"/>
       <c r="N424" s="7"/>
-      <c r="O424" s="7"/>
+      <c r="O424" s="7">
+        <v>100</v>
+      </c>
       <c r="P424" s="7"/>
       <c r="Q424" s="7"/>
       <c r="R424" s="7"/>
       <c r="S424" s="7"/>
       <c r="T424" s="7">
-        <v>80.5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="425" spans="1:20">
       <c r="A425" s="12">
-        <v>41579</v>
+        <v>41537</v>
       </c>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -55348,7 +55723,7 @@
       <c r="H425" s="7"/>
       <c r="I425" s="7"/>
       <c r="J425" s="7">
-        <v>80.5</v>
+        <v>77</v>
       </c>
       <c r="K425" s="7"/>
       <c r="L425" s="7"/>
@@ -55360,16 +55735,14 @@
       <c r="R425" s="7"/>
       <c r="S425" s="7"/>
       <c r="T425" s="7">
-        <v>80.5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="426" spans="1:20">
       <c r="A426" s="12">
-        <v>41590</v>
-      </c>
-      <c r="B426" s="7">
-        <v>100</v>
-      </c>
+        <v>41547</v>
+      </c>
+      <c r="B426" s="7"/>
       <c r="C426" s="7"/>
       <c r="D426" s="7"/>
       <c r="E426" s="7"/>
@@ -55380,26 +55753,24 @@
       <c r="J426" s="7"/>
       <c r="K426" s="7"/>
       <c r="L426" s="7"/>
-      <c r="M426" s="7"/>
+      <c r="M426" s="7">
+        <v>80</v>
+      </c>
       <c r="N426" s="7"/>
       <c r="O426" s="7"/>
       <c r="P426" s="7"/>
-      <c r="Q426" s="7">
-        <v>150</v>
-      </c>
+      <c r="Q426" s="7"/>
       <c r="R426" s="7"/>
       <c r="S426" s="7"/>
       <c r="T426" s="7">
-        <v>250</v>
+        <v>80</v>
       </c>
     </row>
     <row r="427" spans="1:20">
       <c r="A427" s="12">
-        <v>41597</v>
-      </c>
-      <c r="B427" s="7">
-        <v>100</v>
-      </c>
+        <v>41559</v>
+      </c>
+      <c r="B427" s="7"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -55407,7 +55778,9 @@
       <c r="G427" s="7"/>
       <c r="H427" s="7"/>
       <c r="I427" s="7"/>
-      <c r="J427" s="7"/>
+      <c r="J427" s="7">
+        <v>161</v>
+      </c>
       <c r="K427" s="7"/>
       <c r="L427" s="7"/>
       <c r="M427" s="7"/>
@@ -55418,40 +55791,48 @@
       <c r="R427" s="7"/>
       <c r="S427" s="7"/>
       <c r="T427" s="7">
-        <v>100</v>
+        <v>161</v>
       </c>
     </row>
     <row r="428" spans="1:20">
       <c r="A428" s="12">
-        <v>41599</v>
-      </c>
-      <c r="B428" s="7">
-        <v>7</v>
-      </c>
+        <v>41565</v>
+      </c>
+      <c r="B428" s="7"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
       <c r="F428" s="7"/>
       <c r="G428" s="7"/>
       <c r="H428" s="7"/>
-      <c r="I428" s="7"/>
+      <c r="I428" s="7">
+        <v>150</v>
+      </c>
       <c r="J428" s="7"/>
-      <c r="K428" s="7"/>
+      <c r="K428" s="7">
+        <v>200</v>
+      </c>
       <c r="L428" s="7"/>
       <c r="M428" s="7"/>
       <c r="N428" s="7"/>
-      <c r="O428" s="7"/>
-      <c r="P428" s="7"/>
-      <c r="Q428" s="7"/>
+      <c r="O428" s="7">
+        <v>100</v>
+      </c>
+      <c r="P428" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q428" s="7">
+        <v>200</v>
+      </c>
       <c r="R428" s="7"/>
       <c r="S428" s="7"/>
       <c r="T428" s="7">
-        <v>7</v>
+        <v>750</v>
       </c>
     </row>
     <row r="429" spans="1:20">
       <c r="A429" s="12">
-        <v>41600</v>
+        <v>41575</v>
       </c>
       <c r="B429" s="7"/>
       <c r="C429" s="7"/>
@@ -55462,34 +55843,26 @@
       <c r="H429" s="7"/>
       <c r="I429" s="7"/>
       <c r="J429" s="7">
-        <v>200</v>
-      </c>
-      <c r="K429" s="7">
-        <v>200</v>
-      </c>
+        <v>80.5</v>
+      </c>
+      <c r="K429" s="7"/>
       <c r="L429" s="7"/>
-      <c r="M429" s="7">
-        <v>100</v>
-      </c>
+      <c r="M429" s="7"/>
       <c r="N429" s="7"/>
-      <c r="O429" s="7">
-        <v>150</v>
-      </c>
+      <c r="O429" s="7"/>
       <c r="P429" s="7"/>
       <c r="Q429" s="7"/>
       <c r="R429" s="7"/>
       <c r="S429" s="7"/>
       <c r="T429" s="7">
-        <v>650</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="430" spans="1:20">
       <c r="A430" s="12">
-        <v>41603</v>
-      </c>
-      <c r="B430" s="7">
-        <v>100</v>
-      </c>
+        <v>41579</v>
+      </c>
+      <c r="B430" s="7"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -55497,7 +55870,9 @@
       <c r="G430" s="7"/>
       <c r="H430" s="7"/>
       <c r="I430" s="7"/>
-      <c r="J430" s="7"/>
+      <c r="J430" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K430" s="7"/>
       <c r="L430" s="7"/>
       <c r="M430" s="7"/>
@@ -55508,14 +55883,16 @@
       <c r="R430" s="7"/>
       <c r="S430" s="7"/>
       <c r="T430" s="7">
-        <v>100</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="431" spans="1:20">
       <c r="A431" s="12">
-        <v>41605</v>
-      </c>
-      <c r="B431" s="7"/>
+        <v>41590</v>
+      </c>
+      <c r="B431" s="7">
+        <v>100</v>
+      </c>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -55529,21 +55906,23 @@
       <c r="M431" s="7"/>
       <c r="N431" s="7"/>
       <c r="O431" s="7"/>
-      <c r="P431" s="7">
-        <v>200</v>
-      </c>
-      <c r="Q431" s="7"/>
+      <c r="P431" s="7"/>
+      <c r="Q431" s="7">
+        <v>150</v>
+      </c>
       <c r="R431" s="7"/>
       <c r="S431" s="7"/>
       <c r="T431" s="7">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="432" spans="1:20">
       <c r="A432" s="12">
-        <v>41610</v>
-      </c>
-      <c r="B432" s="7"/>
+        <v>41597</v>
+      </c>
+      <c r="B432" s="7">
+        <v>100</v>
+      </c>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -55555,9 +55934,7 @@
       <c r="K432" s="7"/>
       <c r="L432" s="7"/>
       <c r="M432" s="7"/>
-      <c r="N432" s="7">
-        <v>100</v>
-      </c>
+      <c r="N432" s="7"/>
       <c r="O432" s="7"/>
       <c r="P432" s="7"/>
       <c r="Q432" s="7"/>
@@ -55569,9 +55946,11 @@
     </row>
     <row r="433" spans="1:20">
       <c r="A433" s="12">
-        <v>41611</v>
-      </c>
-      <c r="B433" s="7"/>
+        <v>41599</v>
+      </c>
+      <c r="B433" s="7">
+        <v>7</v>
+      </c>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -55582,9 +55961,7 @@
       <c r="J433" s="7"/>
       <c r="K433" s="7"/>
       <c r="L433" s="7"/>
-      <c r="M433" s="7">
-        <v>150</v>
-      </c>
+      <c r="M433" s="7"/>
       <c r="N433" s="7"/>
       <c r="O433" s="7"/>
       <c r="P433" s="7"/>
@@ -55592,12 +55969,12 @@
       <c r="R433" s="7"/>
       <c r="S433" s="7"/>
       <c r="T433" s="7">
-        <v>150</v>
+        <v>7</v>
       </c>
     </row>
     <row r="434" spans="1:20">
       <c r="A434" s="12">
-        <v>41614</v>
+        <v>41600</v>
       </c>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -55607,31 +55984,35 @@
       <c r="G434" s="7"/>
       <c r="H434" s="7"/>
       <c r="I434" s="7"/>
-      <c r="J434" s="7"/>
+      <c r="J434" s="7">
+        <v>200</v>
+      </c>
       <c r="K434" s="7">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L434" s="7"/>
-      <c r="M434" s="7"/>
+      <c r="M434" s="7">
+        <v>100</v>
+      </c>
       <c r="N434" s="7"/>
-      <c r="O434" s="7"/>
+      <c r="O434" s="7">
+        <v>150</v>
+      </c>
       <c r="P434" s="7"/>
-      <c r="Q434" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q434" s="7"/>
       <c r="R434" s="7"/>
-      <c r="S434" s="7">
-        <v>100</v>
-      </c>
+      <c r="S434" s="7"/>
       <c r="T434" s="7">
-        <v>350</v>
+        <v>650</v>
       </c>
     </row>
     <row r="435" spans="1:20">
       <c r="A435" s="12">
-        <v>41622</v>
-      </c>
-      <c r="B435" s="7"/>
+        <v>41603</v>
+      </c>
+      <c r="B435" s="7">
+        <v>100</v>
+      </c>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -55639,95 +56020,237 @@
       <c r="G435" s="7"/>
       <c r="H435" s="7"/>
       <c r="I435" s="7"/>
-      <c r="J435" s="7">
+      <c r="J435" s="7"/>
+      <c r="K435" s="7"/>
+      <c r="L435" s="7"/>
+      <c r="M435" s="7"/>
+      <c r="N435" s="7"/>
+      <c r="O435" s="7"/>
+      <c r="P435" s="7"/>
+      <c r="Q435" s="7"/>
+      <c r="R435" s="7"/>
+      <c r="S435" s="7"/>
+      <c r="T435" s="7">
         <v>100</v>
       </c>
-      <c r="K435" s="7">
+    </row>
+    <row r="436" spans="1:20">
+      <c r="A436" s="12">
+        <v>41605</v>
+      </c>
+      <c r="B436" s="7"/>
+      <c r="C436" s="7"/>
+      <c r="D436" s="7"/>
+      <c r="E436" s="7"/>
+      <c r="F436" s="7"/>
+      <c r="G436" s="7"/>
+      <c r="H436" s="7"/>
+      <c r="I436" s="7"/>
+      <c r="J436" s="7"/>
+      <c r="K436" s="7"/>
+      <c r="L436" s="7"/>
+      <c r="M436" s="7"/>
+      <c r="N436" s="7"/>
+      <c r="O436" s="7"/>
+      <c r="P436" s="7">
         <v>200</v>
       </c>
-      <c r="L435" s="7"/>
-      <c r="M435" s="7">
+      <c r="Q436" s="7"/>
+      <c r="R436" s="7"/>
+      <c r="S436" s="7"/>
+      <c r="T436" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="437" spans="1:20">
+      <c r="A437" s="12">
+        <v>41610</v>
+      </c>
+      <c r="B437" s="7"/>
+      <c r="C437" s="7"/>
+      <c r="D437" s="7"/>
+      <c r="E437" s="7"/>
+      <c r="F437" s="7"/>
+      <c r="G437" s="7"/>
+      <c r="H437" s="7"/>
+      <c r="I437" s="7"/>
+      <c r="J437" s="7"/>
+      <c r="K437" s="7"/>
+      <c r="L437" s="7"/>
+      <c r="M437" s="7"/>
+      <c r="N437" s="7">
         <v>100</v>
       </c>
-      <c r="N435" s="7">
+      <c r="O437" s="7"/>
+      <c r="P437" s="7"/>
+      <c r="Q437" s="7"/>
+      <c r="R437" s="7"/>
+      <c r="S437" s="7"/>
+      <c r="T437" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="438" spans="1:20">
+      <c r="A438" s="12">
+        <v>41611</v>
+      </c>
+      <c r="B438" s="7"/>
+      <c r="C438" s="7"/>
+      <c r="D438" s="7"/>
+      <c r="E438" s="7"/>
+      <c r="F438" s="7"/>
+      <c r="G438" s="7"/>
+      <c r="H438" s="7"/>
+      <c r="I438" s="7"/>
+      <c r="J438" s="7"/>
+      <c r="K438" s="7"/>
+      <c r="L438" s="7"/>
+      <c r="M438" s="7">
+        <v>150</v>
+      </c>
+      <c r="N438" s="7"/>
+      <c r="O438" s="7"/>
+      <c r="P438" s="7"/>
+      <c r="Q438" s="7"/>
+      <c r="R438" s="7"/>
+      <c r="S438" s="7"/>
+      <c r="T438" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="439" spans="1:20">
+      <c r="A439" s="12">
+        <v>41614</v>
+      </c>
+      <c r="B439" s="7"/>
+      <c r="C439" s="7"/>
+      <c r="D439" s="7"/>
+      <c r="E439" s="7"/>
+      <c r="F439" s="7"/>
+      <c r="G439" s="7"/>
+      <c r="H439" s="7"/>
+      <c r="I439" s="7"/>
+      <c r="J439" s="7"/>
+      <c r="K439" s="7">
+        <v>50</v>
+      </c>
+      <c r="L439" s="7"/>
+      <c r="M439" s="7"/>
+      <c r="N439" s="7"/>
+      <c r="O439" s="7"/>
+      <c r="P439" s="7"/>
+      <c r="Q439" s="7">
         <v>200</v>
       </c>
-      <c r="O435" s="7">
+      <c r="R439" s="7"/>
+      <c r="S439" s="7">
         <v>100</v>
       </c>
-      <c r="P435" s="7">
+      <c r="T439" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="440" spans="1:20">
+      <c r="A440" s="12">
+        <v>41622</v>
+      </c>
+      <c r="B440" s="7"/>
+      <c r="C440" s="7"/>
+      <c r="D440" s="7"/>
+      <c r="E440" s="7"/>
+      <c r="F440" s="7"/>
+      <c r="G440" s="7"/>
+      <c r="H440" s="7"/>
+      <c r="I440" s="7"/>
+      <c r="J440" s="7">
+        <v>100</v>
+      </c>
+      <c r="K440" s="7">
+        <v>200</v>
+      </c>
+      <c r="L440" s="7"/>
+      <c r="M440" s="7">
+        <v>100</v>
+      </c>
+      <c r="N440" s="7">
+        <v>200</v>
+      </c>
+      <c r="O440" s="7">
+        <v>100</v>
+      </c>
+      <c r="P440" s="7">
         <v>300</v>
       </c>
-      <c r="Q435" s="7">
+      <c r="Q440" s="7">
         <v>100</v>
       </c>
-      <c r="R435" s="7"/>
-      <c r="S435" s="7">
+      <c r="R440" s="7"/>
+      <c r="S440" s="7">
         <v>50</v>
       </c>
-      <c r="T435" s="7">
+      <c r="T440" s="7">
         <v>1150</v>
       </c>
     </row>
-    <row r="436" spans="1:20">
-      <c r="A436" s="6" t="s">
+    <row r="441" spans="1:20">
+      <c r="A441" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B436" s="7">
+      <c r="B441" s="7">
         <v>-158.59999999999991</v>
       </c>
-      <c r="C436" s="7">
+      <c r="C441" s="7">
         <v>56</v>
       </c>
-      <c r="D436" s="7">
+      <c r="D441" s="7">
         <v>15.899999999999977</v>
       </c>
-      <c r="E436" s="7">
+      <c r="E441" s="7">
         <v>14</v>
       </c>
-      <c r="F436" s="7">
+      <c r="F441" s="7">
         <v>-8</v>
       </c>
-      <c r="G436" s="7">
+      <c r="G441" s="7">
         <v>-13.699999999999591</v>
       </c>
-      <c r="H436" s="7">
+      <c r="H441" s="7">
         <v>-34.099999999999909</v>
       </c>
-      <c r="I436" s="7">
+      <c r="I441" s="7">
         <v>8.9999999999995453</v>
       </c>
-      <c r="J436" s="7">
+      <c r="J441" s="7">
         <v>60.099999999997635</v>
       </c>
-      <c r="K436" s="7">
+      <c r="K441" s="7">
         <v>86.600000000001046</v>
       </c>
-      <c r="L436" s="7">
+      <c r="L441" s="7">
         <v>43.400000000000006</v>
       </c>
-      <c r="M436" s="7">
+      <c r="M441" s="7">
         <v>-1.7999999999988177</v>
       </c>
-      <c r="N436" s="7">
+      <c r="N441" s="7">
         <v>62.400000000001683</v>
       </c>
-      <c r="O436" s="7">
+      <c r="O441" s="7">
         <v>61.5</v>
       </c>
-      <c r="P436" s="7">
+      <c r="P441" s="7">
         <v>129.30000000000064</v>
       </c>
-      <c r="Q436" s="7">
+      <c r="Q441" s="7">
         <v>64.800000000000637</v>
       </c>
-      <c r="R436" s="7">
+      <c r="R441" s="7">
         <v>13.599999999999994</v>
       </c>
-      <c r="S436" s="7">
+      <c r="S441" s="7">
         <v>8.7000000000000171</v>
       </c>
-      <c r="T436" s="7">
+      <c r="T441" s="7">
         <v>409.10000000001128</v>
       </c>
     </row>
@@ -55742,7 +56265,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -55841,7 +56364,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="7">
-        <v>-909.09999999999968</v>
+        <v>-909.09999999999991</v>
       </c>
       <c r="C3" s="7">
         <v>-31</v>
@@ -55865,7 +56388,7 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3222.3000000000015</v>
+        <v>-3222.3000000000025</v>
       </c>
       <c r="K3" s="7">
         <v>-1563.3999999999992</v>
@@ -55886,7 +56409,7 @@
         <v>-1370.6999999999994</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1185.1999999999996</v>
+        <v>-1185.1999999999994</v>
       </c>
       <c r="R3" s="7">
         <v>-236.39999999999998</v>
@@ -55895,7 +56418,7 @@
         <v>-141.29999999999998</v>
       </c>
       <c r="T3" s="7">
-        <v>-18859.3</v>
+        <v>-18859.300000000003</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -55965,7 +56488,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="8">
-        <v>-158.59999999999968</v>
+        <v>-158.59999999999991</v>
       </c>
       <c r="C5" s="8">
         <v>56</v>
@@ -55989,7 +56512,7 @@
         <v>8.9999999999995453</v>
       </c>
       <c r="J5" s="8">
-        <v>60.099999999998545</v>
+        <v>60.099999999997635</v>
       </c>
       <c r="K5" s="8">
         <v>86.600000000000819</v>
@@ -56010,7 +56533,7 @@
         <v>129.30000000000064</v>
       </c>
       <c r="Q5" s="8">
-        <v>64.800000000000409</v>
+        <v>64.800000000000637</v>
       </c>
       <c r="R5" s="8">
         <v>13.600000000000023</v>
@@ -56019,7 +56542,7 @@
         <v>8.7000000000000171</v>
       </c>
       <c r="T5" s="8">
-        <v>409.10000000000218</v>
+        <v>409.09999999999854</v>
       </c>
     </row>
   </sheetData>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="消费记录明细" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4453" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4455" uniqueCount="569">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2464,25 +2464,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2494,11 +2485,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="25">
     <dxf>
       <border>
         <left style="thin">
@@ -2566,6 +2566,56 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2686,7 +2736,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41628.51278946759" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1673">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41628.672611921298" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1674">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="消费记录明细"/>
   </cacheSource>
@@ -3085,7 +3135,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1673">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1674">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -12893,230 +12943,236 @@
   <r>
     <x v="329"/>
     <x v="20"/>
-    <m/>
+    <n v="-15.1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="329"/>
     <x v="17"/>
-    <m/>
+    <n v="-15.1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="329"/>
     <x v="13"/>
-    <m/>
+    <n v="-15.1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="329"/>
     <x v="24"/>
-    <m/>
+    <n v="-15.1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="329"/>
     <x v="6"/>
-    <m/>
+    <n v="-15.1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="329"/>
     <x v="10"/>
-    <m/>
+    <n v="-15.1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="329"/>
     <x v="15"/>
-    <m/>
+    <n v="-15.1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="329"/>
     <x v="19"/>
-    <m/>
+    <n v="-15.1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="330"/>
     <x v="20"/>
-    <m/>
+    <n v="-14.7"/>
     <x v="0"/>
   </r>
   <r>
     <x v="330"/>
     <x v="17"/>
-    <m/>
+    <n v="-14.7"/>
     <x v="0"/>
   </r>
   <r>
     <x v="330"/>
     <x v="13"/>
-    <m/>
+    <n v="-14.7"/>
     <x v="0"/>
   </r>
   <r>
     <x v="330"/>
     <x v="24"/>
-    <m/>
+    <n v="-14.7"/>
     <x v="0"/>
   </r>
   <r>
     <x v="330"/>
     <x v="15"/>
-    <m/>
+    <n v="-14.7"/>
     <x v="0"/>
   </r>
   <r>
     <x v="330"/>
     <x v="19"/>
-    <m/>
+    <n v="-14.7"/>
     <x v="0"/>
   </r>
   <r>
     <x v="331"/>
     <x v="20"/>
-    <m/>
+    <n v="-16"/>
     <x v="0"/>
   </r>
   <r>
     <x v="331"/>
     <x v="17"/>
-    <m/>
+    <n v="-16"/>
     <x v="0"/>
   </r>
   <r>
     <x v="331"/>
     <x v="13"/>
-    <m/>
+    <n v="-16"/>
     <x v="0"/>
   </r>
   <r>
     <x v="331"/>
     <x v="24"/>
-    <m/>
+    <n v="-16"/>
     <x v="0"/>
   </r>
   <r>
     <x v="331"/>
     <x v="12"/>
-    <m/>
+    <n v="-16"/>
     <x v="0"/>
   </r>
   <r>
     <x v="331"/>
     <x v="15"/>
-    <m/>
+    <n v="-16"/>
     <x v="0"/>
   </r>
   <r>
     <x v="331"/>
     <x v="19"/>
-    <m/>
+    <n v="-16"/>
     <x v="0"/>
   </r>
   <r>
     <x v="331"/>
     <x v="10"/>
-    <m/>
+    <n v="-16"/>
     <x v="0"/>
   </r>
   <r>
     <x v="332"/>
     <x v="20"/>
-    <m/>
+    <n v="-15.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="332"/>
     <x v="17"/>
-    <m/>
+    <n v="-15.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="332"/>
     <x v="13"/>
-    <m/>
+    <n v="-15.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="332"/>
     <x v="24"/>
-    <m/>
+    <n v="-15.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="332"/>
     <x v="6"/>
-    <m/>
+    <n v="-15.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="332"/>
     <x v="15"/>
-    <m/>
+    <n v="-15.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="332"/>
     <x v="19"/>
-    <m/>
+    <n v="-15.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="332"/>
     <x v="10"/>
-    <m/>
+    <n v="-15.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="333"/>
     <x v="20"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="333"/>
     <x v="17"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="333"/>
     <x v="13"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="333"/>
     <x v="24"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="333"/>
     <x v="22"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="333"/>
     <x v="15"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="333"/>
     <x v="19"/>
-    <m/>
+    <n v="-13.8"/>
     <x v="0"/>
   </r>
   <r>
     <x v="333"/>
     <x v="10"/>
-    <m/>
-    <x v="0"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="333"/>
+    <x v="24"/>
+    <n v="100"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="334"/>
@@ -13129,7 +13185,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:T441" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:T442" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="340">
@@ -13521,7 +13577,7 @@
     <field x="3"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="439">
+  <rowItems count="440">
     <i>
       <x/>
     </i>
@@ -14836,6 +14892,9 @@
     <i r="1">
       <x v="332"/>
     </i>
+    <i r="1">
+      <x v="337"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -14906,20 +14965,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="15">
+    <format dxfId="20">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="19">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15059,20 +15118,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="11">
+    <format dxfId="16">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="15">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15372,11 +15431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1673"/>
+  <dimension ref="A1:V1674"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1658" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1666" sqref="A1666:A1673"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1637" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1666" sqref="C1666:C1673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15521,7 +15580,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -15541,7 +15600,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -15559,7 +15618,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -15577,7 +15636,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -15595,7 +15654,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -15613,7 +15672,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -15631,7 +15690,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -16441,7 +16500,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="23" t="s">
         <v>65</v>
       </c>
     </row>
@@ -16461,7 +16520,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="28"/>
+      <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -16479,7 +16538,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="28"/>
+      <c r="F61" s="24"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -17297,7 +17356,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="29"/>
+      <c r="F109" s="26"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -17315,7 +17374,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="30"/>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -17333,7 +17392,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="31"/>
+      <c r="F111" s="28"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -17470,7 +17529,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -17490,7 +17549,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="31"/>
+      <c r="F120" s="28"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -18387,7 +18446,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="29" t="s">
+      <c r="F172" s="26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18407,7 +18466,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="30"/>
+      <c r="F173" s="27"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -18425,7 +18484,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="30"/>
+      <c r="F174" s="27"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -18443,7 +18502,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="31"/>
+      <c r="F175" s="28"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -20461,7 +20520,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="22" t="s">
+      <c r="F288" s="29" t="s">
         <v>202</v>
       </c>
     </row>
@@ -20481,7 +20540,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="26"/>
+      <c r="F289" s="31"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -20499,7 +20558,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="23"/>
+      <c r="F290" s="30"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -20517,7 +20576,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="22" t="s">
+      <c r="F291" s="29" t="s">
         <v>212</v>
       </c>
     </row>
@@ -20537,7 +20596,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="26"/>
+      <c r="F292" s="31"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -20555,7 +20614,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="26"/>
+      <c r="F293" s="31"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -20573,7 +20632,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="23"/>
+      <c r="F294" s="30"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -20591,7 +20650,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="22" t="s">
+      <c r="F295" s="29" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20611,7 +20670,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="23"/>
+      <c r="F296" s="30"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -20629,7 +20688,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="24" t="s">
+      <c r="F297" s="23" t="s">
         <v>207</v>
       </c>
     </row>
@@ -21506,7 +21565,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="22" t="s">
+      <c r="F342" s="29" t="s">
         <v>284</v>
       </c>
     </row>
@@ -21526,7 +21585,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="23"/>
+      <c r="F343" s="30"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -41485,6 +41544,9 @@
       <c r="B1636" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1636" s="1">
+        <v>-15.1</v>
+      </c>
       <c r="D1636" s="9" t="s">
         <v>7</v>
       </c>
@@ -41496,6 +41558,9 @@
       <c r="B1637" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="C1637" s="1">
+        <v>-15.1</v>
+      </c>
       <c r="D1637" s="9" t="s">
         <v>7</v>
       </c>
@@ -41507,6 +41572,9 @@
       <c r="B1638" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1638" s="1">
+        <v>-15.1</v>
+      </c>
       <c r="D1638" s="9" t="s">
         <v>7</v>
       </c>
@@ -41518,6 +41586,9 @@
       <c r="B1639" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="C1639" s="1">
+        <v>-15.1</v>
+      </c>
       <c r="D1639" s="9" t="s">
         <v>7</v>
       </c>
@@ -41529,6 +41600,9 @@
       <c r="B1640" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C1640" s="1">
+        <v>-15.1</v>
+      </c>
       <c r="D1640" s="9" t="s">
         <v>7</v>
       </c>
@@ -41540,6 +41614,9 @@
       <c r="B1641" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C1641" s="1">
+        <v>-15.1</v>
+      </c>
       <c r="D1641" s="9" t="s">
         <v>7</v>
       </c>
@@ -41551,6 +41628,9 @@
       <c r="B1642" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1642" s="1">
+        <v>-15.1</v>
+      </c>
       <c r="D1642" s="9" t="s">
         <v>7</v>
       </c>
@@ -41562,6 +41642,9 @@
       <c r="B1643" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1643" s="1">
+        <v>-15.1</v>
+      </c>
       <c r="D1643" s="9" t="s">
         <v>7</v>
       </c>
@@ -41573,6 +41656,9 @@
       <c r="B1644" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1644" s="1">
+        <v>-14.7</v>
+      </c>
       <c r="D1644" s="9" t="s">
         <v>7</v>
       </c>
@@ -41584,6 +41670,9 @@
       <c r="B1645" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="C1645" s="1">
+        <v>-14.7</v>
+      </c>
       <c r="D1645" s="9" t="s">
         <v>7</v>
       </c>
@@ -41595,6 +41684,9 @@
       <c r="B1646" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1646" s="1">
+        <v>-14.7</v>
+      </c>
       <c r="D1646" s="9" t="s">
         <v>7</v>
       </c>
@@ -41606,6 +41698,9 @@
       <c r="B1647" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="C1647" s="1">
+        <v>-14.7</v>
+      </c>
       <c r="D1647" s="9" t="s">
         <v>7</v>
       </c>
@@ -41617,6 +41712,9 @@
       <c r="B1648" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1648" s="1">
+        <v>-14.7</v>
+      </c>
       <c r="D1648" s="9" t="s">
         <v>7</v>
       </c>
@@ -41628,6 +41726,9 @@
       <c r="B1649" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1649" s="1">
+        <v>-14.7</v>
+      </c>
       <c r="D1649" s="9" t="s">
         <v>7</v>
       </c>
@@ -41639,6 +41740,9 @@
       <c r="B1650" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1650" s="1">
+        <v>-16</v>
+      </c>
       <c r="D1650" s="9" t="s">
         <v>7</v>
       </c>
@@ -41650,6 +41754,9 @@
       <c r="B1651" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="C1651" s="1">
+        <v>-16</v>
+      </c>
       <c r="D1651" s="9" t="s">
         <v>7</v>
       </c>
@@ -41661,6 +41768,9 @@
       <c r="B1652" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1652" s="1">
+        <v>-16</v>
+      </c>
       <c r="D1652" s="9" t="s">
         <v>7</v>
       </c>
@@ -41672,6 +41782,9 @@
       <c r="B1653" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="C1653" s="1">
+        <v>-16</v>
+      </c>
       <c r="D1653" s="9" t="s">
         <v>7</v>
       </c>
@@ -41683,6 +41796,9 @@
       <c r="B1654" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C1654" s="1">
+        <v>-16</v>
+      </c>
       <c r="D1654" s="9" t="s">
         <v>7</v>
       </c>
@@ -41694,6 +41810,9 @@
       <c r="B1655" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1655" s="1">
+        <v>-16</v>
+      </c>
       <c r="D1655" s="9" t="s">
         <v>7</v>
       </c>
@@ -41705,6 +41824,9 @@
       <c r="B1656" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1656" s="1">
+        <v>-16</v>
+      </c>
       <c r="D1656" s="9" t="s">
         <v>7</v>
       </c>
@@ -41716,6 +41838,9 @@
       <c r="B1657" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C1657" s="1">
+        <v>-16</v>
+      </c>
       <c r="D1657" s="9" t="s">
         <v>7</v>
       </c>
@@ -41727,6 +41852,9 @@
       <c r="B1658" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1658" s="1">
+        <v>-15.8</v>
+      </c>
       <c r="D1658" s="9" t="s">
         <v>7</v>
       </c>
@@ -41738,6 +41866,9 @@
       <c r="B1659" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="C1659" s="1">
+        <v>-15.8</v>
+      </c>
       <c r="D1659" s="9" t="s">
         <v>7</v>
       </c>
@@ -41749,6 +41880,9 @@
       <c r="B1660" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1660" s="1">
+        <v>-15.8</v>
+      </c>
       <c r="D1660" s="9" t="s">
         <v>7</v>
       </c>
@@ -41760,6 +41894,9 @@
       <c r="B1661" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="C1661" s="1">
+        <v>-15.8</v>
+      </c>
       <c r="D1661" s="9" t="s">
         <v>7</v>
       </c>
@@ -41771,6 +41908,9 @@
       <c r="B1662" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C1662" s="1">
+        <v>-15.8</v>
+      </c>
       <c r="D1662" s="9" t="s">
         <v>7</v>
       </c>
@@ -41782,6 +41922,9 @@
       <c r="B1663" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1663" s="1">
+        <v>-15.8</v>
+      </c>
       <c r="D1663" s="9" t="s">
         <v>7</v>
       </c>
@@ -41793,6 +41936,9 @@
       <c r="B1664" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1664" s="1">
+        <v>-15.8</v>
+      </c>
       <c r="D1664" s="9" t="s">
         <v>7</v>
       </c>
@@ -41804,6 +41950,9 @@
       <c r="B1665" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C1665" s="1">
+        <v>-15.8</v>
+      </c>
       <c r="D1665" s="9" t="s">
         <v>7</v>
       </c>
@@ -41815,6 +41964,9 @@
       <c r="B1666" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1666" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1666" s="9" t="s">
         <v>7</v>
       </c>
@@ -41826,6 +41978,9 @@
       <c r="B1667" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="C1667" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1667" s="9" t="s">
         <v>7</v>
       </c>
@@ -41837,6 +41992,9 @@
       <c r="B1668" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1668" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1668" s="9" t="s">
         <v>7</v>
       </c>
@@ -41848,6 +42006,9 @@
       <c r="B1669" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="C1669" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1669" s="9" t="s">
         <v>7</v>
       </c>
@@ -41859,6 +42020,9 @@
       <c r="B1670" s="1" t="s">
         <v>480</v>
       </c>
+      <c r="C1670" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1670" s="9" t="s">
         <v>7</v>
       </c>
@@ -41870,6 +42034,9 @@
       <c r="B1671" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1671" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1671" s="9" t="s">
         <v>7</v>
       </c>
@@ -41881,6 +42048,9 @@
       <c r="B1672" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1672" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1672" s="9" t="s">
         <v>7</v>
       </c>
@@ -41892,41 +42062,58 @@
       <c r="B1673" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C1673" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1673" s="9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:4">
+      <c r="A1674" s="4">
+        <v>41628</v>
+      </c>
+      <c r="B1674" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1674" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1674" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F342:F343"/>
+    <mergeCell ref="F295:F296"/>
+    <mergeCell ref="F297:F298"/>
+    <mergeCell ref="F291:F294"/>
+    <mergeCell ref="F288:F290"/>
     <mergeCell ref="F6:F12"/>
     <mergeCell ref="F59:F62"/>
     <mergeCell ref="F109:F111"/>
     <mergeCell ref="F119:F120"/>
     <mergeCell ref="F172:F175"/>
-    <mergeCell ref="F342:F343"/>
-    <mergeCell ref="F295:F296"/>
-    <mergeCell ref="F297:F298"/>
-    <mergeCell ref="F291:F294"/>
-    <mergeCell ref="F288:F290"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41945,7 +42132,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V441"/>
+  <dimension ref="A1:V442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
@@ -41961,13 +42148,14 @@
     <col min="5" max="5" width="7.75" customWidth="1"/>
     <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.625" customWidth="1"/>
     <col min="12" max="12" width="8.5" customWidth="1"/>
-    <col min="13" max="14" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5" customWidth="1"/>
-    <col min="16" max="17" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5" customWidth="1"/>
     <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.75" bestFit="1" customWidth="1"/>
@@ -42087,43 +42275,43 @@
         <v>-2036.6999999999996</v>
       </c>
       <c r="H3" s="7">
-        <v>-589.09999999999991</v>
+        <v>-619.99999999999989</v>
       </c>
       <c r="I3" s="7">
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3222.3000000000025</v>
+        <v>-3283.0000000000027</v>
       </c>
       <c r="K3" s="7">
-        <v>-1563.399999999999</v>
+        <v>-1638.7999999999988</v>
       </c>
       <c r="L3" s="7">
         <v>-176.6</v>
       </c>
       <c r="M3" s="7">
-        <v>-1571.7999999999988</v>
+        <v>-1587.7999999999988</v>
       </c>
       <c r="N3" s="7">
-        <v>-1816.5999999999983</v>
+        <v>-1891.9999999999982</v>
       </c>
       <c r="O3" s="7">
-        <v>-981.5</v>
+        <v>-1056.9000000000001</v>
       </c>
       <c r="P3" s="7">
-        <v>-1370.6999999999994</v>
+        <v>-1446.0999999999992</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1185.1999999999994</v>
+        <v>-1260.5999999999992</v>
       </c>
       <c r="R3" s="7">
-        <v>-236.4</v>
+        <v>-250.20000000000002</v>
       </c>
       <c r="S3" s="7">
-        <v>-141.29999999999998</v>
+        <v>-216.7</v>
       </c>
       <c r="T3" s="7">
-        <v>-18859.299999999988</v>
+        <v>-19433.099999999991</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -52406,19 +52594,37 @@
       <c r="E310" s="7"/>
       <c r="F310" s="7"/>
       <c r="G310" s="7"/>
-      <c r="H310" s="7"/>
+      <c r="H310" s="7">
+        <v>-15.1</v>
+      </c>
       <c r="I310" s="7"/>
-      <c r="J310" s="7"/>
-      <c r="K310" s="7"/>
+      <c r="J310" s="7">
+        <v>-15.1</v>
+      </c>
+      <c r="K310" s="7">
+        <v>-15.1</v>
+      </c>
       <c r="L310" s="7"/>
       <c r="M310" s="7"/>
-      <c r="N310" s="7"/>
-      <c r="O310" s="7"/>
-      <c r="P310" s="7"/>
-      <c r="Q310" s="7"/>
+      <c r="N310" s="7">
+        <v>-15.1</v>
+      </c>
+      <c r="O310" s="7">
+        <v>-15.1</v>
+      </c>
+      <c r="P310" s="7">
+        <v>-15.1</v>
+      </c>
+      <c r="Q310" s="7">
+        <v>-15.1</v>
+      </c>
       <c r="R310" s="7"/>
-      <c r="S310" s="7"/>
-      <c r="T310" s="7"/>
+      <c r="S310" s="7">
+        <v>-15.1</v>
+      </c>
+      <c r="T310" s="7">
+        <v>-120.79999999999998</v>
+      </c>
     </row>
     <row r="311" spans="1:20">
       <c r="A311" s="12">
@@ -52433,16 +52639,30 @@
       <c r="H311" s="7"/>
       <c r="I311" s="7"/>
       <c r="J311" s="7"/>
-      <c r="K311" s="7"/>
+      <c r="K311" s="7">
+        <v>-14.7</v>
+      </c>
       <c r="L311" s="7"/>
       <c r="M311" s="7"/>
-      <c r="N311" s="7"/>
-      <c r="O311" s="7"/>
-      <c r="P311" s="7"/>
-      <c r="Q311" s="7"/>
+      <c r="N311" s="7">
+        <v>-14.7</v>
+      </c>
+      <c r="O311" s="7">
+        <v>-14.7</v>
+      </c>
+      <c r="P311" s="7">
+        <v>-14.7</v>
+      </c>
+      <c r="Q311" s="7">
+        <v>-14.7</v>
+      </c>
       <c r="R311" s="7"/>
-      <c r="S311" s="7"/>
-      <c r="T311" s="7"/>
+      <c r="S311" s="7">
+        <v>-14.7</v>
+      </c>
+      <c r="T311" s="7">
+        <v>-88.2</v>
+      </c>
     </row>
     <row r="312" spans="1:20">
       <c r="A312" s="12">
@@ -52456,17 +52676,35 @@
       <c r="G312" s="7"/>
       <c r="H312" s="7"/>
       <c r="I312" s="7"/>
-      <c r="J312" s="7"/>
-      <c r="K312" s="7"/>
+      <c r="J312" s="7">
+        <v>-16</v>
+      </c>
+      <c r="K312" s="7">
+        <v>-16</v>
+      </c>
       <c r="L312" s="7"/>
-      <c r="M312" s="7"/>
-      <c r="N312" s="7"/>
-      <c r="O312" s="7"/>
-      <c r="P312" s="7"/>
-      <c r="Q312" s="7"/>
+      <c r="M312" s="7">
+        <v>-16</v>
+      </c>
+      <c r="N312" s="7">
+        <v>-16</v>
+      </c>
+      <c r="O312" s="7">
+        <v>-16</v>
+      </c>
+      <c r="P312" s="7">
+        <v>-16</v>
+      </c>
+      <c r="Q312" s="7">
+        <v>-16</v>
+      </c>
       <c r="R312" s="7"/>
-      <c r="S312" s="7"/>
-      <c r="T312" s="7"/>
+      <c r="S312" s="7">
+        <v>-16</v>
+      </c>
+      <c r="T312" s="7">
+        <v>-128</v>
+      </c>
     </row>
     <row r="313" spans="1:20">
       <c r="A313" s="12">
@@ -52478,19 +52716,37 @@
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
       <c r="G313" s="7"/>
-      <c r="H313" s="7"/>
+      <c r="H313" s="7">
+        <v>-15.8</v>
+      </c>
       <c r="I313" s="7"/>
-      <c r="J313" s="7"/>
-      <c r="K313" s="7"/>
+      <c r="J313" s="7">
+        <v>-15.8</v>
+      </c>
+      <c r="K313" s="7">
+        <v>-15.8</v>
+      </c>
       <c r="L313" s="7"/>
       <c r="M313" s="7"/>
-      <c r="N313" s="7"/>
-      <c r="O313" s="7"/>
-      <c r="P313" s="7"/>
-      <c r="Q313" s="7"/>
+      <c r="N313" s="7">
+        <v>-15.8</v>
+      </c>
+      <c r="O313" s="7">
+        <v>-15.8</v>
+      </c>
+      <c r="P313" s="7">
+        <v>-15.8</v>
+      </c>
+      <c r="Q313" s="7">
+        <v>-15.8</v>
+      </c>
       <c r="R313" s="7"/>
-      <c r="S313" s="7"/>
-      <c r="T313" s="7"/>
+      <c r="S313" s="7">
+        <v>-15.8</v>
+      </c>
+      <c r="T313" s="7">
+        <v>-126.39999999999999</v>
+      </c>
     </row>
     <row r="314" spans="1:20">
       <c r="A314" s="12">
@@ -52504,17 +52760,35 @@
       <c r="G314" s="7"/>
       <c r="H314" s="7"/>
       <c r="I314" s="7"/>
-      <c r="J314" s="7"/>
-      <c r="K314" s="7"/>
+      <c r="J314" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="K314" s="7">
+        <v>-13.8</v>
+      </c>
       <c r="L314" s="7"/>
       <c r="M314" s="7"/>
-      <c r="N314" s="7"/>
-      <c r="O314" s="7"/>
-      <c r="P314" s="7"/>
-      <c r="Q314" s="7"/>
-      <c r="R314" s="7"/>
-      <c r="S314" s="7"/>
-      <c r="T314" s="7"/>
+      <c r="N314" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="O314" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="P314" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="Q314" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="R314" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="S314" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="T314" s="7">
+        <v>-110.39999999999999</v>
+      </c>
     </row>
     <row r="315" spans="1:20">
       <c r="A315" s="6" t="s">
@@ -52572,10 +52846,10 @@
         <v>250</v>
       </c>
       <c r="S315" s="7">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="T315" s="7">
-        <v>19268.400000000001</v>
+        <v>19368.400000000001</v>
       </c>
     </row>
     <row r="316" spans="1:20">
@@ -56193,65 +56467,93 @@
       </c>
     </row>
     <row r="441" spans="1:20">
-      <c r="A441" s="6" t="s">
+      <c r="A441" s="12">
+        <v>41628</v>
+      </c>
+      <c r="B441" s="7"/>
+      <c r="C441" s="7"/>
+      <c r="D441" s="7"/>
+      <c r="E441" s="7"/>
+      <c r="F441" s="7"/>
+      <c r="G441" s="7"/>
+      <c r="H441" s="7"/>
+      <c r="I441" s="7"/>
+      <c r="J441" s="7"/>
+      <c r="K441" s="7"/>
+      <c r="L441" s="7"/>
+      <c r="M441" s="7"/>
+      <c r="N441" s="7"/>
+      <c r="O441" s="7"/>
+      <c r="P441" s="7"/>
+      <c r="Q441" s="7"/>
+      <c r="R441" s="7"/>
+      <c r="S441" s="7">
+        <v>100</v>
+      </c>
+      <c r="T441" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="442" spans="1:20">
+      <c r="A442" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B441" s="7">
+      <c r="B442" s="7">
         <v>-158.59999999999991</v>
       </c>
-      <c r="C441" s="7">
+      <c r="C442" s="7">
         <v>56</v>
       </c>
-      <c r="D441" s="7">
+      <c r="D442" s="7">
         <v>15.899999999999977</v>
       </c>
-      <c r="E441" s="7">
+      <c r="E442" s="7">
         <v>14</v>
       </c>
-      <c r="F441" s="7">
+      <c r="F442" s="7">
         <v>-8</v>
       </c>
-      <c r="G441" s="7">
+      <c r="G442" s="7">
         <v>-13.699999999999591</v>
       </c>
-      <c r="H441" s="7">
-        <v>-34.099999999999909</v>
-      </c>
-      <c r="I441" s="7">
+      <c r="H442" s="7">
+        <v>-64.999999999999886</v>
+      </c>
+      <c r="I442" s="7">
         <v>8.9999999999995453</v>
       </c>
-      <c r="J441" s="7">
-        <v>60.099999999997635</v>
-      </c>
-      <c r="K441" s="7">
-        <v>86.600000000001046</v>
-      </c>
-      <c r="L441" s="7">
+      <c r="J442" s="7">
+        <v>-0.60000000000263753</v>
+      </c>
+      <c r="K442" s="7">
+        <v>11.200000000001182</v>
+      </c>
+      <c r="L442" s="7">
         <v>43.400000000000006</v>
       </c>
-      <c r="M441" s="7">
-        <v>-1.7999999999988177</v>
-      </c>
-      <c r="N441" s="7">
-        <v>62.400000000001683</v>
-      </c>
-      <c r="O441" s="7">
-        <v>61.5</v>
-      </c>
-      <c r="P441" s="7">
-        <v>129.30000000000064</v>
-      </c>
-      <c r="Q441" s="7">
-        <v>64.800000000000637</v>
-      </c>
-      <c r="R441" s="7">
-        <v>13.599999999999994</v>
-      </c>
-      <c r="S441" s="7">
-        <v>8.7000000000000171</v>
-      </c>
-      <c r="T441" s="7">
-        <v>409.10000000001128</v>
+      <c r="M442" s="7">
+        <v>-17.799999999998818</v>
+      </c>
+      <c r="N442" s="7">
+        <v>-12.999999999998181</v>
+      </c>
+      <c r="O442" s="7">
+        <v>-13.900000000000091</v>
+      </c>
+      <c r="P442" s="7">
+        <v>53.900000000000773</v>
+      </c>
+      <c r="Q442" s="7">
+        <v>-10.599999999999227</v>
+      </c>
+      <c r="R442" s="7">
+        <v>-0.20000000000001705</v>
+      </c>
+      <c r="S442" s="7">
+        <v>33.300000000000011</v>
+      </c>
+      <c r="T442" s="7">
+        <v>-64.699999999993452</v>
       </c>
     </row>
   </sheetData>
@@ -56264,13 +56566,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
@@ -56278,11 +56580,13 @@
     <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
@@ -56382,43 +56686,43 @@
         <v>-2036.6999999999998</v>
       </c>
       <c r="H3" s="7">
-        <v>-589.09999999999991</v>
+        <v>-620</v>
       </c>
       <c r="I3" s="7">
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3222.3000000000025</v>
+        <v>-3283.0000000000018</v>
       </c>
       <c r="K3" s="7">
-        <v>-1563.3999999999992</v>
+        <v>-1638.799999999999</v>
       </c>
       <c r="L3" s="7">
         <v>-176.6</v>
       </c>
       <c r="M3" s="7">
-        <v>-1571.799999999999</v>
+        <v>-1587.799999999999</v>
       </c>
       <c r="N3" s="7">
-        <v>-1816.5999999999983</v>
+        <v>-1891.9999999999982</v>
       </c>
       <c r="O3" s="7">
-        <v>-981.5</v>
+        <v>-1056.9000000000001</v>
       </c>
       <c r="P3" s="7">
-        <v>-1370.6999999999994</v>
+        <v>-1446.0999999999995</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1185.1999999999994</v>
+        <v>-1260.5999999999992</v>
       </c>
       <c r="R3" s="7">
-        <v>-236.39999999999998</v>
+        <v>-250.2</v>
       </c>
       <c r="S3" s="7">
-        <v>-141.29999999999998</v>
+        <v>-216.7</v>
       </c>
       <c r="T3" s="7">
-        <v>-18859.300000000003</v>
+        <v>-19433.099999999999</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -56477,10 +56781,10 @@
         <v>250</v>
       </c>
       <c r="S4" s="7">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="T4" s="7">
-        <v>19268.400000000001</v>
+        <v>19368.400000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -56506,43 +56810,43 @@
         <v>-13.699999999999818</v>
       </c>
       <c r="H5" s="8">
-        <v>-34.099999999999909</v>
+        <v>-65</v>
       </c>
       <c r="I5" s="8">
         <v>8.9999999999995453</v>
       </c>
       <c r="J5" s="8">
-        <v>60.099999999997635</v>
+        <v>-0.60000000000172804</v>
       </c>
       <c r="K5" s="8">
-        <v>86.600000000000819</v>
+        <v>11.200000000000955</v>
       </c>
       <c r="L5" s="8">
         <v>43.400000000000006</v>
       </c>
       <c r="M5" s="8">
-        <v>-1.799999999999045</v>
+        <v>-17.799999999999045</v>
       </c>
       <c r="N5" s="8">
-        <v>62.400000000001683</v>
+        <v>-12.999999999998181</v>
       </c>
       <c r="O5" s="8">
-        <v>61.5</v>
+        <v>-13.900000000000091</v>
       </c>
       <c r="P5" s="8">
-        <v>129.30000000000064</v>
+        <v>53.900000000000546</v>
       </c>
       <c r="Q5" s="8">
-        <v>64.800000000000637</v>
+        <v>-10.599999999999227</v>
       </c>
       <c r="R5" s="8">
-        <v>13.600000000000023</v>
+        <v>-0.19999999999998863</v>
       </c>
       <c r="S5" s="8">
-        <v>8.7000000000000171</v>
+        <v>33.300000000000011</v>
       </c>
       <c r="T5" s="8">
-        <v>409.09999999999854</v>
+        <v>-64.69999999999709</v>
       </c>
     </row>
   </sheetData>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="消费记录明细" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4455" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4501" uniqueCount="569">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2498,85 +2498,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2684,46 +2606,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -13184,7 +13066,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T442" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -14965,20 +14847,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="20">
+    <format dxfId="11">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="10">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14992,7 +14874,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -15118,20 +15000,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="16">
+    <format dxfId="7">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="6">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15431,11 +15313,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1674"/>
+  <dimension ref="A1:V1697"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1637" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1666" sqref="C1666:C1673"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1677" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1691" sqref="D1691:D1697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -42083,6 +41965,259 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1675" spans="1:4">
+      <c r="A1675" s="4">
+        <v>41631</v>
+      </c>
+      <c r="B1675" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1675" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:4">
+      <c r="A1676" s="4">
+        <v>41631</v>
+      </c>
+      <c r="B1676" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1676" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:4">
+      <c r="A1677" s="4">
+        <v>41631</v>
+      </c>
+      <c r="B1677" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1677" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:4">
+      <c r="A1678" s="4">
+        <v>41631</v>
+      </c>
+      <c r="B1678" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1678" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:4">
+      <c r="A1679" s="4">
+        <v>41631</v>
+      </c>
+      <c r="B1679" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1679" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:4">
+      <c r="A1680" s="4">
+        <v>41631</v>
+      </c>
+      <c r="B1680" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1680" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:4">
+      <c r="A1681" s="4">
+        <v>41631</v>
+      </c>
+      <c r="B1681" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1681" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:4">
+      <c r="A1682" s="4">
+        <v>41631</v>
+      </c>
+      <c r="B1682" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1682" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:4">
+      <c r="A1683" s="4">
+        <v>41632</v>
+      </c>
+      <c r="B1683" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1683" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:4">
+      <c r="A1684" s="4">
+        <v>41632</v>
+      </c>
+      <c r="B1684" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1684" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:4">
+      <c r="A1685" s="4">
+        <v>41632</v>
+      </c>
+      <c r="B1685" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1685" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:4">
+      <c r="A1686" s="4">
+        <v>41632</v>
+      </c>
+      <c r="B1686" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1686" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:4">
+      <c r="A1687" s="4">
+        <v>41632</v>
+      </c>
+      <c r="B1687" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1687" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:4">
+      <c r="A1688" s="4">
+        <v>41632</v>
+      </c>
+      <c r="B1688" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1688" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:4">
+      <c r="A1689" s="4">
+        <v>41632</v>
+      </c>
+      <c r="B1689" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1689" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:4">
+      <c r="A1690" s="4">
+        <v>41632</v>
+      </c>
+      <c r="B1690" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1690" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:4">
+      <c r="A1691" s="4">
+        <v>41632</v>
+      </c>
+      <c r="B1691" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1691" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:4">
+      <c r="A1692" s="4">
+        <v>41633</v>
+      </c>
+      <c r="B1692" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1692" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:4">
+      <c r="A1693" s="4">
+        <v>41633</v>
+      </c>
+      <c r="B1693" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1693" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:4">
+      <c r="A1694" s="4">
+        <v>41633</v>
+      </c>
+      <c r="B1694" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1694" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:4">
+      <c r="A1695" s="4">
+        <v>41633</v>
+      </c>
+      <c r="B1695" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1695" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:4">
+      <c r="A1696" s="4">
+        <v>41633</v>
+      </c>
+      <c r="B1696" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1696" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:4">
+      <c r="A1697" s="4">
+        <v>41633</v>
+      </c>
+      <c r="B1697" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1697" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="F342:F343"/>
@@ -42098,22 +42233,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56566,7 +56701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="消费记录明细" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4455" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4471" uniqueCount="569">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2464,16 +2464,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2485,138 +2494,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <b/>
@@ -13184,7 +13066,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T442" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -14965,20 +14847,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="20">
+    <format dxfId="7">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="6">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14992,7 +14874,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -15118,20 +15000,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="16">
+    <format dxfId="3">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="2">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15431,11 +15313,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1674"/>
+  <dimension ref="A1:V1682"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1637" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1666" sqref="C1666:C1673"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1664" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1680" sqref="C1680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15580,7 +15462,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -15600,7 +15482,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -15618,7 +15500,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -15636,7 +15518,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -15654,7 +15536,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -15672,7 +15554,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -15690,7 +15572,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -16500,7 +16382,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -16520,7 +16402,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="24"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -16538,7 +16420,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -17356,7 +17238,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="26"/>
+      <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -17374,7 +17256,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="27"/>
+      <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -17392,7 +17274,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="28"/>
+      <c r="F111" s="31"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -17529,7 +17411,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="26" t="s">
+      <c r="F119" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -17549,7 +17431,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="28"/>
+      <c r="F120" s="31"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -18446,7 +18328,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="26" t="s">
+      <c r="F172" s="29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18466,7 +18348,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="27"/>
+      <c r="F173" s="30"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -18484,7 +18366,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="27"/>
+      <c r="F174" s="30"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -18502,7 +18384,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="28"/>
+      <c r="F175" s="31"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -20520,7 +20402,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="29" t="s">
+      <c r="F288" s="22" t="s">
         <v>202</v>
       </c>
     </row>
@@ -20540,7 +20422,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="31"/>
+      <c r="F289" s="26"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -20558,7 +20440,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="30"/>
+      <c r="F290" s="23"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -20576,7 +20458,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="29" t="s">
+      <c r="F291" s="22" t="s">
         <v>212</v>
       </c>
     </row>
@@ -20596,7 +20478,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="31"/>
+      <c r="F292" s="26"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -20614,7 +20496,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="31"/>
+      <c r="F293" s="26"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -20632,7 +20514,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="30"/>
+      <c r="F294" s="23"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -20650,7 +20532,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="29" t="s">
+      <c r="F295" s="22" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20670,7 +20552,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="30"/>
+      <c r="F296" s="23"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -20688,7 +20570,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="23" t="s">
+      <c r="F297" s="24" t="s">
         <v>207</v>
       </c>
     </row>
@@ -21565,7 +21447,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="29" t="s">
+      <c r="F342" s="22" t="s">
         <v>284</v>
       </c>
     </row>
@@ -21585,7 +21467,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="30"/>
+      <c r="F343" s="23"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -42083,37 +41965,125 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1675" spans="1:4">
+      <c r="A1675" s="4">
+        <v>41631</v>
+      </c>
+      <c r="B1675" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1675" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:4">
+      <c r="A1676" s="4">
+        <v>41631</v>
+      </c>
+      <c r="B1676" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1676" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:4">
+      <c r="A1677" s="4">
+        <v>41631</v>
+      </c>
+      <c r="B1677" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1677" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:4">
+      <c r="A1678" s="4">
+        <v>41631</v>
+      </c>
+      <c r="B1678" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1678" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:4">
+      <c r="A1679" s="4">
+        <v>41631</v>
+      </c>
+      <c r="B1679" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1679" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:4">
+      <c r="A1680" s="4">
+        <v>41631</v>
+      </c>
+      <c r="B1680" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1680" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:4">
+      <c r="A1681" s="4">
+        <v>41631</v>
+      </c>
+      <c r="B1681" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1681" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:4">
+      <c r="A1682" s="4">
+        <v>41631</v>
+      </c>
+      <c r="B1682" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1682" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F172:F175"/>
     <mergeCell ref="F342:F343"/>
     <mergeCell ref="F295:F296"/>
     <mergeCell ref="F297:F298"/>
     <mergeCell ref="F291:F294"/>
     <mergeCell ref="F288:F290"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F172:F175"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56566,7 +56536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="消费记录明细" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4501" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4541" uniqueCount="569">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2464,16 +2464,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2485,59 +2494,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="20">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2607,6 +2635,46 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -2618,13 +2686,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41628.672611921298" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1674">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41635.649728935183" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1717">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="消费记录明细"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-12-21T00:00:00" count="339">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-12-28T00:00:00" count="344">
         <d v="2011-09-09T00:00:00"/>
         <d v="2011-09-30T00:00:00"/>
         <d v="2011-11-28T00:00:00"/>
@@ -2959,6 +3027,11 @@
         <d v="2013-12-18T00:00:00"/>
         <d v="2013-12-19T00:00:00"/>
         <d v="2013-12-20T00:00:00"/>
+        <d v="2013-12-23T00:00:00"/>
+        <d v="2013-12-24T00:00:00"/>
+        <d v="2013-12-25T00:00:00"/>
+        <d v="2013-12-26T00:00:00"/>
+        <d v="2013-12-27T00:00:00"/>
         <m/>
         <d v="2011-01-12T00:00:00" u="1"/>
         <d v="2013-05-14T00:00:00" u="1"/>
@@ -3017,7 +3090,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1674">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1717">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -13058,6 +13131,264 @@
   </r>
   <r>
     <x v="334"/>
+    <x v="20"/>
+    <n v="-13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="334"/>
+    <x v="17"/>
+    <n v="-13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="334"/>
+    <x v="13"/>
+    <n v="-13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="334"/>
+    <x v="24"/>
+    <n v="-13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="334"/>
+    <x v="8"/>
+    <n v="-13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="334"/>
+    <x v="15"/>
+    <n v="-13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="334"/>
+    <x v="19"/>
+    <n v="-13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="334"/>
+    <x v="10"/>
+    <n v="-13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="335"/>
+    <x v="20"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="335"/>
+    <x v="17"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="335"/>
+    <x v="13"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="335"/>
+    <x v="24"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="335"/>
+    <x v="8"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="335"/>
+    <x v="15"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="335"/>
+    <x v="19"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="335"/>
+    <x v="10"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="335"/>
+    <x v="12"/>
+    <n v="-13.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="336"/>
+    <x v="20"/>
+    <n v="-19.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="336"/>
+    <x v="13"/>
+    <n v="-19.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="336"/>
+    <x v="15"/>
+    <n v="-19.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="336"/>
+    <x v="19"/>
+    <n v="-19.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="336"/>
+    <x v="10"/>
+    <n v="-19.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="336"/>
+    <x v="12"/>
+    <n v="-19.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="337"/>
+    <x v="20"/>
+    <n v="-13.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="337"/>
+    <x v="13"/>
+    <n v="-13.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="337"/>
+    <x v="15"/>
+    <n v="-13.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="337"/>
+    <x v="8"/>
+    <n v="-13.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="337"/>
+    <x v="24"/>
+    <n v="-13.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="337"/>
+    <x v="12"/>
+    <n v="-13.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="338"/>
+    <x v="20"/>
+    <n v="-16.100000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="338"/>
+    <x v="13"/>
+    <n v="-16.100000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="338"/>
+    <x v="24"/>
+    <n v="-16.100000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="338"/>
+    <x v="8"/>
+    <n v="-16.100000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="338"/>
+    <x v="15"/>
+    <n v="-16.100000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="338"/>
+    <x v="19"/>
+    <n v="-16.100000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="338"/>
+    <x v="10"/>
+    <n v="-16.100000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="338"/>
+    <x v="22"/>
+    <n v="-16.100000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="338"/>
+    <x v="10"/>
+    <n v="300"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="338"/>
+    <x v="8"/>
+    <n v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="338"/>
+    <x v="13"/>
+    <n v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="338"/>
+    <x v="24"/>
+    <n v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="338"/>
+    <x v="22"/>
+    <n v="20"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="338"/>
+    <x v="15"/>
+    <n v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="339"/>
     <x v="25"/>
     <m/>
     <x v="2"/>
@@ -13066,16 +13397,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:T442" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:T448" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="340">
-        <item m="1" x="335"/>
-        <item m="1" x="338"/>
+      <items count="345">
+        <item m="1" x="340"/>
+        <item m="1" x="343"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="337"/>
+        <item m="1" x="342"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -13275,7 +13606,7 @@
         <item x="198"/>
         <item x="199"/>
         <item x="200"/>
-        <item m="1" x="336"/>
+        <item m="1" x="341"/>
         <item x="201"/>
         <item x="202"/>
         <item x="203"/>
@@ -13410,6 +13741,11 @@
         <item x="332"/>
         <item x="333"/>
         <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13459,7 +13795,7 @@
     <field x="3"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="440">
+  <rowItems count="446">
     <i>
       <x/>
     </i>
@@ -14396,6 +14732,21 @@
     <i r="1">
       <x v="337"/>
     </i>
+    <i r="1">
+      <x v="338"/>
+    </i>
+    <i r="1">
+      <x v="339"/>
+    </i>
+    <i r="1">
+      <x v="340"/>
+    </i>
+    <i r="1">
+      <x v="341"/>
+    </i>
+    <i r="1">
+      <x v="342"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -14777,6 +15128,9 @@
     <i r="1">
       <x v="337"/>
     </i>
+    <i r="1">
+      <x v="342"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -14847,20 +15201,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="11">
+    <format dxfId="15">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="14">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14874,7 +15228,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -15000,20 +15354,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="7">
+    <format dxfId="11">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="10">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15313,11 +15667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1697"/>
+  <dimension ref="A1:V1717"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1677" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1691" sqref="D1691:D1697"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1698" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1717" sqref="D1717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15462,7 +15816,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -15482,7 +15836,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -15500,7 +15854,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -15518,7 +15872,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -15536,7 +15890,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -15554,7 +15908,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -15572,7 +15926,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -16382,7 +16736,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -16402,7 +16756,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="24"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -16420,7 +16774,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -17238,7 +17592,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="26"/>
+      <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -17256,7 +17610,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="27"/>
+      <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -17274,7 +17628,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="28"/>
+      <c r="F111" s="31"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -17411,7 +17765,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="26" t="s">
+      <c r="F119" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -17431,7 +17785,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="28"/>
+      <c r="F120" s="31"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -18328,7 +18682,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="26" t="s">
+      <c r="F172" s="29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18348,7 +18702,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="27"/>
+      <c r="F173" s="30"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -18366,7 +18720,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="27"/>
+      <c r="F174" s="30"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -18384,7 +18738,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="28"/>
+      <c r="F175" s="31"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -20402,7 +20756,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="29" t="s">
+      <c r="F288" s="22" t="s">
         <v>202</v>
       </c>
     </row>
@@ -20422,7 +20776,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="31"/>
+      <c r="F289" s="26"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -20440,7 +20794,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="30"/>
+      <c r="F290" s="23"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -20458,7 +20812,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="29" t="s">
+      <c r="F291" s="22" t="s">
         <v>212</v>
       </c>
     </row>
@@ -20478,7 +20832,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="31"/>
+      <c r="F292" s="26"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -20496,7 +20850,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="31"/>
+      <c r="F293" s="26"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -20514,7 +20868,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="30"/>
+      <c r="F294" s="23"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -20532,7 +20886,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="29" t="s">
+      <c r="F295" s="22" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20552,7 +20906,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="30"/>
+      <c r="F296" s="23"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -20570,7 +20924,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="23" t="s">
+      <c r="F297" s="24" t="s">
         <v>207</v>
       </c>
     </row>
@@ -21447,7 +21801,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="29" t="s">
+      <c r="F342" s="22" t="s">
         <v>284</v>
       </c>
     </row>
@@ -21467,7 +21821,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="30"/>
+      <c r="F343" s="23"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -41972,6 +42326,9 @@
       <c r="B1675" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1675" s="1">
+        <v>-13</v>
+      </c>
       <c r="D1675" s="9" t="s">
         <v>7</v>
       </c>
@@ -41983,6 +42340,9 @@
       <c r="B1676" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="C1676" s="1">
+        <v>-13</v>
+      </c>
       <c r="D1676" s="9" t="s">
         <v>7</v>
       </c>
@@ -41994,6 +42354,9 @@
       <c r="B1677" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1677" s="1">
+        <v>-13</v>
+      </c>
       <c r="D1677" s="9" t="s">
         <v>7</v>
       </c>
@@ -42005,6 +42368,9 @@
       <c r="B1678" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="C1678" s="1">
+        <v>-13</v>
+      </c>
       <c r="D1678" s="9" t="s">
         <v>7</v>
       </c>
@@ -42016,6 +42382,9 @@
       <c r="B1679" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C1679" s="1">
+        <v>-13</v>
+      </c>
       <c r="D1679" s="9" t="s">
         <v>7</v>
       </c>
@@ -42027,6 +42396,9 @@
       <c r="B1680" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1680" s="1">
+        <v>-13</v>
+      </c>
       <c r="D1680" s="9" t="s">
         <v>7</v>
       </c>
@@ -42038,6 +42410,9 @@
       <c r="B1681" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1681" s="1">
+        <v>-13</v>
+      </c>
       <c r="D1681" s="9" t="s">
         <v>7</v>
       </c>
@@ -42049,6 +42424,9 @@
       <c r="B1682" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C1682" s="1">
+        <v>-13</v>
+      </c>
       <c r="D1682" s="9" t="s">
         <v>7</v>
       </c>
@@ -42060,6 +42438,9 @@
       <c r="B1683" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1683" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1683" s="9" t="s">
         <v>7</v>
       </c>
@@ -42071,6 +42452,9 @@
       <c r="B1684" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="C1684" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1684" s="9" t="s">
         <v>7</v>
       </c>
@@ -42082,6 +42466,9 @@
       <c r="B1685" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1685" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1685" s="9" t="s">
         <v>7</v>
       </c>
@@ -42093,6 +42480,9 @@
       <c r="B1686" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="C1686" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1686" s="9" t="s">
         <v>7</v>
       </c>
@@ -42104,6 +42494,9 @@
       <c r="B1687" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C1687" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1687" s="9" t="s">
         <v>7</v>
       </c>
@@ -42115,6 +42508,9 @@
       <c r="B1688" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1688" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1688" s="9" t="s">
         <v>7</v>
       </c>
@@ -42126,6 +42522,9 @@
       <c r="B1689" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1689" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1689" s="9" t="s">
         <v>7</v>
       </c>
@@ -42137,6 +42536,9 @@
       <c r="B1690" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C1690" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1690" s="9" t="s">
         <v>7</v>
       </c>
@@ -42148,6 +42550,9 @@
       <c r="B1691" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C1691" s="1">
+        <v>-13.8</v>
+      </c>
       <c r="D1691" s="9" t="s">
         <v>7</v>
       </c>
@@ -42159,6 +42564,9 @@
       <c r="B1692" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C1692" s="1">
+        <v>-19.8</v>
+      </c>
       <c r="D1692" s="9" t="s">
         <v>7</v>
       </c>
@@ -42170,6 +42578,9 @@
       <c r="B1693" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C1693" s="1">
+        <v>-19.8</v>
+      </c>
       <c r="D1693" s="9" t="s">
         <v>7</v>
       </c>
@@ -42181,6 +42592,9 @@
       <c r="B1694" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C1694" s="1">
+        <v>-19.8</v>
+      </c>
       <c r="D1694" s="9" t="s">
         <v>7</v>
       </c>
@@ -42192,6 +42606,9 @@
       <c r="B1695" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="C1695" s="1">
+        <v>-19.8</v>
+      </c>
       <c r="D1695" s="9" t="s">
         <v>7</v>
       </c>
@@ -42203,6 +42620,9 @@
       <c r="B1696" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C1696" s="1">
+        <v>-19.8</v>
+      </c>
       <c r="D1696" s="9" t="s">
         <v>7</v>
       </c>
@@ -42214,41 +42634,324 @@
       <c r="B1697" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C1697" s="1">
+        <v>-19.8</v>
+      </c>
       <c r="D1697" s="9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:4">
+      <c r="A1698" s="4">
+        <v>41634</v>
+      </c>
+      <c r="B1698" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1698" s="1">
+        <v>-13.5</v>
+      </c>
+      <c r="D1698" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:4">
+      <c r="A1699" s="4">
+        <v>41634</v>
+      </c>
+      <c r="B1699" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1699" s="1">
+        <v>-13.5</v>
+      </c>
+      <c r="D1699" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:4">
+      <c r="A1700" s="4">
+        <v>41634</v>
+      </c>
+      <c r="B1700" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1700" s="1">
+        <v>-13.5</v>
+      </c>
+      <c r="D1700" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:4">
+      <c r="A1701" s="4">
+        <v>41634</v>
+      </c>
+      <c r="B1701" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1701" s="1">
+        <v>-13.5</v>
+      </c>
+      <c r="D1701" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:4">
+      <c r="A1702" s="4">
+        <v>41634</v>
+      </c>
+      <c r="B1702" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1702" s="1">
+        <v>-13.5</v>
+      </c>
+      <c r="D1702" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:4">
+      <c r="A1703" s="4">
+        <v>41634</v>
+      </c>
+      <c r="B1703" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1703" s="1">
+        <v>-13.5</v>
+      </c>
+      <c r="D1703" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:4">
+      <c r="A1704" s="4">
+        <v>41635</v>
+      </c>
+      <c r="B1704" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1704" s="1">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="D1704" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:4">
+      <c r="A1705" s="4">
+        <v>41635</v>
+      </c>
+      <c r="B1705" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1705" s="1">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="D1705" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:4">
+      <c r="A1706" s="4">
+        <v>41635</v>
+      </c>
+      <c r="B1706" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1706" s="1">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="D1706" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:4">
+      <c r="A1707" s="4">
+        <v>41635</v>
+      </c>
+      <c r="B1707" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1707" s="1">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="D1707" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:4">
+      <c r="A1708" s="4">
+        <v>41635</v>
+      </c>
+      <c r="B1708" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1708" s="1">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="D1708" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:4">
+      <c r="A1709" s="4">
+        <v>41635</v>
+      </c>
+      <c r="B1709" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1709" s="1">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="D1709" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:4">
+      <c r="A1710" s="4">
+        <v>41635</v>
+      </c>
+      <c r="B1710" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1710" s="1">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="D1710" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:4">
+      <c r="A1711" s="4">
+        <v>41635</v>
+      </c>
+      <c r="B1711" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1711" s="1">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="D1711" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:4">
+      <c r="A1712" s="4">
+        <v>41635</v>
+      </c>
+      <c r="B1712" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1712" s="1">
+        <v>300</v>
+      </c>
+      <c r="D1712" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:4">
+      <c r="A1713" s="4">
+        <v>41635</v>
+      </c>
+      <c r="B1713" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1713" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1713" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:4">
+      <c r="A1714" s="4">
+        <v>41635</v>
+      </c>
+      <c r="B1714" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1714" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1714" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:4">
+      <c r="A1715" s="4">
+        <v>41635</v>
+      </c>
+      <c r="B1715" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1715" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1715" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:4">
+      <c r="A1716" s="4">
+        <v>41635</v>
+      </c>
+      <c r="B1716" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1716" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1716" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:4">
+      <c r="A1717" s="4">
+        <v>41635</v>
+      </c>
+      <c r="B1717" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1717" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1717" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F172:F175"/>
     <mergeCell ref="F342:F343"/>
     <mergeCell ref="F295:F296"/>
     <mergeCell ref="F297:F298"/>
     <mergeCell ref="F291:F294"/>
     <mergeCell ref="F288:F290"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F172:F175"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42267,11 +42970,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V442"/>
+  <dimension ref="A1:V448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G425" sqref="G425"/>
+      <selection pane="bottomLeft" activeCell="H429" sqref="H429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -42284,13 +42987,10 @@
     <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="9" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" customWidth="1"/>
-    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="9.625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5" customWidth="1"/>
     <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.75" bestFit="1" customWidth="1"/>
@@ -42392,7 +43092,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="7">
-        <v>-909.09999999999991</v>
+        <v>-965.49999999999989</v>
       </c>
       <c r="C3" s="7">
         <v>-31</v>
@@ -42416,37 +43116,37 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3283.0000000000027</v>
+        <v>-3345.700000000003</v>
       </c>
       <c r="K3" s="7">
-        <v>-1638.7999999999988</v>
+        <v>-1714.9999999999986</v>
       </c>
       <c r="L3" s="7">
         <v>-176.6</v>
       </c>
       <c r="M3" s="7">
-        <v>-1587.7999999999988</v>
+        <v>-1634.8999999999987</v>
       </c>
       <c r="N3" s="7">
-        <v>-1891.9999999999982</v>
+        <v>-1968.199999999998</v>
       </c>
       <c r="O3" s="7">
-        <v>-1056.9000000000001</v>
+        <v>-1083.7</v>
       </c>
       <c r="P3" s="7">
-        <v>-1446.0999999999992</v>
+        <v>-1508.799999999999</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1260.5999999999992</v>
+        <v>-1336.799999999999</v>
       </c>
       <c r="R3" s="7">
-        <v>-250.20000000000002</v>
+        <v>-266.3</v>
       </c>
       <c r="S3" s="7">
-        <v>-216.7</v>
+        <v>-273.10000000000002</v>
       </c>
       <c r="T3" s="7">
-        <v>-19433.099999999991</v>
+        <v>-19989.899999999991</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -52926,106 +53626,96 @@
       </c>
     </row>
     <row r="315" spans="1:20">
-      <c r="A315" s="6" t="s">
-        <v>5</v>
+      <c r="A315" s="12">
+        <v>41631</v>
       </c>
       <c r="B315" s="7">
-        <v>750.5</v>
-      </c>
-      <c r="C315" s="7">
-        <v>87</v>
-      </c>
-      <c r="D315" s="7">
-        <v>300</v>
-      </c>
-      <c r="E315" s="7">
-        <v>56</v>
-      </c>
-      <c r="F315" s="7">
-        <v>200</v>
-      </c>
-      <c r="G315" s="7">
-        <v>2023</v>
-      </c>
-      <c r="H315" s="7">
-        <v>555</v>
-      </c>
-      <c r="I315" s="7">
-        <v>2502.5</v>
-      </c>
+        <v>-13</v>
+      </c>
+      <c r="C315" s="7"/>
+      <c r="D315" s="7"/>
+      <c r="E315" s="7"/>
+      <c r="F315" s="7"/>
+      <c r="G315" s="7"/>
+      <c r="H315" s="7"/>
+      <c r="I315" s="7"/>
       <c r="J315" s="7">
-        <v>3282.4</v>
+        <v>-13</v>
       </c>
       <c r="K315" s="7">
-        <v>1650</v>
-      </c>
-      <c r="L315" s="7">
-        <v>220</v>
-      </c>
-      <c r="M315" s="7">
-        <v>1570</v>
-      </c>
+        <v>-13</v>
+      </c>
+      <c r="L315" s="7"/>
+      <c r="M315" s="7"/>
       <c r="N315" s="7">
-        <v>1879</v>
+        <v>-13</v>
       </c>
       <c r="O315" s="7">
-        <v>1043</v>
+        <v>-13</v>
       </c>
       <c r="P315" s="7">
-        <v>1500</v>
+        <v>-13</v>
       </c>
       <c r="Q315" s="7">
-        <v>1250</v>
-      </c>
-      <c r="R315" s="7">
-        <v>250</v>
-      </c>
+        <v>-13</v>
+      </c>
+      <c r="R315" s="7"/>
       <c r="S315" s="7">
-        <v>250</v>
+        <v>-13</v>
       </c>
       <c r="T315" s="7">
-        <v>19368.400000000001</v>
+        <v>-104</v>
       </c>
     </row>
     <row r="316" spans="1:20">
       <c r="A316" s="12">
-        <v>40875</v>
-      </c>
-      <c r="B316" s="7"/>
-      <c r="C316" s="7">
-        <v>63</v>
-      </c>
+        <v>41632</v>
+      </c>
+      <c r="B316" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="C316" s="7"/>
       <c r="D316" s="7"/>
-      <c r="E316" s="7">
-        <v>56</v>
-      </c>
+      <c r="E316" s="7"/>
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
-      <c r="H316" s="7">
-        <v>0</v>
-      </c>
+      <c r="H316" s="7"/>
       <c r="I316" s="7"/>
-      <c r="J316" s="7"/>
-      <c r="K316" s="7"/>
+      <c r="J316" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="K316" s="7">
+        <v>-13.8</v>
+      </c>
       <c r="L316" s="7"/>
-      <c r="M316" s="7"/>
-      <c r="N316" s="7"/>
-      <c r="O316" s="7"/>
-      <c r="P316" s="7"/>
-      <c r="Q316" s="7"/>
+      <c r="M316" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="N316" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="O316" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="P316" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="Q316" s="7">
+        <v>-13.8</v>
+      </c>
       <c r="R316" s="7"/>
-      <c r="S316" s="7"/>
+      <c r="S316" s="7">
+        <v>-13.8</v>
+      </c>
       <c r="T316" s="7">
-        <v>119</v>
+        <v>-124.19999999999999</v>
       </c>
     </row>
     <row r="317" spans="1:20">
       <c r="A317" s="12">
-        <v>40879</v>
-      </c>
-      <c r="B317" s="7">
-        <v>7</v>
-      </c>
+        <v>41633</v>
+      </c>
+      <c r="B317" s="7"/>
       <c r="C317" s="7"/>
       <c r="D317" s="7"/>
       <c r="E317" s="7"/>
@@ -53033,120 +53723,192 @@
       <c r="G317" s="7"/>
       <c r="H317" s="7"/>
       <c r="I317" s="7"/>
-      <c r="J317" s="7"/>
-      <c r="K317" s="7"/>
+      <c r="J317" s="7">
+        <v>-19.8</v>
+      </c>
+      <c r="K317" s="7">
+        <v>-19.8</v>
+      </c>
       <c r="L317" s="7"/>
-      <c r="M317" s="7"/>
-      <c r="N317" s="7"/>
+      <c r="M317" s="7">
+        <v>-19.8</v>
+      </c>
+      <c r="N317" s="7">
+        <v>-19.8</v>
+      </c>
       <c r="O317" s="7"/>
-      <c r="P317" s="7"/>
-      <c r="Q317" s="7"/>
+      <c r="P317" s="7">
+        <v>-19.8</v>
+      </c>
+      <c r="Q317" s="7">
+        <v>-19.8</v>
+      </c>
       <c r="R317" s="7"/>
       <c r="S317" s="7"/>
       <c r="T317" s="7">
-        <v>7</v>
+        <v>-118.8</v>
       </c>
     </row>
     <row r="318" spans="1:20">
       <c r="A318" s="12">
-        <v>40883</v>
-      </c>
-      <c r="B318" s="7"/>
+        <v>41634</v>
+      </c>
+      <c r="B318" s="7">
+        <v>-13.5</v>
+      </c>
       <c r="C318" s="7"/>
       <c r="D318" s="7"/>
       <c r="E318" s="7"/>
       <c r="F318" s="7"/>
-      <c r="G318" s="7">
-        <v>50</v>
-      </c>
+      <c r="G318" s="7"/>
       <c r="H318" s="7"/>
       <c r="I318" s="7"/>
       <c r="J318" s="7"/>
-      <c r="K318" s="7"/>
+      <c r="K318" s="7">
+        <v>-13.5</v>
+      </c>
       <c r="L318" s="7"/>
-      <c r="M318" s="7"/>
-      <c r="N318" s="7"/>
+      <c r="M318" s="7">
+        <v>-13.5</v>
+      </c>
+      <c r="N318" s="7">
+        <v>-13.5</v>
+      </c>
       <c r="O318" s="7"/>
       <c r="P318" s="7"/>
-      <c r="Q318" s="7"/>
+      <c r="Q318" s="7">
+        <v>-13.5</v>
+      </c>
       <c r="R318" s="7"/>
-      <c r="S318" s="7"/>
+      <c r="S318" s="7">
+        <v>-13.5</v>
+      </c>
       <c r="T318" s="7">
-        <v>50</v>
+        <v>-81</v>
       </c>
     </row>
     <row r="319" spans="1:20">
       <c r="A319" s="12">
-        <v>40891</v>
-      </c>
-      <c r="B319" s="7"/>
+        <v>41635</v>
+      </c>
+      <c r="B319" s="7">
+        <v>-16.100000000000001</v>
+      </c>
       <c r="C319" s="7"/>
       <c r="D319" s="7"/>
       <c r="E319" s="7"/>
       <c r="F319" s="7"/>
       <c r="G319" s="7"/>
       <c r="H319" s="7"/>
-      <c r="I319" s="7">
-        <v>65</v>
-      </c>
-      <c r="J319" s="7"/>
-      <c r="K319" s="7"/>
+      <c r="I319" s="7"/>
+      <c r="J319" s="7">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="K319" s="7">
+        <v>-16.100000000000001</v>
+      </c>
       <c r="L319" s="7"/>
       <c r="M319" s="7"/>
-      <c r="N319" s="7"/>
+      <c r="N319" s="7">
+        <v>-16.100000000000001</v>
+      </c>
       <c r="O319" s="7"/>
-      <c r="P319" s="7"/>
-      <c r="Q319" s="7"/>
-      <c r="R319" s="7"/>
-      <c r="S319" s="7"/>
+      <c r="P319" s="7">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="Q319" s="7">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="R319" s="7">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="S319" s="7">
+        <v>-16.100000000000001</v>
+      </c>
       <c r="T319" s="7">
-        <v>65</v>
+        <v>-128.79999999999998</v>
       </c>
     </row>
     <row r="320" spans="1:20">
-      <c r="A320" s="12">
-        <v>40892</v>
-      </c>
-      <c r="B320" s="7"/>
-      <c r="C320" s="7"/>
-      <c r="D320" s="7"/>
-      <c r="E320" s="7"/>
-      <c r="F320" s="7"/>
+      <c r="A320" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B320" s="7">
+        <v>850.5</v>
+      </c>
+      <c r="C320" s="7">
+        <v>87</v>
+      </c>
+      <c r="D320" s="7">
+        <v>300</v>
+      </c>
+      <c r="E320" s="7">
+        <v>56</v>
+      </c>
+      <c r="F320" s="7">
+        <v>200</v>
+      </c>
       <c r="G320" s="7">
-        <v>100</v>
-      </c>
-      <c r="H320" s="7"/>
+        <v>2023</v>
+      </c>
+      <c r="H320" s="7">
+        <v>555</v>
+      </c>
       <c r="I320" s="7">
-        <v>68</v>
-      </c>
-      <c r="J320" s="7"/>
-      <c r="K320" s="7"/>
-      <c r="L320" s="7"/>
-      <c r="M320" s="7"/>
-      <c r="N320" s="7"/>
-      <c r="O320" s="7"/>
-      <c r="P320" s="7"/>
-      <c r="Q320" s="7"/>
-      <c r="R320" s="7"/>
-      <c r="S320" s="7"/>
+        <v>2502.5</v>
+      </c>
+      <c r="J320" s="7">
+        <v>3582.4</v>
+      </c>
+      <c r="K320" s="7">
+        <v>1750</v>
+      </c>
+      <c r="L320" s="7">
+        <v>220</v>
+      </c>
+      <c r="M320" s="7">
+        <v>1570</v>
+      </c>
+      <c r="N320" s="7">
+        <v>1979</v>
+      </c>
+      <c r="O320" s="7">
+        <v>1043</v>
+      </c>
+      <c r="P320" s="7">
+        <v>1500</v>
+      </c>
+      <c r="Q320" s="7">
+        <v>1250</v>
+      </c>
+      <c r="R320" s="7">
+        <v>270</v>
+      </c>
+      <c r="S320" s="7">
+        <v>350</v>
+      </c>
       <c r="T320" s="7">
-        <v>168</v>
+        <v>20088.400000000001</v>
       </c>
     </row>
     <row r="321" spans="1:20">
       <c r="A321" s="12">
-        <v>40913</v>
+        <v>40875</v>
       </c>
       <c r="B321" s="7"/>
-      <c r="C321" s="7"/>
+      <c r="C321" s="7">
+        <v>63</v>
+      </c>
       <c r="D321" s="7"/>
-      <c r="E321" s="7"/>
+      <c r="E321" s="7">
+        <v>56</v>
+      </c>
       <c r="F321" s="7"/>
       <c r="G321" s="7"/>
-      <c r="H321" s="7"/>
-      <c r="I321" s="7">
-        <v>679.5</v>
-      </c>
+      <c r="H321" s="7">
+        <v>0</v>
+      </c>
+      <c r="I321" s="7"/>
       <c r="J321" s="7"/>
       <c r="K321" s="7"/>
       <c r="L321" s="7"/>
@@ -53158,21 +53920,21 @@
       <c r="R321" s="7"/>
       <c r="S321" s="7"/>
       <c r="T321" s="7">
-        <v>679.5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="322" spans="1:20">
       <c r="A322" s="12">
-        <v>40917</v>
-      </c>
-      <c r="B322" s="7"/>
+        <v>40879</v>
+      </c>
+      <c r="B322" s="7">
+        <v>7</v>
+      </c>
       <c r="C322" s="7"/>
       <c r="D322" s="7"/>
       <c r="E322" s="7"/>
       <c r="F322" s="7"/>
-      <c r="G322" s="7">
-        <v>100</v>
-      </c>
+      <c r="G322" s="7"/>
       <c r="H322" s="7"/>
       <c r="I322" s="7"/>
       <c r="J322" s="7"/>
@@ -53186,24 +53948,24 @@
       <c r="R322" s="7"/>
       <c r="S322" s="7"/>
       <c r="T322" s="7">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:20">
       <c r="A323" s="12">
-        <v>40919</v>
+        <v>40883</v>
       </c>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
       <c r="D323" s="7"/>
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
-      <c r="G323" s="7"/>
+      <c r="G323" s="7">
+        <v>50</v>
+      </c>
       <c r="H323" s="7"/>
       <c r="I323" s="7"/>
-      <c r="J323" s="7">
-        <v>15</v>
-      </c>
+      <c r="J323" s="7"/>
       <c r="K323" s="7"/>
       <c r="L323" s="7"/>
       <c r="M323" s="7"/>
@@ -53214,25 +53976,23 @@
       <c r="R323" s="7"/>
       <c r="S323" s="7"/>
       <c r="T323" s="7">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="324" spans="1:20">
       <c r="A324" s="12">
-        <v>40921</v>
+        <v>40891</v>
       </c>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
-      <c r="D324" s="7">
-        <v>100</v>
-      </c>
+      <c r="D324" s="7"/>
       <c r="E324" s="7"/>
-      <c r="F324" s="7">
-        <v>100</v>
-      </c>
+      <c r="F324" s="7"/>
       <c r="G324" s="7"/>
       <c r="H324" s="7"/>
-      <c r="I324" s="7"/>
+      <c r="I324" s="7">
+        <v>65</v>
+      </c>
       <c r="J324" s="7"/>
       <c r="K324" s="7"/>
       <c r="L324" s="7"/>
@@ -53244,24 +54004,26 @@
       <c r="R324" s="7"/>
       <c r="S324" s="7"/>
       <c r="T324" s="7">
-        <v>200</v>
+        <v>65</v>
       </c>
     </row>
     <row r="325" spans="1:20">
       <c r="A325" s="12">
-        <v>40925</v>
+        <v>40892</v>
       </c>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
       <c r="D325" s="7"/>
       <c r="E325" s="7"/>
       <c r="F325" s="7"/>
-      <c r="G325" s="7"/>
+      <c r="G325" s="7">
+        <v>100</v>
+      </c>
       <c r="H325" s="7"/>
-      <c r="I325" s="7"/>
-      <c r="J325" s="7">
-        <v>14</v>
-      </c>
+      <c r="I325" s="7">
+        <v>68</v>
+      </c>
+      <c r="J325" s="7"/>
       <c r="K325" s="7"/>
       <c r="L325" s="7"/>
       <c r="M325" s="7"/>
@@ -53272,12 +54034,12 @@
       <c r="R325" s="7"/>
       <c r="S325" s="7"/>
       <c r="T325" s="7">
-        <v>14</v>
+        <v>168</v>
       </c>
     </row>
     <row r="326" spans="1:20">
       <c r="A326" s="12">
-        <v>40926</v>
+        <v>40913</v>
       </c>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -53286,10 +54048,10 @@
       <c r="F326" s="7"/>
       <c r="G326" s="7"/>
       <c r="H326" s="7"/>
-      <c r="I326" s="7"/>
-      <c r="J326" s="7">
-        <v>28</v>
-      </c>
+      <c r="I326" s="7">
+        <v>679.5</v>
+      </c>
+      <c r="J326" s="7"/>
       <c r="K326" s="7"/>
       <c r="L326" s="7"/>
       <c r="M326" s="7"/>
@@ -53300,24 +54062,24 @@
       <c r="R326" s="7"/>
       <c r="S326" s="7"/>
       <c r="T326" s="7">
-        <v>28</v>
+        <v>679.5</v>
       </c>
     </row>
     <row r="327" spans="1:20">
       <c r="A327" s="12">
-        <v>40947</v>
+        <v>40917</v>
       </c>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
       <c r="D327" s="7"/>
       <c r="E327" s="7"/>
       <c r="F327" s="7"/>
-      <c r="G327" s="7"/>
+      <c r="G327" s="7">
+        <v>100</v>
+      </c>
       <c r="H327" s="7"/>
       <c r="I327" s="7"/>
-      <c r="J327" s="7">
-        <v>100</v>
-      </c>
+      <c r="J327" s="7"/>
       <c r="K327" s="7"/>
       <c r="L327" s="7"/>
       <c r="M327" s="7"/>
@@ -53333,7 +54095,7 @@
     </row>
     <row r="328" spans="1:20">
       <c r="A328" s="12">
-        <v>40954</v>
+        <v>40919</v>
       </c>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -53341,11 +54103,11 @@
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
       <c r="G328" s="7"/>
-      <c r="H328" s="7">
-        <v>100</v>
-      </c>
+      <c r="H328" s="7"/>
       <c r="I328" s="7"/>
-      <c r="J328" s="7"/>
+      <c r="J328" s="7">
+        <v>15</v>
+      </c>
       <c r="K328" s="7"/>
       <c r="L328" s="7"/>
       <c r="M328" s="7"/>
@@ -53356,27 +54118,29 @@
       <c r="R328" s="7"/>
       <c r="S328" s="7"/>
       <c r="T328" s="7">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329" spans="1:20">
       <c r="A329" s="12">
-        <v>40973</v>
+        <v>40921</v>
       </c>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
-      <c r="D329" s="7"/>
+      <c r="D329" s="7">
+        <v>100</v>
+      </c>
       <c r="E329" s="7"/>
-      <c r="F329" s="7"/>
+      <c r="F329" s="7">
+        <v>100</v>
+      </c>
       <c r="G329" s="7"/>
       <c r="H329" s="7"/>
       <c r="I329" s="7"/>
       <c r="J329" s="7"/>
       <c r="K329" s="7"/>
       <c r="L329" s="7"/>
-      <c r="M329" s="7">
-        <v>100</v>
-      </c>
+      <c r="M329" s="7"/>
       <c r="N329" s="7"/>
       <c r="O329" s="7"/>
       <c r="P329" s="7"/>
@@ -53384,12 +54148,12 @@
       <c r="R329" s="7"/>
       <c r="S329" s="7"/>
       <c r="T329" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="330" spans="1:20">
       <c r="A330" s="12">
-        <v>40974</v>
+        <v>40925</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -53397,11 +54161,11 @@
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
       <c r="G330" s="7"/>
-      <c r="H330" s="7">
-        <v>100</v>
-      </c>
+      <c r="H330" s="7"/>
       <c r="I330" s="7"/>
-      <c r="J330" s="7"/>
+      <c r="J330" s="7">
+        <v>14</v>
+      </c>
       <c r="K330" s="7"/>
       <c r="L330" s="7"/>
       <c r="M330" s="7"/>
@@ -53412,12 +54176,12 @@
       <c r="R330" s="7"/>
       <c r="S330" s="7"/>
       <c r="T330" s="7">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="331" spans="1:20">
       <c r="A331" s="12">
-        <v>40981</v>
+        <v>40926</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -53425,13 +54189,11 @@
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
       <c r="G331" s="7"/>
-      <c r="H331" s="7">
-        <v>100</v>
-      </c>
-      <c r="I331" s="7">
-        <v>300</v>
-      </c>
-      <c r="J331" s="7"/>
+      <c r="H331" s="7"/>
+      <c r="I331" s="7"/>
+      <c r="J331" s="7">
+        <v>28</v>
+      </c>
       <c r="K331" s="7"/>
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
@@ -53442,12 +54204,12 @@
       <c r="R331" s="7"/>
       <c r="S331" s="7"/>
       <c r="T331" s="7">
-        <v>400</v>
+        <v>28</v>
       </c>
     </row>
     <row r="332" spans="1:20">
       <c r="A332" s="12">
-        <v>41032</v>
+        <v>40947</v>
       </c>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -53457,13 +54219,11 @@
       <c r="G332" s="7"/>
       <c r="H332" s="7"/>
       <c r="I332" s="7"/>
-      <c r="J332" s="7"/>
-      <c r="K332" s="7">
+      <c r="J332" s="7">
         <v>100</v>
       </c>
-      <c r="L332" s="7">
-        <v>100</v>
-      </c>
+      <c r="K332" s="7"/>
+      <c r="L332" s="7"/>
       <c r="M332" s="7"/>
       <c r="N332" s="7"/>
       <c r="O332" s="7"/>
@@ -53472,12 +54232,12 @@
       <c r="R332" s="7"/>
       <c r="S332" s="7"/>
       <c r="T332" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="333" spans="1:20">
       <c r="A333" s="12">
-        <v>41037</v>
+        <v>40954</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -53485,14 +54245,14 @@
       <c r="E333" s="7"/>
       <c r="F333" s="7"/>
       <c r="G333" s="7"/>
-      <c r="H333" s="7"/>
+      <c r="H333" s="7">
+        <v>100</v>
+      </c>
       <c r="I333" s="7"/>
       <c r="J333" s="7"/>
       <c r="K333" s="7"/>
       <c r="L333" s="7"/>
-      <c r="M333" s="7">
-        <v>100</v>
-      </c>
+      <c r="M333" s="7"/>
       <c r="N333" s="7"/>
       <c r="O333" s="7"/>
       <c r="P333" s="7"/>
@@ -53505,7 +54265,7 @@
     </row>
     <row r="334" spans="1:20">
       <c r="A334" s="12">
-        <v>41039</v>
+        <v>40973</v>
       </c>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -53518,22 +54278,22 @@
       <c r="J334" s="7"/>
       <c r="K334" s="7"/>
       <c r="L334" s="7"/>
-      <c r="M334" s="7"/>
-      <c r="N334" s="7">
-        <v>35</v>
-      </c>
+      <c r="M334" s="7">
+        <v>100</v>
+      </c>
+      <c r="N334" s="7"/>
       <c r="O334" s="7"/>
       <c r="P334" s="7"/>
       <c r="Q334" s="7"/>
       <c r="R334" s="7"/>
       <c r="S334" s="7"/>
       <c r="T334" s="7">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="335" spans="1:20">
       <c r="A335" s="12">
-        <v>41044</v>
+        <v>40974</v>
       </c>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -53541,38 +54301,40 @@
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
       <c r="G335" s="7"/>
-      <c r="H335" s="7"/>
+      <c r="H335" s="7">
+        <v>100</v>
+      </c>
       <c r="I335" s="7"/>
       <c r="J335" s="7"/>
       <c r="K335" s="7"/>
       <c r="L335" s="7"/>
       <c r="M335" s="7"/>
-      <c r="N335" s="7">
-        <v>20</v>
-      </c>
+      <c r="N335" s="7"/>
       <c r="O335" s="7"/>
       <c r="P335" s="7"/>
       <c r="Q335" s="7"/>
       <c r="R335" s="7"/>
       <c r="S335" s="7"/>
       <c r="T335" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="336" spans="1:20">
       <c r="A336" s="12">
-        <v>41050</v>
+        <v>40981</v>
       </c>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
       <c r="D336" s="7"/>
       <c r="E336" s="7"/>
       <c r="F336" s="7"/>
-      <c r="G336" s="7">
-        <v>89</v>
-      </c>
-      <c r="H336" s="7"/>
-      <c r="I336" s="7"/>
+      <c r="G336" s="7"/>
+      <c r="H336" s="7">
+        <v>100</v>
+      </c>
+      <c r="I336" s="7">
+        <v>300</v>
+      </c>
       <c r="J336" s="7"/>
       <c r="K336" s="7"/>
       <c r="L336" s="7"/>
@@ -53584,12 +54346,12 @@
       <c r="R336" s="7"/>
       <c r="S336" s="7"/>
       <c r="T336" s="7">
-        <v>89</v>
+        <v>400</v>
       </c>
     </row>
     <row r="337" spans="1:20">
       <c r="A337" s="12">
-        <v>41057</v>
+        <v>41032</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -53599,11 +54361,13 @@
       <c r="G337" s="7"/>
       <c r="H337" s="7"/>
       <c r="I337" s="7"/>
-      <c r="J337" s="7">
-        <v>300</v>
-      </c>
-      <c r="K337" s="7"/>
-      <c r="L337" s="7"/>
+      <c r="J337" s="7"/>
+      <c r="K337" s="7">
+        <v>100</v>
+      </c>
+      <c r="L337" s="7">
+        <v>100</v>
+      </c>
       <c r="M337" s="7"/>
       <c r="N337" s="7"/>
       <c r="O337" s="7"/>
@@ -53612,12 +54376,12 @@
       <c r="R337" s="7"/>
       <c r="S337" s="7"/>
       <c r="T337" s="7">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="338" spans="1:20">
       <c r="A338" s="12">
-        <v>41060</v>
+        <v>41037</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -53627,12 +54391,12 @@
       <c r="G338" s="7"/>
       <c r="H338" s="7"/>
       <c r="I338" s="7"/>
-      <c r="J338" s="7">
-        <v>10.1</v>
-      </c>
+      <c r="J338" s="7"/>
       <c r="K338" s="7"/>
       <c r="L338" s="7"/>
-      <c r="M338" s="7"/>
+      <c r="M338" s="7">
+        <v>100</v>
+      </c>
       <c r="N338" s="7"/>
       <c r="O338" s="7"/>
       <c r="P338" s="7"/>
@@ -53640,40 +54404,40 @@
       <c r="R338" s="7"/>
       <c r="S338" s="7"/>
       <c r="T338" s="7">
-        <v>10.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="339" spans="1:20">
       <c r="A339" s="12">
-        <v>41066</v>
+        <v>41039</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
-      <c r="G339" s="7">
-        <v>300</v>
-      </c>
+      <c r="G339" s="7"/>
       <c r="H339" s="7"/>
       <c r="I339" s="7"/>
       <c r="J339" s="7"/>
       <c r="K339" s="7"/>
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
-      <c r="N339" s="7"/>
+      <c r="N339" s="7">
+        <v>35</v>
+      </c>
       <c r="O339" s="7"/>
       <c r="P339" s="7"/>
       <c r="Q339" s="7"/>
       <c r="R339" s="7"/>
       <c r="S339" s="7"/>
       <c r="T339" s="7">
-        <v>300</v>
+        <v>35</v>
       </c>
     </row>
     <row r="340" spans="1:20">
       <c r="A340" s="12">
-        <v>41070</v>
+        <v>41044</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -53683,37 +54447,37 @@
       <c r="G340" s="7"/>
       <c r="H340" s="7"/>
       <c r="I340" s="7"/>
-      <c r="J340" s="7">
-        <v>130</v>
-      </c>
+      <c r="J340" s="7"/>
       <c r="K340" s="7"/>
       <c r="L340" s="7"/>
       <c r="M340" s="7"/>
-      <c r="N340" s="7"/>
+      <c r="N340" s="7">
+        <v>20</v>
+      </c>
       <c r="O340" s="7"/>
       <c r="P340" s="7"/>
       <c r="Q340" s="7"/>
       <c r="R340" s="7"/>
       <c r="S340" s="7"/>
       <c r="T340" s="7">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="341" spans="1:20">
       <c r="A341" s="12">
-        <v>41071</v>
+        <v>41050</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
-      <c r="G341" s="7"/>
+      <c r="G341" s="7">
+        <v>89</v>
+      </c>
       <c r="H341" s="7"/>
       <c r="I341" s="7"/>
-      <c r="J341" s="7">
-        <v>81.400000000000006</v>
-      </c>
+      <c r="J341" s="7"/>
       <c r="K341" s="7"/>
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
@@ -53724,12 +54488,12 @@
       <c r="R341" s="7"/>
       <c r="S341" s="7"/>
       <c r="T341" s="7">
-        <v>81.400000000000006</v>
+        <v>89</v>
       </c>
     </row>
     <row r="342" spans="1:20">
       <c r="A342" s="12">
-        <v>41072</v>
+        <v>41057</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -53740,7 +54504,7 @@
       <c r="H342" s="7"/>
       <c r="I342" s="7"/>
       <c r="J342" s="7">
-        <v>77.599999999999994</v>
+        <v>300</v>
       </c>
       <c r="K342" s="7"/>
       <c r="L342" s="7"/>
@@ -53752,25 +54516,23 @@
       <c r="R342" s="7"/>
       <c r="S342" s="7"/>
       <c r="T342" s="7">
-        <v>77.599999999999994</v>
+        <v>300</v>
       </c>
     </row>
     <row r="343" spans="1:20">
       <c r="A343" s="12">
-        <v>41078</v>
+        <v>41060</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
-      <c r="G343" s="7">
-        <v>47</v>
-      </c>
+      <c r="G343" s="7"/>
       <c r="H343" s="7"/>
       <c r="I343" s="7"/>
       <c r="J343" s="7">
-        <v>50</v>
+        <v>10.1</v>
       </c>
       <c r="K343" s="7"/>
       <c r="L343" s="7"/>
@@ -53782,24 +54544,24 @@
       <c r="R343" s="7"/>
       <c r="S343" s="7"/>
       <c r="T343" s="7">
-        <v>97</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="344" spans="1:20">
       <c r="A344" s="12">
-        <v>41082</v>
+        <v>41066</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
       <c r="F344" s="7"/>
-      <c r="G344" s="7"/>
+      <c r="G344" s="7">
+        <v>300</v>
+      </c>
       <c r="H344" s="7"/>
       <c r="I344" s="7"/>
-      <c r="J344" s="7">
-        <v>98</v>
-      </c>
+      <c r="J344" s="7"/>
       <c r="K344" s="7"/>
       <c r="L344" s="7"/>
       <c r="M344" s="7"/>
@@ -53810,12 +54572,12 @@
       <c r="R344" s="7"/>
       <c r="S344" s="7"/>
       <c r="T344" s="7">
-        <v>98</v>
+        <v>300</v>
       </c>
     </row>
     <row r="345" spans="1:20">
       <c r="A345" s="12">
-        <v>41083</v>
+        <v>41070</v>
       </c>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -53826,7 +54588,7 @@
       <c r="H345" s="7"/>
       <c r="I345" s="7"/>
       <c r="J345" s="7">
-        <v>39.9</v>
+        <v>130</v>
       </c>
       <c r="K345" s="7"/>
       <c r="L345" s="7"/>
@@ -53838,24 +54600,24 @@
       <c r="R345" s="7"/>
       <c r="S345" s="7"/>
       <c r="T345" s="7">
-        <v>39.9</v>
+        <v>130</v>
       </c>
     </row>
     <row r="346" spans="1:20">
       <c r="A346" s="12">
-        <v>41085</v>
+        <v>41071</v>
       </c>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
       <c r="F346" s="7"/>
-      <c r="G346" s="7">
-        <v>300</v>
-      </c>
+      <c r="G346" s="7"/>
       <c r="H346" s="7"/>
       <c r="I346" s="7"/>
-      <c r="J346" s="7"/>
+      <c r="J346" s="7">
+        <v>81.400000000000006</v>
+      </c>
       <c r="K346" s="7"/>
       <c r="L346" s="7"/>
       <c r="M346" s="7"/>
@@ -53866,12 +54628,12 @@
       <c r="R346" s="7"/>
       <c r="S346" s="7"/>
       <c r="T346" s="7">
-        <v>300</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="347" spans="1:20">
       <c r="A347" s="12">
-        <v>41088</v>
+        <v>41072</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -53882,7 +54644,7 @@
       <c r="H347" s="7"/>
       <c r="I347" s="7"/>
       <c r="J347" s="7">
-        <v>20</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="K347" s="7"/>
       <c r="L347" s="7"/>
@@ -53894,40 +54656,42 @@
       <c r="R347" s="7"/>
       <c r="S347" s="7"/>
       <c r="T347" s="7">
-        <v>20</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="348" spans="1:20">
       <c r="A348" s="12">
-        <v>41092</v>
+        <v>41078</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
-      <c r="G348" s="7"/>
+      <c r="G348" s="7">
+        <v>47</v>
+      </c>
       <c r="H348" s="7"/>
       <c r="I348" s="7"/>
-      <c r="J348" s="7"/>
+      <c r="J348" s="7">
+        <v>50</v>
+      </c>
       <c r="K348" s="7"/>
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
       <c r="N348" s="7"/>
-      <c r="O348" s="7">
-        <v>93</v>
-      </c>
+      <c r="O348" s="7"/>
       <c r="P348" s="7"/>
       <c r="Q348" s="7"/>
       <c r="R348" s="7"/>
       <c r="S348" s="7"/>
       <c r="T348" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="349" spans="1:20">
       <c r="A349" s="12">
-        <v>41093</v>
+        <v>41082</v>
       </c>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -53938,7 +54702,7 @@
       <c r="H349" s="7"/>
       <c r="I349" s="7"/>
       <c r="J349" s="7">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K349" s="7"/>
       <c r="L349" s="7"/>
@@ -53950,25 +54714,23 @@
       <c r="R349" s="7"/>
       <c r="S349" s="7"/>
       <c r="T349" s="7">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="350" spans="1:20">
       <c r="A350" s="12">
-        <v>41095</v>
+        <v>41083</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
       <c r="F350" s="7"/>
-      <c r="G350" s="7">
-        <v>70</v>
-      </c>
+      <c r="G350" s="7"/>
       <c r="H350" s="7"/>
       <c r="I350" s="7"/>
       <c r="J350" s="7">
-        <v>98</v>
+        <v>39.9</v>
       </c>
       <c r="K350" s="7"/>
       <c r="L350" s="7"/>
@@ -53980,23 +54742,23 @@
       <c r="R350" s="7"/>
       <c r="S350" s="7"/>
       <c r="T350" s="7">
-        <v>168</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="351" spans="1:20">
       <c r="A351" s="12">
-        <v>41100</v>
+        <v>41085</v>
       </c>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
       <c r="F351" s="7"/>
-      <c r="G351" s="7"/>
+      <c r="G351" s="7">
+        <v>300</v>
+      </c>
       <c r="H351" s="7"/>
-      <c r="I351" s="7">
-        <v>16</v>
-      </c>
+      <c r="I351" s="7"/>
       <c r="J351" s="7"/>
       <c r="K351" s="7"/>
       <c r="L351" s="7"/>
@@ -54008,12 +54770,12 @@
       <c r="R351" s="7"/>
       <c r="S351" s="7"/>
       <c r="T351" s="7">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="352" spans="1:20">
       <c r="A352" s="12">
-        <v>41108</v>
+        <v>41088</v>
       </c>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -54022,10 +54784,10 @@
       <c r="F352" s="7"/>
       <c r="G352" s="7"/>
       <c r="H352" s="7"/>
-      <c r="I352" s="7">
-        <v>63</v>
-      </c>
-      <c r="J352" s="7"/>
+      <c r="I352" s="7"/>
+      <c r="J352" s="7">
+        <v>20</v>
+      </c>
       <c r="K352" s="7"/>
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
@@ -54036,12 +54798,12 @@
       <c r="R352" s="7"/>
       <c r="S352" s="7"/>
       <c r="T352" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="353" spans="1:20">
       <c r="A353" s="12">
-        <v>41110</v>
+        <v>41092</v>
       </c>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -54050,26 +54812,26 @@
       <c r="F353" s="7"/>
       <c r="G353" s="7"/>
       <c r="H353" s="7"/>
-      <c r="I353" s="7">
-        <v>15</v>
-      </c>
+      <c r="I353" s="7"/>
       <c r="J353" s="7"/>
       <c r="K353" s="7"/>
       <c r="L353" s="7"/>
       <c r="M353" s="7"/>
       <c r="N353" s="7"/>
-      <c r="O353" s="7"/>
+      <c r="O353" s="7">
+        <v>93</v>
+      </c>
       <c r="P353" s="7"/>
       <c r="Q353" s="7"/>
       <c r="R353" s="7"/>
       <c r="S353" s="7"/>
       <c r="T353" s="7">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="354" spans="1:20">
       <c r="A354" s="12">
-        <v>41116</v>
+        <v>41093</v>
       </c>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -54078,10 +54840,10 @@
       <c r="F354" s="7"/>
       <c r="G354" s="7"/>
       <c r="H354" s="7"/>
-      <c r="I354" s="7">
-        <v>83</v>
-      </c>
-      <c r="J354" s="7"/>
+      <c r="I354" s="7"/>
+      <c r="J354" s="7">
+        <v>100</v>
+      </c>
       <c r="K354" s="7"/>
       <c r="L354" s="7"/>
       <c r="M354" s="7"/>
@@ -54092,26 +54854,26 @@
       <c r="R354" s="7"/>
       <c r="S354" s="7"/>
       <c r="T354" s="7">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="355" spans="1:20">
       <c r="A355" s="12">
-        <v>41136</v>
+        <v>41095</v>
       </c>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
       <c r="F355" s="7"/>
-      <c r="G355" s="7"/>
-      <c r="H355" s="7">
-        <v>55</v>
-      </c>
-      <c r="I355" s="7">
-        <v>39</v>
-      </c>
-      <c r="J355" s="7"/>
+      <c r="G355" s="7">
+        <v>70</v>
+      </c>
+      <c r="H355" s="7"/>
+      <c r="I355" s="7"/>
+      <c r="J355" s="7">
+        <v>98</v>
+      </c>
       <c r="K355" s="7"/>
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
@@ -54122,23 +54884,23 @@
       <c r="R355" s="7"/>
       <c r="S355" s="7"/>
       <c r="T355" s="7">
-        <v>94</v>
+        <v>168</v>
       </c>
     </row>
     <row r="356" spans="1:20">
       <c r="A356" s="12">
-        <v>41138</v>
+        <v>41100</v>
       </c>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
       <c r="F356" s="7"/>
-      <c r="G356" s="7">
-        <v>100.4</v>
-      </c>
+      <c r="G356" s="7"/>
       <c r="H356" s="7"/>
-      <c r="I356" s="7"/>
+      <c r="I356" s="7">
+        <v>16</v>
+      </c>
       <c r="J356" s="7"/>
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
@@ -54150,12 +54912,12 @@
       <c r="R356" s="7"/>
       <c r="S356" s="7"/>
       <c r="T356" s="7">
-        <v>100.4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="357" spans="1:20">
       <c r="A357" s="12">
-        <v>41151</v>
+        <v>41108</v>
       </c>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -54164,10 +54926,10 @@
       <c r="F357" s="7"/>
       <c r="G357" s="7"/>
       <c r="H357" s="7"/>
-      <c r="I357" s="7"/>
-      <c r="J357" s="7">
-        <v>100</v>
-      </c>
+      <c r="I357" s="7">
+        <v>63</v>
+      </c>
+      <c r="J357" s="7"/>
       <c r="K357" s="7"/>
       <c r="L357" s="7"/>
       <c r="M357" s="7"/>
@@ -54178,12 +54940,12 @@
       <c r="R357" s="7"/>
       <c r="S357" s="7"/>
       <c r="T357" s="7">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="358" spans="1:20">
       <c r="A358" s="12">
-        <v>41156</v>
+        <v>41110</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -54211,7 +54973,7 @@
     </row>
     <row r="359" spans="1:20">
       <c r="A359" s="12">
-        <v>41161</v>
+        <v>41116</v>
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -54221,7 +54983,7 @@
       <c r="G359" s="7"/>
       <c r="H359" s="7"/>
       <c r="I359" s="7">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J359" s="7"/>
       <c r="K359" s="7"/>
@@ -54234,12 +54996,12 @@
       <c r="R359" s="7"/>
       <c r="S359" s="7"/>
       <c r="T359" s="7">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="360" spans="1:20">
       <c r="A360" s="12">
-        <v>41162</v>
+        <v>41136</v>
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -54247,57 +55009,57 @@
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
       <c r="G360" s="7"/>
-      <c r="H360" s="7"/>
-      <c r="I360" s="7"/>
-      <c r="J360" s="7">
-        <v>100</v>
-      </c>
+      <c r="H360" s="7">
+        <v>55</v>
+      </c>
+      <c r="I360" s="7">
+        <v>39</v>
+      </c>
+      <c r="J360" s="7"/>
       <c r="K360" s="7"/>
       <c r="L360" s="7"/>
       <c r="M360" s="7"/>
-      <c r="N360" s="7">
-        <v>48</v>
-      </c>
+      <c r="N360" s="7"/>
       <c r="O360" s="7"/>
       <c r="P360" s="7"/>
       <c r="Q360" s="7"/>
       <c r="R360" s="7"/>
       <c r="S360" s="7"/>
       <c r="T360" s="7">
-        <v>148</v>
+        <v>94</v>
       </c>
     </row>
     <row r="361" spans="1:20">
       <c r="A361" s="12">
-        <v>41166</v>
+        <v>41138</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
       <c r="F361" s="7"/>
-      <c r="G361" s="7"/>
+      <c r="G361" s="7">
+        <v>100.4</v>
+      </c>
       <c r="H361" s="7"/>
       <c r="I361" s="7"/>
       <c r="J361" s="7"/>
       <c r="K361" s="7"/>
       <c r="L361" s="7"/>
       <c r="M361" s="7"/>
-      <c r="N361" s="7">
-        <v>100</v>
-      </c>
+      <c r="N361" s="7"/>
       <c r="O361" s="7"/>
       <c r="P361" s="7"/>
       <c r="Q361" s="7"/>
       <c r="R361" s="7"/>
       <c r="S361" s="7"/>
       <c r="T361" s="7">
-        <v>100</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="362" spans="1:20">
       <c r="A362" s="12">
-        <v>41171</v>
+        <v>41151</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -54307,36 +55069,36 @@
       <c r="G362" s="7"/>
       <c r="H362" s="7"/>
       <c r="I362" s="7"/>
-      <c r="J362" s="7"/>
+      <c r="J362" s="7">
+        <v>100</v>
+      </c>
       <c r="K362" s="7"/>
       <c r="L362" s="7"/>
       <c r="M362" s="7"/>
-      <c r="N362" s="7">
-        <v>10</v>
-      </c>
+      <c r="N362" s="7"/>
       <c r="O362" s="7"/>
       <c r="P362" s="7"/>
       <c r="Q362" s="7"/>
       <c r="R362" s="7"/>
       <c r="S362" s="7"/>
       <c r="T362" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="363" spans="1:20">
       <c r="A363" s="12">
-        <v>41175</v>
+        <v>41156</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
-      <c r="F363" s="7">
-        <v>100</v>
-      </c>
+      <c r="F363" s="7"/>
       <c r="G363" s="7"/>
       <c r="H363" s="7"/>
-      <c r="I363" s="7"/>
+      <c r="I363" s="7">
+        <v>15</v>
+      </c>
       <c r="J363" s="7"/>
       <c r="K363" s="7"/>
       <c r="L363" s="7"/>
@@ -54348,46 +55110,40 @@
       <c r="R363" s="7"/>
       <c r="S363" s="7"/>
       <c r="T363" s="7">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="364" spans="1:20">
       <c r="A364" s="12">
-        <v>41197</v>
-      </c>
-      <c r="B364" s="7">
-        <v>10</v>
-      </c>
+        <v>41161</v>
+      </c>
+      <c r="B364" s="7"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
-      <c r="G364" s="7">
-        <v>10</v>
-      </c>
+      <c r="G364" s="7"/>
       <c r="H364" s="7"/>
-      <c r="I364" s="7"/>
-      <c r="J364" s="7">
-        <v>10</v>
-      </c>
+      <c r="I364" s="7">
+        <v>76</v>
+      </c>
+      <c r="J364" s="7"/>
       <c r="K364" s="7"/>
       <c r="L364" s="7"/>
       <c r="M364" s="7"/>
-      <c r="N364" s="7">
-        <v>60</v>
-      </c>
+      <c r="N364" s="7"/>
       <c r="O364" s="7"/>
       <c r="P364" s="7"/>
       <c r="Q364" s="7"/>
       <c r="R364" s="7"/>
       <c r="S364" s="7"/>
       <c r="T364" s="7">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="365" spans="1:20">
       <c r="A365" s="12">
-        <v>41198</v>
+        <v>41162</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
@@ -54397,12 +55153,14 @@
       <c r="G365" s="7"/>
       <c r="H365" s="7"/>
       <c r="I365" s="7"/>
-      <c r="J365" s="7"/>
+      <c r="J365" s="7">
+        <v>100</v>
+      </c>
       <c r="K365" s="7"/>
       <c r="L365" s="7"/>
       <c r="M365" s="7"/>
       <c r="N365" s="7">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O365" s="7"/>
       <c r="P365" s="7"/>
@@ -54410,12 +55168,12 @@
       <c r="R365" s="7"/>
       <c r="S365" s="7"/>
       <c r="T365" s="7">
-        <v>40</v>
+        <v>148</v>
       </c>
     </row>
     <row r="366" spans="1:20">
       <c r="A366" s="12">
-        <v>41205</v>
+        <v>41166</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -54425,18 +55183,12 @@
       <c r="G366" s="7"/>
       <c r="H366" s="7"/>
       <c r="I366" s="7"/>
-      <c r="J366" s="7">
-        <v>162</v>
-      </c>
-      <c r="K366" s="7">
+      <c r="J366" s="7"/>
+      <c r="K366" s="7"/>
+      <c r="L366" s="7"/>
+      <c r="M366" s="7"/>
+      <c r="N366" s="7">
         <v>100</v>
-      </c>
-      <c r="L366" s="7"/>
-      <c r="M366" s="7">
-        <v>100</v>
-      </c>
-      <c r="N366" s="7">
-        <v>70</v>
       </c>
       <c r="O366" s="7"/>
       <c r="P366" s="7"/>
@@ -54444,12 +55196,12 @@
       <c r="R366" s="7"/>
       <c r="S366" s="7"/>
       <c r="T366" s="7">
-        <v>432</v>
+        <v>100</v>
       </c>
     </row>
     <row r="367" spans="1:20">
       <c r="A367" s="12">
-        <v>41214</v>
+        <v>41171</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -54459,37 +55211,37 @@
       <c r="G367" s="7"/>
       <c r="H367" s="7"/>
       <c r="I367" s="7"/>
-      <c r="J367" s="7">
-        <v>2</v>
-      </c>
+      <c r="J367" s="7"/>
       <c r="K367" s="7"/>
       <c r="L367" s="7"/>
       <c r="M367" s="7"/>
-      <c r="N367" s="7"/>
+      <c r="N367" s="7">
+        <v>10</v>
+      </c>
       <c r="O367" s="7"/>
       <c r="P367" s="7"/>
       <c r="Q367" s="7"/>
       <c r="R367" s="7"/>
       <c r="S367" s="7"/>
       <c r="T367" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368" spans="1:20">
       <c r="A368" s="12">
-        <v>41215</v>
+        <v>41175</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
-      <c r="F368" s="7"/>
+      <c r="F368" s="7">
+        <v>100</v>
+      </c>
       <c r="G368" s="7"/>
       <c r="H368" s="7"/>
       <c r="I368" s="7"/>
-      <c r="J368" s="7">
-        <v>4</v>
-      </c>
+      <c r="J368" s="7"/>
       <c r="K368" s="7"/>
       <c r="L368" s="7"/>
       <c r="M368" s="7"/>
@@ -54500,72 +55252,74 @@
       <c r="R368" s="7"/>
       <c r="S368" s="7"/>
       <c r="T368" s="7">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="369" spans="1:20">
       <c r="A369" s="12">
-        <v>41237</v>
-      </c>
-      <c r="B369" s="7"/>
+        <v>41197</v>
+      </c>
+      <c r="B369" s="7">
+        <v>10</v>
+      </c>
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
       <c r="F369" s="7"/>
-      <c r="G369" s="7"/>
+      <c r="G369" s="7">
+        <v>10</v>
+      </c>
       <c r="H369" s="7"/>
       <c r="I369" s="7"/>
       <c r="J369" s="7">
-        <v>100</v>
-      </c>
-      <c r="K369" s="7">
-        <v>100</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K369" s="7"/>
       <c r="L369" s="7"/>
       <c r="M369" s="7"/>
-      <c r="N369" s="7"/>
+      <c r="N369" s="7">
+        <v>60</v>
+      </c>
       <c r="O369" s="7"/>
       <c r="P369" s="7"/>
       <c r="Q369" s="7"/>
       <c r="R369" s="7"/>
       <c r="S369" s="7"/>
       <c r="T369" s="7">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="370" spans="1:20">
       <c r="A370" s="12">
-        <v>41242</v>
+        <v>41198</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
       <c r="F370" s="7"/>
-      <c r="G370" s="7">
-        <v>100</v>
-      </c>
+      <c r="G370" s="7"/>
       <c r="H370" s="7"/>
       <c r="I370" s="7"/>
-      <c r="J370" s="7">
-        <v>81</v>
-      </c>
+      <c r="J370" s="7"/>
       <c r="K370" s="7"/>
       <c r="L370" s="7"/>
       <c r="M370" s="7"/>
-      <c r="N370" s="7"/>
+      <c r="N370" s="7">
+        <v>40</v>
+      </c>
       <c r="O370" s="7"/>
       <c r="P370" s="7"/>
       <c r="Q370" s="7"/>
       <c r="R370" s="7"/>
       <c r="S370" s="7"/>
       <c r="T370" s="7">
-        <v>181</v>
+        <v>40</v>
       </c>
     </row>
     <row r="371" spans="1:20">
       <c r="A371" s="12">
-        <v>41253</v>
+        <v>41205</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -54576,36 +55330,42 @@
       <c r="H371" s="7"/>
       <c r="I371" s="7"/>
       <c r="J371" s="7">
-        <v>10</v>
-      </c>
-      <c r="K371" s="7"/>
+        <v>162</v>
+      </c>
+      <c r="K371" s="7">
+        <v>100</v>
+      </c>
       <c r="L371" s="7"/>
-      <c r="M371" s="7"/>
-      <c r="N371" s="7"/>
+      <c r="M371" s="7">
+        <v>100</v>
+      </c>
+      <c r="N371" s="7">
+        <v>70</v>
+      </c>
       <c r="O371" s="7"/>
       <c r="P371" s="7"/>
       <c r="Q371" s="7"/>
       <c r="R371" s="7"/>
       <c r="S371" s="7"/>
       <c r="T371" s="7">
-        <v>10</v>
+        <v>432</v>
       </c>
     </row>
     <row r="372" spans="1:20">
       <c r="A372" s="12">
-        <v>41268</v>
+        <v>41214</v>
       </c>
       <c r="B372" s="7"/>
-      <c r="C372" s="7">
-        <v>24</v>
-      </c>
+      <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
       <c r="G372" s="7"/>
       <c r="H372" s="7"/>
       <c r="I372" s="7"/>
-      <c r="J372" s="7"/>
+      <c r="J372" s="7">
+        <v>2</v>
+      </c>
       <c r="K372" s="7"/>
       <c r="L372" s="7"/>
       <c r="M372" s="7"/>
@@ -54616,24 +55376,24 @@
       <c r="R372" s="7"/>
       <c r="S372" s="7"/>
       <c r="T372" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:20">
       <c r="A373" s="12">
-        <v>41281</v>
+        <v>41215</v>
       </c>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
-      <c r="G373" s="7">
-        <v>200</v>
-      </c>
+      <c r="G373" s="7"/>
       <c r="H373" s="7"/>
       <c r="I373" s="7"/>
-      <c r="J373" s="7"/>
+      <c r="J373" s="7">
+        <v>4</v>
+      </c>
       <c r="K373" s="7"/>
       <c r="L373" s="7"/>
       <c r="M373" s="7"/>
@@ -54644,12 +55404,12 @@
       <c r="R373" s="7"/>
       <c r="S373" s="7"/>
       <c r="T373" s="7">
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:20">
       <c r="A374" s="12">
-        <v>41310</v>
+        <v>41237</v>
       </c>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -54658,13 +55418,13 @@
       <c r="F374" s="7"/>
       <c r="G374" s="7"/>
       <c r="H374" s="7"/>
-      <c r="I374" s="7">
-        <v>22</v>
-      </c>
+      <c r="I374" s="7"/>
       <c r="J374" s="7">
-        <v>31.9</v>
-      </c>
-      <c r="K374" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="K374" s="7">
+        <v>100</v>
+      </c>
       <c r="L374" s="7"/>
       <c r="M374" s="7"/>
       <c r="N374" s="7"/>
@@ -54674,12 +55434,12 @@
       <c r="R374" s="7"/>
       <c r="S374" s="7"/>
       <c r="T374" s="7">
-        <v>53.9</v>
+        <v>200</v>
       </c>
     </row>
     <row r="375" spans="1:20">
       <c r="A375" s="12">
-        <v>41323</v>
+        <v>41242</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -54687,11 +55447,13 @@
       <c r="E375" s="7"/>
       <c r="F375" s="7"/>
       <c r="G375" s="7">
-        <v>119.6</v>
+        <v>100</v>
       </c>
       <c r="H375" s="7"/>
       <c r="I375" s="7"/>
-      <c r="J375" s="7"/>
+      <c r="J375" s="7">
+        <v>81</v>
+      </c>
       <c r="K375" s="7"/>
       <c r="L375" s="7"/>
       <c r="M375" s="7"/>
@@ -54702,24 +55464,24 @@
       <c r="R375" s="7"/>
       <c r="S375" s="7"/>
       <c r="T375" s="7">
-        <v>119.6</v>
+        <v>181</v>
       </c>
     </row>
     <row r="376" spans="1:20">
       <c r="A376" s="12">
-        <v>41331</v>
+        <v>41253</v>
       </c>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
       <c r="F376" s="7"/>
-      <c r="G376" s="7">
-        <v>100</v>
-      </c>
+      <c r="G376" s="7"/>
       <c r="H376" s="7"/>
       <c r="I376" s="7"/>
-      <c r="J376" s="7"/>
+      <c r="J376" s="7">
+        <v>10</v>
+      </c>
       <c r="K376" s="7"/>
       <c r="L376" s="7"/>
       <c r="M376" s="7"/>
@@ -54730,24 +55492,24 @@
       <c r="R376" s="7"/>
       <c r="S376" s="7"/>
       <c r="T376" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377" spans="1:20">
       <c r="A377" s="12">
-        <v>41361</v>
+        <v>41268</v>
       </c>
       <c r="B377" s="7"/>
-      <c r="C377" s="7"/>
+      <c r="C377" s="7">
+        <v>24</v>
+      </c>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
       <c r="F377" s="7"/>
       <c r="G377" s="7"/>
       <c r="H377" s="7"/>
       <c r="I377" s="7"/>
-      <c r="J377" s="7">
-        <v>40</v>
-      </c>
+      <c r="J377" s="7"/>
       <c r="K377" s="7"/>
       <c r="L377" s="7"/>
       <c r="M377" s="7"/>
@@ -54758,23 +55520,23 @@
       <c r="R377" s="7"/>
       <c r="S377" s="7"/>
       <c r="T377" s="7">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="378" spans="1:20">
       <c r="A378" s="12">
-        <v>41373</v>
+        <v>41281</v>
       </c>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
       <c r="F378" s="7"/>
-      <c r="G378" s="7"/>
+      <c r="G378" s="7">
+        <v>200</v>
+      </c>
       <c r="H378" s="7"/>
-      <c r="I378" s="7">
-        <v>91</v>
-      </c>
+      <c r="I378" s="7"/>
       <c r="J378" s="7"/>
       <c r="K378" s="7"/>
       <c r="L378" s="7"/>
@@ -54786,12 +55548,12 @@
       <c r="R378" s="7"/>
       <c r="S378" s="7"/>
       <c r="T378" s="7">
-        <v>91</v>
+        <v>200</v>
       </c>
     </row>
     <row r="379" spans="1:20">
       <c r="A379" s="12">
-        <v>41374</v>
+        <v>41310</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -54800,26 +55562,28 @@
       <c r="F379" s="7"/>
       <c r="G379" s="7"/>
       <c r="H379" s="7"/>
-      <c r="I379" s="7"/>
-      <c r="J379" s="7"/>
+      <c r="I379" s="7">
+        <v>22</v>
+      </c>
+      <c r="J379" s="7">
+        <v>31.9</v>
+      </c>
       <c r="K379" s="7"/>
       <c r="L379" s="7"/>
       <c r="M379" s="7"/>
-      <c r="N379" s="7">
-        <v>75</v>
-      </c>
+      <c r="N379" s="7"/>
       <c r="O379" s="7"/>
       <c r="P379" s="7"/>
       <c r="Q379" s="7"/>
       <c r="R379" s="7"/>
       <c r="S379" s="7"/>
       <c r="T379" s="7">
-        <v>75</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="380" spans="1:20">
       <c r="A380" s="12">
-        <v>41376</v>
+        <v>41323</v>
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -54827,7 +55591,7 @@
       <c r="E380" s="7"/>
       <c r="F380" s="7"/>
       <c r="G380" s="7">
-        <v>97</v>
+        <v>119.6</v>
       </c>
       <c r="H380" s="7"/>
       <c r="I380" s="7"/>
@@ -54836,37 +55600,33 @@
       <c r="L380" s="7"/>
       <c r="M380" s="7"/>
       <c r="N380" s="7"/>
-      <c r="O380" s="7">
-        <v>50</v>
-      </c>
-      <c r="P380" s="7">
-        <v>100</v>
-      </c>
+      <c r="O380" s="7"/>
+      <c r="P380" s="7"/>
       <c r="Q380" s="7"/>
       <c r="R380" s="7"/>
       <c r="S380" s="7"/>
       <c r="T380" s="7">
-        <v>247</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="381" spans="1:20">
       <c r="A381" s="12">
-        <v>41382</v>
+        <v>41331</v>
       </c>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
       <c r="F381" s="7"/>
-      <c r="G381" s="7"/>
+      <c r="G381" s="7">
+        <v>100</v>
+      </c>
       <c r="H381" s="7"/>
       <c r="I381" s="7"/>
       <c r="J381" s="7"/>
       <c r="K381" s="7"/>
       <c r="L381" s="7"/>
-      <c r="M381" s="7">
-        <v>100</v>
-      </c>
+      <c r="M381" s="7"/>
       <c r="N381" s="7"/>
       <c r="O381" s="7"/>
       <c r="P381" s="7"/>
@@ -54879,7 +55639,7 @@
     </row>
     <row r="382" spans="1:20">
       <c r="A382" s="12">
-        <v>41383</v>
+        <v>41361</v>
       </c>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -54889,25 +55649,25 @@
       <c r="G382" s="7"/>
       <c r="H382" s="7"/>
       <c r="I382" s="7"/>
-      <c r="J382" s="7"/>
+      <c r="J382" s="7">
+        <v>40</v>
+      </c>
       <c r="K382" s="7"/>
       <c r="L382" s="7"/>
       <c r="M382" s="7"/>
       <c r="N382" s="7"/>
-      <c r="O382" s="7">
-        <v>100</v>
-      </c>
+      <c r="O382" s="7"/>
       <c r="P382" s="7"/>
       <c r="Q382" s="7"/>
       <c r="R382" s="7"/>
       <c r="S382" s="7"/>
       <c r="T382" s="7">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="383" spans="1:20">
       <c r="A383" s="12">
-        <v>41386</v>
+        <v>41373</v>
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
@@ -54916,26 +55676,26 @@
       <c r="F383" s="7"/>
       <c r="G383" s="7"/>
       <c r="H383" s="7"/>
-      <c r="I383" s="7"/>
+      <c r="I383" s="7">
+        <v>91</v>
+      </c>
       <c r="J383" s="7"/>
       <c r="K383" s="7"/>
       <c r="L383" s="7"/>
       <c r="M383" s="7"/>
-      <c r="N383" s="7">
-        <v>40</v>
-      </c>
+      <c r="N383" s="7"/>
       <c r="O383" s="7"/>
       <c r="P383" s="7"/>
       <c r="Q383" s="7"/>
       <c r="R383" s="7"/>
       <c r="S383" s="7"/>
       <c r="T383" s="7">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="384" spans="1:20">
       <c r="A384" s="12">
-        <v>41387</v>
+        <v>41374</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -54950,7 +55710,7 @@
       <c r="L384" s="7"/>
       <c r="M384" s="7"/>
       <c r="N384" s="7">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="O384" s="7"/>
       <c r="P384" s="7"/>
@@ -54958,12 +55718,12 @@
       <c r="R384" s="7"/>
       <c r="S384" s="7"/>
       <c r="T384" s="7">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="385" spans="1:20">
       <c r="A385" s="12">
-        <v>41388</v>
+        <v>41376</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -54971,31 +55731,31 @@
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
       <c r="G385" s="7">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="H385" s="7"/>
       <c r="I385" s="7"/>
       <c r="J385" s="7"/>
       <c r="K385" s="7"/>
       <c r="L385" s="7"/>
-      <c r="M385" s="7">
-        <v>40</v>
-      </c>
-      <c r="N385" s="7">
-        <v>11</v>
-      </c>
-      <c r="O385" s="7"/>
-      <c r="P385" s="7"/>
+      <c r="M385" s="7"/>
+      <c r="N385" s="7"/>
+      <c r="O385" s="7">
+        <v>50</v>
+      </c>
+      <c r="P385" s="7">
+        <v>100</v>
+      </c>
       <c r="Q385" s="7"/>
       <c r="R385" s="7"/>
       <c r="S385" s="7"/>
       <c r="T385" s="7">
-        <v>71</v>
+        <v>247</v>
       </c>
     </row>
     <row r="386" spans="1:20">
       <c r="A386" s="12">
-        <v>41390</v>
+        <v>41382</v>
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -55004,13 +55764,13 @@
       <c r="F386" s="7"/>
       <c r="G386" s="7"/>
       <c r="H386" s="7"/>
-      <c r="I386" s="7">
-        <v>120</v>
-      </c>
+      <c r="I386" s="7"/>
       <c r="J386" s="7"/>
       <c r="K386" s="7"/>
       <c r="L386" s="7"/>
-      <c r="M386" s="7"/>
+      <c r="M386" s="7">
+        <v>100</v>
+      </c>
       <c r="N386" s="7"/>
       <c r="O386" s="7"/>
       <c r="P386" s="7"/>
@@ -55018,12 +55778,12 @@
       <c r="R386" s="7"/>
       <c r="S386" s="7"/>
       <c r="T386" s="7">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="387" spans="1:20">
       <c r="A387" s="12">
-        <v>41397</v>
+        <v>41383</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -55031,29 +55791,27 @@
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
       <c r="G387" s="7"/>
-      <c r="H387" s="7">
-        <v>50</v>
-      </c>
+      <c r="H387" s="7"/>
       <c r="I387" s="7"/>
       <c r="J387" s="7"/>
       <c r="K387" s="7"/>
       <c r="L387" s="7"/>
       <c r="M387" s="7"/>
-      <c r="N387" s="7">
+      <c r="N387" s="7"/>
+      <c r="O387" s="7">
         <v>100</v>
       </c>
-      <c r="O387" s="7"/>
       <c r="P387" s="7"/>
       <c r="Q387" s="7"/>
       <c r="R387" s="7"/>
       <c r="S387" s="7"/>
       <c r="T387" s="7">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="388" spans="1:20">
       <c r="A388" s="12">
-        <v>41401</v>
+        <v>41386</v>
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -55067,21 +55825,21 @@
       <c r="K388" s="7"/>
       <c r="L388" s="7"/>
       <c r="M388" s="7"/>
-      <c r="N388" s="7"/>
+      <c r="N388" s="7">
+        <v>40</v>
+      </c>
       <c r="O388" s="7"/>
-      <c r="P388" s="7">
-        <v>100</v>
-      </c>
+      <c r="P388" s="7"/>
       <c r="Q388" s="7"/>
       <c r="R388" s="7"/>
       <c r="S388" s="7"/>
       <c r="T388" s="7">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="389" spans="1:20">
       <c r="A389" s="12">
-        <v>41402</v>
+        <v>41387</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -55092,90 +55850,84 @@
       <c r="H389" s="7"/>
       <c r="I389" s="7"/>
       <c r="J389" s="7"/>
-      <c r="K389" s="7">
-        <v>100</v>
-      </c>
+      <c r="K389" s="7"/>
       <c r="L389" s="7"/>
       <c r="M389" s="7"/>
-      <c r="N389" s="7"/>
-      <c r="O389" s="7">
-        <v>50</v>
-      </c>
+      <c r="N389" s="7">
+        <v>30</v>
+      </c>
+      <c r="O389" s="7"/>
       <c r="P389" s="7"/>
       <c r="Q389" s="7"/>
       <c r="R389" s="7"/>
       <c r="S389" s="7"/>
       <c r="T389" s="7">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="390" spans="1:20">
       <c r="A390" s="12">
-        <v>41403</v>
+        <v>41388</v>
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
-      <c r="G390" s="7"/>
-      <c r="H390" s="7">
-        <v>100</v>
-      </c>
+      <c r="G390" s="7">
+        <v>20</v>
+      </c>
+      <c r="H390" s="7"/>
       <c r="I390" s="7"/>
       <c r="J390" s="7"/>
       <c r="K390" s="7"/>
-      <c r="L390" s="7">
-        <v>100</v>
-      </c>
-      <c r="M390" s="7"/>
-      <c r="N390" s="7"/>
+      <c r="L390" s="7"/>
+      <c r="M390" s="7">
+        <v>40</v>
+      </c>
+      <c r="N390" s="7">
+        <v>11</v>
+      </c>
       <c r="O390" s="7"/>
       <c r="P390" s="7"/>
       <c r="Q390" s="7"/>
-      <c r="R390" s="7">
-        <v>50</v>
-      </c>
+      <c r="R390" s="7"/>
       <c r="S390" s="7"/>
       <c r="T390" s="7">
-        <v>250</v>
+        <v>71</v>
       </c>
     </row>
     <row r="391" spans="1:20">
       <c r="A391" s="12">
-        <v>41407</v>
+        <v>41390</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
       <c r="F391" s="7"/>
-      <c r="G391" s="7">
-        <v>100</v>
-      </c>
+      <c r="G391" s="7"/>
       <c r="H391" s="7"/>
-      <c r="I391" s="7"/>
-      <c r="J391" s="7">
-        <v>100</v>
-      </c>
+      <c r="I391" s="7">
+        <v>120</v>
+      </c>
+      <c r="J391" s="7"/>
       <c r="K391" s="7"/>
       <c r="L391" s="7"/>
       <c r="M391" s="7"/>
-      <c r="N391" s="7">
-        <v>100</v>
-      </c>
+      <c r="N391" s="7"/>
       <c r="O391" s="7"/>
       <c r="P391" s="7"/>
       <c r="Q391" s="7"/>
       <c r="R391" s="7"/>
       <c r="S391" s="7"/>
       <c r="T391" s="7">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="392" spans="1:20">
       <c r="A392" s="12">
-        <v>41410</v>
+        <v>41397</v>
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -55183,27 +55935,29 @@
       <c r="E392" s="7"/>
       <c r="F392" s="7"/>
       <c r="G392" s="7"/>
-      <c r="H392" s="7"/>
-      <c r="I392" s="7">
-        <v>200</v>
-      </c>
+      <c r="H392" s="7">
+        <v>50</v>
+      </c>
+      <c r="I392" s="7"/>
       <c r="J392" s="7"/>
       <c r="K392" s="7"/>
       <c r="L392" s="7"/>
       <c r="M392" s="7"/>
-      <c r="N392" s="7"/>
+      <c r="N392" s="7">
+        <v>100</v>
+      </c>
       <c r="O392" s="7"/>
       <c r="P392" s="7"/>
       <c r="Q392" s="7"/>
       <c r="R392" s="7"/>
       <c r="S392" s="7"/>
       <c r="T392" s="7">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="393" spans="1:20">
       <c r="A393" s="12">
-        <v>41411</v>
+        <v>41401</v>
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -55216,24 +55970,22 @@
       <c r="J393" s="7"/>
       <c r="K393" s="7"/>
       <c r="L393" s="7"/>
-      <c r="M393" s="7">
-        <v>300</v>
-      </c>
+      <c r="M393" s="7"/>
       <c r="N393" s="7"/>
-      <c r="O393" s="7">
+      <c r="O393" s="7"/>
+      <c r="P393" s="7">
         <v>100</v>
       </c>
-      <c r="P393" s="7"/>
       <c r="Q393" s="7"/>
       <c r="R393" s="7"/>
       <c r="S393" s="7"/>
       <c r="T393" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="394" spans="1:20">
       <c r="A394" s="12">
-        <v>41414</v>
+        <v>41402</v>
       </c>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -55243,25 +55995,27 @@
       <c r="G394" s="7"/>
       <c r="H394" s="7"/>
       <c r="I394" s="7"/>
-      <c r="J394" s="7">
+      <c r="J394" s="7"/>
+      <c r="K394" s="7">
         <v>100</v>
       </c>
-      <c r="K394" s="7"/>
       <c r="L394" s="7"/>
       <c r="M394" s="7"/>
       <c r="N394" s="7"/>
-      <c r="O394" s="7"/>
+      <c r="O394" s="7">
+        <v>50</v>
+      </c>
       <c r="P394" s="7"/>
       <c r="Q394" s="7"/>
       <c r="R394" s="7"/>
       <c r="S394" s="7"/>
       <c r="T394" s="7">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="395" spans="1:20">
       <c r="A395" s="12">
-        <v>41416</v>
+        <v>41403</v>
       </c>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -55269,55 +56023,63 @@
       <c r="E395" s="7"/>
       <c r="F395" s="7"/>
       <c r="G395" s="7"/>
-      <c r="H395" s="7"/>
+      <c r="H395" s="7">
+        <v>100</v>
+      </c>
       <c r="I395" s="7"/>
       <c r="J395" s="7"/>
       <c r="K395" s="7"/>
-      <c r="L395" s="7"/>
+      <c r="L395" s="7">
+        <v>100</v>
+      </c>
       <c r="M395" s="7"/>
-      <c r="N395" s="7">
-        <v>200</v>
-      </c>
+      <c r="N395" s="7"/>
       <c r="O395" s="7"/>
       <c r="P395" s="7"/>
       <c r="Q395" s="7"/>
-      <c r="R395" s="7"/>
+      <c r="R395" s="7">
+        <v>50</v>
+      </c>
       <c r="S395" s="7"/>
       <c r="T395" s="7">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="396" spans="1:20">
       <c r="A396" s="12">
-        <v>41424</v>
+        <v>41407</v>
       </c>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
       <c r="F396" s="7"/>
-      <c r="G396" s="7"/>
+      <c r="G396" s="7">
+        <v>100</v>
+      </c>
       <c r="H396" s="7"/>
-      <c r="I396" s="7">
+      <c r="I396" s="7"/>
+      <c r="J396" s="7">
         <v>100</v>
       </c>
-      <c r="J396" s="7"/>
       <c r="K396" s="7"/>
       <c r="L396" s="7"/>
       <c r="M396" s="7"/>
-      <c r="N396" s="7"/>
+      <c r="N396" s="7">
+        <v>100</v>
+      </c>
       <c r="O396" s="7"/>
       <c r="P396" s="7"/>
       <c r="Q396" s="7"/>
       <c r="R396" s="7"/>
       <c r="S396" s="7"/>
       <c r="T396" s="7">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="397" spans="1:20">
       <c r="A397" s="12">
-        <v>41429</v>
+        <v>41410</v>
       </c>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -55326,32 +56088,30 @@
       <c r="F397" s="7"/>
       <c r="G397" s="7"/>
       <c r="H397" s="7"/>
-      <c r="I397" s="7"/>
+      <c r="I397" s="7">
+        <v>200</v>
+      </c>
       <c r="J397" s="7"/>
       <c r="K397" s="7"/>
       <c r="L397" s="7"/>
       <c r="M397" s="7"/>
       <c r="N397" s="7"/>
-      <c r="O397" s="7">
-        <v>100</v>
-      </c>
+      <c r="O397" s="7"/>
       <c r="P397" s="7"/>
       <c r="Q397" s="7"/>
       <c r="R397" s="7"/>
       <c r="S397" s="7"/>
       <c r="T397" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="398" spans="1:20">
       <c r="A398" s="12">
-        <v>41430</v>
+        <v>41411</v>
       </c>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
-      <c r="D398" s="7">
-        <v>100</v>
-      </c>
+      <c r="D398" s="7"/>
       <c r="E398" s="7"/>
       <c r="F398" s="7"/>
       <c r="G398" s="7"/>
@@ -55360,20 +56120,24 @@
       <c r="J398" s="7"/>
       <c r="K398" s="7"/>
       <c r="L398" s="7"/>
-      <c r="M398" s="7"/>
+      <c r="M398" s="7">
+        <v>300</v>
+      </c>
       <c r="N398" s="7"/>
-      <c r="O398" s="7"/>
+      <c r="O398" s="7">
+        <v>100</v>
+      </c>
       <c r="P398" s="7"/>
       <c r="Q398" s="7"/>
       <c r="R398" s="7"/>
       <c r="S398" s="7"/>
       <c r="T398" s="7">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="399" spans="1:20">
       <c r="A399" s="12">
-        <v>41431</v>
+        <v>41414</v>
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -55384,7 +56148,7 @@
       <c r="H399" s="7"/>
       <c r="I399" s="7"/>
       <c r="J399" s="7">
-        <v>80.5</v>
+        <v>100</v>
       </c>
       <c r="K399" s="7"/>
       <c r="L399" s="7"/>
@@ -55392,46 +56156,44 @@
       <c r="N399" s="7"/>
       <c r="O399" s="7"/>
       <c r="P399" s="7"/>
-      <c r="Q399" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q399" s="7"/>
       <c r="R399" s="7"/>
       <c r="S399" s="7"/>
       <c r="T399" s="7">
-        <v>280.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="400" spans="1:20">
       <c r="A400" s="12">
-        <v>41438</v>
+        <v>41416</v>
       </c>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
       <c r="F400" s="7"/>
-      <c r="G400" s="7">
-        <v>20</v>
-      </c>
+      <c r="G400" s="7"/>
       <c r="H400" s="7"/>
       <c r="I400" s="7"/>
       <c r="J400" s="7"/>
       <c r="K400" s="7"/>
       <c r="L400" s="7"/>
       <c r="M400" s="7"/>
-      <c r="N400" s="7"/>
+      <c r="N400" s="7">
+        <v>200</v>
+      </c>
       <c r="O400" s="7"/>
       <c r="P400" s="7"/>
       <c r="Q400" s="7"/>
       <c r="R400" s="7"/>
       <c r="S400" s="7"/>
       <c r="T400" s="7">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="401" spans="1:20">
       <c r="A401" s="12">
-        <v>41439</v>
+        <v>41424</v>
       </c>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
@@ -55440,7 +56202,9 @@
       <c r="F401" s="7"/>
       <c r="G401" s="7"/>
       <c r="H401" s="7"/>
-      <c r="I401" s="7"/>
+      <c r="I401" s="7">
+        <v>100</v>
+      </c>
       <c r="J401" s="7"/>
       <c r="K401" s="7"/>
       <c r="L401" s="7"/>
@@ -55449,9 +56213,7 @@
       <c r="O401" s="7"/>
       <c r="P401" s="7"/>
       <c r="Q401" s="7"/>
-      <c r="R401" s="7">
-        <v>100</v>
-      </c>
+      <c r="R401" s="7"/>
       <c r="S401" s="7"/>
       <c r="T401" s="7">
         <v>100</v>
@@ -55459,13 +56221,11 @@
     </row>
     <row r="402" spans="1:20">
       <c r="A402" s="12">
-        <v>41443</v>
+        <v>41429</v>
       </c>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
-      <c r="D402" s="7">
-        <v>100</v>
-      </c>
+      <c r="D402" s="7"/>
       <c r="E402" s="7"/>
       <c r="F402" s="7"/>
       <c r="G402" s="7"/>
@@ -55476,7 +56236,9 @@
       <c r="L402" s="7"/>
       <c r="M402" s="7"/>
       <c r="N402" s="7"/>
-      <c r="O402" s="7"/>
+      <c r="O402" s="7">
+        <v>100</v>
+      </c>
       <c r="P402" s="7"/>
       <c r="Q402" s="7"/>
       <c r="R402" s="7"/>
@@ -55487,11 +56249,13 @@
     </row>
     <row r="403" spans="1:20">
       <c r="A403" s="12">
-        <v>41444</v>
+        <v>41430</v>
       </c>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
-      <c r="D403" s="7"/>
+      <c r="D403" s="7">
+        <v>100</v>
+      </c>
       <c r="E403" s="7"/>
       <c r="F403" s="7"/>
       <c r="G403" s="7"/>
@@ -55500,9 +56264,7 @@
       <c r="J403" s="7"/>
       <c r="K403" s="7"/>
       <c r="L403" s="7"/>
-      <c r="M403" s="7">
-        <v>200</v>
-      </c>
+      <c r="M403" s="7"/>
       <c r="N403" s="7"/>
       <c r="O403" s="7"/>
       <c r="P403" s="7"/>
@@ -55510,12 +56272,12 @@
       <c r="R403" s="7"/>
       <c r="S403" s="7"/>
       <c r="T403" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="404" spans="1:20">
       <c r="A404" s="12">
-        <v>41450</v>
+        <v>41431</v>
       </c>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -55525,59 +56287,55 @@
       <c r="G404" s="7"/>
       <c r="H404" s="7"/>
       <c r="I404" s="7"/>
-      <c r="J404" s="7"/>
+      <c r="J404" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K404" s="7"/>
       <c r="L404" s="7"/>
       <c r="M404" s="7"/>
-      <c r="N404" s="7">
-        <v>140</v>
-      </c>
-      <c r="O404" s="7">
-        <v>100</v>
-      </c>
+      <c r="N404" s="7"/>
+      <c r="O404" s="7"/>
       <c r="P404" s="7"/>
-      <c r="Q404" s="7"/>
+      <c r="Q404" s="7">
+        <v>200</v>
+      </c>
       <c r="R404" s="7"/>
       <c r="S404" s="7"/>
       <c r="T404" s="7">
-        <v>240</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="405" spans="1:20">
       <c r="A405" s="12">
-        <v>41451</v>
+        <v>41438</v>
       </c>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
       <c r="F405" s="7"/>
-      <c r="G405" s="7"/>
+      <c r="G405" s="7">
+        <v>20</v>
+      </c>
       <c r="H405" s="7"/>
       <c r="I405" s="7"/>
-      <c r="J405" s="7">
-        <v>100</v>
-      </c>
-      <c r="K405" s="7">
-        <v>100</v>
-      </c>
+      <c r="J405" s="7"/>
+      <c r="K405" s="7"/>
       <c r="L405" s="7"/>
       <c r="M405" s="7"/>
-      <c r="N405" s="7">
-        <v>200</v>
-      </c>
+      <c r="N405" s="7"/>
       <c r="O405" s="7"/>
       <c r="P405" s="7"/>
       <c r="Q405" s="7"/>
       <c r="R405" s="7"/>
       <c r="S405" s="7"/>
       <c r="T405" s="7">
-        <v>400</v>
+        <v>20</v>
       </c>
     </row>
     <row r="406" spans="1:20">
       <c r="A406" s="12">
-        <v>41453</v>
+        <v>41439</v>
       </c>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -55586,9 +56344,7 @@
       <c r="F406" s="7"/>
       <c r="G406" s="7"/>
       <c r="H406" s="7"/>
-      <c r="I406" s="7">
-        <v>200</v>
-      </c>
+      <c r="I406" s="7"/>
       <c r="J406" s="7"/>
       <c r="K406" s="7"/>
       <c r="L406" s="7"/>
@@ -55597,19 +56353,23 @@
       <c r="O406" s="7"/>
       <c r="P406" s="7"/>
       <c r="Q406" s="7"/>
-      <c r="R406" s="7"/>
+      <c r="R406" s="7">
+        <v>100</v>
+      </c>
       <c r="S406" s="7"/>
       <c r="T406" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="407" spans="1:20">
       <c r="A407" s="12">
-        <v>41463</v>
+        <v>41443</v>
       </c>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
-      <c r="D407" s="7"/>
+      <c r="D407" s="7">
+        <v>100</v>
+      </c>
       <c r="E407" s="7"/>
       <c r="F407" s="7"/>
       <c r="G407" s="7"/>
@@ -55617,9 +56377,7 @@
       <c r="I407" s="7"/>
       <c r="J407" s="7"/>
       <c r="K407" s="7"/>
-      <c r="L407" s="7">
-        <v>20</v>
-      </c>
+      <c r="L407" s="7"/>
       <c r="M407" s="7"/>
       <c r="N407" s="7"/>
       <c r="O407" s="7"/>
@@ -55628,12 +56386,12 @@
       <c r="R407" s="7"/>
       <c r="S407" s="7"/>
       <c r="T407" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="408" spans="1:20">
       <c r="A408" s="12">
-        <v>41464</v>
+        <v>41444</v>
       </c>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -55646,26 +56404,24 @@
       <c r="J408" s="7"/>
       <c r="K408" s="7"/>
       <c r="L408" s="7"/>
-      <c r="M408" s="7"/>
+      <c r="M408" s="7">
+        <v>200</v>
+      </c>
       <c r="N408" s="7"/>
       <c r="O408" s="7"/>
-      <c r="P408" s="7">
-        <v>100</v>
-      </c>
+      <c r="P408" s="7"/>
       <c r="Q408" s="7"/>
       <c r="R408" s="7"/>
       <c r="S408" s="7"/>
       <c r="T408" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="409" spans="1:20">
       <c r="A409" s="12">
-        <v>41465</v>
-      </c>
-      <c r="B409" s="7">
-        <v>50</v>
-      </c>
+        <v>41450</v>
+      </c>
+      <c r="B409" s="7"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -55677,19 +56433,23 @@
       <c r="K409" s="7"/>
       <c r="L409" s="7"/>
       <c r="M409" s="7"/>
-      <c r="N409" s="7"/>
-      <c r="O409" s="7"/>
+      <c r="N409" s="7">
+        <v>140</v>
+      </c>
+      <c r="O409" s="7">
+        <v>100</v>
+      </c>
       <c r="P409" s="7"/>
       <c r="Q409" s="7"/>
       <c r="R409" s="7"/>
       <c r="S409" s="7"/>
       <c r="T409" s="7">
-        <v>50</v>
+        <v>240</v>
       </c>
     </row>
     <row r="410" spans="1:20">
       <c r="A410" s="12">
-        <v>41466</v>
+        <v>41451</v>
       </c>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -55702,22 +56462,26 @@
       <c r="J410" s="7">
         <v>100</v>
       </c>
-      <c r="K410" s="7"/>
+      <c r="K410" s="7">
+        <v>100</v>
+      </c>
       <c r="L410" s="7"/>
       <c r="M410" s="7"/>
-      <c r="N410" s="7"/>
+      <c r="N410" s="7">
+        <v>200</v>
+      </c>
       <c r="O410" s="7"/>
       <c r="P410" s="7"/>
       <c r="Q410" s="7"/>
       <c r="R410" s="7"/>
       <c r="S410" s="7"/>
       <c r="T410" s="7">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="411" spans="1:20">
       <c r="A411" s="12">
-        <v>41467</v>
+        <v>41453</v>
       </c>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
@@ -55726,7 +56490,9 @@
       <c r="F411" s="7"/>
       <c r="G411" s="7"/>
       <c r="H411" s="7"/>
-      <c r="I411" s="7"/>
+      <c r="I411" s="7">
+        <v>200</v>
+      </c>
       <c r="J411" s="7"/>
       <c r="K411" s="7"/>
       <c r="L411" s="7"/>
@@ -55735,17 +56501,15 @@
       <c r="O411" s="7"/>
       <c r="P411" s="7"/>
       <c r="Q411" s="7"/>
-      <c r="R411" s="7">
-        <v>100</v>
-      </c>
+      <c r="R411" s="7"/>
       <c r="S411" s="7"/>
       <c r="T411" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="412" spans="1:20">
       <c r="A412" s="12">
-        <v>41472</v>
+        <v>41463</v>
       </c>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -55756,10 +56520,10 @@
       <c r="H412" s="7"/>
       <c r="I412" s="7"/>
       <c r="J412" s="7"/>
-      <c r="K412" s="7">
-        <v>100</v>
-      </c>
-      <c r="L412" s="7"/>
+      <c r="K412" s="7"/>
+      <c r="L412" s="7">
+        <v>20</v>
+      </c>
       <c r="M412" s="7"/>
       <c r="N412" s="7"/>
       <c r="O412" s="7"/>
@@ -55768,24 +56532,20 @@
       <c r="R412" s="7"/>
       <c r="S412" s="7"/>
       <c r="T412" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="413" spans="1:20">
       <c r="A413" s="12">
-        <v>41474</v>
-      </c>
-      <c r="B413" s="7">
-        <v>76.5</v>
-      </c>
+        <v>41464</v>
+      </c>
+      <c r="B413" s="7"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
       <c r="F413" s="7"/>
       <c r="G413" s="7"/>
-      <c r="H413" s="7">
-        <v>50</v>
-      </c>
+      <c r="H413" s="7"/>
       <c r="I413" s="7"/>
       <c r="J413" s="7"/>
       <c r="K413" s="7"/>
@@ -55794,29 +56554,27 @@
       <c r="N413" s="7"/>
       <c r="O413" s="7"/>
       <c r="P413" s="7">
-        <v>200</v>
-      </c>
-      <c r="Q413" s="7">
-        <v>200</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="Q413" s="7"/>
       <c r="R413" s="7"/>
       <c r="S413" s="7"/>
       <c r="T413" s="7">
-        <v>526.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="414" spans="1:20">
       <c r="A414" s="12">
-        <v>41479</v>
-      </c>
-      <c r="B414" s="7"/>
+        <v>41465</v>
+      </c>
+      <c r="B414" s="7">
+        <v>50</v>
+      </c>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
       <c r="F414" s="7"/>
-      <c r="G414" s="7">
-        <v>100</v>
-      </c>
+      <c r="G414" s="7"/>
       <c r="H414" s="7"/>
       <c r="I414" s="7"/>
       <c r="J414" s="7"/>
@@ -55830,12 +56588,12 @@
       <c r="R414" s="7"/>
       <c r="S414" s="7"/>
       <c r="T414" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="415" spans="1:20">
       <c r="A415" s="12">
-        <v>41480</v>
+        <v>41466</v>
       </c>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -55845,12 +56603,12 @@
       <c r="G415" s="7"/>
       <c r="H415" s="7"/>
       <c r="I415" s="7"/>
-      <c r="J415" s="7"/>
+      <c r="J415" s="7">
+        <v>100</v>
+      </c>
       <c r="K415" s="7"/>
       <c r="L415" s="7"/>
-      <c r="M415" s="7">
-        <v>200</v>
-      </c>
+      <c r="M415" s="7"/>
       <c r="N415" s="7"/>
       <c r="O415" s="7"/>
       <c r="P415" s="7"/>
@@ -55858,12 +56616,12 @@
       <c r="R415" s="7"/>
       <c r="S415" s="7"/>
       <c r="T415" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="416" spans="1:20">
       <c r="A416" s="12">
-        <v>41481</v>
+        <v>41467</v>
       </c>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -55874,16 +56632,16 @@
       <c r="H416" s="7"/>
       <c r="I416" s="7"/>
       <c r="J416" s="7"/>
-      <c r="K416" s="7">
-        <v>100</v>
-      </c>
+      <c r="K416" s="7"/>
       <c r="L416" s="7"/>
       <c r="M416" s="7"/>
       <c r="N416" s="7"/>
       <c r="O416" s="7"/>
       <c r="P416" s="7"/>
       <c r="Q416" s="7"/>
-      <c r="R416" s="7"/>
+      <c r="R416" s="7">
+        <v>100</v>
+      </c>
       <c r="S416" s="7"/>
       <c r="T416" s="7">
         <v>100</v>
@@ -55891,7 +56649,7 @@
     </row>
     <row r="417" spans="1:20">
       <c r="A417" s="12">
-        <v>41482</v>
+        <v>41472</v>
       </c>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -55901,10 +56659,10 @@
       <c r="G417" s="7"/>
       <c r="H417" s="7"/>
       <c r="I417" s="7"/>
-      <c r="J417" s="7">
+      <c r="J417" s="7"/>
+      <c r="K417" s="7">
         <v>100</v>
       </c>
-      <c r="K417" s="7"/>
       <c r="L417" s="7"/>
       <c r="M417" s="7"/>
       <c r="N417" s="7"/>
@@ -55919,67 +56677,69 @@
     </row>
     <row r="418" spans="1:20">
       <c r="A418" s="12">
-        <v>41488</v>
-      </c>
-      <c r="B418" s="7"/>
+        <v>41474</v>
+      </c>
+      <c r="B418" s="7">
+        <v>76.5</v>
+      </c>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
       <c r="F418" s="7"/>
       <c r="G418" s="7"/>
-      <c r="H418" s="7"/>
+      <c r="H418" s="7">
+        <v>50</v>
+      </c>
       <c r="I418" s="7"/>
       <c r="J418" s="7"/>
-      <c r="K418" s="7">
-        <v>300</v>
-      </c>
+      <c r="K418" s="7"/>
       <c r="L418" s="7"/>
       <c r="M418" s="7"/>
       <c r="N418" s="7"/>
       <c r="O418" s="7"/>
-      <c r="P418" s="7"/>
-      <c r="Q418" s="7"/>
+      <c r="P418" s="7">
+        <v>200</v>
+      </c>
+      <c r="Q418" s="7">
+        <v>200</v>
+      </c>
       <c r="R418" s="7"/>
       <c r="S418" s="7"/>
       <c r="T418" s="7">
-        <v>300</v>
+        <v>526.5</v>
       </c>
     </row>
     <row r="419" spans="1:20">
       <c r="A419" s="12">
-        <v>41495</v>
-      </c>
-      <c r="B419" s="7">
-        <v>100</v>
-      </c>
+        <v>41479</v>
+      </c>
+      <c r="B419" s="7"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
       <c r="F419" s="7"/>
-      <c r="G419" s="7"/>
+      <c r="G419" s="7">
+        <v>100</v>
+      </c>
       <c r="H419" s="7"/>
       <c r="I419" s="7"/>
-      <c r="J419" s="7">
-        <v>100</v>
-      </c>
+      <c r="J419" s="7"/>
       <c r="K419" s="7"/>
       <c r="L419" s="7"/>
       <c r="M419" s="7"/>
-      <c r="N419" s="7">
-        <v>300</v>
-      </c>
+      <c r="N419" s="7"/>
       <c r="O419" s="7"/>
       <c r="P419" s="7"/>
       <c r="Q419" s="7"/>
       <c r="R419" s="7"/>
       <c r="S419" s="7"/>
       <c r="T419" s="7">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="420" spans="1:20">
       <c r="A420" s="12">
-        <v>41502</v>
+        <v>41480</v>
       </c>
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
@@ -55988,13 +56748,13 @@
       <c r="F420" s="7"/>
       <c r="G420" s="7"/>
       <c r="H420" s="7"/>
-      <c r="I420" s="7">
-        <v>200</v>
-      </c>
+      <c r="I420" s="7"/>
       <c r="J420" s="7"/>
       <c r="K420" s="7"/>
       <c r="L420" s="7"/>
-      <c r="M420" s="7"/>
+      <c r="M420" s="7">
+        <v>200</v>
+      </c>
       <c r="N420" s="7"/>
       <c r="O420" s="7"/>
       <c r="P420" s="7"/>
@@ -56007,7 +56767,7 @@
     </row>
     <row r="421" spans="1:20">
       <c r="A421" s="12">
-        <v>41514</v>
+        <v>41481</v>
       </c>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -56017,10 +56777,10 @@
       <c r="G421" s="7"/>
       <c r="H421" s="7"/>
       <c r="I421" s="7"/>
-      <c r="J421" s="7">
+      <c r="J421" s="7"/>
+      <c r="K421" s="7">
         <v>100</v>
       </c>
-      <c r="K421" s="7"/>
       <c r="L421" s="7"/>
       <c r="M421" s="7"/>
       <c r="N421" s="7"/>
@@ -56035,7 +56795,7 @@
     </row>
     <row r="422" spans="1:20">
       <c r="A422" s="12">
-        <v>41526</v>
+        <v>41482</v>
       </c>
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
@@ -56045,25 +56805,25 @@
       <c r="G422" s="7"/>
       <c r="H422" s="7"/>
       <c r="I422" s="7"/>
-      <c r="J422" s="7"/>
+      <c r="J422" s="7">
+        <v>100</v>
+      </c>
       <c r="K422" s="7"/>
       <c r="L422" s="7"/>
       <c r="M422" s="7"/>
       <c r="N422" s="7"/>
       <c r="O422" s="7"/>
-      <c r="P422" s="7">
-        <v>400</v>
-      </c>
+      <c r="P422" s="7"/>
       <c r="Q422" s="7"/>
       <c r="R422" s="7"/>
       <c r="S422" s="7"/>
       <c r="T422" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="423" spans="1:20">
       <c r="A423" s="12">
-        <v>41528</v>
+        <v>41488</v>
       </c>
       <c r="B423" s="7"/>
       <c r="C423" s="7"/>
@@ -56074,27 +56834,27 @@
       <c r="H423" s="7"/>
       <c r="I423" s="7"/>
       <c r="J423" s="7"/>
-      <c r="K423" s="7"/>
+      <c r="K423" s="7">
+        <v>300</v>
+      </c>
       <c r="L423" s="7"/>
       <c r="M423" s="7"/>
       <c r="N423" s="7"/>
       <c r="O423" s="7"/>
       <c r="P423" s="7"/>
-      <c r="Q423" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q423" s="7"/>
       <c r="R423" s="7"/>
       <c r="S423" s="7"/>
       <c r="T423" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="424" spans="1:20">
       <c r="A424" s="12">
-        <v>41533</v>
+        <v>41495</v>
       </c>
       <c r="B424" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
@@ -56103,25 +56863,27 @@
       <c r="G424" s="7"/>
       <c r="H424" s="7"/>
       <c r="I424" s="7"/>
-      <c r="J424" s="7"/>
+      <c r="J424" s="7">
+        <v>100</v>
+      </c>
       <c r="K424" s="7"/>
       <c r="L424" s="7"/>
       <c r="M424" s="7"/>
-      <c r="N424" s="7"/>
-      <c r="O424" s="7">
-        <v>100</v>
-      </c>
+      <c r="N424" s="7">
+        <v>300</v>
+      </c>
+      <c r="O424" s="7"/>
       <c r="P424" s="7"/>
       <c r="Q424" s="7"/>
       <c r="R424" s="7"/>
       <c r="S424" s="7"/>
       <c r="T424" s="7">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="425" spans="1:20">
       <c r="A425" s="12">
-        <v>41537</v>
+        <v>41502</v>
       </c>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -56130,10 +56892,10 @@
       <c r="F425" s="7"/>
       <c r="G425" s="7"/>
       <c r="H425" s="7"/>
-      <c r="I425" s="7"/>
-      <c r="J425" s="7">
-        <v>77</v>
-      </c>
+      <c r="I425" s="7">
+        <v>200</v>
+      </c>
+      <c r="J425" s="7"/>
       <c r="K425" s="7"/>
       <c r="L425" s="7"/>
       <c r="M425" s="7"/>
@@ -56144,12 +56906,12 @@
       <c r="R425" s="7"/>
       <c r="S425" s="7"/>
       <c r="T425" s="7">
-        <v>77</v>
+        <v>200</v>
       </c>
     </row>
     <row r="426" spans="1:20">
       <c r="A426" s="12">
-        <v>41547</v>
+        <v>41514</v>
       </c>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -56159,12 +56921,12 @@
       <c r="G426" s="7"/>
       <c r="H426" s="7"/>
       <c r="I426" s="7"/>
-      <c r="J426" s="7"/>
+      <c r="J426" s="7">
+        <v>100</v>
+      </c>
       <c r="K426" s="7"/>
       <c r="L426" s="7"/>
-      <c r="M426" s="7">
-        <v>80</v>
-      </c>
+      <c r="M426" s="7"/>
       <c r="N426" s="7"/>
       <c r="O426" s="7"/>
       <c r="P426" s="7"/>
@@ -56172,12 +56934,12 @@
       <c r="R426" s="7"/>
       <c r="S426" s="7"/>
       <c r="T426" s="7">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="427" spans="1:20">
       <c r="A427" s="12">
-        <v>41559</v>
+        <v>41526</v>
       </c>
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
@@ -56187,25 +56949,25 @@
       <c r="G427" s="7"/>
       <c r="H427" s="7"/>
       <c r="I427" s="7"/>
-      <c r="J427" s="7">
-        <v>161</v>
-      </c>
+      <c r="J427" s="7"/>
       <c r="K427" s="7"/>
       <c r="L427" s="7"/>
       <c r="M427" s="7"/>
       <c r="N427" s="7"/>
       <c r="O427" s="7"/>
-      <c r="P427" s="7"/>
+      <c r="P427" s="7">
+        <v>400</v>
+      </c>
       <c r="Q427" s="7"/>
       <c r="R427" s="7"/>
       <c r="S427" s="7"/>
       <c r="T427" s="7">
-        <v>161</v>
+        <v>400</v>
       </c>
     </row>
     <row r="428" spans="1:20">
       <c r="A428" s="12">
-        <v>41565</v>
+        <v>41528</v>
       </c>
       <c r="B428" s="7"/>
       <c r="C428" s="7"/>
@@ -56214,36 +56976,30 @@
       <c r="F428" s="7"/>
       <c r="G428" s="7"/>
       <c r="H428" s="7"/>
-      <c r="I428" s="7">
-        <v>150</v>
-      </c>
+      <c r="I428" s="7"/>
       <c r="J428" s="7"/>
-      <c r="K428" s="7">
-        <v>200</v>
-      </c>
+      <c r="K428" s="7"/>
       <c r="L428" s="7"/>
       <c r="M428" s="7"/>
       <c r="N428" s="7"/>
-      <c r="O428" s="7">
-        <v>100</v>
-      </c>
-      <c r="P428" s="7">
-        <v>100</v>
-      </c>
+      <c r="O428" s="7"/>
+      <c r="P428" s="7"/>
       <c r="Q428" s="7">
         <v>200</v>
       </c>
       <c r="R428" s="7"/>
       <c r="S428" s="7"/>
       <c r="T428" s="7">
-        <v>750</v>
+        <v>200</v>
       </c>
     </row>
     <row r="429" spans="1:20">
       <c r="A429" s="12">
-        <v>41575</v>
-      </c>
-      <c r="B429" s="7"/>
+        <v>41533</v>
+      </c>
+      <c r="B429" s="7">
+        <v>200</v>
+      </c>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -56251,25 +57007,25 @@
       <c r="G429" s="7"/>
       <c r="H429" s="7"/>
       <c r="I429" s="7"/>
-      <c r="J429" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="J429" s="7"/>
       <c r="K429" s="7"/>
       <c r="L429" s="7"/>
       <c r="M429" s="7"/>
       <c r="N429" s="7"/>
-      <c r="O429" s="7"/>
+      <c r="O429" s="7">
+        <v>100</v>
+      </c>
       <c r="P429" s="7"/>
       <c r="Q429" s="7"/>
       <c r="R429" s="7"/>
       <c r="S429" s="7"/>
       <c r="T429" s="7">
-        <v>80.5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="430" spans="1:20">
       <c r="A430" s="12">
-        <v>41579</v>
+        <v>41537</v>
       </c>
       <c r="B430" s="7"/>
       <c r="C430" s="7"/>
@@ -56280,7 +57036,7 @@
       <c r="H430" s="7"/>
       <c r="I430" s="7"/>
       <c r="J430" s="7">
-        <v>80.5</v>
+        <v>77</v>
       </c>
       <c r="K430" s="7"/>
       <c r="L430" s="7"/>
@@ -56292,16 +57048,14 @@
       <c r="R430" s="7"/>
       <c r="S430" s="7"/>
       <c r="T430" s="7">
-        <v>80.5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="431" spans="1:20">
       <c r="A431" s="12">
-        <v>41590</v>
-      </c>
-      <c r="B431" s="7">
-        <v>100</v>
-      </c>
+        <v>41547</v>
+      </c>
+      <c r="B431" s="7"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -56312,26 +57066,24 @@
       <c r="J431" s="7"/>
       <c r="K431" s="7"/>
       <c r="L431" s="7"/>
-      <c r="M431" s="7"/>
+      <c r="M431" s="7">
+        <v>80</v>
+      </c>
       <c r="N431" s="7"/>
       <c r="O431" s="7"/>
       <c r="P431" s="7"/>
-      <c r="Q431" s="7">
-        <v>150</v>
-      </c>
+      <c r="Q431" s="7"/>
       <c r="R431" s="7"/>
       <c r="S431" s="7"/>
       <c r="T431" s="7">
-        <v>250</v>
+        <v>80</v>
       </c>
     </row>
     <row r="432" spans="1:20">
       <c r="A432" s="12">
-        <v>41597</v>
-      </c>
-      <c r="B432" s="7">
-        <v>100</v>
-      </c>
+        <v>41559</v>
+      </c>
+      <c r="B432" s="7"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -56339,7 +57091,9 @@
       <c r="G432" s="7"/>
       <c r="H432" s="7"/>
       <c r="I432" s="7"/>
-      <c r="J432" s="7"/>
+      <c r="J432" s="7">
+        <v>161</v>
+      </c>
       <c r="K432" s="7"/>
       <c r="L432" s="7"/>
       <c r="M432" s="7"/>
@@ -56350,40 +57104,48 @@
       <c r="R432" s="7"/>
       <c r="S432" s="7"/>
       <c r="T432" s="7">
-        <v>100</v>
+        <v>161</v>
       </c>
     </row>
     <row r="433" spans="1:20">
       <c r="A433" s="12">
-        <v>41599</v>
-      </c>
-      <c r="B433" s="7">
-        <v>7</v>
-      </c>
+        <v>41565</v>
+      </c>
+      <c r="B433" s="7"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
       <c r="F433" s="7"/>
       <c r="G433" s="7"/>
       <c r="H433" s="7"/>
-      <c r="I433" s="7"/>
+      <c r="I433" s="7">
+        <v>150</v>
+      </c>
       <c r="J433" s="7"/>
-      <c r="K433" s="7"/>
+      <c r="K433" s="7">
+        <v>200</v>
+      </c>
       <c r="L433" s="7"/>
       <c r="M433" s="7"/>
       <c r="N433" s="7"/>
-      <c r="O433" s="7"/>
-      <c r="P433" s="7"/>
-      <c r="Q433" s="7"/>
+      <c r="O433" s="7">
+        <v>100</v>
+      </c>
+      <c r="P433" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q433" s="7">
+        <v>200</v>
+      </c>
       <c r="R433" s="7"/>
       <c r="S433" s="7"/>
       <c r="T433" s="7">
-        <v>7</v>
+        <v>750</v>
       </c>
     </row>
     <row r="434" spans="1:20">
       <c r="A434" s="12">
-        <v>41600</v>
+        <v>41575</v>
       </c>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -56394,34 +57156,26 @@
       <c r="H434" s="7"/>
       <c r="I434" s="7"/>
       <c r="J434" s="7">
-        <v>200</v>
-      </c>
-      <c r="K434" s="7">
-        <v>200</v>
-      </c>
+        <v>80.5</v>
+      </c>
+      <c r="K434" s="7"/>
       <c r="L434" s="7"/>
-      <c r="M434" s="7">
-        <v>100</v>
-      </c>
+      <c r="M434" s="7"/>
       <c r="N434" s="7"/>
-      <c r="O434" s="7">
-        <v>150</v>
-      </c>
+      <c r="O434" s="7"/>
       <c r="P434" s="7"/>
       <c r="Q434" s="7"/>
       <c r="R434" s="7"/>
       <c r="S434" s="7"/>
       <c r="T434" s="7">
-        <v>650</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="435" spans="1:20">
       <c r="A435" s="12">
-        <v>41603</v>
-      </c>
-      <c r="B435" s="7">
-        <v>100</v>
-      </c>
+        <v>41579</v>
+      </c>
+      <c r="B435" s="7"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -56429,7 +57183,9 @@
       <c r="G435" s="7"/>
       <c r="H435" s="7"/>
       <c r="I435" s="7"/>
-      <c r="J435" s="7"/>
+      <c r="J435" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K435" s="7"/>
       <c r="L435" s="7"/>
       <c r="M435" s="7"/>
@@ -56440,14 +57196,16 @@
       <c r="R435" s="7"/>
       <c r="S435" s="7"/>
       <c r="T435" s="7">
-        <v>100</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="436" spans="1:20">
       <c r="A436" s="12">
-        <v>41605</v>
-      </c>
-      <c r="B436" s="7"/>
+        <v>41590</v>
+      </c>
+      <c r="B436" s="7">
+        <v>100</v>
+      </c>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -56461,21 +57219,23 @@
       <c r="M436" s="7"/>
       <c r="N436" s="7"/>
       <c r="O436" s="7"/>
-      <c r="P436" s="7">
-        <v>200</v>
-      </c>
-      <c r="Q436" s="7"/>
+      <c r="P436" s="7"/>
+      <c r="Q436" s="7">
+        <v>150</v>
+      </c>
       <c r="R436" s="7"/>
       <c r="S436" s="7"/>
       <c r="T436" s="7">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="437" spans="1:20">
       <c r="A437" s="12">
-        <v>41610</v>
-      </c>
-      <c r="B437" s="7"/>
+        <v>41597</v>
+      </c>
+      <c r="B437" s="7">
+        <v>100</v>
+      </c>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -56487,9 +57247,7 @@
       <c r="K437" s="7"/>
       <c r="L437" s="7"/>
       <c r="M437" s="7"/>
-      <c r="N437" s="7">
-        <v>100</v>
-      </c>
+      <c r="N437" s="7"/>
       <c r="O437" s="7"/>
       <c r="P437" s="7"/>
       <c r="Q437" s="7"/>
@@ -56501,9 +57259,11 @@
     </row>
     <row r="438" spans="1:20">
       <c r="A438" s="12">
-        <v>41611</v>
-      </c>
-      <c r="B438" s="7"/>
+        <v>41599</v>
+      </c>
+      <c r="B438" s="7">
+        <v>7</v>
+      </c>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -56514,9 +57274,7 @@
       <c r="J438" s="7"/>
       <c r="K438" s="7"/>
       <c r="L438" s="7"/>
-      <c r="M438" s="7">
-        <v>150</v>
-      </c>
+      <c r="M438" s="7"/>
       <c r="N438" s="7"/>
       <c r="O438" s="7"/>
       <c r="P438" s="7"/>
@@ -56524,12 +57282,12 @@
       <c r="R438" s="7"/>
       <c r="S438" s="7"/>
       <c r="T438" s="7">
-        <v>150</v>
+        <v>7</v>
       </c>
     </row>
     <row r="439" spans="1:20">
       <c r="A439" s="12">
-        <v>41614</v>
+        <v>41600</v>
       </c>
       <c r="B439" s="7"/>
       <c r="C439" s="7"/>
@@ -56539,31 +57297,35 @@
       <c r="G439" s="7"/>
       <c r="H439" s="7"/>
       <c r="I439" s="7"/>
-      <c r="J439" s="7"/>
+      <c r="J439" s="7">
+        <v>200</v>
+      </c>
       <c r="K439" s="7">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L439" s="7"/>
-      <c r="M439" s="7"/>
+      <c r="M439" s="7">
+        <v>100</v>
+      </c>
       <c r="N439" s="7"/>
-      <c r="O439" s="7"/>
+      <c r="O439" s="7">
+        <v>150</v>
+      </c>
       <c r="P439" s="7"/>
-      <c r="Q439" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q439" s="7"/>
       <c r="R439" s="7"/>
-      <c r="S439" s="7">
-        <v>100</v>
-      </c>
+      <c r="S439" s="7"/>
       <c r="T439" s="7">
-        <v>350</v>
+        <v>650</v>
       </c>
     </row>
     <row r="440" spans="1:20">
       <c r="A440" s="12">
-        <v>41622</v>
-      </c>
-      <c r="B440" s="7"/>
+        <v>41603</v>
+      </c>
+      <c r="B440" s="7">
+        <v>100</v>
+      </c>
       <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
@@ -56571,39 +57333,23 @@
       <c r="G440" s="7"/>
       <c r="H440" s="7"/>
       <c r="I440" s="7"/>
-      <c r="J440" s="7">
+      <c r="J440" s="7"/>
+      <c r="K440" s="7"/>
+      <c r="L440" s="7"/>
+      <c r="M440" s="7"/>
+      <c r="N440" s="7"/>
+      <c r="O440" s="7"/>
+      <c r="P440" s="7"/>
+      <c r="Q440" s="7"/>
+      <c r="R440" s="7"/>
+      <c r="S440" s="7"/>
+      <c r="T440" s="7">
         <v>100</v>
-      </c>
-      <c r="K440" s="7">
-        <v>200</v>
-      </c>
-      <c r="L440" s="7"/>
-      <c r="M440" s="7">
-        <v>100</v>
-      </c>
-      <c r="N440" s="7">
-        <v>200</v>
-      </c>
-      <c r="O440" s="7">
-        <v>100</v>
-      </c>
-      <c r="P440" s="7">
-        <v>300</v>
-      </c>
-      <c r="Q440" s="7">
-        <v>100</v>
-      </c>
-      <c r="R440" s="7"/>
-      <c r="S440" s="7">
-        <v>50</v>
-      </c>
-      <c r="T440" s="7">
-        <v>1150</v>
       </c>
     </row>
     <row r="441" spans="1:20">
       <c r="A441" s="12">
-        <v>41628</v>
+        <v>41605</v>
       </c>
       <c r="B441" s="7"/>
       <c r="C441" s="7"/>
@@ -56619,76 +57365,272 @@
       <c r="M441" s="7"/>
       <c r="N441" s="7"/>
       <c r="O441" s="7"/>
-      <c r="P441" s="7"/>
+      <c r="P441" s="7">
+        <v>200</v>
+      </c>
       <c r="Q441" s="7"/>
       <c r="R441" s="7"/>
-      <c r="S441" s="7">
+      <c r="S441" s="7"/>
+      <c r="T441" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="442" spans="1:20">
+      <c r="A442" s="12">
+        <v>41610</v>
+      </c>
+      <c r="B442" s="7"/>
+      <c r="C442" s="7"/>
+      <c r="D442" s="7"/>
+      <c r="E442" s="7"/>
+      <c r="F442" s="7"/>
+      <c r="G442" s="7"/>
+      <c r="H442" s="7"/>
+      <c r="I442" s="7"/>
+      <c r="J442" s="7"/>
+      <c r="K442" s="7"/>
+      <c r="L442" s="7"/>
+      <c r="M442" s="7"/>
+      <c r="N442" s="7">
         <v>100</v>
       </c>
-      <c r="T441" s="7">
+      <c r="O442" s="7"/>
+      <c r="P442" s="7"/>
+      <c r="Q442" s="7"/>
+      <c r="R442" s="7"/>
+      <c r="S442" s="7"/>
+      <c r="T442" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="442" spans="1:20">
-      <c r="A442" s="6" t="s">
+    <row r="443" spans="1:20">
+      <c r="A443" s="12">
+        <v>41611</v>
+      </c>
+      <c r="B443" s="7"/>
+      <c r="C443" s="7"/>
+      <c r="D443" s="7"/>
+      <c r="E443" s="7"/>
+      <c r="F443" s="7"/>
+      <c r="G443" s="7"/>
+      <c r="H443" s="7"/>
+      <c r="I443" s="7"/>
+      <c r="J443" s="7"/>
+      <c r="K443" s="7"/>
+      <c r="L443" s="7"/>
+      <c r="M443" s="7">
+        <v>150</v>
+      </c>
+      <c r="N443" s="7"/>
+      <c r="O443" s="7"/>
+      <c r="P443" s="7"/>
+      <c r="Q443" s="7"/>
+      <c r="R443" s="7"/>
+      <c r="S443" s="7"/>
+      <c r="T443" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="444" spans="1:20">
+      <c r="A444" s="12">
+        <v>41614</v>
+      </c>
+      <c r="B444" s="7"/>
+      <c r="C444" s="7"/>
+      <c r="D444" s="7"/>
+      <c r="E444" s="7"/>
+      <c r="F444" s="7"/>
+      <c r="G444" s="7"/>
+      <c r="H444" s="7"/>
+      <c r="I444" s="7"/>
+      <c r="J444" s="7"/>
+      <c r="K444" s="7">
+        <v>50</v>
+      </c>
+      <c r="L444" s="7"/>
+      <c r="M444" s="7"/>
+      <c r="N444" s="7"/>
+      <c r="O444" s="7"/>
+      <c r="P444" s="7"/>
+      <c r="Q444" s="7">
+        <v>200</v>
+      </c>
+      <c r="R444" s="7"/>
+      <c r="S444" s="7">
+        <v>100</v>
+      </c>
+      <c r="T444" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="445" spans="1:20">
+      <c r="A445" s="12">
+        <v>41622</v>
+      </c>
+      <c r="B445" s="7"/>
+      <c r="C445" s="7"/>
+      <c r="D445" s="7"/>
+      <c r="E445" s="7"/>
+      <c r="F445" s="7"/>
+      <c r="G445" s="7"/>
+      <c r="H445" s="7"/>
+      <c r="I445" s="7"/>
+      <c r="J445" s="7">
+        <v>100</v>
+      </c>
+      <c r="K445" s="7">
+        <v>200</v>
+      </c>
+      <c r="L445" s="7"/>
+      <c r="M445" s="7">
+        <v>100</v>
+      </c>
+      <c r="N445" s="7">
+        <v>200</v>
+      </c>
+      <c r="O445" s="7">
+        <v>100</v>
+      </c>
+      <c r="P445" s="7">
+        <v>300</v>
+      </c>
+      <c r="Q445" s="7">
+        <v>100</v>
+      </c>
+      <c r="R445" s="7"/>
+      <c r="S445" s="7">
+        <v>50</v>
+      </c>
+      <c r="T445" s="7">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="446" spans="1:20">
+      <c r="A446" s="12">
+        <v>41628</v>
+      </c>
+      <c r="B446" s="7"/>
+      <c r="C446" s="7"/>
+      <c r="D446" s="7"/>
+      <c r="E446" s="7"/>
+      <c r="F446" s="7"/>
+      <c r="G446" s="7"/>
+      <c r="H446" s="7"/>
+      <c r="I446" s="7"/>
+      <c r="J446" s="7"/>
+      <c r="K446" s="7"/>
+      <c r="L446" s="7"/>
+      <c r="M446" s="7"/>
+      <c r="N446" s="7"/>
+      <c r="O446" s="7"/>
+      <c r="P446" s="7"/>
+      <c r="Q446" s="7"/>
+      <c r="R446" s="7"/>
+      <c r="S446" s="7">
+        <v>100</v>
+      </c>
+      <c r="T446" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="447" spans="1:20">
+      <c r="A447" s="12">
+        <v>41635</v>
+      </c>
+      <c r="B447" s="7">
+        <v>100</v>
+      </c>
+      <c r="C447" s="7"/>
+      <c r="D447" s="7"/>
+      <c r="E447" s="7"/>
+      <c r="F447" s="7"/>
+      <c r="G447" s="7"/>
+      <c r="H447" s="7"/>
+      <c r="I447" s="7"/>
+      <c r="J447" s="7">
+        <v>300</v>
+      </c>
+      <c r="K447" s="7">
+        <v>100</v>
+      </c>
+      <c r="L447" s="7"/>
+      <c r="M447" s="7"/>
+      <c r="N447" s="7">
+        <v>100</v>
+      </c>
+      <c r="O447" s="7"/>
+      <c r="P447" s="7"/>
+      <c r="Q447" s="7"/>
+      <c r="R447" s="7">
+        <v>20</v>
+      </c>
+      <c r="S447" s="7">
+        <v>100</v>
+      </c>
+      <c r="T447" s="7">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="448" spans="1:20">
+      <c r="A448" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B442" s="7">
-        <v>-158.59999999999991</v>
-      </c>
-      <c r="C442" s="7">
+      <c r="B448" s="7">
+        <v>-114.99999999999989</v>
+      </c>
+      <c r="C448" s="7">
         <v>56</v>
       </c>
-      <c r="D442" s="7">
+      <c r="D448" s="7">
         <v>15.899999999999977</v>
       </c>
-      <c r="E442" s="7">
+      <c r="E448" s="7">
         <v>14</v>
       </c>
-      <c r="F442" s="7">
+      <c r="F448" s="7">
         <v>-8</v>
       </c>
-      <c r="G442" s="7">
+      <c r="G448" s="7">
         <v>-13.699999999999591</v>
       </c>
-      <c r="H442" s="7">
+      <c r="H448" s="7">
         <v>-64.999999999999886</v>
       </c>
-      <c r="I442" s="7">
+      <c r="I448" s="7">
         <v>8.9999999999995453</v>
       </c>
-      <c r="J442" s="7">
-        <v>-0.60000000000263753</v>
-      </c>
-      <c r="K442" s="7">
-        <v>11.200000000001182</v>
-      </c>
-      <c r="L442" s="7">
+      <c r="J448" s="7">
+        <v>236.69999999999709</v>
+      </c>
+      <c r="K448" s="7">
+        <v>35.000000000001364</v>
+      </c>
+      <c r="L448" s="7">
         <v>43.400000000000006</v>
       </c>
-      <c r="M442" s="7">
-        <v>-17.799999999998818</v>
-      </c>
-      <c r="N442" s="7">
-        <v>-12.999999999998181</v>
-      </c>
-      <c r="O442" s="7">
-        <v>-13.900000000000091</v>
-      </c>
-      <c r="P442" s="7">
-        <v>53.900000000000773</v>
-      </c>
-      <c r="Q442" s="7">
-        <v>-10.599999999999227</v>
-      </c>
-      <c r="R442" s="7">
-        <v>-0.20000000000001705</v>
-      </c>
-      <c r="S442" s="7">
-        <v>33.300000000000011</v>
-      </c>
-      <c r="T442" s="7">
-        <v>-64.699999999993452</v>
+      <c r="M448" s="7">
+        <v>-64.899999999998727</v>
+      </c>
+      <c r="N448" s="7">
+        <v>10.800000000002001</v>
+      </c>
+      <c r="O448" s="7">
+        <v>-40.700000000000045</v>
+      </c>
+      <c r="P448" s="7">
+        <v>-8.799999999999045</v>
+      </c>
+      <c r="Q448" s="7">
+        <v>-86.799999999999045</v>
+      </c>
+      <c r="R448" s="7">
+        <v>3.6999999999999886</v>
+      </c>
+      <c r="S448" s="7">
+        <v>76.899999999999977</v>
+      </c>
+      <c r="T448" s="7">
+        <v>98.500000000007276</v>
       </c>
     </row>
   </sheetData>
@@ -56701,13 +57643,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
@@ -56715,13 +57657,9 @@
     <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="8.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
@@ -56803,7 +57741,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="7">
-        <v>-909.09999999999991</v>
+        <v>-965.49999999999977</v>
       </c>
       <c r="C3" s="7">
         <v>-31</v>
@@ -56827,37 +57765,37 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3283.0000000000018</v>
+        <v>-3345.7000000000021</v>
       </c>
       <c r="K3" s="7">
-        <v>-1638.799999999999</v>
+        <v>-1714.9999999999989</v>
       </c>
       <c r="L3" s="7">
         <v>-176.6</v>
       </c>
       <c r="M3" s="7">
-        <v>-1587.799999999999</v>
+        <v>-1634.899999999999</v>
       </c>
       <c r="N3" s="7">
-        <v>-1891.9999999999982</v>
+        <v>-1968.1999999999982</v>
       </c>
       <c r="O3" s="7">
-        <v>-1056.9000000000001</v>
+        <v>-1083.7</v>
       </c>
       <c r="P3" s="7">
-        <v>-1446.0999999999995</v>
+        <v>-1508.7999999999993</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1260.5999999999992</v>
+        <v>-1336.7999999999993</v>
       </c>
       <c r="R3" s="7">
-        <v>-250.2</v>
+        <v>-266.3</v>
       </c>
       <c r="S3" s="7">
-        <v>-216.7</v>
+        <v>-273.10000000000002</v>
       </c>
       <c r="T3" s="7">
-        <v>-19433.099999999999</v>
+        <v>-19989.899999999994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -56865,7 +57803,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="7">
-        <v>750.5</v>
+        <v>850.5</v>
       </c>
       <c r="C4" s="7">
         <v>87</v>
@@ -56889,10 +57827,10 @@
         <v>2502.5</v>
       </c>
       <c r="J4" s="7">
-        <v>3282.4</v>
+        <v>3582.4</v>
       </c>
       <c r="K4" s="7">
-        <v>1650</v>
+        <v>1750</v>
       </c>
       <c r="L4" s="7">
         <v>220</v>
@@ -56901,7 +57839,7 @@
         <v>1570</v>
       </c>
       <c r="N4" s="7">
-        <v>1879</v>
+        <v>1979</v>
       </c>
       <c r="O4" s="7">
         <v>1043</v>
@@ -56913,13 +57851,13 @@
         <v>1250</v>
       </c>
       <c r="R4" s="7">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="S4" s="7">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="T4" s="7">
-        <v>19368.400000000001</v>
+        <v>20088.400000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -56927,7 +57865,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="8">
-        <v>-158.59999999999991</v>
+        <v>-114.99999999999977</v>
       </c>
       <c r="C5" s="8">
         <v>56</v>
@@ -56951,37 +57889,37 @@
         <v>8.9999999999995453</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.60000000000172804</v>
+        <v>236.699999999998</v>
       </c>
       <c r="K5" s="8">
-        <v>11.200000000000955</v>
+        <v>35.000000000001137</v>
       </c>
       <c r="L5" s="8">
         <v>43.400000000000006</v>
       </c>
       <c r="M5" s="8">
-        <v>-17.799999999999045</v>
+        <v>-64.899999999998954</v>
       </c>
       <c r="N5" s="8">
-        <v>-12.999999999998181</v>
+        <v>10.800000000001774</v>
       </c>
       <c r="O5" s="8">
-        <v>-13.900000000000091</v>
+        <v>-40.700000000000045</v>
       </c>
       <c r="P5" s="8">
-        <v>53.900000000000546</v>
+        <v>-8.7999999999992724</v>
       </c>
       <c r="Q5" s="8">
-        <v>-10.599999999999227</v>
+        <v>-86.799999999999272</v>
       </c>
       <c r="R5" s="8">
-        <v>-0.19999999999998863</v>
+        <v>3.6999999999999886</v>
       </c>
       <c r="S5" s="8">
-        <v>33.300000000000011</v>
+        <v>76.899999999999977</v>
       </c>
       <c r="T5" s="8">
-        <v>-64.69999999999709</v>
+        <v>98.500000000007276</v>
       </c>
     </row>
   </sheetData>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="消费记录明细" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4541" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4585" uniqueCount="569">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2464,25 +2464,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2494,78 +2485,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="12">
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2634,46 +2606,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -13397,7 +13329,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T448" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -15201,20 +15133,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="15">
+    <format dxfId="11">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="10">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15228,7 +15160,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -15354,20 +15286,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="11">
+    <format dxfId="7">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="6">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15667,11 +15599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1717"/>
+  <dimension ref="A1:V1739"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1698" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1717" sqref="D1717"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1725" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1732" sqref="D1732:D1739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15816,7 +15748,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -15836,7 +15768,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -15854,7 +15786,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -15872,7 +15804,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -15890,7 +15822,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -15908,7 +15840,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -15926,7 +15858,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -16736,7 +16668,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="23" t="s">
         <v>65</v>
       </c>
     </row>
@@ -16756,7 +16688,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="28"/>
+      <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -16774,7 +16706,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="28"/>
+      <c r="F61" s="24"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -17592,7 +17524,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="29"/>
+      <c r="F109" s="26"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -17610,7 +17542,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="30"/>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -17628,7 +17560,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="31"/>
+      <c r="F111" s="28"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -17765,7 +17697,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -17785,7 +17717,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="31"/>
+      <c r="F120" s="28"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -18682,7 +18614,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="29" t="s">
+      <c r="F172" s="26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18702,7 +18634,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="30"/>
+      <c r="F173" s="27"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -18720,7 +18652,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="30"/>
+      <c r="F174" s="27"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -18738,7 +18670,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="31"/>
+      <c r="F175" s="28"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -20756,7 +20688,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="22" t="s">
+      <c r="F288" s="29" t="s">
         <v>202</v>
       </c>
     </row>
@@ -20776,7 +20708,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="26"/>
+      <c r="F289" s="31"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -20794,7 +20726,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="23"/>
+      <c r="F290" s="30"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -20812,7 +20744,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="22" t="s">
+      <c r="F291" s="29" t="s">
         <v>212</v>
       </c>
     </row>
@@ -20832,7 +20764,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="26"/>
+      <c r="F292" s="31"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -20850,7 +20782,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="26"/>
+      <c r="F293" s="31"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -20868,7 +20800,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="23"/>
+      <c r="F294" s="30"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -20886,7 +20818,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="22" t="s">
+      <c r="F295" s="29" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20906,7 +20838,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="23"/>
+      <c r="F296" s="30"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -20924,7 +20856,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="24" t="s">
+      <c r="F297" s="23" t="s">
         <v>207</v>
       </c>
     </row>
@@ -21801,7 +21733,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="22" t="s">
+      <c r="F342" s="29" t="s">
         <v>284</v>
       </c>
     </row>
@@ -21821,7 +21753,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="23"/>
+      <c r="F343" s="30"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -42921,37 +42853,279 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1718" spans="1:4">
+      <c r="A1718" s="4">
+        <v>41638</v>
+      </c>
+      <c r="B1718" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1718" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:4">
+      <c r="A1719" s="4">
+        <v>41638</v>
+      </c>
+      <c r="B1719" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1719" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:4">
+      <c r="A1720" s="4">
+        <v>41638</v>
+      </c>
+      <c r="B1720" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1720" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:4">
+      <c r="A1721" s="4">
+        <v>41638</v>
+      </c>
+      <c r="B1721" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1721" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:4">
+      <c r="A1722" s="4">
+        <v>41638</v>
+      </c>
+      <c r="B1722" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1722" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:4">
+      <c r="A1723" s="4">
+        <v>41638</v>
+      </c>
+      <c r="B1723" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1723" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:4">
+      <c r="A1724" s="4">
+        <v>41639</v>
+      </c>
+      <c r="B1724" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1724" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:4">
+      <c r="A1725" s="4">
+        <v>41639</v>
+      </c>
+      <c r="B1725" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1725" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:4">
+      <c r="A1726" s="4">
+        <v>41639</v>
+      </c>
+      <c r="B1726" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1726" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:4">
+      <c r="A1727" s="4">
+        <v>41639</v>
+      </c>
+      <c r="B1727" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1727" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:4">
+      <c r="A1728" s="4">
+        <v>41639</v>
+      </c>
+      <c r="B1728" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1728" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:4">
+      <c r="A1729" s="4">
+        <v>41639</v>
+      </c>
+      <c r="B1729" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1729" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:4">
+      <c r="A1730" s="4">
+        <v>41639</v>
+      </c>
+      <c r="B1730" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1730" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:4">
+      <c r="A1731" s="4">
+        <v>41639</v>
+      </c>
+      <c r="B1731" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1731" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:4">
+      <c r="A1732" s="4">
+        <v>41639</v>
+      </c>
+      <c r="B1732" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1732" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:4">
+      <c r="A1733" s="4">
+        <v>41641</v>
+      </c>
+      <c r="B1733" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1733" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:4">
+      <c r="A1734" s="4">
+        <v>41641</v>
+      </c>
+      <c r="B1734" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1734" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:4">
+      <c r="A1735" s="4">
+        <v>41641</v>
+      </c>
+      <c r="B1735" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1735" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:4">
+      <c r="A1736" s="4">
+        <v>41641</v>
+      </c>
+      <c r="B1736" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1736" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:4">
+      <c r="A1737" s="4">
+        <v>41641</v>
+      </c>
+      <c r="B1737" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1737" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:4">
+      <c r="A1738" s="4">
+        <v>41641</v>
+      </c>
+      <c r="B1738" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1738" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:4">
+      <c r="A1739" s="4">
+        <v>41641</v>
+      </c>
+      <c r="B1739" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1739" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F342:F343"/>
+    <mergeCell ref="F295:F296"/>
+    <mergeCell ref="F297:F298"/>
+    <mergeCell ref="F291:F294"/>
+    <mergeCell ref="F288:F290"/>
     <mergeCell ref="F6:F12"/>
     <mergeCell ref="F59:F62"/>
     <mergeCell ref="F109:F111"/>
     <mergeCell ref="F119:F120"/>
     <mergeCell ref="F172:F175"/>
-    <mergeCell ref="F342:F343"/>
-    <mergeCell ref="F295:F296"/>
-    <mergeCell ref="F297:F298"/>
-    <mergeCell ref="F291:F294"/>
-    <mergeCell ref="F288:F290"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57643,7 +57817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="消费记录明细" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="20" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4585" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4609" uniqueCount="569">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2464,16 +2464,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2485,20 +2494,323 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="52">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2607,6 +2919,46 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -2618,13 +2970,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41635.649728935183" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1717">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41642.663070717594" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1751">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="消费记录明细"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2013-12-28T00:00:00" count="344">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2014-01-04T00:00:00" count="348">
         <d v="2011-09-09T00:00:00"/>
         <d v="2011-09-30T00:00:00"/>
         <d v="2011-11-28T00:00:00"/>
@@ -2964,11 +3316,15 @@
         <d v="2013-12-25T00:00:00"/>
         <d v="2013-12-26T00:00:00"/>
         <d v="2013-12-27T00:00:00"/>
+        <d v="2013-12-30T00:00:00"/>
+        <d v="2013-12-31T00:00:00"/>
+        <d v="2014-01-02T00:00:00"/>
+        <d v="2014-01-03T00:00:00"/>
         <m/>
         <d v="2011-01-12T00:00:00" u="1"/>
+        <d v="2011-01-17T00:00:00" u="1"/>
+        <d v="2011-11-06T00:00:00" u="1"/>
         <d v="2013-05-14T00:00:00" u="1"/>
-        <d v="2011-11-06T00:00:00" u="1"/>
-        <d v="2011-01-17T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="消费者" numFmtId="0">
@@ -3022,7 +3378,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1717">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1751">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -13320,7 +13676,211 @@
     <x v="1"/>
   </r>
   <r>
+    <x v="338"/>
+    <x v="9"/>
+    <n v="13.71"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="339"/>
+    <x v="20"/>
+    <n v="-13.7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="339"/>
+    <x v="13"/>
+    <n v="-13.7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="339"/>
+    <x v="24"/>
+    <n v="-13.7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="339"/>
+    <x v="15"/>
+    <n v="-13.7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="339"/>
+    <x v="10"/>
+    <n v="-13.7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="339"/>
+    <x v="22"/>
+    <n v="-13.7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="340"/>
+    <x v="20"/>
+    <n v="-13.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="340"/>
+    <x v="13"/>
+    <n v="-13.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="340"/>
+    <x v="24"/>
+    <n v="-13.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="340"/>
+    <x v="15"/>
+    <n v="-13.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="340"/>
+    <x v="10"/>
+    <n v="-13.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="340"/>
+    <x v="22"/>
+    <n v="-13.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="340"/>
+    <x v="19"/>
+    <n v="-13.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="340"/>
+    <x v="8"/>
+    <n v="-13.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="340"/>
+    <x v="12"/>
+    <n v="-13.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="341"/>
+    <x v="20"/>
+    <n v="-13.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="341"/>
+    <x v="13"/>
+    <n v="-13.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="341"/>
+    <x v="24"/>
+    <n v="-13.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="341"/>
+    <x v="10"/>
+    <n v="-13.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="341"/>
+    <x v="22"/>
+    <n v="-13.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="341"/>
+    <x v="19"/>
+    <n v="-13.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="341"/>
+    <x v="8"/>
+    <n v="-13.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="342"/>
+    <x v="20"/>
+    <n v="-15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="342"/>
+    <x v="13"/>
+    <n v="-15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="342"/>
+    <x v="24"/>
+    <n v="-15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="342"/>
+    <x v="10"/>
+    <n v="-15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="342"/>
+    <x v="22"/>
+    <n v="-15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="342"/>
+    <x v="19"/>
+    <n v="-15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="342"/>
+    <x v="15"/>
+    <n v="-15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="342"/>
+    <x v="12"/>
+    <n v="-15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="342"/>
+    <x v="17"/>
+    <n v="-15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="342"/>
+    <x v="24"/>
+    <n v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="342"/>
+    <x v="13"/>
+    <n v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="343"/>
     <x v="25"/>
     <m/>
     <x v="2"/>
@@ -13329,16 +13889,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:T448" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:T453" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="345">
-        <item m="1" x="340"/>
-        <item m="1" x="343"/>
+      <items count="349">
+        <item m="1" x="344"/>
+        <item m="1" x="345"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="342"/>
+        <item m="1" x="346"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -13538,7 +14098,7 @@
         <item x="198"/>
         <item x="199"/>
         <item x="200"/>
-        <item m="1" x="341"/>
+        <item m="1" x="347"/>
         <item x="201"/>
         <item x="202"/>
         <item x="203"/>
@@ -13678,6 +14238,10 @@
         <item x="337"/>
         <item x="338"/>
         <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13727,7 +14291,7 @@
     <field x="3"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="446">
+  <rowItems count="451">
     <i>
       <x/>
     </i>
@@ -14679,6 +15243,18 @@
     <i r="1">
       <x v="342"/>
     </i>
+    <i r="1">
+      <x v="343"/>
+    </i>
+    <i r="1">
+      <x v="344"/>
+    </i>
+    <i r="1">
+      <x v="345"/>
+    </i>
+    <i r="1">
+      <x v="346"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -15063,6 +15639,9 @@
     <i r="1">
       <x v="342"/>
     </i>
+    <i r="1">
+      <x v="346"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -15133,20 +15712,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="11">
+    <format dxfId="47">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="46">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15160,7 +15739,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -15286,20 +15865,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="7">
+    <format dxfId="43">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="42">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15599,11 +16178,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1739"/>
+  <dimension ref="A1:V1751"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1725" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1732" sqref="D1732:D1739"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1734" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1749" sqref="C1749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15748,7 +16327,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -15768,7 +16347,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -15786,7 +16365,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -15804,7 +16383,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -15822,7 +16401,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -15840,7 +16419,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -15858,7 +16437,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -16668,7 +17247,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -16688,7 +17267,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="24"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -16706,7 +17285,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -17524,7 +18103,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="26"/>
+      <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -17542,7 +18121,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="27"/>
+      <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -17560,7 +18139,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="28"/>
+      <c r="F111" s="31"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -17697,7 +18276,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="26" t="s">
+      <c r="F119" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -17717,7 +18296,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="28"/>
+      <c r="F120" s="31"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -18614,7 +19193,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="26" t="s">
+      <c r="F172" s="29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18634,7 +19213,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="27"/>
+      <c r="F173" s="30"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -18652,7 +19231,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="27"/>
+      <c r="F174" s="30"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -18670,7 +19249,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="28"/>
+      <c r="F175" s="31"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -20688,7 +21267,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="29" t="s">
+      <c r="F288" s="22" t="s">
         <v>202</v>
       </c>
     </row>
@@ -20708,7 +21287,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="31"/>
+      <c r="F289" s="26"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -20726,7 +21305,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="30"/>
+      <c r="F290" s="23"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -20744,7 +21323,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="29" t="s">
+      <c r="F291" s="22" t="s">
         <v>212</v>
       </c>
     </row>
@@ -20764,7 +21343,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="31"/>
+      <c r="F292" s="26"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -20782,7 +21361,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="31"/>
+      <c r="F293" s="26"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -20800,7 +21379,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="30"/>
+      <c r="F294" s="23"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -20818,7 +21397,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="29" t="s">
+      <c r="F295" s="22" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20838,7 +21417,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="30"/>
+      <c r="F296" s="23"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -20856,7 +21435,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="23" t="s">
+      <c r="F297" s="24" t="s">
         <v>207</v>
       </c>
     </row>
@@ -21733,7 +22312,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="29" t="s">
+      <c r="F342" s="22" t="s">
         <v>284</v>
       </c>
     </row>
@@ -21753,7 +22332,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="30"/>
+      <c r="F343" s="23"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -42855,13 +43434,16 @@
     </row>
     <row r="1718" spans="1:4">
       <c r="A1718" s="4">
-        <v>41638</v>
+        <v>41635</v>
       </c>
       <c r="B1718" s="1" t="s">
-        <v>478</v>
+        <v>30</v>
+      </c>
+      <c r="C1718" s="1">
+        <v>13.71</v>
       </c>
       <c r="D1718" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1719" spans="1:4">
@@ -42869,7 +43451,10 @@
         <v>41638</v>
       </c>
       <c r="B1719" s="1" t="s">
-        <v>131</v>
+        <v>478</v>
+      </c>
+      <c r="C1719" s="1">
+        <v>-13.7</v>
       </c>
       <c r="D1719" s="9" t="s">
         <v>7</v>
@@ -42880,7 +43465,10 @@
         <v>41638</v>
       </c>
       <c r="B1720" s="1" t="s">
-        <v>567</v>
+        <v>131</v>
+      </c>
+      <c r="C1720" s="1">
+        <v>-13.7</v>
       </c>
       <c r="D1720" s="9" t="s">
         <v>7</v>
@@ -42891,7 +43479,10 @@
         <v>41638</v>
       </c>
       <c r="B1721" s="1" t="s">
-        <v>137</v>
+        <v>567</v>
+      </c>
+      <c r="C1721" s="1">
+        <v>-13.7</v>
       </c>
       <c r="D1721" s="9" t="s">
         <v>7</v>
@@ -42902,7 +43493,10 @@
         <v>41638</v>
       </c>
       <c r="B1722" s="1" t="s">
-        <v>71</v>
+        <v>137</v>
+      </c>
+      <c r="C1722" s="1">
+        <v>-13.7</v>
       </c>
       <c r="D1722" s="9" t="s">
         <v>7</v>
@@ -42913,7 +43507,10 @@
         <v>41638</v>
       </c>
       <c r="B1723" s="1" t="s">
-        <v>480</v>
+        <v>71</v>
+      </c>
+      <c r="C1723" s="1">
+        <v>-13.7</v>
       </c>
       <c r="D1723" s="9" t="s">
         <v>7</v>
@@ -42921,10 +43518,13 @@
     </row>
     <row r="1724" spans="1:4">
       <c r="A1724" s="4">
-        <v>41639</v>
+        <v>41638</v>
       </c>
       <c r="B1724" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
+      </c>
+      <c r="C1724" s="1">
+        <v>-13.7</v>
       </c>
       <c r="D1724" s="9" t="s">
         <v>7</v>
@@ -42935,7 +43535,10 @@
         <v>41639</v>
       </c>
       <c r="B1725" s="1" t="s">
-        <v>131</v>
+        <v>478</v>
+      </c>
+      <c r="C1725" s="1">
+        <v>-13.4</v>
       </c>
       <c r="D1725" s="9" t="s">
         <v>7</v>
@@ -42946,7 +43549,10 @@
         <v>41639</v>
       </c>
       <c r="B1726" s="1" t="s">
-        <v>567</v>
+        <v>131</v>
+      </c>
+      <c r="C1726" s="1">
+        <v>-13.4</v>
       </c>
       <c r="D1726" s="9" t="s">
         <v>7</v>
@@ -42957,7 +43563,10 @@
         <v>41639</v>
       </c>
       <c r="B1727" s="1" t="s">
-        <v>137</v>
+        <v>567</v>
+      </c>
+      <c r="C1727" s="1">
+        <v>-13.4</v>
       </c>
       <c r="D1727" s="9" t="s">
         <v>7</v>
@@ -42968,7 +43577,10 @@
         <v>41639</v>
       </c>
       <c r="B1728" s="1" t="s">
-        <v>71</v>
+        <v>137</v>
+      </c>
+      <c r="C1728" s="1">
+        <v>-13.4</v>
       </c>
       <c r="D1728" s="9" t="s">
         <v>7</v>
@@ -42979,7 +43591,10 @@
         <v>41639</v>
       </c>
       <c r="B1729" s="1" t="s">
-        <v>480</v>
+        <v>71</v>
+      </c>
+      <c r="C1729" s="1">
+        <v>-13.4</v>
       </c>
       <c r="D1729" s="9" t="s">
         <v>7</v>
@@ -42990,7 +43605,10 @@
         <v>41639</v>
       </c>
       <c r="B1730" s="1" t="s">
-        <v>469</v>
+        <v>480</v>
+      </c>
+      <c r="C1730" s="1">
+        <v>-13.4</v>
       </c>
       <c r="D1730" s="9" t="s">
         <v>7</v>
@@ -43001,7 +43619,10 @@
         <v>41639</v>
       </c>
       <c r="B1731" s="1" t="s">
-        <v>10</v>
+        <v>469</v>
+      </c>
+      <c r="C1731" s="1">
+        <v>-13.4</v>
       </c>
       <c r="D1731" s="9" t="s">
         <v>7</v>
@@ -43012,7 +43633,10 @@
         <v>41639</v>
       </c>
       <c r="B1732" s="1" t="s">
-        <v>136</v>
+        <v>10</v>
+      </c>
+      <c r="C1732" s="1">
+        <v>-13.4</v>
       </c>
       <c r="D1732" s="9" t="s">
         <v>7</v>
@@ -43020,10 +43644,13 @@
     </row>
     <row r="1733" spans="1:4">
       <c r="A1733" s="4">
-        <v>41641</v>
+        <v>41639</v>
       </c>
       <c r="B1733" s="1" t="s">
-        <v>478</v>
+        <v>136</v>
+      </c>
+      <c r="C1733" s="1">
+        <v>-13.4</v>
       </c>
       <c r="D1733" s="9" t="s">
         <v>7</v>
@@ -43034,7 +43661,10 @@
         <v>41641</v>
       </c>
       <c r="B1734" s="1" t="s">
-        <v>131</v>
+        <v>478</v>
+      </c>
+      <c r="C1734" s="1">
+        <v>-13.2</v>
       </c>
       <c r="D1734" s="9" t="s">
         <v>7</v>
@@ -43045,7 +43675,10 @@
         <v>41641</v>
       </c>
       <c r="B1735" s="1" t="s">
-        <v>567</v>
+        <v>131</v>
+      </c>
+      <c r="C1735" s="1">
+        <v>-13.2</v>
       </c>
       <c r="D1735" s="9" t="s">
         <v>7</v>
@@ -43056,7 +43689,10 @@
         <v>41641</v>
       </c>
       <c r="B1736" s="1" t="s">
-        <v>71</v>
+        <v>567</v>
+      </c>
+      <c r="C1736" s="1">
+        <v>-13.2</v>
       </c>
       <c r="D1736" s="9" t="s">
         <v>7</v>
@@ -43067,7 +43703,10 @@
         <v>41641</v>
       </c>
       <c r="B1737" s="1" t="s">
-        <v>480</v>
+        <v>71</v>
+      </c>
+      <c r="C1737" s="1">
+        <v>-13.2</v>
       </c>
       <c r="D1737" s="9" t="s">
         <v>7</v>
@@ -43078,7 +43717,10 @@
         <v>41641</v>
       </c>
       <c r="B1738" s="1" t="s">
-        <v>469</v>
+        <v>480</v>
+      </c>
+      <c r="C1738" s="1">
+        <v>-13.2</v>
       </c>
       <c r="D1738" s="9" t="s">
         <v>7</v>
@@ -43089,43 +43731,214 @@
         <v>41641</v>
       </c>
       <c r="B1739" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1739" s="1">
+        <v>-13.2</v>
+      </c>
+      <c r="D1739" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:4">
+      <c r="A1740" s="4">
+        <v>41641</v>
+      </c>
+      <c r="B1740" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1739" s="9" t="s">
-        <v>7</v>
+      <c r="C1740" s="1">
+        <v>-13.2</v>
+      </c>
+      <c r="D1740" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:4">
+      <c r="A1741" s="4">
+        <v>41642</v>
+      </c>
+      <c r="B1741" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1741" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D1741" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:4">
+      <c r="A1742" s="4">
+        <v>41642</v>
+      </c>
+      <c r="B1742" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1742" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D1742" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:4">
+      <c r="A1743" s="4">
+        <v>41642</v>
+      </c>
+      <c r="B1743" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1743" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D1743" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:4">
+      <c r="A1744" s="4">
+        <v>41642</v>
+      </c>
+      <c r="B1744" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1744" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D1744" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:4">
+      <c r="A1745" s="4">
+        <v>41642</v>
+      </c>
+      <c r="B1745" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1745" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D1745" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:4">
+      <c r="A1746" s="4">
+        <v>41642</v>
+      </c>
+      <c r="B1746" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1746" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D1746" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:4">
+      <c r="A1747" s="4">
+        <v>41642</v>
+      </c>
+      <c r="B1747" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1747" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D1747" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:4">
+      <c r="A1748" s="4">
+        <v>41642</v>
+      </c>
+      <c r="B1748" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1748" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D1748" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:4">
+      <c r="A1749" s="4">
+        <v>41642</v>
+      </c>
+      <c r="B1749" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1749" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D1749" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:4">
+      <c r="A1750" s="4">
+        <v>41642</v>
+      </c>
+      <c r="B1750" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1750" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1750" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:4">
+      <c r="A1751" s="4">
+        <v>41642</v>
+      </c>
+      <c r="B1751" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1751" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1751" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F172:F175"/>
     <mergeCell ref="F342:F343"/>
     <mergeCell ref="F295:F296"/>
     <mergeCell ref="F297:F298"/>
     <mergeCell ref="F291:F294"/>
     <mergeCell ref="F288:F290"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F172:F175"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43144,11 +43957,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V448"/>
+  <dimension ref="A1:V453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H429" sqref="H429"/>
+      <selection pane="bottomLeft" activeCell="G429" sqref="G429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43161,8 +43974,9 @@
     <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" customWidth="1"/>
     <col min="13" max="17" width="9.625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5" customWidth="1"/>
@@ -43266,7 +44080,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="7">
-        <v>-965.49999999999989</v>
+        <v>-992.09999999999991</v>
       </c>
       <c r="C3" s="7">
         <v>-31</v>
@@ -43290,37 +44104,37 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3345.700000000003</v>
+        <v>-3401.0000000000027</v>
       </c>
       <c r="K3" s="7">
-        <v>-1714.9999999999986</v>
+        <v>-1770.2999999999988</v>
       </c>
       <c r="L3" s="7">
         <v>-176.6</v>
       </c>
       <c r="M3" s="7">
-        <v>-1634.8999999999987</v>
+        <v>-1663.2999999999988</v>
       </c>
       <c r="N3" s="7">
-        <v>-1968.199999999998</v>
+        <v>-2010.2999999999981</v>
       </c>
       <c r="O3" s="7">
-        <v>-1083.7</v>
+        <v>-1098.7</v>
       </c>
       <c r="P3" s="7">
-        <v>-1508.799999999999</v>
+        <v>-1550.3999999999992</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1336.799999999999</v>
+        <v>-1392.0999999999992</v>
       </c>
       <c r="R3" s="7">
-        <v>-266.3</v>
+        <v>-321.59999999999997</v>
       </c>
       <c r="S3" s="7">
-        <v>-273.10000000000002</v>
+        <v>-328.4</v>
       </c>
       <c r="T3" s="7">
-        <v>-19989.899999999991</v>
+        <v>-20420.099999999991</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -54004,105 +54818,93 @@
       </c>
     </row>
     <row r="320" spans="1:20">
-      <c r="A320" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B320" s="7">
-        <v>850.5</v>
-      </c>
-      <c r="C320" s="7">
-        <v>87</v>
-      </c>
-      <c r="D320" s="7">
-        <v>300</v>
-      </c>
-      <c r="E320" s="7">
-        <v>56</v>
-      </c>
-      <c r="F320" s="7">
-        <v>200</v>
-      </c>
-      <c r="G320" s="7">
-        <v>2023</v>
-      </c>
-      <c r="H320" s="7">
-        <v>555</v>
-      </c>
-      <c r="I320" s="7">
-        <v>2502.5</v>
-      </c>
+      <c r="A320" s="12">
+        <v>41638</v>
+      </c>
+      <c r="B320" s="7"/>
+      <c r="C320" s="7"/>
+      <c r="D320" s="7"/>
+      <c r="E320" s="7"/>
+      <c r="F320" s="7"/>
+      <c r="G320" s="7"/>
+      <c r="H320" s="7"/>
+      <c r="I320" s="7"/>
       <c r="J320" s="7">
-        <v>3582.4</v>
+        <v>-13.7</v>
       </c>
       <c r="K320" s="7">
-        <v>1750</v>
-      </c>
-      <c r="L320" s="7">
-        <v>220</v>
-      </c>
-      <c r="M320" s="7">
-        <v>1570</v>
-      </c>
+        <v>-13.7</v>
+      </c>
+      <c r="L320" s="7"/>
+      <c r="M320" s="7"/>
       <c r="N320" s="7">
-        <v>1979</v>
-      </c>
-      <c r="O320" s="7">
-        <v>1043</v>
-      </c>
-      <c r="P320" s="7">
-        <v>1500</v>
-      </c>
+        <v>-13.7</v>
+      </c>
+      <c r="O320" s="7"/>
+      <c r="P320" s="7"/>
       <c r="Q320" s="7">
-        <v>1250</v>
+        <v>-13.7</v>
       </c>
       <c r="R320" s="7">
-        <v>270</v>
+        <v>-13.7</v>
       </c>
       <c r="S320" s="7">
-        <v>350</v>
+        <v>-13.7</v>
       </c>
       <c r="T320" s="7">
-        <v>20088.400000000001</v>
+        <v>-82.2</v>
       </c>
     </row>
     <row r="321" spans="1:20">
       <c r="A321" s="12">
-        <v>40875</v>
-      </c>
-      <c r="B321" s="7"/>
-      <c r="C321" s="7">
-        <v>63</v>
-      </c>
+        <v>41639</v>
+      </c>
+      <c r="B321" s="7">
+        <v>-13.4</v>
+      </c>
+      <c r="C321" s="7"/>
       <c r="D321" s="7"/>
-      <c r="E321" s="7">
-        <v>56</v>
-      </c>
+      <c r="E321" s="7"/>
       <c r="F321" s="7"/>
       <c r="G321" s="7"/>
-      <c r="H321" s="7">
-        <v>0</v>
-      </c>
+      <c r="H321" s="7"/>
       <c r="I321" s="7"/>
-      <c r="J321" s="7"/>
-      <c r="K321" s="7"/>
+      <c r="J321" s="7">
+        <v>-13.4</v>
+      </c>
+      <c r="K321" s="7">
+        <v>-13.4</v>
+      </c>
       <c r="L321" s="7"/>
-      <c r="M321" s="7"/>
-      <c r="N321" s="7"/>
+      <c r="M321" s="7">
+        <v>-13.4</v>
+      </c>
+      <c r="N321" s="7">
+        <v>-13.4</v>
+      </c>
       <c r="O321" s="7"/>
-      <c r="P321" s="7"/>
-      <c r="Q321" s="7"/>
-      <c r="R321" s="7"/>
-      <c r="S321" s="7"/>
+      <c r="P321" s="7">
+        <v>-13.4</v>
+      </c>
+      <c r="Q321" s="7">
+        <v>-13.4</v>
+      </c>
+      <c r="R321" s="7">
+        <v>-13.4</v>
+      </c>
+      <c r="S321" s="7">
+        <v>-13.4</v>
+      </c>
       <c r="T321" s="7">
-        <v>119</v>
+        <v>-120.60000000000002</v>
       </c>
     </row>
     <row r="322" spans="1:20">
       <c r="A322" s="12">
-        <v>40879</v>
+        <v>41641</v>
       </c>
       <c r="B322" s="7">
-        <v>7</v>
+        <v>-13.2</v>
       </c>
       <c r="C322" s="7"/>
       <c r="D322" s="7"/>
@@ -54111,92 +54913,156 @@
       <c r="G322" s="7"/>
       <c r="H322" s="7"/>
       <c r="I322" s="7"/>
-      <c r="J322" s="7"/>
-      <c r="K322" s="7"/>
+      <c r="J322" s="7">
+        <v>-13.2</v>
+      </c>
+      <c r="K322" s="7">
+        <v>-13.2</v>
+      </c>
       <c r="L322" s="7"/>
       <c r="M322" s="7"/>
       <c r="N322" s="7"/>
       <c r="O322" s="7"/>
-      <c r="P322" s="7"/>
-      <c r="Q322" s="7"/>
-      <c r="R322" s="7"/>
-      <c r="S322" s="7"/>
+      <c r="P322" s="7">
+        <v>-13.2</v>
+      </c>
+      <c r="Q322" s="7">
+        <v>-13.2</v>
+      </c>
+      <c r="R322" s="7">
+        <v>-13.2</v>
+      </c>
+      <c r="S322" s="7">
+        <v>-13.2</v>
+      </c>
       <c r="T322" s="7">
-        <v>7</v>
+        <v>-92.4</v>
       </c>
     </row>
     <row r="323" spans="1:20">
       <c r="A323" s="12">
-        <v>40883</v>
+        <v>41642</v>
       </c>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
       <c r="D323" s="7"/>
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
-      <c r="G323" s="7">
-        <v>50</v>
-      </c>
+      <c r="G323" s="7"/>
       <c r="H323" s="7"/>
       <c r="I323" s="7"/>
-      <c r="J323" s="7"/>
-      <c r="K323" s="7"/>
+      <c r="J323" s="7">
+        <v>-15</v>
+      </c>
+      <c r="K323" s="7">
+        <v>-15</v>
+      </c>
       <c r="L323" s="7"/>
-      <c r="M323" s="7"/>
-      <c r="N323" s="7"/>
-      <c r="O323" s="7"/>
-      <c r="P323" s="7"/>
-      <c r="Q323" s="7"/>
-      <c r="R323" s="7"/>
-      <c r="S323" s="7"/>
+      <c r="M323" s="7">
+        <v>-15</v>
+      </c>
+      <c r="N323" s="7">
+        <v>-15</v>
+      </c>
+      <c r="O323" s="7">
+        <v>-15</v>
+      </c>
+      <c r="P323" s="7">
+        <v>-15</v>
+      </c>
+      <c r="Q323" s="7">
+        <v>-15</v>
+      </c>
+      <c r="R323" s="7">
+        <v>-15</v>
+      </c>
+      <c r="S323" s="7">
+        <v>-15</v>
+      </c>
       <c r="T323" s="7">
-        <v>50</v>
+        <v>-135</v>
       </c>
     </row>
     <row r="324" spans="1:20">
-      <c r="A324" s="12">
-        <v>40891</v>
-      </c>
-      <c r="B324" s="7"/>
-      <c r="C324" s="7"/>
-      <c r="D324" s="7"/>
-      <c r="E324" s="7"/>
-      <c r="F324" s="7"/>
-      <c r="G324" s="7"/>
-      <c r="H324" s="7"/>
+      <c r="A324" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B324" s="7">
+        <v>850.5</v>
+      </c>
+      <c r="C324" s="7">
+        <v>87</v>
+      </c>
+      <c r="D324" s="7">
+        <v>300</v>
+      </c>
+      <c r="E324" s="7">
+        <v>56</v>
+      </c>
+      <c r="F324" s="7">
+        <v>200</v>
+      </c>
+      <c r="G324" s="7">
+        <v>2036.71</v>
+      </c>
+      <c r="H324" s="7">
+        <v>555</v>
+      </c>
       <c r="I324" s="7">
-        <v>65</v>
-      </c>
-      <c r="J324" s="7"/>
-      <c r="K324" s="7"/>
-      <c r="L324" s="7"/>
-      <c r="M324" s="7"/>
-      <c r="N324" s="7"/>
-      <c r="O324" s="7"/>
-      <c r="P324" s="7"/>
-      <c r="Q324" s="7"/>
-      <c r="R324" s="7"/>
-      <c r="S324" s="7"/>
+        <v>2502.5</v>
+      </c>
+      <c r="J324" s="7">
+        <v>3582.4</v>
+      </c>
+      <c r="K324" s="7">
+        <v>1850</v>
+      </c>
+      <c r="L324" s="7">
+        <v>220</v>
+      </c>
+      <c r="M324" s="7">
+        <v>1570</v>
+      </c>
+      <c r="N324" s="7">
+        <v>1979</v>
+      </c>
+      <c r="O324" s="7">
+        <v>1043</v>
+      </c>
+      <c r="P324" s="7">
+        <v>1500</v>
+      </c>
+      <c r="Q324" s="7">
+        <v>1250</v>
+      </c>
+      <c r="R324" s="7">
+        <v>270</v>
+      </c>
+      <c r="S324" s="7">
+        <v>450</v>
+      </c>
       <c r="T324" s="7">
-        <v>65</v>
+        <v>20302.11</v>
       </c>
     </row>
     <row r="325" spans="1:20">
       <c r="A325" s="12">
-        <v>40892</v>
+        <v>40875</v>
       </c>
       <c r="B325" s="7"/>
-      <c r="C325" s="7"/>
+      <c r="C325" s="7">
+        <v>63</v>
+      </c>
       <c r="D325" s="7"/>
-      <c r="E325" s="7"/>
+      <c r="E325" s="7">
+        <v>56</v>
+      </c>
       <c r="F325" s="7"/>
-      <c r="G325" s="7">
-        <v>100</v>
-      </c>
-      <c r="H325" s="7"/>
-      <c r="I325" s="7">
-        <v>68</v>
-      </c>
+      <c r="G325" s="7"/>
+      <c r="H325" s="7">
+        <v>0</v>
+      </c>
+      <c r="I325" s="7"/>
       <c r="J325" s="7"/>
       <c r="K325" s="7"/>
       <c r="L325" s="7"/>
@@ -54208,23 +55074,23 @@
       <c r="R325" s="7"/>
       <c r="S325" s="7"/>
       <c r="T325" s="7">
-        <v>168</v>
+        <v>119</v>
       </c>
     </row>
     <row r="326" spans="1:20">
       <c r="A326" s="12">
-        <v>40913</v>
-      </c>
-      <c r="B326" s="7"/>
+        <v>40879</v>
+      </c>
+      <c r="B326" s="7">
+        <v>7</v>
+      </c>
       <c r="C326" s="7"/>
       <c r="D326" s="7"/>
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
       <c r="G326" s="7"/>
       <c r="H326" s="7"/>
-      <c r="I326" s="7">
-        <v>679.5</v>
-      </c>
+      <c r="I326" s="7"/>
       <c r="J326" s="7"/>
       <c r="K326" s="7"/>
       <c r="L326" s="7"/>
@@ -54236,12 +55102,12 @@
       <c r="R326" s="7"/>
       <c r="S326" s="7"/>
       <c r="T326" s="7">
-        <v>679.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:20">
       <c r="A327" s="12">
-        <v>40917</v>
+        <v>40883</v>
       </c>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -54249,7 +55115,7 @@
       <c r="E327" s="7"/>
       <c r="F327" s="7"/>
       <c r="G327" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H327" s="7"/>
       <c r="I327" s="7"/>
@@ -54264,12 +55130,12 @@
       <c r="R327" s="7"/>
       <c r="S327" s="7"/>
       <c r="T327" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="328" spans="1:20">
       <c r="A328" s="12">
-        <v>40919</v>
+        <v>40891</v>
       </c>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -54278,10 +55144,10 @@
       <c r="F328" s="7"/>
       <c r="G328" s="7"/>
       <c r="H328" s="7"/>
-      <c r="I328" s="7"/>
-      <c r="J328" s="7">
-        <v>15</v>
-      </c>
+      <c r="I328" s="7">
+        <v>65</v>
+      </c>
+      <c r="J328" s="7"/>
       <c r="K328" s="7"/>
       <c r="L328" s="7"/>
       <c r="M328" s="7"/>
@@ -54292,25 +55158,25 @@
       <c r="R328" s="7"/>
       <c r="S328" s="7"/>
       <c r="T328" s="7">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="329" spans="1:20">
       <c r="A329" s="12">
-        <v>40921</v>
+        <v>40892</v>
       </c>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
-      <c r="D329" s="7">
+      <c r="D329" s="7"/>
+      <c r="E329" s="7"/>
+      <c r="F329" s="7"/>
+      <c r="G329" s="7">
         <v>100</v>
       </c>
-      <c r="E329" s="7"/>
-      <c r="F329" s="7">
-        <v>100</v>
-      </c>
-      <c r="G329" s="7"/>
       <c r="H329" s="7"/>
-      <c r="I329" s="7"/>
+      <c r="I329" s="7">
+        <v>68</v>
+      </c>
       <c r="J329" s="7"/>
       <c r="K329" s="7"/>
       <c r="L329" s="7"/>
@@ -54322,12 +55188,12 @@
       <c r="R329" s="7"/>
       <c r="S329" s="7"/>
       <c r="T329" s="7">
-        <v>200</v>
+        <v>168</v>
       </c>
     </row>
     <row r="330" spans="1:20">
       <c r="A330" s="12">
-        <v>40925</v>
+        <v>40913</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -54336,10 +55202,10 @@
       <c r="F330" s="7"/>
       <c r="G330" s="7"/>
       <c r="H330" s="7"/>
-      <c r="I330" s="7"/>
-      <c r="J330" s="7">
-        <v>14</v>
-      </c>
+      <c r="I330" s="7">
+        <v>679.5</v>
+      </c>
+      <c r="J330" s="7"/>
       <c r="K330" s="7"/>
       <c r="L330" s="7"/>
       <c r="M330" s="7"/>
@@ -54350,24 +55216,24 @@
       <c r="R330" s="7"/>
       <c r="S330" s="7"/>
       <c r="T330" s="7">
-        <v>14</v>
+        <v>679.5</v>
       </c>
     </row>
     <row r="331" spans="1:20">
       <c r="A331" s="12">
-        <v>40926</v>
+        <v>40917</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
-      <c r="G331" s="7"/>
+      <c r="G331" s="7">
+        <v>100</v>
+      </c>
       <c r="H331" s="7"/>
       <c r="I331" s="7"/>
-      <c r="J331" s="7">
-        <v>28</v>
-      </c>
+      <c r="J331" s="7"/>
       <c r="K331" s="7"/>
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
@@ -54378,12 +55244,12 @@
       <c r="R331" s="7"/>
       <c r="S331" s="7"/>
       <c r="T331" s="7">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="332" spans="1:20">
       <c r="A332" s="12">
-        <v>40947</v>
+        <v>40919</v>
       </c>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -54394,7 +55260,7 @@
       <c r="H332" s="7"/>
       <c r="I332" s="7"/>
       <c r="J332" s="7">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K332" s="7"/>
       <c r="L332" s="7"/>
@@ -54406,22 +55272,24 @@
       <c r="R332" s="7"/>
       <c r="S332" s="7"/>
       <c r="T332" s="7">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" spans="1:20">
       <c r="A333" s="12">
-        <v>40954</v>
+        <v>40921</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
-      <c r="D333" s="7"/>
+      <c r="D333" s="7">
+        <v>100</v>
+      </c>
       <c r="E333" s="7"/>
-      <c r="F333" s="7"/>
+      <c r="F333" s="7">
+        <v>100</v>
+      </c>
       <c r="G333" s="7"/>
-      <c r="H333" s="7">
-        <v>100</v>
-      </c>
+      <c r="H333" s="7"/>
       <c r="I333" s="7"/>
       <c r="J333" s="7"/>
       <c r="K333" s="7"/>
@@ -54434,12 +55302,12 @@
       <c r="R333" s="7"/>
       <c r="S333" s="7"/>
       <c r="T333" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="334" spans="1:20">
       <c r="A334" s="12">
-        <v>40973</v>
+        <v>40925</v>
       </c>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -54449,12 +55317,12 @@
       <c r="G334" s="7"/>
       <c r="H334" s="7"/>
       <c r="I334" s="7"/>
-      <c r="J334" s="7"/>
+      <c r="J334" s="7">
+        <v>14</v>
+      </c>
       <c r="K334" s="7"/>
       <c r="L334" s="7"/>
-      <c r="M334" s="7">
-        <v>100</v>
-      </c>
+      <c r="M334" s="7"/>
       <c r="N334" s="7"/>
       <c r="O334" s="7"/>
       <c r="P334" s="7"/>
@@ -54462,12 +55330,12 @@
       <c r="R334" s="7"/>
       <c r="S334" s="7"/>
       <c r="T334" s="7">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="335" spans="1:20">
       <c r="A335" s="12">
-        <v>40974</v>
+        <v>40926</v>
       </c>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -54475,11 +55343,11 @@
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
       <c r="G335" s="7"/>
-      <c r="H335" s="7">
-        <v>100</v>
-      </c>
+      <c r="H335" s="7"/>
       <c r="I335" s="7"/>
-      <c r="J335" s="7"/>
+      <c r="J335" s="7">
+        <v>28</v>
+      </c>
       <c r="K335" s="7"/>
       <c r="L335" s="7"/>
       <c r="M335" s="7"/>
@@ -54490,12 +55358,12 @@
       <c r="R335" s="7"/>
       <c r="S335" s="7"/>
       <c r="T335" s="7">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="336" spans="1:20">
       <c r="A336" s="12">
-        <v>40981</v>
+        <v>40947</v>
       </c>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -54503,13 +55371,11 @@
       <c r="E336" s="7"/>
       <c r="F336" s="7"/>
       <c r="G336" s="7"/>
-      <c r="H336" s="7">
+      <c r="H336" s="7"/>
+      <c r="I336" s="7"/>
+      <c r="J336" s="7">
         <v>100</v>
       </c>
-      <c r="I336" s="7">
-        <v>300</v>
-      </c>
-      <c r="J336" s="7"/>
       <c r="K336" s="7"/>
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
@@ -54520,12 +55386,12 @@
       <c r="R336" s="7"/>
       <c r="S336" s="7"/>
       <c r="T336" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="337" spans="1:20">
       <c r="A337" s="12">
-        <v>41032</v>
+        <v>40954</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -54533,15 +55399,13 @@
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
       <c r="G337" s="7"/>
-      <c r="H337" s="7"/>
+      <c r="H337" s="7">
+        <v>100</v>
+      </c>
       <c r="I337" s="7"/>
       <c r="J337" s="7"/>
-      <c r="K337" s="7">
-        <v>100</v>
-      </c>
-      <c r="L337" s="7">
-        <v>100</v>
-      </c>
+      <c r="K337" s="7"/>
+      <c r="L337" s="7"/>
       <c r="M337" s="7"/>
       <c r="N337" s="7"/>
       <c r="O337" s="7"/>
@@ -54550,12 +55414,12 @@
       <c r="R337" s="7"/>
       <c r="S337" s="7"/>
       <c r="T337" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="338" spans="1:20">
       <c r="A338" s="12">
-        <v>41037</v>
+        <v>40973</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -54583,7 +55447,7 @@
     </row>
     <row r="339" spans="1:20">
       <c r="A339" s="12">
-        <v>41039</v>
+        <v>40974</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -54591,27 +55455,27 @@
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
       <c r="G339" s="7"/>
-      <c r="H339" s="7"/>
+      <c r="H339" s="7">
+        <v>100</v>
+      </c>
       <c r="I339" s="7"/>
       <c r="J339" s="7"/>
       <c r="K339" s="7"/>
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
-      <c r="N339" s="7">
-        <v>35</v>
-      </c>
+      <c r="N339" s="7"/>
       <c r="O339" s="7"/>
       <c r="P339" s="7"/>
       <c r="Q339" s="7"/>
       <c r="R339" s="7"/>
       <c r="S339" s="7"/>
       <c r="T339" s="7">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="340" spans="1:20">
       <c r="A340" s="12">
-        <v>41044</v>
+        <v>40981</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -54619,41 +55483,45 @@
       <c r="E340" s="7"/>
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
-      <c r="H340" s="7"/>
-      <c r="I340" s="7"/>
+      <c r="H340" s="7">
+        <v>100</v>
+      </c>
+      <c r="I340" s="7">
+        <v>300</v>
+      </c>
       <c r="J340" s="7"/>
       <c r="K340" s="7"/>
       <c r="L340" s="7"/>
       <c r="M340" s="7"/>
-      <c r="N340" s="7">
-        <v>20</v>
-      </c>
+      <c r="N340" s="7"/>
       <c r="O340" s="7"/>
       <c r="P340" s="7"/>
       <c r="Q340" s="7"/>
       <c r="R340" s="7"/>
       <c r="S340" s="7"/>
       <c r="T340" s="7">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="341" spans="1:20">
       <c r="A341" s="12">
-        <v>41050</v>
+        <v>41032</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
-      <c r="G341" s="7">
-        <v>89</v>
-      </c>
+      <c r="G341" s="7"/>
       <c r="H341" s="7"/>
       <c r="I341" s="7"/>
       <c r="J341" s="7"/>
-      <c r="K341" s="7"/>
-      <c r="L341" s="7"/>
+      <c r="K341" s="7">
+        <v>100</v>
+      </c>
+      <c r="L341" s="7">
+        <v>100</v>
+      </c>
       <c r="M341" s="7"/>
       <c r="N341" s="7"/>
       <c r="O341" s="7"/>
@@ -54662,12 +55530,12 @@
       <c r="R341" s="7"/>
       <c r="S341" s="7"/>
       <c r="T341" s="7">
-        <v>89</v>
+        <v>200</v>
       </c>
     </row>
     <row r="342" spans="1:20">
       <c r="A342" s="12">
-        <v>41057</v>
+        <v>41037</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -54677,12 +55545,12 @@
       <c r="G342" s="7"/>
       <c r="H342" s="7"/>
       <c r="I342" s="7"/>
-      <c r="J342" s="7">
-        <v>300</v>
-      </c>
+      <c r="J342" s="7"/>
       <c r="K342" s="7"/>
       <c r="L342" s="7"/>
-      <c r="M342" s="7"/>
+      <c r="M342" s="7">
+        <v>100</v>
+      </c>
       <c r="N342" s="7"/>
       <c r="O342" s="7"/>
       <c r="P342" s="7"/>
@@ -54690,12 +55558,12 @@
       <c r="R342" s="7"/>
       <c r="S342" s="7"/>
       <c r="T342" s="7">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="343" spans="1:20">
       <c r="A343" s="12">
-        <v>41060</v>
+        <v>41039</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -54705,65 +55573,65 @@
       <c r="G343" s="7"/>
       <c r="H343" s="7"/>
       <c r="I343" s="7"/>
-      <c r="J343" s="7">
-        <v>10.1</v>
-      </c>
+      <c r="J343" s="7"/>
       <c r="K343" s="7"/>
       <c r="L343" s="7"/>
       <c r="M343" s="7"/>
-      <c r="N343" s="7"/>
+      <c r="N343" s="7">
+        <v>35</v>
+      </c>
       <c r="O343" s="7"/>
       <c r="P343" s="7"/>
       <c r="Q343" s="7"/>
       <c r="R343" s="7"/>
       <c r="S343" s="7"/>
       <c r="T343" s="7">
-        <v>10.1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="344" spans="1:20">
       <c r="A344" s="12">
-        <v>41066</v>
+        <v>41044</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
       <c r="F344" s="7"/>
-      <c r="G344" s="7">
-        <v>300</v>
-      </c>
+      <c r="G344" s="7"/>
       <c r="H344" s="7"/>
       <c r="I344" s="7"/>
       <c r="J344" s="7"/>
       <c r="K344" s="7"/>
       <c r="L344" s="7"/>
       <c r="M344" s="7"/>
-      <c r="N344" s="7"/>
+      <c r="N344" s="7">
+        <v>20</v>
+      </c>
       <c r="O344" s="7"/>
       <c r="P344" s="7"/>
       <c r="Q344" s="7"/>
       <c r="R344" s="7"/>
       <c r="S344" s="7"/>
       <c r="T344" s="7">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="345" spans="1:20">
       <c r="A345" s="12">
-        <v>41070</v>
+        <v>41050</v>
       </c>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
       <c r="F345" s="7"/>
-      <c r="G345" s="7"/>
+      <c r="G345" s="7">
+        <v>89</v>
+      </c>
       <c r="H345" s="7"/>
       <c r="I345" s="7"/>
-      <c r="J345" s="7">
-        <v>130</v>
-      </c>
+      <c r="J345" s="7"/>
       <c r="K345" s="7"/>
       <c r="L345" s="7"/>
       <c r="M345" s="7"/>
@@ -54774,12 +55642,12 @@
       <c r="R345" s="7"/>
       <c r="S345" s="7"/>
       <c r="T345" s="7">
-        <v>130</v>
+        <v>89</v>
       </c>
     </row>
     <row r="346" spans="1:20">
       <c r="A346" s="12">
-        <v>41071</v>
+        <v>41057</v>
       </c>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -54790,7 +55658,7 @@
       <c r="H346" s="7"/>
       <c r="I346" s="7"/>
       <c r="J346" s="7">
-        <v>81.400000000000006</v>
+        <v>300</v>
       </c>
       <c r="K346" s="7"/>
       <c r="L346" s="7"/>
@@ -54802,12 +55670,12 @@
       <c r="R346" s="7"/>
       <c r="S346" s="7"/>
       <c r="T346" s="7">
-        <v>81.400000000000006</v>
+        <v>300</v>
       </c>
     </row>
     <row r="347" spans="1:20">
       <c r="A347" s="12">
-        <v>41072</v>
+        <v>41060</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -54818,7 +55686,7 @@
       <c r="H347" s="7"/>
       <c r="I347" s="7"/>
       <c r="J347" s="7">
-        <v>77.599999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="K347" s="7"/>
       <c r="L347" s="7"/>
@@ -54830,12 +55698,12 @@
       <c r="R347" s="7"/>
       <c r="S347" s="7"/>
       <c r="T347" s="7">
-        <v>77.599999999999994</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="348" spans="1:20">
       <c r="A348" s="12">
-        <v>41078</v>
+        <v>41066</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -54843,13 +55711,11 @@
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
       <c r="G348" s="7">
-        <v>47</v>
+        <v>300</v>
       </c>
       <c r="H348" s="7"/>
       <c r="I348" s="7"/>
-      <c r="J348" s="7">
-        <v>50</v>
-      </c>
+      <c r="J348" s="7"/>
       <c r="K348" s="7"/>
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
@@ -54860,12 +55726,12 @@
       <c r="R348" s="7"/>
       <c r="S348" s="7"/>
       <c r="T348" s="7">
-        <v>97</v>
+        <v>300</v>
       </c>
     </row>
     <row r="349" spans="1:20">
       <c r="A349" s="12">
-        <v>41082</v>
+        <v>41070</v>
       </c>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -54876,7 +55742,7 @@
       <c r="H349" s="7"/>
       <c r="I349" s="7"/>
       <c r="J349" s="7">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="K349" s="7"/>
       <c r="L349" s="7"/>
@@ -54888,12 +55754,12 @@
       <c r="R349" s="7"/>
       <c r="S349" s="7"/>
       <c r="T349" s="7">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="350" spans="1:20">
       <c r="A350" s="12">
-        <v>41083</v>
+        <v>41071</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -54904,7 +55770,7 @@
       <c r="H350" s="7"/>
       <c r="I350" s="7"/>
       <c r="J350" s="7">
-        <v>39.9</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="K350" s="7"/>
       <c r="L350" s="7"/>
@@ -54916,24 +55782,24 @@
       <c r="R350" s="7"/>
       <c r="S350" s="7"/>
       <c r="T350" s="7">
-        <v>39.9</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="351" spans="1:20">
       <c r="A351" s="12">
-        <v>41085</v>
+        <v>41072</v>
       </c>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
       <c r="F351" s="7"/>
-      <c r="G351" s="7">
-        <v>300</v>
-      </c>
+      <c r="G351" s="7"/>
       <c r="H351" s="7"/>
       <c r="I351" s="7"/>
-      <c r="J351" s="7"/>
+      <c r="J351" s="7">
+        <v>77.599999999999994</v>
+      </c>
       <c r="K351" s="7"/>
       <c r="L351" s="7"/>
       <c r="M351" s="7"/>
@@ -54944,23 +55810,25 @@
       <c r="R351" s="7"/>
       <c r="S351" s="7"/>
       <c r="T351" s="7">
-        <v>300</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="352" spans="1:20">
       <c r="A352" s="12">
-        <v>41088</v>
+        <v>41078</v>
       </c>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
-      <c r="G352" s="7"/>
+      <c r="G352" s="7">
+        <v>47</v>
+      </c>
       <c r="H352" s="7"/>
       <c r="I352" s="7"/>
       <c r="J352" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K352" s="7"/>
       <c r="L352" s="7"/>
@@ -54972,12 +55840,12 @@
       <c r="R352" s="7"/>
       <c r="S352" s="7"/>
       <c r="T352" s="7">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="353" spans="1:20">
       <c r="A353" s="12">
-        <v>41092</v>
+        <v>41082</v>
       </c>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -54987,25 +55855,25 @@
       <c r="G353" s="7"/>
       <c r="H353" s="7"/>
       <c r="I353" s="7"/>
-      <c r="J353" s="7"/>
+      <c r="J353" s="7">
+        <v>98</v>
+      </c>
       <c r="K353" s="7"/>
       <c r="L353" s="7"/>
       <c r="M353" s="7"/>
       <c r="N353" s="7"/>
-      <c r="O353" s="7">
-        <v>93</v>
-      </c>
+      <c r="O353" s="7"/>
       <c r="P353" s="7"/>
       <c r="Q353" s="7"/>
       <c r="R353" s="7"/>
       <c r="S353" s="7"/>
       <c r="T353" s="7">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="354" spans="1:20">
       <c r="A354" s="12">
-        <v>41093</v>
+        <v>41083</v>
       </c>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -55016,7 +55884,7 @@
       <c r="H354" s="7"/>
       <c r="I354" s="7"/>
       <c r="J354" s="7">
-        <v>100</v>
+        <v>39.9</v>
       </c>
       <c r="K354" s="7"/>
       <c r="L354" s="7"/>
@@ -55028,12 +55896,12 @@
       <c r="R354" s="7"/>
       <c r="S354" s="7"/>
       <c r="T354" s="7">
-        <v>100</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="355" spans="1:20">
       <c r="A355" s="12">
-        <v>41095</v>
+        <v>41085</v>
       </c>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -55041,13 +55909,11 @@
       <c r="E355" s="7"/>
       <c r="F355" s="7"/>
       <c r="G355" s="7">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="H355" s="7"/>
       <c r="I355" s="7"/>
-      <c r="J355" s="7">
-        <v>98</v>
-      </c>
+      <c r="J355" s="7"/>
       <c r="K355" s="7"/>
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
@@ -55058,12 +55924,12 @@
       <c r="R355" s="7"/>
       <c r="S355" s="7"/>
       <c r="T355" s="7">
-        <v>168</v>
+        <v>300</v>
       </c>
     </row>
     <row r="356" spans="1:20">
       <c r="A356" s="12">
-        <v>41100</v>
+        <v>41088</v>
       </c>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -55072,10 +55938,10 @@
       <c r="F356" s="7"/>
       <c r="G356" s="7"/>
       <c r="H356" s="7"/>
-      <c r="I356" s="7">
-        <v>16</v>
-      </c>
-      <c r="J356" s="7"/>
+      <c r="I356" s="7"/>
+      <c r="J356" s="7">
+        <v>20</v>
+      </c>
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
@@ -55086,12 +55952,12 @@
       <c r="R356" s="7"/>
       <c r="S356" s="7"/>
       <c r="T356" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="357" spans="1:20">
       <c r="A357" s="12">
-        <v>41108</v>
+        <v>41092</v>
       </c>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -55100,26 +55966,26 @@
       <c r="F357" s="7"/>
       <c r="G357" s="7"/>
       <c r="H357" s="7"/>
-      <c r="I357" s="7">
-        <v>63</v>
-      </c>
+      <c r="I357" s="7"/>
       <c r="J357" s="7"/>
       <c r="K357" s="7"/>
       <c r="L357" s="7"/>
       <c r="M357" s="7"/>
       <c r="N357" s="7"/>
-      <c r="O357" s="7"/>
+      <c r="O357" s="7">
+        <v>93</v>
+      </c>
       <c r="P357" s="7"/>
       <c r="Q357" s="7"/>
       <c r="R357" s="7"/>
       <c r="S357" s="7"/>
       <c r="T357" s="7">
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="358" spans="1:20">
       <c r="A358" s="12">
-        <v>41110</v>
+        <v>41093</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -55128,10 +55994,10 @@
       <c r="F358" s="7"/>
       <c r="G358" s="7"/>
       <c r="H358" s="7"/>
-      <c r="I358" s="7">
-        <v>15</v>
-      </c>
-      <c r="J358" s="7"/>
+      <c r="I358" s="7"/>
+      <c r="J358" s="7">
+        <v>100</v>
+      </c>
       <c r="K358" s="7"/>
       <c r="L358" s="7"/>
       <c r="M358" s="7"/>
@@ -55142,24 +56008,26 @@
       <c r="R358" s="7"/>
       <c r="S358" s="7"/>
       <c r="T358" s="7">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="359" spans="1:20">
       <c r="A359" s="12">
-        <v>41116</v>
+        <v>41095</v>
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
       <c r="F359" s="7"/>
-      <c r="G359" s="7"/>
+      <c r="G359" s="7">
+        <v>70</v>
+      </c>
       <c r="H359" s="7"/>
-      <c r="I359" s="7">
-        <v>83</v>
-      </c>
-      <c r="J359" s="7"/>
+      <c r="I359" s="7"/>
+      <c r="J359" s="7">
+        <v>98</v>
+      </c>
       <c r="K359" s="7"/>
       <c r="L359" s="7"/>
       <c r="M359" s="7"/>
@@ -55170,12 +56038,12 @@
       <c r="R359" s="7"/>
       <c r="S359" s="7"/>
       <c r="T359" s="7">
-        <v>83</v>
+        <v>168</v>
       </c>
     </row>
     <row r="360" spans="1:20">
       <c r="A360" s="12">
-        <v>41136</v>
+        <v>41100</v>
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -55183,11 +56051,9 @@
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
       <c r="G360" s="7"/>
-      <c r="H360" s="7">
-        <v>55</v>
-      </c>
+      <c r="H360" s="7"/>
       <c r="I360" s="7">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="J360" s="7"/>
       <c r="K360" s="7"/>
@@ -55200,23 +56066,23 @@
       <c r="R360" s="7"/>
       <c r="S360" s="7"/>
       <c r="T360" s="7">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="361" spans="1:20">
       <c r="A361" s="12">
-        <v>41138</v>
+        <v>41108</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
       <c r="F361" s="7"/>
-      <c r="G361" s="7">
-        <v>100.4</v>
-      </c>
+      <c r="G361" s="7"/>
       <c r="H361" s="7"/>
-      <c r="I361" s="7"/>
+      <c r="I361" s="7">
+        <v>63</v>
+      </c>
       <c r="J361" s="7"/>
       <c r="K361" s="7"/>
       <c r="L361" s="7"/>
@@ -55228,12 +56094,12 @@
       <c r="R361" s="7"/>
       <c r="S361" s="7"/>
       <c r="T361" s="7">
-        <v>100.4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="362" spans="1:20">
       <c r="A362" s="12">
-        <v>41151</v>
+        <v>41110</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -55242,10 +56108,10 @@
       <c r="F362" s="7"/>
       <c r="G362" s="7"/>
       <c r="H362" s="7"/>
-      <c r="I362" s="7"/>
-      <c r="J362" s="7">
-        <v>100</v>
-      </c>
+      <c r="I362" s="7">
+        <v>15</v>
+      </c>
+      <c r="J362" s="7"/>
       <c r="K362" s="7"/>
       <c r="L362" s="7"/>
       <c r="M362" s="7"/>
@@ -55256,12 +56122,12 @@
       <c r="R362" s="7"/>
       <c r="S362" s="7"/>
       <c r="T362" s="7">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="363" spans="1:20">
       <c r="A363" s="12">
-        <v>41156</v>
+        <v>41116</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -55271,7 +56137,7 @@
       <c r="G363" s="7"/>
       <c r="H363" s="7"/>
       <c r="I363" s="7">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="J363" s="7"/>
       <c r="K363" s="7"/>
@@ -55284,12 +56150,12 @@
       <c r="R363" s="7"/>
       <c r="S363" s="7"/>
       <c r="T363" s="7">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="364" spans="1:20">
       <c r="A364" s="12">
-        <v>41161</v>
+        <v>41136</v>
       </c>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -55297,9 +56163,11 @@
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
       <c r="G364" s="7"/>
-      <c r="H364" s="7"/>
+      <c r="H364" s="7">
+        <v>55</v>
+      </c>
       <c r="I364" s="7">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J364" s="7"/>
       <c r="K364" s="7"/>
@@ -55312,42 +56180,40 @@
       <c r="R364" s="7"/>
       <c r="S364" s="7"/>
       <c r="T364" s="7">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="365" spans="1:20">
       <c r="A365" s="12">
-        <v>41162</v>
+        <v>41138</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
-      <c r="G365" s="7"/>
+      <c r="G365" s="7">
+        <v>100.4</v>
+      </c>
       <c r="H365" s="7"/>
       <c r="I365" s="7"/>
-      <c r="J365" s="7">
-        <v>100</v>
-      </c>
+      <c r="J365" s="7"/>
       <c r="K365" s="7"/>
       <c r="L365" s="7"/>
       <c r="M365" s="7"/>
-      <c r="N365" s="7">
-        <v>48</v>
-      </c>
+      <c r="N365" s="7"/>
       <c r="O365" s="7"/>
       <c r="P365" s="7"/>
       <c r="Q365" s="7"/>
       <c r="R365" s="7"/>
       <c r="S365" s="7"/>
       <c r="T365" s="7">
-        <v>148</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="366" spans="1:20">
       <c r="A366" s="12">
-        <v>41166</v>
+        <v>41151</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -55357,13 +56223,13 @@
       <c r="G366" s="7"/>
       <c r="H366" s="7"/>
       <c r="I366" s="7"/>
-      <c r="J366" s="7"/>
+      <c r="J366" s="7">
+        <v>100</v>
+      </c>
       <c r="K366" s="7"/>
       <c r="L366" s="7"/>
       <c r="M366" s="7"/>
-      <c r="N366" s="7">
-        <v>100</v>
-      </c>
+      <c r="N366" s="7"/>
       <c r="O366" s="7"/>
       <c r="P366" s="7"/>
       <c r="Q366" s="7"/>
@@ -55375,7 +56241,7 @@
     </row>
     <row r="367" spans="1:20">
       <c r="A367" s="12">
-        <v>41171</v>
+        <v>41156</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -55384,37 +56250,37 @@
       <c r="F367" s="7"/>
       <c r="G367" s="7"/>
       <c r="H367" s="7"/>
-      <c r="I367" s="7"/>
+      <c r="I367" s="7">
+        <v>15</v>
+      </c>
       <c r="J367" s="7"/>
       <c r="K367" s="7"/>
       <c r="L367" s="7"/>
       <c r="M367" s="7"/>
-      <c r="N367" s="7">
-        <v>10</v>
-      </c>
+      <c r="N367" s="7"/>
       <c r="O367" s="7"/>
       <c r="P367" s="7"/>
       <c r="Q367" s="7"/>
       <c r="R367" s="7"/>
       <c r="S367" s="7"/>
       <c r="T367" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="368" spans="1:20">
       <c r="A368" s="12">
-        <v>41175</v>
+        <v>41161</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
-      <c r="F368" s="7">
-        <v>100</v>
-      </c>
+      <c r="F368" s="7"/>
       <c r="G368" s="7"/>
       <c r="H368" s="7"/>
-      <c r="I368" s="7"/>
+      <c r="I368" s="7">
+        <v>76</v>
+      </c>
       <c r="J368" s="7"/>
       <c r="K368" s="7"/>
       <c r="L368" s="7"/>
@@ -55426,33 +56292,29 @@
       <c r="R368" s="7"/>
       <c r="S368" s="7"/>
       <c r="T368" s="7">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="369" spans="1:20">
       <c r="A369" s="12">
-        <v>41197</v>
-      </c>
-      <c r="B369" s="7">
-        <v>10</v>
-      </c>
+        <v>41162</v>
+      </c>
+      <c r="B369" s="7"/>
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
       <c r="F369" s="7"/>
-      <c r="G369" s="7">
-        <v>10</v>
-      </c>
+      <c r="G369" s="7"/>
       <c r="H369" s="7"/>
       <c r="I369" s="7"/>
       <c r="J369" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K369" s="7"/>
       <c r="L369" s="7"/>
       <c r="M369" s="7"/>
       <c r="N369" s="7">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="O369" s="7"/>
       <c r="P369" s="7"/>
@@ -55460,12 +56322,12 @@
       <c r="R369" s="7"/>
       <c r="S369" s="7"/>
       <c r="T369" s="7">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="370" spans="1:20">
       <c r="A370" s="12">
-        <v>41198</v>
+        <v>41166</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -55480,7 +56342,7 @@
       <c r="L370" s="7"/>
       <c r="M370" s="7"/>
       <c r="N370" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="O370" s="7"/>
       <c r="P370" s="7"/>
@@ -55488,12 +56350,12 @@
       <c r="R370" s="7"/>
       <c r="S370" s="7"/>
       <c r="T370" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="371" spans="1:20">
       <c r="A371" s="12">
-        <v>41205</v>
+        <v>41171</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -55503,18 +56365,12 @@
       <c r="G371" s="7"/>
       <c r="H371" s="7"/>
       <c r="I371" s="7"/>
-      <c r="J371" s="7">
-        <v>162</v>
-      </c>
-      <c r="K371" s="7">
-        <v>100</v>
-      </c>
+      <c r="J371" s="7"/>
+      <c r="K371" s="7"/>
       <c r="L371" s="7"/>
-      <c r="M371" s="7">
-        <v>100</v>
-      </c>
+      <c r="M371" s="7"/>
       <c r="N371" s="7">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="O371" s="7"/>
       <c r="P371" s="7"/>
@@ -55522,24 +56378,24 @@
       <c r="R371" s="7"/>
       <c r="S371" s="7"/>
       <c r="T371" s="7">
-        <v>432</v>
+        <v>10</v>
       </c>
     </row>
     <row r="372" spans="1:20">
       <c r="A372" s="12">
-        <v>41214</v>
+        <v>41175</v>
       </c>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
-      <c r="F372" s="7"/>
+      <c r="F372" s="7">
+        <v>100</v>
+      </c>
       <c r="G372" s="7"/>
       <c r="H372" s="7"/>
       <c r="I372" s="7"/>
-      <c r="J372" s="7">
-        <v>2</v>
-      </c>
+      <c r="J372" s="7"/>
       <c r="K372" s="7"/>
       <c r="L372" s="7"/>
       <c r="M372" s="7"/>
@@ -55550,40 +56406,46 @@
       <c r="R372" s="7"/>
       <c r="S372" s="7"/>
       <c r="T372" s="7">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="373" spans="1:20">
       <c r="A373" s="12">
-        <v>41215</v>
-      </c>
-      <c r="B373" s="7"/>
+        <v>41197</v>
+      </c>
+      <c r="B373" s="7">
+        <v>10</v>
+      </c>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
-      <c r="G373" s="7"/>
+      <c r="G373" s="7">
+        <v>10</v>
+      </c>
       <c r="H373" s="7"/>
       <c r="I373" s="7"/>
       <c r="J373" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K373" s="7"/>
       <c r="L373" s="7"/>
       <c r="M373" s="7"/>
-      <c r="N373" s="7"/>
+      <c r="N373" s="7">
+        <v>60</v>
+      </c>
       <c r="O373" s="7"/>
       <c r="P373" s="7"/>
       <c r="Q373" s="7"/>
       <c r="R373" s="7"/>
       <c r="S373" s="7"/>
       <c r="T373" s="7">
-        <v>4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="374" spans="1:20">
       <c r="A374" s="12">
-        <v>41237</v>
+        <v>41198</v>
       </c>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -55593,57 +56455,59 @@
       <c r="G374" s="7"/>
       <c r="H374" s="7"/>
       <c r="I374" s="7"/>
-      <c r="J374" s="7">
-        <v>100</v>
-      </c>
-      <c r="K374" s="7">
-        <v>100</v>
-      </c>
+      <c r="J374" s="7"/>
+      <c r="K374" s="7"/>
       <c r="L374" s="7"/>
       <c r="M374" s="7"/>
-      <c r="N374" s="7"/>
+      <c r="N374" s="7">
+        <v>40</v>
+      </c>
       <c r="O374" s="7"/>
       <c r="P374" s="7"/>
       <c r="Q374" s="7"/>
       <c r="R374" s="7"/>
       <c r="S374" s="7"/>
       <c r="T374" s="7">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="375" spans="1:20">
       <c r="A375" s="12">
-        <v>41242</v>
+        <v>41205</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
       <c r="F375" s="7"/>
-      <c r="G375" s="7">
-        <v>100</v>
-      </c>
+      <c r="G375" s="7"/>
       <c r="H375" s="7"/>
       <c r="I375" s="7"/>
       <c r="J375" s="7">
-        <v>81</v>
-      </c>
-      <c r="K375" s="7"/>
+        <v>162</v>
+      </c>
+      <c r="K375" s="7">
+        <v>100</v>
+      </c>
       <c r="L375" s="7"/>
-      <c r="M375" s="7"/>
-      <c r="N375" s="7"/>
+      <c r="M375" s="7">
+        <v>100</v>
+      </c>
+      <c r="N375" s="7">
+        <v>70</v>
+      </c>
       <c r="O375" s="7"/>
       <c r="P375" s="7"/>
       <c r="Q375" s="7"/>
       <c r="R375" s="7"/>
       <c r="S375" s="7"/>
       <c r="T375" s="7">
-        <v>181</v>
+        <v>432</v>
       </c>
     </row>
     <row r="376" spans="1:20">
       <c r="A376" s="12">
-        <v>41253</v>
+        <v>41214</v>
       </c>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -55654,7 +56518,7 @@
       <c r="H376" s="7"/>
       <c r="I376" s="7"/>
       <c r="J376" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K376" s="7"/>
       <c r="L376" s="7"/>
@@ -55666,24 +56530,24 @@
       <c r="R376" s="7"/>
       <c r="S376" s="7"/>
       <c r="T376" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:20">
       <c r="A377" s="12">
-        <v>41268</v>
+        <v>41215</v>
       </c>
       <c r="B377" s="7"/>
-      <c r="C377" s="7">
-        <v>24</v>
-      </c>
+      <c r="C377" s="7"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
       <c r="F377" s="7"/>
       <c r="G377" s="7"/>
       <c r="H377" s="7"/>
       <c r="I377" s="7"/>
-      <c r="J377" s="7"/>
+      <c r="J377" s="7">
+        <v>4</v>
+      </c>
       <c r="K377" s="7"/>
       <c r="L377" s="7"/>
       <c r="M377" s="7"/>
@@ -55694,25 +56558,27 @@
       <c r="R377" s="7"/>
       <c r="S377" s="7"/>
       <c r="T377" s="7">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:20">
       <c r="A378" s="12">
-        <v>41281</v>
+        <v>41237</v>
       </c>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
       <c r="F378" s="7"/>
-      <c r="G378" s="7">
-        <v>200</v>
-      </c>
+      <c r="G378" s="7"/>
       <c r="H378" s="7"/>
       <c r="I378" s="7"/>
-      <c r="J378" s="7"/>
-      <c r="K378" s="7"/>
+      <c r="J378" s="7">
+        <v>100</v>
+      </c>
+      <c r="K378" s="7">
+        <v>100</v>
+      </c>
       <c r="L378" s="7"/>
       <c r="M378" s="7"/>
       <c r="N378" s="7"/>
@@ -55727,20 +56593,20 @@
     </row>
     <row r="379" spans="1:20">
       <c r="A379" s="12">
-        <v>41310</v>
+        <v>41242</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
       <c r="F379" s="7"/>
-      <c r="G379" s="7"/>
+      <c r="G379" s="7">
+        <v>100</v>
+      </c>
       <c r="H379" s="7"/>
-      <c r="I379" s="7">
-        <v>22</v>
-      </c>
+      <c r="I379" s="7"/>
       <c r="J379" s="7">
-        <v>31.9</v>
+        <v>81</v>
       </c>
       <c r="K379" s="7"/>
       <c r="L379" s="7"/>
@@ -55752,24 +56618,24 @@
       <c r="R379" s="7"/>
       <c r="S379" s="7"/>
       <c r="T379" s="7">
-        <v>53.9</v>
+        <v>181</v>
       </c>
     </row>
     <row r="380" spans="1:20">
       <c r="A380" s="12">
-        <v>41323</v>
+        <v>41253</v>
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
       <c r="F380" s="7"/>
-      <c r="G380" s="7">
-        <v>119.6</v>
-      </c>
+      <c r="G380" s="7"/>
       <c r="H380" s="7"/>
       <c r="I380" s="7"/>
-      <c r="J380" s="7"/>
+      <c r="J380" s="7">
+        <v>10</v>
+      </c>
       <c r="K380" s="7"/>
       <c r="L380" s="7"/>
       <c r="M380" s="7"/>
@@ -55780,21 +56646,21 @@
       <c r="R380" s="7"/>
       <c r="S380" s="7"/>
       <c r="T380" s="7">
-        <v>119.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="381" spans="1:20">
       <c r="A381" s="12">
-        <v>41331</v>
+        <v>41268</v>
       </c>
       <c r="B381" s="7"/>
-      <c r="C381" s="7"/>
+      <c r="C381" s="7">
+        <v>24</v>
+      </c>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
       <c r="F381" s="7"/>
-      <c r="G381" s="7">
-        <v>100</v>
-      </c>
+      <c r="G381" s="7"/>
       <c r="H381" s="7"/>
       <c r="I381" s="7"/>
       <c r="J381" s="7"/>
@@ -55808,24 +56674,24 @@
       <c r="R381" s="7"/>
       <c r="S381" s="7"/>
       <c r="T381" s="7">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="382" spans="1:20">
       <c r="A382" s="12">
-        <v>41361</v>
+        <v>41281</v>
       </c>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
-      <c r="G382" s="7"/>
+      <c r="G382" s="7">
+        <v>200</v>
+      </c>
       <c r="H382" s="7"/>
       <c r="I382" s="7"/>
-      <c r="J382" s="7">
-        <v>40</v>
-      </c>
+      <c r="J382" s="7"/>
       <c r="K382" s="7"/>
       <c r="L382" s="7"/>
       <c r="M382" s="7"/>
@@ -55836,12 +56702,12 @@
       <c r="R382" s="7"/>
       <c r="S382" s="7"/>
       <c r="T382" s="7">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="383" spans="1:20">
       <c r="A383" s="12">
-        <v>41373</v>
+        <v>41310</v>
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
@@ -55851,9 +56717,11 @@
       <c r="G383" s="7"/>
       <c r="H383" s="7"/>
       <c r="I383" s="7">
-        <v>91</v>
-      </c>
-      <c r="J383" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="J383" s="7">
+        <v>31.9</v>
+      </c>
       <c r="K383" s="7"/>
       <c r="L383" s="7"/>
       <c r="M383" s="7"/>
@@ -55864,40 +56732,40 @@
       <c r="R383" s="7"/>
       <c r="S383" s="7"/>
       <c r="T383" s="7">
-        <v>91</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="384" spans="1:20">
       <c r="A384" s="12">
-        <v>41374</v>
+        <v>41323</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
-      <c r="G384" s="7"/>
+      <c r="G384" s="7">
+        <v>119.6</v>
+      </c>
       <c r="H384" s="7"/>
       <c r="I384" s="7"/>
       <c r="J384" s="7"/>
       <c r="K384" s="7"/>
       <c r="L384" s="7"/>
       <c r="M384" s="7"/>
-      <c r="N384" s="7">
-        <v>75</v>
-      </c>
+      <c r="N384" s="7"/>
       <c r="O384" s="7"/>
       <c r="P384" s="7"/>
       <c r="Q384" s="7"/>
       <c r="R384" s="7"/>
       <c r="S384" s="7"/>
       <c r="T384" s="7">
-        <v>75</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="385" spans="1:20">
       <c r="A385" s="12">
-        <v>41376</v>
+        <v>41331</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -55905,7 +56773,7 @@
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
       <c r="G385" s="7">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H385" s="7"/>
       <c r="I385" s="7"/>
@@ -55914,22 +56782,18 @@
       <c r="L385" s="7"/>
       <c r="M385" s="7"/>
       <c r="N385" s="7"/>
-      <c r="O385" s="7">
-        <v>50</v>
-      </c>
-      <c r="P385" s="7">
-        <v>100</v>
-      </c>
+      <c r="O385" s="7"/>
+      <c r="P385" s="7"/>
       <c r="Q385" s="7"/>
       <c r="R385" s="7"/>
       <c r="S385" s="7"/>
       <c r="T385" s="7">
-        <v>247</v>
+        <v>100</v>
       </c>
     </row>
     <row r="386" spans="1:20">
       <c r="A386" s="12">
-        <v>41382</v>
+        <v>41361</v>
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -55939,12 +56803,12 @@
       <c r="G386" s="7"/>
       <c r="H386" s="7"/>
       <c r="I386" s="7"/>
-      <c r="J386" s="7"/>
+      <c r="J386" s="7">
+        <v>40</v>
+      </c>
       <c r="K386" s="7"/>
       <c r="L386" s="7"/>
-      <c r="M386" s="7">
-        <v>100</v>
-      </c>
+      <c r="M386" s="7"/>
       <c r="N386" s="7"/>
       <c r="O386" s="7"/>
       <c r="P386" s="7"/>
@@ -55952,12 +56816,12 @@
       <c r="R386" s="7"/>
       <c r="S386" s="7"/>
       <c r="T386" s="7">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="387" spans="1:20">
       <c r="A387" s="12">
-        <v>41383</v>
+        <v>41373</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -55966,26 +56830,26 @@
       <c r="F387" s="7"/>
       <c r="G387" s="7"/>
       <c r="H387" s="7"/>
-      <c r="I387" s="7"/>
+      <c r="I387" s="7">
+        <v>91</v>
+      </c>
       <c r="J387" s="7"/>
       <c r="K387" s="7"/>
       <c r="L387" s="7"/>
       <c r="M387" s="7"/>
       <c r="N387" s="7"/>
-      <c r="O387" s="7">
-        <v>100</v>
-      </c>
+      <c r="O387" s="7"/>
       <c r="P387" s="7"/>
       <c r="Q387" s="7"/>
       <c r="R387" s="7"/>
       <c r="S387" s="7"/>
       <c r="T387" s="7">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="388" spans="1:20">
       <c r="A388" s="12">
-        <v>41386</v>
+        <v>41374</v>
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -56000,7 +56864,7 @@
       <c r="L388" s="7"/>
       <c r="M388" s="7"/>
       <c r="N388" s="7">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="O388" s="7"/>
       <c r="P388" s="7"/>
@@ -56008,72 +56872,72 @@
       <c r="R388" s="7"/>
       <c r="S388" s="7"/>
       <c r="T388" s="7">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="389" spans="1:20">
       <c r="A389" s="12">
-        <v>41387</v>
+        <v>41376</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
       <c r="F389" s="7"/>
-      <c r="G389" s="7"/>
+      <c r="G389" s="7">
+        <v>97</v>
+      </c>
       <c r="H389" s="7"/>
       <c r="I389" s="7"/>
       <c r="J389" s="7"/>
       <c r="K389" s="7"/>
       <c r="L389" s="7"/>
       <c r="M389" s="7"/>
-      <c r="N389" s="7">
-        <v>30</v>
-      </c>
-      <c r="O389" s="7"/>
-      <c r="P389" s="7"/>
+      <c r="N389" s="7"/>
+      <c r="O389" s="7">
+        <v>50</v>
+      </c>
+      <c r="P389" s="7">
+        <v>100</v>
+      </c>
       <c r="Q389" s="7"/>
       <c r="R389" s="7"/>
       <c r="S389" s="7"/>
       <c r="T389" s="7">
-        <v>30</v>
+        <v>247</v>
       </c>
     </row>
     <row r="390" spans="1:20">
       <c r="A390" s="12">
-        <v>41388</v>
+        <v>41382</v>
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
-      <c r="G390" s="7">
-        <v>20</v>
-      </c>
+      <c r="G390" s="7"/>
       <c r="H390" s="7"/>
       <c r="I390" s="7"/>
       <c r="J390" s="7"/>
       <c r="K390" s="7"/>
       <c r="L390" s="7"/>
       <c r="M390" s="7">
-        <v>40</v>
-      </c>
-      <c r="N390" s="7">
-        <v>11</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N390" s="7"/>
       <c r="O390" s="7"/>
       <c r="P390" s="7"/>
       <c r="Q390" s="7"/>
       <c r="R390" s="7"/>
       <c r="S390" s="7"/>
       <c r="T390" s="7">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="391" spans="1:20">
       <c r="A391" s="12">
-        <v>41390</v>
+        <v>41383</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -56082,26 +56946,26 @@
       <c r="F391" s="7"/>
       <c r="G391" s="7"/>
       <c r="H391" s="7"/>
-      <c r="I391" s="7">
-        <v>120</v>
-      </c>
+      <c r="I391" s="7"/>
       <c r="J391" s="7"/>
       <c r="K391" s="7"/>
       <c r="L391" s="7"/>
       <c r="M391" s="7"/>
       <c r="N391" s="7"/>
-      <c r="O391" s="7"/>
+      <c r="O391" s="7">
+        <v>100</v>
+      </c>
       <c r="P391" s="7"/>
       <c r="Q391" s="7"/>
       <c r="R391" s="7"/>
       <c r="S391" s="7"/>
       <c r="T391" s="7">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="392" spans="1:20">
       <c r="A392" s="12">
-        <v>41397</v>
+        <v>41386</v>
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -56109,16 +56973,14 @@
       <c r="E392" s="7"/>
       <c r="F392" s="7"/>
       <c r="G392" s="7"/>
-      <c r="H392" s="7">
-        <v>50</v>
-      </c>
+      <c r="H392" s="7"/>
       <c r="I392" s="7"/>
       <c r="J392" s="7"/>
       <c r="K392" s="7"/>
       <c r="L392" s="7"/>
       <c r="M392" s="7"/>
       <c r="N392" s="7">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="O392" s="7"/>
       <c r="P392" s="7"/>
@@ -56126,12 +56988,12 @@
       <c r="R392" s="7"/>
       <c r="S392" s="7"/>
       <c r="T392" s="7">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="393" spans="1:20">
       <c r="A393" s="12">
-        <v>41401</v>
+        <v>41387</v>
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -56145,51 +57007,53 @@
       <c r="K393" s="7"/>
       <c r="L393" s="7"/>
       <c r="M393" s="7"/>
-      <c r="N393" s="7"/>
+      <c r="N393" s="7">
+        <v>30</v>
+      </c>
       <c r="O393" s="7"/>
-      <c r="P393" s="7">
-        <v>100</v>
-      </c>
+      <c r="P393" s="7"/>
       <c r="Q393" s="7"/>
       <c r="R393" s="7"/>
       <c r="S393" s="7"/>
       <c r="T393" s="7">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="394" spans="1:20">
       <c r="A394" s="12">
-        <v>41402</v>
+        <v>41388</v>
       </c>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
       <c r="F394" s="7"/>
-      <c r="G394" s="7"/>
+      <c r="G394" s="7">
+        <v>20</v>
+      </c>
       <c r="H394" s="7"/>
       <c r="I394" s="7"/>
       <c r="J394" s="7"/>
-      <c r="K394" s="7">
-        <v>100</v>
-      </c>
+      <c r="K394" s="7"/>
       <c r="L394" s="7"/>
-      <c r="M394" s="7"/>
-      <c r="N394" s="7"/>
-      <c r="O394" s="7">
-        <v>50</v>
-      </c>
+      <c r="M394" s="7">
+        <v>40</v>
+      </c>
+      <c r="N394" s="7">
+        <v>11</v>
+      </c>
+      <c r="O394" s="7"/>
       <c r="P394" s="7"/>
       <c r="Q394" s="7"/>
       <c r="R394" s="7"/>
       <c r="S394" s="7"/>
       <c r="T394" s="7">
-        <v>150</v>
+        <v>71</v>
       </c>
     </row>
     <row r="395" spans="1:20">
       <c r="A395" s="12">
-        <v>41403</v>
+        <v>41390</v>
       </c>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -56197,45 +57061,39 @@
       <c r="E395" s="7"/>
       <c r="F395" s="7"/>
       <c r="G395" s="7"/>
-      <c r="H395" s="7">
-        <v>100</v>
-      </c>
-      <c r="I395" s="7"/>
+      <c r="H395" s="7"/>
+      <c r="I395" s="7">
+        <v>120</v>
+      </c>
       <c r="J395" s="7"/>
       <c r="K395" s="7"/>
-      <c r="L395" s="7">
-        <v>100</v>
-      </c>
+      <c r="L395" s="7"/>
       <c r="M395" s="7"/>
       <c r="N395" s="7"/>
       <c r="O395" s="7"/>
       <c r="P395" s="7"/>
       <c r="Q395" s="7"/>
-      <c r="R395" s="7">
-        <v>50</v>
-      </c>
+      <c r="R395" s="7"/>
       <c r="S395" s="7"/>
       <c r="T395" s="7">
-        <v>250</v>
+        <v>120</v>
       </c>
     </row>
     <row r="396" spans="1:20">
       <c r="A396" s="12">
-        <v>41407</v>
+        <v>41397</v>
       </c>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
       <c r="F396" s="7"/>
-      <c r="G396" s="7">
-        <v>100</v>
-      </c>
-      <c r="H396" s="7"/>
+      <c r="G396" s="7"/>
+      <c r="H396" s="7">
+        <v>50</v>
+      </c>
       <c r="I396" s="7"/>
-      <c r="J396" s="7">
-        <v>100</v>
-      </c>
+      <c r="J396" s="7"/>
       <c r="K396" s="7"/>
       <c r="L396" s="7"/>
       <c r="M396" s="7"/>
@@ -56248,12 +57106,12 @@
       <c r="R396" s="7"/>
       <c r="S396" s="7"/>
       <c r="T396" s="7">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="397" spans="1:20">
       <c r="A397" s="12">
-        <v>41410</v>
+        <v>41401</v>
       </c>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -56262,26 +57120,26 @@
       <c r="F397" s="7"/>
       <c r="G397" s="7"/>
       <c r="H397" s="7"/>
-      <c r="I397" s="7">
-        <v>200</v>
-      </c>
+      <c r="I397" s="7"/>
       <c r="J397" s="7"/>
       <c r="K397" s="7"/>
       <c r="L397" s="7"/>
       <c r="M397" s="7"/>
       <c r="N397" s="7"/>
       <c r="O397" s="7"/>
-      <c r="P397" s="7"/>
+      <c r="P397" s="7">
+        <v>100</v>
+      </c>
       <c r="Q397" s="7"/>
       <c r="R397" s="7"/>
       <c r="S397" s="7"/>
       <c r="T397" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="398" spans="1:20">
       <c r="A398" s="12">
-        <v>41411</v>
+        <v>41402</v>
       </c>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -56292,26 +57150,26 @@
       <c r="H398" s="7"/>
       <c r="I398" s="7"/>
       <c r="J398" s="7"/>
-      <c r="K398" s="7"/>
+      <c r="K398" s="7">
+        <v>100</v>
+      </c>
       <c r="L398" s="7"/>
-      <c r="M398" s="7">
-        <v>300</v>
-      </c>
+      <c r="M398" s="7"/>
       <c r="N398" s="7"/>
       <c r="O398" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P398" s="7"/>
       <c r="Q398" s="7"/>
       <c r="R398" s="7"/>
       <c r="S398" s="7"/>
       <c r="T398" s="7">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="399" spans="1:20">
       <c r="A399" s="12">
-        <v>41414</v>
+        <v>41403</v>
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -56319,42 +57177,50 @@
       <c r="E399" s="7"/>
       <c r="F399" s="7"/>
       <c r="G399" s="7"/>
-      <c r="H399" s="7"/>
+      <c r="H399" s="7">
+        <v>100</v>
+      </c>
       <c r="I399" s="7"/>
-      <c r="J399" s="7">
+      <c r="J399" s="7"/>
+      <c r="K399" s="7"/>
+      <c r="L399" s="7">
         <v>100</v>
       </c>
-      <c r="K399" s="7"/>
-      <c r="L399" s="7"/>
       <c r="M399" s="7"/>
       <c r="N399" s="7"/>
       <c r="O399" s="7"/>
       <c r="P399" s="7"/>
       <c r="Q399" s="7"/>
-      <c r="R399" s="7"/>
+      <c r="R399" s="7">
+        <v>50</v>
+      </c>
       <c r="S399" s="7"/>
       <c r="T399" s="7">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="400" spans="1:20">
       <c r="A400" s="12">
-        <v>41416</v>
+        <v>41407</v>
       </c>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
       <c r="F400" s="7"/>
-      <c r="G400" s="7"/>
+      <c r="G400" s="7">
+        <v>100</v>
+      </c>
       <c r="H400" s="7"/>
       <c r="I400" s="7"/>
-      <c r="J400" s="7"/>
+      <c r="J400" s="7">
+        <v>100</v>
+      </c>
       <c r="K400" s="7"/>
       <c r="L400" s="7"/>
       <c r="M400" s="7"/>
       <c r="N400" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O400" s="7"/>
       <c r="P400" s="7"/>
@@ -56362,12 +57228,12 @@
       <c r="R400" s="7"/>
       <c r="S400" s="7"/>
       <c r="T400" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="401" spans="1:20">
       <c r="A401" s="12">
-        <v>41424</v>
+        <v>41410</v>
       </c>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
@@ -56377,7 +57243,7 @@
       <c r="G401" s="7"/>
       <c r="H401" s="7"/>
       <c r="I401" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J401" s="7"/>
       <c r="K401" s="7"/>
@@ -56390,12 +57256,12 @@
       <c r="R401" s="7"/>
       <c r="S401" s="7"/>
       <c r="T401" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="402" spans="1:20">
       <c r="A402" s="12">
-        <v>41429</v>
+        <v>41411</v>
       </c>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -56408,7 +57274,9 @@
       <c r="J402" s="7"/>
       <c r="K402" s="7"/>
       <c r="L402" s="7"/>
-      <c r="M402" s="7"/>
+      <c r="M402" s="7">
+        <v>300</v>
+      </c>
       <c r="N402" s="7"/>
       <c r="O402" s="7">
         <v>100</v>
@@ -56418,24 +57286,24 @@
       <c r="R402" s="7"/>
       <c r="S402" s="7"/>
       <c r="T402" s="7">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="403" spans="1:20">
       <c r="A403" s="12">
-        <v>41430</v>
+        <v>41414</v>
       </c>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
-      <c r="D403" s="7">
-        <v>100</v>
-      </c>
+      <c r="D403" s="7"/>
       <c r="E403" s="7"/>
       <c r="F403" s="7"/>
       <c r="G403" s="7"/>
       <c r="H403" s="7"/>
       <c r="I403" s="7"/>
-      <c r="J403" s="7"/>
+      <c r="J403" s="7">
+        <v>100</v>
+      </c>
       <c r="K403" s="7"/>
       <c r="L403" s="7"/>
       <c r="M403" s="7"/>
@@ -56451,7 +57319,7 @@
     </row>
     <row r="404" spans="1:20">
       <c r="A404" s="12">
-        <v>41431</v>
+        <v>41416</v>
       </c>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -56461,38 +57329,36 @@
       <c r="G404" s="7"/>
       <c r="H404" s="7"/>
       <c r="I404" s="7"/>
-      <c r="J404" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="J404" s="7"/>
       <c r="K404" s="7"/>
       <c r="L404" s="7"/>
       <c r="M404" s="7"/>
-      <c r="N404" s="7"/>
+      <c r="N404" s="7">
+        <v>200</v>
+      </c>
       <c r="O404" s="7"/>
       <c r="P404" s="7"/>
-      <c r="Q404" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q404" s="7"/>
       <c r="R404" s="7"/>
       <c r="S404" s="7"/>
       <c r="T404" s="7">
-        <v>280.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="405" spans="1:20">
       <c r="A405" s="12">
-        <v>41438</v>
+        <v>41424</v>
       </c>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
       <c r="F405" s="7"/>
-      <c r="G405" s="7">
-        <v>20</v>
-      </c>
+      <c r="G405" s="7"/>
       <c r="H405" s="7"/>
-      <c r="I405" s="7"/>
+      <c r="I405" s="7">
+        <v>100</v>
+      </c>
       <c r="J405" s="7"/>
       <c r="K405" s="7"/>
       <c r="L405" s="7"/>
@@ -56504,12 +57370,12 @@
       <c r="R405" s="7"/>
       <c r="S405" s="7"/>
       <c r="T405" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="406" spans="1:20">
       <c r="A406" s="12">
-        <v>41439</v>
+        <v>41429</v>
       </c>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -56524,12 +57390,12 @@
       <c r="L406" s="7"/>
       <c r="M406" s="7"/>
       <c r="N406" s="7"/>
-      <c r="O406" s="7"/>
+      <c r="O406" s="7">
+        <v>100</v>
+      </c>
       <c r="P406" s="7"/>
       <c r="Q406" s="7"/>
-      <c r="R406" s="7">
-        <v>100</v>
-      </c>
+      <c r="R406" s="7"/>
       <c r="S406" s="7"/>
       <c r="T406" s="7">
         <v>100</v>
@@ -56537,7 +57403,7 @@
     </row>
     <row r="407" spans="1:20">
       <c r="A407" s="12">
-        <v>41443</v>
+        <v>41430</v>
       </c>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -56565,7 +57431,7 @@
     </row>
     <row r="408" spans="1:20">
       <c r="A408" s="12">
-        <v>41444</v>
+        <v>41431</v>
       </c>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -56575,55 +57441,55 @@
       <c r="G408" s="7"/>
       <c r="H408" s="7"/>
       <c r="I408" s="7"/>
-      <c r="J408" s="7"/>
+      <c r="J408" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K408" s="7"/>
       <c r="L408" s="7"/>
-      <c r="M408" s="7">
-        <v>200</v>
-      </c>
+      <c r="M408" s="7"/>
       <c r="N408" s="7"/>
       <c r="O408" s="7"/>
       <c r="P408" s="7"/>
-      <c r="Q408" s="7"/>
+      <c r="Q408" s="7">
+        <v>200</v>
+      </c>
       <c r="R408" s="7"/>
       <c r="S408" s="7"/>
       <c r="T408" s="7">
-        <v>200</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="409" spans="1:20">
       <c r="A409" s="12">
-        <v>41450</v>
+        <v>41438</v>
       </c>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
       <c r="F409" s="7"/>
-      <c r="G409" s="7"/>
+      <c r="G409" s="7">
+        <v>20</v>
+      </c>
       <c r="H409" s="7"/>
       <c r="I409" s="7"/>
       <c r="J409" s="7"/>
       <c r="K409" s="7"/>
       <c r="L409" s="7"/>
       <c r="M409" s="7"/>
-      <c r="N409" s="7">
-        <v>140</v>
-      </c>
-      <c r="O409" s="7">
-        <v>100</v>
-      </c>
+      <c r="N409" s="7"/>
+      <c r="O409" s="7"/>
       <c r="P409" s="7"/>
       <c r="Q409" s="7"/>
       <c r="R409" s="7"/>
       <c r="S409" s="7"/>
       <c r="T409" s="7">
-        <v>240</v>
+        <v>20</v>
       </c>
     </row>
     <row r="410" spans="1:20">
       <c r="A410" s="12">
-        <v>41451</v>
+        <v>41439</v>
       </c>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -56633,40 +57499,36 @@
       <c r="G410" s="7"/>
       <c r="H410" s="7"/>
       <c r="I410" s="7"/>
-      <c r="J410" s="7">
-        <v>100</v>
-      </c>
-      <c r="K410" s="7">
-        <v>100</v>
-      </c>
+      <c r="J410" s="7"/>
+      <c r="K410" s="7"/>
       <c r="L410" s="7"/>
       <c r="M410" s="7"/>
-      <c r="N410" s="7">
-        <v>200</v>
-      </c>
+      <c r="N410" s="7"/>
       <c r="O410" s="7"/>
       <c r="P410" s="7"/>
       <c r="Q410" s="7"/>
-      <c r="R410" s="7"/>
+      <c r="R410" s="7">
+        <v>100</v>
+      </c>
       <c r="S410" s="7"/>
       <c r="T410" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="411" spans="1:20">
       <c r="A411" s="12">
-        <v>41453</v>
+        <v>41443</v>
       </c>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
-      <c r="D411" s="7"/>
+      <c r="D411" s="7">
+        <v>100</v>
+      </c>
       <c r="E411" s="7"/>
       <c r="F411" s="7"/>
       <c r="G411" s="7"/>
       <c r="H411" s="7"/>
-      <c r="I411" s="7">
-        <v>200</v>
-      </c>
+      <c r="I411" s="7"/>
       <c r="J411" s="7"/>
       <c r="K411" s="7"/>
       <c r="L411" s="7"/>
@@ -56678,12 +57540,12 @@
       <c r="R411" s="7"/>
       <c r="S411" s="7"/>
       <c r="T411" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="412" spans="1:20">
       <c r="A412" s="12">
-        <v>41463</v>
+        <v>41444</v>
       </c>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -56695,10 +57557,10 @@
       <c r="I412" s="7"/>
       <c r="J412" s="7"/>
       <c r="K412" s="7"/>
-      <c r="L412" s="7">
-        <v>20</v>
-      </c>
-      <c r="M412" s="7"/>
+      <c r="L412" s="7"/>
+      <c r="M412" s="7">
+        <v>200</v>
+      </c>
       <c r="N412" s="7"/>
       <c r="O412" s="7"/>
       <c r="P412" s="7"/>
@@ -56706,12 +57568,12 @@
       <c r="R412" s="7"/>
       <c r="S412" s="7"/>
       <c r="T412" s="7">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="413" spans="1:20">
       <c r="A413" s="12">
-        <v>41464</v>
+        <v>41450</v>
       </c>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -56725,25 +57587,25 @@
       <c r="K413" s="7"/>
       <c r="L413" s="7"/>
       <c r="M413" s="7"/>
-      <c r="N413" s="7"/>
-      <c r="O413" s="7"/>
-      <c r="P413" s="7">
+      <c r="N413" s="7">
+        <v>140</v>
+      </c>
+      <c r="O413" s="7">
         <v>100</v>
       </c>
+      <c r="P413" s="7"/>
       <c r="Q413" s="7"/>
       <c r="R413" s="7"/>
       <c r="S413" s="7"/>
       <c r="T413" s="7">
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="414" spans="1:20">
       <c r="A414" s="12">
-        <v>41465</v>
-      </c>
-      <c r="B414" s="7">
-        <v>50</v>
-      </c>
+        <v>41451</v>
+      </c>
+      <c r="B414" s="7"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -56751,23 +57613,29 @@
       <c r="G414" s="7"/>
       <c r="H414" s="7"/>
       <c r="I414" s="7"/>
-      <c r="J414" s="7"/>
-      <c r="K414" s="7"/>
+      <c r="J414" s="7">
+        <v>100</v>
+      </c>
+      <c r="K414" s="7">
+        <v>100</v>
+      </c>
       <c r="L414" s="7"/>
       <c r="M414" s="7"/>
-      <c r="N414" s="7"/>
+      <c r="N414" s="7">
+        <v>200</v>
+      </c>
       <c r="O414" s="7"/>
       <c r="P414" s="7"/>
       <c r="Q414" s="7"/>
       <c r="R414" s="7"/>
       <c r="S414" s="7"/>
       <c r="T414" s="7">
-        <v>50</v>
+        <v>400</v>
       </c>
     </row>
     <row r="415" spans="1:20">
       <c r="A415" s="12">
-        <v>41466</v>
+        <v>41453</v>
       </c>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -56776,10 +57644,10 @@
       <c r="F415" s="7"/>
       <c r="G415" s="7"/>
       <c r="H415" s="7"/>
-      <c r="I415" s="7"/>
-      <c r="J415" s="7">
-        <v>100</v>
-      </c>
+      <c r="I415" s="7">
+        <v>200</v>
+      </c>
+      <c r="J415" s="7"/>
       <c r="K415" s="7"/>
       <c r="L415" s="7"/>
       <c r="M415" s="7"/>
@@ -56790,12 +57658,12 @@
       <c r="R415" s="7"/>
       <c r="S415" s="7"/>
       <c r="T415" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="416" spans="1:20">
       <c r="A416" s="12">
-        <v>41467</v>
+        <v>41463</v>
       </c>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -56807,23 +57675,23 @@
       <c r="I416" s="7"/>
       <c r="J416" s="7"/>
       <c r="K416" s="7"/>
-      <c r="L416" s="7"/>
+      <c r="L416" s="7">
+        <v>20</v>
+      </c>
       <c r="M416" s="7"/>
       <c r="N416" s="7"/>
       <c r="O416" s="7"/>
       <c r="P416" s="7"/>
       <c r="Q416" s="7"/>
-      <c r="R416" s="7">
-        <v>100</v>
-      </c>
+      <c r="R416" s="7"/>
       <c r="S416" s="7"/>
       <c r="T416" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="417" spans="1:20">
       <c r="A417" s="12">
-        <v>41472</v>
+        <v>41464</v>
       </c>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -56834,14 +57702,14 @@
       <c r="H417" s="7"/>
       <c r="I417" s="7"/>
       <c r="J417" s="7"/>
-      <c r="K417" s="7">
-        <v>100</v>
-      </c>
+      <c r="K417" s="7"/>
       <c r="L417" s="7"/>
       <c r="M417" s="7"/>
       <c r="N417" s="7"/>
       <c r="O417" s="7"/>
-      <c r="P417" s="7"/>
+      <c r="P417" s="7">
+        <v>100</v>
+      </c>
       <c r="Q417" s="7"/>
       <c r="R417" s="7"/>
       <c r="S417" s="7"/>
@@ -56851,19 +57719,17 @@
     </row>
     <row r="418" spans="1:20">
       <c r="A418" s="12">
-        <v>41474</v>
+        <v>41465</v>
       </c>
       <c r="B418" s="7">
-        <v>76.5</v>
+        <v>50</v>
       </c>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
       <c r="F418" s="7"/>
       <c r="G418" s="7"/>
-      <c r="H418" s="7">
-        <v>50</v>
-      </c>
+      <c r="H418" s="7"/>
       <c r="I418" s="7"/>
       <c r="J418" s="7"/>
       <c r="K418" s="7"/>
@@ -56871,33 +57737,29 @@
       <c r="M418" s="7"/>
       <c r="N418" s="7"/>
       <c r="O418" s="7"/>
-      <c r="P418" s="7">
-        <v>200</v>
-      </c>
-      <c r="Q418" s="7">
-        <v>200</v>
-      </c>
+      <c r="P418" s="7"/>
+      <c r="Q418" s="7"/>
       <c r="R418" s="7"/>
       <c r="S418" s="7"/>
       <c r="T418" s="7">
-        <v>526.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="419" spans="1:20">
       <c r="A419" s="12">
-        <v>41479</v>
+        <v>41466</v>
       </c>
       <c r="B419" s="7"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
       <c r="F419" s="7"/>
-      <c r="G419" s="7">
-        <v>100</v>
-      </c>
+      <c r="G419" s="7"/>
       <c r="H419" s="7"/>
       <c r="I419" s="7"/>
-      <c r="J419" s="7"/>
+      <c r="J419" s="7">
+        <v>100</v>
+      </c>
       <c r="K419" s="7"/>
       <c r="L419" s="7"/>
       <c r="M419" s="7"/>
@@ -56913,7 +57775,7 @@
     </row>
     <row r="420" spans="1:20">
       <c r="A420" s="12">
-        <v>41480</v>
+        <v>41467</v>
       </c>
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
@@ -56926,22 +57788,22 @@
       <c r="J420" s="7"/>
       <c r="K420" s="7"/>
       <c r="L420" s="7"/>
-      <c r="M420" s="7">
-        <v>200</v>
-      </c>
+      <c r="M420" s="7"/>
       <c r="N420" s="7"/>
       <c r="O420" s="7"/>
       <c r="P420" s="7"/>
       <c r="Q420" s="7"/>
-      <c r="R420" s="7"/>
+      <c r="R420" s="7">
+        <v>100</v>
+      </c>
       <c r="S420" s="7"/>
       <c r="T420" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="421" spans="1:20">
       <c r="A421" s="12">
-        <v>41481</v>
+        <v>41472</v>
       </c>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -56969,48 +57831,54 @@
     </row>
     <row r="422" spans="1:20">
       <c r="A422" s="12">
-        <v>41482</v>
-      </c>
-      <c r="B422" s="7"/>
+        <v>41474</v>
+      </c>
+      <c r="B422" s="7">
+        <v>76.5</v>
+      </c>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
       <c r="F422" s="7"/>
       <c r="G422" s="7"/>
-      <c r="H422" s="7"/>
+      <c r="H422" s="7">
+        <v>50</v>
+      </c>
       <c r="I422" s="7"/>
-      <c r="J422" s="7">
-        <v>100</v>
-      </c>
+      <c r="J422" s="7"/>
       <c r="K422" s="7"/>
       <c r="L422" s="7"/>
       <c r="M422" s="7"/>
       <c r="N422" s="7"/>
       <c r="O422" s="7"/>
-      <c r="P422" s="7"/>
-      <c r="Q422" s="7"/>
+      <c r="P422" s="7">
+        <v>200</v>
+      </c>
+      <c r="Q422" s="7">
+        <v>200</v>
+      </c>
       <c r="R422" s="7"/>
       <c r="S422" s="7"/>
       <c r="T422" s="7">
-        <v>100</v>
+        <v>526.5</v>
       </c>
     </row>
     <row r="423" spans="1:20">
       <c r="A423" s="12">
-        <v>41488</v>
+        <v>41479</v>
       </c>
       <c r="B423" s="7"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
       <c r="F423" s="7"/>
-      <c r="G423" s="7"/>
+      <c r="G423" s="7">
+        <v>100</v>
+      </c>
       <c r="H423" s="7"/>
       <c r="I423" s="7"/>
       <c r="J423" s="7"/>
-      <c r="K423" s="7">
-        <v>300</v>
-      </c>
+      <c r="K423" s="7"/>
       <c r="L423" s="7"/>
       <c r="M423" s="7"/>
       <c r="N423" s="7"/>
@@ -57020,16 +57888,14 @@
       <c r="R423" s="7"/>
       <c r="S423" s="7"/>
       <c r="T423" s="7">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="424" spans="1:20">
       <c r="A424" s="12">
-        <v>41495</v>
-      </c>
-      <c r="B424" s="7">
-        <v>100</v>
-      </c>
+        <v>41480</v>
+      </c>
+      <c r="B424" s="7"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -57037,27 +57903,25 @@
       <c r="G424" s="7"/>
       <c r="H424" s="7"/>
       <c r="I424" s="7"/>
-      <c r="J424" s="7">
-        <v>100</v>
-      </c>
+      <c r="J424" s="7"/>
       <c r="K424" s="7"/>
       <c r="L424" s="7"/>
-      <c r="M424" s="7"/>
-      <c r="N424" s="7">
-        <v>300</v>
-      </c>
+      <c r="M424" s="7">
+        <v>200</v>
+      </c>
+      <c r="N424" s="7"/>
       <c r="O424" s="7"/>
       <c r="P424" s="7"/>
       <c r="Q424" s="7"/>
       <c r="R424" s="7"/>
       <c r="S424" s="7"/>
       <c r="T424" s="7">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="425" spans="1:20">
       <c r="A425" s="12">
-        <v>41502</v>
+        <v>41481</v>
       </c>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -57066,11 +57930,11 @@
       <c r="F425" s="7"/>
       <c r="G425" s="7"/>
       <c r="H425" s="7"/>
-      <c r="I425" s="7">
-        <v>200</v>
-      </c>
+      <c r="I425" s="7"/>
       <c r="J425" s="7"/>
-      <c r="K425" s="7"/>
+      <c r="K425" s="7">
+        <v>100</v>
+      </c>
       <c r="L425" s="7"/>
       <c r="M425" s="7"/>
       <c r="N425" s="7"/>
@@ -57080,12 +57944,12 @@
       <c r="R425" s="7"/>
       <c r="S425" s="7"/>
       <c r="T425" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="426" spans="1:20">
       <c r="A426" s="12">
-        <v>41514</v>
+        <v>41482</v>
       </c>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -57113,7 +57977,7 @@
     </row>
     <row r="427" spans="1:20">
       <c r="A427" s="12">
-        <v>41526</v>
+        <v>41488</v>
       </c>
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
@@ -57124,26 +57988,28 @@
       <c r="H427" s="7"/>
       <c r="I427" s="7"/>
       <c r="J427" s="7"/>
-      <c r="K427" s="7"/>
+      <c r="K427" s="7">
+        <v>300</v>
+      </c>
       <c r="L427" s="7"/>
       <c r="M427" s="7"/>
       <c r="N427" s="7"/>
       <c r="O427" s="7"/>
-      <c r="P427" s="7">
-        <v>400</v>
-      </c>
+      <c r="P427" s="7"/>
       <c r="Q427" s="7"/>
       <c r="R427" s="7"/>
       <c r="S427" s="7"/>
       <c r="T427" s="7">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="428" spans="1:20">
       <c r="A428" s="12">
-        <v>41528</v>
-      </c>
-      <c r="B428" s="7"/>
+        <v>41495</v>
+      </c>
+      <c r="B428" s="7">
+        <v>100</v>
+      </c>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -57151,55 +58017,55 @@
       <c r="G428" s="7"/>
       <c r="H428" s="7"/>
       <c r="I428" s="7"/>
-      <c r="J428" s="7"/>
+      <c r="J428" s="7">
+        <v>100</v>
+      </c>
       <c r="K428" s="7"/>
       <c r="L428" s="7"/>
       <c r="M428" s="7"/>
-      <c r="N428" s="7"/>
+      <c r="N428" s="7">
+        <v>300</v>
+      </c>
       <c r="O428" s="7"/>
       <c r="P428" s="7"/>
-      <c r="Q428" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q428" s="7"/>
       <c r="R428" s="7"/>
       <c r="S428" s="7"/>
       <c r="T428" s="7">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="429" spans="1:20">
       <c r="A429" s="12">
-        <v>41533</v>
-      </c>
-      <c r="B429" s="7">
-        <v>200</v>
-      </c>
+        <v>41502</v>
+      </c>
+      <c r="B429" s="7"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
       <c r="F429" s="7"/>
       <c r="G429" s="7"/>
       <c r="H429" s="7"/>
-      <c r="I429" s="7"/>
+      <c r="I429" s="7">
+        <v>200</v>
+      </c>
       <c r="J429" s="7"/>
       <c r="K429" s="7"/>
       <c r="L429" s="7"/>
       <c r="M429" s="7"/>
       <c r="N429" s="7"/>
-      <c r="O429" s="7">
-        <v>100</v>
-      </c>
+      <c r="O429" s="7"/>
       <c r="P429" s="7"/>
       <c r="Q429" s="7"/>
       <c r="R429" s="7"/>
       <c r="S429" s="7"/>
       <c r="T429" s="7">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="430" spans="1:20">
       <c r="A430" s="12">
-        <v>41537</v>
+        <v>41514</v>
       </c>
       <c r="B430" s="7"/>
       <c r="C430" s="7"/>
@@ -57210,7 +58076,7 @@
       <c r="H430" s="7"/>
       <c r="I430" s="7"/>
       <c r="J430" s="7">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="K430" s="7"/>
       <c r="L430" s="7"/>
@@ -57222,12 +58088,12 @@
       <c r="R430" s="7"/>
       <c r="S430" s="7"/>
       <c r="T430" s="7">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="431" spans="1:20">
       <c r="A431" s="12">
-        <v>41547</v>
+        <v>41526</v>
       </c>
       <c r="B431" s="7"/>
       <c r="C431" s="7"/>
@@ -57240,22 +58106,22 @@
       <c r="J431" s="7"/>
       <c r="K431" s="7"/>
       <c r="L431" s="7"/>
-      <c r="M431" s="7">
-        <v>80</v>
-      </c>
+      <c r="M431" s="7"/>
       <c r="N431" s="7"/>
       <c r="O431" s="7"/>
-      <c r="P431" s="7"/>
+      <c r="P431" s="7">
+        <v>400</v>
+      </c>
       <c r="Q431" s="7"/>
       <c r="R431" s="7"/>
       <c r="S431" s="7"/>
       <c r="T431" s="7">
-        <v>80</v>
+        <v>400</v>
       </c>
     </row>
     <row r="432" spans="1:20">
       <c r="A432" s="12">
-        <v>41559</v>
+        <v>41528</v>
       </c>
       <c r="B432" s="7"/>
       <c r="C432" s="7"/>
@@ -57265,61 +58131,55 @@
       <c r="G432" s="7"/>
       <c r="H432" s="7"/>
       <c r="I432" s="7"/>
-      <c r="J432" s="7">
-        <v>161</v>
-      </c>
+      <c r="J432" s="7"/>
       <c r="K432" s="7"/>
       <c r="L432" s="7"/>
       <c r="M432" s="7"/>
       <c r="N432" s="7"/>
       <c r="O432" s="7"/>
       <c r="P432" s="7"/>
-      <c r="Q432" s="7"/>
+      <c r="Q432" s="7">
+        <v>200</v>
+      </c>
       <c r="R432" s="7"/>
       <c r="S432" s="7"/>
       <c r="T432" s="7">
-        <v>161</v>
+        <v>200</v>
       </c>
     </row>
     <row r="433" spans="1:20">
       <c r="A433" s="12">
-        <v>41565</v>
-      </c>
-      <c r="B433" s="7"/>
+        <v>41533</v>
+      </c>
+      <c r="B433" s="7">
+        <v>200</v>
+      </c>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
       <c r="F433" s="7"/>
       <c r="G433" s="7"/>
       <c r="H433" s="7"/>
-      <c r="I433" s="7">
-        <v>150</v>
-      </c>
+      <c r="I433" s="7"/>
       <c r="J433" s="7"/>
-      <c r="K433" s="7">
-        <v>200</v>
-      </c>
+      <c r="K433" s="7"/>
       <c r="L433" s="7"/>
       <c r="M433" s="7"/>
       <c r="N433" s="7"/>
       <c r="O433" s="7">
         <v>100</v>
       </c>
-      <c r="P433" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q433" s="7">
-        <v>200</v>
-      </c>
+      <c r="P433" s="7"/>
+      <c r="Q433" s="7"/>
       <c r="R433" s="7"/>
       <c r="S433" s="7"/>
       <c r="T433" s="7">
-        <v>750</v>
+        <v>300</v>
       </c>
     </row>
     <row r="434" spans="1:20">
       <c r="A434" s="12">
-        <v>41575</v>
+        <v>41537</v>
       </c>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -57330,7 +58190,7 @@
       <c r="H434" s="7"/>
       <c r="I434" s="7"/>
       <c r="J434" s="7">
-        <v>80.5</v>
+        <v>77</v>
       </c>
       <c r="K434" s="7"/>
       <c r="L434" s="7"/>
@@ -57342,12 +58202,12 @@
       <c r="R434" s="7"/>
       <c r="S434" s="7"/>
       <c r="T434" s="7">
-        <v>80.5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="435" spans="1:20">
       <c r="A435" s="12">
-        <v>41579</v>
+        <v>41547</v>
       </c>
       <c r="B435" s="7"/>
       <c r="C435" s="7"/>
@@ -57357,12 +58217,12 @@
       <c r="G435" s="7"/>
       <c r="H435" s="7"/>
       <c r="I435" s="7"/>
-      <c r="J435" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="J435" s="7"/>
       <c r="K435" s="7"/>
       <c r="L435" s="7"/>
-      <c r="M435" s="7"/>
+      <c r="M435" s="7">
+        <v>80</v>
+      </c>
       <c r="N435" s="7"/>
       <c r="O435" s="7"/>
       <c r="P435" s="7"/>
@@ -57370,16 +58230,14 @@
       <c r="R435" s="7"/>
       <c r="S435" s="7"/>
       <c r="T435" s="7">
-        <v>80.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="436" spans="1:20">
       <c r="A436" s="12">
-        <v>41590</v>
-      </c>
-      <c r="B436" s="7">
-        <v>100</v>
-      </c>
+        <v>41559</v>
+      </c>
+      <c r="B436" s="7"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -57387,57 +58245,63 @@
       <c r="G436" s="7"/>
       <c r="H436" s="7"/>
       <c r="I436" s="7"/>
-      <c r="J436" s="7"/>
+      <c r="J436" s="7">
+        <v>161</v>
+      </c>
       <c r="K436" s="7"/>
       <c r="L436" s="7"/>
       <c r="M436" s="7"/>
       <c r="N436" s="7"/>
       <c r="O436" s="7"/>
       <c r="P436" s="7"/>
-      <c r="Q436" s="7">
-        <v>150</v>
-      </c>
+      <c r="Q436" s="7"/>
       <c r="R436" s="7"/>
       <c r="S436" s="7"/>
       <c r="T436" s="7">
-        <v>250</v>
+        <v>161</v>
       </c>
     </row>
     <row r="437" spans="1:20">
       <c r="A437" s="12">
-        <v>41597</v>
-      </c>
-      <c r="B437" s="7">
-        <v>100</v>
-      </c>
+        <v>41565</v>
+      </c>
+      <c r="B437" s="7"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
       <c r="F437" s="7"/>
       <c r="G437" s="7"/>
       <c r="H437" s="7"/>
-      <c r="I437" s="7"/>
+      <c r="I437" s="7">
+        <v>150</v>
+      </c>
       <c r="J437" s="7"/>
-      <c r="K437" s="7"/>
+      <c r="K437" s="7">
+        <v>200</v>
+      </c>
       <c r="L437" s="7"/>
       <c r="M437" s="7"/>
       <c r="N437" s="7"/>
-      <c r="O437" s="7"/>
-      <c r="P437" s="7"/>
-      <c r="Q437" s="7"/>
+      <c r="O437" s="7">
+        <v>100</v>
+      </c>
+      <c r="P437" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q437" s="7">
+        <v>200</v>
+      </c>
       <c r="R437" s="7"/>
       <c r="S437" s="7"/>
       <c r="T437" s="7">
-        <v>100</v>
+        <v>750</v>
       </c>
     </row>
     <row r="438" spans="1:20">
       <c r="A438" s="12">
-        <v>41599</v>
-      </c>
-      <c r="B438" s="7">
-        <v>7</v>
-      </c>
+        <v>41575</v>
+      </c>
+      <c r="B438" s="7"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -57445,7 +58309,9 @@
       <c r="G438" s="7"/>
       <c r="H438" s="7"/>
       <c r="I438" s="7"/>
-      <c r="J438" s="7"/>
+      <c r="J438" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K438" s="7"/>
       <c r="L438" s="7"/>
       <c r="M438" s="7"/>
@@ -57456,12 +58322,12 @@
       <c r="R438" s="7"/>
       <c r="S438" s="7"/>
       <c r="T438" s="7">
-        <v>7</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="439" spans="1:20">
       <c r="A439" s="12">
-        <v>41600</v>
+        <v>41579</v>
       </c>
       <c r="B439" s="7"/>
       <c r="C439" s="7"/>
@@ -57472,30 +58338,24 @@
       <c r="H439" s="7"/>
       <c r="I439" s="7"/>
       <c r="J439" s="7">
-        <v>200</v>
-      </c>
-      <c r="K439" s="7">
-        <v>200</v>
-      </c>
+        <v>80.5</v>
+      </c>
+      <c r="K439" s="7"/>
       <c r="L439" s="7"/>
-      <c r="M439" s="7">
-        <v>100</v>
-      </c>
+      <c r="M439" s="7"/>
       <c r="N439" s="7"/>
-      <c r="O439" s="7">
-        <v>150</v>
-      </c>
+      <c r="O439" s="7"/>
       <c r="P439" s="7"/>
       <c r="Q439" s="7"/>
       <c r="R439" s="7"/>
       <c r="S439" s="7"/>
       <c r="T439" s="7">
-        <v>650</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="440" spans="1:20">
       <c r="A440" s="12">
-        <v>41603</v>
+        <v>41590</v>
       </c>
       <c r="B440" s="7">
         <v>100</v>
@@ -57514,18 +58374,22 @@
       <c r="N440" s="7"/>
       <c r="O440" s="7"/>
       <c r="P440" s="7"/>
-      <c r="Q440" s="7"/>
+      <c r="Q440" s="7">
+        <v>150</v>
+      </c>
       <c r="R440" s="7"/>
       <c r="S440" s="7"/>
       <c r="T440" s="7">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="441" spans="1:20">
       <c r="A441" s="12">
-        <v>41605</v>
-      </c>
-      <c r="B441" s="7"/>
+        <v>41597</v>
+      </c>
+      <c r="B441" s="7">
+        <v>100</v>
+      </c>
       <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
@@ -57539,21 +58403,21 @@
       <c r="M441" s="7"/>
       <c r="N441" s="7"/>
       <c r="O441" s="7"/>
-      <c r="P441" s="7">
-        <v>200</v>
-      </c>
+      <c r="P441" s="7"/>
       <c r="Q441" s="7"/>
       <c r="R441" s="7"/>
       <c r="S441" s="7"/>
       <c r="T441" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="442" spans="1:20">
       <c r="A442" s="12">
-        <v>41610</v>
-      </c>
-      <c r="B442" s="7"/>
+        <v>41599</v>
+      </c>
+      <c r="B442" s="7">
+        <v>7</v>
+      </c>
       <c r="C442" s="7"/>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
@@ -57565,21 +58429,19 @@
       <c r="K442" s="7"/>
       <c r="L442" s="7"/>
       <c r="M442" s="7"/>
-      <c r="N442" s="7">
-        <v>100</v>
-      </c>
+      <c r="N442" s="7"/>
       <c r="O442" s="7"/>
       <c r="P442" s="7"/>
       <c r="Q442" s="7"/>
       <c r="R442" s="7"/>
       <c r="S442" s="7"/>
       <c r="T442" s="7">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="443" spans="1:20">
       <c r="A443" s="12">
-        <v>41611</v>
+        <v>41600</v>
       </c>
       <c r="B443" s="7"/>
       <c r="C443" s="7"/>
@@ -57589,27 +58451,35 @@
       <c r="G443" s="7"/>
       <c r="H443" s="7"/>
       <c r="I443" s="7"/>
-      <c r="J443" s="7"/>
-      <c r="K443" s="7"/>
+      <c r="J443" s="7">
+        <v>200</v>
+      </c>
+      <c r="K443" s="7">
+        <v>200</v>
+      </c>
       <c r="L443" s="7"/>
       <c r="M443" s="7">
+        <v>100</v>
+      </c>
+      <c r="N443" s="7"/>
+      <c r="O443" s="7">
         <v>150</v>
       </c>
-      <c r="N443" s="7"/>
-      <c r="O443" s="7"/>
       <c r="P443" s="7"/>
       <c r="Q443" s="7"/>
       <c r="R443" s="7"/>
       <c r="S443" s="7"/>
       <c r="T443" s="7">
-        <v>150</v>
+        <v>650</v>
       </c>
     </row>
     <row r="444" spans="1:20">
       <c r="A444" s="12">
-        <v>41614</v>
-      </c>
-      <c r="B444" s="7"/>
+        <v>41603</v>
+      </c>
+      <c r="B444" s="7">
+        <v>100</v>
+      </c>
       <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
@@ -57618,28 +58488,22 @@
       <c r="H444" s="7"/>
       <c r="I444" s="7"/>
       <c r="J444" s="7"/>
-      <c r="K444" s="7">
-        <v>50</v>
-      </c>
+      <c r="K444" s="7"/>
       <c r="L444" s="7"/>
       <c r="M444" s="7"/>
       <c r="N444" s="7"/>
       <c r="O444" s="7"/>
       <c r="P444" s="7"/>
-      <c r="Q444" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q444" s="7"/>
       <c r="R444" s="7"/>
-      <c r="S444" s="7">
+      <c r="S444" s="7"/>
+      <c r="T444" s="7">
         <v>100</v>
-      </c>
-      <c r="T444" s="7">
-        <v>350</v>
       </c>
     </row>
     <row r="445" spans="1:20">
       <c r="A445" s="12">
-        <v>41622</v>
+        <v>41605</v>
       </c>
       <c r="B445" s="7"/>
       <c r="C445" s="7"/>
@@ -57649,39 +58513,25 @@
       <c r="G445" s="7"/>
       <c r="H445" s="7"/>
       <c r="I445" s="7"/>
-      <c r="J445" s="7">
-        <v>100</v>
-      </c>
-      <c r="K445" s="7">
+      <c r="J445" s="7"/>
+      <c r="K445" s="7"/>
+      <c r="L445" s="7"/>
+      <c r="M445" s="7"/>
+      <c r="N445" s="7"/>
+      <c r="O445" s="7"/>
+      <c r="P445" s="7">
         <v>200</v>
       </c>
-      <c r="L445" s="7"/>
-      <c r="M445" s="7">
-        <v>100</v>
-      </c>
-      <c r="N445" s="7">
+      <c r="Q445" s="7"/>
+      <c r="R445" s="7"/>
+      <c r="S445" s="7"/>
+      <c r="T445" s="7">
         <v>200</v>
-      </c>
-      <c r="O445" s="7">
-        <v>100</v>
-      </c>
-      <c r="P445" s="7">
-        <v>300</v>
-      </c>
-      <c r="Q445" s="7">
-        <v>100</v>
-      </c>
-      <c r="R445" s="7"/>
-      <c r="S445" s="7">
-        <v>50</v>
-      </c>
-      <c r="T445" s="7">
-        <v>1150</v>
       </c>
     </row>
     <row r="446" spans="1:20">
       <c r="A446" s="12">
-        <v>41628</v>
+        <v>41610</v>
       </c>
       <c r="B446" s="7"/>
       <c r="C446" s="7"/>
@@ -57695,25 +58545,23 @@
       <c r="K446" s="7"/>
       <c r="L446" s="7"/>
       <c r="M446" s="7"/>
-      <c r="N446" s="7"/>
+      <c r="N446" s="7">
+        <v>100</v>
+      </c>
       <c r="O446" s="7"/>
       <c r="P446" s="7"/>
       <c r="Q446" s="7"/>
       <c r="R446" s="7"/>
-      <c r="S446" s="7">
-        <v>100</v>
-      </c>
+      <c r="S446" s="7"/>
       <c r="T446" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="447" spans="1:20">
       <c r="A447" s="12">
-        <v>41635</v>
-      </c>
-      <c r="B447" s="7">
-        <v>100</v>
-      </c>
+        <v>41611</v>
+      </c>
+      <c r="B447" s="7"/>
       <c r="C447" s="7"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
@@ -57721,90 +58569,254 @@
       <c r="G447" s="7"/>
       <c r="H447" s="7"/>
       <c r="I447" s="7"/>
-      <c r="J447" s="7">
-        <v>300</v>
-      </c>
-      <c r="K447" s="7">
-        <v>100</v>
-      </c>
+      <c r="J447" s="7"/>
+      <c r="K447" s="7"/>
       <c r="L447" s="7"/>
-      <c r="M447" s="7"/>
-      <c r="N447" s="7">
-        <v>100</v>
-      </c>
+      <c r="M447" s="7">
+        <v>150</v>
+      </c>
+      <c r="N447" s="7"/>
       <c r="O447" s="7"/>
       <c r="P447" s="7"/>
       <c r="Q447" s="7"/>
-      <c r="R447" s="7">
+      <c r="R447" s="7"/>
+      <c r="S447" s="7"/>
+      <c r="T447" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="448" spans="1:20">
+      <c r="A448" s="12">
+        <v>41614</v>
+      </c>
+      <c r="B448" s="7"/>
+      <c r="C448" s="7"/>
+      <c r="D448" s="7"/>
+      <c r="E448" s="7"/>
+      <c r="F448" s="7"/>
+      <c r="G448" s="7"/>
+      <c r="H448" s="7"/>
+      <c r="I448" s="7"/>
+      <c r="J448" s="7"/>
+      <c r="K448" s="7">
+        <v>50</v>
+      </c>
+      <c r="L448" s="7"/>
+      <c r="M448" s="7"/>
+      <c r="N448" s="7"/>
+      <c r="O448" s="7"/>
+      <c r="P448" s="7"/>
+      <c r="Q448" s="7">
+        <v>200</v>
+      </c>
+      <c r="R448" s="7"/>
+      <c r="S448" s="7">
+        <v>100</v>
+      </c>
+      <c r="T448" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="449" spans="1:20">
+      <c r="A449" s="12">
+        <v>41622</v>
+      </c>
+      <c r="B449" s="7"/>
+      <c r="C449" s="7"/>
+      <c r="D449" s="7"/>
+      <c r="E449" s="7"/>
+      <c r="F449" s="7"/>
+      <c r="G449" s="7"/>
+      <c r="H449" s="7"/>
+      <c r="I449" s="7"/>
+      <c r="J449" s="7">
+        <v>100</v>
+      </c>
+      <c r="K449" s="7">
+        <v>200</v>
+      </c>
+      <c r="L449" s="7"/>
+      <c r="M449" s="7">
+        <v>100</v>
+      </c>
+      <c r="N449" s="7">
+        <v>200</v>
+      </c>
+      <c r="O449" s="7">
+        <v>100</v>
+      </c>
+      <c r="P449" s="7">
+        <v>300</v>
+      </c>
+      <c r="Q449" s="7">
+        <v>100</v>
+      </c>
+      <c r="R449" s="7"/>
+      <c r="S449" s="7">
+        <v>50</v>
+      </c>
+      <c r="T449" s="7">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="450" spans="1:20">
+      <c r="A450" s="12">
+        <v>41628</v>
+      </c>
+      <c r="B450" s="7"/>
+      <c r="C450" s="7"/>
+      <c r="D450" s="7"/>
+      <c r="E450" s="7"/>
+      <c r="F450" s="7"/>
+      <c r="G450" s="7"/>
+      <c r="H450" s="7"/>
+      <c r="I450" s="7"/>
+      <c r="J450" s="7"/>
+      <c r="K450" s="7"/>
+      <c r="L450" s="7"/>
+      <c r="M450" s="7"/>
+      <c r="N450" s="7"/>
+      <c r="O450" s="7"/>
+      <c r="P450" s="7"/>
+      <c r="Q450" s="7"/>
+      <c r="R450" s="7"/>
+      <c r="S450" s="7">
+        <v>100</v>
+      </c>
+      <c r="T450" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="451" spans="1:20">
+      <c r="A451" s="12">
+        <v>41635</v>
+      </c>
+      <c r="B451" s="7">
+        <v>100</v>
+      </c>
+      <c r="C451" s="7"/>
+      <c r="D451" s="7"/>
+      <c r="E451" s="7"/>
+      <c r="F451" s="7"/>
+      <c r="G451" s="7">
+        <v>13.71</v>
+      </c>
+      <c r="H451" s="7"/>
+      <c r="I451" s="7"/>
+      <c r="J451" s="7">
+        <v>300</v>
+      </c>
+      <c r="K451" s="7">
+        <v>100</v>
+      </c>
+      <c r="L451" s="7"/>
+      <c r="M451" s="7"/>
+      <c r="N451" s="7">
+        <v>100</v>
+      </c>
+      <c r="O451" s="7"/>
+      <c r="P451" s="7"/>
+      <c r="Q451" s="7"/>
+      <c r="R451" s="7">
         <v>20</v>
       </c>
-      <c r="S447" s="7">
+      <c r="S451" s="7">
         <v>100</v>
       </c>
-      <c r="T447" s="7">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="448" spans="1:20">
-      <c r="A448" s="6" t="s">
+      <c r="T451" s="7">
+        <v>733.71</v>
+      </c>
+    </row>
+    <row r="452" spans="1:20">
+      <c r="A452" s="12">
+        <v>41642</v>
+      </c>
+      <c r="B452" s="7"/>
+      <c r="C452" s="7"/>
+      <c r="D452" s="7"/>
+      <c r="E452" s="7"/>
+      <c r="F452" s="7"/>
+      <c r="G452" s="7"/>
+      <c r="H452" s="7"/>
+      <c r="I452" s="7"/>
+      <c r="J452" s="7"/>
+      <c r="K452" s="7">
+        <v>100</v>
+      </c>
+      <c r="L452" s="7"/>
+      <c r="M452" s="7"/>
+      <c r="N452" s="7"/>
+      <c r="O452" s="7"/>
+      <c r="P452" s="7"/>
+      <c r="Q452" s="7"/>
+      <c r="R452" s="7"/>
+      <c r="S452" s="7">
+        <v>100</v>
+      </c>
+      <c r="T452" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="453" spans="1:20">
+      <c r="A453" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B448" s="7">
-        <v>-114.99999999999989</v>
-      </c>
-      <c r="C448" s="7">
+      <c r="B453" s="7">
+        <v>-141.59999999999991</v>
+      </c>
+      <c r="C453" s="7">
         <v>56</v>
       </c>
-      <c r="D448" s="7">
+      <c r="D453" s="7">
         <v>15.899999999999977</v>
       </c>
-      <c r="E448" s="7">
+      <c r="E453" s="7">
         <v>14</v>
       </c>
-      <c r="F448" s="7">
+      <c r="F453" s="7">
         <v>-8</v>
       </c>
-      <c r="G448" s="7">
-        <v>-13.699999999999591</v>
-      </c>
-      <c r="H448" s="7">
+      <c r="G453" s="7">
+        <v>1.0000000000410125E-2</v>
+      </c>
+      <c r="H453" s="7">
         <v>-64.999999999999886</v>
       </c>
-      <c r="I448" s="7">
+      <c r="I453" s="7">
         <v>8.9999999999995453</v>
       </c>
-      <c r="J448" s="7">
-        <v>236.69999999999709</v>
-      </c>
-      <c r="K448" s="7">
-        <v>35.000000000001364</v>
-      </c>
-      <c r="L448" s="7">
+      <c r="J453" s="7">
+        <v>181.39999999999736</v>
+      </c>
+      <c r="K453" s="7">
+        <v>79.700000000001182</v>
+      </c>
+      <c r="L453" s="7">
         <v>43.400000000000006</v>
       </c>
-      <c r="M448" s="7">
-        <v>-64.899999999998727</v>
-      </c>
-      <c r="N448" s="7">
-        <v>10.800000000002001</v>
-      </c>
-      <c r="O448" s="7">
-        <v>-40.700000000000045</v>
-      </c>
-      <c r="P448" s="7">
-        <v>-8.799999999999045</v>
-      </c>
-      <c r="Q448" s="7">
-        <v>-86.799999999999045</v>
-      </c>
-      <c r="R448" s="7">
-        <v>3.6999999999999886</v>
-      </c>
-      <c r="S448" s="7">
-        <v>76.899999999999977</v>
-      </c>
-      <c r="T448" s="7">
-        <v>98.500000000007276</v>
+      <c r="M453" s="7">
+        <v>-93.299999999998818</v>
+      </c>
+      <c r="N453" s="7">
+        <v>-31.299999999998136</v>
+      </c>
+      <c r="O453" s="7">
+        <v>-55.700000000000045</v>
+      </c>
+      <c r="P453" s="7">
+        <v>-50.399999999999181</v>
+      </c>
+      <c r="Q453" s="7">
+        <v>-142.09999999999923</v>
+      </c>
+      <c r="R453" s="7">
+        <v>-51.599999999999966</v>
+      </c>
+      <c r="S453" s="7">
+        <v>121.60000000000002</v>
+      </c>
+      <c r="T453" s="7">
+        <v>-117.9899999999916</v>
       </c>
     </row>
   </sheetData>
@@ -57817,13 +58829,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
@@ -57831,12 +58843,14 @@
     <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.75" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="8.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.625" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -57915,7 +58929,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="7">
-        <v>-965.49999999999977</v>
+        <v>-992.0999999999998</v>
       </c>
       <c r="C3" s="7">
         <v>-31</v>
@@ -57939,37 +58953,37 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3345.7000000000021</v>
+        <v>-3401.0000000000018</v>
       </c>
       <c r="K3" s="7">
-        <v>-1714.9999999999989</v>
+        <v>-1770.2999999999986</v>
       </c>
       <c r="L3" s="7">
         <v>-176.6</v>
       </c>
       <c r="M3" s="7">
-        <v>-1634.899999999999</v>
+        <v>-1663.2999999999988</v>
       </c>
       <c r="N3" s="7">
-        <v>-1968.1999999999982</v>
+        <v>-2010.2999999999979</v>
       </c>
       <c r="O3" s="7">
-        <v>-1083.7</v>
+        <v>-1098.6999999999998</v>
       </c>
       <c r="P3" s="7">
-        <v>-1508.7999999999993</v>
+        <v>-1550.3999999999992</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1336.7999999999993</v>
+        <v>-1392.0999999999992</v>
       </c>
       <c r="R3" s="7">
-        <v>-266.3</v>
+        <v>-321.60000000000002</v>
       </c>
       <c r="S3" s="7">
-        <v>-273.10000000000002</v>
+        <v>-328.40000000000003</v>
       </c>
       <c r="T3" s="7">
-        <v>-19989.899999999994</v>
+        <v>-20420.099999999995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -57992,7 +59006,7 @@
         <v>200</v>
       </c>
       <c r="G4" s="7">
-        <v>2023</v>
+        <v>2036.71</v>
       </c>
       <c r="H4" s="7">
         <v>555</v>
@@ -58004,7 +59018,7 @@
         <v>3582.4</v>
       </c>
       <c r="K4" s="7">
-        <v>1750</v>
+        <v>1850</v>
       </c>
       <c r="L4" s="7">
         <v>220</v>
@@ -58028,10 +59042,10 @@
         <v>270</v>
       </c>
       <c r="S4" s="7">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="T4" s="7">
-        <v>20088.400000000001</v>
+        <v>20302.11</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -58039,7 +59053,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="8">
-        <v>-114.99999999999977</v>
+        <v>-141.5999999999998</v>
       </c>
       <c r="C5" s="8">
         <v>56</v>
@@ -58054,7 +59068,7 @@
         <v>-8</v>
       </c>
       <c r="G5" s="8">
-        <v>-13.699999999999818</v>
+        <v>1.0000000000218279E-2</v>
       </c>
       <c r="H5" s="8">
         <v>-65</v>
@@ -58063,37 +59077,37 @@
         <v>8.9999999999995453</v>
       </c>
       <c r="J5" s="8">
-        <v>236.699999999998</v>
+        <v>181.39999999999827</v>
       </c>
       <c r="K5" s="8">
-        <v>35.000000000001137</v>
+        <v>79.70000000000141</v>
       </c>
       <c r="L5" s="8">
         <v>43.400000000000006</v>
       </c>
       <c r="M5" s="8">
-        <v>-64.899999999998954</v>
+        <v>-93.299999999998818</v>
       </c>
       <c r="N5" s="8">
-        <v>10.800000000001774</v>
+        <v>-31.299999999997908</v>
       </c>
       <c r="O5" s="8">
-        <v>-40.700000000000045</v>
+        <v>-55.699999999999818</v>
       </c>
       <c r="P5" s="8">
-        <v>-8.7999999999992724</v>
+        <v>-50.399999999999181</v>
       </c>
       <c r="Q5" s="8">
-        <v>-86.799999999999272</v>
+        <v>-142.09999999999923</v>
       </c>
       <c r="R5" s="8">
-        <v>3.6999999999999886</v>
+        <v>-51.600000000000023</v>
       </c>
       <c r="S5" s="8">
-        <v>76.899999999999977</v>
+        <v>121.59999999999997</v>
       </c>
       <c r="T5" s="8">
-        <v>98.500000000007276</v>
+        <v>-117.98999999999432</v>
       </c>
     </row>
   </sheetData>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="消费记录明细" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4609" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4613" uniqueCount="569">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2464,25 +2464,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2494,11 +2485,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="44">
     <dxf>
       <border>
         <left style="thin">
@@ -2773,86 +2773,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
       </font>
     </dxf>
@@ -2970,7 +2890,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41642.663070717594" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1751">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41642.667346180555" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1753">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="消费记录明细"/>
   </cacheSource>
@@ -3378,7 +3298,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1751">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1753">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -13876,6 +13796,18 @@
   <r>
     <x v="342"/>
     <x v="13"/>
+    <n v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="342"/>
+    <x v="12"/>
+    <n v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="342"/>
+    <x v="22"/>
     <n v="100"/>
     <x v="1"/>
   </r>
@@ -15712,20 +15644,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="47">
+    <format dxfId="39">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="38">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15865,20 +15797,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="43">
+    <format dxfId="35">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="34">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -16178,11 +16110,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1751"/>
+  <dimension ref="A1:V1753"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1734" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1749" sqref="C1749"/>
+      <selection pane="bottomLeft" activeCell="D1753" sqref="D1753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16327,7 +16259,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -16347,7 +16279,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -16365,7 +16297,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -16383,7 +16315,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -16401,7 +16333,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -16419,7 +16351,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -16437,7 +16369,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -17247,7 +17179,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="23" t="s">
         <v>65</v>
       </c>
     </row>
@@ -17267,7 +17199,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="28"/>
+      <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -17285,7 +17217,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="28"/>
+      <c r="F61" s="24"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -18103,7 +18035,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="29"/>
+      <c r="F109" s="26"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -18121,7 +18053,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="30"/>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -18139,7 +18071,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="31"/>
+      <c r="F111" s="28"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -18276,7 +18208,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -18296,7 +18228,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="31"/>
+      <c r="F120" s="28"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -19193,7 +19125,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="29" t="s">
+      <c r="F172" s="26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -19213,7 +19145,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="30"/>
+      <c r="F173" s="27"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -19231,7 +19163,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="30"/>
+      <c r="F174" s="27"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -19249,7 +19181,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="31"/>
+      <c r="F175" s="28"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -21267,7 +21199,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="22" t="s">
+      <c r="F288" s="29" t="s">
         <v>202</v>
       </c>
     </row>
@@ -21287,7 +21219,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="26"/>
+      <c r="F289" s="31"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -21305,7 +21237,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="23"/>
+      <c r="F290" s="30"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -21323,7 +21255,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="22" t="s">
+      <c r="F291" s="29" t="s">
         <v>212</v>
       </c>
     </row>
@@ -21343,7 +21275,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="26"/>
+      <c r="F292" s="31"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -21361,7 +21293,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="26"/>
+      <c r="F293" s="31"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -21379,7 +21311,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="23"/>
+      <c r="F294" s="30"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -21397,7 +21329,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="22" t="s">
+      <c r="F295" s="29" t="s">
         <v>211</v>
       </c>
     </row>
@@ -21417,7 +21349,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="23"/>
+      <c r="F296" s="30"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -21435,7 +21367,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="24" t="s">
+      <c r="F297" s="23" t="s">
         <v>207</v>
       </c>
     </row>
@@ -22312,7 +22244,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="22" t="s">
+      <c r="F342" s="29" t="s">
         <v>284</v>
       </c>
     </row>
@@ -22332,7 +22264,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="23"/>
+      <c r="F343" s="30"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -43908,37 +43840,65 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1752" spans="1:4">
+      <c r="A1752" s="4">
+        <v>41642</v>
+      </c>
+      <c r="B1752" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1752" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1752" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:4">
+      <c r="A1753" s="4">
+        <v>41642</v>
+      </c>
+      <c r="B1753" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1753" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1753" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F342:F343"/>
+    <mergeCell ref="F295:F296"/>
+    <mergeCell ref="F297:F298"/>
+    <mergeCell ref="F291:F294"/>
+    <mergeCell ref="F288:F290"/>
     <mergeCell ref="F6:F12"/>
     <mergeCell ref="F59:F62"/>
     <mergeCell ref="F109:F111"/>
     <mergeCell ref="F119:F120"/>
     <mergeCell ref="F172:F175"/>
-    <mergeCell ref="F342:F343"/>
-    <mergeCell ref="F295:F296"/>
-    <mergeCell ref="F297:F298"/>
-    <mergeCell ref="F291:F294"/>
-    <mergeCell ref="F288:F290"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="51" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43961,7 +43921,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G429" sqref="G429"/>
+      <selection pane="bottomLeft" activeCell="I430" sqref="I430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -55021,7 +54981,7 @@
         <v>220</v>
       </c>
       <c r="M324" s="7">
-        <v>1570</v>
+        <v>1670</v>
       </c>
       <c r="N324" s="7">
         <v>1979</v>
@@ -55036,13 +54996,13 @@
         <v>1250</v>
       </c>
       <c r="R324" s="7">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="S324" s="7">
         <v>450</v>
       </c>
       <c r="T324" s="7">
-        <v>20302.11</v>
+        <v>20502.11</v>
       </c>
     </row>
     <row r="325" spans="1:20">
@@ -58744,17 +58704,21 @@
         <v>100</v>
       </c>
       <c r="L452" s="7"/>
-      <c r="M452" s="7"/>
+      <c r="M452" s="7">
+        <v>100</v>
+      </c>
       <c r="N452" s="7"/>
       <c r="O452" s="7"/>
       <c r="P452" s="7"/>
       <c r="Q452" s="7"/>
-      <c r="R452" s="7"/>
+      <c r="R452" s="7">
+        <v>100</v>
+      </c>
       <c r="S452" s="7">
         <v>100</v>
       </c>
       <c r="T452" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="453" spans="1:20">
@@ -58795,7 +58759,7 @@
         <v>43.400000000000006</v>
       </c>
       <c r="M453" s="7">
-        <v>-93.299999999998818</v>
+        <v>6.7000000000011823</v>
       </c>
       <c r="N453" s="7">
         <v>-31.299999999998136</v>
@@ -58810,13 +58774,13 @@
         <v>-142.09999999999923</v>
       </c>
       <c r="R453" s="7">
-        <v>-51.599999999999966</v>
+        <v>48.400000000000034</v>
       </c>
       <c r="S453" s="7">
         <v>121.60000000000002</v>
       </c>
       <c r="T453" s="7">
-        <v>-117.9899999999916</v>
+        <v>82.010000000008404</v>
       </c>
     </row>
   </sheetData>
@@ -58829,13 +58793,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
@@ -58850,7 +58814,7 @@
     <col min="13" max="17" width="8.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -59024,7 +58988,7 @@
         <v>220</v>
       </c>
       <c r="M4" s="7">
-        <v>1570</v>
+        <v>1670</v>
       </c>
       <c r="N4" s="7">
         <v>1979</v>
@@ -59039,13 +59003,13 @@
         <v>1250</v>
       </c>
       <c r="R4" s="7">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="S4" s="7">
         <v>450</v>
       </c>
       <c r="T4" s="7">
-        <v>20302.11</v>
+        <v>20502.11</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -59086,7 +59050,7 @@
         <v>43.400000000000006</v>
       </c>
       <c r="M5" s="8">
-        <v>-93.299999999998818</v>
+        <v>6.7000000000011823</v>
       </c>
       <c r="N5" s="8">
         <v>-31.299999999997908</v>
@@ -59101,13 +59065,13 @@
         <v>-142.09999999999923</v>
       </c>
       <c r="R5" s="8">
-        <v>-51.600000000000023</v>
+        <v>48.399999999999977</v>
       </c>
       <c r="S5" s="8">
         <v>121.59999999999997</v>
       </c>
       <c r="T5" s="8">
-        <v>-117.98999999999432</v>
+        <v>82.010000000005675</v>
       </c>
     </row>
   </sheetData>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4613" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4641" uniqueCount="569">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2498,279 +2498,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <b/>
@@ -2890,13 +2618,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41642.667346180555" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1753">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41645.459903935189" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1759">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="消费记录明细"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2014-01-04T00:00:00" count="348">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2014-01-07T00:00:00" count="349">
         <d v="2011-09-09T00:00:00"/>
         <d v="2011-09-30T00:00:00"/>
         <d v="2011-11-28T00:00:00"/>
@@ -3240,11 +2968,12 @@
         <d v="2013-12-31T00:00:00"/>
         <d v="2014-01-02T00:00:00"/>
         <d v="2014-01-03T00:00:00"/>
+        <d v="2014-01-06T00:00:00"/>
         <m/>
         <d v="2011-01-12T00:00:00" u="1"/>
+        <d v="2013-05-14T00:00:00" u="1"/>
+        <d v="2011-11-06T00:00:00" u="1"/>
         <d v="2011-01-17T00:00:00" u="1"/>
-        <d v="2011-11-06T00:00:00" u="1"/>
-        <d v="2013-05-14T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="消费者" numFmtId="0">
@@ -3298,7 +3027,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1753">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1759">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -13813,6 +13542,42 @@
   </r>
   <r>
     <x v="343"/>
+    <x v="10"/>
+    <n v="-8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <x v="12"/>
+    <n v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <x v="10"/>
+    <n v="-24"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <x v="15"/>
+    <n v="24"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <x v="25"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <x v="25"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="344"/>
     <x v="25"/>
     <m/>
     <x v="2"/>
@@ -13821,16 +13586,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:T453" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:T455" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="349">
-        <item m="1" x="344"/>
+      <items count="350">
         <item m="1" x="345"/>
+        <item m="1" x="348"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="346"/>
+        <item m="1" x="347"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -14030,7 +13795,7 @@
         <item x="198"/>
         <item x="199"/>
         <item x="200"/>
-        <item m="1" x="347"/>
+        <item m="1" x="346"/>
         <item x="201"/>
         <item x="202"/>
         <item x="203"/>
@@ -14174,6 +13939,7 @@
         <item x="341"/>
         <item x="342"/>
         <item x="343"/>
+        <item x="344"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14223,7 +13989,7 @@
     <field x="3"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="451">
+  <rowItems count="453">
     <i>
       <x/>
     </i>
@@ -15187,6 +14953,9 @@
     <i r="1">
       <x v="346"/>
     </i>
+    <i r="1">
+      <x v="347"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -15574,6 +15343,9 @@
     <i r="1">
       <x v="346"/>
     </i>
+    <i r="1">
+      <x v="347"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -15644,20 +15416,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="39">
+    <format dxfId="7">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="6">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15671,7 +15443,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:T5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -15797,20 +15569,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="35">
+    <format dxfId="3">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="2">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -16110,11 +15882,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1753"/>
+  <dimension ref="A1:V1769"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1734" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1753" sqref="D1753"/>
+      <pane ySplit="1" topLeftCell="A1752" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1760" sqref="D1760:D1767"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43868,6 +43640,184 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1754" spans="1:4">
+      <c r="A1754" s="4">
+        <v>41645</v>
+      </c>
+      <c r="B1754" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1754" s="1">
+        <v>-8</v>
+      </c>
+      <c r="D1754" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:4">
+      <c r="A1755" s="4">
+        <v>41645</v>
+      </c>
+      <c r="B1755" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1755" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1755" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:4">
+      <c r="A1756" s="4">
+        <v>41645</v>
+      </c>
+      <c r="B1756" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1756" s="1">
+        <v>-24</v>
+      </c>
+      <c r="D1756" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:4">
+      <c r="A1757" s="4">
+        <v>41645</v>
+      </c>
+      <c r="B1757" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1757" s="1">
+        <v>24</v>
+      </c>
+      <c r="D1757" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:4">
+      <c r="A1758" s="4">
+        <v>41645</v>
+      </c>
+      <c r="B1758" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1758" s="1">
+        <v>-8</v>
+      </c>
+      <c r="D1758" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:4">
+      <c r="A1759" s="4">
+        <v>41645</v>
+      </c>
+      <c r="B1759" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1759" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1759" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:4">
+      <c r="A1760" s="4">
+        <v>41645</v>
+      </c>
+      <c r="B1760" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1760" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:4">
+      <c r="A1761" s="4">
+        <v>41645</v>
+      </c>
+      <c r="B1761" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1761" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:4">
+      <c r="A1762" s="4">
+        <v>41645</v>
+      </c>
+      <c r="B1762" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1762" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:4">
+      <c r="A1763" s="4">
+        <v>41645</v>
+      </c>
+      <c r="B1763" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1763" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:4">
+      <c r="A1764" s="4">
+        <v>41645</v>
+      </c>
+      <c r="B1764" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1764" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:4">
+      <c r="A1765" s="4">
+        <v>41645</v>
+      </c>
+      <c r="B1765" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1765" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:4">
+      <c r="A1766" s="4">
+        <v>41645</v>
+      </c>
+      <c r="B1766" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1766" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:4">
+      <c r="A1767" s="4">
+        <v>41645</v>
+      </c>
+      <c r="B1767" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1767" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:4">
+      <c r="A1768" s="4"/>
+    </row>
+    <row r="1769" spans="1:4">
+      <c r="A1769" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="F342:F343"/>
@@ -43883,22 +43833,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43917,11 +43867,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V453"/>
+  <dimension ref="A1:V455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I430" sqref="I430"/>
+      <selection pane="bottomLeft" activeCell="E435" sqref="E435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44064,7 +44014,7 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3401.0000000000027</v>
+        <v>-3433.0000000000027</v>
       </c>
       <c r="K3" s="7">
         <v>-1770.2999999999988</v>
@@ -44094,7 +44044,7 @@
         <v>-328.4</v>
       </c>
       <c r="T3" s="7">
-        <v>-20420.099999999991</v>
+        <v>-20452.099999999991</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -54944,112 +54894,112 @@
       </c>
     </row>
     <row r="324" spans="1:20">
-      <c r="A324" s="6" t="s">
+      <c r="A324" s="12">
+        <v>41645</v>
+      </c>
+      <c r="B324" s="7"/>
+      <c r="C324" s="7"/>
+      <c r="D324" s="7"/>
+      <c r="E324" s="7"/>
+      <c r="F324" s="7"/>
+      <c r="G324" s="7"/>
+      <c r="H324" s="7"/>
+      <c r="I324" s="7"/>
+      <c r="J324" s="7">
+        <v>-32</v>
+      </c>
+      <c r="K324" s="7"/>
+      <c r="L324" s="7"/>
+      <c r="M324" s="7"/>
+      <c r="N324" s="7"/>
+      <c r="O324" s="7"/>
+      <c r="P324" s="7"/>
+      <c r="Q324" s="7"/>
+      <c r="R324" s="7"/>
+      <c r="S324" s="7"/>
+      <c r="T324" s="7">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20">
+      <c r="A325" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B324" s="7">
+      <c r="B325" s="7">
         <v>850.5</v>
       </c>
-      <c r="C324" s="7">
+      <c r="C325" s="7">
         <v>87</v>
       </c>
-      <c r="D324" s="7">
+      <c r="D325" s="7">
         <v>300</v>
       </c>
-      <c r="E324" s="7">
-        <v>56</v>
-      </c>
-      <c r="F324" s="7">
-        <v>200</v>
-      </c>
-      <c r="G324" s="7">
-        <v>2036.71</v>
-      </c>
-      <c r="H324" s="7">
-        <v>555</v>
-      </c>
-      <c r="I324" s="7">
-        <v>2502.5</v>
-      </c>
-      <c r="J324" s="7">
-        <v>3582.4</v>
-      </c>
-      <c r="K324" s="7">
-        <v>1850</v>
-      </c>
-      <c r="L324" s="7">
-        <v>220</v>
-      </c>
-      <c r="M324" s="7">
-        <v>1670</v>
-      </c>
-      <c r="N324" s="7">
-        <v>1979</v>
-      </c>
-      <c r="O324" s="7">
-        <v>1043</v>
-      </c>
-      <c r="P324" s="7">
-        <v>1500</v>
-      </c>
-      <c r="Q324" s="7">
-        <v>1250</v>
-      </c>
-      <c r="R324" s="7">
-        <v>370</v>
-      </c>
-      <c r="S324" s="7">
-        <v>450</v>
-      </c>
-      <c r="T324" s="7">
-        <v>20502.11</v>
-      </c>
-    </row>
-    <row r="325" spans="1:20">
-      <c r="A325" s="12">
-        <v>40875</v>
-      </c>
-      <c r="B325" s="7"/>
-      <c r="C325" s="7">
-        <v>63</v>
-      </c>
-      <c r="D325" s="7"/>
       <c r="E325" s="7">
         <v>56</v>
       </c>
-      <c r="F325" s="7"/>
-      <c r="G325" s="7"/>
+      <c r="F325" s="7">
+        <v>200</v>
+      </c>
+      <c r="G325" s="7">
+        <v>2036.71</v>
+      </c>
       <c r="H325" s="7">
-        <v>0</v>
-      </c>
-      <c r="I325" s="7"/>
-      <c r="J325" s="7"/>
-      <c r="K325" s="7"/>
-      <c r="L325" s="7"/>
-      <c r="M325" s="7"/>
-      <c r="N325" s="7"/>
-      <c r="O325" s="7"/>
-      <c r="P325" s="7"/>
-      <c r="Q325" s="7"/>
-      <c r="R325" s="7"/>
-      <c r="S325" s="7"/>
+        <v>555</v>
+      </c>
+      <c r="I325" s="7">
+        <v>2502.5</v>
+      </c>
+      <c r="J325" s="7">
+        <v>3582.4</v>
+      </c>
+      <c r="K325" s="7">
+        <v>1850</v>
+      </c>
+      <c r="L325" s="7">
+        <v>220</v>
+      </c>
+      <c r="M325" s="7">
+        <v>1678</v>
+      </c>
+      <c r="N325" s="7">
+        <v>2003</v>
+      </c>
+      <c r="O325" s="7">
+        <v>1043</v>
+      </c>
+      <c r="P325" s="7">
+        <v>1500</v>
+      </c>
+      <c r="Q325" s="7">
+        <v>1250</v>
+      </c>
+      <c r="R325" s="7">
+        <v>370</v>
+      </c>
+      <c r="S325" s="7">
+        <v>450</v>
+      </c>
       <c r="T325" s="7">
-        <v>119</v>
+        <v>20534.11</v>
       </c>
     </row>
     <row r="326" spans="1:20">
       <c r="A326" s="12">
-        <v>40879</v>
-      </c>
-      <c r="B326" s="7">
-        <v>7</v>
-      </c>
-      <c r="C326" s="7"/>
+        <v>40875</v>
+      </c>
+      <c r="B326" s="7"/>
+      <c r="C326" s="7">
+        <v>63</v>
+      </c>
       <c r="D326" s="7"/>
-      <c r="E326" s="7"/>
+      <c r="E326" s="7">
+        <v>56</v>
+      </c>
       <c r="F326" s="7"/>
       <c r="G326" s="7"/>
-      <c r="H326" s="7"/>
+      <c r="H326" s="7">
+        <v>0</v>
+      </c>
       <c r="I326" s="7"/>
       <c r="J326" s="7"/>
       <c r="K326" s="7"/>
@@ -55062,21 +55012,21 @@
       <c r="R326" s="7"/>
       <c r="S326" s="7"/>
       <c r="T326" s="7">
-        <v>7</v>
+        <v>119</v>
       </c>
     </row>
     <row r="327" spans="1:20">
       <c r="A327" s="12">
-        <v>40883</v>
-      </c>
-      <c r="B327" s="7"/>
+        <v>40879</v>
+      </c>
+      <c r="B327" s="7">
+        <v>7</v>
+      </c>
       <c r="C327" s="7"/>
       <c r="D327" s="7"/>
       <c r="E327" s="7"/>
       <c r="F327" s="7"/>
-      <c r="G327" s="7">
-        <v>50</v>
-      </c>
+      <c r="G327" s="7"/>
       <c r="H327" s="7"/>
       <c r="I327" s="7"/>
       <c r="J327" s="7"/>
@@ -55090,23 +55040,23 @@
       <c r="R327" s="7"/>
       <c r="S327" s="7"/>
       <c r="T327" s="7">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:20">
       <c r="A328" s="12">
-        <v>40891</v>
+        <v>40883</v>
       </c>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
       <c r="D328" s="7"/>
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
-      <c r="G328" s="7"/>
+      <c r="G328" s="7">
+        <v>50</v>
+      </c>
       <c r="H328" s="7"/>
-      <c r="I328" s="7">
-        <v>65</v>
-      </c>
+      <c r="I328" s="7"/>
       <c r="J328" s="7"/>
       <c r="K328" s="7"/>
       <c r="L328" s="7"/>
@@ -55118,24 +55068,22 @@
       <c r="R328" s="7"/>
       <c r="S328" s="7"/>
       <c r="T328" s="7">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="329" spans="1:20">
       <c r="A329" s="12">
-        <v>40892</v>
+        <v>40891</v>
       </c>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
-      <c r="G329" s="7">
-        <v>100</v>
-      </c>
+      <c r="G329" s="7"/>
       <c r="H329" s="7"/>
       <c r="I329" s="7">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J329" s="7"/>
       <c r="K329" s="7"/>
@@ -55148,22 +55096,24 @@
       <c r="R329" s="7"/>
       <c r="S329" s="7"/>
       <c r="T329" s="7">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="330" spans="1:20">
       <c r="A330" s="12">
-        <v>40913</v>
+        <v>40892</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
       <c r="D330" s="7"/>
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
-      <c r="G330" s="7"/>
+      <c r="G330" s="7">
+        <v>100</v>
+      </c>
       <c r="H330" s="7"/>
       <c r="I330" s="7">
-        <v>679.5</v>
+        <v>68</v>
       </c>
       <c r="J330" s="7"/>
       <c r="K330" s="7"/>
@@ -55176,23 +55126,23 @@
       <c r="R330" s="7"/>
       <c r="S330" s="7"/>
       <c r="T330" s="7">
-        <v>679.5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="331" spans="1:20">
       <c r="A331" s="12">
-        <v>40917</v>
+        <v>40913</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
-      <c r="G331" s="7">
-        <v>100</v>
-      </c>
+      <c r="G331" s="7"/>
       <c r="H331" s="7"/>
-      <c r="I331" s="7"/>
+      <c r="I331" s="7">
+        <v>679.5</v>
+      </c>
       <c r="J331" s="7"/>
       <c r="K331" s="7"/>
       <c r="L331" s="7"/>
@@ -55204,24 +55154,24 @@
       <c r="R331" s="7"/>
       <c r="S331" s="7"/>
       <c r="T331" s="7">
-        <v>100</v>
+        <v>679.5</v>
       </c>
     </row>
     <row r="332" spans="1:20">
       <c r="A332" s="12">
-        <v>40919</v>
+        <v>40917</v>
       </c>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
       <c r="D332" s="7"/>
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
-      <c r="G332" s="7"/>
+      <c r="G332" s="7">
+        <v>100</v>
+      </c>
       <c r="H332" s="7"/>
       <c r="I332" s="7"/>
-      <c r="J332" s="7">
-        <v>15</v>
-      </c>
+      <c r="J332" s="7"/>
       <c r="K332" s="7"/>
       <c r="L332" s="7"/>
       <c r="M332" s="7"/>
@@ -55232,26 +55182,24 @@
       <c r="R332" s="7"/>
       <c r="S332" s="7"/>
       <c r="T332" s="7">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="333" spans="1:20">
       <c r="A333" s="12">
-        <v>40921</v>
+        <v>40919</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
-      <c r="D333" s="7">
-        <v>100</v>
-      </c>
+      <c r="D333" s="7"/>
       <c r="E333" s="7"/>
-      <c r="F333" s="7">
-        <v>100</v>
-      </c>
+      <c r="F333" s="7"/>
       <c r="G333" s="7"/>
       <c r="H333" s="7"/>
       <c r="I333" s="7"/>
-      <c r="J333" s="7"/>
+      <c r="J333" s="7">
+        <v>15</v>
+      </c>
       <c r="K333" s="7"/>
       <c r="L333" s="7"/>
       <c r="M333" s="7"/>
@@ -55262,24 +55210,26 @@
       <c r="R333" s="7"/>
       <c r="S333" s="7"/>
       <c r="T333" s="7">
-        <v>200</v>
+        <v>15</v>
       </c>
     </row>
     <row r="334" spans="1:20">
       <c r="A334" s="12">
-        <v>40925</v>
+        <v>40921</v>
       </c>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
-      <c r="D334" s="7"/>
+      <c r="D334" s="7">
+        <v>100</v>
+      </c>
       <c r="E334" s="7"/>
-      <c r="F334" s="7"/>
+      <c r="F334" s="7">
+        <v>100</v>
+      </c>
       <c r="G334" s="7"/>
       <c r="H334" s="7"/>
       <c r="I334" s="7"/>
-      <c r="J334" s="7">
-        <v>14</v>
-      </c>
+      <c r="J334" s="7"/>
       <c r="K334" s="7"/>
       <c r="L334" s="7"/>
       <c r="M334" s="7"/>
@@ -55290,12 +55240,12 @@
       <c r="R334" s="7"/>
       <c r="S334" s="7"/>
       <c r="T334" s="7">
-        <v>14</v>
+        <v>200</v>
       </c>
     </row>
     <row r="335" spans="1:20">
       <c r="A335" s="12">
-        <v>40926</v>
+        <v>40925</v>
       </c>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -55306,7 +55256,7 @@
       <c r="H335" s="7"/>
       <c r="I335" s="7"/>
       <c r="J335" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K335" s="7"/>
       <c r="L335" s="7"/>
@@ -55318,12 +55268,12 @@
       <c r="R335" s="7"/>
       <c r="S335" s="7"/>
       <c r="T335" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="336" spans="1:20">
       <c r="A336" s="12">
-        <v>40947</v>
+        <v>40926</v>
       </c>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -55334,7 +55284,7 @@
       <c r="H336" s="7"/>
       <c r="I336" s="7"/>
       <c r="J336" s="7">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="K336" s="7"/>
       <c r="L336" s="7"/>
@@ -55346,12 +55296,12 @@
       <c r="R336" s="7"/>
       <c r="S336" s="7"/>
       <c r="T336" s="7">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="337" spans="1:20">
       <c r="A337" s="12">
-        <v>40954</v>
+        <v>40947</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -55359,11 +55309,11 @@
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
       <c r="G337" s="7"/>
-      <c r="H337" s="7">
+      <c r="H337" s="7"/>
+      <c r="I337" s="7"/>
+      <c r="J337" s="7">
         <v>100</v>
       </c>
-      <c r="I337" s="7"/>
-      <c r="J337" s="7"/>
       <c r="K337" s="7"/>
       <c r="L337" s="7"/>
       <c r="M337" s="7"/>
@@ -55379,7 +55329,7 @@
     </row>
     <row r="338" spans="1:20">
       <c r="A338" s="12">
-        <v>40973</v>
+        <v>40954</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -55387,14 +55337,14 @@
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
       <c r="G338" s="7"/>
-      <c r="H338" s="7"/>
+      <c r="H338" s="7">
+        <v>100</v>
+      </c>
       <c r="I338" s="7"/>
       <c r="J338" s="7"/>
       <c r="K338" s="7"/>
       <c r="L338" s="7"/>
-      <c r="M338" s="7">
-        <v>100</v>
-      </c>
+      <c r="M338" s="7"/>
       <c r="N338" s="7"/>
       <c r="O338" s="7"/>
       <c r="P338" s="7"/>
@@ -55407,7 +55357,7 @@
     </row>
     <row r="339" spans="1:20">
       <c r="A339" s="12">
-        <v>40974</v>
+        <v>40973</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -55415,14 +55365,14 @@
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
       <c r="G339" s="7"/>
-      <c r="H339" s="7">
-        <v>100</v>
-      </c>
+      <c r="H339" s="7"/>
       <c r="I339" s="7"/>
       <c r="J339" s="7"/>
       <c r="K339" s="7"/>
       <c r="L339" s="7"/>
-      <c r="M339" s="7"/>
+      <c r="M339" s="7">
+        <v>100</v>
+      </c>
       <c r="N339" s="7"/>
       <c r="O339" s="7"/>
       <c r="P339" s="7"/>
@@ -55435,7 +55385,7 @@
     </row>
     <row r="340" spans="1:20">
       <c r="A340" s="12">
-        <v>40981</v>
+        <v>40974</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -55446,9 +55396,7 @@
       <c r="H340" s="7">
         <v>100</v>
       </c>
-      <c r="I340" s="7">
-        <v>300</v>
-      </c>
+      <c r="I340" s="7"/>
       <c r="J340" s="7"/>
       <c r="K340" s="7"/>
       <c r="L340" s="7"/>
@@ -55460,12 +55408,12 @@
       <c r="R340" s="7"/>
       <c r="S340" s="7"/>
       <c r="T340" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="341" spans="1:20">
       <c r="A341" s="12">
-        <v>41032</v>
+        <v>40981</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -55473,15 +55421,15 @@
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
       <c r="G341" s="7"/>
-      <c r="H341" s="7"/>
-      <c r="I341" s="7"/>
+      <c r="H341" s="7">
+        <v>100</v>
+      </c>
+      <c r="I341" s="7">
+        <v>300</v>
+      </c>
       <c r="J341" s="7"/>
-      <c r="K341" s="7">
-        <v>100</v>
-      </c>
-      <c r="L341" s="7">
-        <v>100</v>
-      </c>
+      <c r="K341" s="7"/>
+      <c r="L341" s="7"/>
       <c r="M341" s="7"/>
       <c r="N341" s="7"/>
       <c r="O341" s="7"/>
@@ -55490,12 +55438,12 @@
       <c r="R341" s="7"/>
       <c r="S341" s="7"/>
       <c r="T341" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="342" spans="1:20">
       <c r="A342" s="12">
-        <v>41037</v>
+        <v>41032</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -55506,11 +55454,13 @@
       <c r="H342" s="7"/>
       <c r="I342" s="7"/>
       <c r="J342" s="7"/>
-      <c r="K342" s="7"/>
-      <c r="L342" s="7"/>
-      <c r="M342" s="7">
+      <c r="K342" s="7">
         <v>100</v>
       </c>
+      <c r="L342" s="7">
+        <v>100</v>
+      </c>
+      <c r="M342" s="7"/>
       <c r="N342" s="7"/>
       <c r="O342" s="7"/>
       <c r="P342" s="7"/>
@@ -55518,12 +55468,12 @@
       <c r="R342" s="7"/>
       <c r="S342" s="7"/>
       <c r="T342" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="343" spans="1:20">
       <c r="A343" s="12">
-        <v>41039</v>
+        <v>41037</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -55536,22 +55486,22 @@
       <c r="J343" s="7"/>
       <c r="K343" s="7"/>
       <c r="L343" s="7"/>
-      <c r="M343" s="7"/>
-      <c r="N343" s="7">
-        <v>35</v>
-      </c>
+      <c r="M343" s="7">
+        <v>100</v>
+      </c>
+      <c r="N343" s="7"/>
       <c r="O343" s="7"/>
       <c r="P343" s="7"/>
       <c r="Q343" s="7"/>
       <c r="R343" s="7"/>
       <c r="S343" s="7"/>
       <c r="T343" s="7">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="344" spans="1:20">
       <c r="A344" s="12">
-        <v>41044</v>
+        <v>41039</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -55566,7 +55516,7 @@
       <c r="L344" s="7"/>
       <c r="M344" s="7"/>
       <c r="N344" s="7">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="O344" s="7"/>
       <c r="P344" s="7"/>
@@ -55574,52 +55524,52 @@
       <c r="R344" s="7"/>
       <c r="S344" s="7"/>
       <c r="T344" s="7">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="345" spans="1:20">
       <c r="A345" s="12">
-        <v>41050</v>
+        <v>41044</v>
       </c>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
       <c r="F345" s="7"/>
-      <c r="G345" s="7">
-        <v>89</v>
-      </c>
+      <c r="G345" s="7"/>
       <c r="H345" s="7"/>
       <c r="I345" s="7"/>
       <c r="J345" s="7"/>
       <c r="K345" s="7"/>
       <c r="L345" s="7"/>
       <c r="M345" s="7"/>
-      <c r="N345" s="7"/>
+      <c r="N345" s="7">
+        <v>20</v>
+      </c>
       <c r="O345" s="7"/>
       <c r="P345" s="7"/>
       <c r="Q345" s="7"/>
       <c r="R345" s="7"/>
       <c r="S345" s="7"/>
       <c r="T345" s="7">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="346" spans="1:20">
       <c r="A346" s="12">
-        <v>41057</v>
+        <v>41050</v>
       </c>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
       <c r="F346" s="7"/>
-      <c r="G346" s="7"/>
+      <c r="G346" s="7">
+        <v>89</v>
+      </c>
       <c r="H346" s="7"/>
       <c r="I346" s="7"/>
-      <c r="J346" s="7">
-        <v>300</v>
-      </c>
+      <c r="J346" s="7"/>
       <c r="K346" s="7"/>
       <c r="L346" s="7"/>
       <c r="M346" s="7"/>
@@ -55630,12 +55580,12 @@
       <c r="R346" s="7"/>
       <c r="S346" s="7"/>
       <c r="T346" s="7">
-        <v>300</v>
+        <v>89</v>
       </c>
     </row>
     <row r="347" spans="1:20">
       <c r="A347" s="12">
-        <v>41060</v>
+        <v>41057</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -55646,7 +55596,7 @@
       <c r="H347" s="7"/>
       <c r="I347" s="7"/>
       <c r="J347" s="7">
-        <v>10.1</v>
+        <v>300</v>
       </c>
       <c r="K347" s="7"/>
       <c r="L347" s="7"/>
@@ -55658,24 +55608,24 @@
       <c r="R347" s="7"/>
       <c r="S347" s="7"/>
       <c r="T347" s="7">
-        <v>10.1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="348" spans="1:20">
       <c r="A348" s="12">
-        <v>41066</v>
+        <v>41060</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
-      <c r="G348" s="7">
-        <v>300</v>
-      </c>
+      <c r="G348" s="7"/>
       <c r="H348" s="7"/>
       <c r="I348" s="7"/>
-      <c r="J348" s="7"/>
+      <c r="J348" s="7">
+        <v>10.1</v>
+      </c>
       <c r="K348" s="7"/>
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
@@ -55686,24 +55636,24 @@
       <c r="R348" s="7"/>
       <c r="S348" s="7"/>
       <c r="T348" s="7">
-        <v>300</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="349" spans="1:20">
       <c r="A349" s="12">
-        <v>41070</v>
+        <v>41066</v>
       </c>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
-      <c r="G349" s="7"/>
+      <c r="G349" s="7">
+        <v>300</v>
+      </c>
       <c r="H349" s="7"/>
       <c r="I349" s="7"/>
-      <c r="J349" s="7">
-        <v>130</v>
-      </c>
+      <c r="J349" s="7"/>
       <c r="K349" s="7"/>
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
@@ -55714,12 +55664,12 @@
       <c r="R349" s="7"/>
       <c r="S349" s="7"/>
       <c r="T349" s="7">
-        <v>130</v>
+        <v>300</v>
       </c>
     </row>
     <row r="350" spans="1:20">
       <c r="A350" s="12">
-        <v>41071</v>
+        <v>41070</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -55730,7 +55680,7 @@
       <c r="H350" s="7"/>
       <c r="I350" s="7"/>
       <c r="J350" s="7">
-        <v>81.400000000000006</v>
+        <v>130</v>
       </c>
       <c r="K350" s="7"/>
       <c r="L350" s="7"/>
@@ -55742,12 +55692,12 @@
       <c r="R350" s="7"/>
       <c r="S350" s="7"/>
       <c r="T350" s="7">
-        <v>81.400000000000006</v>
+        <v>130</v>
       </c>
     </row>
     <row r="351" spans="1:20">
       <c r="A351" s="12">
-        <v>41072</v>
+        <v>41071</v>
       </c>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -55758,7 +55708,7 @@
       <c r="H351" s="7"/>
       <c r="I351" s="7"/>
       <c r="J351" s="7">
-        <v>77.599999999999994</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="K351" s="7"/>
       <c r="L351" s="7"/>
@@ -55770,25 +55720,23 @@
       <c r="R351" s="7"/>
       <c r="S351" s="7"/>
       <c r="T351" s="7">
-        <v>77.599999999999994</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="352" spans="1:20">
       <c r="A352" s="12">
-        <v>41078</v>
+        <v>41072</v>
       </c>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
-      <c r="G352" s="7">
-        <v>47</v>
-      </c>
+      <c r="G352" s="7"/>
       <c r="H352" s="7"/>
       <c r="I352" s="7"/>
       <c r="J352" s="7">
-        <v>50</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="K352" s="7"/>
       <c r="L352" s="7"/>
@@ -55800,23 +55748,25 @@
       <c r="R352" s="7"/>
       <c r="S352" s="7"/>
       <c r="T352" s="7">
-        <v>97</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="353" spans="1:20">
       <c r="A353" s="12">
-        <v>41082</v>
+        <v>41078</v>
       </c>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
       <c r="F353" s="7"/>
-      <c r="G353" s="7"/>
+      <c r="G353" s="7">
+        <v>47</v>
+      </c>
       <c r="H353" s="7"/>
       <c r="I353" s="7"/>
       <c r="J353" s="7">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="K353" s="7"/>
       <c r="L353" s="7"/>
@@ -55828,12 +55778,12 @@
       <c r="R353" s="7"/>
       <c r="S353" s="7"/>
       <c r="T353" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="354" spans="1:20">
       <c r="A354" s="12">
-        <v>41083</v>
+        <v>41082</v>
       </c>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -55844,7 +55794,7 @@
       <c r="H354" s="7"/>
       <c r="I354" s="7"/>
       <c r="J354" s="7">
-        <v>39.9</v>
+        <v>98</v>
       </c>
       <c r="K354" s="7"/>
       <c r="L354" s="7"/>
@@ -55856,24 +55806,24 @@
       <c r="R354" s="7"/>
       <c r="S354" s="7"/>
       <c r="T354" s="7">
-        <v>39.9</v>
+        <v>98</v>
       </c>
     </row>
     <row r="355" spans="1:20">
       <c r="A355" s="12">
-        <v>41085</v>
+        <v>41083</v>
       </c>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
       <c r="F355" s="7"/>
-      <c r="G355" s="7">
-        <v>300</v>
-      </c>
+      <c r="G355" s="7"/>
       <c r="H355" s="7"/>
       <c r="I355" s="7"/>
-      <c r="J355" s="7"/>
+      <c r="J355" s="7">
+        <v>39.9</v>
+      </c>
       <c r="K355" s="7"/>
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
@@ -55884,24 +55834,24 @@
       <c r="R355" s="7"/>
       <c r="S355" s="7"/>
       <c r="T355" s="7">
-        <v>300</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="356" spans="1:20">
       <c r="A356" s="12">
-        <v>41088</v>
+        <v>41085</v>
       </c>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
       <c r="F356" s="7"/>
-      <c r="G356" s="7"/>
+      <c r="G356" s="7">
+        <v>300</v>
+      </c>
       <c r="H356" s="7"/>
       <c r="I356" s="7"/>
-      <c r="J356" s="7">
-        <v>20</v>
-      </c>
+      <c r="J356" s="7"/>
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
@@ -55912,12 +55862,12 @@
       <c r="R356" s="7"/>
       <c r="S356" s="7"/>
       <c r="T356" s="7">
-        <v>20</v>
+        <v>300</v>
       </c>
     </row>
     <row r="357" spans="1:20">
       <c r="A357" s="12">
-        <v>41092</v>
+        <v>41088</v>
       </c>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -55927,25 +55877,25 @@
       <c r="G357" s="7"/>
       <c r="H357" s="7"/>
       <c r="I357" s="7"/>
-      <c r="J357" s="7"/>
+      <c r="J357" s="7">
+        <v>20</v>
+      </c>
       <c r="K357" s="7"/>
       <c r="L357" s="7"/>
       <c r="M357" s="7"/>
       <c r="N357" s="7"/>
-      <c r="O357" s="7">
-        <v>93</v>
-      </c>
+      <c r="O357" s="7"/>
       <c r="P357" s="7"/>
       <c r="Q357" s="7"/>
       <c r="R357" s="7"/>
       <c r="S357" s="7"/>
       <c r="T357" s="7">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="358" spans="1:20">
       <c r="A358" s="12">
-        <v>41093</v>
+        <v>41092</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -55955,38 +55905,36 @@
       <c r="G358" s="7"/>
       <c r="H358" s="7"/>
       <c r="I358" s="7"/>
-      <c r="J358" s="7">
-        <v>100</v>
-      </c>
+      <c r="J358" s="7"/>
       <c r="K358" s="7"/>
       <c r="L358" s="7"/>
       <c r="M358" s="7"/>
       <c r="N358" s="7"/>
-      <c r="O358" s="7"/>
+      <c r="O358" s="7">
+        <v>93</v>
+      </c>
       <c r="P358" s="7"/>
       <c r="Q358" s="7"/>
       <c r="R358" s="7"/>
       <c r="S358" s="7"/>
       <c r="T358" s="7">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="359" spans="1:20">
       <c r="A359" s="12">
-        <v>41095</v>
+        <v>41093</v>
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
       <c r="F359" s="7"/>
-      <c r="G359" s="7">
-        <v>70</v>
-      </c>
+      <c r="G359" s="7"/>
       <c r="H359" s="7"/>
       <c r="I359" s="7"/>
       <c r="J359" s="7">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K359" s="7"/>
       <c r="L359" s="7"/>
@@ -55998,24 +55946,26 @@
       <c r="R359" s="7"/>
       <c r="S359" s="7"/>
       <c r="T359" s="7">
-        <v>168</v>
+        <v>100</v>
       </c>
     </row>
     <row r="360" spans="1:20">
       <c r="A360" s="12">
-        <v>41100</v>
+        <v>41095</v>
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
-      <c r="G360" s="7"/>
+      <c r="G360" s="7">
+        <v>70</v>
+      </c>
       <c r="H360" s="7"/>
-      <c r="I360" s="7">
-        <v>16</v>
-      </c>
-      <c r="J360" s="7"/>
+      <c r="I360" s="7"/>
+      <c r="J360" s="7">
+        <v>98</v>
+      </c>
       <c r="K360" s="7"/>
       <c r="L360" s="7"/>
       <c r="M360" s="7"/>
@@ -56026,12 +55976,12 @@
       <c r="R360" s="7"/>
       <c r="S360" s="7"/>
       <c r="T360" s="7">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="361" spans="1:20">
       <c r="A361" s="12">
-        <v>41108</v>
+        <v>41100</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
@@ -56041,7 +55991,7 @@
       <c r="G361" s="7"/>
       <c r="H361" s="7"/>
       <c r="I361" s="7">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="J361" s="7"/>
       <c r="K361" s="7"/>
@@ -56054,12 +56004,12 @@
       <c r="R361" s="7"/>
       <c r="S361" s="7"/>
       <c r="T361" s="7">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="362" spans="1:20">
       <c r="A362" s="12">
-        <v>41110</v>
+        <v>41108</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -56069,7 +56019,7 @@
       <c r="G362" s="7"/>
       <c r="H362" s="7"/>
       <c r="I362" s="7">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="J362" s="7"/>
       <c r="K362" s="7"/>
@@ -56082,12 +56032,12 @@
       <c r="R362" s="7"/>
       <c r="S362" s="7"/>
       <c r="T362" s="7">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="363" spans="1:20">
       <c r="A363" s="12">
-        <v>41116</v>
+        <v>41110</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -56097,7 +56047,7 @@
       <c r="G363" s="7"/>
       <c r="H363" s="7"/>
       <c r="I363" s="7">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="J363" s="7"/>
       <c r="K363" s="7"/>
@@ -56110,12 +56060,12 @@
       <c r="R363" s="7"/>
       <c r="S363" s="7"/>
       <c r="T363" s="7">
-        <v>83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="364" spans="1:20">
       <c r="A364" s="12">
-        <v>41136</v>
+        <v>41116</v>
       </c>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -56123,11 +56073,9 @@
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
       <c r="G364" s="7"/>
-      <c r="H364" s="7">
-        <v>55</v>
-      </c>
+      <c r="H364" s="7"/>
       <c r="I364" s="7">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="J364" s="7"/>
       <c r="K364" s="7"/>
@@ -56140,23 +56088,25 @@
       <c r="R364" s="7"/>
       <c r="S364" s="7"/>
       <c r="T364" s="7">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="365" spans="1:20">
       <c r="A365" s="12">
-        <v>41138</v>
+        <v>41136</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
-      <c r="G365" s="7">
-        <v>100.4</v>
-      </c>
-      <c r="H365" s="7"/>
-      <c r="I365" s="7"/>
+      <c r="G365" s="7"/>
+      <c r="H365" s="7">
+        <v>55</v>
+      </c>
+      <c r="I365" s="7">
+        <v>39</v>
+      </c>
       <c r="J365" s="7"/>
       <c r="K365" s="7"/>
       <c r="L365" s="7"/>
@@ -56168,24 +56118,24 @@
       <c r="R365" s="7"/>
       <c r="S365" s="7"/>
       <c r="T365" s="7">
-        <v>100.4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="366" spans="1:20">
       <c r="A366" s="12">
-        <v>41151</v>
+        <v>41138</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
       <c r="F366" s="7"/>
-      <c r="G366" s="7"/>
+      <c r="G366" s="7">
+        <v>100.4</v>
+      </c>
       <c r="H366" s="7"/>
       <c r="I366" s="7"/>
-      <c r="J366" s="7">
-        <v>100</v>
-      </c>
+      <c r="J366" s="7"/>
       <c r="K366" s="7"/>
       <c r="L366" s="7"/>
       <c r="M366" s="7"/>
@@ -56196,12 +56146,12 @@
       <c r="R366" s="7"/>
       <c r="S366" s="7"/>
       <c r="T366" s="7">
-        <v>100</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="367" spans="1:20">
       <c r="A367" s="12">
-        <v>41156</v>
+        <v>41151</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -56210,10 +56160,10 @@
       <c r="F367" s="7"/>
       <c r="G367" s="7"/>
       <c r="H367" s="7"/>
-      <c r="I367" s="7">
-        <v>15</v>
-      </c>
-      <c r="J367" s="7"/>
+      <c r="I367" s="7"/>
+      <c r="J367" s="7">
+        <v>100</v>
+      </c>
       <c r="K367" s="7"/>
       <c r="L367" s="7"/>
       <c r="M367" s="7"/>
@@ -56224,12 +56174,12 @@
       <c r="R367" s="7"/>
       <c r="S367" s="7"/>
       <c r="T367" s="7">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="368" spans="1:20">
       <c r="A368" s="12">
-        <v>41161</v>
+        <v>41156</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -56239,7 +56189,7 @@
       <c r="G368" s="7"/>
       <c r="H368" s="7"/>
       <c r="I368" s="7">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="J368" s="7"/>
       <c r="K368" s="7"/>
@@ -56252,12 +56202,12 @@
       <c r="R368" s="7"/>
       <c r="S368" s="7"/>
       <c r="T368" s="7">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="369" spans="1:20">
       <c r="A369" s="12">
-        <v>41162</v>
+        <v>41161</v>
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -56266,28 +56216,26 @@
       <c r="F369" s="7"/>
       <c r="G369" s="7"/>
       <c r="H369" s="7"/>
-      <c r="I369" s="7"/>
-      <c r="J369" s="7">
-        <v>100</v>
-      </c>
+      <c r="I369" s="7">
+        <v>76</v>
+      </c>
+      <c r="J369" s="7"/>
       <c r="K369" s="7"/>
       <c r="L369" s="7"/>
       <c r="M369" s="7"/>
-      <c r="N369" s="7">
-        <v>48</v>
-      </c>
+      <c r="N369" s="7"/>
       <c r="O369" s="7"/>
       <c r="P369" s="7"/>
       <c r="Q369" s="7"/>
       <c r="R369" s="7"/>
       <c r="S369" s="7"/>
       <c r="T369" s="7">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="370" spans="1:20">
       <c r="A370" s="12">
-        <v>41166</v>
+        <v>41162</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -56297,12 +56245,14 @@
       <c r="G370" s="7"/>
       <c r="H370" s="7"/>
       <c r="I370" s="7"/>
-      <c r="J370" s="7"/>
+      <c r="J370" s="7">
+        <v>100</v>
+      </c>
       <c r="K370" s="7"/>
       <c r="L370" s="7"/>
       <c r="M370" s="7"/>
       <c r="N370" s="7">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="O370" s="7"/>
       <c r="P370" s="7"/>
@@ -56310,12 +56260,12 @@
       <c r="R370" s="7"/>
       <c r="S370" s="7"/>
       <c r="T370" s="7">
-        <v>100</v>
+        <v>148</v>
       </c>
     </row>
     <row r="371" spans="1:20">
       <c r="A371" s="12">
-        <v>41171</v>
+        <v>41166</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -56330,7 +56280,7 @@
       <c r="L371" s="7"/>
       <c r="M371" s="7"/>
       <c r="N371" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O371" s="7"/>
       <c r="P371" s="7"/>
@@ -56338,20 +56288,18 @@
       <c r="R371" s="7"/>
       <c r="S371" s="7"/>
       <c r="T371" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="372" spans="1:20">
       <c r="A372" s="12">
-        <v>41175</v>
+        <v>41171</v>
       </c>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
-      <c r="F372" s="7">
-        <v>100</v>
-      </c>
+      <c r="F372" s="7"/>
       <c r="G372" s="7"/>
       <c r="H372" s="7"/>
       <c r="I372" s="7"/>
@@ -56359,68 +56307,70 @@
       <c r="K372" s="7"/>
       <c r="L372" s="7"/>
       <c r="M372" s="7"/>
-      <c r="N372" s="7"/>
+      <c r="N372" s="7">
+        <v>10</v>
+      </c>
       <c r="O372" s="7"/>
       <c r="P372" s="7"/>
       <c r="Q372" s="7"/>
       <c r="R372" s="7"/>
       <c r="S372" s="7"/>
       <c r="T372" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373" spans="1:20">
       <c r="A373" s="12">
-        <v>41197</v>
-      </c>
-      <c r="B373" s="7">
-        <v>10</v>
-      </c>
+        <v>41175</v>
+      </c>
+      <c r="B373" s="7"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
-      <c r="F373" s="7"/>
-      <c r="G373" s="7">
-        <v>10</v>
-      </c>
+      <c r="F373" s="7">
+        <v>100</v>
+      </c>
+      <c r="G373" s="7"/>
       <c r="H373" s="7"/>
       <c r="I373" s="7"/>
-      <c r="J373" s="7">
-        <v>10</v>
-      </c>
+      <c r="J373" s="7"/>
       <c r="K373" s="7"/>
       <c r="L373" s="7"/>
       <c r="M373" s="7"/>
-      <c r="N373" s="7">
-        <v>60</v>
-      </c>
+      <c r="N373" s="7"/>
       <c r="O373" s="7"/>
       <c r="P373" s="7"/>
       <c r="Q373" s="7"/>
       <c r="R373" s="7"/>
       <c r="S373" s="7"/>
       <c r="T373" s="7">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="374" spans="1:20">
       <c r="A374" s="12">
-        <v>41198</v>
-      </c>
-      <c r="B374" s="7"/>
+        <v>41197</v>
+      </c>
+      <c r="B374" s="7">
+        <v>10</v>
+      </c>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
       <c r="F374" s="7"/>
-      <c r="G374" s="7"/>
+      <c r="G374" s="7">
+        <v>10</v>
+      </c>
       <c r="H374" s="7"/>
       <c r="I374" s="7"/>
-      <c r="J374" s="7"/>
+      <c r="J374" s="7">
+        <v>10</v>
+      </c>
       <c r="K374" s="7"/>
       <c r="L374" s="7"/>
       <c r="M374" s="7"/>
       <c r="N374" s="7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O374" s="7"/>
       <c r="P374" s="7"/>
@@ -56428,12 +56378,12 @@
       <c r="R374" s="7"/>
       <c r="S374" s="7"/>
       <c r="T374" s="7">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="375" spans="1:20">
       <c r="A375" s="12">
-        <v>41205</v>
+        <v>41198</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -56443,18 +56393,12 @@
       <c r="G375" s="7"/>
       <c r="H375" s="7"/>
       <c r="I375" s="7"/>
-      <c r="J375" s="7">
-        <v>162</v>
-      </c>
-      <c r="K375" s="7">
-        <v>100</v>
-      </c>
+      <c r="J375" s="7"/>
+      <c r="K375" s="7"/>
       <c r="L375" s="7"/>
-      <c r="M375" s="7">
-        <v>100</v>
-      </c>
+      <c r="M375" s="7"/>
       <c r="N375" s="7">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O375" s="7"/>
       <c r="P375" s="7"/>
@@ -56462,12 +56406,12 @@
       <c r="R375" s="7"/>
       <c r="S375" s="7"/>
       <c r="T375" s="7">
-        <v>432</v>
+        <v>40</v>
       </c>
     </row>
     <row r="376" spans="1:20">
       <c r="A376" s="12">
-        <v>41214</v>
+        <v>41205</v>
       </c>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -56478,24 +56422,30 @@
       <c r="H376" s="7"/>
       <c r="I376" s="7"/>
       <c r="J376" s="7">
-        <v>2</v>
-      </c>
-      <c r="K376" s="7"/>
+        <v>162</v>
+      </c>
+      <c r="K376" s="7">
+        <v>100</v>
+      </c>
       <c r="L376" s="7"/>
-      <c r="M376" s="7"/>
-      <c r="N376" s="7"/>
+      <c r="M376" s="7">
+        <v>100</v>
+      </c>
+      <c r="N376" s="7">
+        <v>70</v>
+      </c>
       <c r="O376" s="7"/>
       <c r="P376" s="7"/>
       <c r="Q376" s="7"/>
       <c r="R376" s="7"/>
       <c r="S376" s="7"/>
       <c r="T376" s="7">
-        <v>2</v>
+        <v>432</v>
       </c>
     </row>
     <row r="377" spans="1:20">
       <c r="A377" s="12">
-        <v>41215</v>
+        <v>41214</v>
       </c>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -56506,7 +56456,7 @@
       <c r="H377" s="7"/>
       <c r="I377" s="7"/>
       <c r="J377" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K377" s="7"/>
       <c r="L377" s="7"/>
@@ -56518,12 +56468,12 @@
       <c r="R377" s="7"/>
       <c r="S377" s="7"/>
       <c r="T377" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:20">
       <c r="A378" s="12">
-        <v>41237</v>
+        <v>41215</v>
       </c>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -56534,11 +56484,9 @@
       <c r="H378" s="7"/>
       <c r="I378" s="7"/>
       <c r="J378" s="7">
-        <v>100</v>
-      </c>
-      <c r="K378" s="7">
-        <v>100</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K378" s="7"/>
       <c r="L378" s="7"/>
       <c r="M378" s="7"/>
       <c r="N378" s="7"/>
@@ -56548,27 +56496,27 @@
       <c r="R378" s="7"/>
       <c r="S378" s="7"/>
       <c r="T378" s="7">
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379" spans="1:20">
       <c r="A379" s="12">
-        <v>41242</v>
+        <v>41237</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
       <c r="F379" s="7"/>
-      <c r="G379" s="7">
-        <v>100</v>
-      </c>
+      <c r="G379" s="7"/>
       <c r="H379" s="7"/>
       <c r="I379" s="7"/>
       <c r="J379" s="7">
-        <v>81</v>
-      </c>
-      <c r="K379" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="K379" s="7">
+        <v>100</v>
+      </c>
       <c r="L379" s="7"/>
       <c r="M379" s="7"/>
       <c r="N379" s="7"/>
@@ -56578,23 +56526,25 @@
       <c r="R379" s="7"/>
       <c r="S379" s="7"/>
       <c r="T379" s="7">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="380" spans="1:20">
       <c r="A380" s="12">
-        <v>41253</v>
+        <v>41242</v>
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
       <c r="F380" s="7"/>
-      <c r="G380" s="7"/>
+      <c r="G380" s="7">
+        <v>100</v>
+      </c>
       <c r="H380" s="7"/>
       <c r="I380" s="7"/>
       <c r="J380" s="7">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="K380" s="7"/>
       <c r="L380" s="7"/>
@@ -56606,24 +56556,24 @@
       <c r="R380" s="7"/>
       <c r="S380" s="7"/>
       <c r="T380" s="7">
-        <v>10</v>
+        <v>181</v>
       </c>
     </row>
     <row r="381" spans="1:20">
       <c r="A381" s="12">
-        <v>41268</v>
+        <v>41253</v>
       </c>
       <c r="B381" s="7"/>
-      <c r="C381" s="7">
-        <v>24</v>
-      </c>
+      <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
       <c r="F381" s="7"/>
       <c r="G381" s="7"/>
       <c r="H381" s="7"/>
       <c r="I381" s="7"/>
-      <c r="J381" s="7"/>
+      <c r="J381" s="7">
+        <v>10</v>
+      </c>
       <c r="K381" s="7"/>
       <c r="L381" s="7"/>
       <c r="M381" s="7"/>
@@ -56634,21 +56584,21 @@
       <c r="R381" s="7"/>
       <c r="S381" s="7"/>
       <c r="T381" s="7">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="382" spans="1:20">
       <c r="A382" s="12">
-        <v>41281</v>
+        <v>41268</v>
       </c>
       <c r="B382" s="7"/>
-      <c r="C382" s="7"/>
+      <c r="C382" s="7">
+        <v>24</v>
+      </c>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
-      <c r="G382" s="7">
-        <v>200</v>
-      </c>
+      <c r="G382" s="7"/>
       <c r="H382" s="7"/>
       <c r="I382" s="7"/>
       <c r="J382" s="7"/>
@@ -56662,26 +56612,24 @@
       <c r="R382" s="7"/>
       <c r="S382" s="7"/>
       <c r="T382" s="7">
-        <v>200</v>
+        <v>24</v>
       </c>
     </row>
     <row r="383" spans="1:20">
       <c r="A383" s="12">
-        <v>41310</v>
+        <v>41281</v>
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
-      <c r="G383" s="7"/>
+      <c r="G383" s="7">
+        <v>200</v>
+      </c>
       <c r="H383" s="7"/>
-      <c r="I383" s="7">
-        <v>22</v>
-      </c>
-      <c r="J383" s="7">
-        <v>31.9</v>
-      </c>
+      <c r="I383" s="7"/>
+      <c r="J383" s="7"/>
       <c r="K383" s="7"/>
       <c r="L383" s="7"/>
       <c r="M383" s="7"/>
@@ -56692,24 +56640,26 @@
       <c r="R383" s="7"/>
       <c r="S383" s="7"/>
       <c r="T383" s="7">
-        <v>53.9</v>
+        <v>200</v>
       </c>
     </row>
     <row r="384" spans="1:20">
       <c r="A384" s="12">
-        <v>41323</v>
+        <v>41310</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
-      <c r="G384" s="7">
-        <v>119.6</v>
-      </c>
+      <c r="G384" s="7"/>
       <c r="H384" s="7"/>
-      <c r="I384" s="7"/>
-      <c r="J384" s="7"/>
+      <c r="I384" s="7">
+        <v>22</v>
+      </c>
+      <c r="J384" s="7">
+        <v>31.9</v>
+      </c>
       <c r="K384" s="7"/>
       <c r="L384" s="7"/>
       <c r="M384" s="7"/>
@@ -56720,12 +56670,12 @@
       <c r="R384" s="7"/>
       <c r="S384" s="7"/>
       <c r="T384" s="7">
-        <v>119.6</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="385" spans="1:20">
       <c r="A385" s="12">
-        <v>41331</v>
+        <v>41323</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -56733,7 +56683,7 @@
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
       <c r="G385" s="7">
-        <v>100</v>
+        <v>119.6</v>
       </c>
       <c r="H385" s="7"/>
       <c r="I385" s="7"/>
@@ -56748,24 +56698,24 @@
       <c r="R385" s="7"/>
       <c r="S385" s="7"/>
       <c r="T385" s="7">
-        <v>100</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="386" spans="1:20">
       <c r="A386" s="12">
-        <v>41361</v>
+        <v>41331</v>
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
-      <c r="G386" s="7"/>
+      <c r="G386" s="7">
+        <v>100</v>
+      </c>
       <c r="H386" s="7"/>
       <c r="I386" s="7"/>
-      <c r="J386" s="7">
-        <v>40</v>
-      </c>
+      <c r="J386" s="7"/>
       <c r="K386" s="7"/>
       <c r="L386" s="7"/>
       <c r="M386" s="7"/>
@@ -56776,12 +56726,12 @@
       <c r="R386" s="7"/>
       <c r="S386" s="7"/>
       <c r="T386" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="387" spans="1:20">
       <c r="A387" s="12">
-        <v>41373</v>
+        <v>41361</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -56790,10 +56740,10 @@
       <c r="F387" s="7"/>
       <c r="G387" s="7"/>
       <c r="H387" s="7"/>
-      <c r="I387" s="7">
-        <v>91</v>
-      </c>
-      <c r="J387" s="7"/>
+      <c r="I387" s="7"/>
+      <c r="J387" s="7">
+        <v>40</v>
+      </c>
       <c r="K387" s="7"/>
       <c r="L387" s="7"/>
       <c r="M387" s="7"/>
@@ -56804,12 +56754,12 @@
       <c r="R387" s="7"/>
       <c r="S387" s="7"/>
       <c r="T387" s="7">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="388" spans="1:20">
       <c r="A388" s="12">
-        <v>41374</v>
+        <v>41373</v>
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -56818,86 +56768,86 @@
       <c r="F388" s="7"/>
       <c r="G388" s="7"/>
       <c r="H388" s="7"/>
-      <c r="I388" s="7"/>
+      <c r="I388" s="7">
+        <v>91</v>
+      </c>
       <c r="J388" s="7"/>
       <c r="K388" s="7"/>
       <c r="L388" s="7"/>
       <c r="M388" s="7"/>
-      <c r="N388" s="7">
-        <v>75</v>
-      </c>
+      <c r="N388" s="7"/>
       <c r="O388" s="7"/>
       <c r="P388" s="7"/>
       <c r="Q388" s="7"/>
       <c r="R388" s="7"/>
       <c r="S388" s="7"/>
       <c r="T388" s="7">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="389" spans="1:20">
       <c r="A389" s="12">
-        <v>41376</v>
+        <v>41374</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
       <c r="F389" s="7"/>
-      <c r="G389" s="7">
-        <v>97</v>
-      </c>
+      <c r="G389" s="7"/>
       <c r="H389" s="7"/>
       <c r="I389" s="7"/>
       <c r="J389" s="7"/>
       <c r="K389" s="7"/>
       <c r="L389" s="7"/>
       <c r="M389" s="7"/>
-      <c r="N389" s="7"/>
-      <c r="O389" s="7">
-        <v>50</v>
-      </c>
-      <c r="P389" s="7">
-        <v>100</v>
-      </c>
+      <c r="N389" s="7">
+        <v>75</v>
+      </c>
+      <c r="O389" s="7"/>
+      <c r="P389" s="7"/>
       <c r="Q389" s="7"/>
       <c r="R389" s="7"/>
       <c r="S389" s="7"/>
       <c r="T389" s="7">
-        <v>247</v>
+        <v>75</v>
       </c>
     </row>
     <row r="390" spans="1:20">
       <c r="A390" s="12">
-        <v>41382</v>
+        <v>41376</v>
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
-      <c r="G390" s="7"/>
+      <c r="G390" s="7">
+        <v>97</v>
+      </c>
       <c r="H390" s="7"/>
       <c r="I390" s="7"/>
       <c r="J390" s="7"/>
       <c r="K390" s="7"/>
       <c r="L390" s="7"/>
-      <c r="M390" s="7">
+      <c r="M390" s="7"/>
+      <c r="N390" s="7"/>
+      <c r="O390" s="7">
+        <v>50</v>
+      </c>
+      <c r="P390" s="7">
         <v>100</v>
       </c>
-      <c r="N390" s="7"/>
-      <c r="O390" s="7"/>
-      <c r="P390" s="7"/>
       <c r="Q390" s="7"/>
       <c r="R390" s="7"/>
       <c r="S390" s="7"/>
       <c r="T390" s="7">
-        <v>100</v>
+        <v>247</v>
       </c>
     </row>
     <row r="391" spans="1:20">
       <c r="A391" s="12">
-        <v>41383</v>
+        <v>41382</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -56910,11 +56860,11 @@
       <c r="J391" s="7"/>
       <c r="K391" s="7"/>
       <c r="L391" s="7"/>
-      <c r="M391" s="7"/>
+      <c r="M391" s="7">
+        <v>100</v>
+      </c>
       <c r="N391" s="7"/>
-      <c r="O391" s="7">
-        <v>100</v>
-      </c>
+      <c r="O391" s="7"/>
       <c r="P391" s="7"/>
       <c r="Q391" s="7"/>
       <c r="R391" s="7"/>
@@ -56925,7 +56875,7 @@
     </row>
     <row r="392" spans="1:20">
       <c r="A392" s="12">
-        <v>41386</v>
+        <v>41383</v>
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -56939,21 +56889,21 @@
       <c r="K392" s="7"/>
       <c r="L392" s="7"/>
       <c r="M392" s="7"/>
-      <c r="N392" s="7">
-        <v>40</v>
-      </c>
-      <c r="O392" s="7"/>
+      <c r="N392" s="7"/>
+      <c r="O392" s="7">
+        <v>100</v>
+      </c>
       <c r="P392" s="7"/>
       <c r="Q392" s="7"/>
       <c r="R392" s="7"/>
       <c r="S392" s="7"/>
       <c r="T392" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="393" spans="1:20">
       <c r="A393" s="12">
-        <v>41387</v>
+        <v>41386</v>
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -56968,7 +56918,7 @@
       <c r="L393" s="7"/>
       <c r="M393" s="7"/>
       <c r="N393" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O393" s="7"/>
       <c r="P393" s="7"/>
@@ -56976,31 +56926,27 @@
       <c r="R393" s="7"/>
       <c r="S393" s="7"/>
       <c r="T393" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="394" spans="1:20">
       <c r="A394" s="12">
-        <v>41388</v>
+        <v>41387</v>
       </c>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
       <c r="F394" s="7"/>
-      <c r="G394" s="7">
-        <v>20</v>
-      </c>
+      <c r="G394" s="7"/>
       <c r="H394" s="7"/>
       <c r="I394" s="7"/>
       <c r="J394" s="7"/>
       <c r="K394" s="7"/>
       <c r="L394" s="7"/>
-      <c r="M394" s="7">
-        <v>40</v>
-      </c>
+      <c r="M394" s="7"/>
       <c r="N394" s="7">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="O394" s="7"/>
       <c r="P394" s="7"/>
@@ -57008,40 +56954,44 @@
       <c r="R394" s="7"/>
       <c r="S394" s="7"/>
       <c r="T394" s="7">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="395" spans="1:20">
       <c r="A395" s="12">
-        <v>41390</v>
+        <v>41388</v>
       </c>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
       <c r="F395" s="7"/>
-      <c r="G395" s="7"/>
+      <c r="G395" s="7">
+        <v>20</v>
+      </c>
       <c r="H395" s="7"/>
-      <c r="I395" s="7">
-        <v>120</v>
-      </c>
+      <c r="I395" s="7"/>
       <c r="J395" s="7"/>
       <c r="K395" s="7"/>
       <c r="L395" s="7"/>
-      <c r="M395" s="7"/>
-      <c r="N395" s="7"/>
+      <c r="M395" s="7">
+        <v>40</v>
+      </c>
+      <c r="N395" s="7">
+        <v>11</v>
+      </c>
       <c r="O395" s="7"/>
       <c r="P395" s="7"/>
       <c r="Q395" s="7"/>
       <c r="R395" s="7"/>
       <c r="S395" s="7"/>
       <c r="T395" s="7">
-        <v>120</v>
+        <v>71</v>
       </c>
     </row>
     <row r="396" spans="1:20">
       <c r="A396" s="12">
-        <v>41397</v>
+        <v>41390</v>
       </c>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -57049,29 +56999,27 @@
       <c r="E396" s="7"/>
       <c r="F396" s="7"/>
       <c r="G396" s="7"/>
-      <c r="H396" s="7">
-        <v>50</v>
-      </c>
-      <c r="I396" s="7"/>
+      <c r="H396" s="7"/>
+      <c r="I396" s="7">
+        <v>120</v>
+      </c>
       <c r="J396" s="7"/>
       <c r="K396" s="7"/>
       <c r="L396" s="7"/>
       <c r="M396" s="7"/>
-      <c r="N396" s="7">
-        <v>100</v>
-      </c>
+      <c r="N396" s="7"/>
       <c r="O396" s="7"/>
       <c r="P396" s="7"/>
       <c r="Q396" s="7"/>
       <c r="R396" s="7"/>
       <c r="S396" s="7"/>
       <c r="T396" s="7">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="397" spans="1:20">
       <c r="A397" s="12">
-        <v>41401</v>
+        <v>41397</v>
       </c>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -57079,27 +57027,29 @@
       <c r="E397" s="7"/>
       <c r="F397" s="7"/>
       <c r="G397" s="7"/>
-      <c r="H397" s="7"/>
+      <c r="H397" s="7">
+        <v>50</v>
+      </c>
       <c r="I397" s="7"/>
       <c r="J397" s="7"/>
       <c r="K397" s="7"/>
       <c r="L397" s="7"/>
       <c r="M397" s="7"/>
-      <c r="N397" s="7"/>
+      <c r="N397" s="7">
+        <v>100</v>
+      </c>
       <c r="O397" s="7"/>
-      <c r="P397" s="7">
-        <v>100</v>
-      </c>
+      <c r="P397" s="7"/>
       <c r="Q397" s="7"/>
       <c r="R397" s="7"/>
       <c r="S397" s="7"/>
       <c r="T397" s="7">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="398" spans="1:20">
       <c r="A398" s="12">
-        <v>41402</v>
+        <v>41401</v>
       </c>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -57110,26 +57060,24 @@
       <c r="H398" s="7"/>
       <c r="I398" s="7"/>
       <c r="J398" s="7"/>
-      <c r="K398" s="7">
-        <v>100</v>
-      </c>
+      <c r="K398" s="7"/>
       <c r="L398" s="7"/>
       <c r="M398" s="7"/>
       <c r="N398" s="7"/>
-      <c r="O398" s="7">
-        <v>50</v>
-      </c>
-      <c r="P398" s="7"/>
+      <c r="O398" s="7"/>
+      <c r="P398" s="7">
+        <v>100</v>
+      </c>
       <c r="Q398" s="7"/>
       <c r="R398" s="7"/>
       <c r="S398" s="7"/>
       <c r="T398" s="7">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="399" spans="1:20">
       <c r="A399" s="12">
-        <v>41403</v>
+        <v>41402</v>
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -57137,91 +57085,93 @@
       <c r="E399" s="7"/>
       <c r="F399" s="7"/>
       <c r="G399" s="7"/>
-      <c r="H399" s="7">
-        <v>100</v>
-      </c>
+      <c r="H399" s="7"/>
       <c r="I399" s="7"/>
       <c r="J399" s="7"/>
-      <c r="K399" s="7"/>
-      <c r="L399" s="7">
+      <c r="K399" s="7">
         <v>100</v>
       </c>
+      <c r="L399" s="7"/>
       <c r="M399" s="7"/>
       <c r="N399" s="7"/>
-      <c r="O399" s="7"/>
+      <c r="O399" s="7">
+        <v>50</v>
+      </c>
       <c r="P399" s="7"/>
       <c r="Q399" s="7"/>
-      <c r="R399" s="7">
-        <v>50</v>
-      </c>
+      <c r="R399" s="7"/>
       <c r="S399" s="7"/>
       <c r="T399" s="7">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="400" spans="1:20">
       <c r="A400" s="12">
-        <v>41407</v>
+        <v>41403</v>
       </c>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
       <c r="F400" s="7"/>
-      <c r="G400" s="7">
+      <c r="G400" s="7"/>
+      <c r="H400" s="7">
         <v>100</v>
       </c>
-      <c r="H400" s="7"/>
       <c r="I400" s="7"/>
-      <c r="J400" s="7">
+      <c r="J400" s="7"/>
+      <c r="K400" s="7"/>
+      <c r="L400" s="7">
         <v>100</v>
       </c>
-      <c r="K400" s="7"/>
-      <c r="L400" s="7"/>
       <c r="M400" s="7"/>
-      <c r="N400" s="7">
-        <v>100</v>
-      </c>
+      <c r="N400" s="7"/>
       <c r="O400" s="7"/>
       <c r="P400" s="7"/>
       <c r="Q400" s="7"/>
-      <c r="R400" s="7"/>
+      <c r="R400" s="7">
+        <v>50</v>
+      </c>
       <c r="S400" s="7"/>
       <c r="T400" s="7">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="401" spans="1:20">
       <c r="A401" s="12">
-        <v>41410</v>
+        <v>41407</v>
       </c>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
       <c r="F401" s="7"/>
-      <c r="G401" s="7"/>
+      <c r="G401" s="7">
+        <v>100</v>
+      </c>
       <c r="H401" s="7"/>
-      <c r="I401" s="7">
-        <v>200</v>
-      </c>
-      <c r="J401" s="7"/>
+      <c r="I401" s="7"/>
+      <c r="J401" s="7">
+        <v>100</v>
+      </c>
       <c r="K401" s="7"/>
       <c r="L401" s="7"/>
       <c r="M401" s="7"/>
-      <c r="N401" s="7"/>
+      <c r="N401" s="7">
+        <v>100</v>
+      </c>
       <c r="O401" s="7"/>
       <c r="P401" s="7"/>
       <c r="Q401" s="7"/>
       <c r="R401" s="7"/>
       <c r="S401" s="7"/>
       <c r="T401" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="402" spans="1:20">
       <c r="A402" s="12">
-        <v>41411</v>
+        <v>41410</v>
       </c>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -57230,28 +57180,26 @@
       <c r="F402" s="7"/>
       <c r="G402" s="7"/>
       <c r="H402" s="7"/>
-      <c r="I402" s="7"/>
+      <c r="I402" s="7">
+        <v>200</v>
+      </c>
       <c r="J402" s="7"/>
       <c r="K402" s="7"/>
       <c r="L402" s="7"/>
-      <c r="M402" s="7">
-        <v>300</v>
-      </c>
+      <c r="M402" s="7"/>
       <c r="N402" s="7"/>
-      <c r="O402" s="7">
-        <v>100</v>
-      </c>
+      <c r="O402" s="7"/>
       <c r="P402" s="7"/>
       <c r="Q402" s="7"/>
       <c r="R402" s="7"/>
       <c r="S402" s="7"/>
       <c r="T402" s="7">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="403" spans="1:20">
       <c r="A403" s="12">
-        <v>41414</v>
+        <v>41411</v>
       </c>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -57261,25 +57209,27 @@
       <c r="G403" s="7"/>
       <c r="H403" s="7"/>
       <c r="I403" s="7"/>
-      <c r="J403" s="7">
-        <v>100</v>
-      </c>
+      <c r="J403" s="7"/>
       <c r="K403" s="7"/>
       <c r="L403" s="7"/>
-      <c r="M403" s="7"/>
+      <c r="M403" s="7">
+        <v>300</v>
+      </c>
       <c r="N403" s="7"/>
-      <c r="O403" s="7"/>
+      <c r="O403" s="7">
+        <v>100</v>
+      </c>
       <c r="P403" s="7"/>
       <c r="Q403" s="7"/>
       <c r="R403" s="7"/>
       <c r="S403" s="7"/>
       <c r="T403" s="7">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="404" spans="1:20">
       <c r="A404" s="12">
-        <v>41416</v>
+        <v>41414</v>
       </c>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -57289,25 +57239,25 @@
       <c r="G404" s="7"/>
       <c r="H404" s="7"/>
       <c r="I404" s="7"/>
-      <c r="J404" s="7"/>
+      <c r="J404" s="7">
+        <v>100</v>
+      </c>
       <c r="K404" s="7"/>
       <c r="L404" s="7"/>
       <c r="M404" s="7"/>
-      <c r="N404" s="7">
-        <v>200</v>
-      </c>
+      <c r="N404" s="7"/>
       <c r="O404" s="7"/>
       <c r="P404" s="7"/>
       <c r="Q404" s="7"/>
       <c r="R404" s="7"/>
       <c r="S404" s="7"/>
       <c r="T404" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="405" spans="1:20">
       <c r="A405" s="12">
-        <v>41424</v>
+        <v>41416</v>
       </c>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -57316,26 +57266,26 @@
       <c r="F405" s="7"/>
       <c r="G405" s="7"/>
       <c r="H405" s="7"/>
-      <c r="I405" s="7">
-        <v>100</v>
-      </c>
+      <c r="I405" s="7"/>
       <c r="J405" s="7"/>
       <c r="K405" s="7"/>
       <c r="L405" s="7"/>
       <c r="M405" s="7"/>
-      <c r="N405" s="7"/>
+      <c r="N405" s="7">
+        <v>200</v>
+      </c>
       <c r="O405" s="7"/>
       <c r="P405" s="7"/>
       <c r="Q405" s="7"/>
       <c r="R405" s="7"/>
       <c r="S405" s="7"/>
       <c r="T405" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="406" spans="1:20">
       <c r="A406" s="12">
-        <v>41429</v>
+        <v>41424</v>
       </c>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -57344,15 +57294,15 @@
       <c r="F406" s="7"/>
       <c r="G406" s="7"/>
       <c r="H406" s="7"/>
-      <c r="I406" s="7"/>
+      <c r="I406" s="7">
+        <v>100</v>
+      </c>
       <c r="J406" s="7"/>
       <c r="K406" s="7"/>
       <c r="L406" s="7"/>
       <c r="M406" s="7"/>
       <c r="N406" s="7"/>
-      <c r="O406" s="7">
-        <v>100</v>
-      </c>
+      <c r="O406" s="7"/>
       <c r="P406" s="7"/>
       <c r="Q406" s="7"/>
       <c r="R406" s="7"/>
@@ -57363,13 +57313,11 @@
     </row>
     <row r="407" spans="1:20">
       <c r="A407" s="12">
-        <v>41430</v>
+        <v>41429</v>
       </c>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
-      <c r="D407" s="7">
-        <v>100</v>
-      </c>
+      <c r="D407" s="7"/>
       <c r="E407" s="7"/>
       <c r="F407" s="7"/>
       <c r="G407" s="7"/>
@@ -57380,7 +57328,9 @@
       <c r="L407" s="7"/>
       <c r="M407" s="7"/>
       <c r="N407" s="7"/>
-      <c r="O407" s="7"/>
+      <c r="O407" s="7">
+        <v>100</v>
+      </c>
       <c r="P407" s="7"/>
       <c r="Q407" s="7"/>
       <c r="R407" s="7"/>
@@ -57391,72 +57341,74 @@
     </row>
     <row r="408" spans="1:20">
       <c r="A408" s="12">
-        <v>41431</v>
+        <v>41430</v>
       </c>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
-      <c r="D408" s="7"/>
+      <c r="D408" s="7">
+        <v>100</v>
+      </c>
       <c r="E408" s="7"/>
       <c r="F408" s="7"/>
       <c r="G408" s="7"/>
       <c r="H408" s="7"/>
       <c r="I408" s="7"/>
-      <c r="J408" s="7">
-        <v>80.5</v>
-      </c>
+      <c r="J408" s="7"/>
       <c r="K408" s="7"/>
       <c r="L408" s="7"/>
       <c r="M408" s="7"/>
       <c r="N408" s="7"/>
       <c r="O408" s="7"/>
       <c r="P408" s="7"/>
-      <c r="Q408" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q408" s="7"/>
       <c r="R408" s="7"/>
       <c r="S408" s="7"/>
       <c r="T408" s="7">
-        <v>280.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="409" spans="1:20">
       <c r="A409" s="12">
-        <v>41438</v>
+        <v>41431</v>
       </c>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
       <c r="F409" s="7"/>
-      <c r="G409" s="7">
-        <v>20</v>
-      </c>
+      <c r="G409" s="7"/>
       <c r="H409" s="7"/>
       <c r="I409" s="7"/>
-      <c r="J409" s="7"/>
+      <c r="J409" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K409" s="7"/>
       <c r="L409" s="7"/>
       <c r="M409" s="7"/>
       <c r="N409" s="7"/>
       <c r="O409" s="7"/>
       <c r="P409" s="7"/>
-      <c r="Q409" s="7"/>
+      <c r="Q409" s="7">
+        <v>200</v>
+      </c>
       <c r="R409" s="7"/>
       <c r="S409" s="7"/>
       <c r="T409" s="7">
-        <v>20</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="410" spans="1:20">
       <c r="A410" s="12">
-        <v>41439</v>
+        <v>41438</v>
       </c>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
       <c r="F410" s="7"/>
-      <c r="G410" s="7"/>
+      <c r="G410" s="7">
+        <v>20</v>
+      </c>
       <c r="H410" s="7"/>
       <c r="I410" s="7"/>
       <c r="J410" s="7"/>
@@ -57467,23 +57419,19 @@
       <c r="O410" s="7"/>
       <c r="P410" s="7"/>
       <c r="Q410" s="7"/>
-      <c r="R410" s="7">
-        <v>100</v>
-      </c>
+      <c r="R410" s="7"/>
       <c r="S410" s="7"/>
       <c r="T410" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="411" spans="1:20">
       <c r="A411" s="12">
-        <v>41443</v>
+        <v>41439</v>
       </c>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
-      <c r="D411" s="7">
-        <v>100</v>
-      </c>
+      <c r="D411" s="7"/>
       <c r="E411" s="7"/>
       <c r="F411" s="7"/>
       <c r="G411" s="7"/>
@@ -57497,7 +57445,9 @@
       <c r="O411" s="7"/>
       <c r="P411" s="7"/>
       <c r="Q411" s="7"/>
-      <c r="R411" s="7"/>
+      <c r="R411" s="7">
+        <v>100</v>
+      </c>
       <c r="S411" s="7"/>
       <c r="T411" s="7">
         <v>100</v>
@@ -57505,11 +57455,13 @@
     </row>
     <row r="412" spans="1:20">
       <c r="A412" s="12">
-        <v>41444</v>
+        <v>41443</v>
       </c>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
-      <c r="D412" s="7"/>
+      <c r="D412" s="7">
+        <v>100</v>
+      </c>
       <c r="E412" s="7"/>
       <c r="F412" s="7"/>
       <c r="G412" s="7"/>
@@ -57518,9 +57470,7 @@
       <c r="J412" s="7"/>
       <c r="K412" s="7"/>
       <c r="L412" s="7"/>
-      <c r="M412" s="7">
-        <v>200</v>
-      </c>
+      <c r="M412" s="7"/>
       <c r="N412" s="7"/>
       <c r="O412" s="7"/>
       <c r="P412" s="7"/>
@@ -57528,12 +57478,12 @@
       <c r="R412" s="7"/>
       <c r="S412" s="7"/>
       <c r="T412" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="413" spans="1:20">
       <c r="A413" s="12">
-        <v>41450</v>
+        <v>41444</v>
       </c>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -57546,24 +57496,22 @@
       <c r="J413" s="7"/>
       <c r="K413" s="7"/>
       <c r="L413" s="7"/>
-      <c r="M413" s="7"/>
-      <c r="N413" s="7">
-        <v>140</v>
-      </c>
-      <c r="O413" s="7">
-        <v>100</v>
-      </c>
+      <c r="M413" s="7">
+        <v>200</v>
+      </c>
+      <c r="N413" s="7"/>
+      <c r="O413" s="7"/>
       <c r="P413" s="7"/>
       <c r="Q413" s="7"/>
       <c r="R413" s="7"/>
       <c r="S413" s="7"/>
       <c r="T413" s="7">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="414" spans="1:20">
       <c r="A414" s="12">
-        <v>41451</v>
+        <v>41450</v>
       </c>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -57573,29 +57521,27 @@
       <c r="G414" s="7"/>
       <c r="H414" s="7"/>
       <c r="I414" s="7"/>
-      <c r="J414" s="7">
-        <v>100</v>
-      </c>
-      <c r="K414" s="7">
-        <v>100</v>
-      </c>
+      <c r="J414" s="7"/>
+      <c r="K414" s="7"/>
       <c r="L414" s="7"/>
       <c r="M414" s="7"/>
       <c r="N414" s="7">
-        <v>200</v>
-      </c>
-      <c r="O414" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="O414" s="7">
+        <v>100</v>
+      </c>
       <c r="P414" s="7"/>
       <c r="Q414" s="7"/>
       <c r="R414" s="7"/>
       <c r="S414" s="7"/>
       <c r="T414" s="7">
-        <v>400</v>
+        <v>240</v>
       </c>
     </row>
     <row r="415" spans="1:20">
       <c r="A415" s="12">
-        <v>41453</v>
+        <v>41451</v>
       </c>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -57604,26 +57550,30 @@
       <c r="F415" s="7"/>
       <c r="G415" s="7"/>
       <c r="H415" s="7"/>
-      <c r="I415" s="7">
-        <v>200</v>
-      </c>
-      <c r="J415" s="7"/>
-      <c r="K415" s="7"/>
+      <c r="I415" s="7"/>
+      <c r="J415" s="7">
+        <v>100</v>
+      </c>
+      <c r="K415" s="7">
+        <v>100</v>
+      </c>
       <c r="L415" s="7"/>
       <c r="M415" s="7"/>
-      <c r="N415" s="7"/>
+      <c r="N415" s="7">
+        <v>200</v>
+      </c>
       <c r="O415" s="7"/>
       <c r="P415" s="7"/>
       <c r="Q415" s="7"/>
       <c r="R415" s="7"/>
       <c r="S415" s="7"/>
       <c r="T415" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="416" spans="1:20">
       <c r="A416" s="12">
-        <v>41463</v>
+        <v>41453</v>
       </c>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -57632,12 +57582,12 @@
       <c r="F416" s="7"/>
       <c r="G416" s="7"/>
       <c r="H416" s="7"/>
-      <c r="I416" s="7"/>
+      <c r="I416" s="7">
+        <v>200</v>
+      </c>
       <c r="J416" s="7"/>
       <c r="K416" s="7"/>
-      <c r="L416" s="7">
-        <v>20</v>
-      </c>
+      <c r="L416" s="7"/>
       <c r="M416" s="7"/>
       <c r="N416" s="7"/>
       <c r="O416" s="7"/>
@@ -57646,12 +57596,12 @@
       <c r="R416" s="7"/>
       <c r="S416" s="7"/>
       <c r="T416" s="7">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="417" spans="1:20">
       <c r="A417" s="12">
-        <v>41464</v>
+        <v>41463</v>
       </c>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -57663,27 +57613,25 @@
       <c r="I417" s="7"/>
       <c r="J417" s="7"/>
       <c r="K417" s="7"/>
-      <c r="L417" s="7"/>
+      <c r="L417" s="7">
+        <v>20</v>
+      </c>
       <c r="M417" s="7"/>
       <c r="N417" s="7"/>
       <c r="O417" s="7"/>
-      <c r="P417" s="7">
-        <v>100</v>
-      </c>
+      <c r="P417" s="7"/>
       <c r="Q417" s="7"/>
       <c r="R417" s="7"/>
       <c r="S417" s="7"/>
       <c r="T417" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="418" spans="1:20">
       <c r="A418" s="12">
-        <v>41465</v>
-      </c>
-      <c r="B418" s="7">
-        <v>50</v>
-      </c>
+        <v>41464</v>
+      </c>
+      <c r="B418" s="7"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -57697,19 +57645,23 @@
       <c r="M418" s="7"/>
       <c r="N418" s="7"/>
       <c r="O418" s="7"/>
-      <c r="P418" s="7"/>
+      <c r="P418" s="7">
+        <v>100</v>
+      </c>
       <c r="Q418" s="7"/>
       <c r="R418" s="7"/>
       <c r="S418" s="7"/>
       <c r="T418" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="419" spans="1:20">
       <c r="A419" s="12">
-        <v>41466</v>
-      </c>
-      <c r="B419" s="7"/>
+        <v>41465</v>
+      </c>
+      <c r="B419" s="7">
+        <v>50</v>
+      </c>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -57717,9 +57669,7 @@
       <c r="G419" s="7"/>
       <c r="H419" s="7"/>
       <c r="I419" s="7"/>
-      <c r="J419" s="7">
-        <v>100</v>
-      </c>
+      <c r="J419" s="7"/>
       <c r="K419" s="7"/>
       <c r="L419" s="7"/>
       <c r="M419" s="7"/>
@@ -57730,12 +57680,12 @@
       <c r="R419" s="7"/>
       <c r="S419" s="7"/>
       <c r="T419" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="420" spans="1:20">
       <c r="A420" s="12">
-        <v>41467</v>
+        <v>41466</v>
       </c>
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
@@ -57745,7 +57695,9 @@
       <c r="G420" s="7"/>
       <c r="H420" s="7"/>
       <c r="I420" s="7"/>
-      <c r="J420" s="7"/>
+      <c r="J420" s="7">
+        <v>100</v>
+      </c>
       <c r="K420" s="7"/>
       <c r="L420" s="7"/>
       <c r="M420" s="7"/>
@@ -57753,9 +57705,7 @@
       <c r="O420" s="7"/>
       <c r="P420" s="7"/>
       <c r="Q420" s="7"/>
-      <c r="R420" s="7">
-        <v>100</v>
-      </c>
+      <c r="R420" s="7"/>
       <c r="S420" s="7"/>
       <c r="T420" s="7">
         <v>100</v>
@@ -57763,7 +57713,7 @@
     </row>
     <row r="421" spans="1:20">
       <c r="A421" s="12">
-        <v>41472</v>
+        <v>41467</v>
       </c>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -57774,16 +57724,16 @@
       <c r="H421" s="7"/>
       <c r="I421" s="7"/>
       <c r="J421" s="7"/>
-      <c r="K421" s="7">
-        <v>100</v>
-      </c>
+      <c r="K421" s="7"/>
       <c r="L421" s="7"/>
       <c r="M421" s="7"/>
       <c r="N421" s="7"/>
       <c r="O421" s="7"/>
       <c r="P421" s="7"/>
       <c r="Q421" s="7"/>
-      <c r="R421" s="7"/>
+      <c r="R421" s="7">
+        <v>100</v>
+      </c>
       <c r="S421" s="7"/>
       <c r="T421" s="7">
         <v>100</v>
@@ -57791,51 +57741,47 @@
     </row>
     <row r="422" spans="1:20">
       <c r="A422" s="12">
-        <v>41474</v>
-      </c>
-      <c r="B422" s="7">
-        <v>76.5</v>
-      </c>
+        <v>41472</v>
+      </c>
+      <c r="B422" s="7"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
       <c r="F422" s="7"/>
       <c r="G422" s="7"/>
-      <c r="H422" s="7">
-        <v>50</v>
-      </c>
+      <c r="H422" s="7"/>
       <c r="I422" s="7"/>
       <c r="J422" s="7"/>
-      <c r="K422" s="7"/>
+      <c r="K422" s="7">
+        <v>100</v>
+      </c>
       <c r="L422" s="7"/>
       <c r="M422" s="7"/>
       <c r="N422" s="7"/>
       <c r="O422" s="7"/>
-      <c r="P422" s="7">
-        <v>200</v>
-      </c>
-      <c r="Q422" s="7">
-        <v>200</v>
-      </c>
+      <c r="P422" s="7"/>
+      <c r="Q422" s="7"/>
       <c r="R422" s="7"/>
       <c r="S422" s="7"/>
       <c r="T422" s="7">
-        <v>526.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="423" spans="1:20">
       <c r="A423" s="12">
-        <v>41479</v>
-      </c>
-      <c r="B423" s="7"/>
+        <v>41474</v>
+      </c>
+      <c r="B423" s="7">
+        <v>76.5</v>
+      </c>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
       <c r="F423" s="7"/>
-      <c r="G423" s="7">
-        <v>100</v>
-      </c>
-      <c r="H423" s="7"/>
+      <c r="G423" s="7"/>
+      <c r="H423" s="7">
+        <v>50</v>
+      </c>
       <c r="I423" s="7"/>
       <c r="J423" s="7"/>
       <c r="K423" s="7"/>
@@ -57843,32 +57789,36 @@
       <c r="M423" s="7"/>
       <c r="N423" s="7"/>
       <c r="O423" s="7"/>
-      <c r="P423" s="7"/>
-      <c r="Q423" s="7"/>
+      <c r="P423" s="7">
+        <v>200</v>
+      </c>
+      <c r="Q423" s="7">
+        <v>200</v>
+      </c>
       <c r="R423" s="7"/>
       <c r="S423" s="7"/>
       <c r="T423" s="7">
-        <v>100</v>
+        <v>526.5</v>
       </c>
     </row>
     <row r="424" spans="1:20">
       <c r="A424" s="12">
-        <v>41480</v>
+        <v>41479</v>
       </c>
       <c r="B424" s="7"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
       <c r="F424" s="7"/>
-      <c r="G424" s="7"/>
+      <c r="G424" s="7">
+        <v>100</v>
+      </c>
       <c r="H424" s="7"/>
       <c r="I424" s="7"/>
       <c r="J424" s="7"/>
       <c r="K424" s="7"/>
       <c r="L424" s="7"/>
-      <c r="M424" s="7">
-        <v>200</v>
-      </c>
+      <c r="M424" s="7"/>
       <c r="N424" s="7"/>
       <c r="O424" s="7"/>
       <c r="P424" s="7"/>
@@ -57876,12 +57826,12 @@
       <c r="R424" s="7"/>
       <c r="S424" s="7"/>
       <c r="T424" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="425" spans="1:20">
       <c r="A425" s="12">
-        <v>41481</v>
+        <v>41480</v>
       </c>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -57892,11 +57842,11 @@
       <c r="H425" s="7"/>
       <c r="I425" s="7"/>
       <c r="J425" s="7"/>
-      <c r="K425" s="7">
-        <v>100</v>
-      </c>
+      <c r="K425" s="7"/>
       <c r="L425" s="7"/>
-      <c r="M425" s="7"/>
+      <c r="M425" s="7">
+        <v>200</v>
+      </c>
       <c r="N425" s="7"/>
       <c r="O425" s="7"/>
       <c r="P425" s="7"/>
@@ -57904,12 +57854,12 @@
       <c r="R425" s="7"/>
       <c r="S425" s="7"/>
       <c r="T425" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="426" spans="1:20">
       <c r="A426" s="12">
-        <v>41482</v>
+        <v>41481</v>
       </c>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -57919,10 +57869,10 @@
       <c r="G426" s="7"/>
       <c r="H426" s="7"/>
       <c r="I426" s="7"/>
-      <c r="J426" s="7">
+      <c r="J426" s="7"/>
+      <c r="K426" s="7">
         <v>100</v>
       </c>
-      <c r="K426" s="7"/>
       <c r="L426" s="7"/>
       <c r="M426" s="7"/>
       <c r="N426" s="7"/>
@@ -57937,7 +57887,7 @@
     </row>
     <row r="427" spans="1:20">
       <c r="A427" s="12">
-        <v>41488</v>
+        <v>41482</v>
       </c>
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
@@ -57947,10 +57897,10 @@
       <c r="G427" s="7"/>
       <c r="H427" s="7"/>
       <c r="I427" s="7"/>
-      <c r="J427" s="7"/>
-      <c r="K427" s="7">
-        <v>300</v>
-      </c>
+      <c r="J427" s="7">
+        <v>100</v>
+      </c>
+      <c r="K427" s="7"/>
       <c r="L427" s="7"/>
       <c r="M427" s="7"/>
       <c r="N427" s="7"/>
@@ -57960,16 +57910,14 @@
       <c r="R427" s="7"/>
       <c r="S427" s="7"/>
       <c r="T427" s="7">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="428" spans="1:20">
       <c r="A428" s="12">
-        <v>41495</v>
-      </c>
-      <c r="B428" s="7">
-        <v>100</v>
-      </c>
+        <v>41488</v>
+      </c>
+      <c r="B428" s="7"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -57977,55 +57925,57 @@
       <c r="G428" s="7"/>
       <c r="H428" s="7"/>
       <c r="I428" s="7"/>
-      <c r="J428" s="7">
-        <v>100</v>
-      </c>
-      <c r="K428" s="7"/>
+      <c r="J428" s="7"/>
+      <c r="K428" s="7">
+        <v>300</v>
+      </c>
       <c r="L428" s="7"/>
       <c r="M428" s="7"/>
-      <c r="N428" s="7">
-        <v>300</v>
-      </c>
+      <c r="N428" s="7"/>
       <c r="O428" s="7"/>
       <c r="P428" s="7"/>
       <c r="Q428" s="7"/>
       <c r="R428" s="7"/>
       <c r="S428" s="7"/>
       <c r="T428" s="7">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="429" spans="1:20">
       <c r="A429" s="12">
-        <v>41502</v>
-      </c>
-      <c r="B429" s="7"/>
+        <v>41495</v>
+      </c>
+      <c r="B429" s="7">
+        <v>100</v>
+      </c>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
       <c r="F429" s="7"/>
       <c r="G429" s="7"/>
       <c r="H429" s="7"/>
-      <c r="I429" s="7">
-        <v>200</v>
-      </c>
-      <c r="J429" s="7"/>
+      <c r="I429" s="7"/>
+      <c r="J429" s="7">
+        <v>100</v>
+      </c>
       <c r="K429" s="7"/>
       <c r="L429" s="7"/>
       <c r="M429" s="7"/>
-      <c r="N429" s="7"/>
+      <c r="N429" s="7">
+        <v>300</v>
+      </c>
       <c r="O429" s="7"/>
       <c r="P429" s="7"/>
       <c r="Q429" s="7"/>
       <c r="R429" s="7"/>
       <c r="S429" s="7"/>
       <c r="T429" s="7">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="430" spans="1:20">
       <c r="A430" s="12">
-        <v>41514</v>
+        <v>41502</v>
       </c>
       <c r="B430" s="7"/>
       <c r="C430" s="7"/>
@@ -58034,10 +57984,10 @@
       <c r="F430" s="7"/>
       <c r="G430" s="7"/>
       <c r="H430" s="7"/>
-      <c r="I430" s="7"/>
-      <c r="J430" s="7">
-        <v>100</v>
-      </c>
+      <c r="I430" s="7">
+        <v>200</v>
+      </c>
+      <c r="J430" s="7"/>
       <c r="K430" s="7"/>
       <c r="L430" s="7"/>
       <c r="M430" s="7"/>
@@ -58048,12 +57998,12 @@
       <c r="R430" s="7"/>
       <c r="S430" s="7"/>
       <c r="T430" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="431" spans="1:20">
       <c r="A431" s="12">
-        <v>41526</v>
+        <v>41514</v>
       </c>
       <c r="B431" s="7"/>
       <c r="C431" s="7"/>
@@ -58063,25 +58013,25 @@
       <c r="G431" s="7"/>
       <c r="H431" s="7"/>
       <c r="I431" s="7"/>
-      <c r="J431" s="7"/>
+      <c r="J431" s="7">
+        <v>100</v>
+      </c>
       <c r="K431" s="7"/>
       <c r="L431" s="7"/>
       <c r="M431" s="7"/>
       <c r="N431" s="7"/>
       <c r="O431" s="7"/>
-      <c r="P431" s="7">
-        <v>400</v>
-      </c>
+      <c r="P431" s="7"/>
       <c r="Q431" s="7"/>
       <c r="R431" s="7"/>
       <c r="S431" s="7"/>
       <c r="T431" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="432" spans="1:20">
       <c r="A432" s="12">
-        <v>41528</v>
+        <v>41526</v>
       </c>
       <c r="B432" s="7"/>
       <c r="C432" s="7"/>
@@ -58097,23 +58047,21 @@
       <c r="M432" s="7"/>
       <c r="N432" s="7"/>
       <c r="O432" s="7"/>
-      <c r="P432" s="7"/>
-      <c r="Q432" s="7">
-        <v>200</v>
-      </c>
+      <c r="P432" s="7">
+        <v>400</v>
+      </c>
+      <c r="Q432" s="7"/>
       <c r="R432" s="7"/>
       <c r="S432" s="7"/>
       <c r="T432" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="433" spans="1:20">
       <c r="A433" s="12">
-        <v>41533</v>
-      </c>
-      <c r="B433" s="7">
-        <v>200</v>
-      </c>
+        <v>41528</v>
+      </c>
+      <c r="B433" s="7"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -58126,22 +58074,24 @@
       <c r="L433" s="7"/>
       <c r="M433" s="7"/>
       <c r="N433" s="7"/>
-      <c r="O433" s="7">
-        <v>100</v>
-      </c>
+      <c r="O433" s="7"/>
       <c r="P433" s="7"/>
-      <c r="Q433" s="7"/>
+      <c r="Q433" s="7">
+        <v>200</v>
+      </c>
       <c r="R433" s="7"/>
       <c r="S433" s="7"/>
       <c r="T433" s="7">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="434" spans="1:20">
       <c r="A434" s="12">
-        <v>41537</v>
-      </c>
-      <c r="B434" s="7"/>
+        <v>41533</v>
+      </c>
+      <c r="B434" s="7">
+        <v>200</v>
+      </c>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -58149,25 +58099,25 @@
       <c r="G434" s="7"/>
       <c r="H434" s="7"/>
       <c r="I434" s="7"/>
-      <c r="J434" s="7">
-        <v>77</v>
-      </c>
+      <c r="J434" s="7"/>
       <c r="K434" s="7"/>
       <c r="L434" s="7"/>
       <c r="M434" s="7"/>
       <c r="N434" s="7"/>
-      <c r="O434" s="7"/>
+      <c r="O434" s="7">
+        <v>100</v>
+      </c>
       <c r="P434" s="7"/>
       <c r="Q434" s="7"/>
       <c r="R434" s="7"/>
       <c r="S434" s="7"/>
       <c r="T434" s="7">
-        <v>77</v>
+        <v>300</v>
       </c>
     </row>
     <row r="435" spans="1:20">
       <c r="A435" s="12">
-        <v>41547</v>
+        <v>41537</v>
       </c>
       <c r="B435" s="7"/>
       <c r="C435" s="7"/>
@@ -58177,12 +58127,12 @@
       <c r="G435" s="7"/>
       <c r="H435" s="7"/>
       <c r="I435" s="7"/>
-      <c r="J435" s="7"/>
+      <c r="J435" s="7">
+        <v>77</v>
+      </c>
       <c r="K435" s="7"/>
       <c r="L435" s="7"/>
-      <c r="M435" s="7">
-        <v>80</v>
-      </c>
+      <c r="M435" s="7"/>
       <c r="N435" s="7"/>
       <c r="O435" s="7"/>
       <c r="P435" s="7"/>
@@ -58190,12 +58140,12 @@
       <c r="R435" s="7"/>
       <c r="S435" s="7"/>
       <c r="T435" s="7">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="436" spans="1:20">
       <c r="A436" s="12">
-        <v>41559</v>
+        <v>41547</v>
       </c>
       <c r="B436" s="7"/>
       <c r="C436" s="7"/>
@@ -58205,12 +58155,12 @@
       <c r="G436" s="7"/>
       <c r="H436" s="7"/>
       <c r="I436" s="7"/>
-      <c r="J436" s="7">
-        <v>161</v>
-      </c>
+      <c r="J436" s="7"/>
       <c r="K436" s="7"/>
       <c r="L436" s="7"/>
-      <c r="M436" s="7"/>
+      <c r="M436" s="7">
+        <v>80</v>
+      </c>
       <c r="N436" s="7"/>
       <c r="O436" s="7"/>
       <c r="P436" s="7"/>
@@ -58218,12 +58168,12 @@
       <c r="R436" s="7"/>
       <c r="S436" s="7"/>
       <c r="T436" s="7">
-        <v>161</v>
+        <v>80</v>
       </c>
     </row>
     <row r="437" spans="1:20">
       <c r="A437" s="12">
-        <v>41565</v>
+        <v>41559</v>
       </c>
       <c r="B437" s="7"/>
       <c r="C437" s="7"/>
@@ -58232,34 +58182,26 @@
       <c r="F437" s="7"/>
       <c r="G437" s="7"/>
       <c r="H437" s="7"/>
-      <c r="I437" s="7">
-        <v>150</v>
-      </c>
-      <c r="J437" s="7"/>
-      <c r="K437" s="7">
-        <v>200</v>
-      </c>
+      <c r="I437" s="7"/>
+      <c r="J437" s="7">
+        <v>161</v>
+      </c>
+      <c r="K437" s="7"/>
       <c r="L437" s="7"/>
       <c r="M437" s="7"/>
       <c r="N437" s="7"/>
-      <c r="O437" s="7">
-        <v>100</v>
-      </c>
-      <c r="P437" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q437" s="7">
-        <v>200</v>
-      </c>
+      <c r="O437" s="7"/>
+      <c r="P437" s="7"/>
+      <c r="Q437" s="7"/>
       <c r="R437" s="7"/>
       <c r="S437" s="7"/>
       <c r="T437" s="7">
-        <v>750</v>
+        <v>161</v>
       </c>
     </row>
     <row r="438" spans="1:20">
       <c r="A438" s="12">
-        <v>41575</v>
+        <v>41565</v>
       </c>
       <c r="B438" s="7"/>
       <c r="C438" s="7"/>
@@ -58268,26 +58210,34 @@
       <c r="F438" s="7"/>
       <c r="G438" s="7"/>
       <c r="H438" s="7"/>
-      <c r="I438" s="7"/>
-      <c r="J438" s="7">
-        <v>80.5</v>
-      </c>
-      <c r="K438" s="7"/>
+      <c r="I438" s="7">
+        <v>150</v>
+      </c>
+      <c r="J438" s="7"/>
+      <c r="K438" s="7">
+        <v>200</v>
+      </c>
       <c r="L438" s="7"/>
       <c r="M438" s="7"/>
       <c r="N438" s="7"/>
-      <c r="O438" s="7"/>
-      <c r="P438" s="7"/>
-      <c r="Q438" s="7"/>
+      <c r="O438" s="7">
+        <v>100</v>
+      </c>
+      <c r="P438" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q438" s="7">
+        <v>200</v>
+      </c>
       <c r="R438" s="7"/>
       <c r="S438" s="7"/>
       <c r="T438" s="7">
-        <v>80.5</v>
+        <v>750</v>
       </c>
     </row>
     <row r="439" spans="1:20">
       <c r="A439" s="12">
-        <v>41579</v>
+        <v>41575</v>
       </c>
       <c r="B439" s="7"/>
       <c r="C439" s="7"/>
@@ -58315,11 +58265,9 @@
     </row>
     <row r="440" spans="1:20">
       <c r="A440" s="12">
-        <v>41590</v>
-      </c>
-      <c r="B440" s="7">
-        <v>100</v>
-      </c>
+        <v>41579</v>
+      </c>
+      <c r="B440" s="7"/>
       <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
@@ -58327,25 +58275,25 @@
       <c r="G440" s="7"/>
       <c r="H440" s="7"/>
       <c r="I440" s="7"/>
-      <c r="J440" s="7"/>
+      <c r="J440" s="7">
+        <v>80.5</v>
+      </c>
       <c r="K440" s="7"/>
       <c r="L440" s="7"/>
       <c r="M440" s="7"/>
       <c r="N440" s="7"/>
       <c r="O440" s="7"/>
       <c r="P440" s="7"/>
-      <c r="Q440" s="7">
-        <v>150</v>
-      </c>
+      <c r="Q440" s="7"/>
       <c r="R440" s="7"/>
       <c r="S440" s="7"/>
       <c r="T440" s="7">
-        <v>250</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="441" spans="1:20">
       <c r="A441" s="12">
-        <v>41597</v>
+        <v>41590</v>
       </c>
       <c r="B441" s="7">
         <v>100</v>
@@ -58364,19 +58312,21 @@
       <c r="N441" s="7"/>
       <c r="O441" s="7"/>
       <c r="P441" s="7"/>
-      <c r="Q441" s="7"/>
+      <c r="Q441" s="7">
+        <v>150</v>
+      </c>
       <c r="R441" s="7"/>
       <c r="S441" s="7"/>
       <c r="T441" s="7">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="442" spans="1:20">
       <c r="A442" s="12">
-        <v>41599</v>
+        <v>41597</v>
       </c>
       <c r="B442" s="7">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C442" s="7"/>
       <c r="D442" s="7"/>
@@ -58396,14 +58346,16 @@
       <c r="R442" s="7"/>
       <c r="S442" s="7"/>
       <c r="T442" s="7">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="443" spans="1:20">
       <c r="A443" s="12">
-        <v>41600</v>
-      </c>
-      <c r="B443" s="7"/>
+        <v>41599</v>
+      </c>
+      <c r="B443" s="7">
+        <v>7</v>
+      </c>
       <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
@@ -58411,35 +58363,25 @@
       <c r="G443" s="7"/>
       <c r="H443" s="7"/>
       <c r="I443" s="7"/>
-      <c r="J443" s="7">
-        <v>200</v>
-      </c>
-      <c r="K443" s="7">
-        <v>200</v>
-      </c>
+      <c r="J443" s="7"/>
+      <c r="K443" s="7"/>
       <c r="L443" s="7"/>
-      <c r="M443" s="7">
-        <v>100</v>
-      </c>
+      <c r="M443" s="7"/>
       <c r="N443" s="7"/>
-      <c r="O443" s="7">
-        <v>150</v>
-      </c>
+      <c r="O443" s="7"/>
       <c r="P443" s="7"/>
       <c r="Q443" s="7"/>
       <c r="R443" s="7"/>
       <c r="S443" s="7"/>
       <c r="T443" s="7">
-        <v>650</v>
+        <v>7</v>
       </c>
     </row>
     <row r="444" spans="1:20">
       <c r="A444" s="12">
-        <v>41603</v>
-      </c>
-      <c r="B444" s="7">
-        <v>100</v>
-      </c>
+        <v>41600</v>
+      </c>
+      <c r="B444" s="7"/>
       <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
@@ -58447,25 +58389,35 @@
       <c r="G444" s="7"/>
       <c r="H444" s="7"/>
       <c r="I444" s="7"/>
-      <c r="J444" s="7"/>
-      <c r="K444" s="7"/>
+      <c r="J444" s="7">
+        <v>200</v>
+      </c>
+      <c r="K444" s="7">
+        <v>200</v>
+      </c>
       <c r="L444" s="7"/>
-      <c r="M444" s="7"/>
+      <c r="M444" s="7">
+        <v>100</v>
+      </c>
       <c r="N444" s="7"/>
-      <c r="O444" s="7"/>
+      <c r="O444" s="7">
+        <v>150</v>
+      </c>
       <c r="P444" s="7"/>
       <c r="Q444" s="7"/>
       <c r="R444" s="7"/>
       <c r="S444" s="7"/>
       <c r="T444" s="7">
-        <v>100</v>
+        <v>650</v>
       </c>
     </row>
     <row r="445" spans="1:20">
       <c r="A445" s="12">
-        <v>41605</v>
-      </c>
-      <c r="B445" s="7"/>
+        <v>41603</v>
+      </c>
+      <c r="B445" s="7">
+        <v>100</v>
+      </c>
       <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
@@ -58479,19 +58431,17 @@
       <c r="M445" s="7"/>
       <c r="N445" s="7"/>
       <c r="O445" s="7"/>
-      <c r="P445" s="7">
-        <v>200</v>
-      </c>
+      <c r="P445" s="7"/>
       <c r="Q445" s="7"/>
       <c r="R445" s="7"/>
       <c r="S445" s="7"/>
       <c r="T445" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="446" spans="1:20">
       <c r="A446" s="12">
-        <v>41610</v>
+        <v>41605</v>
       </c>
       <c r="B446" s="7"/>
       <c r="C446" s="7"/>
@@ -58505,21 +58455,21 @@
       <c r="K446" s="7"/>
       <c r="L446" s="7"/>
       <c r="M446" s="7"/>
-      <c r="N446" s="7">
-        <v>100</v>
-      </c>
+      <c r="N446" s="7"/>
       <c r="O446" s="7"/>
-      <c r="P446" s="7"/>
+      <c r="P446" s="7">
+        <v>200</v>
+      </c>
       <c r="Q446" s="7"/>
       <c r="R446" s="7"/>
       <c r="S446" s="7"/>
       <c r="T446" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="447" spans="1:20">
       <c r="A447" s="12">
-        <v>41611</v>
+        <v>41610</v>
       </c>
       <c r="B447" s="7"/>
       <c r="C447" s="7"/>
@@ -58532,22 +58482,22 @@
       <c r="J447" s="7"/>
       <c r="K447" s="7"/>
       <c r="L447" s="7"/>
-      <c r="M447" s="7">
-        <v>150</v>
-      </c>
-      <c r="N447" s="7"/>
+      <c r="M447" s="7"/>
+      <c r="N447" s="7">
+        <v>100</v>
+      </c>
       <c r="O447" s="7"/>
       <c r="P447" s="7"/>
       <c r="Q447" s="7"/>
       <c r="R447" s="7"/>
       <c r="S447" s="7"/>
       <c r="T447" s="7">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="448" spans="1:20">
       <c r="A448" s="12">
-        <v>41614</v>
+        <v>41611</v>
       </c>
       <c r="B448" s="7"/>
       <c r="C448" s="7"/>
@@ -58558,28 +58508,24 @@
       <c r="H448" s="7"/>
       <c r="I448" s="7"/>
       <c r="J448" s="7"/>
-      <c r="K448" s="7">
-        <v>50</v>
-      </c>
+      <c r="K448" s="7"/>
       <c r="L448" s="7"/>
-      <c r="M448" s="7"/>
+      <c r="M448" s="7">
+        <v>150</v>
+      </c>
       <c r="N448" s="7"/>
       <c r="O448" s="7"/>
       <c r="P448" s="7"/>
-      <c r="Q448" s="7">
-        <v>200</v>
-      </c>
+      <c r="Q448" s="7"/>
       <c r="R448" s="7"/>
-      <c r="S448" s="7">
-        <v>100</v>
-      </c>
+      <c r="S448" s="7"/>
       <c r="T448" s="7">
-        <v>350</v>
+        <v>150</v>
       </c>
     </row>
     <row r="449" spans="1:20">
       <c r="A449" s="12">
-        <v>41622</v>
+        <v>41614</v>
       </c>
       <c r="B449" s="7"/>
       <c r="C449" s="7"/>
@@ -58589,39 +58535,29 @@
       <c r="G449" s="7"/>
       <c r="H449" s="7"/>
       <c r="I449" s="7"/>
-      <c r="J449" s="7">
-        <v>100</v>
-      </c>
+      <c r="J449" s="7"/>
       <c r="K449" s="7">
+        <v>50</v>
+      </c>
+      <c r="L449" s="7"/>
+      <c r="M449" s="7"/>
+      <c r="N449" s="7"/>
+      <c r="O449" s="7"/>
+      <c r="P449" s="7"/>
+      <c r="Q449" s="7">
         <v>200</v>
-      </c>
-      <c r="L449" s="7"/>
-      <c r="M449" s="7">
-        <v>100</v>
-      </c>
-      <c r="N449" s="7">
-        <v>200</v>
-      </c>
-      <c r="O449" s="7">
-        <v>100</v>
-      </c>
-      <c r="P449" s="7">
-        <v>300</v>
-      </c>
-      <c r="Q449" s="7">
-        <v>100</v>
       </c>
       <c r="R449" s="7"/>
       <c r="S449" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T449" s="7">
-        <v>1150</v>
+        <v>350</v>
       </c>
     </row>
     <row r="450" spans="1:20">
       <c r="A450" s="12">
-        <v>41628</v>
+        <v>41622</v>
       </c>
       <c r="B450" s="7"/>
       <c r="C450" s="7"/>
@@ -58631,155 +58567,227 @@
       <c r="G450" s="7"/>
       <c r="H450" s="7"/>
       <c r="I450" s="7"/>
-      <c r="J450" s="7"/>
-      <c r="K450" s="7"/>
+      <c r="J450" s="7">
+        <v>100</v>
+      </c>
+      <c r="K450" s="7">
+        <v>200</v>
+      </c>
       <c r="L450" s="7"/>
-      <c r="M450" s="7"/>
-      <c r="N450" s="7"/>
-      <c r="O450" s="7"/>
-      <c r="P450" s="7"/>
-      <c r="Q450" s="7"/>
+      <c r="M450" s="7">
+        <v>100</v>
+      </c>
+      <c r="N450" s="7">
+        <v>200</v>
+      </c>
+      <c r="O450" s="7">
+        <v>100</v>
+      </c>
+      <c r="P450" s="7">
+        <v>300</v>
+      </c>
+      <c r="Q450" s="7">
+        <v>100</v>
+      </c>
       <c r="R450" s="7"/>
       <c r="S450" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T450" s="7">
-        <v>100</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="451" spans="1:20">
       <c r="A451" s="12">
-        <v>41635</v>
-      </c>
-      <c r="B451" s="7">
-        <v>100</v>
-      </c>
+        <v>41628</v>
+      </c>
+      <c r="B451" s="7"/>
       <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
       <c r="F451" s="7"/>
-      <c r="G451" s="7">
-        <v>13.71</v>
-      </c>
+      <c r="G451" s="7"/>
       <c r="H451" s="7"/>
       <c r="I451" s="7"/>
-      <c r="J451" s="7">
-        <v>300</v>
-      </c>
-      <c r="K451" s="7">
-        <v>100</v>
-      </c>
+      <c r="J451" s="7"/>
+      <c r="K451" s="7"/>
       <c r="L451" s="7"/>
       <c r="M451" s="7"/>
-      <c r="N451" s="7">
-        <v>100</v>
-      </c>
+      <c r="N451" s="7"/>
       <c r="O451" s="7"/>
       <c r="P451" s="7"/>
       <c r="Q451" s="7"/>
-      <c r="R451" s="7">
-        <v>20</v>
-      </c>
+      <c r="R451" s="7"/>
       <c r="S451" s="7">
         <v>100</v>
       </c>
       <c r="T451" s="7">
-        <v>733.71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="452" spans="1:20">
       <c r="A452" s="12">
-        <v>41642</v>
-      </c>
-      <c r="B452" s="7"/>
+        <v>41635</v>
+      </c>
+      <c r="B452" s="7">
+        <v>100</v>
+      </c>
       <c r="C452" s="7"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
       <c r="F452" s="7"/>
-      <c r="G452" s="7"/>
+      <c r="G452" s="7">
+        <v>13.71</v>
+      </c>
       <c r="H452" s="7"/>
       <c r="I452" s="7"/>
-      <c r="J452" s="7"/>
+      <c r="J452" s="7">
+        <v>300</v>
+      </c>
       <c r="K452" s="7">
         <v>100</v>
       </c>
       <c r="L452" s="7"/>
-      <c r="M452" s="7">
+      <c r="M452" s="7"/>
+      <c r="N452" s="7">
         <v>100</v>
       </c>
-      <c r="N452" s="7"/>
       <c r="O452" s="7"/>
       <c r="P452" s="7"/>
       <c r="Q452" s="7"/>
       <c r="R452" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="S452" s="7">
         <v>100</v>
       </c>
       <c r="T452" s="7">
+        <v>733.71</v>
+      </c>
+    </row>
+    <row r="453" spans="1:20">
+      <c r="A453" s="12">
+        <v>41642</v>
+      </c>
+      <c r="B453" s="7"/>
+      <c r="C453" s="7"/>
+      <c r="D453" s="7"/>
+      <c r="E453" s="7"/>
+      <c r="F453" s="7"/>
+      <c r="G453" s="7"/>
+      <c r="H453" s="7"/>
+      <c r="I453" s="7"/>
+      <c r="J453" s="7"/>
+      <c r="K453" s="7">
+        <v>100</v>
+      </c>
+      <c r="L453" s="7"/>
+      <c r="M453" s="7">
+        <v>100</v>
+      </c>
+      <c r="N453" s="7"/>
+      <c r="O453" s="7"/>
+      <c r="P453" s="7"/>
+      <c r="Q453" s="7"/>
+      <c r="R453" s="7">
+        <v>100</v>
+      </c>
+      <c r="S453" s="7">
+        <v>100</v>
+      </c>
+      <c r="T453" s="7">
         <v>400</v>
       </c>
     </row>
-    <row r="453" spans="1:20">
-      <c r="A453" s="6" t="s">
+    <row r="454" spans="1:20">
+      <c r="A454" s="12">
+        <v>41645</v>
+      </c>
+      <c r="B454" s="7"/>
+      <c r="C454" s="7"/>
+      <c r="D454" s="7"/>
+      <c r="E454" s="7"/>
+      <c r="F454" s="7"/>
+      <c r="G454" s="7"/>
+      <c r="H454" s="7"/>
+      <c r="I454" s="7"/>
+      <c r="J454" s="7"/>
+      <c r="K454" s="7"/>
+      <c r="L454" s="7"/>
+      <c r="M454" s="7">
+        <v>8</v>
+      </c>
+      <c r="N454" s="7">
+        <v>24</v>
+      </c>
+      <c r="O454" s="7"/>
+      <c r="P454" s="7"/>
+      <c r="Q454" s="7"/>
+      <c r="R454" s="7"/>
+      <c r="S454" s="7"/>
+      <c r="T454" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="455" spans="1:20">
+      <c r="A455" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B453" s="7">
+      <c r="B455" s="7">
         <v>-141.59999999999991</v>
       </c>
-      <c r="C453" s="7">
+      <c r="C455" s="7">
         <v>56</v>
       </c>
-      <c r="D453" s="7">
+      <c r="D455" s="7">
         <v>15.899999999999977</v>
       </c>
-      <c r="E453" s="7">
+      <c r="E455" s="7">
         <v>14</v>
       </c>
-      <c r="F453" s="7">
+      <c r="F455" s="7">
         <v>-8</v>
       </c>
-      <c r="G453" s="7">
+      <c r="G455" s="7">
         <v>1.0000000000410125E-2</v>
       </c>
-      <c r="H453" s="7">
+      <c r="H455" s="7">
         <v>-64.999999999999886</v>
       </c>
-      <c r="I453" s="7">
+      <c r="I455" s="7">
         <v>8.9999999999995453</v>
       </c>
-      <c r="J453" s="7">
-        <v>181.39999999999736</v>
-      </c>
-      <c r="K453" s="7">
+      <c r="J455" s="7">
+        <v>149.39999999999736</v>
+      </c>
+      <c r="K455" s="7">
         <v>79.700000000001182</v>
       </c>
-      <c r="L453" s="7">
+      <c r="L455" s="7">
         <v>43.400000000000006</v>
       </c>
-      <c r="M453" s="7">
-        <v>6.7000000000011823</v>
-      </c>
-      <c r="N453" s="7">
-        <v>-31.299999999998136</v>
-      </c>
-      <c r="O453" s="7">
+      <c r="M455" s="7">
+        <v>14.700000000001182</v>
+      </c>
+      <c r="N455" s="7">
+        <v>-7.2999999999981355</v>
+      </c>
+      <c r="O455" s="7">
         <v>-55.700000000000045</v>
       </c>
-      <c r="P453" s="7">
+      <c r="P455" s="7">
         <v>-50.399999999999181</v>
       </c>
-      <c r="Q453" s="7">
+      <c r="Q455" s="7">
         <v>-142.09999999999923</v>
       </c>
-      <c r="R453" s="7">
+      <c r="R455" s="7">
         <v>48.400000000000034</v>
       </c>
-      <c r="S453" s="7">
+      <c r="S455" s="7">
         <v>121.60000000000002</v>
       </c>
-      <c r="T453" s="7">
+      <c r="T455" s="7">
         <v>82.010000000008404</v>
       </c>
     </row>
@@ -58917,10 +58925,10 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3401.0000000000018</v>
+        <v>-3433.0000000000014</v>
       </c>
       <c r="K3" s="7">
-        <v>-1770.2999999999986</v>
+        <v>-1770.2999999999988</v>
       </c>
       <c r="L3" s="7">
         <v>-176.6</v>
@@ -58938,16 +58946,16 @@
         <v>-1550.3999999999992</v>
       </c>
       <c r="Q3" s="7">
-        <v>-1392.0999999999992</v>
+        <v>-1392.0999999999995</v>
       </c>
       <c r="R3" s="7">
         <v>-321.60000000000002</v>
       </c>
       <c r="S3" s="7">
-        <v>-328.40000000000003</v>
+        <v>-328.40000000000009</v>
       </c>
       <c r="T3" s="7">
-        <v>-20420.099999999995</v>
+        <v>-20452.099999999995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -58988,10 +58996,10 @@
         <v>220</v>
       </c>
       <c r="M4" s="7">
-        <v>1670</v>
+        <v>1678</v>
       </c>
       <c r="N4" s="7">
-        <v>1979</v>
+        <v>2003</v>
       </c>
       <c r="O4" s="7">
         <v>1043</v>
@@ -59009,7 +59017,7 @@
         <v>450</v>
       </c>
       <c r="T4" s="7">
-        <v>20502.11</v>
+        <v>20534.11</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -59041,19 +59049,19 @@
         <v>8.9999999999995453</v>
       </c>
       <c r="J5" s="8">
-        <v>181.39999999999827</v>
+        <v>149.39999999999873</v>
       </c>
       <c r="K5" s="8">
-        <v>79.70000000000141</v>
+        <v>79.700000000001182</v>
       </c>
       <c r="L5" s="8">
         <v>43.400000000000006</v>
       </c>
       <c r="M5" s="8">
-        <v>6.7000000000011823</v>
+        <v>14.700000000001182</v>
       </c>
       <c r="N5" s="8">
-        <v>-31.299999999997908</v>
+        <v>-7.2999999999979082</v>
       </c>
       <c r="O5" s="8">
         <v>-55.699999999999818</v>
@@ -59062,13 +59070,13 @@
         <v>-50.399999999999181</v>
       </c>
       <c r="Q5" s="8">
-        <v>-142.09999999999923</v>
+        <v>-142.09999999999945</v>
       </c>
       <c r="R5" s="8">
         <v>48.399999999999977</v>
       </c>
       <c r="S5" s="8">
-        <v>121.59999999999997</v>
+        <v>121.59999999999991</v>
       </c>
       <c r="T5" s="8">
         <v>82.010000000005675</v>

--- a/充值产品线消费帐单.xlsx
+++ b/充值产品线消费帐单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4641" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4740" uniqueCount="572">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2263,6 +2263,18 @@
     <t>烤鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>动车票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦当劳晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧德荣快餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2464,16 +2476,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2485,20 +2506,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2567,46 +2629,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -2618,13 +2640,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41645.459903935189" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1759">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="41648.423264236109" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1779">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="消费记录明细"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2014-01-07T00:00:00" count="349">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-01-12T00:00:00" maxDate="2014-01-09T00:00:00" count="351">
         <d v="2011-09-09T00:00:00"/>
         <d v="2011-09-30T00:00:00"/>
         <d v="2011-11-28T00:00:00"/>
@@ -2969,11 +2991,13 @@
         <d v="2014-01-02T00:00:00"/>
         <d v="2014-01-03T00:00:00"/>
         <d v="2014-01-06T00:00:00"/>
+        <d v="2014-01-07T00:00:00"/>
+        <d v="2014-01-08T00:00:00"/>
         <m/>
         <d v="2011-01-12T00:00:00" u="1"/>
+        <d v="2011-01-17T00:00:00" u="1"/>
+        <d v="2011-11-06T00:00:00" u="1"/>
         <d v="2013-05-14T00:00:00" u="1"/>
-        <d v="2011-11-06T00:00:00" u="1"/>
-        <d v="2011-01-17T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="消费者" numFmtId="0">
@@ -3027,7 +3051,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1759">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1779">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -13566,18 +13590,138 @@
   </r>
   <r>
     <x v="343"/>
-    <x v="25"/>
+    <x v="10"/>
+    <n v="-8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <x v="19"/>
+    <n v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <x v="10"/>
+    <n v="-24"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <x v="1"/>
+    <n v="24"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <x v="19"/>
+    <n v="200"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <x v="13"/>
     <m/>
-    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="343"/>
-    <x v="25"/>
+    <x v="24"/>
     <m/>
-    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <x v="10"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <x v="8"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <x v="19"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <x v="15"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <x v="12"/>
+    <m/>
+    <x v="0"/>
   </r>
   <r>
     <x v="344"/>
+    <x v="10"/>
+    <n v="-20"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="344"/>
+    <x v="10"/>
+    <n v="18"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="344"/>
+    <x v="10"/>
+    <n v="161"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="345"/>
+    <x v="17"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="345"/>
+    <x v="24"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="345"/>
+    <x v="8"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="345"/>
+    <x v="19"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="345"/>
+    <x v="15"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="345"/>
+    <x v="12"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="345"/>
+    <x v="17"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="346"/>
     <x v="25"/>
     <m/>
     <x v="2"/>
@@ -13587,15 +13731,15 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:T455" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:T458" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="350">
-        <item m="1" x="345"/>
+      <items count="352">
+        <item m="1" x="347"/>
         <item m="1" x="348"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="347"/>
+        <item m="1" x="349"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -13795,7 +13939,7 @@
         <item x="198"/>
         <item x="199"/>
         <item x="200"/>
-        <item m="1" x="346"/>
+        <item m="1" x="350"/>
         <item x="201"/>
         <item x="202"/>
         <item x="203"/>
@@ -13940,6 +14084,8 @@
         <item x="342"/>
         <item x="343"/>
         <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13989,7 +14135,7 @@
     <field x="3"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="453">
+  <rowItems count="456">
     <i>
       <x/>
     </i>
@@ -14956,6 +15102,12 @@
     <i r="1">
       <x v="347"/>
     </i>
+    <i r="1">
+      <x v="348"/>
+    </i>
+    <i r="1">
+      <x v="349"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -15346,6 +15498,9 @@
     <i r="1">
       <x v="347"/>
     </i>
+    <i r="1">
+      <x v="348"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -15416,20 +15571,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="7">
+    <format dxfId="12">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="11">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15569,20 +15724,20 @@
     <dataField name="求和项:金额" fld="2" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="3">
+    <format dxfId="8">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="7">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15882,11 +16037,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1769"/>
+  <dimension ref="A1:V1815"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1752" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1760" sqref="D1760:D1767"/>
+      <pane ySplit="1" topLeftCell="A1782" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1815" sqref="B1815"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16031,7 +16186,7 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -16051,7 +16206,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
@@ -16069,7 +16224,7 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4">
@@ -16087,7 +16242,7 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
@@ -16105,7 +16260,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
@@ -16123,7 +16278,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -16141,7 +16296,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
@@ -16951,7 +17106,7 @@
       <c r="E59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -16971,7 +17126,7 @@
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="24"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4">
@@ -16989,7 +17144,7 @@
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4">
@@ -17807,7 +17962,7 @@
       <c r="E109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="26"/>
+      <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4">
@@ -17825,7 +17980,7 @@
       <c r="E110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="27"/>
+      <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4">
@@ -17843,7 +17998,7 @@
       <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F111" s="28"/>
+      <c r="F111" s="31"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4">
@@ -17980,7 +18135,7 @@
       <c r="E119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="26" t="s">
+      <c r="F119" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -18000,7 +18155,7 @@
       <c r="E120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F120" s="28"/>
+      <c r="F120" s="31"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4">
@@ -18897,7 +19052,7 @@
       <c r="E172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="26" t="s">
+      <c r="F172" s="29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18917,7 +19072,7 @@
       <c r="E173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="27"/>
+      <c r="F173" s="30"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4">
@@ -18935,7 +19090,7 @@
       <c r="E174" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="27"/>
+      <c r="F174" s="30"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4">
@@ -18953,7 +19108,7 @@
       <c r="E175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F175" s="28"/>
+      <c r="F175" s="31"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4">
@@ -20971,7 +21126,7 @@
       <c r="E288" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="29" t="s">
+      <c r="F288" s="22" t="s">
         <v>202</v>
       </c>
     </row>
@@ -20991,7 +21146,7 @@
       <c r="E289" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F289" s="31"/>
+      <c r="F289" s="26"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -21009,7 +21164,7 @@
       <c r="E290" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F290" s="30"/>
+      <c r="F290" s="23"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -21027,7 +21182,7 @@
       <c r="E291" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F291" s="29" t="s">
+      <c r="F291" s="22" t="s">
         <v>212</v>
       </c>
     </row>
@@ -21047,7 +21202,7 @@
       <c r="E292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F292" s="31"/>
+      <c r="F292" s="26"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -21065,7 +21220,7 @@
       <c r="E293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F293" s="31"/>
+      <c r="F293" s="26"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -21083,7 +21238,7 @@
       <c r="E294" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F294" s="30"/>
+      <c r="F294" s="23"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -21101,7 +21256,7 @@
       <c r="E295" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F295" s="29" t="s">
+      <c r="F295" s="22" t="s">
         <v>211</v>
       </c>
     </row>
@@ -21121,7 +21276,7 @@
       <c r="E296" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F296" s="30"/>
+      <c r="F296" s="23"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -21139,7 +21294,7 @@
       <c r="E297" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F297" s="23" t="s">
+      <c r="F297" s="24" t="s">
         <v>207</v>
       </c>
     </row>
@@ -22016,7 +22171,7 @@
       <c r="E342" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F342" s="29" t="s">
+      <c r="F342" s="22" t="s">
         <v>284</v>
       </c>
     </row>
@@ -22036,7 +22191,7 @@
       <c r="E343" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F343" s="30"/>
+      <c r="F343" s="23"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -43729,126 +43884,680 @@
         <v>41645</v>
       </c>
       <c r="B1760" s="1" t="s">
-        <v>131</v>
+        <v>71</v>
+      </c>
+      <c r="C1760" s="1">
+        <v>-24</v>
       </c>
       <c r="D1760" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="1761" spans="1:4">
+    <row r="1761" spans="1:5">
       <c r="A1761" s="4">
         <v>41645</v>
       </c>
       <c r="B1761" s="1" t="s">
-        <v>567</v>
+        <v>27</v>
+      </c>
+      <c r="C1761" s="1">
+        <v>24</v>
       </c>
       <c r="D1761" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1762" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:5">
       <c r="A1762" s="4">
         <v>41645</v>
       </c>
       <c r="B1762" s="1" t="s">
-        <v>71</v>
+        <v>469</v>
+      </c>
+      <c r="C1762" s="1">
+        <v>200</v>
       </c>
       <c r="D1762" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1763" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:5">
       <c r="A1763" s="4">
         <v>41645</v>
       </c>
       <c r="B1763" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="D1763" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="1764" spans="1:4">
+    <row r="1764" spans="1:5">
       <c r="A1764" s="4">
         <v>41645</v>
       </c>
       <c r="B1764" s="1" t="s">
-        <v>469</v>
+        <v>567</v>
       </c>
       <c r="D1764" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="1765" spans="1:4">
+    <row r="1765" spans="1:5">
       <c r="A1765" s="4">
         <v>41645</v>
       </c>
       <c r="B1765" s="1" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D1765" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="1766" spans="1:4">
+    <row r="1766" spans="1:5">
       <c r="A1766" s="4">
         <v>41645</v>
       </c>
       <c r="B1766" s="1" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="D1766" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="1767" spans="1:4">
+    <row r="1767" spans="1:5">
       <c r="A1767" s="4">
         <v>41645</v>
       </c>
       <c r="B1767" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1767" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:5">
+      <c r="A1768" s="4">
+        <v>41645</v>
+      </c>
+      <c r="B1768" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1768" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:5">
+      <c r="A1769" s="4">
+        <v>41645</v>
+      </c>
+      <c r="B1769" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1769" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:5">
+      <c r="A1770" s="4">
+        <v>41646</v>
+      </c>
+      <c r="B1770" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1770" s="1">
+        <v>-20</v>
+      </c>
+      <c r="D1770" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1770" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:5">
+      <c r="A1771" s="4">
+        <v>41646</v>
+      </c>
+      <c r="B1771" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1771" s="1">
+        <v>18</v>
+      </c>
+      <c r="D1771" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1771" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:5">
+      <c r="A1772" s="4">
+        <v>41646</v>
+      </c>
+      <c r="B1772" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1772" s="1">
+        <v>161</v>
+      </c>
+      <c r="D1772" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1772" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:5">
+      <c r="A1773" s="4">
+        <v>41647</v>
+      </c>
+      <c r="B1773" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D1767" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1768" spans="1:4">
-      <c r="A1768" s="4"/>
-    </row>
-    <row r="1769" spans="1:4">
-      <c r="A1769" s="4"/>
+      <c r="D1773" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:5">
+      <c r="A1774" s="4">
+        <v>41647</v>
+      </c>
+      <c r="B1774" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1774" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:5">
+      <c r="A1775" s="4">
+        <v>41647</v>
+      </c>
+      <c r="B1775" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1775" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:5">
+      <c r="A1776" s="4">
+        <v>41647</v>
+      </c>
+      <c r="B1776" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1776" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:4">
+      <c r="A1777" s="4">
+        <v>41647</v>
+      </c>
+      <c r="B1777" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1777" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:4">
+      <c r="A1778" s="4">
+        <v>41647</v>
+      </c>
+      <c r="B1778" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1778" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:4">
+      <c r="A1779" s="4">
+        <v>41648</v>
+      </c>
+      <c r="B1779" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1779" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:4">
+      <c r="A1780" s="4">
+        <v>41648</v>
+      </c>
+      <c r="B1780" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1780" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:4">
+      <c r="A1781" s="4">
+        <v>41648</v>
+      </c>
+      <c r="B1781" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1781" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:4">
+      <c r="A1782" s="4">
+        <v>41648</v>
+      </c>
+      <c r="B1782" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1782" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:4">
+      <c r="A1783" s="4">
+        <v>41648</v>
+      </c>
+      <c r="B1783" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1783" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:4">
+      <c r="A1784" s="4">
+        <v>41648</v>
+      </c>
+      <c r="B1784" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1784" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:4">
+      <c r="A1785" s="4">
+        <v>41648</v>
+      </c>
+      <c r="B1785" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1785" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:4">
+      <c r="A1786" s="4">
+        <v>41648</v>
+      </c>
+      <c r="B1786" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1786" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:4">
+      <c r="A1787" s="4">
+        <v>41649</v>
+      </c>
+      <c r="B1787" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1787" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:4">
+      <c r="A1788" s="4">
+        <v>41649</v>
+      </c>
+      <c r="B1788" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1788" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:4">
+      <c r="A1789" s="4">
+        <v>41649</v>
+      </c>
+      <c r="B1789" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1789" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:4">
+      <c r="A1790" s="4">
+        <v>41649</v>
+      </c>
+      <c r="B1790" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1790" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:4">
+      <c r="A1791" s="4">
+        <v>41649</v>
+      </c>
+      <c r="B1791" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1791" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:4">
+      <c r="A1792" s="4">
+        <v>41649</v>
+      </c>
+      <c r="B1792" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1792" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:4">
+      <c r="A1793" s="4">
+        <v>41649</v>
+      </c>
+      <c r="B1793" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1793" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:4">
+      <c r="A1794" s="4">
+        <v>41649</v>
+      </c>
+      <c r="B1794" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1794" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:4">
+      <c r="A1795" s="4">
+        <v>41652</v>
+      </c>
+      <c r="B1795" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1795" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:4">
+      <c r="A1796" s="4">
+        <v>41652</v>
+      </c>
+      <c r="B1796" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1796" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:4">
+      <c r="A1797" s="4">
+        <v>41652</v>
+      </c>
+      <c r="B1797" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1797" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:4">
+      <c r="A1798" s="4">
+        <v>41652</v>
+      </c>
+      <c r="B1798" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1798" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:4">
+      <c r="A1799" s="4">
+        <v>41652</v>
+      </c>
+      <c r="B1799" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1799" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:4">
+      <c r="A1800" s="4">
+        <v>41652</v>
+      </c>
+      <c r="B1800" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1800" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:4">
+      <c r="A1801" s="4">
+        <v>41652</v>
+      </c>
+      <c r="B1801" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1801" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:4">
+      <c r="A1802" s="4">
+        <v>41653</v>
+      </c>
+      <c r="B1802" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1802" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:4">
+      <c r="A1803" s="4">
+        <v>41653</v>
+      </c>
+      <c r="B1803" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1803" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:4">
+      <c r="A1804" s="4">
+        <v>41653</v>
+      </c>
+      <c r="B1804" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1804" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:4">
+      <c r="A1805" s="4">
+        <v>41653</v>
+      </c>
+      <c r="B1805" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1805" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:4">
+      <c r="A1806" s="4">
+        <v>41653</v>
+      </c>
+      <c r="B1806" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1806" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:4">
+      <c r="A1807" s="4">
+        <v>41653</v>
+      </c>
+      <c r="B1807" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1807" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:4">
+      <c r="A1808" s="4">
+        <v>41653</v>
+      </c>
+      <c r="B1808" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1808" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:4">
+      <c r="A1809" s="4">
+        <v>41654</v>
+      </c>
+      <c r="B1809" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1809" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:4">
+      <c r="A1810" s="4">
+        <v>41654</v>
+      </c>
+      <c r="B1810" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1810" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:4">
+      <c r="A1811" s="4">
+        <v>41654</v>
+      </c>
+      <c r="B1811" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1811" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:4">
+      <c r="A1812" s="4">
+        <v>41654</v>
+      </c>
+      <c r="B1812" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1812" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:4">
+      <c r="A1813" s="4">
+        <v>41654</v>
+      </c>
+      <c r="B1813" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1813" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:4">
+      <c r="A1814" s="4">
+        <v>41654</v>
+      </c>
+      <c r="B1814" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1814" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:4">
+      <c r="A1815" s="4">
+        <v>41654</v>
+      </c>
+      <c r="B1815" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1815" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F172:F175"/>
     <mergeCell ref="F342:F343"/>
     <mergeCell ref="F295:F296"/>
     <mergeCell ref="F297:F298"/>
     <mergeCell ref="F291:F294"/>
     <mergeCell ref="F288:F290"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F172:F175"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1048576">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
+  <conditionalFormatting sqref="C1:C2 C4 C6:C1485 C1494:C1758 C1760:C1048576">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1486:C1493">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1759">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43867,11 +44576,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V455"/>
+  <dimension ref="A1:V458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E435" sqref="E435"/>
+      <selection pane="bottomLeft" activeCell="F425" sqref="F425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44014,7 +44723,7 @@
         <v>-2493.5000000000005</v>
       </c>
       <c r="J3" s="7">
-        <v>-3433.0000000000027</v>
+        <v>-3485.0000000000027</v>
       </c>
       <c r="K3" s="7">
         <v>-1770.2999999999988</v>
@@ -44044,7 +44753,7 @@
         <v>-328.4</v>
       </c>
       <c r="T3" s="7">
-        <v>-20452.099999999991</v>
+        <v>-20504.099999999991</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -54906,7 +55615,7 @@
       <c r="H324" s="7"/>
       <c r="I324" s="7"/>
       <c r="J324" s="7">
-        <v>-32</v>
+        <v>-64</v>
       </c>
       <c r="K324" s="7"/>
       <c r="L324" s="7"/>
@@ -54918,88 +55627,48 @@
       <c r="R324" s="7"/>
       <c r="S324" s="7"/>
       <c r="T324" s="7">
-        <v>-32</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="325" spans="1:20">
-      <c r="A325" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B325" s="7">
-        <v>850.5</v>
-      </c>
-      <c r="C325" s="7">
-        <v>87</v>
-      </c>
-      <c r="D325" s="7">
-        <v>300</v>
-      </c>
-      <c r="E325" s="7">
-        <v>56</v>
-      </c>
-      <c r="F325" s="7">
-        <v>200</v>
-      </c>
-      <c r="G325" s="7">
-        <v>2036.71</v>
-      </c>
-      <c r="H325" s="7">
-        <v>555</v>
-      </c>
-      <c r="I325" s="7">
-        <v>2502.5</v>
-      </c>
+      <c r="A325" s="12">
+        <v>41646</v>
+      </c>
+      <c r="B325" s="7"/>
+      <c r="C325" s="7"/>
+      <c r="D325" s="7"/>
+      <c r="E325" s="7"/>
+      <c r="F325" s="7"/>
+      <c r="G325" s="7"/>
+      <c r="H325" s="7"/>
+      <c r="I325" s="7"/>
       <c r="J325" s="7">
-        <v>3582.4</v>
-      </c>
-      <c r="K325" s="7">
-        <v>1850</v>
-      </c>
-      <c r="L325" s="7">
-        <v>220</v>
-      </c>
-      <c r="M325" s="7">
-        <v>1678</v>
-      </c>
-      <c r="N325" s="7">
-        <v>2003</v>
-      </c>
-      <c r="O325" s="7">
-        <v>1043</v>
-      </c>
-      <c r="P325" s="7">
-        <v>1500</v>
-      </c>
-      <c r="Q325" s="7">
-        <v>1250</v>
-      </c>
-      <c r="R325" s="7">
-        <v>370</v>
-      </c>
-      <c r="S325" s="7">
-        <v>450</v>
-      </c>
+        <v>-20</v>
+      </c>
+      <c r="K325" s="7"/>
+      <c r="L325" s="7"/>
+      <c r="M325" s="7"/>
+      <c r="N325" s="7"/>
+      <c r="O325" s="7"/>
+      <c r="P325" s="7"/>
+      <c r="Q325" s="7"/>
+      <c r="R325" s="7"/>
+      <c r="S325" s="7"/>
       <c r="T325" s="7">
-        <v>20534.11</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="326" spans="1:20">
       <c r="A326" s="12">
-        <v>40875</v>
+        <v>41647</v>
       </c>
       <c r="B326" s="7"/>
-      <c r="C326" s="7">
-        <v>63</v>
-      </c>
+      <c r="C326" s="7"/>
       <c r="D326" s="7"/>
-      <c r="E326" s="7">
-        <v>56</v>
-      </c>
+      <c r="E326" s="7"/>
       <c r="F326" s="7"/>
       <c r="G326" s="7"/>
-      <c r="H326" s="7">
-        <v>0</v>
-      </c>
+      <c r="H326" s="7"/>
       <c r="I326" s="7"/>
       <c r="J326" s="7"/>
       <c r="K326" s="7"/>
@@ -55011,51 +55680,87 @@
       <c r="Q326" s="7"/>
       <c r="R326" s="7"/>
       <c r="S326" s="7"/>
-      <c r="T326" s="7">
-        <v>119</v>
-      </c>
+      <c r="T326" s="7"/>
     </row>
     <row r="327" spans="1:20">
-      <c r="A327" s="12">
-        <v>40879</v>
+      <c r="A327" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B327" s="7">
-        <v>7</v>
-      </c>
-      <c r="C327" s="7"/>
-      <c r="D327" s="7"/>
-      <c r="E327" s="7"/>
-      <c r="F327" s="7"/>
-      <c r="G327" s="7"/>
-      <c r="H327" s="7"/>
-      <c r="I327" s="7"/>
-      <c r="J327" s="7"/>
-      <c r="K327" s="7"/>
-      <c r="L327" s="7"/>
-      <c r="M327" s="7"/>
-      <c r="N327" s="7"/>
-      <c r="O327" s="7"/>
-      <c r="P327" s="7"/>
-      <c r="Q327" s="7"/>
-      <c r="R327" s="7"/>
-      <c r="S327" s="7"/>
+        <v>850.5</v>
+      </c>
+      <c r="C327" s="7">
+        <v>87</v>
+      </c>
+      <c r="D327" s="7">
+        <v>300</v>
+      </c>
+      <c r="E327" s="7">
+        <v>56</v>
+      </c>
+      <c r="F327" s="7">
+        <v>200</v>
+      </c>
+      <c r="G327" s="7">
+        <v>2036.71</v>
+      </c>
+      <c r="H327" s="7">
+        <v>555</v>
+      </c>
+      <c r="I327" s="7">
+        <v>2526.5</v>
+      </c>
+      <c r="J327" s="7">
+        <v>3761.4</v>
+      </c>
+      <c r="K327" s="7">
+        <v>1850</v>
+      </c>
+      <c r="L327" s="7">
+        <v>220</v>
+      </c>
+      <c r="M327" s="7">
+        <v>1678</v>
+      </c>
+      <c r="N327" s="7">
+        <v>2003</v>
+      </c>
+      <c r="O327" s="7">
+        <v>1043</v>
+      </c>
+      <c r="P327" s="7">
+        <v>1708</v>
+      </c>
+      <c r="Q327" s="7">
+        <v>1250</v>
+      </c>
+      <c r="R327" s="7">
+        <v>370</v>
+      </c>
+      <c r="S327" s="7">
+        <v>450</v>
+      </c>
       <c r="T327" s="7">
-        <v>7</v>
+        <v>20945.11</v>
       </c>
     </row>
     <row r="328" spans="1:20">
       <c r="A328" s="12">
-        <v>40883</v>
+        <v>40875</v>
       </c>
       <c r="B328" s="7"/>
-      <c r="C328" s="7"/>
+      <c r="C328" s="7">
+        <v>63</v>
+      </c>
       <c r="D328" s="7"/>
-      <c r="E328" s="7"/>
+      <c r="E328" s="7">
+        <v>56</v>
+      </c>
       <c r="F328" s="7"/>
-      <c r="G328" s="7">
-        <v>50</v>
-      </c>
-      <c r="H328" s="7"/>
+      <c r="G328" s="7"/>
+      <c r="H328" s="7">
+        <v>0</v>
+      </c>
       <c r="I328" s="7"/>
       <c r="J328" s="7"/>
       <c r="K328" s="7"/>
@@ -55068,23 +55773,23 @@
       <c r="R328" s="7"/>
       <c r="S328" s="7"/>
       <c r="T328" s="7">
-        <v>50</v>
+        <v>119</v>
       </c>
     </row>
     <row r="329" spans="1:20">
       <c r="A329" s="12">
-        <v>40891</v>
-      </c>
-      <c r="B329" s="7"/>
+        <v>40879</v>
+      </c>
+      <c r="B329" s="7">
+        <v>7</v>
+      </c>
       <c r="C329" s="7"/>
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
       <c r="G329" s="7"/>
       <c r="H329" s="7"/>
-      <c r="I329" s="7">
-        <v>65</v>
-      </c>
+      <c r="I329" s="7"/>
       <c r="J329" s="7"/>
       <c r="K329" s="7"/>
       <c r="L329" s="7"/>
@@ -55096,12 +55801,12 @@
       <c r="R329" s="7"/>
       <c r="S329" s="7"/>
       <c r="T329" s="7">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:20">
       <c r="A330" s="12">
-        <v>40892</v>
+        <v>40883</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -55109,12 +55814,10 @@
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
       <c r="G330" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H330" s="7"/>
-      <c r="I330" s="7">
-        <v>68</v>
-      </c>
+      <c r="I330" s="7"/>
       <c r="J330" s="7"/>
       <c r="K330" s="7"/>
       <c r="L330" s="7"/>
@@ -55126,12 +55829,12 @@
       <c r="R330" s="7"/>
       <c r="S330" s="7"/>
       <c r="T330" s="7">
-        <v>168</v>
+        <v>50</v>
       </c>
     </row>
     <row r="331" spans="1:20">
       <c r="A331" s="12">
-        <v>40913</v>
+        <v>40891</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -55141,7 +55844,7 @@
       <c r="G331" s="7"/>
       <c r="H331" s="7"/>
       <c r="I331" s="7">
-        <v>679.5</v>
+        <v>65</v>
       </c>
       <c r="J331" s="7"/>
       <c r="K331" s="7"/>
@@ -55154,12 +55857,12 @@
       <c r="R331" s="7"/>
       <c r="S331" s="7"/>
       <c r="T331" s="7">
-        <v>679.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="332" spans="1:20">
       <c r="A332" s="12">
-        <v>40917</v>
+        <v>40892</v>
       </c>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -55170,7 +55873,9 @@
         <v>100</v>
       </c>
       <c r="H332" s="7"/>
-      <c r="I332" s="7"/>
+      <c r="I332" s="7">
+        <v>68</v>
+      </c>
       <c r="J332" s="7"/>
       <c r="K332" s="7"/>
       <c r="L332" s="7"/>
@@ -55182,12 +55887,12 @@
       <c r="R332" s="7"/>
       <c r="S332" s="7"/>
       <c r="T332" s="7">
-        <v>100</v>
+        <v>168</v>
       </c>
     </row>
     <row r="333" spans="1:20">
       <c r="A333" s="12">
-        <v>40919</v>
+        <v>40913</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -55196,10 +55901,10 @@
       <c r="F333" s="7"/>
       <c r="G333" s="7"/>
       <c r="H333" s="7"/>
-      <c r="I333" s="7"/>
-      <c r="J333" s="7">
-        <v>15</v>
-      </c>
+      <c r="I333" s="7">
+        <v>679.5</v>
+      </c>
+      <c r="J333" s="7"/>
       <c r="K333" s="7"/>
       <c r="L333" s="7"/>
       <c r="M333" s="7"/>
@@ -55210,23 +55915,21 @@
       <c r="R333" s="7"/>
       <c r="S333" s="7"/>
       <c r="T333" s="7">
-        <v>15</v>
+        <v>679.5</v>
       </c>
     </row>
     <row r="334" spans="1:20">
       <c r="A334" s="12">
-        <v>40921</v>
+        <v>40917</v>
       </c>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
-      <c r="D334" s="7">
+      <c r="D334" s="7"/>
+      <c r="E334" s="7"/>
+      <c r="F334" s="7"/>
+      <c r="G334" s="7">
         <v>100</v>
       </c>
-      <c r="E334" s="7"/>
-      <c r="F334" s="7">
-        <v>100</v>
-      </c>
-      <c r="G334" s="7"/>
       <c r="H334" s="7"/>
       <c r="I334" s="7"/>
       <c r="J334" s="7"/>
@@ -55240,12 +55943,12 @@
       <c r="R334" s="7"/>
       <c r="S334" s="7"/>
       <c r="T334" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="335" spans="1:20">
       <c r="A335" s="12">
-        <v>40925</v>
+        <v>40919</v>
       </c>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -55256,7 +55959,7 @@
       <c r="H335" s="7"/>
       <c r="I335" s="7"/>
       <c r="J335" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K335" s="7"/>
       <c r="L335" s="7"/>
@@ -55268,24 +55971,26 @@
       <c r="R335" s="7"/>
       <c r="S335" s="7"/>
       <c r="T335" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="336" spans="1:20">
       <c r="A336" s="12">
-        <v>40926</v>
+        <v>40921</v>
       </c>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
-      <c r="D336" s="7"/>
+      <c r="D336" s="7">
+        <v>100</v>
+      </c>
       <c r="E336" s="7"/>
-      <c r="F336" s="7"/>
+      <c r="F336" s="7">
+        <v>100</v>
+      </c>
       <c r="G336" s="7"/>
       <c r="H336" s="7"/>
       <c r="I336" s="7"/>
-      <c r="J336" s="7">
-        <v>28</v>
-      </c>
+      <c r="J336" s="7"/>
       <c r="K336" s="7"/>
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
@@ -55296,12 +56001,12 @@
       <c r="R336" s="7"/>
       <c r="S336" s="7"/>
       <c r="T336" s="7">
-        <v>28</v>
+        <v>200</v>
       </c>
     </row>
     <row r="337" spans="1:20">
       <c r="A337" s="12">
-        <v>40947</v>
+        <v>40925</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -55312,7 +56017,7 @@
       <c r="H337" s="7"/>
       <c r="I337" s="7"/>
       <c r="J337" s="7">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="K337" s="7"/>
       <c r="L337" s="7"/>
@@ -55324,12 +56029,12 @@
       <c r="R337" s="7"/>
       <c r="S337" s="7"/>
       <c r="T337" s="7">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:20">
       <c r="A338" s="12">
-        <v>40954</v>
+        <v>40926</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -55337,11 +56042,11 @@
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
       <c r="G338" s="7"/>
-      <c r="H338" s="7">
-        <v>100</v>
-      </c>
+      <c r="H338" s="7"/>
       <c r="I338" s="7"/>
-      <c r="J338" s="7"/>
+      <c r="J338" s="7">
+        <v>28</v>
+      </c>
       <c r="K338" s="7"/>
       <c r="L338" s="7"/>
       <c r="M338" s="7"/>
@@ -55352,12 +56057,12 @@
       <c r="R338" s="7"/>
       <c r="S338" s="7"/>
       <c r="T338" s="7">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="339" spans="1:20">
       <c r="A339" s="12">
-        <v>40973</v>
+        <v>40947</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -55367,12 +56072,12 @@
       <c r="G339" s="7"/>
       <c r="H339" s="7"/>
       <c r="I339" s="7"/>
-      <c r="J339" s="7"/>
+      <c r="J339" s="7">
+        <v>100</v>
+      </c>
       <c r="K339" s="7"/>
       <c r="L339" s="7"/>
-      <c r="M339" s="7">
-        <v>100</v>
-      </c>
+      <c r="M339" s="7"/>
       <c r="N339" s="7"/>
       <c r="O339" s="7"/>
       <c r="P339" s="7"/>
@@ -55385,7 +56090,7 @@
     </row>
     <row r="340" spans="1:20">
       <c r="A340" s="12">
-        <v>40974</v>
+        <v>40954</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -55413,7 +56118,7 @@
     </row>
     <row r="341" spans="1:20">
       <c r="A341" s="12">
-        <v>40981</v>
+        <v>40973</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -55421,16 +56126,14 @@
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
       <c r="G341" s="7"/>
-      <c r="H341" s="7">
-        <v>100</v>
-      </c>
-      <c r="I341" s="7">
-        <v>300</v>
-      </c>
+      <c r="H341" s="7"/>
+      <c r="I341" s="7"/>
       <c r="J341" s="7"/>
       <c r="K341" s="7"/>
       <c r="L341" s="7"/>
-      <c r="M341" s="7"/>
+      <c r="M341" s="7">
+        <v>100</v>
+      </c>
       <c r="N341" s="7"/>
       <c r="O341" s="7"/>
       <c r="P341" s="7"/>
@@ -55438,12 +56141,12 @@
       <c r="R341" s="7"/>
       <c r="S341" s="7"/>
       <c r="T341" s="7">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="342" spans="1:20">
       <c r="A342" s="12">
-        <v>41032</v>
+        <v>40974</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -55451,15 +56154,13 @@
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
       <c r="G342" s="7"/>
-      <c r="H342" s="7"/>
+      <c r="H342" s="7">
+        <v>100</v>
+      </c>
       <c r="I342" s="7"/>
       <c r="J342" s="7"/>
-      <c r="K342" s="7">
-        <v>100</v>
-      </c>
-      <c r="L342" s="7">
-        <v>100</v>
-      </c>
+      <c r="K342" s="7"/>
+      <c r="L342" s="7"/>
       <c r="M342" s="7"/>
       <c r="N342" s="7"/>
       <c r="O342" s="7"/>
@@ -55468,12 +56169,12 @@
       <c r="R342" s="7"/>
       <c r="S342" s="7"/>
       <c r="T342" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="343" spans="1:20">
       <c r="A343" s="12">
-        <v>41037</v>
+        <v>40981</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -55481,14 +56182,16 @@
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
       <c r="G343" s="7"/>
-      <c r="H343" s="7"/>
-      <c r="I343" s="7"/>
+      <c r="H343" s="7">
+        <v>100</v>
+      </c>
+      <c r="I343" s="7">
+        <v>300</v>
+      </c>
       <c r="J343" s="7"/>
       <c r="K343" s="7"/>
       <c r="L343" s="7"/>
-      <c r="M343" s="7">
-        <v>100</v>
-      </c>
+      <c r="M343" s="7"/>
       <c r="N343" s="7"/>
       <c r="O343" s="7"/>
       <c r="P343" s="7"/>
@@ -55496,12 +56199,12 @@
       <c r="R343" s="7"/>
       <c r="S343" s="7"/>
       <c r="T343" s="7">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="344" spans="1:20">
       <c r="A344" s="12">
-        <v>41039</v>
+        <v>41032</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -55512,24 +56215,26 @@
       <c r="H344" s="7"/>
       <c r="I344" s="7"/>
       <c r="J344" s="7"/>
-      <c r="K344" s="7"/>
-      <c r="L344" s="7"/>
+      <c r="K344" s="7">
+        <v>100</v>
+      </c>
+      <c r="L344" s="7">
+        <v>100</v>
+      </c>
       <c r="M344" s="7"/>
-      <c r="N344" s="7">
-        <v>35</v>
-      </c>
+      <c r="N344" s="7"/>
       <c r="O344" s="7"/>
       <c r="P344" s="7"/>
       <c r="Q344" s="7"/>
       <c r="R344" s="7"/>
       <c r="S344" s="7"/>
       <c r="T344" s="7">
-        <v>35</v>
+        <v>200</v>
       </c>
     </row>
     <row r="345" spans="1:20">
       <c r="A345" s="12">
-        <v>41044</v>
+        <v>41037</v>
       </c>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -55542,50 +56247,50 @@
       <c r="J345" s="7"/>
       <c r="K345" s="7"/>
       <c r="L345" s="7"/>
-      <c r="M345" s="7"/>
-      <c r="N345" s="7">
-        <v>20</v>
-      </c>
+      <c r="M345" s="7">
+        <v>100</v>
+      </c>
+      <c r="N345" s="7"/>
       <c r="O345" s="7"/>
       <c r="P345" s="7"/>
       <c r="Q345" s="7"/>
       <c r="R345" s="7"/>
       <c r="S345" s="7"/>
       <c r="T345" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="346" spans="1:20">
       <c r="A346" s="12">
-        <v>41050</v>
+        <v>41039</v>
       </c>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
       <c r="F346" s="7"/>
-      <c r="G346" s="7">
-        <v>89</v>
-      </c>
+      <c r="G346" s="7"/>
       <c r="H346" s="7"/>
       <c r="I346" s="7"/>
       <c r="J346" s="7"/>
       <c r="K346" s="7"/>
       <c r="L346" s="7"/>
       <c r="M346" s="7"/>
-      <c r="N346" s="7"/>
+      <c r="N346" s="7">
+        <v>35</v>
+      </c>
       <c r="O346" s="7"/>
       <c r="P346" s="7"/>
       <c r="Q346" s="7"/>
       <c r="R346" s="7"/>
       <c r="S346" s="7"/>
       <c r="T346" s="7">
-        <v>89</v>
+        <v>35</v>
       </c>
     </row>
     <row r="347" spans="1:20">
       <c r="A347" s="12">
-        <v>41057</v>
+        <v>41044</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -55595,37 +56300,37 @@
       <c r="G347" s="7"/>
       <c r="H347" s="7"/>
       <c r="I347" s="7"/>
-      <c r="J347" s="7">
-        <v>300</v>
-      </c>
+      <c r="J347" s="7"/>
       <c r="K347" s="7"/>
       <c r="L347" s="7"/>
       <c r="M347" s="7"/>
-      <c r="N347" s="7"/>
+      <c r="N347" s="7">
+        <v>20</v>
+      </c>
       <c r="O347" s="7"/>
       <c r="P347" s="7"/>
       <c r="Q347" s="7"/>
       <c r="R347" s="7"/>
       <c r="S347" s="7"/>
       <c r="T347" s="7">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="348" spans="1:20">
       <c r="A348" s="12">
-        <v>41060</v>
+        <v>41050</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
-      <c r="G348" s="7"/>
+      <c r="G348" s="7">
+        <v>89</v>
+      </c>
       <c r="H348" s="7"/>
       <c r="I348" s="7"/>
-      <c r="J348" s="7">
-        <v>10.1</v>
-      </c>
+      <c r="J348" s="7"/>
       <c r="K348" s="7"/>
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
@@ -55636,24 +56341,24 @@
       <c r="R348" s="7"/>
       <c r="S348" s="7"/>
       <c r="T348" s="7">
-        <v>10.1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="349" spans="1:20">
       <c r="A349" s="12">
-        <v>41066</v>
+        <v>41057</v>
       </c>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
-      <c r="G349" s="7">
-        <v>300</v>
-      </c>
+      <c r="G349" s="7"/>
       <c r="H349" s="7"/>
       <c r="I349" s="7"/>
-      <c r="J349" s="7"/>
+      <c r="J349" s="7">
+        <v>300</v>
+      </c>
       <c r="K349" s="7"/>
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
@@ -55669,7 +56374,7 @@
     </row>
     <row r="350" spans="1:20">
       <c r="A350" s="12">
-        <v>41070</v>
+        <v>41060</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -55680,7 +56385,7 @@
       <c r="H350" s="7"/>
       <c r="I350" s="7"/>
       <c r="J350" s="7">
-        <v>130</v>
+        <v>10.1</v>
       </c>
       <c r="K350" s="7"/>
       <c r="L350" s="7"/>
@@ -55692,24 +56397,24 @@
       <c r="R350" s="7"/>
       <c r="S350" s="7"/>
       <c r="T350" s="7">
-        <v>130</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="351" spans="1:20">
       <c r="A351" s="12">
-        <v>41071</v>
+        <v>41066</v>
       </c>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
       <c r="F351" s="7"/>
-      <c r="G351" s="7"/>
+      <c r="G351" s="7">
+        <v>300</v>
+      </c>
       <c r="H351" s="7"/>
       <c r="I351" s="7"/>
-      <c r="J351" s="7">
-        <v>81.400000000000006</v>
-      </c>
+      <c r="J351" s="7"/>
       <c r="K351" s="7"/>
       <c r="L351" s="7"/>
       <c r="M351" s="7"/>
@@ -55720,12 +56425,12 @@
       <c r="R351" s="7"/>
       <c r="S351" s="7"/>
       <c r="T351" s="7">
-        <v>81.400000000000006</v>
+        <v>300</v>
       </c>
     </row>
     <row r="352" spans="1:20">
       <c r="A352" s="12">
-        <v>41072</v>
+        <v>41070</v>
       </c>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -55736,7 +56441,7 @@
       <c r="H352" s="7"/>
       <c r="I352" s="7"/>
       <c r="J352" s="7">
-        <v>77.599999999999994</v>
+        <v>130</v>
       </c>
       <c r="K352" s="7"/>
       <c r="L352" s="7"/>
@@ -55748,25 +56453,23 @@
       <c r="R352" s="7"/>
       <c r="S352" s="7"/>
       <c r="T352" s="7">
-        <v>77.599999999999994</v>
+        <v>130</v>
       </c>
     </row>
     <row r="353" spans="1:20">
       <c r="A353" s="12">
-        <v>41078</v>
+        <v>41071</v>
       </c>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
       <c r="F353" s="7"/>
-      <c r="G353" s="7">
-        <v>47</v>
-      </c>
+      <c r="G353" s="7"/>
       <c r="H353" s="7"/>
       <c r="I353" s="7"/>
       <c r="J353" s="7">
-        <v>50</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="K353" s="7"/>
       <c r="L353" s="7"/>
@@ -55778,12 +56481,12 @@
       <c r="R353" s="7"/>
       <c r="S353" s="7"/>
       <c r="T353" s="7">
-        <v>97</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="354" spans="1:20">
       <c r="A354" s="12">
-        <v>41082</v>
+        <v>41072</v>
       </c>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -55794,7 +56497,7 @@
       <c r="H354" s="7"/>
       <c r="I354" s="7"/>
       <c r="J354" s="7">
-        <v>98</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="K354" s="7"/>
       <c r="L354" s="7"/>
@@ -55806,23 +56509,25 @@
       <c r="R354" s="7"/>
       <c r="S354" s="7"/>
       <c r="T354" s="7">
-        <v>98</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="355" spans="1:20">
       <c r="A355" s="12">
-        <v>41083</v>
+        <v>41078</v>
       </c>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
       <c r="F355" s="7"/>
-      <c r="G355" s="7"/>
+      <c r="G355" s="7">
+        <v>47</v>
+      </c>
       <c r="H355" s="7"/>
       <c r="I355" s="7"/>
       <c r="J355" s="7">
-        <v>39.9</v>
+        <v>50</v>
       </c>
       <c r="K355" s="7"/>
       <c r="L355" s="7"/>
@@ -55834,24 +56539,24 @@
       <c r="R355" s="7"/>
       <c r="S355" s="7"/>
       <c r="T355" s="7">
-        <v>39.9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="356" spans="1:20">
       <c r="A356" s="12">
-        <v>41085</v>
+        <v>41082</v>
       </c>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
       <c r="F356" s="7"/>
-      <c r="G356" s="7">
-        <v>300</v>
-      </c>
+      <c r="G356" s="7"/>
       <c r="H356" s="7"/>
       <c r="I356" s="7"/>
-      <c r="J356" s="7"/>
+      <c r="J356" s="7">
+        <v>98</v>
+      </c>
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
@@ -55862,12 +56567,12 @@
       <c r="R356" s="7"/>
       <c r="S356" s="7"/>
       <c r="T356" s="7">
-        <v>300</v>
+        <v>98</v>
       </c>
     </row>
     <row r="357" spans="1:20">
       <c r="A357" s="12">
-        <v>41088</v>
+        <v>41083</v>
       </c>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -55878,7 +56583,7 @@
       <c r="H357" s="7"/>
       <c r="I357" s="7"/>
       <c r="J357" s="7">
-        <v>20</v>
+        <v>39.9</v>
       </c>
       <c r="K357" s="7"/>
       <c r="L357" s="7"/>
@@ -55890,19 +56595,21 @@
       <c r="R357" s="7"/>
       <c r="S357" s="7"/>
       <c r="T357" s="7">
-        <v>20</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="358" spans="1:20">
       <c r="A358" s="12">
-        <v>41092</v>
+        <v>41085</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
       <c r="F358" s="7"/>
-      <c r="G358" s="7"/>
+      <c r="G358" s="7">
+        <v>300</v>
+      </c>
       <c r="H358" s="7"/>
       <c r="I358" s="7"/>
       <c r="J358" s="7"/>
@@ -55910,20 +56617,18 @@
       <c r="L358" s="7"/>
       <c r="M358" s="7"/>
       <c r="N358" s="7"/>
-      <c r="O358" s="7">
-        <v>93</v>
-      </c>
+      <c r="O358" s="7"/>
       <c r="P358" s="7"/>
       <c r="Q358" s="7"/>
       <c r="R358" s="7"/>
       <c r="S358" s="7"/>
       <c r="T358" s="7">
-        <v>93</v>
+        <v>300</v>
       </c>
     </row>
     <row r="359" spans="1:20">
       <c r="A359" s="12">
-        <v>41093</v>
+        <v>41088</v>
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -55934,7 +56639,7 @@
       <c r="H359" s="7"/>
       <c r="I359" s="7"/>
       <c r="J359" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K359" s="7"/>
       <c r="L359" s="7"/>
@@ -55946,42 +56651,40 @@
       <c r="R359" s="7"/>
       <c r="S359" s="7"/>
       <c r="T359" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="360" spans="1:20">
       <c r="A360" s="12">
-        <v>41095</v>
+        <v>41092</v>
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
-      <c r="G360" s="7">
-        <v>70</v>
-      </c>
+      <c r="G360" s="7"/>
       <c r="H360" s="7"/>
       <c r="I360" s="7"/>
-      <c r="J360" s="7">
-        <v>98</v>
-      </c>
+      <c r="J360" s="7"/>
       <c r="K360" s="7"/>
       <c r="L360" s="7"/>
       <c r="M360" s="7"/>
       <c r="N360" s="7"/>
-      <c r="O360" s="7"/>
+      <c r="O360" s="7">
+        <v>93</v>
+      </c>
       <c r="P360" s="7"/>
       <c r="Q360" s="7"/>
       <c r="R360" s="7"/>
       <c r="S360" s="7"/>
       <c r="T360" s="7">
-        <v>168</v>
+        <v>93</v>
       </c>
     </row>
     <row r="361" spans="1:20">
       <c r="A361" s="12">
-        <v>41100</v>
+        <v>41093</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
@@ -55990,10 +56693,10 @@
       <c r="F361" s="7"/>
       <c r="G361" s="7"/>
       <c r="H361" s="7"/>
-      <c r="I361" s="7">
-        <v>16</v>
-      </c>
-      <c r="J361" s="7"/>
+      <c r="I361" s="7"/>
+      <c r="J361" s="7">
+        <v>100</v>
+      </c>
       <c r="K361" s="7"/>
       <c r="L361" s="7"/>
       <c r="M361" s="7"/>
@@ -56004,24 +56707,26 @@
       <c r="R361" s="7"/>
       <c r="S361" s="7"/>
       <c r="T361" s="7">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="362" spans="1:20">
       <c r="A362" s="12">
-        <v>41108</v>
+        <v>41095</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
       <c r="F362" s="7"/>
-      <c r="G362" s="7"/>
+      <c r="G362" s="7">
+        <v>70</v>
+      </c>
       <c r="H362" s="7"/>
-      <c r="I362" s="7">
-        <v>63</v>
-      </c>
-      <c r="J362" s="7"/>
+      <c r="I362" s="7"/>
+      <c r="J362" s="7">
+        <v>98</v>
+      </c>
       <c r="K362" s="7"/>
       <c r="L362" s="7"/>
       <c r="M362" s="7"/>
@@ -56032,12 +56737,12 @@
       <c r="R362" s="7"/>
       <c r="S362" s="7"/>
       <c r="T362" s="7">
-        <v>63</v>
+        <v>168</v>
       </c>
     </row>
     <row r="363" spans="1:20">
       <c r="A363" s="12">
-        <v>41110</v>
+        <v>41100</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -56047,7 +56752,7 @@
       <c r="G363" s="7"/>
       <c r="H363" s="7"/>
       <c r="I363" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J363" s="7"/>
       <c r="K363" s="7"/>
@@ -56060,12 +56765,12 @@
       <c r="R363" s="7"/>
       <c r="S363" s="7"/>
       <c r="T363" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="364" spans="1:20">
       <c r="A364" s="12">
-        <v>41116</v>
+        <v>41108</v>
       </c>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -56075,7 +56780,7 @@
       <c r="G364" s="7"/>
       <c r="H364" s="7"/>
       <c r="I364" s="7">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="J364" s="7"/>
       <c r="K364" s="7"/>
@@ -56088,12 +56793,12 @@
       <c r="R364" s="7"/>
       <c r="S364" s="7"/>
       <c r="T364" s="7">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="365" spans="1:20">
       <c r="A365" s="12">
-        <v>41136</v>
+        <v>41110</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
@@ -56101,11 +56806,9 @@
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
       <c r="G365" s="7"/>
-      <c r="H365" s="7">
-        <v>55</v>
-      </c>
+      <c r="H365" s="7"/>
       <c r="I365" s="7">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="J365" s="7"/>
       <c r="K365" s="7"/>
@@ -56118,23 +56821,23 @@
       <c r="R365" s="7"/>
       <c r="S365" s="7"/>
       <c r="T365" s="7">
-        <v>94</v>
+        <v>15</v>
       </c>
     </row>
     <row r="366" spans="1:20">
       <c r="A366" s="12">
-        <v>41138</v>
+        <v>41116</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
       <c r="F366" s="7"/>
-      <c r="G366" s="7">
-        <v>100.4</v>
-      </c>
+      <c r="G366" s="7"/>
       <c r="H366" s="7"/>
-      <c r="I366" s="7"/>
+      <c r="I366" s="7">
+        <v>83</v>
+      </c>
       <c r="J366" s="7"/>
       <c r="K366" s="7"/>
       <c r="L366" s="7"/>
@@ -56146,12 +56849,12 @@
       <c r="R366" s="7"/>
       <c r="S366" s="7"/>
       <c r="T366" s="7">
-        <v>100.4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="367" spans="1:20">
       <c r="A367" s="12">
-        <v>41151</v>
+        <v>41136</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -56159,11 +56862,13 @@
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
       <c r="G367" s="7"/>
-      <c r="H367" s="7"/>
-      <c r="I367" s="7"/>
-      <c r="J367" s="7">
-        <v>100</v>
-      </c>
+      <c r="H367" s="7">
+        <v>55</v>
+      </c>
+      <c r="I367" s="7">
+        <v>39</v>
+      </c>
+      <c r="J367" s="7"/>
       <c r="K367" s="7"/>
       <c r="L367" s="7"/>
       <c r="M367" s="7"/>
@@ -56174,23 +56879,23 @@
       <c r="R367" s="7"/>
       <c r="S367" s="7"/>
       <c r="T367" s="7">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="368" spans="1:20">
       <c r="A368" s="12">
-        <v>41156</v>
+        <v>41138</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
       <c r="F368" s="7"/>
-      <c r="G368" s="7"/>
+      <c r="G368" s="7">
+        <v>100.4</v>
+      </c>
       <c r="H368" s="7"/>
-      <c r="I368" s="7">
-        <v>15</v>
-      </c>
+      <c r="I368" s="7"/>
       <c r="J368" s="7"/>
       <c r="K368" s="7"/>
       <c r="L368" s="7"/>
@@ -56202,12 +56907,12 @@
       <c r="R368" s="7"/>
       <c r="S368" s="7"/>
       <c r="T368" s="7">
-        <v>15</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="369" spans="1:20">
       <c r="A369" s="12">
-        <v>41161</v>
+        <v>41151</v>
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -56216,10 +56921,10 @@
       <c r="F369" s="7"/>
       <c r="G369" s="7"/>
       <c r="H369" s="7"/>
-      <c r="I369" s="7">
-        <v>76</v>
-      </c>
-      <c r="J369" s="7"/>
+      <c r="I369" s="7"/>
+      <c r="J369" s="7">
+        <v>100</v>
+      </c>
       <c r="K369" s="7"/>
       <c r="L369" s="7"/>
       <c r="M369" s="7"/>
@@ -56230,12 +56935,12 @@
       <c r="R369" s="7"/>
       <c r="S369" s="7"/>
       <c r="T369" s="7">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="370" spans="1:20">
       <c r="A370" s="12">
-        <v>41162</v>
+        <v>41156</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -56244,28 +56949,26 @@
       <c r="F370" s="7"/>
       <c r="G370" s="7"/>
       <c r="H370" s="7"/>
-      <c r="I370" s="7"/>
-      <c r="J370" s="7">
-        <v>100</v>
-      </c>
+      <c r="I370" s="7">
+        <v>15</v>
+      </c>
+      <c r="J370" s="7"/>
       <c r="K370" s="7"/>
       <c r="L370" s="7"/>
       <c r="M370" s="7"/>
-      <c r="N370" s="7">
-        <v>48</v>
-      </c>
+      <c r="N370" s="7"/>
       <c r="O370" s="7"/>
       <c r="P370" s="7"/>
       <c r="Q370" s="7"/>
       <c r="R370" s="7"/>
       <c r="S370" s="7"/>
       <c r="T370" s="7">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="371" spans="1:20">
       <c r="A371" s="12">
-        <v>41166</v>
+        <v>41161</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -56274,26 +56977,26 @@
       <c r="F371" s="7"/>
       <c r="G371" s="7"/>
       <c r="H371" s="7"/>
-      <c r="I371" s="7"/>
+      <c r="I371" s="7">
+        <v>76</v>
+      </c>
       <c r="J371" s="7"/>
       <c r="K371" s="7"/>
       <c r="L371" s="7"/>
       <c r="M371" s="7"/>
-      <c r="N371" s="7">
-        <v>100</v>
-      </c>
+      <c r="N371" s="7"/>
       <c r="O371" s="7"/>
       <c r="P371" s="7"/>
       <c r="Q371" s="7"/>
       <c r="R371" s="7"/>
       <c r="S371" s="7"/>
       <c r="T371" s="7">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="372" spans="1:20">
       <c r="A372" s="12">
-        <v>41171</v>
+        <v>41162</v>
       </c>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
@@ -56303,12 +57006,14 @@
       <c r="G372" s="7"/>
       <c r="H372" s="7"/>
       <c r="I372" s="7"/>
-      <c r="J372" s="7"/>
+      <c r="J372" s="7">
+        <v>100</v>
+      </c>
       <c r="K372" s="7"/>
       <c r="L372" s="7"/>
       <c r="M372" s="7"/>
       <c r="N372" s="7">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="O372" s="7"/>
       <c r="P372" s="7"/>
@@ -56316,20 +57021,18 @@
       <c r="R372" s="7"/>
       <c r="S372" s="7"/>
       <c r="T372" s="7">
-        <v>10</v>
+        <v>148</v>
       </c>
     </row>
     <row r="373" spans="1:20">
       <c r="A373" s="12">
-        <v>41175</v>
+        <v>41166</v>
       </c>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
-      <c r="F373" s="7">
-        <v>100</v>
-      </c>
+      <c r="F373" s="7"/>
       <c r="G373" s="7"/>
       <c r="H373" s="7"/>
       <c r="I373" s="7"/>
@@ -56337,7 +57040,9 @@
       <c r="K373" s="7"/>
       <c r="L373" s="7"/>
       <c r="M373" s="7"/>
-      <c r="N373" s="7"/>
+      <c r="N373" s="7">
+        <v>100</v>
+      </c>
       <c r="O373" s="7"/>
       <c r="P373" s="7"/>
       <c r="Q373" s="7"/>
@@ -56349,28 +57054,22 @@
     </row>
     <row r="374" spans="1:20">
       <c r="A374" s="12">
-        <v>41197</v>
-      </c>
-      <c r="B374" s="7">
-        <v>10</v>
-      </c>
+        <v>41171</v>
+      </c>
+      <c r="B374" s="7"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
       <c r="F374" s="7"/>
-      <c r="G374" s="7">
-        <v>10</v>
-      </c>
+      <c r="G374" s="7"/>
       <c r="H374" s="7"/>
       <c r="I374" s="7"/>
-      <c r="J374" s="7">
-        <v>10</v>
-      </c>
+      <c r="J374" s="7"/>
       <c r="K374" s="7"/>
       <c r="L374" s="7"/>
       <c r="M374" s="7"/>
       <c r="N374" s="7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="O374" s="7"/>
       <c r="P374" s="7"/>
@@ -56378,18 +57077,20 @@
       <c r="R374" s="7"/>
       <c r="S374" s="7"/>
       <c r="T374" s="7">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="375" spans="1:20">
       <c r="A375" s="12">
-        <v>41198</v>
+        <v>41175</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
-      <c r="F375" s="7"/>
+      <c r="F375" s="7">
+        <v>100</v>
+      </c>
       <c r="G375" s="7"/>
       <c r="H375" s="7"/>
       <c r="I375" s="7"/>
@@ -56397,42 +57098,40 @@
       <c r="K375" s="7"/>
       <c r="L375" s="7"/>
       <c r="M375" s="7"/>
-      <c r="N375" s="7">
-        <v>40</v>
-      </c>
+      <c r="N375" s="7"/>
       <c r="O375" s="7"/>
       <c r="P375" s="7"/>
       <c r="Q375" s="7"/>
       <c r="R375" s="7"/>
       <c r="S375" s="7"/>
       <c r="T375" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="376" spans="1:20">
       <c r="A376" s="12">
-        <v>41205</v>
-      </c>
-      <c r="B376" s="7"/>
+        <v>41197</v>
+      </c>
+      <c r="B376" s="7">
+        <v>10</v>
+      </c>
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
       <c r="F376" s="7"/>
-      <c r="G376" s="7"/>
+      <c r="G376" s="7">
+        <v>10</v>
+      </c>
       <c r="H376" s="7"/>
       <c r="I376" s="7"/>
       <c r="J376" s="7">
-        <v>162</v>
-      </c>
-      <c r="K376" s="7">
-        <v>100</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K376" s="7"/>
       <c r="L376" s="7"/>
-      <c r="M376" s="7">
-        <v>100</v>
-      </c>
+      <c r="M376" s="7"/>
       <c r="N376" s="7">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O376" s="7"/>
       <c r="P376" s="7"/>
@@ -56440,12 +57139,12 @@
       <c r="R376" s="7"/>
       <c r="S376" s="7"/>
       <c r="T376" s="7">
-        <v>432</v>
+        <v>90</v>
       </c>
     </row>
     <row r="377" spans="1:20">
       <c r="A377" s="12">
-        <v>41214</v>
+        <v>41198</v>
       </c>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -56455,25 +57154,25 @@
       <c r="G377" s="7"/>
       <c r="H377" s="7"/>
       <c r="I377" s="7"/>
-      <c r="J377" s="7">
-        <v>2</v>
-      </c>
+      <c r="J377" s="7"/>
       <c r="K377" s="7"/>
       <c r="L377" s="7"/>
       <c r="M377" s="7"/>
-      <c r="N377" s="7"/>
+      <c r="N377" s="7">
+        <v>40</v>
+      </c>
       <c r="O377" s="7"/>
       <c r="P377" s="7"/>
       <c r="Q377" s="7"/>
       <c r="R377" s="7"/>
       <c r="S377" s="7"/>
       <c r="T377" s="7">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="378" spans="1:20">
       <c r="A378" s="12">
-        <v>41215</v>
+        <v>41205</v>
       </c>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -56484,24 +57183,30 @@
       <c r="H378" s="7"/>
       <c r="I378" s="7"/>
       <c r="J378" s="7">
-        <v>4</v>
-      </c>
-      <c r="K378" s="7"/>
+        <v>162</v>
+      </c>
+      <c r="K378" s="7">
+        <v>100</v>
+      </c>
       <c r="L378" s="7"/>
-      <c r="M378" s="7"/>
-      <c r="N378" s="7"/>
+      <c r="M378" s="7">
+        <v>100</v>
+      </c>
+      <c r="N378" s="7">
+        <v>70</v>
+      </c>
       <c r="O378" s="7"/>
       <c r="P378" s="7"/>
       <c r="Q378" s="7"/>
       <c r="R378" s="7"/>
       <c r="S378" s="7"/>
       <c r="T378" s="7">
-        <v>4</v>
+        <v>432</v>
       </c>
     </row>
     <row r="379" spans="1:20">
       <c r="A379" s="12">
-        <v>41237</v>
+        <v>41214</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -56512,11 +57217,9 @@
       <c r="H379" s="7"/>
       <c r="I379" s="7"/>
       <c r="J379" s="7">
-        <v>100</v>
-      </c>
-      <c r="K379" s="7">
-        <v>100</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K379" s="7"/>
       <c r="L379" s="7"/>
       <c r="M379" s="7"/>
       <c r="N379" s="7"/>
@@ -56526,25 +57229,23 @@
       <c r="R379" s="7"/>
       <c r="S379" s="7"/>
       <c r="T379" s="7">
-        <v>200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:20">
       <c r="A380" s="12">
-        <v>41242</v>
+        <v>41215</v>
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
       <c r="F380" s="7"/>
-      <c r="G380" s="7">
-        <v>100</v>
-      </c>
+      <c r="G380" s="7"/>
       <c r="H380" s="7"/>
       <c r="I380" s="7"/>
       <c r="J380" s="7">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="K380" s="7"/>
       <c r="L380" s="7"/>
@@ -56556,12 +57257,12 @@
       <c r="R380" s="7"/>
       <c r="S380" s="7"/>
       <c r="T380" s="7">
-        <v>181</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381" spans="1:20">
       <c r="A381" s="12">
-        <v>41253</v>
+        <v>41237</v>
       </c>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -56572,9 +57273,11 @@
       <c r="H381" s="7"/>
       <c r="I381" s="7"/>
       <c r="J381" s="7">
-        <v>10</v>
-      </c>
-      <c r="K381" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="K381" s="7">
+        <v>100</v>
+      </c>
       <c r="L381" s="7"/>
       <c r="M381" s="7"/>
       <c r="N381" s="7"/>
@@ -56584,24 +57287,26 @@
       <c r="R381" s="7"/>
       <c r="S381" s="7"/>
       <c r="T381" s="7">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="382" spans="1:20">
       <c r="A382" s="12">
-        <v>41268</v>
+        <v>41242</v>
       </c>
       <c r="B382" s="7"/>
-      <c r="C382" s="7">
-        <v>24</v>
-      </c>
+      <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
-      <c r="G382" s="7"/>
+      <c r="G382" s="7">
+        <v>100</v>
+      </c>
       <c r="H382" s="7"/>
       <c r="I382" s="7"/>
-      <c r="J382" s="7"/>
+      <c r="J382" s="7">
+        <v>81</v>
+      </c>
       <c r="K382" s="7"/>
       <c r="L382" s="7"/>
       <c r="M382" s="7"/>
@@ -56612,24 +57317,24 @@
       <c r="R382" s="7"/>
       <c r="S382" s="7"/>
       <c r="T382" s="7">
-        <v>24</v>
+        <v>181</v>
       </c>
     </row>
     <row r="383" spans="1:20">
       <c r="A383" s="12">
-        <v>41281</v>
+        <v>41253</v>
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
-      <c r="G383" s="7">
-        <v>200</v>
-      </c>
+      <c r="G383" s="7"/>
       <c r="H383" s="7"/>
       <c r="I383" s="7"/>
-      <c r="J383" s="7"/>
+      <c r="J383" s="7">
+        <v>10</v>
+      </c>
       <c r="K383" s="7"/>
       <c r="L383" s="7"/>
       <c r="M383" s="7"/>
@@ -56640,26 +57345,24 @@
       <c r="R383" s="7"/>
       <c r="S383" s="7"/>
       <c r="T383" s="7">
-        <v>200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384" spans="1:20">
       <c r="A384" s="12">
-        <v>41310</v>
+        <v>41268</v>
       </c>
       <c r="B384" s="7"/>
-      <c r="C384" s="7"/>
+      <c r="C384" s="7">
+        <v>24</v>
+      </c>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
       <c r="G384" s="7"/>
       <c r="H384" s="7"/>
-      <c r="I384" s="7">
-        <v>22</v>
-      </c>
-      <c r="J384" s="7">
-        <v>31.9</v>
-      </c>
+      <c r="I384" s="7"/>
+      <c r="J384" s="7"/>
       <c r="K384" s="7"/>
       <c r="L384" s="7"/>
       <c r="M384" s="7"/>
@@ -56670,12 +57373,12 @@
       <c r="R384" s="7"/>
       <c r="S384" s="7"/>
       <c r="T384" s="7">
-        <v>53.9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="385" spans="1:20">
       <c r="A385" s="12">
-        <v>41323</v>
+        <v>41281</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -56683,7 +57386,7 @@
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
       <c r="G385" s="7">
-        <v>119.6</v>
+        <v>200</v>
       </c>
       <c r="H385" s="7"/>
       <c r="I385" s="7"/>
@@ -56698,24 +57401,26 @@
       <c r="R385" s="7"/>
       <c r="S385" s="7"/>
       <c r="T385" s="7">
-        <v>119.6</v>
+        <v>200</v>
       </c>
     </row>
     <row r="386" spans="1:20">
       <c r="A386" s="12">
-        <v>41331</v>
+        <v>41310</v>
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
-      <c r="G386" s="7">
-        <v>100</v>
-      </c>
+      <c r="G386" s="7"/>
       <c r="H386" s="7"/>
-      <c r="I386" s="7"/>
-      <c r="J386" s="7"/>
+      <c r="I386" s="7">
+        <v>22</v>
+      </c>
+      <c r="J386" s="7">
+        <v>31.9</v>
+      </c>
       <c r="K386" s="7"/>
       <c r="L386" s="7"/>
       <c r="M386" s="7"/>
@@ -56726,24 +57431,24 @@
       <c r="R386" s="7"/>
       <c r="S386" s="7"/>
       <c r="T386" s="7">
-        <v>100</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="387" spans="1:20">
       <c r="A387" s="12">
-        <v>41361</v>
+        <v>41323</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
-      <c r="G387" s="7"/>
+      <c r="G387" s="7">
+        <v>119.6</v>
+      </c>
       <c r="H387" s="7"/>
       <c r="I387" s="7"/>
-      <c r="J387" s="7">
-        <v>40</v>
-      </c>
+      <c r="J387" s="7"/>
       <c r="K387" s="7"/>
       <c r="L387" s="7"/>
       <c r="M387" s="7"/>
@@ -56754,23 +57459,23 @@
       <c r="R387" s="7"/>
       <c r="S387" s="7"/>
       <c r="T387" s="7">
-        <v>40</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="388" spans="1:20">
       <c r="A388" s="12">
-        <v>41373</v>
+        <v>41331</v>
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
       <c r="F388" s="7"/>
-      <c r="G388" s="7"/>
+      <c r="G388" s="7">
+        <v>100</v>
+      </c>
       <c r="H388" s="7"/>
-      <c r="I388" s="7">
-        <v>91</v>
-      </c>
+      <c r="I388" s="7"/>
       <c r="J388" s="7"/>
       <c r="K388" s="7"/>
       <c r="L388" s="7"/>
@@ -56782,12 +57487,12 @@
       <c r="R388" s="7"/>
       <c r="S388" s="7"/>
       <c r="T388" s="7">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="389" spans="1:20">
       <c r="A389" s="12">
-        <v>41374</v>
+        <v>41361</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -56797,57 +57502,53 @@
       <c r="G389" s="7"/>
       <c r="H389" s="7"/>
       <c r="I389" s="7"/>
-      <c r="J389" s="7"/>
+      <c r="J389" s="7">
+        <v>40</v>
+      </c>
       <c r="K389" s="7"/>
       <c r="L389" s="7"/>
       <c r="M389" s="7"/>
-      <c r="N389" s="7">
-        <v>75</v>
-      </c>
+      <c r="N389" s="7"/>
       <c r="O389" s="7"/>
       <c r="P389" s="7"/>
       <c r="Q389" s="7"/>
       <c r="R389" s="7"/>
       <c r="S389" s="7"/>
       <c r="T389" s="7">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="390" spans="1:20">
       <c r="A390" s="12">
-        <v>41376</v>
+        <v>41373</v>
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
-      <c r="G390" s="7">
-        <v>97</v>
-      </c>
+      <c r="G390" s="7"/>
       <c r="H390" s="7"/>
-      <c r="I390" s="7"/>
+      <c r="I390" s="7">
+        <v>91</v>
+      </c>
       <c r="J390" s="7"/>
       <c r="K390" s="7"/>
       <c r="L390" s="7"/>
       <c r="M390" s="7"/>
       <c r="N390" s="7"/>
-      <c r="O390" s="7">
-        <v>50</v>
-      </c>
-      <c r="P390" s="7">
-        <v>100</v>
-      </c>
+      <c r="O390" s="7"/>
+      <c r="P390" s="7"/>
       <c r="Q390" s="7"/>
       <c r="R390" s="7"/>
       <c r="S390" s="7"/>
       <c r="T390" s="7">
-        <v>247</v>
+        <v>91</v>
       </c>
     </row>
     <row r="391" spans="1:20">
       <c r="A391" s="12">
-        <v>41382</v>
+        <v>41374</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -56860,29 +57561,31 @@
       <c r="J391" s="7"/>
       <c r="K391" s="7"/>
       <c r="L391" s="7"/>
-      <c r="M391" s="7">
-        <v>100</v>
-      </c>
-      <c r="N391" s="7"/>
+      <c r="M391" s="7"/>
+      <c r="N391" s="7">
+        <v>75</v>
+      </c>
       <c r="O391" s="7"/>
       <c r="P391" s="7"/>
       <c r="Q391" s="7"/>
       <c r="R391" s="7"/>
       <c r="S391" s="7"/>
       <c r="T391" s="7">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="392" spans="1:20">
       <c r="A392" s="12">
-        <v>41383</v>
+        <v>41376</v>
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
       <c r="F392" s="7"/>
-      <c r="G392" s="7"/>
+      <c r="G392" s="7">
+        <v>97</v>
+      </c>
       <c r="H392" s="7"/>
       <c r="I392" s="7"/>
       <c r="J392" s="7"/>
@@ -56891,19 +57594,21 @@
       <c r="M392" s="7"/>
       <c r="N392" s="7"/>
       <c r="O392" s="7">
+        <v>50</v>
+      </c>
+      <c r="P392" s="7">
         <v>100</v>
       </c>
-      <c r="P392" s="7"/>
       <c r="Q392" s="7"/>
       <c r="R392" s="7"/>
       <c r="S392" s="7"/>
       <c r="T392" s="7">
-        <v>100</v>
+        <v>247</v>
       </c>
     </row>
     <row r="393" spans="1:20">
       <c r="A393" s="12">
-        <v>41386</v>
+        <v>41382</v>
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -56916,22 +57621,22 @@
       <c r="J393" s="7"/>
       <c r="K393" s="7"/>
       <c r="L393" s="7"/>
-      <c r="M393" s="7"/>
-      <c r="N393" s="7">
-        <v>40</v>
-      </c>
+      <c r="M393" s="7">
+        <v>100</v>
+      </c>
+      <c r="N393" s="7"/>
       <c r="O393" s="7"/>
       <c r="P393" s="7"/>
       <c r="Q393" s="7"/>
       <c r="R393" s="7"/>
       <c r="S393" s="7"/>
       <c r="T393" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="394" spans="1:20">
       <c r="A394" s="12">
-        <v>41387</v>
+        <v>41383</v>
       </c>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -56945,40 +57650,36 @@
       <c r="K394" s